--- a/data/cases-de.xlsx
+++ b/data/cases-de.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/torben/Dropbox/Hacken-COVID-19-Coronavirus/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/torben/Hacken/GitHub/COVID-19-Coronavirus-German-Regions/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C377D0E-10A9-1D4A-ACE5-3617F5048B8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1D0255-99E7-A246-8A31-034F6BA00633}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14460" activeTab="4" xr2:uid="{309167EE-B9E7-9F44-B3F3-07C1908B9528}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14460" xr2:uid="{309167EE-B9E7-9F44-B3F3-07C1908B9528}"/>
   </bookViews>
   <sheets>
     <sheet name="Links" sheetId="10" r:id="rId1"/>
@@ -20,21 +20,9 @@
     <sheet name="Cases" sheetId="8" r:id="rId5"/>
     <sheet name="Cases Change" sheetId="11" r:id="rId6"/>
     <sheet name="Death" sheetId="5" r:id="rId7"/>
-    <sheet name="Chart-V1" sheetId="3" r:id="rId8"/>
+    <sheet name="RefPopulation" sheetId="12" r:id="rId8"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Chart-V1'!$10:$10</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Chart-V1'!$21:$21</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Chart-V1'!$3:$3</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Chart-V1'!$A$10</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Chart-V1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Chart-V1'!$10:$10</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Chart-V1'!$21:$21</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Chart-V1'!$3:$3</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Chart-V1'!$A$10</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Chart-V1'!$A$3</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -50,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="66">
   <si>
     <t>Baden-Württemberg</t>
   </si>
@@ -115,9 +103,6 @@
     <t>besondere Gebiete</t>
   </si>
   <si>
-    <t>* Repatriierte</t>
-  </si>
-  <si>
     <t>Datum</t>
   </si>
   <si>
@@ -139,13 +124,7 @@
     <t>https://web.archive.org/</t>
   </si>
   <si>
-    <t>Sehr interessante Auswertungen</t>
-  </si>
-  <si>
     <t>https://medium.com/@tomaspueyo/coronavirus-act-today-or-people-will-die-f4d3d9cd99ca</t>
-  </si>
-  <si>
-    <t>Weltweite Daten im GitHub</t>
   </si>
   <si>
     <t>https://github.com/CSSEGISandData/COVID-19/blob/master/csse_covid_19_data/csse_covid_19_time_series/time_series_19-covid-Confirmed.csv</t>
@@ -238,15 +217,42 @@
   <si>
     <t>Type</t>
   </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>https://www.destatis.de/DE/Presse/Pressemitteilungen/2019/06/PD19_244_12411.html</t>
+  </si>
+  <si>
+    <t>Deutschland</t>
+  </si>
+  <si>
+    <t>Früheres Bundesgebiet (ohne Berlin-West)</t>
+  </si>
+  <si>
+    <t>Neue Länder (ohne Berlin-Ost)</t>
+  </si>
+  <si>
+    <t>inspiration for further evaluations</t>
+  </si>
+  <si>
+    <t>worldwide daten in GitHub</t>
+  </si>
+  <si>
+    <t>This data at GitHub</t>
+  </si>
+  <si>
+    <t>https://github.com/entorb/COVID-19-Coronavirus-German-Regions</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -449,10 +455,6 @@
   <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
@@ -503,7 +505,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -574,7 +576,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -597,7 +599,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -616,6 +618,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -623,35 +627,6 @@
     <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="50">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="27" formatCode="dd/mm/yy\ hh:mm"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1284,10 +1259,40 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="27" formatCode="dd/mm/yy\ hh:mm"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1325,65 +1330,14 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="27" formatCode="dd/mm/yy\ hh:mm"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1417,14 +1371,61 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="27" formatCode="dd/mm/yy\ hh:mm"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1467,48 +1468,7 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2074,6 +2034,50 @@
         </top>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3317,579 +3321,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>COVID-19</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> Fälle</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Chart-V1'!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Bayern</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:strRef>
-              <c:f>'Chart-V1'!$21:$21</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>Datum</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>28.02.20 10:00</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>29.02.20 10:00</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>01.03.20 15:00</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>02.03.20 15:00</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>03.03.20 15:00</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>04.03.20 15:00</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>05.03.20 15:00</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>07.03.20 08:00</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>07.03.20 15:00</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>08.03.20 15:00</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>09.03.20 15:00</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10.03.20 15:00</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Chart-V1'!$3:$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16384"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>172</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>314</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-51A2-174B-84E5-EAAABB9102DA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Chart-V1'!$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Niedersachsen</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:strRef>
-              <c:f>'Chart-V1'!$21:$21</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>Datum</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>28.02.20 10:00</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>29.02.20 10:00</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>01.03.20 15:00</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>02.03.20 15:00</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>03.03.20 15:00</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>04.03.20 15:00</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>05.03.20 15:00</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>07.03.20 08:00</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>07.03.20 15:00</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>08.03.20 15:00</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>09.03.20 15:00</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10.03.20 15:00</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Chart-V1'!$10:$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16384"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>49</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-51A2-174B-84E5-EAAABB9102DA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="477804320"/>
-        <c:axId val="477163872"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="477804320"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="477163872"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="477163872"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="477804320"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3930,563 +3361,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5045,78 +3920,37 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>806450</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{293174F4-6EEE-9B4E-87CD-5A583225F211}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AA0B1023-8C4D-8145-A1A0-49CB122C06A4}" name="Table2" displayName="Table2" ref="A1:T27" totalsRowShown="0" headerRowDxfId="28" dataDxfId="29" tableBorderDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AA0B1023-8C4D-8145-A1A0-49CB122C06A4}" name="Table2" displayName="Table2" ref="A1:T27" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48" tableBorderDxfId="47">
   <autoFilter ref="A1:T27" xr:uid="{1DA4B026-4C97-DF45-BDEF-EE080E06CCC8}"/>
   <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{7B77E861-ABD7-CC46-BE1B-62FFA855918A}" name="Num"/>
-    <tableColumn id="2" xr3:uid="{A9D891F0-4885-A946-9DA9-30886E848D1C}" name="Datum" dataDxfId="48"/>
-    <tableColumn id="3" xr3:uid="{6B048EE4-8426-2545-A3EF-71248E0D2493}" name="Typ" dataDxfId="47"/>
-    <tableColumn id="4" xr3:uid="{463A535E-E8DD-D048-8D23-5C03A237BD27}" name="Baden-Württemberg" dataDxfId="46"/>
-    <tableColumn id="5" xr3:uid="{C73439B1-ADFE-484D-9DAB-78AB3242649E}" name="Bayern" dataDxfId="45"/>
-    <tableColumn id="6" xr3:uid="{CDCD7B4C-FA1B-5D4B-84EC-1B93C9F2211E}" name="Berlin" dataDxfId="44"/>
-    <tableColumn id="7" xr3:uid="{4B381B0C-9038-7A45-87CA-C74BBBC89932}" name="Brandenburg" dataDxfId="43"/>
-    <tableColumn id="8" xr3:uid="{3367C2BC-28BE-3341-AE87-CDED4BFCEA07}" name="Bremen" dataDxfId="42"/>
-    <tableColumn id="9" xr3:uid="{2369A6E0-C0F1-C44F-8B78-5DB57E9AF79D}" name="Hamburg" dataDxfId="41"/>
-    <tableColumn id="10" xr3:uid="{884AB352-4A81-8D49-AA12-B8EAF3C487E0}" name="Hessen" dataDxfId="40"/>
-    <tableColumn id="11" xr3:uid="{AE5E62A0-1F89-2E45-8E7B-70BF95720068}" name="Mecklenburg-Vorpommern" dataDxfId="39"/>
-    <tableColumn id="12" xr3:uid="{8D805E80-59CE-8347-98B4-6475F75C5C51}" name="Niedersachsen" dataDxfId="38"/>
-    <tableColumn id="13" xr3:uid="{BC5F0195-1635-C145-8EDE-A5C46EA4D710}" name="Nordrhein-Westfalen" dataDxfId="37"/>
-    <tableColumn id="14" xr3:uid="{4BEE7460-1D9B-C945-80A2-92C7F08C0F01}" name="Rheinland-Pfalz" dataDxfId="36"/>
-    <tableColumn id="15" xr3:uid="{D7B5CC10-CE40-3D47-926F-900D84B7F92A}" name="Saarland" dataDxfId="35"/>
-    <tableColumn id="16" xr3:uid="{EB9CA25E-2271-3D42-8A65-F7C41B54CEA5}" name="Sachsen" dataDxfId="34"/>
-    <tableColumn id="17" xr3:uid="{4598E0DF-B360-1440-8958-D3461FAD3F74}" name="Sachsen-Anhalt" dataDxfId="33"/>
-    <tableColumn id="18" xr3:uid="{8B6E9527-F2CB-894B-B3E4-125132A86A5D}" name="Schleswig-Holstein" dataDxfId="32"/>
-    <tableColumn id="19" xr3:uid="{7D2272BD-A08B-574E-81AE-65E0FB33A9ED}" name="Thüringen" dataDxfId="31"/>
-    <tableColumn id="21" xr3:uid="{765949F0-761D-D24F-A85E-B329DA6357CA}" name="Gesamt" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{A9D891F0-4885-A946-9DA9-30886E848D1C}" name="Datum" dataDxfId="46"/>
+    <tableColumn id="3" xr3:uid="{6B048EE4-8426-2545-A3EF-71248E0D2493}" name="Typ" dataDxfId="45"/>
+    <tableColumn id="4" xr3:uid="{463A535E-E8DD-D048-8D23-5C03A237BD27}" name="Baden-Württemberg" dataDxfId="44"/>
+    <tableColumn id="5" xr3:uid="{C73439B1-ADFE-484D-9DAB-78AB3242649E}" name="Bayern" dataDxfId="43"/>
+    <tableColumn id="6" xr3:uid="{CDCD7B4C-FA1B-5D4B-84EC-1B93C9F2211E}" name="Berlin" dataDxfId="42"/>
+    <tableColumn id="7" xr3:uid="{4B381B0C-9038-7A45-87CA-C74BBBC89932}" name="Brandenburg" dataDxfId="41"/>
+    <tableColumn id="8" xr3:uid="{3367C2BC-28BE-3341-AE87-CDED4BFCEA07}" name="Bremen" dataDxfId="40"/>
+    <tableColumn id="9" xr3:uid="{2369A6E0-C0F1-C44F-8B78-5DB57E9AF79D}" name="Hamburg" dataDxfId="39"/>
+    <tableColumn id="10" xr3:uid="{884AB352-4A81-8D49-AA12-B8EAF3C487E0}" name="Hessen" dataDxfId="38"/>
+    <tableColumn id="11" xr3:uid="{AE5E62A0-1F89-2E45-8E7B-70BF95720068}" name="Mecklenburg-Vorpommern" dataDxfId="37"/>
+    <tableColumn id="12" xr3:uid="{8D805E80-59CE-8347-98B4-6475F75C5C51}" name="Niedersachsen" dataDxfId="36"/>
+    <tableColumn id="13" xr3:uid="{BC5F0195-1635-C145-8EDE-A5C46EA4D710}" name="Nordrhein-Westfalen" dataDxfId="35"/>
+    <tableColumn id="14" xr3:uid="{4BEE7460-1D9B-C945-80A2-92C7F08C0F01}" name="Rheinland-Pfalz" dataDxfId="34"/>
+    <tableColumn id="15" xr3:uid="{D7B5CC10-CE40-3D47-926F-900D84B7F92A}" name="Saarland" dataDxfId="33"/>
+    <tableColumn id="16" xr3:uid="{EB9CA25E-2271-3D42-8A65-F7C41B54CEA5}" name="Sachsen" dataDxfId="32"/>
+    <tableColumn id="17" xr3:uid="{4598E0DF-B360-1440-8958-D3461FAD3F74}" name="Sachsen-Anhalt" dataDxfId="31"/>
+    <tableColumn id="18" xr3:uid="{8B6E9527-F2CB-894B-B3E4-125132A86A5D}" name="Schleswig-Holstein" dataDxfId="30"/>
+    <tableColumn id="19" xr3:uid="{7D2272BD-A08B-574E-81AE-65E0FB33A9ED}" name="Thüringen" dataDxfId="29"/>
+    <tableColumn id="21" xr3:uid="{765949F0-761D-D24F-A85E-B329DA6357CA}" name="Gesamt" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BC3E90BD-768C-894C-8066-F63C881D4ADC}" name="Table5" displayName="Table5" ref="A1:W15" totalsRowShown="0" headerRowDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BC3E90BD-768C-894C-8066-F63C881D4ADC}" name="Table5" displayName="Table5" ref="A1:W15" totalsRowShown="0" headerRowDxfId="27">
   <autoFilter ref="A1:W15" xr:uid="{6D4C76C7-14AA-DE49-9FD4-833E447F2FCD}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -5144,8 +3978,8 @@
   </autoFilter>
   <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{DFAB118E-A946-0146-85D1-FEC9DB7A54DB}" name="#"/>
-    <tableColumn id="2" xr3:uid="{7862783A-26AD-6144-8E4F-7DF624F1CEF7}" name="Date" dataDxfId="27"/>
-    <tableColumn id="43" xr3:uid="{F84758D7-1AC4-B146-AFFB-CD4F577D02F4}" name="Type" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{7862783A-26AD-6144-8E4F-7DF624F1CEF7}" name="Date" dataDxfId="26"/>
+    <tableColumn id="43" xr3:uid="{F84758D7-1AC4-B146-AFFB-CD4F577D02F4}" name="Type" dataDxfId="25"/>
     <tableColumn id="4" xr3:uid="{43B6A399-F36C-6047-9E96-578E372A058B}" name="Baden-_x000a_Württemberg"/>
     <tableColumn id="5" xr3:uid="{580A352D-B4BB-8441-B739-8AFA1B5CB9BA}" name="Bayern"/>
     <tableColumn id="6" xr3:uid="{684FD89D-0B27-F841-B632-2CFD5BC231AC}" name="Berlin"/>
@@ -5163,7 +3997,7 @@
     <tableColumn id="18" xr3:uid="{32E1BDAD-8FF4-A948-A678-3A7C7BAA73DF}" name="Schleswig-_x000a_Holstein"/>
     <tableColumn id="19" xr3:uid="{EF74120E-C4F2-C545-B056-A59EEF12E00E}" name="Thüringen"/>
     <tableColumn id="21" xr3:uid="{FF602C9D-05D0-E246-81AB-1676E61777BC}" name="DE Total"/>
-    <tableColumn id="42" xr3:uid="{1C774CC4-9E60-FC4A-945C-79AC482211CE}" name="Delta" dataDxfId="1">
+    <tableColumn id="42" xr3:uid="{1C774CC4-9E60-FC4A-945C-79AC482211CE}" name="Delta" dataDxfId="24">
       <calculatedColumnFormula>IF(ISNUMBER(T1),T2-T1,"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="22" xr3:uid="{08AED83D-6D60-7848-A8C4-A04BA0C871FA}" name="Delta (%)" dataCellStyle="Per cent">
@@ -5171,7 +4005,7 @@
 ((T2-T1)/T1)/(B2-B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{E2775D3F-09CC-B848-A2AC-CD974913568E}" name="Doubling_x000a_Time" dataDxfId="20">
+    <tableColumn id="23" xr3:uid="{E2775D3F-09CC-B848-A2AC-CD974913568E}" name="Doubling_x000a_Time" dataDxfId="23">
       <calculatedColumnFormula>IF(ISNUMBER(V2),
 1/Cases!$V2,
 "")</calculatedColumnFormula>
@@ -5182,7 +4016,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{2B4CB1FE-2F78-654B-9A83-851BD72419FA}" name="Table7" displayName="Table7" ref="A1:S15" totalsRowShown="0" headerRowDxfId="23" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{2B4CB1FE-2F78-654B-9A83-851BD72419FA}" name="Table7" displayName="Table7" ref="A1:S15" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19">
   <autoFilter ref="A1:S15" xr:uid="{5EC7B395-6250-0C4B-BF9E-DB8BEACEA0C0}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -5205,93 +4039,93 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{E6C8C471-F764-504D-8B4A-7552654EBAEC}" name="#" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{E6C8C471-F764-504D-8B4A-7552654EBAEC}" name="#" dataDxfId="18">
       <calculatedColumnFormula>Table5[[#This Row],['#]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{F08A6D07-D47C-0B4B-BF63-BCF903E95EB5}" name="Date" dataDxfId="22">
+    <tableColumn id="2" xr3:uid="{F08A6D07-D47C-0B4B-BF63-BCF903E95EB5}" name="Date" dataDxfId="17">
       <calculatedColumnFormula>Table5[[#This Row],[Date]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B6051F7E-D460-9A42-9D63-3975F8A75ACA}" name="Baden-_x000a_Württemberg" dataDxfId="18">
+    <tableColumn id="3" xr3:uid="{B6051F7E-D460-9A42-9D63-3975F8A75ACA}" name="Baden-_x000a_Württemberg" dataDxfId="16">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!D1),Cases!D1&gt;10),
 ((Cases!D2-Cases!D1)/Cases!D1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{10A737B8-2568-5841-8D5F-D47C446EE26C}" name="Bayern" dataDxfId="17">
+    <tableColumn id="4" xr3:uid="{10A737B8-2568-5841-8D5F-D47C446EE26C}" name="Bayern" dataDxfId="15">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!E1),Cases!E1&gt;10),
 ((Cases!E2-Cases!E1)/Cases!E1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{BCD2105D-8D71-454C-A02E-6424E3BA36AA}" name="Berlin" dataDxfId="16">
+    <tableColumn id="5" xr3:uid="{BCD2105D-8D71-454C-A02E-6424E3BA36AA}" name="Berlin" dataDxfId="14">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!F1),Cases!F1&gt;10),
 ((Cases!F2-Cases!F1)/Cases!F1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{53C79366-40AF-DC47-8F16-1C907EA8A25D}" name="Brandenburg" dataDxfId="15">
+    <tableColumn id="6" xr3:uid="{53C79366-40AF-DC47-8F16-1C907EA8A25D}" name="Brandenburg" dataDxfId="13">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!G1),Cases!G1&gt;10),
 ((Cases!G2-Cases!G1)/Cases!G1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{4AFFEB9A-9EF4-B04F-99AF-1421CC3F79F1}" name="Bremen" dataDxfId="14">
+    <tableColumn id="7" xr3:uid="{4AFFEB9A-9EF4-B04F-99AF-1421CC3F79F1}" name="Bremen" dataDxfId="12">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!H1),Cases!H1&gt;10),
 ((Cases!H2-Cases!H1)/Cases!H1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{C2100E3B-69C7-1749-9A4D-28C483AE2AD3}" name="Hamburg" dataDxfId="13">
+    <tableColumn id="8" xr3:uid="{C2100E3B-69C7-1749-9A4D-28C483AE2AD3}" name="Hamburg" dataDxfId="11">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!I1),Cases!I1&gt;10),
 ((Cases!I2-Cases!I1)/Cases!I1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{F062E681-CDB1-C140-B909-EA794C5F18A9}" name="Hessen" dataDxfId="12">
+    <tableColumn id="9" xr3:uid="{F062E681-CDB1-C140-B909-EA794C5F18A9}" name="Hessen" dataDxfId="10">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!J1),Cases!J1&gt;10),
 ((Cases!J2-Cases!J1)/Cases!J1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{E031E4B1-3E62-C345-B766-887BCDAAC02D}" name="Mecklenburg-_x000a_Vorpommern" dataDxfId="11">
+    <tableColumn id="10" xr3:uid="{E031E4B1-3E62-C345-B766-887BCDAAC02D}" name="Mecklenburg-_x000a_Vorpommern" dataDxfId="9">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!K1),Cases!K1&gt;10),
 ((Cases!K2-Cases!K1)/Cases!K1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{06616FA7-B824-034F-8561-0575963B7953}" name="Niedersachsen" dataDxfId="10">
+    <tableColumn id="11" xr3:uid="{06616FA7-B824-034F-8561-0575963B7953}" name="Niedersachsen" dataDxfId="8">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!L1),Cases!L1&gt;10),
 ((Cases!L2-Cases!L1)/Cases!L1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{A7D554C7-337E-5A4F-B3A4-DD9485FF1D61}" name="Nordrhein-_x000a_Westfalen" dataDxfId="9">
+    <tableColumn id="12" xr3:uid="{A7D554C7-337E-5A4F-B3A4-DD9485FF1D61}" name="Nordrhein-_x000a_Westfalen" dataDxfId="7">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!M1),Cases!M1&gt;10),
 ((Cases!M2-Cases!M1)/Cases!M1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{E7F4E0DB-41C5-F74B-B13C-082338064391}" name="Rheinland-_x000a_Pfalz" dataDxfId="8">
+    <tableColumn id="13" xr3:uid="{E7F4E0DB-41C5-F74B-B13C-082338064391}" name="Rheinland-_x000a_Pfalz" dataDxfId="6">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!N1),Cases!N1&gt;10),
 ((Cases!N2-Cases!N1)/Cases!N1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{F452CCA8-390B-D443-BCA6-EFE7E79127AA}" name="Saarland" dataDxfId="7">
+    <tableColumn id="14" xr3:uid="{F452CCA8-390B-D443-BCA6-EFE7E79127AA}" name="Saarland" dataDxfId="5">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!O1),Cases!O1&gt;10),
 ((Cases!O2-Cases!O1)/Cases!O1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{2BC6A12D-DFD6-A54D-9B25-30C67E2CACC1}" name="Sachsen" dataDxfId="6">
+    <tableColumn id="15" xr3:uid="{2BC6A12D-DFD6-A54D-9B25-30C67E2CACC1}" name="Sachsen" dataDxfId="4">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!P1),Cases!P1&gt;10),
 ((Cases!P2-Cases!P1)/Cases!P1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{F3454210-7502-7B43-87ED-828963C0BA58}" name="Sachsen-_x000a_Anhalt" dataDxfId="5">
+    <tableColumn id="16" xr3:uid="{F3454210-7502-7B43-87ED-828963C0BA58}" name="Sachsen-_x000a_Anhalt" dataDxfId="3">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!Q1),Cases!Q1&gt;10),
 ((Cases!Q2-Cases!Q1)/Cases!Q1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{3488A903-5F9F-FF4F-B253-A2C6BDED0D5C}" name="Schleswig-_x000a_Holstein" dataDxfId="4">
+    <tableColumn id="17" xr3:uid="{3488A903-5F9F-FF4F-B253-A2C6BDED0D5C}" name="Schleswig-_x000a_Holstein" dataDxfId="2">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!R1),Cases!R1&gt;10),
 ((Cases!R2-Cases!R1)/Cases!R1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{EBA9256A-1C44-B641-A90D-2900B16B2794}" name="Thüringen" dataDxfId="3">
+    <tableColumn id="18" xr3:uid="{EBA9256A-1C44-B641-A90D-2900B16B2794}" name="Thüringen" dataDxfId="1">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!S1),Cases!S1&gt;10),
 ((Cases!S2-Cases!S1)/Cases!S1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{8590B984-B71C-8D4E-AB2B-CC37C841189C}" name="DE Total" dataDxfId="2">
+    <tableColumn id="20" xr3:uid="{8590B984-B71C-8D4E-AB2B-CC37C841189C}" name="DE Total" dataDxfId="0">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!T1),Cases!T1&gt;10),
 ((Cases!T2-Cases!T1)/Cases!T1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
@@ -5598,57 +4432,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05B1DF0-9508-684D-9C94-CA87D158EEEF}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" style="46" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="125.33203125" style="46" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="46"/>
+    <col min="1" max="1" width="29.1640625" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="125.33203125" style="44" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="72" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="47" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="B4" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="47" t="s">
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="45" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="46" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="45" t="s">
         <v>29</v>
-      </c>
-      <c r="B4" s="47" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{541E3C83-1843-0949-9A96-4F2146785AFB}"/>
-    <hyperlink ref="B1" r:id="rId2" xr:uid="{1365E1C3-813C-EB43-8D9F-EF889C7962C7}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{DC86DCB7-13BE-2B41-ACC8-0D0ACA5B3FBF}"/>
-    <hyperlink ref="B6" r:id="rId4" xr:uid="{E348AE69-C883-9C4D-832D-519F5E95C019}"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{541E3C83-1843-0949-9A96-4F2146785AFB}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{1365E1C3-813C-EB43-8D9F-EF889C7962C7}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{DC86DCB7-13BE-2B41-ACC8-0D0ACA5B3FBF}"/>
+    <hyperlink ref="B8" r:id="rId4" xr:uid="{E348AE69-C883-9C4D-832D-519F5E95C019}"/>
+    <hyperlink ref="B1" r:id="rId5" xr:uid="{AA618AF1-FCBF-F349-8A0E-793173DA47B5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5656,234 +4499,232 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA00A9F-6A15-E440-8C87-85055F8A0710}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B1" s="6">
+    <row r="1" spans="1:6">
+      <c r="A1" s="4">
         <v>43902.625</v>
       </c>
-      <c r="C1" s="51"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
+      <c r="B1" s="49"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C3" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="1" t="s">
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4">
+      <c r="C4">
         <v>317</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
         <v>2</v>
+      </c>
+      <c r="B5">
+        <v>137</v>
       </c>
       <c r="C5">
         <v>137</v>
       </c>
-      <c r="D5">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
+      <c r="B6">
+        <v>30</v>
+      </c>
       <c r="C6">
-        <v>30</v>
-      </c>
-      <c r="D6">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
+      <c r="B7">
+        <v>38</v>
+      </c>
       <c r="C7">
-        <v>38</v>
-      </c>
-      <c r="D7">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
+      <c r="B8">
+        <v>88</v>
+      </c>
       <c r="C8">
-        <v>88</v>
-      </c>
-      <c r="D8">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
+      <c r="B9">
+        <v>99</v>
+      </c>
       <c r="C9">
-        <v>99</v>
-      </c>
-      <c r="D9">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
+      <c r="B10">
+        <v>23</v>
+      </c>
       <c r="C10">
-        <v>23</v>
-      </c>
-      <c r="D10">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
+      <c r="B11">
+        <v>129</v>
+      </c>
       <c r="C11">
-        <v>129</v>
-      </c>
-      <c r="D11">
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12">
+        <v>51</v>
+      </c>
+      <c r="D12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
         <v>10</v>
+      </c>
+      <c r="B13">
+        <v>52</v>
       </c>
       <c r="C13">
         <v>52</v>
       </c>
-      <c r="D13">
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>45</v>
+      </c>
+      <c r="C15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>27</v>
+      </c>
+      <c r="C16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>31</v>
+      </c>
+      <c r="C17">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14">
-        <v>14</v>
-      </c>
-      <c r="D14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15">
-        <v>45</v>
-      </c>
-      <c r="D15">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16">
-        <v>27</v>
-      </c>
-      <c r="D16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17">
-        <v>31</v>
-      </c>
-      <c r="D17">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18">
-        <v>14</v>
-      </c>
-      <c r="D18">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="C19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="E19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5895,1064 +4736,1064 @@
   <dimension ref="A1:AA44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="X1" sqref="X1:AA19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="27.83203125" style="5" customWidth="1"/>
-    <col min="2" max="9" width="13.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="3.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="3.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="13.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="10.83203125" style="5"/>
+    <col min="1" max="1" width="27.83203125" style="3" customWidth="1"/>
+    <col min="2" max="9" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="3.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="3.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="6">
+    <row r="1" spans="1:27">
+      <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="4">
         <v>43889.416666666664</v>
       </c>
-      <c r="C1" s="6">
+      <c r="C1" s="4">
         <v>43890.416666666664</v>
       </c>
-      <c r="D1" s="6">
+      <c r="D1" s="4">
         <v>43891.625</v>
       </c>
-      <c r="E1" s="6">
+      <c r="E1" s="4">
         <v>43892.625</v>
       </c>
-      <c r="F1" s="6">
+      <c r="F1" s="4">
         <v>43893.625</v>
       </c>
-      <c r="G1" s="6">
+      <c r="G1" s="4">
         <v>43894.625</v>
       </c>
-      <c r="H1" s="6">
+      <c r="H1" s="4">
         <v>43895.625</v>
       </c>
-      <c r="I1" s="6">
+      <c r="I1" s="4">
         <v>43896.625</v>
       </c>
-      <c r="K1" s="6">
+      <c r="K1" s="4">
         <v>43897.625</v>
       </c>
-      <c r="M1" s="6">
+      <c r="M1" s="4">
         <v>43898.625</v>
       </c>
-      <c r="O1" s="6">
+      <c r="O1" s="4">
         <v>43899.625</v>
       </c>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6">
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4">
         <v>43900.625</v>
       </c>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6">
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4">
         <v>43901.625</v>
       </c>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6">
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4">
         <v>43902.625</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="4" customFormat="1" ht="134" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:27" s="2" customFormat="1" ht="134">
+      <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="V2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="W2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="X2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Y2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Z2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA2" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="Z2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>10</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>14</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>15</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>20</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="3">
         <v>28</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="3">
         <v>50</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="3">
         <v>73</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="3">
         <v>96</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="3">
         <v>170</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="3">
         <v>182</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="3">
         <v>204</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3" s="3">
         <v>0</v>
       </c>
-      <c r="R3" s="5">
+      <c r="R3" s="3">
         <v>237</v>
       </c>
-      <c r="S3" s="5">
+      <c r="S3" s="3">
         <v>0</v>
       </c>
-      <c r="U3" s="5">
+      <c r="U3" s="3">
         <v>277</v>
       </c>
-      <c r="X3" s="5">
+      <c r="X3" s="3">
         <v>454</v>
       </c>
-      <c r="Y3" s="5">
+      <c r="Y3" s="3">
         <v>1</v>
       </c>
       <c r="Z3">
         <v>331</v>
       </c>
-      <c r="AA3" s="5">
+      <c r="AA3" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:27">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>15</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>15</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>23</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>26</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <v>37</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="3">
         <v>48</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="3">
         <v>70</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="3">
         <v>117</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="3">
         <v>134</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="3">
         <v>172</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="3">
         <v>256</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P4" s="3">
         <v>0</v>
       </c>
-      <c r="R4" s="5">
+      <c r="R4" s="3">
         <v>314</v>
       </c>
-      <c r="S4" s="5">
+      <c r="S4" s="3">
         <v>0</v>
       </c>
-      <c r="U4" s="5">
+      <c r="U4" s="3">
         <v>366</v>
       </c>
-      <c r="X4" s="5">
+      <c r="X4" s="3">
         <v>500</v>
       </c>
-      <c r="Y4" s="5">
+      <c r="Y4" s="3">
         <v>1</v>
       </c>
       <c r="Z4">
         <v>317</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:27">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="3">
         <v>1</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="3">
         <v>3</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="3">
         <v>7</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="3">
         <v>13</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="3">
         <v>19</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="3">
         <v>28</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="3">
         <v>40</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="3">
         <v>48</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5" s="3">
         <v>0</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R5" s="3">
         <v>48</v>
       </c>
-      <c r="S5" s="5">
+      <c r="S5" s="3">
         <v>0</v>
       </c>
-      <c r="U5" s="5">
+      <c r="U5" s="3">
         <v>90</v>
       </c>
-      <c r="X5" s="5">
+      <c r="X5" s="3">
         <v>137</v>
       </c>
       <c r="Z5">
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:27">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="3">
         <v>1</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="3">
         <v>1</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="3">
         <v>1</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="3">
         <v>2</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="3">
         <v>2</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="3">
         <v>4</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="3">
         <v>6</v>
       </c>
-      <c r="P6" s="5">
+      <c r="P6" s="3">
         <v>0</v>
       </c>
-      <c r="R6" s="5">
+      <c r="R6" s="3">
         <v>9</v>
       </c>
-      <c r="S6" s="5">
+      <c r="S6" s="3">
         <v>0</v>
       </c>
-      <c r="U6" s="5">
+      <c r="U6" s="3">
         <v>24</v>
       </c>
-      <c r="X6" s="5">
+      <c r="X6" s="3">
         <v>30</v>
       </c>
       <c r="Z6">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:27">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>1</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
         <v>1</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="3">
         <v>2</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="3">
         <v>3</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="3">
         <v>3</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="3">
         <v>4</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="3">
         <v>4</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="3">
         <v>4</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="3">
         <v>4</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="3">
         <v>0</v>
       </c>
-      <c r="R7" s="5">
+      <c r="R7" s="3">
         <v>4</v>
       </c>
-      <c r="S7" s="5">
+      <c r="S7" s="3">
         <v>0</v>
       </c>
-      <c r="U7" s="5">
+      <c r="U7" s="3">
         <v>21</v>
       </c>
-      <c r="X7" s="5">
+      <c r="X7" s="3">
         <v>38</v>
       </c>
       <c r="Z7">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:27">
+      <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>1</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="3">
         <v>2</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="3">
         <v>2</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="3">
         <v>3</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="3">
         <v>5</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="3">
         <v>11</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="3">
         <v>13</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="3">
         <v>13</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O8" s="3">
         <v>17</v>
       </c>
-      <c r="P8" s="5">
+      <c r="P8" s="3">
         <v>0</v>
       </c>
-      <c r="R8" s="5">
+      <c r="R8" s="3">
         <v>29</v>
       </c>
-      <c r="S8" s="5">
+      <c r="S8" s="3">
         <v>0</v>
       </c>
-      <c r="U8" s="5">
+      <c r="U8" s="3">
         <v>48</v>
       </c>
-      <c r="X8" s="5">
+      <c r="X8" s="3">
         <v>88</v>
       </c>
       <c r="Z8">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:27">
+      <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <v>3</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>8</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="3">
         <v>10</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="3">
         <v>12</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="3">
         <v>12</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="3">
         <v>14</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="3">
         <v>16</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="3">
         <v>17</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="3">
         <v>19</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" s="3">
         <v>26</v>
       </c>
-      <c r="P9" s="5">
+      <c r="P9" s="3">
         <v>0</v>
       </c>
-      <c r="R9" s="5">
+      <c r="R9" s="3">
         <v>35</v>
       </c>
-      <c r="S9" s="5">
+      <c r="S9" s="3">
         <v>0</v>
       </c>
-      <c r="U9" s="5">
+      <c r="U9" s="3">
         <v>48</v>
       </c>
-      <c r="X9" s="5">
+      <c r="X9" s="3">
         <v>99</v>
       </c>
       <c r="Z9">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:27">
+      <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="3">
         <v>4</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="3">
         <v>4</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="3">
         <v>5</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="3">
         <v>5</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="3">
         <v>8</v>
       </c>
-      <c r="O10" s="5">
+      <c r="O10" s="3">
         <v>10</v>
       </c>
-      <c r="P10" s="5">
+      <c r="P10" s="3">
         <v>0</v>
       </c>
-      <c r="R10" s="5">
+      <c r="R10" s="3">
         <v>13</v>
       </c>
-      <c r="S10" s="5">
+      <c r="S10" s="3">
         <v>0</v>
       </c>
-      <c r="U10" s="5">
+      <c r="U10" s="3">
         <v>17</v>
       </c>
-      <c r="X10" s="5">
+      <c r="X10" s="3">
         <v>23</v>
       </c>
       <c r="Z10">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:27">
+      <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="3">
         <v>1</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="3">
         <v>1</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="3">
         <v>2</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="3">
         <v>7</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="3">
         <v>18</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="3">
         <v>18</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="3">
         <v>19</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="3">
         <v>21</v>
       </c>
-      <c r="O11" s="5">
+      <c r="O11" s="3">
         <v>38</v>
       </c>
-      <c r="P11" s="5">
+      <c r="P11" s="3">
         <v>0</v>
       </c>
-      <c r="R11" s="5">
+      <c r="R11" s="3">
         <v>49</v>
       </c>
-      <c r="S11" s="5">
+      <c r="S11" s="3">
         <v>0</v>
       </c>
-      <c r="U11" s="5">
+      <c r="U11" s="3">
         <v>75</v>
       </c>
-      <c r="X11" s="5">
+      <c r="X11" s="3">
         <v>129</v>
       </c>
       <c r="Z11">
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:27">
+      <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="3">
         <v>25</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="3">
         <v>30</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="3">
         <v>74</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="3">
         <v>90</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="3">
         <v>103</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="3">
         <v>115</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="3">
         <v>181</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="3">
         <v>329</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="3">
         <v>1</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="3">
         <v>373</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="3">
         <v>1</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="3">
         <v>398</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="3">
         <v>1</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12" s="3">
         <v>484</v>
       </c>
-      <c r="P12" s="5">
+      <c r="P12" s="3">
         <v>2</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="Q12" s="3">
         <v>1</v>
       </c>
-      <c r="R12" s="5">
+      <c r="R12" s="3">
         <v>484</v>
       </c>
-      <c r="S12" s="5">
+      <c r="S12" s="3">
         <v>2</v>
       </c>
-      <c r="T12" s="5">
+      <c r="T12" s="3">
         <v>1</v>
       </c>
-      <c r="U12" s="5">
+      <c r="U12" s="3">
         <v>484</v>
       </c>
-      <c r="V12" s="5">
+      <c r="V12" s="3">
         <v>3</v>
       </c>
-      <c r="W12" s="5">
+      <c r="W12" s="3">
         <v>1</v>
       </c>
-      <c r="X12" s="5">
+      <c r="X12" s="3">
         <v>688</v>
       </c>
-      <c r="Y12" s="5">
+      <c r="Y12" s="3">
         <v>3</v>
       </c>
       <c r="Z12">
         <v>688</v>
       </c>
-      <c r="AA12" s="5">
+      <c r="AA12" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:27">
+      <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="3">
         <v>2</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="3">
         <v>2</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="3">
         <v>2</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="3">
         <v>2</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="3">
         <v>7</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="3">
         <v>8</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="3">
         <v>10</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="3">
         <v>13</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="3">
         <v>19</v>
       </c>
-      <c r="O13" s="5">
+      <c r="O13" s="3">
         <v>17</v>
       </c>
-      <c r="P13" s="5">
+      <c r="P13" s="3">
         <v>0</v>
       </c>
-      <c r="R13" s="5">
+      <c r="R13" s="3">
         <v>25</v>
       </c>
-      <c r="S13" s="5">
+      <c r="S13" s="3">
         <v>0</v>
       </c>
-      <c r="U13" s="5">
+      <c r="U13" s="3">
         <v>25</v>
       </c>
-      <c r="X13" s="5">
+      <c r="X13" s="3">
         <v>52</v>
       </c>
       <c r="Z13">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:27">
+      <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="3">
         <v>1</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="3">
         <v>1</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="3">
         <v>2</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="3">
         <v>3</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="3">
         <v>4</v>
       </c>
-      <c r="O14" s="5">
+      <c r="O14" s="3">
         <v>6</v>
       </c>
-      <c r="P14" s="5">
+      <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="5">
+      <c r="R14" s="3">
         <v>7</v>
       </c>
-      <c r="S14" s="5">
+      <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="5">
+      <c r="U14" s="3">
         <v>14</v>
       </c>
-      <c r="X14" s="5">
+      <c r="X14" s="3">
         <v>14</v>
       </c>
       <c r="Z14">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:27">
+      <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="3">
         <v>1</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="3">
         <v>1</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="3">
         <v>1</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="3">
         <v>4</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="3">
         <v>7</v>
       </c>
-      <c r="O15" s="5">
+      <c r="O15" s="3">
         <v>12</v>
       </c>
-      <c r="P15" s="5">
+      <c r="P15" s="3">
         <v>0</v>
       </c>
-      <c r="R15" s="5">
+      <c r="R15" s="3">
         <v>22</v>
       </c>
-      <c r="S15" s="5">
+      <c r="S15" s="3">
         <v>0</v>
       </c>
-      <c r="U15" s="5">
+      <c r="U15" s="3">
         <v>26</v>
       </c>
-      <c r="X15" s="5">
+      <c r="X15" s="3">
         <v>45</v>
       </c>
       <c r="Z15">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:27">
+      <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="3">
         <v>2</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="3">
         <v>8</v>
       </c>
-      <c r="R16" s="5">
+      <c r="R16" s="3">
         <v>7</v>
       </c>
-      <c r="U16" s="5">
+      <c r="U16" s="3">
         <v>15</v>
       </c>
-      <c r="X16" s="5">
+      <c r="X16" s="3">
         <v>27</v>
       </c>
       <c r="Z16">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:27">
+      <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="3">
         <v>1</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="3">
         <v>1</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="3">
         <v>2</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="3">
         <v>2</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="3">
         <v>2</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="3">
         <v>2</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="3">
         <v>7</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="3">
         <v>7</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17" s="3">
         <v>9</v>
       </c>
-      <c r="O17" s="5">
+      <c r="O17" s="3">
         <v>9</v>
       </c>
-      <c r="P17" s="5">
+      <c r="P17" s="3">
         <v>0</v>
       </c>
-      <c r="R17" s="5">
+      <c r="R17" s="3">
         <v>9</v>
       </c>
-      <c r="S17" s="5">
+      <c r="S17" s="3">
         <v>0</v>
       </c>
-      <c r="U17" s="5">
+      <c r="U17" s="3">
         <v>27</v>
       </c>
-      <c r="X17" s="5">
+      <c r="X17" s="3">
         <v>31</v>
       </c>
       <c r="Z17">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:27">
+      <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="3">
         <v>1</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="3">
         <v>1</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="3">
         <v>1</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="3">
         <v>1</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="3">
         <v>2</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="3">
         <v>2</v>
       </c>
-      <c r="O18" s="5">
+      <c r="O18" s="3">
         <v>2</v>
       </c>
-      <c r="P18" s="5">
+      <c r="P18" s="3">
         <v>0</v>
       </c>
-      <c r="R18" s="5">
+      <c r="R18" s="3">
         <v>4</v>
       </c>
-      <c r="S18" s="5">
+      <c r="S18" s="3">
         <v>0</v>
       </c>
-      <c r="U18" s="5">
+      <c r="U18" s="3">
         <v>10</v>
       </c>
-      <c r="X18" s="5">
+      <c r="X18" s="3">
         <v>14</v>
       </c>
       <c r="Z18">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:27">
+      <c r="A19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="3">
         <v>53</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="3">
         <v>66</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="3">
         <v>129</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="3">
         <v>157</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="3">
         <v>196</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="3">
         <v>262</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="3">
         <v>400</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="3">
         <v>639</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="3">
         <v>795</v>
       </c>
-      <c r="M19" s="5">
+      <c r="M19" s="3">
         <v>902</v>
       </c>
-      <c r="O19" s="5">
+      <c r="O19" s="3">
         <v>1139</v>
       </c>
-      <c r="P19" s="5">
+      <c r="P19" s="3">
         <v>2</v>
       </c>
-      <c r="R19" s="5">
+      <c r="R19" s="3">
         <f>SUM(R3:R18)</f>
         <v>1296</v>
       </c>
-      <c r="S19" s="5">
+      <c r="S19" s="3">
         <f>SUM(S3:S18)</f>
         <v>2</v>
       </c>
-      <c r="U19" s="8">
+      <c r="U19" s="6">
         <v>1567</v>
       </c>
-      <c r="X19" s="8">
+      <c r="X19" s="6">
         <v>2369</v>
       </c>
-      <c r="Y19" s="5">
+      <c r="Y19" s="3">
         <v>5</v>
       </c>
-      <c r="Z19" s="8">
+      <c r="Z19" s="6">
         <v>1892</v>
       </c>
-      <c r="AA19" s="5">
+      <c r="AA19" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-    </row>
-    <row r="44" spans="18:18" x14ac:dyDescent="0.2">
-      <c r="R44" s="8"/>
+    <row r="23" spans="1:27">
+      <c r="A23" s="7"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+    </row>
+    <row r="24" spans="1:27">
+      <c r="A24" s="7"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+    </row>
+    <row r="44" spans="18:18">
+      <c r="R44" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6963,1267 +5804,1267 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F5B1F18-8A79-3242-815B-7FAFD236451B}">
   <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:T25"/>
+    <sheetView topLeftCell="A9" zoomScale="125" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="21" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="10" customFormat="1" ht="141" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="19" t="s">
+    <row r="1" spans="1:20" s="8" customFormat="1" ht="142">
+      <c r="A1" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="P1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="Q1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="R1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="S1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="T1" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="10">
         <v>43889.416666666664</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="11">
         <v>10</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="11">
         <v>15</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13">
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11">
         <v>25</v>
       </c>
-      <c r="N2" s="13">
+      <c r="N2" s="11">
         <v>2</v>
       </c>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13">
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11">
         <v>1</v>
       </c>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13">
+      <c r="S2" s="11"/>
+      <c r="T2" s="11">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="12">
         <v>43890.416666666664</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="13">
         <v>14</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="13">
         <v>15</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15">
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13">
         <v>3</v>
       </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15">
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13">
         <v>30</v>
       </c>
-      <c r="N3" s="15">
+      <c r="N3" s="13">
         <v>1</v>
       </c>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15">
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13">
         <v>1</v>
       </c>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15">
+      <c r="S3" s="13"/>
+      <c r="T3" s="13">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="10">
         <v>43891.625</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="11">
         <v>15</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="11">
         <v>23</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13">
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11">
         <v>1</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="11">
         <v>1</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="11">
         <v>8</v>
       </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13">
+      <c r="K4" s="11"/>
+      <c r="L4" s="11">
         <v>1</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="11">
         <v>74</v>
       </c>
-      <c r="N4" s="13">
+      <c r="N4" s="11">
         <v>2</v>
       </c>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13">
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11">
         <v>2</v>
       </c>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13">
+      <c r="S4" s="11"/>
+      <c r="T4" s="11">
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="12">
         <v>43892.625</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="13">
         <v>20</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="13">
         <v>26</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="13">
         <v>1</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15">
+      <c r="G5" s="13"/>
+      <c r="H5" s="13">
         <v>1</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="13">
         <v>2</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="13">
         <v>10</v>
       </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15">
+      <c r="K5" s="13"/>
+      <c r="L5" s="13">
         <v>1</v>
       </c>
-      <c r="M5" s="15">
+      <c r="M5" s="13">
         <v>90</v>
       </c>
-      <c r="N5" s="15">
+      <c r="N5" s="13">
         <v>2</v>
       </c>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15">
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13">
         <v>2</v>
       </c>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15">
+      <c r="S5" s="13"/>
+      <c r="T5" s="13">
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="10">
         <v>43893.625</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="11">
         <v>28</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="11">
         <v>37</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="11">
         <v>3</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="11">
         <v>1</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="11">
         <v>2</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="11">
         <v>2</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="11">
         <v>12</v>
       </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13">
+      <c r="K6" s="11"/>
+      <c r="L6" s="11">
         <v>2</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M6" s="11">
         <v>103</v>
       </c>
-      <c r="N6" s="13">
+      <c r="N6" s="11">
         <v>2</v>
       </c>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13">
+      <c r="O6" s="11"/>
+      <c r="P6" s="11">
         <v>1</v>
       </c>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13">
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11">
         <v>2</v>
       </c>
-      <c r="S6" s="13">
+      <c r="S6" s="11">
         <v>1</v>
       </c>
-      <c r="T6" s="13">
+      <c r="T6" s="11">
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="12">
         <v>43894.625</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="13">
         <v>50</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="13">
         <v>48</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="13">
         <v>7</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="13">
         <v>1</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="13">
         <v>3</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="13">
         <v>3</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="13">
         <v>12</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="13">
         <v>4</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="13">
         <v>7</v>
       </c>
-      <c r="M7" s="15">
+      <c r="M7" s="13">
         <v>115</v>
       </c>
-      <c r="N7" s="15">
+      <c r="N7" s="13">
         <v>7</v>
       </c>
-      <c r="O7" s="15">
+      <c r="O7" s="13">
         <v>1</v>
       </c>
-      <c r="P7" s="15">
+      <c r="P7" s="13">
         <v>1</v>
       </c>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15">
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13">
         <v>2</v>
       </c>
-      <c r="S7" s="15">
+      <c r="S7" s="13">
         <v>1</v>
       </c>
-      <c r="T7" s="15">
+      <c r="T7" s="13">
         <v>262</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="10">
         <v>43895.625</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="11">
         <v>73</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="11">
         <v>70</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="11">
         <v>13</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="11">
         <v>1</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="11">
         <v>3</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="11">
         <v>5</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="11">
         <v>14</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="11">
         <v>4</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="11">
         <v>18</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M8" s="11">
         <v>181</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N8" s="11">
         <v>8</v>
       </c>
-      <c r="O8" s="13">
+      <c r="O8" s="11">
         <v>1</v>
       </c>
-      <c r="P8" s="13">
+      <c r="P8" s="11">
         <v>1</v>
       </c>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13">
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11">
         <v>7</v>
       </c>
-      <c r="S8" s="13">
+      <c r="S8" s="11">
         <v>1</v>
       </c>
-      <c r="T8" s="13">
+      <c r="T8" s="11">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="4">
         <v>43896.625</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>96</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="3">
         <v>117</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="3">
         <v>19</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="3">
         <v>2</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="3">
         <v>4</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="3">
         <v>11</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="3">
         <v>16</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="3">
         <v>5</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="3">
         <v>18</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="3">
         <v>329</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="3">
         <v>10</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" s="3">
         <v>2</v>
       </c>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5">
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3">
         <v>2</v>
       </c>
-      <c r="R9" s="5">
+      <c r="R9" s="3">
         <v>7</v>
       </c>
-      <c r="S9" s="5">
+      <c r="S9" s="3">
         <v>1</v>
       </c>
-      <c r="T9" s="5">
+      <c r="T9" s="3">
         <v>639</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20">
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="4">
         <v>43896.625</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13">
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11">
         <v>1</v>
       </c>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="12">
         <v>43897.625</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="13">
         <v>170</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="13">
         <v>134</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="13">
         <v>28</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="13">
         <v>2</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="13">
         <v>4</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="13">
         <v>13</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="13">
         <v>17</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="13">
         <v>5</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L11" s="13">
         <v>19</v>
       </c>
-      <c r="M11" s="15">
+      <c r="M11" s="13">
         <v>373</v>
       </c>
-      <c r="N11" s="15">
+      <c r="N11" s="13">
         <v>13</v>
       </c>
-      <c r="O11" s="15">
+      <c r="O11" s="13">
         <v>3</v>
       </c>
-      <c r="P11" s="15">
+      <c r="P11" s="13">
         <v>4</v>
       </c>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15">
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13">
         <v>8</v>
       </c>
-      <c r="S11" s="15">
+      <c r="S11" s="13">
         <v>2</v>
       </c>
-      <c r="T11" s="15">
+      <c r="T11" s="13">
         <v>795</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20">
       <c r="A12">
         <v>8</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="10">
         <v>43897.625</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13">
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11">
         <v>1</v>
       </c>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13">
         <v>9</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="12">
         <v>43898.625</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="13">
         <v>182</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="13">
         <v>172</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="13">
         <v>40</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="13">
         <v>4</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="13">
         <v>4</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="13">
         <v>13</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J13" s="13">
         <v>19</v>
       </c>
-      <c r="K13" s="15">
+      <c r="K13" s="13">
         <v>8</v>
       </c>
-      <c r="L13" s="15">
+      <c r="L13" s="13">
         <v>21</v>
       </c>
-      <c r="M13" s="15">
+      <c r="M13" s="13">
         <v>398</v>
       </c>
-      <c r="N13" s="15">
+      <c r="N13" s="13">
         <v>19</v>
       </c>
-      <c r="O13" s="15">
+      <c r="O13" s="13">
         <v>4</v>
       </c>
-      <c r="P13" s="15">
+      <c r="P13" s="13">
         <v>7</v>
       </c>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15">
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13">
         <v>9</v>
       </c>
-      <c r="S13" s="15">
+      <c r="S13" s="13">
         <v>2</v>
       </c>
-      <c r="T13" s="15">
+      <c r="T13" s="13">
         <v>902</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20">
       <c r="A14">
         <v>9</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="10">
         <v>43898.625</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13">
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11">
         <v>1</v>
       </c>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15">
         <v>10</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="12">
         <v>43899.625</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="13">
         <v>204</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="13">
         <v>256</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="13">
         <v>48</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="13">
         <v>6</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="13">
         <v>4</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="13">
         <v>17</v>
       </c>
-      <c r="J15" s="15">
+      <c r="J15" s="13">
         <v>26</v>
       </c>
-      <c r="K15" s="15">
+      <c r="K15" s="13">
         <v>10</v>
       </c>
-      <c r="L15" s="15">
+      <c r="L15" s="13">
         <v>38</v>
       </c>
-      <c r="M15" s="15">
+      <c r="M15" s="13">
         <v>484</v>
       </c>
-      <c r="N15" s="15">
+      <c r="N15" s="13">
         <v>17</v>
       </c>
-      <c r="O15" s="15">
+      <c r="O15" s="13">
         <v>6</v>
       </c>
-      <c r="P15" s="15">
+      <c r="P15" s="13">
         <v>12</v>
       </c>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15">
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13">
         <v>9</v>
       </c>
-      <c r="S15" s="15">
+      <c r="S15" s="13">
         <v>2</v>
       </c>
-      <c r="T15" s="15">
+      <c r="T15" s="13">
         <v>1139</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20">
       <c r="A16">
         <v>10</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="10">
         <v>43899.625</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13">
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11">
         <v>2</v>
       </c>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13">
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20">
       <c r="A17">
         <v>10</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="12">
         <v>43899.625</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15">
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13">
         <v>1</v>
       </c>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-    </row>
-    <row r="18" spans="1:20" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="25">
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+    </row>
+    <row r="18" spans="1:20" s="23" customFormat="1">
+      <c r="A18" s="23">
         <v>11</v>
       </c>
-      <c r="B18" s="27">
+      <c r="B18" s="25">
         <v>43900.625</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="28">
+      <c r="D18" s="26">
         <v>237</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="26">
         <v>314</v>
       </c>
-      <c r="F18" s="28">
+      <c r="F18" s="26">
         <v>48</v>
       </c>
-      <c r="G18" s="28">
+      <c r="G18" s="26">
         <v>9</v>
       </c>
-      <c r="H18" s="28">
+      <c r="H18" s="26">
         <v>4</v>
       </c>
-      <c r="I18" s="28">
+      <c r="I18" s="26">
         <v>29</v>
       </c>
-      <c r="J18" s="28">
+      <c r="J18" s="26">
         <v>35</v>
       </c>
-      <c r="K18" s="28">
+      <c r="K18" s="26">
         <v>13</v>
       </c>
-      <c r="L18" s="28">
+      <c r="L18" s="26">
         <v>49</v>
       </c>
-      <c r="M18" s="28">
+      <c r="M18" s="26">
         <v>484</v>
       </c>
-      <c r="N18" s="28">
+      <c r="N18" s="26">
         <v>25</v>
       </c>
-      <c r="O18" s="28">
+      <c r="O18" s="26">
         <v>7</v>
       </c>
-      <c r="P18" s="28">
+      <c r="P18" s="26">
         <v>22</v>
       </c>
-      <c r="Q18" s="28">
+      <c r="Q18" s="26">
         <v>7</v>
       </c>
-      <c r="R18" s="28">
+      <c r="R18" s="26">
         <v>9</v>
       </c>
-      <c r="S18" s="28">
+      <c r="S18" s="26">
         <v>4</v>
       </c>
-      <c r="T18" s="25">
+      <c r="T18" s="23">
         <v>1296</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20">
       <c r="A19">
         <v>11</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19" s="12">
         <v>43900.625</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15">
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13">
         <v>2</v>
       </c>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15">
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13">
         <f>SUM(D19:S19)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20">
       <c r="A20">
         <v>11</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="10">
         <v>43900.625</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13">
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11">
         <v>1</v>
       </c>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21">
         <v>12</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="12">
         <v>43901.625</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="13">
         <v>277</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="13">
         <v>366</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="13">
         <v>90</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="13">
         <v>24</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="13">
         <v>21</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I21" s="13">
         <v>48</v>
       </c>
-      <c r="J21" s="15">
+      <c r="J21" s="13">
         <v>48</v>
       </c>
-      <c r="K21" s="15">
+      <c r="K21" s="13">
         <v>17</v>
       </c>
-      <c r="L21" s="15">
+      <c r="L21" s="13">
         <v>75</v>
       </c>
-      <c r="M21" s="15">
+      <c r="M21" s="13">
         <v>484</v>
       </c>
-      <c r="N21" s="15">
+      <c r="N21" s="13">
         <v>25</v>
       </c>
-      <c r="O21" s="15">
+      <c r="O21" s="13">
         <v>14</v>
       </c>
-      <c r="P21" s="15">
+      <c r="P21" s="13">
         <v>26</v>
       </c>
-      <c r="Q21" s="15">
+      <c r="Q21" s="13">
         <v>15</v>
       </c>
-      <c r="R21" s="15">
+      <c r="R21" s="13">
         <v>27</v>
       </c>
-      <c r="S21" s="15">
+      <c r="S21" s="13">
         <v>10</v>
       </c>
-      <c r="T21" s="15">
+      <c r="T21" s="13">
         <v>1567</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20">
       <c r="A22">
         <v>12</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="10">
         <v>43901.625</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13">
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11">
         <v>3</v>
       </c>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13">
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20">
       <c r="A23">
         <v>12</v>
       </c>
-      <c r="B23" s="16">
+      <c r="B23" s="14">
         <v>43901.625</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17">
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15">
         <v>1</v>
       </c>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="17"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24">
         <v>13</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24" s="12">
         <v>43902.625</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="13">
         <v>454</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="13">
         <v>500</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="13">
         <v>137</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="13">
         <v>30</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H24" s="13">
         <v>38</v>
       </c>
-      <c r="I24" s="15">
+      <c r="I24" s="13">
         <v>88</v>
       </c>
-      <c r="J24" s="15">
+      <c r="J24" s="13">
         <v>99</v>
       </c>
-      <c r="K24" s="15">
+      <c r="K24" s="13">
         <v>23</v>
       </c>
-      <c r="L24" s="15">
+      <c r="L24" s="13">
         <v>129</v>
       </c>
-      <c r="M24" s="15">
+      <c r="M24" s="13">
         <v>688</v>
       </c>
-      <c r="N24" s="15">
+      <c r="N24" s="13">
         <v>52</v>
       </c>
-      <c r="O24" s="15">
+      <c r="O24" s="13">
         <v>14</v>
       </c>
-      <c r="P24" s="15">
+      <c r="P24" s="13">
         <v>45</v>
       </c>
-      <c r="Q24" s="15">
+      <c r="Q24" s="13">
         <v>27</v>
       </c>
-      <c r="R24" s="15">
+      <c r="R24" s="13">
         <v>31</v>
       </c>
-      <c r="S24" s="15">
+      <c r="S24" s="13">
         <v>14</v>
       </c>
-      <c r="T24" s="58">
+      <c r="T24" s="56">
         <v>2369</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20">
       <c r="A25">
         <v>13</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B25" s="12">
         <v>43902.625</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D25" s="20">
         <v>1</v>
       </c>
-      <c r="E25" s="22">
+      <c r="E25" s="20">
         <v>1</v>
       </c>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22">
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20">
         <v>3</v>
       </c>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="22"/>
-      <c r="S25" s="22"/>
-      <c r="T25" s="22">
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20">
       <c r="A26">
         <v>13</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B26" s="12">
         <v>43902.625</v>
       </c>
-      <c r="C26" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" s="22">
+      <c r="C26" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="20">
         <v>331</v>
       </c>
-      <c r="E26" s="22">
+      <c r="E26" s="20">
         <v>317</v>
       </c>
-      <c r="F26" s="22">
+      <c r="F26" s="20">
         <v>137</v>
       </c>
-      <c r="G26" s="22">
+      <c r="G26" s="20">
         <v>23</v>
       </c>
-      <c r="H26" s="22">
+      <c r="H26" s="20">
         <v>35</v>
       </c>
-      <c r="I26" s="22">
+      <c r="I26" s="20">
         <v>60</v>
       </c>
-      <c r="J26" s="22">
+      <c r="J26" s="20">
         <v>59</v>
       </c>
-      <c r="K26" s="22">
+      <c r="K26" s="20">
         <v>16</v>
       </c>
-      <c r="L26" s="22">
+      <c r="L26" s="20">
         <v>81</v>
       </c>
-      <c r="M26" s="22">
+      <c r="M26" s="20">
         <v>688</v>
       </c>
-      <c r="N26" s="22">
+      <c r="N26" s="20">
         <v>52</v>
       </c>
-      <c r="O26" s="22">
+      <c r="O26" s="20">
         <v>8</v>
       </c>
-      <c r="P26" s="22">
+      <c r="P26" s="20">
         <v>30</v>
       </c>
-      <c r="Q26" s="22">
+      <c r="Q26" s="20">
         <v>14</v>
       </c>
-      <c r="R26" s="22">
+      <c r="R26" s="20">
         <v>29</v>
       </c>
-      <c r="S26" s="22">
+      <c r="S26" s="20">
         <v>12</v>
       </c>
-      <c r="T26" s="59">
+      <c r="T26" s="57">
         <v>1892</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20">
       <c r="A27">
         <v>13</v>
       </c>
-      <c r="B27" s="14">
+      <c r="B27" s="12">
         <v>43902.625</v>
       </c>
-      <c r="C27" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="22">
+      <c r="C27" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="20">
         <v>1</v>
       </c>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22">
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20">
         <v>2</v>
       </c>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="22"/>
-      <c r="S27" s="22"/>
-      <c r="T27" s="22">
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="20">
         <v>3</v>
       </c>
     </row>
@@ -8239,15 +7080,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{233E67D7-4FF2-D745-A107-DDC4CB6E1273}">
   <dimension ref="A1:Y15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="144" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScale="144" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" style="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="3.6640625" bestFit="1" customWidth="1"/>
@@ -8258,91 +7099,91 @@
     <col min="17" max="18" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.1640625" style="54" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.6640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.1640625" style="52" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.33203125" style="22" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="120.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="43" customFormat="1" ht="79" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="44" t="s">
+    <row r="1" spans="1:25" s="41" customFormat="1" ht="79">
+      <c r="A1" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="50" t="s">
+      <c r="B1" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="N1" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="R1" s="50" t="s">
+      <c r="S1" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="U1" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="W1" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="S1" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="U1" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="V1" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="W1" s="53" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="24">
         <v>43889.416666666664</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D2">
@@ -8363,31 +7204,31 @@
       <c r="T2">
         <v>53</v>
       </c>
-      <c r="U2" s="54" t="str">
+      <c r="U2" s="52" t="str">
         <f t="shared" ref="U2:U14" si="0">IF(ISNUMBER(T1),T2-T1,"")</f>
         <v/>
       </c>
-      <c r="V2" s="23" t="str">
-        <f>IF(ISNUMBER(T1),
+      <c r="V2" s="21" t="str">
+        <f t="shared" ref="V2:V15" si="1">IF(ISNUMBER(T1),
 ((T2-T1)/T1)/(B2-B1),
 "")</f>
         <v/>
       </c>
-      <c r="W2" s="24" t="str">
+      <c r="W2" s="22" t="str">
         <f>IF(ISNUMBER(V2),
 1/Cases!$V2,
 "")</f>
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="24">
         <v>43890.416666666664</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D3">
@@ -8411,34 +7252,32 @@
       <c r="T3">
         <v>66</v>
       </c>
-      <c r="U3" s="54">
+      <c r="U3" s="52">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="V3" s="23">
-        <f>IF(ISNUMBER(T2),
-((T3-T2)/T2)/(B3-B2),
-"")</f>
+      <c r="V3" s="21">
+        <f t="shared" si="1"/>
         <v>0.24528301886792453</v>
       </c>
-      <c r="W3" s="24">
+      <c r="W3" s="22">
         <f>IF(ISNUMBER(V3),
 1/Cases!$V3,
 "")</f>
         <v>4.0769230769230766</v>
       </c>
       <c r="Y3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="24">
         <v>43891.625</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D4">
@@ -8471,31 +7310,29 @@
       <c r="T4">
         <v>129</v>
       </c>
-      <c r="U4" s="54">
+      <c r="U4" s="52">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="V4" s="23">
-        <f>IF(ISNUMBER(T3),
-((T4-T3)/T3)/(B4-B3),
-"")</f>
+      <c r="V4" s="21">
+        <f t="shared" si="1"/>
         <v>0.78996865203603195</v>
       </c>
-      <c r="W4" s="24">
+      <c r="W4" s="22">
         <f>IF(ISNUMBER(V4),
 1/Cases!$V4,
 "")</f>
         <v>1.2658730158755567</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="24">
         <v>43892.625</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D5">
@@ -8531,31 +7368,29 @@
       <c r="T5">
         <v>157</v>
       </c>
-      <c r="U5" s="54">
+      <c r="U5" s="52">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="V5" s="23">
-        <f>IF(ISNUMBER(T4),
-((T5-T4)/T4)/(B5-B4),
-"")</f>
+      <c r="V5" s="21">
+        <f t="shared" si="1"/>
         <v>0.21705426356589147</v>
       </c>
-      <c r="W5" s="24">
+      <c r="W5" s="22">
         <f>IF(ISNUMBER(V5),
 1/Cases!$V5,
 "")</f>
         <v>4.6071428571428577</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="24">
         <v>43893.625</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D6">
@@ -8600,31 +7435,29 @@
       <c r="T6">
         <v>196</v>
       </c>
-      <c r="U6" s="54">
+      <c r="U6" s="52">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="V6" s="23">
-        <f>IF(ISNUMBER(T5),
-((T6-T5)/T5)/(B6-B5),
-"")</f>
+      <c r="V6" s="21">
+        <f t="shared" si="1"/>
         <v>0.24840764331210191</v>
       </c>
-      <c r="W6" s="24">
+      <c r="W6" s="22">
         <f>IF(ISNUMBER(V6),
 1/Cases!$V6,
 "")</f>
         <v>4.0256410256410255</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="24">
         <v>43894.625</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D7">
@@ -8675,31 +7508,29 @@
       <c r="T7">
         <v>262</v>
       </c>
-      <c r="U7" s="54">
+      <c r="U7" s="52">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="V7" s="23">
-        <f>IF(ISNUMBER(T6),
-((T7-T6)/T6)/(B7-B6),
-"")</f>
+      <c r="V7" s="21">
+        <f t="shared" si="1"/>
         <v>0.33673469387755101</v>
       </c>
-      <c r="W7" s="24">
+      <c r="W7" s="22">
         <f>IF(ISNUMBER(V7),
 1/Cases!$V7,
 "")</f>
         <v>2.9696969696969697</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="24">
         <v>43895.625</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D8">
@@ -8750,107 +7581,103 @@
       <c r="T8">
         <v>400</v>
       </c>
-      <c r="U8" s="54">
+      <c r="U8" s="52">
         <f t="shared" si="0"/>
         <v>138</v>
       </c>
-      <c r="V8" s="23">
-        <f>IF(ISNUMBER(T7),
-((T8-T7)/T7)/(B8-B7),
-"")</f>
+      <c r="V8" s="21">
+        <f t="shared" si="1"/>
         <v>0.52671755725190839</v>
       </c>
-      <c r="W8" s="24">
+      <c r="W8" s="22">
         <f>IF(ISNUMBER(V8),
 1/Cases!$V8,
 "")</f>
         <v>1.8985507246376812</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="24">
         <v>43896.625</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>96</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="3">
         <v>117</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="3">
         <v>19</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="3">
         <v>2</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="3">
         <v>4</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="3">
         <v>11</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="3">
         <v>16</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="3">
         <v>5</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="3">
         <v>18</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="3">
         <v>329</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="3">
         <v>10</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" s="3">
         <v>2</v>
       </c>
-      <c r="P9" s="5">
+      <c r="P9" s="3">
         <v>2</v>
       </c>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5">
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3">
         <v>7</v>
       </c>
-      <c r="S9" s="5">
+      <c r="S9" s="3">
         <v>1</v>
       </c>
-      <c r="T9" s="5">
+      <c r="T9" s="3">
         <v>639</v>
       </c>
-      <c r="U9" s="56">
+      <c r="U9" s="54">
         <f t="shared" si="0"/>
         <v>239</v>
       </c>
-      <c r="V9" s="23">
-        <f>IF(ISNUMBER(T8),
-((T9-T8)/T8)/(B9-B8),
-"")</f>
+      <c r="V9" s="21">
+        <f t="shared" si="1"/>
         <v>0.59750000000000003</v>
       </c>
-      <c r="W9" s="24">
+      <c r="W9" s="22">
         <f>IF(ISNUMBER(V9),
 1/Cases!$V9,
 "")</f>
         <v>1.6736401673640167</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="24">
         <v>43897.625</v>
       </c>
-      <c r="C10" s="60" t="s">
+      <c r="C10" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D10">
@@ -8901,31 +7728,29 @@
       <c r="T10">
         <v>795</v>
       </c>
-      <c r="U10" s="54">
+      <c r="U10" s="52">
         <f t="shared" si="0"/>
         <v>156</v>
       </c>
-      <c r="V10" s="23">
-        <f>IF(ISNUMBER(T9),
-((T10-T9)/T9)/(B10-B9),
-"")</f>
+      <c r="V10" s="21">
+        <f t="shared" si="1"/>
         <v>0.24413145539906103</v>
       </c>
-      <c r="W10" s="24">
+      <c r="W10" s="22">
         <f>IF(ISNUMBER(V10),
 1/Cases!$V10,
 "")</f>
         <v>4.0961538461538458</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="24">
         <v>43898.625</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D11">
@@ -8976,31 +7801,29 @@
       <c r="T11">
         <v>902</v>
       </c>
-      <c r="U11" s="54">
+      <c r="U11" s="52">
         <f t="shared" si="0"/>
         <v>107</v>
       </c>
-      <c r="V11" s="23">
-        <f>IF(ISNUMBER(T10),
-((T11-T10)/T10)/(B11-B10),
-"")</f>
+      <c r="V11" s="21">
+        <f t="shared" si="1"/>
         <v>0.13459119496855346</v>
       </c>
-      <c r="W11" s="24">
+      <c r="W11" s="22">
         <f>IF(ISNUMBER(V11),
 1/Cases!$V11,
 "")</f>
         <v>7.4299065420560746</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="24">
         <v>43899.625</v>
       </c>
-      <c r="C12" s="60" t="s">
+      <c r="C12" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D12">
@@ -9051,31 +7874,29 @@
       <c r="T12">
         <v>1139</v>
       </c>
-      <c r="U12" s="54">
+      <c r="U12" s="52">
         <f t="shared" si="0"/>
         <v>237</v>
       </c>
-      <c r="V12" s="23">
-        <f>IF(ISNUMBER(T11),
-((T12-T11)/T11)/(B12-B11),
-"")</f>
+      <c r="V12" s="21">
+        <f t="shared" si="1"/>
         <v>0.26274944567627495</v>
       </c>
-      <c r="W12" s="24">
+      <c r="W12" s="22">
         <f>IF(ISNUMBER(V12),
 1/Cases!$V12,
 "")</f>
         <v>3.8059071729957803</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="24">
         <v>43900.625</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D13">
@@ -9129,31 +7950,29 @@
       <c r="T13">
         <v>1296</v>
       </c>
-      <c r="U13" s="54">
+      <c r="U13" s="52">
         <f t="shared" si="0"/>
         <v>157</v>
       </c>
-      <c r="V13" s="23">
-        <f>IF(ISNUMBER(T12),
-((T13-T12)/T12)/(B13-B12),
-"")</f>
+      <c r="V13" s="21">
+        <f t="shared" si="1"/>
         <v>0.13784021071115013</v>
       </c>
-      <c r="W13" s="24">
+      <c r="W13" s="22">
         <f>IF(ISNUMBER(V13),
 1/Cases!$V13,
 "")</f>
         <v>7.2547770700636942</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="24">
         <v>43901.625</v>
       </c>
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D14">
@@ -9207,95 +8026,91 @@
       <c r="T14">
         <v>1567</v>
       </c>
-      <c r="U14" s="54">
+      <c r="U14" s="52">
         <f t="shared" si="0"/>
         <v>271</v>
       </c>
-      <c r="V14" s="23">
-        <f>IF(ISNUMBER(T13),
-((T14-T13)/T13)/(B14-B13),
-"")</f>
+      <c r="V14" s="21">
+        <f t="shared" si="1"/>
         <v>0.20910493827160495</v>
       </c>
-      <c r="W14" s="24">
+      <c r="W14" s="22">
         <f>IF(ISNUMBER(V14),
 1/Cases!$V14,
 "")</f>
         <v>4.7822878228782288</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A15" s="61">
+    <row r="15" spans="1:25">
+      <c r="A15" s="59">
         <v>13</v>
       </c>
-      <c r="B15" s="27">
+      <c r="B15" s="25">
         <v>43902.625</v>
       </c>
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="13">
         <v>454</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="13">
         <v>500</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="13">
         <v>137</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="13">
         <v>30</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="13">
         <v>38</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="13">
         <v>88</v>
       </c>
-      <c r="J15" s="15">
+      <c r="J15" s="13">
         <v>99</v>
       </c>
-      <c r="K15" s="15">
+      <c r="K15" s="13">
         <v>23</v>
       </c>
-      <c r="L15" s="15">
+      <c r="L15" s="13">
         <v>129</v>
       </c>
-      <c r="M15" s="15">
+      <c r="M15" s="13">
         <v>688</v>
       </c>
-      <c r="N15" s="15">
+      <c r="N15" s="13">
         <v>52</v>
       </c>
-      <c r="O15" s="15">
+      <c r="O15" s="13">
         <v>14</v>
       </c>
-      <c r="P15" s="15">
+      <c r="P15" s="13">
         <v>45</v>
       </c>
-      <c r="Q15" s="15">
+      <c r="Q15" s="13">
         <v>27</v>
       </c>
-      <c r="R15" s="15">
+      <c r="R15" s="13">
         <v>31</v>
       </c>
-      <c r="S15" s="15">
+      <c r="S15" s="13">
         <v>14</v>
       </c>
       <c r="T15">
         <v>2369</v>
       </c>
-      <c r="U15" s="62">
+      <c r="U15" s="60">
         <f>IF(ISNUMBER(T14),T15-T14,"")</f>
         <v>802</v>
       </c>
-      <c r="V15" s="63">
-        <f>IF(ISNUMBER(T14),
-((T15-T14)/T14)/(B15-B14),
-"")</f>
+      <c r="V15" s="61">
+        <f t="shared" si="1"/>
         <v>0.51180599872367583</v>
       </c>
-      <c r="W15" s="64">
+      <c r="W15" s="62">
         <f>IF(ISNUMBER(V15),
 1/Cases!$V15,
 "")</f>
@@ -9320,1647 +8135,1647 @@
       <selection pane="bottomLeft" activeCell="S15" sqref="A2:S15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.6640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="5.6640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.33203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.6640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="6.33203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="5.6640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="6.33203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.6640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.6640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="10.83203125" style="39"/>
+    <col min="1" max="1" width="3.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="5.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="6.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="5.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="6.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="10.83203125" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="45" customFormat="1" ht="79" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="44" t="s">
+    <row r="1" spans="1:21" s="43" customFormat="1" ht="79">
+      <c r="A1" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="B1" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="M1" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="N1" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q1" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="R1" s="43" t="s">
+      <c r="R1" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="43" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="48">
+      <c r="S1" s="41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="46">
         <f>Table5[[#This Row],['#]]</f>
         <v>0</v>
       </c>
-      <c r="B2" s="40">
+      <c r="B2" s="38">
         <f>Table5[[#This Row],[Date]]</f>
         <v>43889.416666666664</v>
       </c>
-      <c r="C2" s="41" t="str">
+      <c r="C2" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!D1),Cases!D1&gt;10),
 ((Cases!D2-Cases!D1)/Cases!D1)/(Cases!$B2-Cases!$B1),
 "")</f>
         <v/>
       </c>
-      <c r="D2" s="41" t="str">
+      <c r="D2" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!E1),Cases!E1&gt;10),
 ((Cases!E2-Cases!E1)/Cases!E1)/(Cases!$B2-Cases!$B1),
 "")</f>
         <v/>
       </c>
-      <c r="E2" s="41" t="str">
+      <c r="E2" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!F1),Cases!F1&gt;10),
 ((Cases!F2-Cases!F1)/Cases!F1)/(Cases!$B2-Cases!$B1),
 "")</f>
         <v/>
       </c>
-      <c r="F2" s="41" t="str">
+      <c r="F2" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!G1),Cases!G1&gt;10),
 ((Cases!G2-Cases!G1)/Cases!G1)/(Cases!$B2-Cases!$B1),
 "")</f>
         <v/>
       </c>
-      <c r="G2" s="41" t="str">
+      <c r="G2" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!H1),Cases!H1&gt;10),
 ((Cases!H2-Cases!H1)/Cases!H1)/(Cases!$B2-Cases!$B1),
 "")</f>
         <v/>
       </c>
-      <c r="H2" s="41" t="str">
+      <c r="H2" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!I1),Cases!I1&gt;10),
 ((Cases!I2-Cases!I1)/Cases!I1)/(Cases!$B2-Cases!$B1),
 "")</f>
         <v/>
       </c>
-      <c r="I2" s="41" t="str">
+      <c r="I2" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!J1),Cases!J1&gt;10),
 ((Cases!J2-Cases!J1)/Cases!J1)/(Cases!$B2-Cases!$B1),
 "")</f>
         <v/>
       </c>
-      <c r="J2" s="41" t="str">
+      <c r="J2" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!K1),Cases!K1&gt;10),
 ((Cases!K2-Cases!K1)/Cases!K1)/(Cases!$B2-Cases!$B1),
 "")</f>
         <v/>
       </c>
-      <c r="K2" s="41" t="str">
+      <c r="K2" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!L1),Cases!L1&gt;10),
 ((Cases!L2-Cases!L1)/Cases!L1)/(Cases!$B2-Cases!$B1),
 "")</f>
         <v/>
       </c>
-      <c r="L2" s="41" t="str">
+      <c r="L2" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!M1),Cases!M1&gt;10),
 ((Cases!M2-Cases!M1)/Cases!M1)/(Cases!$B2-Cases!$B1),
 "")</f>
         <v/>
       </c>
-      <c r="M2" s="41" t="str">
+      <c r="M2" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!N1),Cases!N1&gt;10),
 ((Cases!N2-Cases!N1)/Cases!N1)/(Cases!$B2-Cases!$B1),
 "")</f>
         <v/>
       </c>
-      <c r="N2" s="41" t="str">
+      <c r="N2" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!O1),Cases!O1&gt;10),
 ((Cases!O2-Cases!O1)/Cases!O1)/(Cases!$B2-Cases!$B1),
 "")</f>
         <v/>
       </c>
-      <c r="O2" s="41" t="str">
+      <c r="O2" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!P1),Cases!P1&gt;10),
 ((Cases!P2-Cases!P1)/Cases!P1)/(Cases!$B2-Cases!$B1),
 "")</f>
         <v/>
       </c>
-      <c r="P2" s="41" t="str">
+      <c r="P2" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!Q1),Cases!Q1&gt;10),
 ((Cases!Q2-Cases!Q1)/Cases!Q1)/(Cases!$B2-Cases!$B1),
 "")</f>
         <v/>
       </c>
-      <c r="Q2" s="41" t="str">
+      <c r="Q2" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!R1),Cases!R1&gt;10),
 ((Cases!R2-Cases!R1)/Cases!R1)/(Cases!$B2-Cases!$B1),
 "")</f>
         <v/>
       </c>
-      <c r="R2" s="41" t="str">
+      <c r="R2" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!S1),Cases!S1&gt;10),
 ((Cases!S2-Cases!S1)/Cases!S1)/(Cases!$B2-Cases!$B1),
 "")</f>
         <v/>
       </c>
-      <c r="S2" s="41" t="str">
+      <c r="S2" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!T1),Cases!T1&gt;10),
 ((Cases!T2-Cases!T1)/Cases!T1)/(Cases!$B2-Cases!$B1),
 "")</f>
         <v/>
       </c>
-      <c r="U2" s="39" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="49">
+      <c r="U2" s="37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="47">
         <f>Table5[[#This Row],['#]]</f>
         <v>1</v>
       </c>
-      <c r="B3" s="40">
+      <c r="B3" s="38">
         <f>Table5[[#This Row],[Date]]</f>
         <v>43890.416666666664</v>
       </c>
-      <c r="C3" s="41" t="str">
+      <c r="C3" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!D2),Cases!D2&gt;10),
 ((Cases!D3-Cases!D2)/Cases!D2)/(Cases!$B3-Cases!$B2),
 "")</f>
         <v/>
       </c>
-      <c r="D3" s="41">
+      <c r="D3" s="39">
         <f>IF(AND(ISNUMBER(Cases!E2),Cases!E2&gt;10),
 ((Cases!E3-Cases!E2)/Cases!E2)/(Cases!$B3-Cases!$B2),
 "")</f>
         <v>0</v>
       </c>
-      <c r="E3" s="41" t="str">
+      <c r="E3" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!F2),Cases!F2&gt;10),
 ((Cases!F3-Cases!F2)/Cases!F2)/(Cases!$B3-Cases!$B2),
 "")</f>
         <v/>
       </c>
-      <c r="F3" s="41" t="str">
+      <c r="F3" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!G2),Cases!G2&gt;10),
 ((Cases!G3-Cases!G2)/Cases!G2)/(Cases!$B3-Cases!$B2),
 "")</f>
         <v/>
       </c>
-      <c r="G3" s="41" t="str">
+      <c r="G3" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!H2),Cases!H2&gt;10),
 ((Cases!H3-Cases!H2)/Cases!H2)/(Cases!$B3-Cases!$B2),
 "")</f>
         <v/>
       </c>
-      <c r="H3" s="41" t="str">
+      <c r="H3" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!I2),Cases!I2&gt;10),
 ((Cases!I3-Cases!I2)/Cases!I2)/(Cases!$B3-Cases!$B2),
 "")</f>
         <v/>
       </c>
-      <c r="I3" s="41" t="str">
+      <c r="I3" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!J2),Cases!J2&gt;10),
 ((Cases!J3-Cases!J2)/Cases!J2)/(Cases!$B3-Cases!$B2),
 "")</f>
         <v/>
       </c>
-      <c r="J3" s="41" t="str">
+      <c r="J3" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!K2),Cases!K2&gt;10),
 ((Cases!K3-Cases!K2)/Cases!K2)/(Cases!$B3-Cases!$B2),
 "")</f>
         <v/>
       </c>
-      <c r="K3" s="41" t="str">
+      <c r="K3" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!L2),Cases!L2&gt;10),
 ((Cases!L3-Cases!L2)/Cases!L2)/(Cases!$B3-Cases!$B2),
 "")</f>
         <v/>
       </c>
-      <c r="L3" s="41">
+      <c r="L3" s="39">
         <f>IF(AND(ISNUMBER(Cases!M2),Cases!M2&gt;10),
 ((Cases!M3-Cases!M2)/Cases!M2)/(Cases!$B3-Cases!$B2),
 "")</f>
         <v>0.2</v>
       </c>
-      <c r="M3" s="41" t="str">
+      <c r="M3" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!N2),Cases!N2&gt;10),
 ((Cases!N3-Cases!N2)/Cases!N2)/(Cases!$B3-Cases!$B2),
 "")</f>
         <v/>
       </c>
-      <c r="N3" s="41" t="str">
+      <c r="N3" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!O2),Cases!O2&gt;10),
 ((Cases!O3-Cases!O2)/Cases!O2)/(Cases!$B3-Cases!$B2),
 "")</f>
         <v/>
       </c>
-      <c r="O3" s="41" t="str">
+      <c r="O3" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!P2),Cases!P2&gt;10),
 ((Cases!P3-Cases!P2)/Cases!P2)/(Cases!$B3-Cases!$B2),
 "")</f>
         <v/>
       </c>
-      <c r="P3" s="41" t="str">
+      <c r="P3" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!Q2),Cases!Q2&gt;10),
 ((Cases!Q3-Cases!Q2)/Cases!Q2)/(Cases!$B3-Cases!$B2),
 "")</f>
         <v/>
       </c>
-      <c r="Q3" s="41" t="str">
+      <c r="Q3" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!R2),Cases!R2&gt;10),
 ((Cases!R3-Cases!R2)/Cases!R2)/(Cases!$B3-Cases!$B2),
 "")</f>
         <v/>
       </c>
-      <c r="R3" s="41" t="str">
+      <c r="R3" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!S2),Cases!S2&gt;10),
 ((Cases!S3-Cases!S2)/Cases!S2)/(Cases!$B3-Cases!$B2),
 "")</f>
         <v/>
       </c>
-      <c r="S3" s="42">
+      <c r="S3" s="40">
         <f>IF(AND(ISNUMBER(Cases!T2),Cases!T2&gt;10),
 ((Cases!T3-Cases!T2)/Cases!T2)/(Cases!$B3-Cases!$B2),
 "")</f>
         <v>0.24528301886792453</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" s="49">
+    <row r="4" spans="1:21">
+      <c r="A4" s="47">
         <f>Table5[[#This Row],['#]]</f>
         <v>2</v>
       </c>
-      <c r="B4" s="40">
+      <c r="B4" s="38">
         <f>Table5[[#This Row],[Date]]</f>
         <v>43891.625</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="39">
         <f>IF(AND(ISNUMBER(Cases!D3),Cases!D3&gt;10),
 ((Cases!D4-Cases!D3)/Cases!D3)/(Cases!$B4-Cases!$B3),
 "")</f>
         <v>5.9113300492492186E-2</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="39">
         <f>IF(AND(ISNUMBER(Cases!E3),Cases!E3&gt;10),
 ((Cases!E4-Cases!E3)/Cases!E3)/(Cases!$B4-Cases!$B3),
 "")</f>
         <v>0.44137931034394168</v>
       </c>
-      <c r="E4" s="41" t="str">
+      <c r="E4" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!F3),Cases!F3&gt;10),
 ((Cases!F4-Cases!F3)/Cases!F3)/(Cases!$B4-Cases!$B3),
 "")</f>
         <v/>
       </c>
-      <c r="F4" s="41" t="str">
+      <c r="F4" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!G3),Cases!G3&gt;10),
 ((Cases!G4-Cases!G3)/Cases!G3)/(Cases!$B4-Cases!$B3),
 "")</f>
         <v/>
       </c>
-      <c r="G4" s="41" t="str">
+      <c r="G4" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!H3),Cases!H3&gt;10),
 ((Cases!H4-Cases!H3)/Cases!H3)/(Cases!$B4-Cases!$B3),
 "")</f>
         <v/>
       </c>
-      <c r="H4" s="41" t="str">
+      <c r="H4" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!I3),Cases!I3&gt;10),
 ((Cases!I4-Cases!I3)/Cases!I3)/(Cases!$B4-Cases!$B3),
 "")</f>
         <v/>
       </c>
-      <c r="I4" s="41" t="str">
+      <c r="I4" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!J3),Cases!J3&gt;10),
 ((Cases!J4-Cases!J3)/Cases!J3)/(Cases!$B4-Cases!$B3),
 "")</f>
         <v/>
       </c>
-      <c r="J4" s="41" t="str">
+      <c r="J4" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!K3),Cases!K3&gt;10),
 ((Cases!K4-Cases!K3)/Cases!K3)/(Cases!$B4-Cases!$B3),
 "")</f>
         <v/>
       </c>
-      <c r="K4" s="41" t="str">
+      <c r="K4" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!L3),Cases!L3&gt;10),
 ((Cases!L4-Cases!L3)/Cases!L3)/(Cases!$B4-Cases!$B3),
 "")</f>
         <v/>
       </c>
-      <c r="L4" s="41">
+      <c r="L4" s="39">
         <f>IF(AND(ISNUMBER(Cases!M3),Cases!M3&gt;10),
 ((Cases!M4-Cases!M3)/Cases!M3)/(Cases!$B4-Cases!$B3),
 "")</f>
         <v>1.2137931034458396</v>
       </c>
-      <c r="M4" s="41" t="str">
+      <c r="M4" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!N3),Cases!N3&gt;10),
 ((Cases!N4-Cases!N3)/Cases!N3)/(Cases!$B4-Cases!$B3),
 "")</f>
         <v/>
       </c>
-      <c r="N4" s="41" t="str">
+      <c r="N4" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!O3),Cases!O3&gt;10),
 ((Cases!O4-Cases!O3)/Cases!O3)/(Cases!$B4-Cases!$B3),
 "")</f>
         <v/>
       </c>
-      <c r="O4" s="41" t="str">
+      <c r="O4" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!P3),Cases!P3&gt;10),
 ((Cases!P4-Cases!P3)/Cases!P3)/(Cases!$B4-Cases!$B3),
 "")</f>
         <v/>
       </c>
-      <c r="P4" s="41" t="str">
+      <c r="P4" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!Q3),Cases!Q3&gt;10),
 ((Cases!Q4-Cases!Q3)/Cases!Q3)/(Cases!$B4-Cases!$B3),
 "")</f>
         <v/>
       </c>
-      <c r="Q4" s="41" t="str">
+      <c r="Q4" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!R3),Cases!R3&gt;10),
 ((Cases!R4-Cases!R3)/Cases!R3)/(Cases!$B4-Cases!$B3),
 "")</f>
         <v/>
       </c>
-      <c r="R4" s="41" t="str">
+      <c r="R4" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!S3),Cases!S3&gt;10),
 ((Cases!S4-Cases!S3)/Cases!S3)/(Cases!$B4-Cases!$B3),
 "")</f>
         <v/>
       </c>
-      <c r="S4" s="42">
+      <c r="S4" s="40">
         <f>IF(AND(ISNUMBER(Cases!T3),Cases!T3&gt;10),
 ((Cases!T4-Cases!T3)/Cases!T3)/(Cases!$B4-Cases!$B3),
 "")</f>
         <v>0.78996865203603195</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="49">
+    <row r="5" spans="1:21">
+      <c r="A5" s="47">
         <f>Table5[[#This Row],['#]]</f>
         <v>3</v>
       </c>
-      <c r="B5" s="40">
+      <c r="B5" s="38">
         <f>Table5[[#This Row],[Date]]</f>
         <v>43892.625</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="39">
         <f>IF(AND(ISNUMBER(Cases!D4),Cases!D4&gt;10),
 ((Cases!D5-Cases!D4)/Cases!D4)/(Cases!$B5-Cases!$B4),
 "")</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D5" s="41">
+      <c r="D5" s="39">
         <f>IF(AND(ISNUMBER(Cases!E4),Cases!E4&gt;10),
 ((Cases!E5-Cases!E4)/Cases!E4)/(Cases!$B5-Cases!$B4),
 "")</f>
         <v>0.13043478260869565</v>
       </c>
-      <c r="E5" s="41" t="str">
+      <c r="E5" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!F4),Cases!F4&gt;10),
 ((Cases!F5-Cases!F4)/Cases!F4)/(Cases!$B5-Cases!$B4),
 "")</f>
         <v/>
       </c>
-      <c r="F5" s="41" t="str">
+      <c r="F5" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!G4),Cases!G4&gt;10),
 ((Cases!G5-Cases!G4)/Cases!G4)/(Cases!$B5-Cases!$B4),
 "")</f>
         <v/>
       </c>
-      <c r="G5" s="41" t="str">
+      <c r="G5" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!H4),Cases!H4&gt;10),
 ((Cases!H5-Cases!H4)/Cases!H4)/(Cases!$B5-Cases!$B4),
 "")</f>
         <v/>
       </c>
-      <c r="H5" s="41" t="str">
+      <c r="H5" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!I4),Cases!I4&gt;10),
 ((Cases!I5-Cases!I4)/Cases!I4)/(Cases!$B5-Cases!$B4),
 "")</f>
         <v/>
       </c>
-      <c r="I5" s="41" t="str">
+      <c r="I5" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!J4),Cases!J4&gt;10),
 ((Cases!J5-Cases!J4)/Cases!J4)/(Cases!$B5-Cases!$B4),
 "")</f>
         <v/>
       </c>
-      <c r="J5" s="41" t="str">
+      <c r="J5" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!K4),Cases!K4&gt;10),
 ((Cases!K5-Cases!K4)/Cases!K4)/(Cases!$B5-Cases!$B4),
 "")</f>
         <v/>
       </c>
-      <c r="K5" s="41" t="str">
+      <c r="K5" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!L4),Cases!L4&gt;10),
 ((Cases!L5-Cases!L4)/Cases!L4)/(Cases!$B5-Cases!$B4),
 "")</f>
         <v/>
       </c>
-      <c r="L5" s="41">
+      <c r="L5" s="39">
         <f>IF(AND(ISNUMBER(Cases!M4),Cases!M4&gt;10),
 ((Cases!M5-Cases!M4)/Cases!M4)/(Cases!$B5-Cases!$B4),
 "")</f>
         <v>0.21621621621621623</v>
       </c>
-      <c r="M5" s="41" t="str">
+      <c r="M5" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!N4),Cases!N4&gt;10),
 ((Cases!N5-Cases!N4)/Cases!N4)/(Cases!$B5-Cases!$B4),
 "")</f>
         <v/>
       </c>
-      <c r="N5" s="41" t="str">
+      <c r="N5" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!O4),Cases!O4&gt;10),
 ((Cases!O5-Cases!O4)/Cases!O4)/(Cases!$B5-Cases!$B4),
 "")</f>
         <v/>
       </c>
-      <c r="O5" s="41" t="str">
+      <c r="O5" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!P4),Cases!P4&gt;10),
 ((Cases!P5-Cases!P4)/Cases!P4)/(Cases!$B5-Cases!$B4),
 "")</f>
         <v/>
       </c>
-      <c r="P5" s="41" t="str">
+      <c r="P5" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!Q4),Cases!Q4&gt;10),
 ((Cases!Q5-Cases!Q4)/Cases!Q4)/(Cases!$B5-Cases!$B4),
 "")</f>
         <v/>
       </c>
-      <c r="Q5" s="41" t="str">
+      <c r="Q5" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!R4),Cases!R4&gt;10),
 ((Cases!R5-Cases!R4)/Cases!R4)/(Cases!$B5-Cases!$B4),
 "")</f>
         <v/>
       </c>
-      <c r="R5" s="41" t="str">
+      <c r="R5" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!S4),Cases!S4&gt;10),
 ((Cases!S5-Cases!S4)/Cases!S4)/(Cases!$B5-Cases!$B4),
 "")</f>
         <v/>
       </c>
-      <c r="S5" s="42">
+      <c r="S5" s="40">
         <f>IF(AND(ISNUMBER(Cases!T4),Cases!T4&gt;10),
 ((Cases!T5-Cases!T4)/Cases!T4)/(Cases!$B5-Cases!$B4),
 "")</f>
         <v>0.21705426356589147</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="49">
+    <row r="6" spans="1:21">
+      <c r="A6" s="47">
         <f>Table5[[#This Row],['#]]</f>
         <v>4</v>
       </c>
-      <c r="B6" s="40">
+      <c r="B6" s="38">
         <f>Table5[[#This Row],[Date]]</f>
         <v>43893.625</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="39">
         <f>IF(AND(ISNUMBER(Cases!D5),Cases!D5&gt;10),
 ((Cases!D6-Cases!D5)/Cases!D5)/(Cases!$B6-Cases!$B5),
 "")</f>
         <v>0.4</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="39">
         <f>IF(AND(ISNUMBER(Cases!E5),Cases!E5&gt;10),
 ((Cases!E6-Cases!E5)/Cases!E5)/(Cases!$B6-Cases!$B5),
 "")</f>
         <v>0.42307692307692307</v>
       </c>
-      <c r="E6" s="41" t="str">
+      <c r="E6" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!F5),Cases!F5&gt;10),
 ((Cases!F6-Cases!F5)/Cases!F5)/(Cases!$B6-Cases!$B5),
 "")</f>
         <v/>
       </c>
-      <c r="F6" s="41" t="str">
+      <c r="F6" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!G5),Cases!G5&gt;10),
 ((Cases!G6-Cases!G5)/Cases!G5)/(Cases!$B6-Cases!$B5),
 "")</f>
         <v/>
       </c>
-      <c r="G6" s="41" t="str">
+      <c r="G6" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!H5),Cases!H5&gt;10),
 ((Cases!H6-Cases!H5)/Cases!H5)/(Cases!$B6-Cases!$B5),
 "")</f>
         <v/>
       </c>
-      <c r="H6" s="41" t="str">
+      <c r="H6" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!I5),Cases!I5&gt;10),
 ((Cases!I6-Cases!I5)/Cases!I5)/(Cases!$B6-Cases!$B5),
 "")</f>
         <v/>
       </c>
-      <c r="I6" s="41" t="str">
+      <c r="I6" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!J5),Cases!J5&gt;10),
 ((Cases!J6-Cases!J5)/Cases!J5)/(Cases!$B6-Cases!$B5),
 "")</f>
         <v/>
       </c>
-      <c r="J6" s="41" t="str">
+      <c r="J6" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!K5),Cases!K5&gt;10),
 ((Cases!K6-Cases!K5)/Cases!K5)/(Cases!$B6-Cases!$B5),
 "")</f>
         <v/>
       </c>
-      <c r="K6" s="41" t="str">
+      <c r="K6" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!L5),Cases!L5&gt;10),
 ((Cases!L6-Cases!L5)/Cases!L5)/(Cases!$B6-Cases!$B5),
 "")</f>
         <v/>
       </c>
-      <c r="L6" s="41">
+      <c r="L6" s="39">
         <f>IF(AND(ISNUMBER(Cases!M5),Cases!M5&gt;10),
 ((Cases!M6-Cases!M5)/Cases!M5)/(Cases!$B6-Cases!$B5),
 "")</f>
         <v>0.14444444444444443</v>
       </c>
-      <c r="M6" s="41" t="str">
+      <c r="M6" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!N5),Cases!N5&gt;10),
 ((Cases!N6-Cases!N5)/Cases!N5)/(Cases!$B6-Cases!$B5),
 "")</f>
         <v/>
       </c>
-      <c r="N6" s="41" t="str">
+      <c r="N6" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!O5),Cases!O5&gt;10),
 ((Cases!O6-Cases!O5)/Cases!O5)/(Cases!$B6-Cases!$B5),
 "")</f>
         <v/>
       </c>
-      <c r="O6" s="41" t="str">
+      <c r="O6" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!P5),Cases!P5&gt;10),
 ((Cases!P6-Cases!P5)/Cases!P5)/(Cases!$B6-Cases!$B5),
 "")</f>
         <v/>
       </c>
-      <c r="P6" s="41" t="str">
+      <c r="P6" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!Q5),Cases!Q5&gt;10),
 ((Cases!Q6-Cases!Q5)/Cases!Q5)/(Cases!$B6-Cases!$B5),
 "")</f>
         <v/>
       </c>
-      <c r="Q6" s="41" t="str">
+      <c r="Q6" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!R5),Cases!R5&gt;10),
 ((Cases!R6-Cases!R5)/Cases!R5)/(Cases!$B6-Cases!$B5),
 "")</f>
         <v/>
       </c>
-      <c r="R6" s="41" t="str">
+      <c r="R6" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!S5),Cases!S5&gt;10),
 ((Cases!S6-Cases!S5)/Cases!S5)/(Cases!$B6-Cases!$B5),
 "")</f>
         <v/>
       </c>
-      <c r="S6" s="42">
+      <c r="S6" s="40">
         <f>IF(AND(ISNUMBER(Cases!T5),Cases!T5&gt;10),
 ((Cases!T6-Cases!T5)/Cases!T5)/(Cases!$B6-Cases!$B5),
 "")</f>
         <v>0.24840764331210191</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="49">
+    <row r="7" spans="1:21">
+      <c r="A7" s="47">
         <f>Table5[[#This Row],['#]]</f>
         <v>5</v>
       </c>
-      <c r="B7" s="40">
+      <c r="B7" s="38">
         <f>Table5[[#This Row],[Date]]</f>
         <v>43894.625</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="39">
         <f>IF(AND(ISNUMBER(Cases!D6),Cases!D6&gt;10),
 ((Cases!D7-Cases!D6)/Cases!D6)/(Cases!$B7-Cases!$B6),
 "")</f>
         <v>0.7857142857142857</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="39">
         <f>IF(AND(ISNUMBER(Cases!E6),Cases!E6&gt;10),
 ((Cases!E7-Cases!E6)/Cases!E6)/(Cases!$B7-Cases!$B6),
 "")</f>
         <v>0.29729729729729731</v>
       </c>
-      <c r="E7" s="41" t="str">
+      <c r="E7" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!F6),Cases!F6&gt;10),
 ((Cases!F7-Cases!F6)/Cases!F6)/(Cases!$B7-Cases!$B6),
 "")</f>
         <v/>
       </c>
-      <c r="F7" s="41" t="str">
+      <c r="F7" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!G6),Cases!G6&gt;10),
 ((Cases!G7-Cases!G6)/Cases!G6)/(Cases!$B7-Cases!$B6),
 "")</f>
         <v/>
       </c>
-      <c r="G7" s="41" t="str">
+      <c r="G7" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!H6),Cases!H6&gt;10),
 ((Cases!H7-Cases!H6)/Cases!H6)/(Cases!$B7-Cases!$B6),
 "")</f>
         <v/>
       </c>
-      <c r="H7" s="41" t="str">
+      <c r="H7" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!I6),Cases!I6&gt;10),
 ((Cases!I7-Cases!I6)/Cases!I6)/(Cases!$B7-Cases!$B6),
 "")</f>
         <v/>
       </c>
-      <c r="I7" s="41">
+      <c r="I7" s="39">
         <f>IF(AND(ISNUMBER(Cases!J6),Cases!J6&gt;10),
 ((Cases!J7-Cases!J6)/Cases!J6)/(Cases!$B7-Cases!$B6),
 "")</f>
         <v>0</v>
       </c>
-      <c r="J7" s="41" t="str">
+      <c r="J7" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!K6),Cases!K6&gt;10),
 ((Cases!K7-Cases!K6)/Cases!K6)/(Cases!$B7-Cases!$B6),
 "")</f>
         <v/>
       </c>
-      <c r="K7" s="41" t="str">
+      <c r="K7" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!L6),Cases!L6&gt;10),
 ((Cases!L7-Cases!L6)/Cases!L6)/(Cases!$B7-Cases!$B6),
 "")</f>
         <v/>
       </c>
-      <c r="L7" s="41">
+      <c r="L7" s="39">
         <f>IF(AND(ISNUMBER(Cases!M6),Cases!M6&gt;10),
 ((Cases!M7-Cases!M6)/Cases!M6)/(Cases!$B7-Cases!$B6),
 "")</f>
         <v>0.11650485436893204</v>
       </c>
-      <c r="M7" s="41" t="str">
+      <c r="M7" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!N6),Cases!N6&gt;10),
 ((Cases!N7-Cases!N6)/Cases!N6)/(Cases!$B7-Cases!$B6),
 "")</f>
         <v/>
       </c>
-      <c r="N7" s="41" t="str">
+      <c r="N7" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!O6),Cases!O6&gt;10),
 ((Cases!O7-Cases!O6)/Cases!O6)/(Cases!$B7-Cases!$B6),
 "")</f>
         <v/>
       </c>
-      <c r="O7" s="41" t="str">
+      <c r="O7" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!P6),Cases!P6&gt;10),
 ((Cases!P7-Cases!P6)/Cases!P6)/(Cases!$B7-Cases!$B6),
 "")</f>
         <v/>
       </c>
-      <c r="P7" s="41" t="str">
+      <c r="P7" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!Q6),Cases!Q6&gt;10),
 ((Cases!Q7-Cases!Q6)/Cases!Q6)/(Cases!$B7-Cases!$B6),
 "")</f>
         <v/>
       </c>
-      <c r="Q7" s="41" t="str">
+      <c r="Q7" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!R6),Cases!R6&gt;10),
 ((Cases!R7-Cases!R6)/Cases!R6)/(Cases!$B7-Cases!$B6),
 "")</f>
         <v/>
       </c>
-      <c r="R7" s="41" t="str">
+      <c r="R7" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!S6),Cases!S6&gt;10),
 ((Cases!S7-Cases!S6)/Cases!S6)/(Cases!$B7-Cases!$B6),
 "")</f>
         <v/>
       </c>
-      <c r="S7" s="42">
+      <c r="S7" s="40">
         <f>IF(AND(ISNUMBER(Cases!T6),Cases!T6&gt;10),
 ((Cases!T7-Cases!T6)/Cases!T6)/(Cases!$B7-Cases!$B6),
 "")</f>
         <v>0.33673469387755101</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="49">
+    <row r="8" spans="1:21">
+      <c r="A8" s="47">
         <f>Table5[[#This Row],['#]]</f>
         <v>6</v>
       </c>
-      <c r="B8" s="40">
+      <c r="B8" s="38">
         <f>Table5[[#This Row],[Date]]</f>
         <v>43895.625</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="39">
         <f>IF(AND(ISNUMBER(Cases!D7),Cases!D7&gt;10),
 ((Cases!D8-Cases!D7)/Cases!D7)/(Cases!$B8-Cases!$B7),
 "")</f>
         <v>0.46</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="39">
         <f>IF(AND(ISNUMBER(Cases!E7),Cases!E7&gt;10),
 ((Cases!E8-Cases!E7)/Cases!E7)/(Cases!$B8-Cases!$B7),
 "")</f>
         <v>0.45833333333333331</v>
       </c>
-      <c r="E8" s="41" t="str">
+      <c r="E8" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!F7),Cases!F7&gt;10),
 ((Cases!F8-Cases!F7)/Cases!F7)/(Cases!$B8-Cases!$B7),
 "")</f>
         <v/>
       </c>
-      <c r="F8" s="41" t="str">
+      <c r="F8" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!G7),Cases!G7&gt;10),
 ((Cases!G8-Cases!G7)/Cases!G7)/(Cases!$B8-Cases!$B7),
 "")</f>
         <v/>
       </c>
-      <c r="G8" s="41" t="str">
+      <c r="G8" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!H7),Cases!H7&gt;10),
 ((Cases!H8-Cases!H7)/Cases!H7)/(Cases!$B8-Cases!$B7),
 "")</f>
         <v/>
       </c>
-      <c r="H8" s="41" t="str">
+      <c r="H8" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!I7),Cases!I7&gt;10),
 ((Cases!I8-Cases!I7)/Cases!I7)/(Cases!$B8-Cases!$B7),
 "")</f>
         <v/>
       </c>
-      <c r="I8" s="41">
+      <c r="I8" s="39">
         <f>IF(AND(ISNUMBER(Cases!J7),Cases!J7&gt;10),
 ((Cases!J8-Cases!J7)/Cases!J7)/(Cases!$B8-Cases!$B7),
 "")</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="J8" s="41" t="str">
+      <c r="J8" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!K7),Cases!K7&gt;10),
 ((Cases!K8-Cases!K7)/Cases!K7)/(Cases!$B8-Cases!$B7),
 "")</f>
         <v/>
       </c>
-      <c r="K8" s="41" t="str">
+      <c r="K8" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!L7),Cases!L7&gt;10),
 ((Cases!L8-Cases!L7)/Cases!L7)/(Cases!$B8-Cases!$B7),
 "")</f>
         <v/>
       </c>
-      <c r="L8" s="41">
+      <c r="L8" s="39">
         <f>IF(AND(ISNUMBER(Cases!M7),Cases!M7&gt;10),
 ((Cases!M8-Cases!M7)/Cases!M7)/(Cases!$B8-Cases!$B7),
 "")</f>
         <v>0.57391304347826089</v>
       </c>
-      <c r="M8" s="41" t="str">
+      <c r="M8" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!N7),Cases!N7&gt;10),
 ((Cases!N8-Cases!N7)/Cases!N7)/(Cases!$B8-Cases!$B7),
 "")</f>
         <v/>
       </c>
-      <c r="N8" s="41" t="str">
+      <c r="N8" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!O7),Cases!O7&gt;10),
 ((Cases!O8-Cases!O7)/Cases!O7)/(Cases!$B8-Cases!$B7),
 "")</f>
         <v/>
       </c>
-      <c r="O8" s="41" t="str">
+      <c r="O8" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!P7),Cases!P7&gt;10),
 ((Cases!P8-Cases!P7)/Cases!P7)/(Cases!$B8-Cases!$B7),
 "")</f>
         <v/>
       </c>
-      <c r="P8" s="41" t="str">
+      <c r="P8" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!Q7),Cases!Q7&gt;10),
 ((Cases!Q8-Cases!Q7)/Cases!Q7)/(Cases!$B8-Cases!$B7),
 "")</f>
         <v/>
       </c>
-      <c r="Q8" s="41" t="str">
+      <c r="Q8" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!R7),Cases!R7&gt;10),
 ((Cases!R8-Cases!R7)/Cases!R7)/(Cases!$B8-Cases!$B7),
 "")</f>
         <v/>
       </c>
-      <c r="R8" s="41" t="str">
+      <c r="R8" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!S7),Cases!S7&gt;10),
 ((Cases!S8-Cases!S7)/Cases!S7)/(Cases!$B8-Cases!$B7),
 "")</f>
         <v/>
       </c>
-      <c r="S8" s="42">
+      <c r="S8" s="40">
         <f>IF(AND(ISNUMBER(Cases!T7),Cases!T7&gt;10),
 ((Cases!T8-Cases!T7)/Cases!T7)/(Cases!$B8-Cases!$B7),
 "")</f>
         <v>0.52671755725190839</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="49">
+    <row r="9" spans="1:21">
+      <c r="A9" s="47">
         <f>Table5[[#This Row],['#]]</f>
         <v>7</v>
       </c>
-      <c r="B9" s="40">
+      <c r="B9" s="38">
         <f>Table5[[#This Row],[Date]]</f>
         <v>43896.625</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="39">
         <f>IF(AND(ISNUMBER(Cases!D8),Cases!D8&gt;10),
 ((Cases!D9-Cases!D8)/Cases!D8)/(Cases!$B9-Cases!$B8),
 "")</f>
         <v>0.31506849315068491</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="39">
         <f>IF(AND(ISNUMBER(Cases!E8),Cases!E8&gt;10),
 ((Cases!E9-Cases!E8)/Cases!E8)/(Cases!$B9-Cases!$B8),
 "")</f>
         <v>0.67142857142857137</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="39">
         <f>IF(AND(ISNUMBER(Cases!F8),Cases!F8&gt;10),
 ((Cases!F9-Cases!F8)/Cases!F8)/(Cases!$B9-Cases!$B8),
 "")</f>
         <v>0.46153846153846156</v>
       </c>
-      <c r="F9" s="41" t="str">
+      <c r="F9" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!G8),Cases!G8&gt;10),
 ((Cases!G9-Cases!G8)/Cases!G8)/(Cases!$B9-Cases!$B8),
 "")</f>
         <v/>
       </c>
-      <c r="G9" s="41" t="str">
+      <c r="G9" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!H8),Cases!H8&gt;10),
 ((Cases!H9-Cases!H8)/Cases!H8)/(Cases!$B9-Cases!$B8),
 "")</f>
         <v/>
       </c>
-      <c r="H9" s="41" t="str">
+      <c r="H9" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!I8),Cases!I8&gt;10),
 ((Cases!I9-Cases!I8)/Cases!I8)/(Cases!$B9-Cases!$B8),
 "")</f>
         <v/>
       </c>
-      <c r="I9" s="41">
+      <c r="I9" s="39">
         <f>IF(AND(ISNUMBER(Cases!J8),Cases!J8&gt;10),
 ((Cases!J9-Cases!J8)/Cases!J8)/(Cases!$B9-Cases!$B8),
 "")</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="J9" s="41" t="str">
+      <c r="J9" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!K8),Cases!K8&gt;10),
 ((Cases!K9-Cases!K8)/Cases!K8)/(Cases!$B9-Cases!$B8),
 "")</f>
         <v/>
       </c>
-      <c r="K9" s="41">
+      <c r="K9" s="39">
         <f>IF(AND(ISNUMBER(Cases!L8),Cases!L8&gt;10),
 ((Cases!L9-Cases!L8)/Cases!L8)/(Cases!$B9-Cases!$B8),
 "")</f>
         <v>0</v>
       </c>
-      <c r="L9" s="41">
+      <c r="L9" s="39">
         <f>IF(AND(ISNUMBER(Cases!M8),Cases!M8&gt;10),
 ((Cases!M9-Cases!M8)/Cases!M8)/(Cases!$B9-Cases!$B8),
 "")</f>
         <v>0.81767955801104975</v>
       </c>
-      <c r="M9" s="41" t="str">
+      <c r="M9" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!N8),Cases!N8&gt;10),
 ((Cases!N9-Cases!N8)/Cases!N8)/(Cases!$B9-Cases!$B8),
 "")</f>
         <v/>
       </c>
-      <c r="N9" s="41" t="str">
+      <c r="N9" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!O8),Cases!O8&gt;10),
 ((Cases!O9-Cases!O8)/Cases!O8)/(Cases!$B9-Cases!$B8),
 "")</f>
         <v/>
       </c>
-      <c r="O9" s="41" t="str">
+      <c r="O9" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!P8),Cases!P8&gt;10),
 ((Cases!P9-Cases!P8)/Cases!P8)/(Cases!$B9-Cases!$B8),
 "")</f>
         <v/>
       </c>
-      <c r="P9" s="41" t="str">
+      <c r="P9" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!Q8),Cases!Q8&gt;10),
 ((Cases!Q9-Cases!Q8)/Cases!Q8)/(Cases!$B9-Cases!$B8),
 "")</f>
         <v/>
       </c>
-      <c r="Q9" s="41" t="str">
+      <c r="Q9" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!R8),Cases!R8&gt;10),
 ((Cases!R9-Cases!R8)/Cases!R8)/(Cases!$B9-Cases!$B8),
 "")</f>
         <v/>
       </c>
-      <c r="R9" s="41" t="str">
+      <c r="R9" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!S8),Cases!S8&gt;10),
 ((Cases!S9-Cases!S8)/Cases!S8)/(Cases!$B9-Cases!$B8),
 "")</f>
         <v/>
       </c>
-      <c r="S9" s="42">
+      <c r="S9" s="40">
         <f>IF(AND(ISNUMBER(Cases!T8),Cases!T8&gt;10),
 ((Cases!T9-Cases!T8)/Cases!T8)/(Cases!$B9-Cases!$B8),
 "")</f>
         <v>0.59750000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" s="49">
+    <row r="10" spans="1:21">
+      <c r="A10" s="47">
         <f>Table5[[#This Row],['#]]</f>
         <v>8</v>
       </c>
-      <c r="B10" s="40">
+      <c r="B10" s="38">
         <f>Table5[[#This Row],[Date]]</f>
         <v>43897.625</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="39">
         <f>IF(AND(ISNUMBER(Cases!D9),Cases!D9&gt;10),
 ((Cases!D10-Cases!D9)/Cases!D9)/(Cases!$B10-Cases!$B9),
 "")</f>
         <v>0.77083333333333337</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="39">
         <f>IF(AND(ISNUMBER(Cases!E9),Cases!E9&gt;10),
 ((Cases!E10-Cases!E9)/Cases!E9)/(Cases!$B10-Cases!$B9),
 "")</f>
         <v>0.14529914529914531</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="39">
         <f>IF(AND(ISNUMBER(Cases!F9),Cases!F9&gt;10),
 ((Cases!F10-Cases!F9)/Cases!F9)/(Cases!$B10-Cases!$B9),
 "")</f>
         <v>0.47368421052631576</v>
       </c>
-      <c r="F10" s="41" t="str">
+      <c r="F10" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!G9),Cases!G9&gt;10),
 ((Cases!G10-Cases!G9)/Cases!G9)/(Cases!$B10-Cases!$B9),
 "")</f>
         <v/>
       </c>
-      <c r="G10" s="41" t="str">
+      <c r="G10" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!H9),Cases!H9&gt;10),
 ((Cases!H10-Cases!H9)/Cases!H9)/(Cases!$B10-Cases!$B9),
 "")</f>
         <v/>
       </c>
-      <c r="H10" s="41">
+      <c r="H10" s="39">
         <f>IF(AND(ISNUMBER(Cases!I9),Cases!I9&gt;10),
 ((Cases!I10-Cases!I9)/Cases!I9)/(Cases!$B10-Cases!$B9),
 "")</f>
         <v>0.18181818181818182</v>
       </c>
-      <c r="I10" s="41">
+      <c r="I10" s="39">
         <f>IF(AND(ISNUMBER(Cases!J9),Cases!J9&gt;10),
 ((Cases!J10-Cases!J9)/Cases!J9)/(Cases!$B10-Cases!$B9),
 "")</f>
         <v>6.25E-2</v>
       </c>
-      <c r="J10" s="41" t="str">
+      <c r="J10" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!K9),Cases!K9&gt;10),
 ((Cases!K10-Cases!K9)/Cases!K9)/(Cases!$B10-Cases!$B9),
 "")</f>
         <v/>
       </c>
-      <c r="K10" s="41">
+      <c r="K10" s="39">
         <f>IF(AND(ISNUMBER(Cases!L9),Cases!L9&gt;10),
 ((Cases!L10-Cases!L9)/Cases!L9)/(Cases!$B10-Cases!$B9),
 "")</f>
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="L10" s="41">
+      <c r="L10" s="39">
         <f>IF(AND(ISNUMBER(Cases!M9),Cases!M9&gt;10),
 ((Cases!M10-Cases!M9)/Cases!M9)/(Cases!$B10-Cases!$B9),
 "")</f>
         <v>0.1337386018237082</v>
       </c>
-      <c r="M10" s="41" t="str">
+      <c r="M10" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!N9),Cases!N9&gt;10),
 ((Cases!N10-Cases!N9)/Cases!N9)/(Cases!$B10-Cases!$B9),
 "")</f>
         <v/>
       </c>
-      <c r="N10" s="41" t="str">
+      <c r="N10" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!O9),Cases!O9&gt;10),
 ((Cases!O10-Cases!O9)/Cases!O9)/(Cases!$B10-Cases!$B9),
 "")</f>
         <v/>
       </c>
-      <c r="O10" s="41" t="str">
+      <c r="O10" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!P9),Cases!P9&gt;10),
 ((Cases!P10-Cases!P9)/Cases!P9)/(Cases!$B10-Cases!$B9),
 "")</f>
         <v/>
       </c>
-      <c r="P10" s="41" t="str">
+      <c r="P10" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!Q9),Cases!Q9&gt;10),
 ((Cases!Q10-Cases!Q9)/Cases!Q9)/(Cases!$B10-Cases!$B9),
 "")</f>
         <v/>
       </c>
-      <c r="Q10" s="41" t="str">
+      <c r="Q10" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!R9),Cases!R9&gt;10),
 ((Cases!R10-Cases!R9)/Cases!R9)/(Cases!$B10-Cases!$B9),
 "")</f>
         <v/>
       </c>
-      <c r="R10" s="41" t="str">
+      <c r="R10" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!S9),Cases!S9&gt;10),
 ((Cases!S10-Cases!S9)/Cases!S9)/(Cases!$B10-Cases!$B9),
 "")</f>
         <v/>
       </c>
-      <c r="S10" s="42">
+      <c r="S10" s="40">
         <f>IF(AND(ISNUMBER(Cases!T9),Cases!T9&gt;10),
 ((Cases!T10-Cases!T9)/Cases!T9)/(Cases!$B10-Cases!$B9),
 "")</f>
         <v>0.24413145539906103</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="49">
+    <row r="11" spans="1:21">
+      <c r="A11" s="47">
         <f>Table5[[#This Row],['#]]</f>
         <v>9</v>
       </c>
-      <c r="B11" s="40">
+      <c r="B11" s="38">
         <f>Table5[[#This Row],[Date]]</f>
         <v>43898.625</v>
       </c>
-      <c r="C11" s="41">
+      <c r="C11" s="39">
         <f>IF(AND(ISNUMBER(Cases!D10),Cases!D10&gt;10),
 ((Cases!D11-Cases!D10)/Cases!D10)/(Cases!$B11-Cases!$B10),
 "")</f>
         <v>7.0588235294117646E-2</v>
       </c>
-      <c r="D11" s="41">
+      <c r="D11" s="39">
         <f>IF(AND(ISNUMBER(Cases!E10),Cases!E10&gt;10),
 ((Cases!E11-Cases!E10)/Cases!E10)/(Cases!$B11-Cases!$B10),
 "")</f>
         <v>0.28358208955223879</v>
       </c>
-      <c r="E11" s="41">
+      <c r="E11" s="39">
         <f>IF(AND(ISNUMBER(Cases!F10),Cases!F10&gt;10),
 ((Cases!F11-Cases!F10)/Cases!F10)/(Cases!$B11-Cases!$B10),
 "")</f>
         <v>0.42857142857142855</v>
       </c>
-      <c r="F11" s="41" t="str">
+      <c r="F11" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!G10),Cases!G10&gt;10),
 ((Cases!G11-Cases!G10)/Cases!G10)/(Cases!$B11-Cases!$B10),
 "")</f>
         <v/>
       </c>
-      <c r="G11" s="41" t="str">
+      <c r="G11" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!H10),Cases!H10&gt;10),
 ((Cases!H11-Cases!H10)/Cases!H10)/(Cases!$B11-Cases!$B10),
 "")</f>
         <v/>
       </c>
-      <c r="H11" s="41">
+      <c r="H11" s="39">
         <f>IF(AND(ISNUMBER(Cases!I10),Cases!I10&gt;10),
 ((Cases!I11-Cases!I10)/Cases!I10)/(Cases!$B11-Cases!$B10),
 "")</f>
         <v>0</v>
       </c>
-      <c r="I11" s="41">
+      <c r="I11" s="39">
         <f>IF(AND(ISNUMBER(Cases!J10),Cases!J10&gt;10),
 ((Cases!J11-Cases!J10)/Cases!J10)/(Cases!$B11-Cases!$B10),
 "")</f>
         <v>0.11764705882352941</v>
       </c>
-      <c r="J11" s="41" t="str">
+      <c r="J11" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!K10),Cases!K10&gt;10),
 ((Cases!K11-Cases!K10)/Cases!K10)/(Cases!$B11-Cases!$B10),
 "")</f>
         <v/>
       </c>
-      <c r="K11" s="41">
+      <c r="K11" s="39">
         <f>IF(AND(ISNUMBER(Cases!L10),Cases!L10&gt;10),
 ((Cases!L11-Cases!L10)/Cases!L10)/(Cases!$B11-Cases!$B10),
 "")</f>
         <v>0.10526315789473684</v>
       </c>
-      <c r="L11" s="41">
+      <c r="L11" s="39">
         <f>IF(AND(ISNUMBER(Cases!M10),Cases!M10&gt;10),
 ((Cases!M11-Cases!M10)/Cases!M10)/(Cases!$B11-Cases!$B10),
 "")</f>
         <v>6.7024128686327081E-2</v>
       </c>
-      <c r="M11" s="41">
+      <c r="M11" s="39">
         <f>IF(AND(ISNUMBER(Cases!N10),Cases!N10&gt;10),
 ((Cases!N11-Cases!N10)/Cases!N10)/(Cases!$B11-Cases!$B10),
 "")</f>
         <v>0.46153846153846156</v>
       </c>
-      <c r="N11" s="41" t="str">
+      <c r="N11" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!O10),Cases!O10&gt;10),
 ((Cases!O11-Cases!O10)/Cases!O10)/(Cases!$B11-Cases!$B10),
 "")</f>
         <v/>
       </c>
-      <c r="O11" s="41" t="str">
+      <c r="O11" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!P10),Cases!P10&gt;10),
 ((Cases!P11-Cases!P10)/Cases!P10)/(Cases!$B11-Cases!$B10),
 "")</f>
         <v/>
       </c>
-      <c r="P11" s="41" t="str">
+      <c r="P11" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!Q10),Cases!Q10&gt;10),
 ((Cases!Q11-Cases!Q10)/Cases!Q10)/(Cases!$B11-Cases!$B10),
 "")</f>
         <v/>
       </c>
-      <c r="Q11" s="41" t="str">
+      <c r="Q11" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!R10),Cases!R10&gt;10),
 ((Cases!R11-Cases!R10)/Cases!R10)/(Cases!$B11-Cases!$B10),
 "")</f>
         <v/>
       </c>
-      <c r="R11" s="41" t="str">
+      <c r="R11" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!S10),Cases!S10&gt;10),
 ((Cases!S11-Cases!S10)/Cases!S10)/(Cases!$B11-Cases!$B10),
 "")</f>
         <v/>
       </c>
-      <c r="S11" s="42">
+      <c r="S11" s="40">
         <f>IF(AND(ISNUMBER(Cases!T10),Cases!T10&gt;10),
 ((Cases!T11-Cases!T10)/Cases!T10)/(Cases!$B11-Cases!$B10),
 "")</f>
         <v>0.13459119496855346</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="49">
+    <row r="12" spans="1:21">
+      <c r="A12" s="47">
         <f>Table5[[#This Row],['#]]</f>
         <v>10</v>
       </c>
-      <c r="B12" s="40">
+      <c r="B12" s="38">
         <f>Table5[[#This Row],[Date]]</f>
         <v>43899.625</v>
       </c>
-      <c r="C12" s="41">
+      <c r="C12" s="39">
         <f>IF(AND(ISNUMBER(Cases!D11),Cases!D11&gt;10),
 ((Cases!D12-Cases!D11)/Cases!D11)/(Cases!$B12-Cases!$B11),
 "")</f>
         <v>0.12087912087912088</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="39">
         <f>IF(AND(ISNUMBER(Cases!E11),Cases!E11&gt;10),
 ((Cases!E12-Cases!E11)/Cases!E11)/(Cases!$B12-Cases!$B11),
 "")</f>
         <v>0.48837209302325579</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="39">
         <f>IF(AND(ISNUMBER(Cases!F11),Cases!F11&gt;10),
 ((Cases!F12-Cases!F11)/Cases!F11)/(Cases!$B12-Cases!$B11),
 "")</f>
         <v>0.2</v>
       </c>
-      <c r="F12" s="41" t="str">
+      <c r="F12" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!G11),Cases!G11&gt;10),
 ((Cases!G12-Cases!G11)/Cases!G11)/(Cases!$B12-Cases!$B11),
 "")</f>
         <v/>
       </c>
-      <c r="G12" s="41" t="str">
+      <c r="G12" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!H11),Cases!H11&gt;10),
 ((Cases!H12-Cases!H11)/Cases!H11)/(Cases!$B12-Cases!$B11),
 "")</f>
         <v/>
       </c>
-      <c r="H12" s="41">
+      <c r="H12" s="39">
         <f>IF(AND(ISNUMBER(Cases!I11),Cases!I11&gt;10),
 ((Cases!I12-Cases!I11)/Cases!I11)/(Cases!$B12-Cases!$B11),
 "")</f>
         <v>0.30769230769230771</v>
       </c>
-      <c r="I12" s="41">
+      <c r="I12" s="39">
         <f>IF(AND(ISNUMBER(Cases!J11),Cases!J11&gt;10),
 ((Cases!J12-Cases!J11)/Cases!J11)/(Cases!$B12-Cases!$B11),
 "")</f>
         <v>0.36842105263157893</v>
       </c>
-      <c r="J12" s="41" t="str">
+      <c r="J12" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!K11),Cases!K11&gt;10),
 ((Cases!K12-Cases!K11)/Cases!K11)/(Cases!$B12-Cases!$B11),
 "")</f>
         <v/>
       </c>
-      <c r="K12" s="41">
+      <c r="K12" s="39">
         <f>IF(AND(ISNUMBER(Cases!L11),Cases!L11&gt;10),
 ((Cases!L12-Cases!L11)/Cases!L11)/(Cases!$B12-Cases!$B11),
 "")</f>
         <v>0.80952380952380953</v>
       </c>
-      <c r="L12" s="41">
+      <c r="L12" s="39">
         <f>IF(AND(ISNUMBER(Cases!M11),Cases!M11&gt;10),
 ((Cases!M12-Cases!M11)/Cases!M11)/(Cases!$B12-Cases!$B11),
 "")</f>
         <v>0.21608040201005024</v>
       </c>
-      <c r="M12" s="41">
+      <c r="M12" s="39">
         <f>IF(AND(ISNUMBER(Cases!N11),Cases!N11&gt;10),
 ((Cases!N12-Cases!N11)/Cases!N11)/(Cases!$B12-Cases!$B11),
 "")</f>
         <v>-0.10526315789473684</v>
       </c>
-      <c r="N12" s="41" t="str">
+      <c r="N12" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!O11),Cases!O11&gt;10),
 ((Cases!O12-Cases!O11)/Cases!O11)/(Cases!$B12-Cases!$B11),
 "")</f>
         <v/>
       </c>
-      <c r="O12" s="41" t="str">
+      <c r="O12" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!P11),Cases!P11&gt;10),
 ((Cases!P12-Cases!P11)/Cases!P11)/(Cases!$B12-Cases!$B11),
 "")</f>
         <v/>
       </c>
-      <c r="P12" s="41" t="str">
+      <c r="P12" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!Q11),Cases!Q11&gt;10),
 ((Cases!Q12-Cases!Q11)/Cases!Q11)/(Cases!$B12-Cases!$B11),
 "")</f>
         <v/>
       </c>
-      <c r="Q12" s="41" t="str">
+      <c r="Q12" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!R11),Cases!R11&gt;10),
 ((Cases!R12-Cases!R11)/Cases!R11)/(Cases!$B12-Cases!$B11),
 "")</f>
         <v/>
       </c>
-      <c r="R12" s="41" t="str">
+      <c r="R12" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!S11),Cases!S11&gt;10),
 ((Cases!S12-Cases!S11)/Cases!S11)/(Cases!$B12-Cases!$B11),
 "")</f>
         <v/>
       </c>
-      <c r="S12" s="42">
+      <c r="S12" s="40">
         <f>IF(AND(ISNUMBER(Cases!T11),Cases!T11&gt;10),
 ((Cases!T12-Cases!T11)/Cases!T11)/(Cases!$B12-Cases!$B11),
 "")</f>
         <v>0.26274944567627495</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" s="49">
+    <row r="13" spans="1:21">
+      <c r="A13" s="47">
         <f>Table5[[#This Row],['#]]</f>
         <v>11</v>
       </c>
-      <c r="B13" s="40">
+      <c r="B13" s="38">
         <f>Table5[[#This Row],[Date]]</f>
         <v>43900.625</v>
       </c>
-      <c r="C13" s="41">
+      <c r="C13" s="39">
         <f>IF(AND(ISNUMBER(Cases!D12),Cases!D12&gt;10),
 ((Cases!D13-Cases!D12)/Cases!D12)/(Cases!$B13-Cases!$B12),
 "")</f>
         <v>0.16176470588235295</v>
       </c>
-      <c r="D13" s="41">
+      <c r="D13" s="39">
         <f>IF(AND(ISNUMBER(Cases!E12),Cases!E12&gt;10),
 ((Cases!E13-Cases!E12)/Cases!E12)/(Cases!$B13-Cases!$B12),
 "")</f>
         <v>0.2265625</v>
       </c>
-      <c r="E13" s="41">
+      <c r="E13" s="39">
         <f>IF(AND(ISNUMBER(Cases!F12),Cases!F12&gt;10),
 ((Cases!F13-Cases!F12)/Cases!F12)/(Cases!$B13-Cases!$B12),
 "")</f>
         <v>0</v>
       </c>
-      <c r="F13" s="41" t="str">
+      <c r="F13" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!G12),Cases!G12&gt;10),
 ((Cases!G13-Cases!G12)/Cases!G12)/(Cases!$B13-Cases!$B12),
 "")</f>
         <v/>
       </c>
-      <c r="G13" s="41" t="str">
+      <c r="G13" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!H12),Cases!H12&gt;10),
 ((Cases!H13-Cases!H12)/Cases!H12)/(Cases!$B13-Cases!$B12),
 "")</f>
         <v/>
       </c>
-      <c r="H13" s="41">
+      <c r="H13" s="39">
         <f>IF(AND(ISNUMBER(Cases!I12),Cases!I12&gt;10),
 ((Cases!I13-Cases!I12)/Cases!I12)/(Cases!$B13-Cases!$B12),
 "")</f>
         <v>0.70588235294117652</v>
       </c>
-      <c r="I13" s="41">
+      <c r="I13" s="39">
         <f>IF(AND(ISNUMBER(Cases!J12),Cases!J12&gt;10),
 ((Cases!J13-Cases!J12)/Cases!J12)/(Cases!$B13-Cases!$B12),
 "")</f>
         <v>0.34615384615384615</v>
       </c>
-      <c r="J13" s="41" t="str">
+      <c r="J13" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!K12),Cases!K12&gt;10),
 ((Cases!K13-Cases!K12)/Cases!K12)/(Cases!$B13-Cases!$B12),
 "")</f>
         <v/>
       </c>
-      <c r="K13" s="41">
+      <c r="K13" s="39">
         <f>IF(AND(ISNUMBER(Cases!L12),Cases!L12&gt;10),
 ((Cases!L13-Cases!L12)/Cases!L12)/(Cases!$B13-Cases!$B12),
 "")</f>
         <v>0.28947368421052633</v>
       </c>
-      <c r="L13" s="41">
+      <c r="L13" s="39">
         <f>IF(AND(ISNUMBER(Cases!M12),Cases!M12&gt;10),
 ((Cases!M13-Cases!M12)/Cases!M12)/(Cases!$B13-Cases!$B12),
 "")</f>
         <v>0</v>
       </c>
-      <c r="M13" s="41">
+      <c r="M13" s="39">
         <f>IF(AND(ISNUMBER(Cases!N12),Cases!N12&gt;10),
 ((Cases!N13-Cases!N12)/Cases!N12)/(Cases!$B13-Cases!$B12),
 "")</f>
         <v>0.47058823529411764</v>
       </c>
-      <c r="N13" s="41" t="str">
+      <c r="N13" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!O12),Cases!O12&gt;10),
 ((Cases!O13-Cases!O12)/Cases!O12)/(Cases!$B13-Cases!$B12),
 "")</f>
         <v/>
       </c>
-      <c r="O13" s="41">
+      <c r="O13" s="39">
         <f>IF(AND(ISNUMBER(Cases!P12),Cases!P12&gt;10),
 ((Cases!P13-Cases!P12)/Cases!P12)/(Cases!$B13-Cases!$B12),
 "")</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P13" s="41" t="str">
+      <c r="P13" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!Q12),Cases!Q12&gt;10),
 ((Cases!Q13-Cases!Q12)/Cases!Q12)/(Cases!$B13-Cases!$B12),
 "")</f>
         <v/>
       </c>
-      <c r="Q13" s="41" t="str">
+      <c r="Q13" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!R12),Cases!R12&gt;10),
 ((Cases!R13-Cases!R12)/Cases!R12)/(Cases!$B13-Cases!$B12),
 "")</f>
         <v/>
       </c>
-      <c r="R13" s="41" t="str">
+      <c r="R13" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!S12),Cases!S12&gt;10),
 ((Cases!S13-Cases!S12)/Cases!S12)/(Cases!$B13-Cases!$B12),
 "")</f>
         <v/>
       </c>
-      <c r="S13" s="42">
+      <c r="S13" s="40">
         <f>IF(AND(ISNUMBER(Cases!T12),Cases!T12&gt;10),
 ((Cases!T13-Cases!T12)/Cases!T12)/(Cases!$B13-Cases!$B12),
 "")</f>
         <v>0.13784021071115013</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="49">
+    <row r="14" spans="1:21">
+      <c r="A14" s="47">
         <f>Table5[[#This Row],['#]]</f>
         <v>12</v>
       </c>
-      <c r="B14" s="40">
+      <c r="B14" s="38">
         <f>Table5[[#This Row],[Date]]</f>
         <v>43901.625</v>
       </c>
-      <c r="C14" s="41">
+      <c r="C14" s="39">
         <f>IF(AND(ISNUMBER(Cases!D13),Cases!D13&gt;10),
 ((Cases!D14-Cases!D13)/Cases!D13)/(Cases!$B14-Cases!$B13),
 "")</f>
         <v>0.16877637130801687</v>
       </c>
-      <c r="D14" s="41">
+      <c r="D14" s="39">
         <f>IF(AND(ISNUMBER(Cases!E13),Cases!E13&gt;10),
 ((Cases!E14-Cases!E13)/Cases!E13)/(Cases!$B14-Cases!$B13),
 "")</f>
         <v>0.16560509554140126</v>
       </c>
-      <c r="E14" s="41">
+      <c r="E14" s="39">
         <f>IF(AND(ISNUMBER(Cases!F13),Cases!F13&gt;10),
 ((Cases!F14-Cases!F13)/Cases!F13)/(Cases!$B14-Cases!$B13),
 "")</f>
         <v>0.875</v>
       </c>
-      <c r="F14" s="41" t="str">
+      <c r="F14" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!G13),Cases!G13&gt;10),
 ((Cases!G14-Cases!G13)/Cases!G13)/(Cases!$B14-Cases!$B13),
 "")</f>
         <v/>
       </c>
-      <c r="G14" s="41" t="str">
+      <c r="G14" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!H13),Cases!H13&gt;10),
 ((Cases!H14-Cases!H13)/Cases!H13)/(Cases!$B14-Cases!$B13),
 "")</f>
         <v/>
       </c>
-      <c r="H14" s="41">
+      <c r="H14" s="39">
         <f>IF(AND(ISNUMBER(Cases!I13),Cases!I13&gt;10),
 ((Cases!I14-Cases!I13)/Cases!I13)/(Cases!$B14-Cases!$B13),
 "")</f>
         <v>0.65517241379310343</v>
       </c>
-      <c r="I14" s="41">
+      <c r="I14" s="39">
         <f>IF(AND(ISNUMBER(Cases!J13),Cases!J13&gt;10),
 ((Cases!J14-Cases!J13)/Cases!J13)/(Cases!$B14-Cases!$B13),
 "")</f>
         <v>0.37142857142857144</v>
       </c>
-      <c r="J14" s="41">
+      <c r="J14" s="39">
         <f>IF(AND(ISNUMBER(Cases!K13),Cases!K13&gt;10),
 ((Cases!K14-Cases!K13)/Cases!K13)/(Cases!$B14-Cases!$B13),
 "")</f>
         <v>0.30769230769230771</v>
       </c>
-      <c r="K14" s="41">
+      <c r="K14" s="39">
         <f>IF(AND(ISNUMBER(Cases!L13),Cases!L13&gt;10),
 ((Cases!L14-Cases!L13)/Cases!L13)/(Cases!$B14-Cases!$B13),
 "")</f>
         <v>0.53061224489795922</v>
       </c>
-      <c r="L14" s="41">
+      <c r="L14" s="39">
         <f>IF(AND(ISNUMBER(Cases!M13),Cases!M13&gt;10),
 ((Cases!M14-Cases!M13)/Cases!M13)/(Cases!$B14-Cases!$B13),
 "")</f>
         <v>0</v>
       </c>
-      <c r="M14" s="41">
+      <c r="M14" s="39">
         <f>IF(AND(ISNUMBER(Cases!N13),Cases!N13&gt;10),
 ((Cases!N14-Cases!N13)/Cases!N13)/(Cases!$B14-Cases!$B13),
 "")</f>
         <v>0</v>
       </c>
-      <c r="N14" s="41" t="str">
+      <c r="N14" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!O13),Cases!O13&gt;10),
 ((Cases!O14-Cases!O13)/Cases!O13)/(Cases!$B14-Cases!$B13),
 "")</f>
         <v/>
       </c>
-      <c r="O14" s="41">
+      <c r="O14" s="39">
         <f>IF(AND(ISNUMBER(Cases!P13),Cases!P13&gt;10),
 ((Cases!P14-Cases!P13)/Cases!P13)/(Cases!$B14-Cases!$B13),
 "")</f>
         <v>0.18181818181818182</v>
       </c>
-      <c r="P14" s="41" t="str">
+      <c r="P14" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!Q13),Cases!Q13&gt;10),
 ((Cases!Q14-Cases!Q13)/Cases!Q13)/(Cases!$B14-Cases!$B13),
 "")</f>
         <v/>
       </c>
-      <c r="Q14" s="41" t="str">
+      <c r="Q14" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!R13),Cases!R13&gt;10),
 ((Cases!R14-Cases!R13)/Cases!R13)/(Cases!$B14-Cases!$B13),
 "")</f>
         <v/>
       </c>
-      <c r="R14" s="41" t="str">
+      <c r="R14" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!S13),Cases!S13&gt;10),
 ((Cases!S14-Cases!S13)/Cases!S13)/(Cases!$B14-Cases!$B13),
 "")</f>
         <v/>
       </c>
-      <c r="S14" s="42">
+      <c r="S14" s="40">
         <f>IF(AND(ISNUMBER(Cases!T13),Cases!T13&gt;10),
 ((Cases!T14-Cases!T13)/Cases!T13)/(Cases!$B14-Cases!$B13),
 "")</f>
         <v>0.20910493827160495</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="65">
+    <row r="15" spans="1:21">
+      <c r="A15" s="63">
         <f>Table5[[#This Row],['#]]</f>
         <v>13</v>
       </c>
-      <c r="B15" s="66">
+      <c r="B15" s="64">
         <f>Table5[[#This Row],[Date]]</f>
         <v>43902.625</v>
       </c>
-      <c r="C15" s="67">
+      <c r="C15" s="65">
         <f>IF(AND(ISNUMBER(Cases!D14),Cases!D14&gt;10),
 ((Cases!D15-Cases!D14)/Cases!D14)/(Cases!$B15-Cases!$B14),
 "")</f>
         <v>0.63898916967509023</v>
       </c>
-      <c r="D15" s="67">
+      <c r="D15" s="65">
         <f>IF(AND(ISNUMBER(Cases!E14),Cases!E14&gt;10),
 ((Cases!E15-Cases!E14)/Cases!E14)/(Cases!$B15-Cases!$B14),
 "")</f>
         <v>0.36612021857923499</v>
       </c>
-      <c r="E15" s="67">
+      <c r="E15" s="65">
         <f>IF(AND(ISNUMBER(Cases!F14),Cases!F14&gt;10),
 ((Cases!F15-Cases!F14)/Cases!F14)/(Cases!$B15-Cases!$B14),
 "")</f>
         <v>0.52222222222222225</v>
       </c>
-      <c r="F15" s="67">
+      <c r="F15" s="65">
         <f>IF(AND(ISNUMBER(Cases!G14),Cases!G14&gt;10),
 ((Cases!G15-Cases!G14)/Cases!G14)/(Cases!$B15-Cases!$B14),
 "")</f>
         <v>0.25</v>
       </c>
-      <c r="G15" s="67">
+      <c r="G15" s="65">
         <f>IF(AND(ISNUMBER(Cases!H14),Cases!H14&gt;10),
 ((Cases!H15-Cases!H14)/Cases!H14)/(Cases!$B15-Cases!$B14),
 "")</f>
         <v>0.80952380952380953</v>
       </c>
-      <c r="H15" s="67">
+      <c r="H15" s="65">
         <f>IF(AND(ISNUMBER(Cases!I14),Cases!I14&gt;10),
 ((Cases!I15-Cases!I14)/Cases!I14)/(Cases!$B15-Cases!$B14),
 "")</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="I15" s="67">
+      <c r="I15" s="65">
         <f>IF(AND(ISNUMBER(Cases!J14),Cases!J14&gt;10),
 ((Cases!J15-Cases!J14)/Cases!J14)/(Cases!$B15-Cases!$B14),
 "")</f>
         <v>1.0625</v>
       </c>
-      <c r="J15" s="67">
+      <c r="J15" s="65">
         <f>IF(AND(ISNUMBER(Cases!K14),Cases!K14&gt;10),
 ((Cases!K15-Cases!K14)/Cases!K14)/(Cases!$B15-Cases!$B14),
 "")</f>
         <v>0.35294117647058826</v>
       </c>
-      <c r="K15" s="67">
+      <c r="K15" s="65">
         <f>IF(AND(ISNUMBER(Cases!L14),Cases!L14&gt;10),
 ((Cases!L15-Cases!L14)/Cases!L14)/(Cases!$B15-Cases!$B14),
 "")</f>
         <v>0.72</v>
       </c>
-      <c r="L15" s="67">
+      <c r="L15" s="65">
         <f>IF(AND(ISNUMBER(Cases!M14),Cases!M14&gt;10),
 ((Cases!M15-Cases!M14)/Cases!M14)/(Cases!$B15-Cases!$B14),
 "")</f>
         <v>0.42148760330578511</v>
       </c>
-      <c r="M15" s="67">
+      <c r="M15" s="65">
         <f>IF(AND(ISNUMBER(Cases!N14),Cases!N14&gt;10),
 ((Cases!N15-Cases!N14)/Cases!N14)/(Cases!$B15-Cases!$B14),
 "")</f>
         <v>1.08</v>
       </c>
-      <c r="N15" s="67">
+      <c r="N15" s="65">
         <f>IF(AND(ISNUMBER(Cases!O14),Cases!O14&gt;10),
 ((Cases!O15-Cases!O14)/Cases!O14)/(Cases!$B15-Cases!$B14),
 "")</f>
         <v>0</v>
       </c>
-      <c r="O15" s="67">
+      <c r="O15" s="65">
         <f>IF(AND(ISNUMBER(Cases!P14),Cases!P14&gt;10),
 ((Cases!P15-Cases!P14)/Cases!P14)/(Cases!$B15-Cases!$B14),
 "")</f>
         <v>0.73076923076923073</v>
       </c>
-      <c r="P15" s="67">
+      <c r="P15" s="65">
         <f>IF(AND(ISNUMBER(Cases!Q14),Cases!Q14&gt;10),
 ((Cases!Q15-Cases!Q14)/Cases!Q14)/(Cases!$B15-Cases!$B14),
 "")</f>
         <v>0.8</v>
       </c>
-      <c r="Q15" s="67">
+      <c r="Q15" s="65">
         <f>IF(AND(ISNUMBER(Cases!R14),Cases!R14&gt;10),
 ((Cases!R15-Cases!R14)/Cases!R14)/(Cases!$B15-Cases!$B14),
 "")</f>
         <v>0.14814814814814814</v>
       </c>
-      <c r="R15" s="67" t="str">
+      <c r="R15" s="65" t="str">
         <f>IF(AND(ISNUMBER(Cases!S14),Cases!S14&gt;10),
 ((Cases!S15-Cases!S14)/Cases!S14)/(Cases!$B15-Cases!$B14),
 "")</f>
         <v/>
       </c>
-      <c r="S15" s="68">
+      <c r="S15" s="66">
         <f>IF(AND(ISNUMBER(Cases!T14),Cases!T14&gt;10),
 ((Cases!T15-Cases!T14)/Cases!T14)/(Cases!$B15-Cases!$B14),
 "")</f>
@@ -10993,229 +9808,229 @@
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="20" width="3.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="26" width="13.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="10.83203125" style="7"/>
+    <col min="1" max="1" width="3.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="20" width="3.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="26" width="13.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="30" customFormat="1" ht="142" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="57" t="s">
+    <row r="1" spans="1:20" s="28" customFormat="1" ht="142">
+      <c r="A1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="29" t="s">
+      <c r="B1" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="M1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="N1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="29" t="s">
+      <c r="O1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="29" t="s">
+      <c r="P1" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="29" t="s">
+      <c r="Q1" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="29" t="s">
+      <c r="R1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="29" t="s">
+      <c r="S1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="57" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="31">
+      <c r="T1" s="55" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="29">
         <v>10</v>
       </c>
-      <c r="B2" s="32">
+      <c r="B2" s="30">
         <v>43899.625</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69">
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67">
         <v>2</v>
       </c>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="69"/>
-      <c r="T2" s="70">
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="68">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="34">
+    <row r="3" spans="1:20">
+      <c r="A3" s="32">
         <v>11</v>
       </c>
-      <c r="B3" s="35">
+      <c r="B3" s="33">
         <v>43900.625</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71">
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69">
         <v>2</v>
       </c>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="71"/>
-      <c r="T3" s="72">
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="69"/>
+      <c r="S3" s="69"/>
+      <c r="T3" s="70">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" s="31">
+    <row r="4" spans="1:20">
+      <c r="A4" s="29">
         <v>12</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="30">
         <v>43901.625</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69">
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67">
         <v>3</v>
       </c>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="70">
+      <c r="N4" s="67"/>
+      <c r="O4" s="67"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="67"/>
+      <c r="R4" s="67"/>
+      <c r="S4" s="67"/>
+      <c r="T4" s="68">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="21">
+    <row r="5" spans="1:20">
+      <c r="A5" s="19">
         <v>13</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="14">
         <v>43902.625</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="71">
+      <c r="D5" s="69">
         <v>1</v>
       </c>
-      <c r="E5" s="71">
+      <c r="E5" s="69">
         <v>1</v>
       </c>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71">
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69">
         <v>3</v>
       </c>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="71"/>
-      <c r="T5" s="72">
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="69"/>
+      <c r="T5" s="70">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="37"/>
-      <c r="S20" s="37"/>
-    </row>
-    <row r="45" spans="18:18" x14ac:dyDescent="0.2">
-      <c r="R45" s="38"/>
+    <row r="20" spans="2:19">
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="35"/>
+    </row>
+    <row r="45" spans="18:18">
+      <c r="R45" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11223,685 +10038,186 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B1A2932-0A20-274B-B0E4-259737EC0BA6}">
-  <dimension ref="A1:M21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC41BBED-4D9B-3745-A5D3-14CC93817815}">
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="13" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="64" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="71">
+        <v>43465</v>
+      </c>
+      <c r="D1" s="72" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>14</v>
-      </c>
-      <c r="D2">
-        <v>15</v>
-      </c>
-      <c r="E2">
-        <v>20</v>
-      </c>
-      <c r="F2">
-        <v>28</v>
-      </c>
-      <c r="G2">
-        <v>50</v>
-      </c>
-      <c r="H2">
-        <v>73</v>
-      </c>
-      <c r="I2">
-        <v>116</v>
-      </c>
-      <c r="J2">
-        <v>170</v>
-      </c>
-      <c r="K2">
-        <v>182</v>
-      </c>
-      <c r="L2">
-        <v>204</v>
-      </c>
-      <c r="M2">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+        <v>11069500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15</v>
-      </c>
-      <c r="C3">
-        <v>15</v>
-      </c>
-      <c r="D3">
-        <v>23</v>
-      </c>
-      <c r="E3">
-        <v>26</v>
-      </c>
-      <c r="F3">
-        <v>37</v>
-      </c>
-      <c r="G3">
-        <v>48</v>
-      </c>
-      <c r="H3">
-        <v>70</v>
-      </c>
-      <c r="I3">
-        <v>117</v>
-      </c>
-      <c r="J3">
-        <v>134</v>
-      </c>
-      <c r="K3">
-        <v>172</v>
-      </c>
-      <c r="L3">
-        <v>256</v>
-      </c>
-      <c r="M3">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>13076700</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <v>7</v>
-      </c>
-      <c r="H4">
-        <v>13</v>
-      </c>
-      <c r="I4">
-        <v>24</v>
-      </c>
-      <c r="J4">
-        <v>28</v>
-      </c>
-      <c r="K4">
-        <v>40</v>
-      </c>
-      <c r="L4">
-        <v>48</v>
-      </c>
-      <c r="M4">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>3644800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
-      <c r="K5">
-        <v>4</v>
-      </c>
-      <c r="L5">
-        <v>6</v>
-      </c>
-      <c r="M5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>2511900</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6">
-        <v>3</v>
-      </c>
-      <c r="I6">
-        <v>4</v>
-      </c>
-      <c r="J6">
-        <v>4</v>
-      </c>
-      <c r="K6">
-        <v>4</v>
-      </c>
-      <c r="L6">
-        <v>4</v>
-      </c>
-      <c r="M6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>683000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7">
-        <v>5</v>
-      </c>
-      <c r="I7">
-        <v>12</v>
-      </c>
-      <c r="J7">
-        <v>13</v>
-      </c>
-      <c r="K7">
-        <v>13</v>
-      </c>
-      <c r="L7">
-        <v>17</v>
-      </c>
-      <c r="M7">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>1841200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>8</v>
-      </c>
-      <c r="E8">
-        <v>10</v>
-      </c>
-      <c r="F8">
-        <v>12</v>
-      </c>
-      <c r="G8">
-        <v>12</v>
-      </c>
-      <c r="H8">
-        <v>14</v>
-      </c>
-      <c r="I8">
-        <v>16</v>
-      </c>
-      <c r="J8">
-        <v>17</v>
-      </c>
-      <c r="K8">
-        <v>19</v>
-      </c>
-      <c r="L8">
-        <v>26</v>
-      </c>
-      <c r="M8">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>6265800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="G9">
-        <v>4</v>
-      </c>
-      <c r="H9">
-        <v>4</v>
-      </c>
-      <c r="I9">
-        <v>5</v>
-      </c>
-      <c r="J9">
-        <v>5</v>
-      </c>
-      <c r="K9">
-        <v>8</v>
-      </c>
-      <c r="L9">
-        <v>10</v>
-      </c>
-      <c r="M9">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>1609700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <v>7</v>
-      </c>
-      <c r="H10">
-        <v>18</v>
-      </c>
-      <c r="I10">
-        <v>19</v>
-      </c>
-      <c r="J10">
-        <v>19</v>
-      </c>
-      <c r="K10">
-        <v>21</v>
-      </c>
-      <c r="L10">
-        <v>38</v>
-      </c>
-      <c r="M10">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>7982400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25</v>
-      </c>
-      <c r="C11">
-        <v>30</v>
-      </c>
-      <c r="D11">
-        <v>74</v>
-      </c>
-      <c r="E11">
-        <v>90</v>
-      </c>
-      <c r="F11">
-        <v>103</v>
-      </c>
-      <c r="G11">
-        <v>115</v>
-      </c>
-      <c r="H11">
-        <v>181</v>
-      </c>
-      <c r="I11">
-        <v>346</v>
-      </c>
-      <c r="J11">
-        <v>373</v>
-      </c>
-      <c r="K11">
-        <v>398</v>
-      </c>
-      <c r="L11">
-        <v>484</v>
-      </c>
-      <c r="M11">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+        <v>17932700</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>4084800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-      <c r="G13">
-        <v>7</v>
-      </c>
-      <c r="H13">
-        <v>8</v>
-      </c>
-      <c r="I13">
-        <v>10</v>
-      </c>
-      <c r="J13">
+        <v>990500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>4077900</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="K13">
-        <v>19</v>
-      </c>
-      <c r="L13">
-        <v>17</v>
-      </c>
-      <c r="M13">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>2</v>
-      </c>
-      <c r="J14">
-        <v>3</v>
-      </c>
-      <c r="K14">
-        <v>4</v>
-      </c>
-      <c r="L14">
-        <v>6</v>
-      </c>
-      <c r="M14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>2</v>
-      </c>
-      <c r="J15">
-        <v>4</v>
-      </c>
-      <c r="K15">
-        <v>7</v>
-      </c>
-      <c r="L15">
-        <v>12</v>
-      </c>
-      <c r="M15">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>2208300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="J16">
-        <v>8</v>
-      </c>
-      <c r="M16">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>2896700</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-      <c r="H17">
-        <v>7</v>
-      </c>
-      <c r="I17">
-        <v>8</v>
-      </c>
-      <c r="K17">
-        <v>9</v>
-      </c>
-      <c r="L17">
-        <v>9</v>
-      </c>
-      <c r="M17">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+        <v>2143100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>2</v>
-      </c>
-      <c r="K18">
-        <v>2</v>
-      </c>
-      <c r="L18">
-        <v>2</v>
-      </c>
-      <c r="M18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="B18">
+        <v>83019200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="B19">
+        <v>66823399.999999993</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="B20">
-        <v>53</v>
-      </c>
-      <c r="C20">
-        <v>66</v>
-      </c>
-      <c r="D20">
-        <v>129</v>
-      </c>
-      <c r="E20">
-        <v>157</v>
-      </c>
-      <c r="F20">
-        <v>196</v>
-      </c>
-      <c r="G20">
-        <v>262</v>
-      </c>
-      <c r="H20">
-        <v>400</v>
-      </c>
-      <c r="I20">
-        <v>684</v>
-      </c>
-      <c r="J20">
-        <v>795</v>
-      </c>
-      <c r="K20" s="1">
-        <v>902</v>
-      </c>
-      <c r="L20" s="1">
-        <v>1139</v>
-      </c>
-      <c r="M20">
-        <f>SUM(M2:M19)</f>
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="2">
-        <v>43889.416666666664</v>
-      </c>
-      <c r="C21" s="2">
-        <v>43890.416666666664</v>
-      </c>
-      <c r="D21" s="2">
-        <v>43891.625</v>
-      </c>
-      <c r="E21" s="2">
-        <v>43892.625</v>
-      </c>
-      <c r="F21" s="2">
-        <v>43893.625</v>
-      </c>
-      <c r="G21" s="2">
-        <v>43894.625</v>
-      </c>
-      <c r="H21" s="2">
-        <v>43895.625</v>
-      </c>
-      <c r="I21" s="2">
-        <v>43897.333333333336</v>
-      </c>
-      <c r="J21" s="2">
-        <v>43897.625</v>
-      </c>
-      <c r="K21" s="2">
-        <v>43898.625</v>
-      </c>
-      <c r="L21" s="2">
-        <v>43899.625</v>
-      </c>
-      <c r="M21" s="2">
-        <v>43900.625</v>
+        <v>12551000</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D1" r:id="rId1" xr:uid="{CF995789-7557-C045-8568-1170118EB7F2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/cases-de.xlsx
+++ b/data/cases-de.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/torben/Hacken/GitHub/COVID-19-Coronavirus-German-Regions/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1D0255-99E7-A246-8A31-034F6BA00633}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EFC311-E885-074D-96C9-057B950B3D30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14460" xr2:uid="{309167EE-B9E7-9F44-B3F3-07C1908B9528}"/>
   </bookViews>
@@ -236,13 +236,13 @@
     <t>inspiration for further evaluations</t>
   </si>
   <si>
-    <t>worldwide daten in GitHub</t>
-  </si>
-  <si>
     <t>This data at GitHub</t>
   </si>
   <si>
     <t>https://github.com/entorb/COVID-19-Coronavirus-German-Regions</t>
+  </si>
+  <si>
+    <t>world data at GitHub</t>
   </si>
 </sst>
 </file>
@@ -4435,7 +4435,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4447,10 +4447,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="72" t="s">
         <v>64</v>
-      </c>
-      <c r="B1" s="72" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4479,7 +4479,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="44" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B8" s="45" t="s">
         <v>29</v>

--- a/data/cases-de.xlsx
+++ b/data/cases-de.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/torben/Hacken/GitHub/COVID-19-Coronavirus-German-Regions/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EFC311-E885-074D-96C9-057B950B3D30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD0167B-4294-954D-B436-E257A5F4FB0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14460" xr2:uid="{309167EE-B9E7-9F44-B3F3-07C1908B9528}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14460" activeTab="8" xr2:uid="{309167EE-B9E7-9F44-B3F3-07C1908B9528}"/>
   </bookViews>
   <sheets>
     <sheet name="Links" sheetId="10" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Cases Change" sheetId="11" r:id="rId6"/>
     <sheet name="Death" sheetId="5" r:id="rId7"/>
     <sheet name="RefPopulation" sheetId="12" r:id="rId8"/>
+    <sheet name="When will it be 1 Mill cases" sheetId="13" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="71">
   <si>
     <t>Baden-Württemberg</t>
   </si>
@@ -243,6 +244,21 @@
   </si>
   <si>
     <t>world data at GitHub</t>
+  </si>
+  <si>
+    <t>Cases today</t>
+  </si>
+  <si>
+    <t>Duplications</t>
+  </si>
+  <si>
+    <t>Number to reach</t>
+  </si>
+  <si>
+    <t>Duplication time today</t>
+  </si>
+  <si>
+    <t>Days</t>
   </si>
 </sst>
 </file>
@@ -4434,7 +4450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05B1DF0-9508-684D-9C94-CA87D158EEEF}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -7080,8 +7096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{233E67D7-4FF2-D745-A107-DDC4CB6E1273}">
   <dimension ref="A1:Y15"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="144" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+    <sheetView zoomScale="144" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10042,7 +10058,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10220,4 +10236,61 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD699B48-9B9A-DD49-8864-472A6998CAC7}">
+  <dimension ref="A2:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2">
+        <v>2369</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="22">
+        <f xml:space="preserve"> LOG(B3/B2,2)</f>
+        <v>8.7215060860839433</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="52">
+        <f>B4*E2</f>
+        <v>26.164518258251832</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/cases-de.xlsx
+++ b/data/cases-de.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/torben/Hacken/GitHub/COVID-19-Coronavirus-German-Regions/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD0167B-4294-954D-B436-E257A5F4FB0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863045F6-2B0A-654E-A651-465A22EB9BC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14460" activeTab="8" xr2:uid="{309167EE-B9E7-9F44-B3F3-07C1908B9528}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14460" activeTab="4" xr2:uid="{309167EE-B9E7-9F44-B3F3-07C1908B9528}"/>
   </bookViews>
   <sheets>
     <sheet name="Links" sheetId="10" r:id="rId1"/>
@@ -23,6 +23,10 @@
     <sheet name="RefPopulation" sheetId="12" r:id="rId8"/>
     <sheet name="When will it be 1 Mill cases" sheetId="13" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="last_DE_Total">Cases!$Z$5</definedName>
+    <definedName name="min_number">'Cases Change'!$V$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="72">
   <si>
     <t>Baden-Württemberg</t>
   </si>
@@ -162,9 +166,6 @@
     <t xml:space="preserve">am 29.2.-2.3.20 führte das RKI 2 Fälle als "Repatriierte" neben den 16 Bundesländern, daher Gesamt an den Tagen um 2 höher als die Summe </t>
   </si>
   <si>
-    <t>nur wenn mehr als 10 Fälle</t>
-  </si>
-  <si>
     <t>Delta</t>
   </si>
   <si>
@@ -184,9 +185,6 @@
   </si>
   <si>
     <t>davon elek­tro­nisch über­mittelt</t>
-  </si>
-  <si>
-    <t>Beson­ders be­trof­fene Gebiete in Deutsch­land</t>
   </si>
   <si>
     <t>454 (1)</t>
@@ -260,6 +258,15 @@
   <si>
     <t>Days</t>
   </si>
+  <si>
+    <t>min number</t>
+  </si>
+  <si>
+    <t>of cases to display here</t>
+  </si>
+  <si>
+    <t>last (DE Total)</t>
+  </si>
 </sst>
 </file>
 
@@ -268,7 +275,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -468,7 +475,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -636,13 +643,106 @@
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="50">
+  <dxfs count="51">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="27" formatCode="dd/mm/yy\ hh:mm"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="27" formatCode="dd/mm/yy\ hh:mm"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1412,81 +1512,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="27" formatCode="dd/mm/yy\ hh:mm"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="27" formatCode="dd/mm/yy\ hh:mm"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2236,10 +2261,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Cases!$B$2:$B$15</c:f>
+              <c:f>Cases!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy\ h:mm</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>43889.416666666664</c:v>
                 </c:pt>
@@ -2281,16 +2306,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>43902.625</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43903.625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cases!$T$2:$T$15</c:f>
+              <c:f>Cases!$T$2:$T$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>53</c:v>
                 </c:pt>
@@ -2332,6 +2360,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>2369</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2384,10 +2415,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Cases!$B$2:$B$15</c:f>
+              <c:f>Cases!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy\ h:mm</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>43889.416666666664</c:v>
                 </c:pt>
@@ -2429,16 +2460,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>43902.625</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43903.625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cases!$M$2:$M$15</c:f>
+              <c:f>Cases!$M$2:$M$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>25</c:v>
                 </c:pt>
@@ -2480,6 +2514,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>688</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>936</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2531,10 +2568,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Cases!$B$2:$B$15</c:f>
+              <c:f>Cases!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy\ h:mm</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>43889.416666666664</c:v>
                 </c:pt>
@@ -2576,16 +2613,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>43902.625</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43903.625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cases!$E$2:$E$15</c:f>
+              <c:f>Cases!$E$2:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>15</c:v>
                 </c:pt>
@@ -2627,6 +2667,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>558</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2679,10 +2722,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Cases!$B$2:$B$15</c:f>
+              <c:f>Cases!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy\ h:mm</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>43889.416666666664</c:v>
                 </c:pt>
@@ -2724,16 +2767,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>43902.625</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43903.625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cases!$D$2:$D$15</c:f>
+              <c:f>Cases!$D$2:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -2774,6 +2820,9 @@
                   <c:v>277</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>454</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>454</c:v>
                 </c:pt>
               </c:numCache>
@@ -2826,10 +2875,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Cases!$B$2:$B$15</c:f>
+              <c:f>Cases!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy\ h:mm</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>43889.416666666664</c:v>
                 </c:pt>
@@ -2871,16 +2920,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>43902.625</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43903.625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cases!$L$2:$L$15</c:f>
+              <c:f>Cases!$L$2:$L$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2916,6 +2968,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2967,10 +3022,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Cases!$B$2:$B$15</c:f>
+              <c:f>Cases!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy\ h:mm</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>43889.416666666664</c:v>
                 </c:pt>
@@ -3012,16 +3067,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>43902.625</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43903.625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cases!$P$2:$P$15</c:f>
+              <c:f>Cases!$P$2:$P$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3051,6 +3109,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>83</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3897,16 +3958,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>12699</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>39157</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>52916</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>406047</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>79374</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3937,37 +3998,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AA0B1023-8C4D-8145-A1A0-49CB122C06A4}" name="Table2" displayName="Table2" ref="A1:T27" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48" tableBorderDxfId="47">
-  <autoFilter ref="A1:T27" xr:uid="{1DA4B026-4C97-DF45-BDEF-EE080E06CCC8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AA0B1023-8C4D-8145-A1A0-49CB122C06A4}" name="Table2" displayName="Table2" ref="A1:T31" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49" tableBorderDxfId="48">
+  <autoFilter ref="A1:T31" xr:uid="{1DA4B026-4C97-DF45-BDEF-EE080E06CCC8}"/>
   <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{7B77E861-ABD7-CC46-BE1B-62FFA855918A}" name="Num"/>
-    <tableColumn id="2" xr3:uid="{A9D891F0-4885-A946-9DA9-30886E848D1C}" name="Datum" dataDxfId="46"/>
-    <tableColumn id="3" xr3:uid="{6B048EE4-8426-2545-A3EF-71248E0D2493}" name="Typ" dataDxfId="45"/>
-    <tableColumn id="4" xr3:uid="{463A535E-E8DD-D048-8D23-5C03A237BD27}" name="Baden-Württemberg" dataDxfId="44"/>
-    <tableColumn id="5" xr3:uid="{C73439B1-ADFE-484D-9DAB-78AB3242649E}" name="Bayern" dataDxfId="43"/>
-    <tableColumn id="6" xr3:uid="{CDCD7B4C-FA1B-5D4B-84EC-1B93C9F2211E}" name="Berlin" dataDxfId="42"/>
-    <tableColumn id="7" xr3:uid="{4B381B0C-9038-7A45-87CA-C74BBBC89932}" name="Brandenburg" dataDxfId="41"/>
-    <tableColumn id="8" xr3:uid="{3367C2BC-28BE-3341-AE87-CDED4BFCEA07}" name="Bremen" dataDxfId="40"/>
-    <tableColumn id="9" xr3:uid="{2369A6E0-C0F1-C44F-8B78-5DB57E9AF79D}" name="Hamburg" dataDxfId="39"/>
-    <tableColumn id="10" xr3:uid="{884AB352-4A81-8D49-AA12-B8EAF3C487E0}" name="Hessen" dataDxfId="38"/>
-    <tableColumn id="11" xr3:uid="{AE5E62A0-1F89-2E45-8E7B-70BF95720068}" name="Mecklenburg-Vorpommern" dataDxfId="37"/>
-    <tableColumn id="12" xr3:uid="{8D805E80-59CE-8347-98B4-6475F75C5C51}" name="Niedersachsen" dataDxfId="36"/>
-    <tableColumn id="13" xr3:uid="{BC5F0195-1635-C145-8EDE-A5C46EA4D710}" name="Nordrhein-Westfalen" dataDxfId="35"/>
-    <tableColumn id="14" xr3:uid="{4BEE7460-1D9B-C945-80A2-92C7F08C0F01}" name="Rheinland-Pfalz" dataDxfId="34"/>
-    <tableColumn id="15" xr3:uid="{D7B5CC10-CE40-3D47-926F-900D84B7F92A}" name="Saarland" dataDxfId="33"/>
-    <tableColumn id="16" xr3:uid="{EB9CA25E-2271-3D42-8A65-F7C41B54CEA5}" name="Sachsen" dataDxfId="32"/>
-    <tableColumn id="17" xr3:uid="{4598E0DF-B360-1440-8958-D3461FAD3F74}" name="Sachsen-Anhalt" dataDxfId="31"/>
-    <tableColumn id="18" xr3:uid="{8B6E9527-F2CB-894B-B3E4-125132A86A5D}" name="Schleswig-Holstein" dataDxfId="30"/>
-    <tableColumn id="19" xr3:uid="{7D2272BD-A08B-574E-81AE-65E0FB33A9ED}" name="Thüringen" dataDxfId="29"/>
-    <tableColumn id="21" xr3:uid="{765949F0-761D-D24F-A85E-B329DA6357CA}" name="Gesamt" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{A9D891F0-4885-A946-9DA9-30886E848D1C}" name="Datum" dataDxfId="47"/>
+    <tableColumn id="3" xr3:uid="{6B048EE4-8426-2545-A3EF-71248E0D2493}" name="Typ" dataDxfId="46"/>
+    <tableColumn id="4" xr3:uid="{463A535E-E8DD-D048-8D23-5C03A237BD27}" name="Baden-Württemberg" dataDxfId="45"/>
+    <tableColumn id="5" xr3:uid="{C73439B1-ADFE-484D-9DAB-78AB3242649E}" name="Bayern" dataDxfId="44"/>
+    <tableColumn id="6" xr3:uid="{CDCD7B4C-FA1B-5D4B-84EC-1B93C9F2211E}" name="Berlin" dataDxfId="43"/>
+    <tableColumn id="7" xr3:uid="{4B381B0C-9038-7A45-87CA-C74BBBC89932}" name="Brandenburg" dataDxfId="42"/>
+    <tableColumn id="8" xr3:uid="{3367C2BC-28BE-3341-AE87-CDED4BFCEA07}" name="Bremen" dataDxfId="41"/>
+    <tableColumn id="9" xr3:uid="{2369A6E0-C0F1-C44F-8B78-5DB57E9AF79D}" name="Hamburg" dataDxfId="40"/>
+    <tableColumn id="10" xr3:uid="{884AB352-4A81-8D49-AA12-B8EAF3C487E0}" name="Hessen" dataDxfId="39"/>
+    <tableColumn id="11" xr3:uid="{AE5E62A0-1F89-2E45-8E7B-70BF95720068}" name="Mecklenburg-Vorpommern" dataDxfId="38"/>
+    <tableColumn id="12" xr3:uid="{8D805E80-59CE-8347-98B4-6475F75C5C51}" name="Niedersachsen" dataDxfId="37"/>
+    <tableColumn id="13" xr3:uid="{BC5F0195-1635-C145-8EDE-A5C46EA4D710}" name="Nordrhein-Westfalen" dataDxfId="36"/>
+    <tableColumn id="14" xr3:uid="{4BEE7460-1D9B-C945-80A2-92C7F08C0F01}" name="Rheinland-Pfalz" dataDxfId="35"/>
+    <tableColumn id="15" xr3:uid="{D7B5CC10-CE40-3D47-926F-900D84B7F92A}" name="Saarland" dataDxfId="34"/>
+    <tableColumn id="16" xr3:uid="{EB9CA25E-2271-3D42-8A65-F7C41B54CEA5}" name="Sachsen" dataDxfId="33"/>
+    <tableColumn id="17" xr3:uid="{4598E0DF-B360-1440-8958-D3461FAD3F74}" name="Sachsen-Anhalt" dataDxfId="32"/>
+    <tableColumn id="18" xr3:uid="{8B6E9527-F2CB-894B-B3E4-125132A86A5D}" name="Schleswig-Holstein" dataDxfId="31"/>
+    <tableColumn id="19" xr3:uid="{7D2272BD-A08B-574E-81AE-65E0FB33A9ED}" name="Thüringen" dataDxfId="30"/>
+    <tableColumn id="21" xr3:uid="{765949F0-761D-D24F-A85E-B329DA6357CA}" name="Gesamt" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BC3E90BD-768C-894C-8066-F63C881D4ADC}" name="Table5" displayName="Table5" ref="A1:W15" totalsRowShown="0" headerRowDxfId="27">
-  <autoFilter ref="A1:W15" xr:uid="{6D4C76C7-14AA-DE49-9FD4-833E447F2FCD}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BC3E90BD-768C-894C-8066-F63C881D4ADC}" name="Table5" displayName="Table5" ref="A1:W16" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="A1:W16" xr:uid="{6D4C76C7-14AA-DE49-9FD4-833E447F2FCD}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -3994,8 +4055,8 @@
   </autoFilter>
   <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{DFAB118E-A946-0146-85D1-FEC9DB7A54DB}" name="#"/>
-    <tableColumn id="2" xr3:uid="{7862783A-26AD-6144-8E4F-7DF624F1CEF7}" name="Date" dataDxfId="26"/>
-    <tableColumn id="43" xr3:uid="{F84758D7-1AC4-B146-AFFB-CD4F577D02F4}" name="Type" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{7862783A-26AD-6144-8E4F-7DF624F1CEF7}" name="Date" dataDxfId="4"/>
+    <tableColumn id="43" xr3:uid="{F84758D7-1AC4-B146-AFFB-CD4F577D02F4}" name="Type" dataDxfId="3"/>
     <tableColumn id="4" xr3:uid="{43B6A399-F36C-6047-9E96-578E372A058B}" name="Baden-_x000a_Württemberg"/>
     <tableColumn id="5" xr3:uid="{580A352D-B4BB-8441-B739-8AFA1B5CB9BA}" name="Bayern"/>
     <tableColumn id="6" xr3:uid="{684FD89D-0B27-F841-B632-2CFD5BC231AC}" name="Berlin"/>
@@ -4012,8 +4073,8 @@
     <tableColumn id="17" xr3:uid="{0DBAA36D-F571-034F-AEDF-5DD8569A9F97}" name="Sachsen-_x000a_Anhalt"/>
     <tableColumn id="18" xr3:uid="{32E1BDAD-8FF4-A948-A678-3A7C7BAA73DF}" name="Schleswig-_x000a_Holstein"/>
     <tableColumn id="19" xr3:uid="{EF74120E-C4F2-C545-B056-A59EEF12E00E}" name="Thüringen"/>
-    <tableColumn id="21" xr3:uid="{FF602C9D-05D0-E246-81AB-1676E61777BC}" name="DE Total"/>
-    <tableColumn id="42" xr3:uid="{1C774CC4-9E60-FC4A-945C-79AC482211CE}" name="Delta" dataDxfId="24">
+    <tableColumn id="21" xr3:uid="{FF602C9D-05D0-E246-81AB-1676E61777BC}" name="DE Total" dataDxfId="2"/>
+    <tableColumn id="42" xr3:uid="{1C774CC4-9E60-FC4A-945C-79AC482211CE}" name="Delta" dataDxfId="1">
       <calculatedColumnFormula>IF(ISNUMBER(T1),T2-T1,"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="22" xr3:uid="{08AED83D-6D60-7848-A8C4-A04BA0C871FA}" name="Delta (%)" dataCellStyle="Per cent">
@@ -4021,7 +4082,7 @@
 ((T2-T1)/T1)/(B2-B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{E2775D3F-09CC-B848-A2AC-CD974913568E}" name="Doubling_x000a_Time" dataDxfId="23">
+    <tableColumn id="23" xr3:uid="{E2775D3F-09CC-B848-A2AC-CD974913568E}" name="Doubling_x000a_Time" dataDxfId="0">
       <calculatedColumnFormula>IF(ISNUMBER(V2),
 1/Cases!$V2,
 "")</calculatedColumnFormula>
@@ -4032,8 +4093,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{2B4CB1FE-2F78-654B-9A83-851BD72419FA}" name="Table7" displayName="Table7" ref="A1:S15" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19">
-  <autoFilter ref="A1:S15" xr:uid="{5EC7B395-6250-0C4B-BF9E-DB8BEACEA0C0}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{2B4CB1FE-2F78-654B-9A83-851BD72419FA}" name="Table7" displayName="Table7" ref="A1:S16" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25">
+  <autoFilter ref="A1:S16" xr:uid="{5EC7B395-6250-0C4B-BF9E-DB8BEACEA0C0}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -4055,94 +4116,94 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{E6C8C471-F764-504D-8B4A-7552654EBAEC}" name="#" dataDxfId="18">
+    <tableColumn id="1" xr3:uid="{E6C8C471-F764-504D-8B4A-7552654EBAEC}" name="#" dataDxfId="24">
       <calculatedColumnFormula>Table5[[#This Row],['#]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{F08A6D07-D47C-0B4B-BF63-BCF903E95EB5}" name="Date" dataDxfId="17">
+    <tableColumn id="2" xr3:uid="{F08A6D07-D47C-0B4B-BF63-BCF903E95EB5}" name="Date" dataDxfId="23">
       <calculatedColumnFormula>Table5[[#This Row],[Date]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B6051F7E-D460-9A42-9D63-3975F8A75ACA}" name="Baden-_x000a_Württemberg" dataDxfId="16">
-      <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!D1),Cases!D1&gt;10),
+    <tableColumn id="3" xr3:uid="{B6051F7E-D460-9A42-9D63-3975F8A75ACA}" name="Baden-_x000a_Württemberg" dataDxfId="22">
+      <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!D1),Cases!D1&gt;min_number),
 ((Cases!D2-Cases!D1)/Cases!D1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{10A737B8-2568-5841-8D5F-D47C446EE26C}" name="Bayern" dataDxfId="15">
-      <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!E1),Cases!E1&gt;10),
+    <tableColumn id="4" xr3:uid="{10A737B8-2568-5841-8D5F-D47C446EE26C}" name="Bayern" dataDxfId="21">
+      <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!E1),Cases!E1&gt;min_number),
 ((Cases!E2-Cases!E1)/Cases!E1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{BCD2105D-8D71-454C-A02E-6424E3BA36AA}" name="Berlin" dataDxfId="14">
-      <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!F1),Cases!F1&gt;10),
+    <tableColumn id="5" xr3:uid="{BCD2105D-8D71-454C-A02E-6424E3BA36AA}" name="Berlin" dataDxfId="20">
+      <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!F1),Cases!F1&gt;min_number),
 ((Cases!F2-Cases!F1)/Cases!F1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{53C79366-40AF-DC47-8F16-1C907EA8A25D}" name="Brandenburg" dataDxfId="13">
-      <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!G1),Cases!G1&gt;10),
+    <tableColumn id="6" xr3:uid="{53C79366-40AF-DC47-8F16-1C907EA8A25D}" name="Brandenburg" dataDxfId="19">
+      <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!G1),Cases!G1&gt;min_number),
 ((Cases!G2-Cases!G1)/Cases!G1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{4AFFEB9A-9EF4-B04F-99AF-1421CC3F79F1}" name="Bremen" dataDxfId="12">
-      <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!H1),Cases!H1&gt;10),
+    <tableColumn id="7" xr3:uid="{4AFFEB9A-9EF4-B04F-99AF-1421CC3F79F1}" name="Bremen" dataDxfId="18">
+      <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!H1),Cases!H1&gt;min_number),
 ((Cases!H2-Cases!H1)/Cases!H1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{C2100E3B-69C7-1749-9A4D-28C483AE2AD3}" name="Hamburg" dataDxfId="11">
-      <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!I1),Cases!I1&gt;10),
+    <tableColumn id="8" xr3:uid="{C2100E3B-69C7-1749-9A4D-28C483AE2AD3}" name="Hamburg" dataDxfId="17">
+      <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!I1),Cases!I1&gt;min_number),
 ((Cases!I2-Cases!I1)/Cases!I1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{F062E681-CDB1-C140-B909-EA794C5F18A9}" name="Hessen" dataDxfId="10">
-      <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!J1),Cases!J1&gt;10),
+    <tableColumn id="9" xr3:uid="{F062E681-CDB1-C140-B909-EA794C5F18A9}" name="Hessen" dataDxfId="16">
+      <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!J1),Cases!J1&gt;min_number),
 ((Cases!J2-Cases!J1)/Cases!J1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{E031E4B1-3E62-C345-B766-887BCDAAC02D}" name="Mecklenburg-_x000a_Vorpommern" dataDxfId="9">
-      <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!K1),Cases!K1&gt;10),
+    <tableColumn id="10" xr3:uid="{E031E4B1-3E62-C345-B766-887BCDAAC02D}" name="Mecklenburg-_x000a_Vorpommern" dataDxfId="15">
+      <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!K1),Cases!K1&gt;min_number),
 ((Cases!K2-Cases!K1)/Cases!K1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{06616FA7-B824-034F-8561-0575963B7953}" name="Niedersachsen" dataDxfId="8">
-      <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!L1),Cases!L1&gt;10),
+    <tableColumn id="11" xr3:uid="{06616FA7-B824-034F-8561-0575963B7953}" name="Niedersachsen" dataDxfId="14">
+      <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!L1),Cases!L1&gt;min_number),
 ((Cases!L2-Cases!L1)/Cases!L1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{A7D554C7-337E-5A4F-B3A4-DD9485FF1D61}" name="Nordrhein-_x000a_Westfalen" dataDxfId="7">
-      <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!M1),Cases!M1&gt;10),
+    <tableColumn id="12" xr3:uid="{A7D554C7-337E-5A4F-B3A4-DD9485FF1D61}" name="Nordrhein-_x000a_Westfalen" dataDxfId="13">
+      <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!M1),Cases!M1&gt;min_number),
 ((Cases!M2-Cases!M1)/Cases!M1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{E7F4E0DB-41C5-F74B-B13C-082338064391}" name="Rheinland-_x000a_Pfalz" dataDxfId="6">
-      <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!N1),Cases!N1&gt;10),
+    <tableColumn id="13" xr3:uid="{E7F4E0DB-41C5-F74B-B13C-082338064391}" name="Rheinland-_x000a_Pfalz" dataDxfId="12">
+      <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!N1),Cases!N1&gt;min_number),
 ((Cases!N2-Cases!N1)/Cases!N1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{F452CCA8-390B-D443-BCA6-EFE7E79127AA}" name="Saarland" dataDxfId="5">
-      <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!O1),Cases!O1&gt;10),
+    <tableColumn id="14" xr3:uid="{F452CCA8-390B-D443-BCA6-EFE7E79127AA}" name="Saarland" dataDxfId="11">
+      <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!O1),Cases!O1&gt;min_number),
 ((Cases!O2-Cases!O1)/Cases!O1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{2BC6A12D-DFD6-A54D-9B25-30C67E2CACC1}" name="Sachsen" dataDxfId="4">
-      <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!P1),Cases!P1&gt;10),
+    <tableColumn id="15" xr3:uid="{2BC6A12D-DFD6-A54D-9B25-30C67E2CACC1}" name="Sachsen" dataDxfId="10">
+      <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!P1),Cases!P1&gt;min_number),
 ((Cases!P2-Cases!P1)/Cases!P1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{F3454210-7502-7B43-87ED-828963C0BA58}" name="Sachsen-_x000a_Anhalt" dataDxfId="3">
-      <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!Q1),Cases!Q1&gt;10),
+    <tableColumn id="16" xr3:uid="{F3454210-7502-7B43-87ED-828963C0BA58}" name="Sachsen-_x000a_Anhalt" dataDxfId="9">
+      <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!Q1),Cases!Q1&gt;min_number),
 ((Cases!Q2-Cases!Q1)/Cases!Q1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{3488A903-5F9F-FF4F-B253-A2C6BDED0D5C}" name="Schleswig-_x000a_Holstein" dataDxfId="2">
-      <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!R1),Cases!R1&gt;10),
+    <tableColumn id="17" xr3:uid="{3488A903-5F9F-FF4F-B253-A2C6BDED0D5C}" name="Schleswig-_x000a_Holstein" dataDxfId="8">
+      <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!R1),Cases!R1&gt;min_number),
 ((Cases!R2-Cases!R1)/Cases!R1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{EBA9256A-1C44-B641-A90D-2900B16B2794}" name="Thüringen" dataDxfId="1">
-      <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!S1),Cases!S1&gt;10),
+    <tableColumn id="18" xr3:uid="{EBA9256A-1C44-B641-A90D-2900B16B2794}" name="Thüringen" dataDxfId="7">
+      <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!S1),Cases!S1&gt;min_number),
 ((Cases!S2-Cases!S1)/Cases!S1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{8590B984-B71C-8D4E-AB2B-CC37C841189C}" name="DE Total" dataDxfId="0">
-      <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!T1),Cases!T1&gt;10),
+    <tableColumn id="20" xr3:uid="{8590B984-B71C-8D4E-AB2B-CC37C841189C}" name="DE Total" dataDxfId="6">
+      <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!T1),Cases!T1&gt;min_number),
 ((Cases!T2-Cases!T1)/Cases!T1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
@@ -4454,22 +4515,22 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.1640625" style="44" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="125.33203125" style="44" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="10.83203125" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="44" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B1" s="72" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>24</v>
       </c>
@@ -4477,7 +4538,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>26</v>
       </c>
@@ -4485,17 +4546,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="44" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B6" s="45" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="44" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B8" s="45" t="s">
         <v>29</v>
@@ -4515,232 +4576,454 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA00A9F-6A15-E440-8C87-85055F8A0710}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D4" sqref="D4:H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E1" s="4">
         <v>43902.625</v>
       </c>
-      <c r="B1" s="49"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="134" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>43902.625</v>
+      </c>
+      <c r="B2" s="49"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="D4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E4" s="3">
+        <v>454</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>401</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" s="3">
+        <v>317</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>558</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>412</v>
+      </c>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3">
+        <v>137</v>
+      </c>
+      <c r="C6" s="3">
+        <v>137</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>174</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3">
+        <v>174</v>
+      </c>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3">
+        <v>30</v>
+      </c>
+      <c r="C7" s="3">
+        <v>23</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="3">
+        <v>44</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3">
+        <v>44</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3">
+        <v>38</v>
+      </c>
+      <c r="C8" s="3">
+        <v>35</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
+        <v>42</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3">
+        <v>42</v>
+      </c>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3">
+        <v>88</v>
+      </c>
+      <c r="C9" s="3">
+        <v>60</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3">
+        <v>99</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3">
+        <v>99</v>
+      </c>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3">
+        <v>99</v>
+      </c>
+      <c r="C10" s="3">
+        <v>59</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="3">
+        <v>148</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3">
+        <v>94</v>
+      </c>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3">
+        <v>16</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="3">
+        <v>33</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3">
+        <v>21</v>
+      </c>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3">
+        <v>129</v>
+      </c>
+      <c r="C12" s="3">
+        <v>81</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="3">
+        <v>230</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3">
+        <v>134</v>
+      </c>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C4">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>137</v>
-      </c>
-      <c r="C5">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
+      <c r="D13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="3">
+        <v>936</v>
+      </c>
+      <c r="F13" s="3">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="G13" s="3">
+        <v>887</v>
+      </c>
+      <c r="H13" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="3">
+        <v>52</v>
+      </c>
+      <c r="C14" s="3">
+        <v>52</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3">
+        <v>102</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3">
+        <v>102</v>
+      </c>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="3">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3">
+        <v>8</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="3">
+        <v>40</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3">
         <v>30</v>
       </c>
-      <c r="C6">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="3">
+        <v>45</v>
+      </c>
+      <c r="C16" s="3">
+        <v>30</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="3">
+        <v>83</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3">
+        <v>46</v>
+      </c>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="3">
+        <v>27</v>
+      </c>
+      <c r="C17" s="3">
+        <v>14</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="3">
+        <v>42</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3">
+        <v>29</v>
+      </c>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="3">
+        <v>31</v>
+      </c>
+      <c r="C18" s="3">
+        <v>29</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="3">
+        <v>48</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3">
+        <v>45</v>
+      </c>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="3">
+        <v>14</v>
+      </c>
+      <c r="C19" s="3">
+        <v>12</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="3">
+        <v>29</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3">
+        <v>16</v>
+      </c>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="6">
+        <v>3062</v>
+      </c>
+      <c r="F20" s="3">
+        <v>5</v>
+      </c>
+      <c r="G20" s="6">
+        <v>2576</v>
+      </c>
+      <c r="H20" s="3">
         <v>4</v>
       </c>
-      <c r="B7">
-        <v>38</v>
-      </c>
-      <c r="C7">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>88</v>
-      </c>
-      <c r="C8">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>99</v>
-      </c>
-      <c r="C9">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>23</v>
-      </c>
-      <c r="C10">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>129</v>
-      </c>
-      <c r="C11">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13">
-        <v>52</v>
-      </c>
-      <c r="C13">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14">
-        <v>14</v>
-      </c>
-      <c r="C14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15">
-        <v>45</v>
-      </c>
-      <c r="C15">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16">
-        <v>27</v>
-      </c>
-      <c r="C16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17">
-        <v>31</v>
-      </c>
-      <c r="C17">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18">
-        <v>14</v>
-      </c>
-      <c r="C18">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4749,14 +5032,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27E71FF5-2B72-8B4C-A9D9-0EB9ABC7551A}">
-  <dimension ref="A1:AA44"/>
+  <dimension ref="A1:AE44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X1" sqref="X1:AA19"/>
+      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AB1" sqref="AB1:AE19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.83203125" style="3" customWidth="1"/>
     <col min="2" max="9" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
@@ -4770,10 +5053,12 @@
     <col min="18" max="18" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="3.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="21" max="24" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="10.83203125" style="3"/>
+    <col min="25" max="27" width="10.83203125" style="3"/>
+    <col min="28" max="28" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
@@ -4825,8 +5110,11 @@
       <c r="X1" s="4">
         <v>43902.625</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" s="2" customFormat="1" ht="134">
+      <c r="AB1" s="4">
+        <v>43903.625</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" s="2" customFormat="1" ht="134" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -4903,13 +5191,25 @@
         <v>19</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27">
+        <v>52</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -4970,8 +5270,20 @@
       <c r="AA3" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:27">
+      <c r="AB3" s="3">
+        <v>454</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>401</v>
+      </c>
+      <c r="AE3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -5029,8 +5341,17 @@
       <c r="Z4">
         <v>317</v>
       </c>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="AB4" s="3">
+        <v>558</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -5076,8 +5397,14 @@
       <c r="Z5">
         <v>137</v>
       </c>
-    </row>
-    <row r="6" spans="1:27">
+      <c r="AB5" s="3">
+        <v>174</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -5120,8 +5447,14 @@
       <c r="Z6">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:27">
+      <c r="AB6" s="3">
+        <v>44</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -5170,8 +5503,14 @@
       <c r="Z7">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:27">
+      <c r="AB7" s="3">
+        <v>42</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -5220,8 +5559,14 @@
       <c r="Z8">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:27">
+      <c r="AB8" s="3">
+        <v>99</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -5273,8 +5618,14 @@
       <c r="Z9">
         <v>59</v>
       </c>
-    </row>
-    <row r="10" spans="1:27">
+      <c r="AB9" s="3">
+        <v>148</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -5314,8 +5665,14 @@
       <c r="Z10">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:27">
+      <c r="AB10" s="3">
+        <v>33</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -5364,8 +5721,14 @@
       <c r="Z11">
         <v>81</v>
       </c>
-    </row>
-    <row r="12" spans="1:27">
+      <c r="AB11" s="3">
+        <v>230</v>
+      </c>
+      <c r="AD11" s="3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -5447,8 +5810,20 @@
       <c r="AA12" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:27">
+      <c r="AB12" s="3">
+        <v>936</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>887</v>
+      </c>
+      <c r="AE12" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -5503,8 +5878,14 @@
       <c r="Z13">
         <v>52</v>
       </c>
-    </row>
-    <row r="14" spans="1:27">
+      <c r="AB13" s="3">
+        <v>102</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
@@ -5544,8 +5925,14 @@
       <c r="Z14">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:27">
+      <c r="AB14" s="3">
+        <v>40</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
@@ -5585,8 +5972,14 @@
       <c r="Z15">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:27">
+      <c r="AB15" s="3">
+        <v>83</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
@@ -5608,8 +6001,14 @@
       <c r="Z16">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:27">
+      <c r="AB16" s="3">
+        <v>42</v>
+      </c>
+      <c r="AD16" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
@@ -5661,8 +6060,14 @@
       <c r="Z17">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:27">
+      <c r="AB17" s="3">
+        <v>48</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
@@ -5705,8 +6110,14 @@
       <c r="Z18">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:27">
+      <c r="AB18" s="3">
+        <v>29</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>16</v>
       </c>
@@ -5769,8 +6180,20 @@
       <c r="AA19" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:27">
+      <c r="AB19" s="6">
+        <v>3062</v>
+      </c>
+      <c r="AC19" s="3">
+        <v>5</v>
+      </c>
+      <c r="AD19" s="6">
+        <v>2576</v>
+      </c>
+      <c r="AE19" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -5789,7 +6212,7 @@
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -5808,7 +6231,7 @@
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
     </row>
-    <row r="44" spans="18:18">
+    <row r="44" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R44" s="6"/>
     </row>
   </sheetData>
@@ -5818,20 +6241,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F5B1F18-8A79-3242-815B-7FAFD236451B}">
-  <dimension ref="A1:T27"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="125" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView topLeftCell="A20" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:T29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="21" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="8" customFormat="1" ht="142">
+    <row r="1" spans="1:20" s="8" customFormat="1" ht="142" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>23</v>
       </c>
@@ -5893,7 +6316,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -5933,7 +6356,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5975,7 +6398,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -6023,7 +6446,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -6073,7 +6496,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -6129,7 +6552,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -6189,7 +6612,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -6249,7 +6672,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -6309,7 +6732,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -6339,7 +6762,7 @@
       <c r="S10" s="11"/>
       <c r="T10" s="11"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -6399,7 +6822,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
@@ -6429,7 +6852,7 @@
       <c r="S12" s="11"/>
       <c r="T12" s="11"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9</v>
       </c>
@@ -6489,7 +6912,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>9</v>
       </c>
@@ -6519,7 +6942,7 @@
       <c r="S14" s="11"/>
       <c r="T14" s="11"/>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>10</v>
       </c>
@@ -6579,7 +7002,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>10</v>
       </c>
@@ -6611,7 +7034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>10</v>
       </c>
@@ -6641,7 +7064,7 @@
       <c r="S17" s="13"/>
       <c r="T17" s="13"/>
     </row>
-    <row r="18" spans="1:20" s="23" customFormat="1">
+    <row r="18" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="23">
         <v>11</v>
       </c>
@@ -6703,7 +7126,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>11</v>
       </c>
@@ -6736,7 +7159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>11</v>
       </c>
@@ -6766,7 +7189,7 @@
       <c r="S20" s="11"/>
       <c r="T20" s="11"/>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>12</v>
       </c>
@@ -6828,7 +7251,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>12</v>
       </c>
@@ -6860,7 +7283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>12</v>
       </c>
@@ -6890,7 +7313,7 @@
       <c r="S23" s="15"/>
       <c r="T23" s="15"/>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>13</v>
       </c>
@@ -6952,7 +7375,7 @@
         <v>2369</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>13</v>
       </c>
@@ -6988,7 +7411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>13</v>
       </c>
@@ -6996,7 +7419,7 @@
         <v>43902.625</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D26" s="20">
         <v>331</v>
@@ -7050,7 +7473,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>13</v>
       </c>
@@ -7058,7 +7481,7 @@
         <v>43902.625</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D27" s="20">
         <v>1</v>
@@ -7084,6 +7507,200 @@
         <v>3</v>
       </c>
     </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>14</v>
+      </c>
+      <c r="B28" s="4">
+        <v>43903.625</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="3">
+        <v>454</v>
+      </c>
+      <c r="E28" s="3">
+        <v>558</v>
+      </c>
+      <c r="F28" s="3">
+        <v>174</v>
+      </c>
+      <c r="G28" s="3">
+        <v>44</v>
+      </c>
+      <c r="H28" s="3">
+        <v>42</v>
+      </c>
+      <c r="I28" s="3">
+        <v>99</v>
+      </c>
+      <c r="J28" s="3">
+        <v>148</v>
+      </c>
+      <c r="K28" s="3">
+        <v>33</v>
+      </c>
+      <c r="L28" s="3">
+        <v>230</v>
+      </c>
+      <c r="M28" s="3">
+        <v>936</v>
+      </c>
+      <c r="N28" s="3">
+        <v>102</v>
+      </c>
+      <c r="O28" s="3">
+        <v>40</v>
+      </c>
+      <c r="P28" s="3">
+        <v>83</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>42</v>
+      </c>
+      <c r="R28" s="3">
+        <v>48</v>
+      </c>
+      <c r="S28" s="3">
+        <v>29</v>
+      </c>
+      <c r="T28" s="6">
+        <v>3062</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>14</v>
+      </c>
+      <c r="B29" s="4">
+        <v>43903.625</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3">
+        <v>3</v>
+      </c>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>14</v>
+      </c>
+      <c r="B30" s="4">
+        <v>43903.625</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="3">
+        <v>401</v>
+      </c>
+      <c r="E30" s="3">
+        <v>412</v>
+      </c>
+      <c r="F30" s="3">
+        <v>174</v>
+      </c>
+      <c r="G30" s="3">
+        <v>44</v>
+      </c>
+      <c r="H30" s="3">
+        <v>42</v>
+      </c>
+      <c r="I30" s="3">
+        <v>99</v>
+      </c>
+      <c r="J30" s="3">
+        <v>94</v>
+      </c>
+      <c r="K30" s="3">
+        <v>21</v>
+      </c>
+      <c r="L30" s="3">
+        <v>134</v>
+      </c>
+      <c r="M30" s="3">
+        <v>887</v>
+      </c>
+      <c r="N30" s="3">
+        <v>102</v>
+      </c>
+      <c r="O30" s="3">
+        <v>30</v>
+      </c>
+      <c r="P30" s="3">
+        <v>46</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>29</v>
+      </c>
+      <c r="R30" s="3">
+        <v>45</v>
+      </c>
+      <c r="S30" s="3">
+        <v>16</v>
+      </c>
+      <c r="T30" s="6">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>14</v>
+      </c>
+      <c r="B31" s="4">
+        <v>43903.625</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3">
+        <v>3</v>
+      </c>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -7094,42 +7711,43 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{233E67D7-4FF2-D745-A107-DDC4CB6E1273}">
-  <dimension ref="A1:Y15"/>
+  <dimension ref="A1:Z16"/>
   <sheetViews>
-    <sheetView zoomScale="144" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="144" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" style="23" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.6640625" style="79" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="4.1640625" style="52" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="4.6640625" style="21" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="6.33203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="120.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="22" customWidth="1"/>
+    <col min="25" max="25" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="120.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="41" customFormat="1" ht="79">
+    <row r="1" spans="1:26" s="41" customFormat="1" ht="79" x14ac:dyDescent="0.2">
       <c r="A1" s="41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" s="42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D1" s="48" t="s">
         <v>30</v>
@@ -7179,20 +7797,21 @@
       <c r="S1" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="41" t="s">
+      <c r="T1" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="U1" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" s="50" t="s">
         <v>41</v>
-      </c>
-      <c r="U1" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="V1" s="50" t="s">
-        <v>42</v>
       </c>
       <c r="W1" s="51" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:25">
+      <c r="X1" s="51"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -7217,7 +7836,7 @@
       <c r="R2">
         <v>1</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="78">
         <v>53</v>
       </c>
       <c r="U2" s="52" t="str">
@@ -7237,7 +7856,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7265,7 +7884,7 @@
       <c r="R3">
         <v>1</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="78">
         <v>66</v>
       </c>
       <c r="U3" s="52">
@@ -7282,11 +7901,11 @@
 "")</f>
         <v>4.0769230769230766</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -7323,7 +7942,7 @@
       <c r="R4">
         <v>2</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="78">
         <v>129</v>
       </c>
       <c r="U4" s="52">
@@ -7341,7 +7960,7 @@
         <v>1.2658730158755567</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -7381,7 +8000,7 @@
       <c r="R5">
         <v>2</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="78">
         <v>157</v>
       </c>
       <c r="U5" s="52">
@@ -7398,8 +8017,15 @@
 "")</f>
         <v>4.6071428571428577</v>
       </c>
-    </row>
-    <row r="6" spans="1:25">
+      <c r="Y5" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z5" s="80">
+        <f>LOOKUP(2,1/(ISNUMBER(T2:T9999)),T2:T9999)</f>
+        <v>3062</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -7448,7 +8074,7 @@
       <c r="S6">
         <v>1</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="78">
         <v>196</v>
       </c>
       <c r="U6" s="52">
@@ -7465,8 +8091,9 @@
 "")</f>
         <v>4.0256410256410255</v>
       </c>
-    </row>
-    <row r="7" spans="1:25">
+      <c r="Z6" s="80"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -7521,7 +8148,7 @@
       <c r="S7">
         <v>1</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="78">
         <v>262</v>
       </c>
       <c r="U7" s="52">
@@ -7539,7 +8166,7 @@
         <v>2.9696969696969697</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -7594,7 +8221,7 @@
       <c r="S8">
         <v>1</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="78">
         <v>400</v>
       </c>
       <c r="U8" s="52">
@@ -7612,7 +8239,7 @@
         <v>1.8985507246376812</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -7668,7 +8295,7 @@
       <c r="S9" s="3">
         <v>1</v>
       </c>
-      <c r="T9" s="3">
+      <c r="T9" s="78">
         <v>639</v>
       </c>
       <c r="U9" s="54">
@@ -7686,7 +8313,7 @@
         <v>1.6736401673640167</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -7741,7 +8368,7 @@
       <c r="S10">
         <v>2</v>
       </c>
-      <c r="T10">
+      <c r="T10" s="78">
         <v>795</v>
       </c>
       <c r="U10" s="52">
@@ -7759,7 +8386,7 @@
         <v>4.0961538461538458</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -7814,7 +8441,7 @@
       <c r="S11">
         <v>2</v>
       </c>
-      <c r="T11">
+      <c r="T11" s="78">
         <v>902</v>
       </c>
       <c r="U11" s="52">
@@ -7832,7 +8459,7 @@
         <v>7.4299065420560746</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -7887,7 +8514,7 @@
       <c r="S12">
         <v>2</v>
       </c>
-      <c r="T12">
+      <c r="T12" s="78">
         <v>1139</v>
       </c>
       <c r="U12" s="52">
@@ -7905,7 +8532,7 @@
         <v>3.8059071729957803</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -7963,7 +8590,7 @@
       <c r="S13">
         <v>4</v>
       </c>
-      <c r="T13">
+      <c r="T13" s="78">
         <v>1296</v>
       </c>
       <c r="U13" s="52">
@@ -7981,7 +8608,7 @@
         <v>7.2547770700636942</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -8039,7 +8666,7 @@
       <c r="S14">
         <v>10</v>
       </c>
-      <c r="T14">
+      <c r="T14" s="78">
         <v>1567</v>
       </c>
       <c r="U14" s="52">
@@ -8057,7 +8684,7 @@
         <v>4.7822878228782288</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="59">
         <v>13</v>
       </c>
@@ -8115,7 +8742,7 @@
       <c r="S15" s="13">
         <v>14</v>
       </c>
-      <c r="T15">
+      <c r="T15" s="78">
         <v>2369</v>
       </c>
       <c r="U15" s="60">
@@ -8132,6 +8759,86 @@
 "")</f>
         <v>1.953865336658354</v>
       </c>
+      <c r="X15" s="62"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A16" s="59">
+        <v>14</v>
+      </c>
+      <c r="B16" s="25">
+        <v>43903.625</v>
+      </c>
+      <c r="C16" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="74">
+        <v>454</v>
+      </c>
+      <c r="E16" s="74">
+        <v>558</v>
+      </c>
+      <c r="F16" s="74">
+        <v>174</v>
+      </c>
+      <c r="G16" s="74">
+        <v>44</v>
+      </c>
+      <c r="H16" s="74">
+        <v>42</v>
+      </c>
+      <c r="I16" s="74">
+        <v>99</v>
+      </c>
+      <c r="J16" s="74">
+        <v>148</v>
+      </c>
+      <c r="K16" s="74">
+        <v>33</v>
+      </c>
+      <c r="L16" s="74">
+        <v>230</v>
+      </c>
+      <c r="M16" s="74">
+        <v>936</v>
+      </c>
+      <c r="N16" s="74">
+        <v>102</v>
+      </c>
+      <c r="O16" s="74">
+        <v>40</v>
+      </c>
+      <c r="P16" s="74">
+        <v>83</v>
+      </c>
+      <c r="Q16" s="74">
+        <v>42</v>
+      </c>
+      <c r="R16" s="74">
+        <v>48</v>
+      </c>
+      <c r="S16" s="74">
+        <v>29</v>
+      </c>
+      <c r="T16" s="78">
+        <v>3062</v>
+      </c>
+      <c r="U16" s="60">
+        <f>IF(ISNUMBER(T15),T16-T15,"")</f>
+        <v>693</v>
+      </c>
+      <c r="V16" s="61">
+        <f>IF(ISNUMBER(T15),
+((T16-T15)/T15)/(B16-B15),
+"")</f>
+        <v>0.29252849303503586</v>
+      </c>
+      <c r="W16" s="62">
+        <f>IF(ISNUMBER(V16),
+1/Cases!$V16,
+"")</f>
+        <v>3.4184704184704189</v>
+      </c>
+      <c r="X16" s="62"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8144,14 +8851,14 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D35575D0-0A0E-6E43-9D76-74E38D2BC332}">
-  <dimension ref="A1:U15"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S15" sqref="A2:S15"/>
+      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.6640625" style="37" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" style="37" bestFit="1" customWidth="1"/>
@@ -8165,15 +8872,17 @@
     <col min="16" max="17" width="6.33203125" style="37" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5.6640625" style="37" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="4.6640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="10.83203125" style="37"/>
+    <col min="20" max="22" width="10.83203125" style="37"/>
+    <col min="23" max="23" width="20.5" style="37" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="10.83203125" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="43" customFormat="1" ht="79">
+    <row r="1" spans="1:23" s="43" customFormat="1" ht="79" x14ac:dyDescent="0.2">
       <c r="A1" s="41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" s="42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C1" s="48" t="s">
         <v>30</v>
@@ -8224,10 +8933,10 @@
         <v>15</v>
       </c>
       <c r="S1" s="41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="46">
         <f>Table5[[#This Row],['#]]</f>
         <v>0</v>
@@ -8237,112 +8946,118 @@
         <v>43889.416666666664</v>
       </c>
       <c r="C2" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!D1),Cases!D1&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!D1),Cases!D1&gt;min_number),
 ((Cases!D2-Cases!D1)/Cases!D1)/(Cases!$B2-Cases!$B1),
 "")</f>
         <v/>
       </c>
       <c r="D2" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!E1),Cases!E1&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!E1),Cases!E1&gt;min_number),
 ((Cases!E2-Cases!E1)/Cases!E1)/(Cases!$B2-Cases!$B1),
 "")</f>
         <v/>
       </c>
       <c r="E2" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!F1),Cases!F1&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!F1),Cases!F1&gt;min_number),
 ((Cases!F2-Cases!F1)/Cases!F1)/(Cases!$B2-Cases!$B1),
 "")</f>
         <v/>
       </c>
       <c r="F2" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!G1),Cases!G1&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!G1),Cases!G1&gt;min_number),
 ((Cases!G2-Cases!G1)/Cases!G1)/(Cases!$B2-Cases!$B1),
 "")</f>
         <v/>
       </c>
       <c r="G2" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!H1),Cases!H1&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!H1),Cases!H1&gt;min_number),
 ((Cases!H2-Cases!H1)/Cases!H1)/(Cases!$B2-Cases!$B1),
 "")</f>
         <v/>
       </c>
       <c r="H2" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!I1),Cases!I1&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!I1),Cases!I1&gt;min_number),
 ((Cases!I2-Cases!I1)/Cases!I1)/(Cases!$B2-Cases!$B1),
 "")</f>
         <v/>
       </c>
       <c r="I2" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!J1),Cases!J1&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!J1),Cases!J1&gt;min_number),
 ((Cases!J2-Cases!J1)/Cases!J1)/(Cases!$B2-Cases!$B1),
 "")</f>
         <v/>
       </c>
       <c r="J2" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!K1),Cases!K1&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!K1),Cases!K1&gt;min_number),
 ((Cases!K2-Cases!K1)/Cases!K1)/(Cases!$B2-Cases!$B1),
 "")</f>
         <v/>
       </c>
       <c r="K2" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!L1),Cases!L1&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!L1),Cases!L1&gt;min_number),
 ((Cases!L2-Cases!L1)/Cases!L1)/(Cases!$B2-Cases!$B1),
 "")</f>
         <v/>
       </c>
       <c r="L2" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!M1),Cases!M1&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!M1),Cases!M1&gt;min_number),
 ((Cases!M2-Cases!M1)/Cases!M1)/(Cases!$B2-Cases!$B1),
 "")</f>
         <v/>
       </c>
       <c r="M2" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!N1),Cases!N1&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!N1),Cases!N1&gt;min_number),
 ((Cases!N2-Cases!N1)/Cases!N1)/(Cases!$B2-Cases!$B1),
 "")</f>
         <v/>
       </c>
       <c r="N2" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!O1),Cases!O1&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!O1),Cases!O1&gt;min_number),
 ((Cases!O2-Cases!O1)/Cases!O1)/(Cases!$B2-Cases!$B1),
 "")</f>
         <v/>
       </c>
       <c r="O2" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!P1),Cases!P1&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!P1),Cases!P1&gt;min_number),
 ((Cases!P2-Cases!P1)/Cases!P1)/(Cases!$B2-Cases!$B1),
 "")</f>
         <v/>
       </c>
       <c r="P2" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!Q1),Cases!Q1&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!Q1),Cases!Q1&gt;min_number),
 ((Cases!Q2-Cases!Q1)/Cases!Q1)/(Cases!$B2-Cases!$B1),
 "")</f>
         <v/>
       </c>
       <c r="Q2" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!R1),Cases!R1&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!R1),Cases!R1&gt;min_number),
 ((Cases!R2-Cases!R1)/Cases!R1)/(Cases!$B2-Cases!$B1),
 "")</f>
         <v/>
       </c>
       <c r="R2" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!S1),Cases!S1&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!S1),Cases!S1&gt;min_number),
 ((Cases!S2-Cases!S1)/Cases!S1)/(Cases!$B2-Cases!$B1),
 "")</f>
         <v/>
       </c>
       <c r="S2" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!T1),Cases!T1&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!T1),Cases!T1&gt;min_number),
 ((Cases!T2-Cases!T1)/Cases!T1)/(Cases!$B2-Cases!$B1),
 "")</f>
         <v/>
       </c>
       <c r="U2" s="37" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
+        <v>69</v>
+      </c>
+      <c r="V2" s="37">
+        <v>10</v>
+      </c>
+      <c r="W2" s="37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="47">
         <f>Table5[[#This Row],['#]]</f>
         <v>1</v>
@@ -8352,109 +9067,109 @@
         <v>43890.416666666664</v>
       </c>
       <c r="C3" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!D2),Cases!D2&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!D2),Cases!D2&gt;min_number),
 ((Cases!D3-Cases!D2)/Cases!D2)/(Cases!$B3-Cases!$B2),
 "")</f>
         <v/>
       </c>
       <c r="D3" s="39">
-        <f>IF(AND(ISNUMBER(Cases!E2),Cases!E2&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!E2),Cases!E2&gt;min_number),
 ((Cases!E3-Cases!E2)/Cases!E2)/(Cases!$B3-Cases!$B2),
 "")</f>
         <v>0</v>
       </c>
       <c r="E3" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!F2),Cases!F2&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!F2),Cases!F2&gt;min_number),
 ((Cases!F3-Cases!F2)/Cases!F2)/(Cases!$B3-Cases!$B2),
 "")</f>
         <v/>
       </c>
       <c r="F3" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!G2),Cases!G2&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!G2),Cases!G2&gt;min_number),
 ((Cases!G3-Cases!G2)/Cases!G2)/(Cases!$B3-Cases!$B2),
 "")</f>
         <v/>
       </c>
       <c r="G3" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!H2),Cases!H2&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!H2),Cases!H2&gt;min_number),
 ((Cases!H3-Cases!H2)/Cases!H2)/(Cases!$B3-Cases!$B2),
 "")</f>
         <v/>
       </c>
       <c r="H3" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!I2),Cases!I2&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!I2),Cases!I2&gt;min_number),
 ((Cases!I3-Cases!I2)/Cases!I2)/(Cases!$B3-Cases!$B2),
 "")</f>
         <v/>
       </c>
       <c r="I3" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!J2),Cases!J2&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!J2),Cases!J2&gt;min_number),
 ((Cases!J3-Cases!J2)/Cases!J2)/(Cases!$B3-Cases!$B2),
 "")</f>
         <v/>
       </c>
       <c r="J3" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!K2),Cases!K2&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!K2),Cases!K2&gt;min_number),
 ((Cases!K3-Cases!K2)/Cases!K2)/(Cases!$B3-Cases!$B2),
 "")</f>
         <v/>
       </c>
       <c r="K3" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!L2),Cases!L2&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!L2),Cases!L2&gt;min_number),
 ((Cases!L3-Cases!L2)/Cases!L2)/(Cases!$B3-Cases!$B2),
 "")</f>
         <v/>
       </c>
       <c r="L3" s="39">
-        <f>IF(AND(ISNUMBER(Cases!M2),Cases!M2&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!M2),Cases!M2&gt;min_number),
 ((Cases!M3-Cases!M2)/Cases!M2)/(Cases!$B3-Cases!$B2),
 "")</f>
         <v>0.2</v>
       </c>
       <c r="M3" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!N2),Cases!N2&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!N2),Cases!N2&gt;min_number),
 ((Cases!N3-Cases!N2)/Cases!N2)/(Cases!$B3-Cases!$B2),
 "")</f>
         <v/>
       </c>
       <c r="N3" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!O2),Cases!O2&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!O2),Cases!O2&gt;min_number),
 ((Cases!O3-Cases!O2)/Cases!O2)/(Cases!$B3-Cases!$B2),
 "")</f>
         <v/>
       </c>
       <c r="O3" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!P2),Cases!P2&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!P2),Cases!P2&gt;min_number),
 ((Cases!P3-Cases!P2)/Cases!P2)/(Cases!$B3-Cases!$B2),
 "")</f>
         <v/>
       </c>
       <c r="P3" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!Q2),Cases!Q2&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!Q2),Cases!Q2&gt;min_number),
 ((Cases!Q3-Cases!Q2)/Cases!Q2)/(Cases!$B3-Cases!$B2),
 "")</f>
         <v/>
       </c>
       <c r="Q3" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!R2),Cases!R2&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!R2),Cases!R2&gt;min_number),
 ((Cases!R3-Cases!R2)/Cases!R2)/(Cases!$B3-Cases!$B2),
 "")</f>
         <v/>
       </c>
       <c r="R3" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!S2),Cases!S2&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!S2),Cases!S2&gt;min_number),
 ((Cases!S3-Cases!S2)/Cases!S2)/(Cases!$B3-Cases!$B2),
 "")</f>
         <v/>
       </c>
       <c r="S3" s="40">
-        <f>IF(AND(ISNUMBER(Cases!T2),Cases!T2&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!T2),Cases!T2&gt;min_number),
 ((Cases!T3-Cases!T2)/Cases!T2)/(Cases!$B3-Cases!$B2),
 "")</f>
         <v>0.24528301886792453</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="47">
         <f>Table5[[#This Row],['#]]</f>
         <v>2</v>
@@ -8464,109 +9179,109 @@
         <v>43891.625</v>
       </c>
       <c r="C4" s="39">
-        <f>IF(AND(ISNUMBER(Cases!D3),Cases!D3&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!D3),Cases!D3&gt;min_number),
 ((Cases!D4-Cases!D3)/Cases!D3)/(Cases!$B4-Cases!$B3),
 "")</f>
         <v>5.9113300492492186E-2</v>
       </c>
       <c r="D4" s="39">
-        <f>IF(AND(ISNUMBER(Cases!E3),Cases!E3&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!E3),Cases!E3&gt;min_number),
 ((Cases!E4-Cases!E3)/Cases!E3)/(Cases!$B4-Cases!$B3),
 "")</f>
         <v>0.44137931034394168</v>
       </c>
       <c r="E4" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!F3),Cases!F3&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!F3),Cases!F3&gt;min_number),
 ((Cases!F4-Cases!F3)/Cases!F3)/(Cases!$B4-Cases!$B3),
 "")</f>
         <v/>
       </c>
       <c r="F4" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!G3),Cases!G3&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!G3),Cases!G3&gt;min_number),
 ((Cases!G4-Cases!G3)/Cases!G3)/(Cases!$B4-Cases!$B3),
 "")</f>
         <v/>
       </c>
       <c r="G4" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!H3),Cases!H3&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!H3),Cases!H3&gt;min_number),
 ((Cases!H4-Cases!H3)/Cases!H3)/(Cases!$B4-Cases!$B3),
 "")</f>
         <v/>
       </c>
       <c r="H4" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!I3),Cases!I3&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!I3),Cases!I3&gt;min_number),
 ((Cases!I4-Cases!I3)/Cases!I3)/(Cases!$B4-Cases!$B3),
 "")</f>
         <v/>
       </c>
       <c r="I4" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!J3),Cases!J3&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!J3),Cases!J3&gt;min_number),
 ((Cases!J4-Cases!J3)/Cases!J3)/(Cases!$B4-Cases!$B3),
 "")</f>
         <v/>
       </c>
       <c r="J4" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!K3),Cases!K3&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!K3),Cases!K3&gt;min_number),
 ((Cases!K4-Cases!K3)/Cases!K3)/(Cases!$B4-Cases!$B3),
 "")</f>
         <v/>
       </c>
       <c r="K4" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!L3),Cases!L3&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!L3),Cases!L3&gt;min_number),
 ((Cases!L4-Cases!L3)/Cases!L3)/(Cases!$B4-Cases!$B3),
 "")</f>
         <v/>
       </c>
       <c r="L4" s="39">
-        <f>IF(AND(ISNUMBER(Cases!M3),Cases!M3&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!M3),Cases!M3&gt;min_number),
 ((Cases!M4-Cases!M3)/Cases!M3)/(Cases!$B4-Cases!$B3),
 "")</f>
         <v>1.2137931034458396</v>
       </c>
       <c r="M4" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!N3),Cases!N3&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!N3),Cases!N3&gt;min_number),
 ((Cases!N4-Cases!N3)/Cases!N3)/(Cases!$B4-Cases!$B3),
 "")</f>
         <v/>
       </c>
       <c r="N4" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!O3),Cases!O3&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!O3),Cases!O3&gt;min_number),
 ((Cases!O4-Cases!O3)/Cases!O3)/(Cases!$B4-Cases!$B3),
 "")</f>
         <v/>
       </c>
       <c r="O4" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!P3),Cases!P3&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!P3),Cases!P3&gt;min_number),
 ((Cases!P4-Cases!P3)/Cases!P3)/(Cases!$B4-Cases!$B3),
 "")</f>
         <v/>
       </c>
       <c r="P4" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!Q3),Cases!Q3&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!Q3),Cases!Q3&gt;min_number),
 ((Cases!Q4-Cases!Q3)/Cases!Q3)/(Cases!$B4-Cases!$B3),
 "")</f>
         <v/>
       </c>
       <c r="Q4" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!R3),Cases!R3&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!R3),Cases!R3&gt;min_number),
 ((Cases!R4-Cases!R3)/Cases!R3)/(Cases!$B4-Cases!$B3),
 "")</f>
         <v/>
       </c>
       <c r="R4" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!S3),Cases!S3&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!S3),Cases!S3&gt;min_number),
 ((Cases!S4-Cases!S3)/Cases!S3)/(Cases!$B4-Cases!$B3),
 "")</f>
         <v/>
       </c>
       <c r="S4" s="40">
-        <f>IF(AND(ISNUMBER(Cases!T3),Cases!T3&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!T3),Cases!T3&gt;min_number),
 ((Cases!T4-Cases!T3)/Cases!T3)/(Cases!$B4-Cases!$B3),
 "")</f>
         <v>0.78996865203603195</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="47">
         <f>Table5[[#This Row],['#]]</f>
         <v>3</v>
@@ -8576,109 +9291,109 @@
         <v>43892.625</v>
       </c>
       <c r="C5" s="39">
-        <f>IF(AND(ISNUMBER(Cases!D4),Cases!D4&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!D4),Cases!D4&gt;min_number),
 ((Cases!D5-Cases!D4)/Cases!D4)/(Cases!$B5-Cases!$B4),
 "")</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="D5" s="39">
-        <f>IF(AND(ISNUMBER(Cases!E4),Cases!E4&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!E4),Cases!E4&gt;min_number),
 ((Cases!E5-Cases!E4)/Cases!E4)/(Cases!$B5-Cases!$B4),
 "")</f>
         <v>0.13043478260869565</v>
       </c>
       <c r="E5" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!F4),Cases!F4&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!F4),Cases!F4&gt;min_number),
 ((Cases!F5-Cases!F4)/Cases!F4)/(Cases!$B5-Cases!$B4),
 "")</f>
         <v/>
       </c>
       <c r="F5" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!G4),Cases!G4&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!G4),Cases!G4&gt;min_number),
 ((Cases!G5-Cases!G4)/Cases!G4)/(Cases!$B5-Cases!$B4),
 "")</f>
         <v/>
       </c>
       <c r="G5" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!H4),Cases!H4&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!H4),Cases!H4&gt;min_number),
 ((Cases!H5-Cases!H4)/Cases!H4)/(Cases!$B5-Cases!$B4),
 "")</f>
         <v/>
       </c>
       <c r="H5" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!I4),Cases!I4&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!I4),Cases!I4&gt;min_number),
 ((Cases!I5-Cases!I4)/Cases!I4)/(Cases!$B5-Cases!$B4),
 "")</f>
         <v/>
       </c>
       <c r="I5" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!J4),Cases!J4&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!J4),Cases!J4&gt;min_number),
 ((Cases!J5-Cases!J4)/Cases!J4)/(Cases!$B5-Cases!$B4),
 "")</f>
         <v/>
       </c>
       <c r="J5" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!K4),Cases!K4&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!K4),Cases!K4&gt;min_number),
 ((Cases!K5-Cases!K4)/Cases!K4)/(Cases!$B5-Cases!$B4),
 "")</f>
         <v/>
       </c>
       <c r="K5" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!L4),Cases!L4&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!L4),Cases!L4&gt;min_number),
 ((Cases!L5-Cases!L4)/Cases!L4)/(Cases!$B5-Cases!$B4),
 "")</f>
         <v/>
       </c>
       <c r="L5" s="39">
-        <f>IF(AND(ISNUMBER(Cases!M4),Cases!M4&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!M4),Cases!M4&gt;min_number),
 ((Cases!M5-Cases!M4)/Cases!M4)/(Cases!$B5-Cases!$B4),
 "")</f>
         <v>0.21621621621621623</v>
       </c>
       <c r="M5" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!N4),Cases!N4&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!N4),Cases!N4&gt;min_number),
 ((Cases!N5-Cases!N4)/Cases!N4)/(Cases!$B5-Cases!$B4),
 "")</f>
         <v/>
       </c>
       <c r="N5" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!O4),Cases!O4&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!O4),Cases!O4&gt;min_number),
 ((Cases!O5-Cases!O4)/Cases!O4)/(Cases!$B5-Cases!$B4),
 "")</f>
         <v/>
       </c>
       <c r="O5" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!P4),Cases!P4&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!P4),Cases!P4&gt;min_number),
 ((Cases!P5-Cases!P4)/Cases!P4)/(Cases!$B5-Cases!$B4),
 "")</f>
         <v/>
       </c>
       <c r="P5" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!Q4),Cases!Q4&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!Q4),Cases!Q4&gt;min_number),
 ((Cases!Q5-Cases!Q4)/Cases!Q4)/(Cases!$B5-Cases!$B4),
 "")</f>
         <v/>
       </c>
       <c r="Q5" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!R4),Cases!R4&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!R4),Cases!R4&gt;min_number),
 ((Cases!R5-Cases!R4)/Cases!R4)/(Cases!$B5-Cases!$B4),
 "")</f>
         <v/>
       </c>
       <c r="R5" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!S4),Cases!S4&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!S4),Cases!S4&gt;min_number),
 ((Cases!S5-Cases!S4)/Cases!S4)/(Cases!$B5-Cases!$B4),
 "")</f>
         <v/>
       </c>
       <c r="S5" s="40">
-        <f>IF(AND(ISNUMBER(Cases!T4),Cases!T4&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!T4),Cases!T4&gt;min_number),
 ((Cases!T5-Cases!T4)/Cases!T4)/(Cases!$B5-Cases!$B4),
 "")</f>
         <v>0.21705426356589147</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="47">
         <f>Table5[[#This Row],['#]]</f>
         <v>4</v>
@@ -8688,109 +9403,109 @@
         <v>43893.625</v>
       </c>
       <c r="C6" s="39">
-        <f>IF(AND(ISNUMBER(Cases!D5),Cases!D5&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!D5),Cases!D5&gt;min_number),
 ((Cases!D6-Cases!D5)/Cases!D5)/(Cases!$B6-Cases!$B5),
 "")</f>
         <v>0.4</v>
       </c>
       <c r="D6" s="39">
-        <f>IF(AND(ISNUMBER(Cases!E5),Cases!E5&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!E5),Cases!E5&gt;min_number),
 ((Cases!E6-Cases!E5)/Cases!E5)/(Cases!$B6-Cases!$B5),
 "")</f>
         <v>0.42307692307692307</v>
       </c>
       <c r="E6" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!F5),Cases!F5&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!F5),Cases!F5&gt;min_number),
 ((Cases!F6-Cases!F5)/Cases!F5)/(Cases!$B6-Cases!$B5),
 "")</f>
         <v/>
       </c>
       <c r="F6" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!G5),Cases!G5&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!G5),Cases!G5&gt;min_number),
 ((Cases!G6-Cases!G5)/Cases!G5)/(Cases!$B6-Cases!$B5),
 "")</f>
         <v/>
       </c>
       <c r="G6" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!H5),Cases!H5&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!H5),Cases!H5&gt;min_number),
 ((Cases!H6-Cases!H5)/Cases!H5)/(Cases!$B6-Cases!$B5),
 "")</f>
         <v/>
       </c>
       <c r="H6" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!I5),Cases!I5&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!I5),Cases!I5&gt;min_number),
 ((Cases!I6-Cases!I5)/Cases!I5)/(Cases!$B6-Cases!$B5),
 "")</f>
         <v/>
       </c>
       <c r="I6" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!J5),Cases!J5&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!J5),Cases!J5&gt;min_number),
 ((Cases!J6-Cases!J5)/Cases!J5)/(Cases!$B6-Cases!$B5),
 "")</f>
         <v/>
       </c>
       <c r="J6" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!K5),Cases!K5&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!K5),Cases!K5&gt;min_number),
 ((Cases!K6-Cases!K5)/Cases!K5)/(Cases!$B6-Cases!$B5),
 "")</f>
         <v/>
       </c>
       <c r="K6" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!L5),Cases!L5&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!L5),Cases!L5&gt;min_number),
 ((Cases!L6-Cases!L5)/Cases!L5)/(Cases!$B6-Cases!$B5),
 "")</f>
         <v/>
       </c>
       <c r="L6" s="39">
-        <f>IF(AND(ISNUMBER(Cases!M5),Cases!M5&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!M5),Cases!M5&gt;min_number),
 ((Cases!M6-Cases!M5)/Cases!M5)/(Cases!$B6-Cases!$B5),
 "")</f>
         <v>0.14444444444444443</v>
       </c>
       <c r="M6" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!N5),Cases!N5&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!N5),Cases!N5&gt;min_number),
 ((Cases!N6-Cases!N5)/Cases!N5)/(Cases!$B6-Cases!$B5),
 "")</f>
         <v/>
       </c>
       <c r="N6" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!O5),Cases!O5&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!O5),Cases!O5&gt;min_number),
 ((Cases!O6-Cases!O5)/Cases!O5)/(Cases!$B6-Cases!$B5),
 "")</f>
         <v/>
       </c>
       <c r="O6" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!P5),Cases!P5&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!P5),Cases!P5&gt;min_number),
 ((Cases!P6-Cases!P5)/Cases!P5)/(Cases!$B6-Cases!$B5),
 "")</f>
         <v/>
       </c>
       <c r="P6" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!Q5),Cases!Q5&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!Q5),Cases!Q5&gt;min_number),
 ((Cases!Q6-Cases!Q5)/Cases!Q5)/(Cases!$B6-Cases!$B5),
 "")</f>
         <v/>
       </c>
       <c r="Q6" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!R5),Cases!R5&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!R5),Cases!R5&gt;min_number),
 ((Cases!R6-Cases!R5)/Cases!R5)/(Cases!$B6-Cases!$B5),
 "")</f>
         <v/>
       </c>
       <c r="R6" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!S5),Cases!S5&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!S5),Cases!S5&gt;min_number),
 ((Cases!S6-Cases!S5)/Cases!S5)/(Cases!$B6-Cases!$B5),
 "")</f>
         <v/>
       </c>
       <c r="S6" s="40">
-        <f>IF(AND(ISNUMBER(Cases!T5),Cases!T5&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!T5),Cases!T5&gt;min_number),
 ((Cases!T6-Cases!T5)/Cases!T5)/(Cases!$B6-Cases!$B5),
 "")</f>
         <v>0.24840764331210191</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="47">
         <f>Table5[[#This Row],['#]]</f>
         <v>5</v>
@@ -8800,109 +9515,109 @@
         <v>43894.625</v>
       </c>
       <c r="C7" s="39">
-        <f>IF(AND(ISNUMBER(Cases!D6),Cases!D6&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!D6),Cases!D6&gt;min_number),
 ((Cases!D7-Cases!D6)/Cases!D6)/(Cases!$B7-Cases!$B6),
 "")</f>
         <v>0.7857142857142857</v>
       </c>
       <c r="D7" s="39">
-        <f>IF(AND(ISNUMBER(Cases!E6),Cases!E6&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!E6),Cases!E6&gt;min_number),
 ((Cases!E7-Cases!E6)/Cases!E6)/(Cases!$B7-Cases!$B6),
 "")</f>
         <v>0.29729729729729731</v>
       </c>
       <c r="E7" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!F6),Cases!F6&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!F6),Cases!F6&gt;min_number),
 ((Cases!F7-Cases!F6)/Cases!F6)/(Cases!$B7-Cases!$B6),
 "")</f>
         <v/>
       </c>
       <c r="F7" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!G6),Cases!G6&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!G6),Cases!G6&gt;min_number),
 ((Cases!G7-Cases!G6)/Cases!G6)/(Cases!$B7-Cases!$B6),
 "")</f>
         <v/>
       </c>
       <c r="G7" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!H6),Cases!H6&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!H6),Cases!H6&gt;min_number),
 ((Cases!H7-Cases!H6)/Cases!H6)/(Cases!$B7-Cases!$B6),
 "")</f>
         <v/>
       </c>
       <c r="H7" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!I6),Cases!I6&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!I6),Cases!I6&gt;min_number),
 ((Cases!I7-Cases!I6)/Cases!I6)/(Cases!$B7-Cases!$B6),
 "")</f>
         <v/>
       </c>
       <c r="I7" s="39">
-        <f>IF(AND(ISNUMBER(Cases!J6),Cases!J6&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!J6),Cases!J6&gt;min_number),
 ((Cases!J7-Cases!J6)/Cases!J6)/(Cases!$B7-Cases!$B6),
 "")</f>
         <v>0</v>
       </c>
       <c r="J7" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!K6),Cases!K6&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!K6),Cases!K6&gt;min_number),
 ((Cases!K7-Cases!K6)/Cases!K6)/(Cases!$B7-Cases!$B6),
 "")</f>
         <v/>
       </c>
       <c r="K7" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!L6),Cases!L6&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!L6),Cases!L6&gt;min_number),
 ((Cases!L7-Cases!L6)/Cases!L6)/(Cases!$B7-Cases!$B6),
 "")</f>
         <v/>
       </c>
       <c r="L7" s="39">
-        <f>IF(AND(ISNUMBER(Cases!M6),Cases!M6&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!M6),Cases!M6&gt;min_number),
 ((Cases!M7-Cases!M6)/Cases!M6)/(Cases!$B7-Cases!$B6),
 "")</f>
         <v>0.11650485436893204</v>
       </c>
       <c r="M7" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!N6),Cases!N6&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!N6),Cases!N6&gt;min_number),
 ((Cases!N7-Cases!N6)/Cases!N6)/(Cases!$B7-Cases!$B6),
 "")</f>
         <v/>
       </c>
       <c r="N7" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!O6),Cases!O6&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!O6),Cases!O6&gt;min_number),
 ((Cases!O7-Cases!O6)/Cases!O6)/(Cases!$B7-Cases!$B6),
 "")</f>
         <v/>
       </c>
       <c r="O7" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!P6),Cases!P6&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!P6),Cases!P6&gt;min_number),
 ((Cases!P7-Cases!P6)/Cases!P6)/(Cases!$B7-Cases!$B6),
 "")</f>
         <v/>
       </c>
       <c r="P7" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!Q6),Cases!Q6&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!Q6),Cases!Q6&gt;min_number),
 ((Cases!Q7-Cases!Q6)/Cases!Q6)/(Cases!$B7-Cases!$B6),
 "")</f>
         <v/>
       </c>
       <c r="Q7" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!R6),Cases!R6&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!R6),Cases!R6&gt;min_number),
 ((Cases!R7-Cases!R6)/Cases!R6)/(Cases!$B7-Cases!$B6),
 "")</f>
         <v/>
       </c>
       <c r="R7" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!S6),Cases!S6&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!S6),Cases!S6&gt;min_number),
 ((Cases!S7-Cases!S6)/Cases!S6)/(Cases!$B7-Cases!$B6),
 "")</f>
         <v/>
       </c>
       <c r="S7" s="40">
-        <f>IF(AND(ISNUMBER(Cases!T6),Cases!T6&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!T6),Cases!T6&gt;min_number),
 ((Cases!T7-Cases!T6)/Cases!T6)/(Cases!$B7-Cases!$B6),
 "")</f>
         <v>0.33673469387755101</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="47">
         <f>Table5[[#This Row],['#]]</f>
         <v>6</v>
@@ -8912,109 +9627,109 @@
         <v>43895.625</v>
       </c>
       <c r="C8" s="39">
-        <f>IF(AND(ISNUMBER(Cases!D7),Cases!D7&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!D7),Cases!D7&gt;min_number),
 ((Cases!D8-Cases!D7)/Cases!D7)/(Cases!$B8-Cases!$B7),
 "")</f>
         <v>0.46</v>
       </c>
       <c r="D8" s="39">
-        <f>IF(AND(ISNUMBER(Cases!E7),Cases!E7&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!E7),Cases!E7&gt;min_number),
 ((Cases!E8-Cases!E7)/Cases!E7)/(Cases!$B8-Cases!$B7),
 "")</f>
         <v>0.45833333333333331</v>
       </c>
       <c r="E8" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!F7),Cases!F7&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!F7),Cases!F7&gt;min_number),
 ((Cases!F8-Cases!F7)/Cases!F7)/(Cases!$B8-Cases!$B7),
 "")</f>
         <v/>
       </c>
       <c r="F8" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!G7),Cases!G7&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!G7),Cases!G7&gt;min_number),
 ((Cases!G8-Cases!G7)/Cases!G7)/(Cases!$B8-Cases!$B7),
 "")</f>
         <v/>
       </c>
       <c r="G8" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!H7),Cases!H7&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!H7),Cases!H7&gt;min_number),
 ((Cases!H8-Cases!H7)/Cases!H7)/(Cases!$B8-Cases!$B7),
 "")</f>
         <v/>
       </c>
       <c r="H8" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!I7),Cases!I7&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!I7),Cases!I7&gt;min_number),
 ((Cases!I8-Cases!I7)/Cases!I7)/(Cases!$B8-Cases!$B7),
 "")</f>
         <v/>
       </c>
       <c r="I8" s="39">
-        <f>IF(AND(ISNUMBER(Cases!J7),Cases!J7&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!J7),Cases!J7&gt;min_number),
 ((Cases!J8-Cases!J7)/Cases!J7)/(Cases!$B8-Cases!$B7),
 "")</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="J8" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!K7),Cases!K7&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!K7),Cases!K7&gt;min_number),
 ((Cases!K8-Cases!K7)/Cases!K7)/(Cases!$B8-Cases!$B7),
 "")</f>
         <v/>
       </c>
       <c r="K8" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!L7),Cases!L7&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!L7),Cases!L7&gt;min_number),
 ((Cases!L8-Cases!L7)/Cases!L7)/(Cases!$B8-Cases!$B7),
 "")</f>
         <v/>
       </c>
       <c r="L8" s="39">
-        <f>IF(AND(ISNUMBER(Cases!M7),Cases!M7&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!M7),Cases!M7&gt;min_number),
 ((Cases!M8-Cases!M7)/Cases!M7)/(Cases!$B8-Cases!$B7),
 "")</f>
         <v>0.57391304347826089</v>
       </c>
       <c r="M8" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!N7),Cases!N7&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!N7),Cases!N7&gt;min_number),
 ((Cases!N8-Cases!N7)/Cases!N7)/(Cases!$B8-Cases!$B7),
 "")</f>
         <v/>
       </c>
       <c r="N8" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!O7),Cases!O7&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!O7),Cases!O7&gt;min_number),
 ((Cases!O8-Cases!O7)/Cases!O7)/(Cases!$B8-Cases!$B7),
 "")</f>
         <v/>
       </c>
       <c r="O8" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!P7),Cases!P7&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!P7),Cases!P7&gt;min_number),
 ((Cases!P8-Cases!P7)/Cases!P7)/(Cases!$B8-Cases!$B7),
 "")</f>
         <v/>
       </c>
       <c r="P8" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!Q7),Cases!Q7&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!Q7),Cases!Q7&gt;min_number),
 ((Cases!Q8-Cases!Q7)/Cases!Q7)/(Cases!$B8-Cases!$B7),
 "")</f>
         <v/>
       </c>
       <c r="Q8" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!R7),Cases!R7&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!R7),Cases!R7&gt;min_number),
 ((Cases!R8-Cases!R7)/Cases!R7)/(Cases!$B8-Cases!$B7),
 "")</f>
         <v/>
       </c>
       <c r="R8" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!S7),Cases!S7&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!S7),Cases!S7&gt;min_number),
 ((Cases!S8-Cases!S7)/Cases!S7)/(Cases!$B8-Cases!$B7),
 "")</f>
         <v/>
       </c>
       <c r="S8" s="40">
-        <f>IF(AND(ISNUMBER(Cases!T7),Cases!T7&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!T7),Cases!T7&gt;min_number),
 ((Cases!T8-Cases!T7)/Cases!T7)/(Cases!$B8-Cases!$B7),
 "")</f>
         <v>0.52671755725190839</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="47">
         <f>Table5[[#This Row],['#]]</f>
         <v>7</v>
@@ -9024,109 +9739,109 @@
         <v>43896.625</v>
       </c>
       <c r="C9" s="39">
-        <f>IF(AND(ISNUMBER(Cases!D8),Cases!D8&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!D8),Cases!D8&gt;min_number),
 ((Cases!D9-Cases!D8)/Cases!D8)/(Cases!$B9-Cases!$B8),
 "")</f>
         <v>0.31506849315068491</v>
       </c>
       <c r="D9" s="39">
-        <f>IF(AND(ISNUMBER(Cases!E8),Cases!E8&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!E8),Cases!E8&gt;min_number),
 ((Cases!E9-Cases!E8)/Cases!E8)/(Cases!$B9-Cases!$B8),
 "")</f>
         <v>0.67142857142857137</v>
       </c>
       <c r="E9" s="39">
-        <f>IF(AND(ISNUMBER(Cases!F8),Cases!F8&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!F8),Cases!F8&gt;min_number),
 ((Cases!F9-Cases!F8)/Cases!F8)/(Cases!$B9-Cases!$B8),
 "")</f>
         <v>0.46153846153846156</v>
       </c>
       <c r="F9" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!G8),Cases!G8&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!G8),Cases!G8&gt;min_number),
 ((Cases!G9-Cases!G8)/Cases!G8)/(Cases!$B9-Cases!$B8),
 "")</f>
         <v/>
       </c>
       <c r="G9" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!H8),Cases!H8&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!H8),Cases!H8&gt;min_number),
 ((Cases!H9-Cases!H8)/Cases!H8)/(Cases!$B9-Cases!$B8),
 "")</f>
         <v/>
       </c>
       <c r="H9" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!I8),Cases!I8&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!I8),Cases!I8&gt;min_number),
 ((Cases!I9-Cases!I8)/Cases!I8)/(Cases!$B9-Cases!$B8),
 "")</f>
         <v/>
       </c>
       <c r="I9" s="39">
-        <f>IF(AND(ISNUMBER(Cases!J8),Cases!J8&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!J8),Cases!J8&gt;min_number),
 ((Cases!J9-Cases!J8)/Cases!J8)/(Cases!$B9-Cases!$B8),
 "")</f>
         <v>0.14285714285714285</v>
       </c>
       <c r="J9" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!K8),Cases!K8&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!K8),Cases!K8&gt;min_number),
 ((Cases!K9-Cases!K8)/Cases!K8)/(Cases!$B9-Cases!$B8),
 "")</f>
         <v/>
       </c>
       <c r="K9" s="39">
-        <f>IF(AND(ISNUMBER(Cases!L8),Cases!L8&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!L8),Cases!L8&gt;min_number),
 ((Cases!L9-Cases!L8)/Cases!L8)/(Cases!$B9-Cases!$B8),
 "")</f>
         <v>0</v>
       </c>
       <c r="L9" s="39">
-        <f>IF(AND(ISNUMBER(Cases!M8),Cases!M8&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!M8),Cases!M8&gt;min_number),
 ((Cases!M9-Cases!M8)/Cases!M8)/(Cases!$B9-Cases!$B8),
 "")</f>
         <v>0.81767955801104975</v>
       </c>
       <c r="M9" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!N8),Cases!N8&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!N8),Cases!N8&gt;min_number),
 ((Cases!N9-Cases!N8)/Cases!N8)/(Cases!$B9-Cases!$B8),
 "")</f>
         <v/>
       </c>
       <c r="N9" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!O8),Cases!O8&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!O8),Cases!O8&gt;min_number),
 ((Cases!O9-Cases!O8)/Cases!O8)/(Cases!$B9-Cases!$B8),
 "")</f>
         <v/>
       </c>
       <c r="O9" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!P8),Cases!P8&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!P8),Cases!P8&gt;min_number),
 ((Cases!P9-Cases!P8)/Cases!P8)/(Cases!$B9-Cases!$B8),
 "")</f>
         <v/>
       </c>
       <c r="P9" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!Q8),Cases!Q8&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!Q8),Cases!Q8&gt;min_number),
 ((Cases!Q9-Cases!Q8)/Cases!Q8)/(Cases!$B9-Cases!$B8),
 "")</f>
         <v/>
       </c>
       <c r="Q9" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!R8),Cases!R8&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!R8),Cases!R8&gt;min_number),
 ((Cases!R9-Cases!R8)/Cases!R8)/(Cases!$B9-Cases!$B8),
 "")</f>
         <v/>
       </c>
       <c r="R9" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!S8),Cases!S8&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!S8),Cases!S8&gt;min_number),
 ((Cases!S9-Cases!S8)/Cases!S8)/(Cases!$B9-Cases!$B8),
 "")</f>
         <v/>
       </c>
       <c r="S9" s="40">
-        <f>IF(AND(ISNUMBER(Cases!T8),Cases!T8&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!T8),Cases!T8&gt;min_number),
 ((Cases!T9-Cases!T8)/Cases!T8)/(Cases!$B9-Cases!$B8),
 "")</f>
         <v>0.59750000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="47">
         <f>Table5[[#This Row],['#]]</f>
         <v>8</v>
@@ -9136,109 +9851,109 @@
         <v>43897.625</v>
       </c>
       <c r="C10" s="39">
-        <f>IF(AND(ISNUMBER(Cases!D9),Cases!D9&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!D9),Cases!D9&gt;min_number),
 ((Cases!D10-Cases!D9)/Cases!D9)/(Cases!$B10-Cases!$B9),
 "")</f>
         <v>0.77083333333333337</v>
       </c>
       <c r="D10" s="39">
-        <f>IF(AND(ISNUMBER(Cases!E9),Cases!E9&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!E9),Cases!E9&gt;min_number),
 ((Cases!E10-Cases!E9)/Cases!E9)/(Cases!$B10-Cases!$B9),
 "")</f>
         <v>0.14529914529914531</v>
       </c>
       <c r="E10" s="39">
-        <f>IF(AND(ISNUMBER(Cases!F9),Cases!F9&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!F9),Cases!F9&gt;min_number),
 ((Cases!F10-Cases!F9)/Cases!F9)/(Cases!$B10-Cases!$B9),
 "")</f>
         <v>0.47368421052631576</v>
       </c>
       <c r="F10" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!G9),Cases!G9&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!G9),Cases!G9&gt;min_number),
 ((Cases!G10-Cases!G9)/Cases!G9)/(Cases!$B10-Cases!$B9),
 "")</f>
         <v/>
       </c>
       <c r="G10" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!H9),Cases!H9&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!H9),Cases!H9&gt;min_number),
 ((Cases!H10-Cases!H9)/Cases!H9)/(Cases!$B10-Cases!$B9),
 "")</f>
         <v/>
       </c>
       <c r="H10" s="39">
-        <f>IF(AND(ISNUMBER(Cases!I9),Cases!I9&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!I9),Cases!I9&gt;min_number),
 ((Cases!I10-Cases!I9)/Cases!I9)/(Cases!$B10-Cases!$B9),
 "")</f>
         <v>0.18181818181818182</v>
       </c>
       <c r="I10" s="39">
-        <f>IF(AND(ISNUMBER(Cases!J9),Cases!J9&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!J9),Cases!J9&gt;min_number),
 ((Cases!J10-Cases!J9)/Cases!J9)/(Cases!$B10-Cases!$B9),
 "")</f>
         <v>6.25E-2</v>
       </c>
       <c r="J10" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!K9),Cases!K9&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!K9),Cases!K9&gt;min_number),
 ((Cases!K10-Cases!K9)/Cases!K9)/(Cases!$B10-Cases!$B9),
 "")</f>
         <v/>
       </c>
       <c r="K10" s="39">
-        <f>IF(AND(ISNUMBER(Cases!L9),Cases!L9&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!L9),Cases!L9&gt;min_number),
 ((Cases!L10-Cases!L9)/Cases!L9)/(Cases!$B10-Cases!$B9),
 "")</f>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="L10" s="39">
-        <f>IF(AND(ISNUMBER(Cases!M9),Cases!M9&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!M9),Cases!M9&gt;min_number),
 ((Cases!M10-Cases!M9)/Cases!M9)/(Cases!$B10-Cases!$B9),
 "")</f>
         <v>0.1337386018237082</v>
       </c>
       <c r="M10" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!N9),Cases!N9&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!N9),Cases!N9&gt;min_number),
 ((Cases!N10-Cases!N9)/Cases!N9)/(Cases!$B10-Cases!$B9),
 "")</f>
         <v/>
       </c>
       <c r="N10" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!O9),Cases!O9&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!O9),Cases!O9&gt;min_number),
 ((Cases!O10-Cases!O9)/Cases!O9)/(Cases!$B10-Cases!$B9),
 "")</f>
         <v/>
       </c>
       <c r="O10" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!P9),Cases!P9&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!P9),Cases!P9&gt;min_number),
 ((Cases!P10-Cases!P9)/Cases!P9)/(Cases!$B10-Cases!$B9),
 "")</f>
         <v/>
       </c>
       <c r="P10" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!Q9),Cases!Q9&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!Q9),Cases!Q9&gt;min_number),
 ((Cases!Q10-Cases!Q9)/Cases!Q9)/(Cases!$B10-Cases!$B9),
 "")</f>
         <v/>
       </c>
       <c r="Q10" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!R9),Cases!R9&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!R9),Cases!R9&gt;min_number),
 ((Cases!R10-Cases!R9)/Cases!R9)/(Cases!$B10-Cases!$B9),
 "")</f>
         <v/>
       </c>
       <c r="R10" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!S9),Cases!S9&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!S9),Cases!S9&gt;min_number),
 ((Cases!S10-Cases!S9)/Cases!S9)/(Cases!$B10-Cases!$B9),
 "")</f>
         <v/>
       </c>
       <c r="S10" s="40">
-        <f>IF(AND(ISNUMBER(Cases!T9),Cases!T9&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!T9),Cases!T9&gt;min_number),
 ((Cases!T10-Cases!T9)/Cases!T9)/(Cases!$B10-Cases!$B9),
 "")</f>
         <v>0.24413145539906103</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="47">
         <f>Table5[[#This Row],['#]]</f>
         <v>9</v>
@@ -9248,109 +9963,109 @@
         <v>43898.625</v>
       </c>
       <c r="C11" s="39">
-        <f>IF(AND(ISNUMBER(Cases!D10),Cases!D10&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!D10),Cases!D10&gt;min_number),
 ((Cases!D11-Cases!D10)/Cases!D10)/(Cases!$B11-Cases!$B10),
 "")</f>
         <v>7.0588235294117646E-2</v>
       </c>
       <c r="D11" s="39">
-        <f>IF(AND(ISNUMBER(Cases!E10),Cases!E10&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!E10),Cases!E10&gt;min_number),
 ((Cases!E11-Cases!E10)/Cases!E10)/(Cases!$B11-Cases!$B10),
 "")</f>
         <v>0.28358208955223879</v>
       </c>
       <c r="E11" s="39">
-        <f>IF(AND(ISNUMBER(Cases!F10),Cases!F10&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!F10),Cases!F10&gt;min_number),
 ((Cases!F11-Cases!F10)/Cases!F10)/(Cases!$B11-Cases!$B10),
 "")</f>
         <v>0.42857142857142855</v>
       </c>
       <c r="F11" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!G10),Cases!G10&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!G10),Cases!G10&gt;min_number),
 ((Cases!G11-Cases!G10)/Cases!G10)/(Cases!$B11-Cases!$B10),
 "")</f>
         <v/>
       </c>
       <c r="G11" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!H10),Cases!H10&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!H10),Cases!H10&gt;min_number),
 ((Cases!H11-Cases!H10)/Cases!H10)/(Cases!$B11-Cases!$B10),
 "")</f>
         <v/>
       </c>
       <c r="H11" s="39">
-        <f>IF(AND(ISNUMBER(Cases!I10),Cases!I10&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!I10),Cases!I10&gt;min_number),
 ((Cases!I11-Cases!I10)/Cases!I10)/(Cases!$B11-Cases!$B10),
 "")</f>
         <v>0</v>
       </c>
       <c r="I11" s="39">
-        <f>IF(AND(ISNUMBER(Cases!J10),Cases!J10&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!J10),Cases!J10&gt;min_number),
 ((Cases!J11-Cases!J10)/Cases!J10)/(Cases!$B11-Cases!$B10),
 "")</f>
         <v>0.11764705882352941</v>
       </c>
       <c r="J11" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!K10),Cases!K10&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!K10),Cases!K10&gt;min_number),
 ((Cases!K11-Cases!K10)/Cases!K10)/(Cases!$B11-Cases!$B10),
 "")</f>
         <v/>
       </c>
       <c r="K11" s="39">
-        <f>IF(AND(ISNUMBER(Cases!L10),Cases!L10&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!L10),Cases!L10&gt;min_number),
 ((Cases!L11-Cases!L10)/Cases!L10)/(Cases!$B11-Cases!$B10),
 "")</f>
         <v>0.10526315789473684</v>
       </c>
       <c r="L11" s="39">
-        <f>IF(AND(ISNUMBER(Cases!M10),Cases!M10&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!M10),Cases!M10&gt;min_number),
 ((Cases!M11-Cases!M10)/Cases!M10)/(Cases!$B11-Cases!$B10),
 "")</f>
         <v>6.7024128686327081E-2</v>
       </c>
       <c r="M11" s="39">
-        <f>IF(AND(ISNUMBER(Cases!N10),Cases!N10&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!N10),Cases!N10&gt;min_number),
 ((Cases!N11-Cases!N10)/Cases!N10)/(Cases!$B11-Cases!$B10),
 "")</f>
         <v>0.46153846153846156</v>
       </c>
       <c r="N11" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!O10),Cases!O10&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!O10),Cases!O10&gt;min_number),
 ((Cases!O11-Cases!O10)/Cases!O10)/(Cases!$B11-Cases!$B10),
 "")</f>
         <v/>
       </c>
       <c r="O11" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!P10),Cases!P10&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!P10),Cases!P10&gt;min_number),
 ((Cases!P11-Cases!P10)/Cases!P10)/(Cases!$B11-Cases!$B10),
 "")</f>
         <v/>
       </c>
       <c r="P11" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!Q10),Cases!Q10&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!Q10),Cases!Q10&gt;min_number),
 ((Cases!Q11-Cases!Q10)/Cases!Q10)/(Cases!$B11-Cases!$B10),
 "")</f>
         <v/>
       </c>
       <c r="Q11" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!R10),Cases!R10&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!R10),Cases!R10&gt;min_number),
 ((Cases!R11-Cases!R10)/Cases!R10)/(Cases!$B11-Cases!$B10),
 "")</f>
         <v/>
       </c>
       <c r="R11" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!S10),Cases!S10&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!S10),Cases!S10&gt;min_number),
 ((Cases!S11-Cases!S10)/Cases!S10)/(Cases!$B11-Cases!$B10),
 "")</f>
         <v/>
       </c>
       <c r="S11" s="40">
-        <f>IF(AND(ISNUMBER(Cases!T10),Cases!T10&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!T10),Cases!T10&gt;min_number),
 ((Cases!T11-Cases!T10)/Cases!T10)/(Cases!$B11-Cases!$B10),
 "")</f>
         <v>0.13459119496855346</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="47">
         <f>Table5[[#This Row],['#]]</f>
         <v>10</v>
@@ -9360,109 +10075,109 @@
         <v>43899.625</v>
       </c>
       <c r="C12" s="39">
-        <f>IF(AND(ISNUMBER(Cases!D11),Cases!D11&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!D11),Cases!D11&gt;min_number),
 ((Cases!D12-Cases!D11)/Cases!D11)/(Cases!$B12-Cases!$B11),
 "")</f>
         <v>0.12087912087912088</v>
       </c>
       <c r="D12" s="39">
-        <f>IF(AND(ISNUMBER(Cases!E11),Cases!E11&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!E11),Cases!E11&gt;min_number),
 ((Cases!E12-Cases!E11)/Cases!E11)/(Cases!$B12-Cases!$B11),
 "")</f>
         <v>0.48837209302325579</v>
       </c>
       <c r="E12" s="39">
-        <f>IF(AND(ISNUMBER(Cases!F11),Cases!F11&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!F11),Cases!F11&gt;min_number),
 ((Cases!F12-Cases!F11)/Cases!F11)/(Cases!$B12-Cases!$B11),
 "")</f>
         <v>0.2</v>
       </c>
       <c r="F12" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!G11),Cases!G11&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!G11),Cases!G11&gt;min_number),
 ((Cases!G12-Cases!G11)/Cases!G11)/(Cases!$B12-Cases!$B11),
 "")</f>
         <v/>
       </c>
       <c r="G12" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!H11),Cases!H11&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!H11),Cases!H11&gt;min_number),
 ((Cases!H12-Cases!H11)/Cases!H11)/(Cases!$B12-Cases!$B11),
 "")</f>
         <v/>
       </c>
       <c r="H12" s="39">
-        <f>IF(AND(ISNUMBER(Cases!I11),Cases!I11&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!I11),Cases!I11&gt;min_number),
 ((Cases!I12-Cases!I11)/Cases!I11)/(Cases!$B12-Cases!$B11),
 "")</f>
         <v>0.30769230769230771</v>
       </c>
       <c r="I12" s="39">
-        <f>IF(AND(ISNUMBER(Cases!J11),Cases!J11&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!J11),Cases!J11&gt;min_number),
 ((Cases!J12-Cases!J11)/Cases!J11)/(Cases!$B12-Cases!$B11),
 "")</f>
         <v>0.36842105263157893</v>
       </c>
       <c r="J12" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!K11),Cases!K11&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!K11),Cases!K11&gt;min_number),
 ((Cases!K12-Cases!K11)/Cases!K11)/(Cases!$B12-Cases!$B11),
 "")</f>
         <v/>
       </c>
       <c r="K12" s="39">
-        <f>IF(AND(ISNUMBER(Cases!L11),Cases!L11&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!L11),Cases!L11&gt;min_number),
 ((Cases!L12-Cases!L11)/Cases!L11)/(Cases!$B12-Cases!$B11),
 "")</f>
         <v>0.80952380952380953</v>
       </c>
       <c r="L12" s="39">
-        <f>IF(AND(ISNUMBER(Cases!M11),Cases!M11&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!M11),Cases!M11&gt;min_number),
 ((Cases!M12-Cases!M11)/Cases!M11)/(Cases!$B12-Cases!$B11),
 "")</f>
         <v>0.21608040201005024</v>
       </c>
       <c r="M12" s="39">
-        <f>IF(AND(ISNUMBER(Cases!N11),Cases!N11&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!N11),Cases!N11&gt;min_number),
 ((Cases!N12-Cases!N11)/Cases!N11)/(Cases!$B12-Cases!$B11),
 "")</f>
         <v>-0.10526315789473684</v>
       </c>
       <c r="N12" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!O11),Cases!O11&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!O11),Cases!O11&gt;min_number),
 ((Cases!O12-Cases!O11)/Cases!O11)/(Cases!$B12-Cases!$B11),
 "")</f>
         <v/>
       </c>
       <c r="O12" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!P11),Cases!P11&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!P11),Cases!P11&gt;min_number),
 ((Cases!P12-Cases!P11)/Cases!P11)/(Cases!$B12-Cases!$B11),
 "")</f>
         <v/>
       </c>
       <c r="P12" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!Q11),Cases!Q11&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!Q11),Cases!Q11&gt;min_number),
 ((Cases!Q12-Cases!Q11)/Cases!Q11)/(Cases!$B12-Cases!$B11),
 "")</f>
         <v/>
       </c>
       <c r="Q12" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!R11),Cases!R11&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!R11),Cases!R11&gt;min_number),
 ((Cases!R12-Cases!R11)/Cases!R11)/(Cases!$B12-Cases!$B11),
 "")</f>
         <v/>
       </c>
       <c r="R12" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!S11),Cases!S11&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!S11),Cases!S11&gt;min_number),
 ((Cases!S12-Cases!S11)/Cases!S11)/(Cases!$B12-Cases!$B11),
 "")</f>
         <v/>
       </c>
       <c r="S12" s="40">
-        <f>IF(AND(ISNUMBER(Cases!T11),Cases!T11&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!T11),Cases!T11&gt;min_number),
 ((Cases!T12-Cases!T11)/Cases!T11)/(Cases!$B12-Cases!$B11),
 "")</f>
         <v>0.26274944567627495</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="47">
         <f>Table5[[#This Row],['#]]</f>
         <v>11</v>
@@ -9472,109 +10187,109 @@
         <v>43900.625</v>
       </c>
       <c r="C13" s="39">
-        <f>IF(AND(ISNUMBER(Cases!D12),Cases!D12&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!D12),Cases!D12&gt;min_number),
 ((Cases!D13-Cases!D12)/Cases!D12)/(Cases!$B13-Cases!$B12),
 "")</f>
         <v>0.16176470588235295</v>
       </c>
       <c r="D13" s="39">
-        <f>IF(AND(ISNUMBER(Cases!E12),Cases!E12&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!E12),Cases!E12&gt;min_number),
 ((Cases!E13-Cases!E12)/Cases!E12)/(Cases!$B13-Cases!$B12),
 "")</f>
         <v>0.2265625</v>
       </c>
       <c r="E13" s="39">
-        <f>IF(AND(ISNUMBER(Cases!F12),Cases!F12&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!F12),Cases!F12&gt;min_number),
 ((Cases!F13-Cases!F12)/Cases!F12)/(Cases!$B13-Cases!$B12),
 "")</f>
         <v>0</v>
       </c>
       <c r="F13" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!G12),Cases!G12&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!G12),Cases!G12&gt;min_number),
 ((Cases!G13-Cases!G12)/Cases!G12)/(Cases!$B13-Cases!$B12),
 "")</f>
         <v/>
       </c>
       <c r="G13" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!H12),Cases!H12&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!H12),Cases!H12&gt;min_number),
 ((Cases!H13-Cases!H12)/Cases!H12)/(Cases!$B13-Cases!$B12),
 "")</f>
         <v/>
       </c>
       <c r="H13" s="39">
-        <f>IF(AND(ISNUMBER(Cases!I12),Cases!I12&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!I12),Cases!I12&gt;min_number),
 ((Cases!I13-Cases!I12)/Cases!I12)/(Cases!$B13-Cases!$B12),
 "")</f>
         <v>0.70588235294117652</v>
       </c>
       <c r="I13" s="39">
-        <f>IF(AND(ISNUMBER(Cases!J12),Cases!J12&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!J12),Cases!J12&gt;min_number),
 ((Cases!J13-Cases!J12)/Cases!J12)/(Cases!$B13-Cases!$B12),
 "")</f>
         <v>0.34615384615384615</v>
       </c>
       <c r="J13" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!K12),Cases!K12&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!K12),Cases!K12&gt;min_number),
 ((Cases!K13-Cases!K12)/Cases!K12)/(Cases!$B13-Cases!$B12),
 "")</f>
         <v/>
       </c>
       <c r="K13" s="39">
-        <f>IF(AND(ISNUMBER(Cases!L12),Cases!L12&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!L12),Cases!L12&gt;min_number),
 ((Cases!L13-Cases!L12)/Cases!L12)/(Cases!$B13-Cases!$B12),
 "")</f>
         <v>0.28947368421052633</v>
       </c>
       <c r="L13" s="39">
-        <f>IF(AND(ISNUMBER(Cases!M12),Cases!M12&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!M12),Cases!M12&gt;min_number),
 ((Cases!M13-Cases!M12)/Cases!M12)/(Cases!$B13-Cases!$B12),
 "")</f>
         <v>0</v>
       </c>
       <c r="M13" s="39">
-        <f>IF(AND(ISNUMBER(Cases!N12),Cases!N12&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!N12),Cases!N12&gt;min_number),
 ((Cases!N13-Cases!N12)/Cases!N12)/(Cases!$B13-Cases!$B12),
 "")</f>
         <v>0.47058823529411764</v>
       </c>
       <c r="N13" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!O12),Cases!O12&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!O12),Cases!O12&gt;min_number),
 ((Cases!O13-Cases!O12)/Cases!O12)/(Cases!$B13-Cases!$B12),
 "")</f>
         <v/>
       </c>
       <c r="O13" s="39">
-        <f>IF(AND(ISNUMBER(Cases!P12),Cases!P12&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!P12),Cases!P12&gt;min_number),
 ((Cases!P13-Cases!P12)/Cases!P12)/(Cases!$B13-Cases!$B12),
 "")</f>
         <v>0.83333333333333337</v>
       </c>
       <c r="P13" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!Q12),Cases!Q12&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!Q12),Cases!Q12&gt;min_number),
 ((Cases!Q13-Cases!Q12)/Cases!Q12)/(Cases!$B13-Cases!$B12),
 "")</f>
         <v/>
       </c>
       <c r="Q13" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!R12),Cases!R12&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!R12),Cases!R12&gt;min_number),
 ((Cases!R13-Cases!R12)/Cases!R12)/(Cases!$B13-Cases!$B12),
 "")</f>
         <v/>
       </c>
       <c r="R13" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!S12),Cases!S12&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!S12),Cases!S12&gt;min_number),
 ((Cases!S13-Cases!S12)/Cases!S12)/(Cases!$B13-Cases!$B12),
 "")</f>
         <v/>
       </c>
       <c r="S13" s="40">
-        <f>IF(AND(ISNUMBER(Cases!T12),Cases!T12&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!T12),Cases!T12&gt;min_number),
 ((Cases!T13-Cases!T12)/Cases!T12)/(Cases!$B13-Cases!$B12),
 "")</f>
         <v>0.13784021071115013</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="47">
         <f>Table5[[#This Row],['#]]</f>
         <v>12</v>
@@ -9584,109 +10299,109 @@
         <v>43901.625</v>
       </c>
       <c r="C14" s="39">
-        <f>IF(AND(ISNUMBER(Cases!D13),Cases!D13&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!D13),Cases!D13&gt;min_number),
 ((Cases!D14-Cases!D13)/Cases!D13)/(Cases!$B14-Cases!$B13),
 "")</f>
         <v>0.16877637130801687</v>
       </c>
       <c r="D14" s="39">
-        <f>IF(AND(ISNUMBER(Cases!E13),Cases!E13&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!E13),Cases!E13&gt;min_number),
 ((Cases!E14-Cases!E13)/Cases!E13)/(Cases!$B14-Cases!$B13),
 "")</f>
         <v>0.16560509554140126</v>
       </c>
       <c r="E14" s="39">
-        <f>IF(AND(ISNUMBER(Cases!F13),Cases!F13&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!F13),Cases!F13&gt;min_number),
 ((Cases!F14-Cases!F13)/Cases!F13)/(Cases!$B14-Cases!$B13),
 "")</f>
         <v>0.875</v>
       </c>
       <c r="F14" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!G13),Cases!G13&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!G13),Cases!G13&gt;min_number),
 ((Cases!G14-Cases!G13)/Cases!G13)/(Cases!$B14-Cases!$B13),
 "")</f>
         <v/>
       </c>
       <c r="G14" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!H13),Cases!H13&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!H13),Cases!H13&gt;min_number),
 ((Cases!H14-Cases!H13)/Cases!H13)/(Cases!$B14-Cases!$B13),
 "")</f>
         <v/>
       </c>
       <c r="H14" s="39">
-        <f>IF(AND(ISNUMBER(Cases!I13),Cases!I13&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!I13),Cases!I13&gt;min_number),
 ((Cases!I14-Cases!I13)/Cases!I13)/(Cases!$B14-Cases!$B13),
 "")</f>
         <v>0.65517241379310343</v>
       </c>
       <c r="I14" s="39">
-        <f>IF(AND(ISNUMBER(Cases!J13),Cases!J13&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!J13),Cases!J13&gt;min_number),
 ((Cases!J14-Cases!J13)/Cases!J13)/(Cases!$B14-Cases!$B13),
 "")</f>
         <v>0.37142857142857144</v>
       </c>
       <c r="J14" s="39">
-        <f>IF(AND(ISNUMBER(Cases!K13),Cases!K13&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!K13),Cases!K13&gt;min_number),
 ((Cases!K14-Cases!K13)/Cases!K13)/(Cases!$B14-Cases!$B13),
 "")</f>
         <v>0.30769230769230771</v>
       </c>
       <c r="K14" s="39">
-        <f>IF(AND(ISNUMBER(Cases!L13),Cases!L13&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!L13),Cases!L13&gt;min_number),
 ((Cases!L14-Cases!L13)/Cases!L13)/(Cases!$B14-Cases!$B13),
 "")</f>
         <v>0.53061224489795922</v>
       </c>
       <c r="L14" s="39">
-        <f>IF(AND(ISNUMBER(Cases!M13),Cases!M13&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!M13),Cases!M13&gt;min_number),
 ((Cases!M14-Cases!M13)/Cases!M13)/(Cases!$B14-Cases!$B13),
 "")</f>
         <v>0</v>
       </c>
       <c r="M14" s="39">
-        <f>IF(AND(ISNUMBER(Cases!N13),Cases!N13&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!N13),Cases!N13&gt;min_number),
 ((Cases!N14-Cases!N13)/Cases!N13)/(Cases!$B14-Cases!$B13),
 "")</f>
         <v>0</v>
       </c>
       <c r="N14" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!O13),Cases!O13&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!O13),Cases!O13&gt;min_number),
 ((Cases!O14-Cases!O13)/Cases!O13)/(Cases!$B14-Cases!$B13),
 "")</f>
         <v/>
       </c>
       <c r="O14" s="39">
-        <f>IF(AND(ISNUMBER(Cases!P13),Cases!P13&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!P13),Cases!P13&gt;min_number),
 ((Cases!P14-Cases!P13)/Cases!P13)/(Cases!$B14-Cases!$B13),
 "")</f>
         <v>0.18181818181818182</v>
       </c>
       <c r="P14" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!Q13),Cases!Q13&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!Q13),Cases!Q13&gt;min_number),
 ((Cases!Q14-Cases!Q13)/Cases!Q13)/(Cases!$B14-Cases!$B13),
 "")</f>
         <v/>
       </c>
       <c r="Q14" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!R13),Cases!R13&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!R13),Cases!R13&gt;min_number),
 ((Cases!R14-Cases!R13)/Cases!R13)/(Cases!$B14-Cases!$B13),
 "")</f>
         <v/>
       </c>
       <c r="R14" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!S13),Cases!S13&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!S13),Cases!S13&gt;min_number),
 ((Cases!S14-Cases!S13)/Cases!S13)/(Cases!$B14-Cases!$B13),
 "")</f>
         <v/>
       </c>
       <c r="S14" s="40">
-        <f>IF(AND(ISNUMBER(Cases!T13),Cases!T13&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!T13),Cases!T13&gt;min_number),
 ((Cases!T14-Cases!T13)/Cases!T13)/(Cases!$B14-Cases!$B13),
 "")</f>
         <v>0.20910493827160495</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="63">
         <f>Table5[[#This Row],['#]]</f>
         <v>13</v>
@@ -9696,110 +10411,222 @@
         <v>43902.625</v>
       </c>
       <c r="C15" s="65">
-        <f>IF(AND(ISNUMBER(Cases!D14),Cases!D14&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!D14),Cases!D14&gt;min_number),
 ((Cases!D15-Cases!D14)/Cases!D14)/(Cases!$B15-Cases!$B14),
 "")</f>
         <v>0.63898916967509023</v>
       </c>
       <c r="D15" s="65">
-        <f>IF(AND(ISNUMBER(Cases!E14),Cases!E14&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!E14),Cases!E14&gt;min_number),
 ((Cases!E15-Cases!E14)/Cases!E14)/(Cases!$B15-Cases!$B14),
 "")</f>
         <v>0.36612021857923499</v>
       </c>
       <c r="E15" s="65">
-        <f>IF(AND(ISNUMBER(Cases!F14),Cases!F14&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!F14),Cases!F14&gt;min_number),
 ((Cases!F15-Cases!F14)/Cases!F14)/(Cases!$B15-Cases!$B14),
 "")</f>
         <v>0.52222222222222225</v>
       </c>
       <c r="F15" s="65">
-        <f>IF(AND(ISNUMBER(Cases!G14),Cases!G14&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!G14),Cases!G14&gt;min_number),
 ((Cases!G15-Cases!G14)/Cases!G14)/(Cases!$B15-Cases!$B14),
 "")</f>
         <v>0.25</v>
       </c>
       <c r="G15" s="65">
-        <f>IF(AND(ISNUMBER(Cases!H14),Cases!H14&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!H14),Cases!H14&gt;min_number),
 ((Cases!H15-Cases!H14)/Cases!H14)/(Cases!$B15-Cases!$B14),
 "")</f>
         <v>0.80952380952380953</v>
       </c>
       <c r="H15" s="65">
-        <f>IF(AND(ISNUMBER(Cases!I14),Cases!I14&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!I14),Cases!I14&gt;min_number),
 ((Cases!I15-Cases!I14)/Cases!I14)/(Cases!$B15-Cases!$B14),
 "")</f>
         <v>0.83333333333333337</v>
       </c>
       <c r="I15" s="65">
-        <f>IF(AND(ISNUMBER(Cases!J14),Cases!J14&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!J14),Cases!J14&gt;min_number),
 ((Cases!J15-Cases!J14)/Cases!J14)/(Cases!$B15-Cases!$B14),
 "")</f>
         <v>1.0625</v>
       </c>
       <c r="J15" s="65">
-        <f>IF(AND(ISNUMBER(Cases!K14),Cases!K14&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!K14),Cases!K14&gt;min_number),
 ((Cases!K15-Cases!K14)/Cases!K14)/(Cases!$B15-Cases!$B14),
 "")</f>
         <v>0.35294117647058826</v>
       </c>
       <c r="K15" s="65">
-        <f>IF(AND(ISNUMBER(Cases!L14),Cases!L14&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!L14),Cases!L14&gt;min_number),
 ((Cases!L15-Cases!L14)/Cases!L14)/(Cases!$B15-Cases!$B14),
 "")</f>
         <v>0.72</v>
       </c>
       <c r="L15" s="65">
-        <f>IF(AND(ISNUMBER(Cases!M14),Cases!M14&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!M14),Cases!M14&gt;min_number),
 ((Cases!M15-Cases!M14)/Cases!M14)/(Cases!$B15-Cases!$B14),
 "")</f>
         <v>0.42148760330578511</v>
       </c>
       <c r="M15" s="65">
-        <f>IF(AND(ISNUMBER(Cases!N14),Cases!N14&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!N14),Cases!N14&gt;min_number),
 ((Cases!N15-Cases!N14)/Cases!N14)/(Cases!$B15-Cases!$B14),
 "")</f>
         <v>1.08</v>
       </c>
       <c r="N15" s="65">
-        <f>IF(AND(ISNUMBER(Cases!O14),Cases!O14&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!O14),Cases!O14&gt;min_number),
 ((Cases!O15-Cases!O14)/Cases!O14)/(Cases!$B15-Cases!$B14),
 "")</f>
         <v>0</v>
       </c>
       <c r="O15" s="65">
-        <f>IF(AND(ISNUMBER(Cases!P14),Cases!P14&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!P14),Cases!P14&gt;min_number),
 ((Cases!P15-Cases!P14)/Cases!P14)/(Cases!$B15-Cases!$B14),
 "")</f>
         <v>0.73076923076923073</v>
       </c>
       <c r="P15" s="65">
-        <f>IF(AND(ISNUMBER(Cases!Q14),Cases!Q14&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!Q14),Cases!Q14&gt;min_number),
 ((Cases!Q15-Cases!Q14)/Cases!Q14)/(Cases!$B15-Cases!$B14),
 "")</f>
         <v>0.8</v>
       </c>
       <c r="Q15" s="65">
-        <f>IF(AND(ISNUMBER(Cases!R14),Cases!R14&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!R14),Cases!R14&gt;min_number),
 ((Cases!R15-Cases!R14)/Cases!R14)/(Cases!$B15-Cases!$B14),
 "")</f>
         <v>0.14814814814814814</v>
       </c>
       <c r="R15" s="65" t="str">
-        <f>IF(AND(ISNUMBER(Cases!S14),Cases!S14&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!S14),Cases!S14&gt;min_number),
 ((Cases!S15-Cases!S14)/Cases!S14)/(Cases!$B15-Cases!$B14),
 "")</f>
         <v/>
       </c>
       <c r="S15" s="66">
-        <f>IF(AND(ISNUMBER(Cases!T14),Cases!T14&gt;10),
+        <f>IF(AND(ISNUMBER(Cases!T14),Cases!T14&gt;min_number),
 ((Cases!T15-Cases!T14)/Cases!T14)/(Cases!$B15-Cases!$B14),
 "")</f>
         <v>0.51180599872367583</v>
       </c>
     </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A16" s="46">
+        <f>Table5[[#This Row],['#]]</f>
+        <v>14</v>
+      </c>
+      <c r="B16" s="38">
+        <f>Table5[[#This Row],[Date]]</f>
+        <v>43903.625</v>
+      </c>
+      <c r="C16" s="39">
+        <f>IF(AND(ISNUMBER(Cases!D15),Cases!D15&gt;min_number),
+((Cases!D16-Cases!D15)/Cases!D15)/(Cases!$B16-Cases!$B15),
+"")</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="39">
+        <f>IF(AND(ISNUMBER(Cases!E15),Cases!E15&gt;min_number),
+((Cases!E16-Cases!E15)/Cases!E15)/(Cases!$B16-Cases!$B15),
+"")</f>
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="E16" s="39">
+        <f>IF(AND(ISNUMBER(Cases!F15),Cases!F15&gt;min_number),
+((Cases!F16-Cases!F15)/Cases!F15)/(Cases!$B16-Cases!$B15),
+"")</f>
+        <v>0.27007299270072993</v>
+      </c>
+      <c r="F16" s="39">
+        <f>IF(AND(ISNUMBER(Cases!G15),Cases!G15&gt;min_number),
+((Cases!G16-Cases!G15)/Cases!G15)/(Cases!$B16-Cases!$B15),
+"")</f>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="G16" s="39">
+        <f>IF(AND(ISNUMBER(Cases!H15),Cases!H15&gt;min_number),
+((Cases!H16-Cases!H15)/Cases!H15)/(Cases!$B16-Cases!$B15),
+"")</f>
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="H16" s="39">
+        <f>IF(AND(ISNUMBER(Cases!I15),Cases!I15&gt;min_number),
+((Cases!I16-Cases!I15)/Cases!I15)/(Cases!$B16-Cases!$B15),
+"")</f>
+        <v>0.125</v>
+      </c>
+      <c r="I16" s="39">
+        <f>IF(AND(ISNUMBER(Cases!J15),Cases!J15&gt;min_number),
+((Cases!J16-Cases!J15)/Cases!J15)/(Cases!$B16-Cases!$B15),
+"")</f>
+        <v>0.49494949494949497</v>
+      </c>
+      <c r="J16" s="39">
+        <f>IF(AND(ISNUMBER(Cases!K15),Cases!K15&gt;min_number),
+((Cases!K16-Cases!K15)/Cases!K15)/(Cases!$B16-Cases!$B15),
+"")</f>
+        <v>0.43478260869565216</v>
+      </c>
+      <c r="K16" s="39">
+        <f>IF(AND(ISNUMBER(Cases!L15),Cases!L15&gt;min_number),
+((Cases!L16-Cases!L15)/Cases!L15)/(Cases!$B16-Cases!$B15),
+"")</f>
+        <v>0.78294573643410847</v>
+      </c>
+      <c r="L16" s="39">
+        <f>IF(AND(ISNUMBER(Cases!M15),Cases!M15&gt;min_number),
+((Cases!M16-Cases!M15)/Cases!M15)/(Cases!$B16-Cases!$B15),
+"")</f>
+        <v>0.36046511627906974</v>
+      </c>
+      <c r="M16" s="39">
+        <f>IF(AND(ISNUMBER(Cases!N15),Cases!N15&gt;min_number),
+((Cases!N16-Cases!N15)/Cases!N15)/(Cases!$B16-Cases!$B15),
+"")</f>
+        <v>0.96153846153846156</v>
+      </c>
+      <c r="N16" s="39">
+        <f>IF(AND(ISNUMBER(Cases!O15),Cases!O15&gt;min_number),
+((Cases!O16-Cases!O15)/Cases!O15)/(Cases!$B16-Cases!$B15),
+"")</f>
+        <v>1.8571428571428572</v>
+      </c>
+      <c r="O16" s="39">
+        <f>IF(AND(ISNUMBER(Cases!P15),Cases!P15&gt;min_number),
+((Cases!P16-Cases!P15)/Cases!P15)/(Cases!$B16-Cases!$B15),
+"")</f>
+        <v>0.84444444444444444</v>
+      </c>
+      <c r="P16" s="39">
+        <f>IF(AND(ISNUMBER(Cases!Q15),Cases!Q15&gt;min_number),
+((Cases!Q16-Cases!Q15)/Cases!Q15)/(Cases!$B16-Cases!$B15),
+"")</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="Q16" s="39">
+        <f>IF(AND(ISNUMBER(Cases!R15),Cases!R15&gt;min_number),
+((Cases!R16-Cases!R15)/Cases!R15)/(Cases!$B16-Cases!$B15),
+"")</f>
+        <v>0.54838709677419351</v>
+      </c>
+      <c r="R16" s="39">
+        <f>IF(AND(ISNUMBER(Cases!S15),Cases!S15&gt;min_number),
+((Cases!S16-Cases!S15)/Cases!S15)/(Cases!$B16-Cases!$B15),
+"")</f>
+        <v>1.0714285714285714</v>
+      </c>
+      <c r="S16" s="39">
+        <f>IF(AND(ISNUMBER(Cases!T15),Cases!T15&gt;min_number),
+((Cases!T16-Cases!T15)/Cases!T15)/(Cases!$B16-Cases!$B15),
+"")</f>
+        <v>0.29252849303503586</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:S15">
+  <conditionalFormatting sqref="C2:S16">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -9821,10 +10648,10 @@
   <dimension ref="A1:T45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="A6" sqref="A6:T6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" style="5" bestFit="1" customWidth="1"/>
@@ -9834,12 +10661,12 @@
     <col min="27" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="28" customFormat="1" ht="142">
+    <row r="1" spans="1:20" s="28" customFormat="1" ht="142" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" s="55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C1" s="27" t="s">
         <v>22</v>
@@ -9893,10 +10720,10 @@
         <v>15</v>
       </c>
       <c r="T1" s="55" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="29">
         <v>10</v>
       </c>
@@ -9928,7 +10755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="32">
         <v>11</v>
       </c>
@@ -9960,7 +10787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="29">
         <v>12</v>
       </c>
@@ -9992,7 +10819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="19">
         <v>13</v>
       </c>
@@ -10028,7 +10855,43 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="2:19">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" s="19">
+        <v>14</v>
+      </c>
+      <c r="B6" s="75">
+        <v>43903.625</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="73">
+        <v>1</v>
+      </c>
+      <c r="E6" s="73">
+        <v>1</v>
+      </c>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="73">
+        <v>3</v>
+      </c>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="73"/>
+      <c r="R6" s="73"/>
+      <c r="S6" s="73"/>
+      <c r="T6" s="76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B20" s="35"/>
       <c r="C20" s="35"/>
       <c r="D20" s="35"/>
@@ -10045,7 +10908,7 @@
       <c r="R20" s="35"/>
       <c r="S20" s="35"/>
     </row>
-    <row r="45" spans="18:18">
+    <row r="45" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R45" s="36"/>
     </row>
   </sheetData>
@@ -10061,24 +10924,24 @@
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="71">
         <v>43465</v>
       </c>
       <c r="D1" s="72" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -10086,7 +10949,7 @@
         <v>11069500</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -10094,7 +10957,7 @@
         <v>13076700</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -10102,7 +10965,7 @@
         <v>3644800</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -10110,7 +10973,7 @@
         <v>2511900</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -10118,7 +10981,7 @@
         <v>683000</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -10126,7 +10989,7 @@
         <v>1841200</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -10134,7 +10997,7 @@
         <v>6265800</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -10142,7 +11005,7 @@
         <v>1609700</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -10150,7 +11013,7 @@
         <v>7982400</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -10158,7 +11021,7 @@
         <v>17932700</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -10166,7 +11029,7 @@
         <v>4084800</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -10174,7 +11037,7 @@
         <v>990500</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -10182,7 +11045,7 @@
         <v>4077900</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -10190,7 +11053,7 @@
         <v>2208300</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -10198,7 +11061,7 @@
         <v>2896700</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -10206,25 +11069,25 @@
         <v>2143100</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B18">
         <v>83019200</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B19">
         <v>66823399.999999993</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B20">
         <v>12551000</v>
@@ -10242,52 +11105,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD699B48-9B9A-DD49-8864-472A6998CAC7}">
   <dimension ref="A2:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B2">
-        <v>2369</v>
+        <f>last_DE_Total</f>
+        <v>3062</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B3">
         <v>1000000</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B4" s="22">
         <f xml:space="preserve"> LOG(B3/B2,2)</f>
-        <v>8.7215060860839433</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>8.3513100018243858</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B5" s="52">
         <f>B4*E2</f>
-        <v>26.164518258251832</v>
+        <v>25.053930005473156</v>
       </c>
     </row>
   </sheetData>

--- a/data/cases-de.xlsx
+++ b/data/cases-de.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/torben/Hacken/GitHub/COVID-19-Coronavirus-German-Regions/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863045F6-2B0A-654E-A651-465A22EB9BC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7A9926-4500-A349-A8B3-B2853AE75139}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14460" activeTab="4" xr2:uid="{309167EE-B9E7-9F44-B3F3-07C1908B9528}"/>
   </bookViews>
@@ -24,8 +24,44 @@
     <sheet name="When will it be 1 Mill cases" sheetId="13" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="last_DE_Total">Cases!$Z$5</definedName>
-    <definedName name="min_number">'Cases Change'!$V$2</definedName>
+    <definedName name="laast_BY">Cases!$E$2</definedName>
+    <definedName name="last_BB">Cases!$G$2</definedName>
+    <definedName name="last_BE">Cases!$F$2</definedName>
+    <definedName name="last_BW">Cases!$D$2</definedName>
+    <definedName name="last_BY">Cases!$E$2</definedName>
+    <definedName name="last_DE_Total">Cases!$T$2</definedName>
+    <definedName name="last_HB">Cases!$H$2</definedName>
+    <definedName name="last_HE">Cases!$J$2</definedName>
+    <definedName name="last_HH">Cases!$I$2</definedName>
+    <definedName name="last_MV">Cases!$K$2</definedName>
+    <definedName name="last_NI">Cases!$L$2</definedName>
+    <definedName name="last_NW">Cases!$M$2</definedName>
+    <definedName name="last_RP">Cases!$N$2</definedName>
+    <definedName name="last_SA">Cases!$Q$2</definedName>
+    <definedName name="last_SH">Cases!$R$2</definedName>
+    <definedName name="last_SL">Cases!$O$2</definedName>
+    <definedName name="last_SN">Cases!$P$2</definedName>
+    <definedName name="last_ST">Cases!$Q$2</definedName>
+    <definedName name="last_TH">Cases!$S$2</definedName>
+    <definedName name="min_number">'Cases Change'!$U$2</definedName>
+    <definedName name="pop_BB">RefPopulation!$C$7</definedName>
+    <definedName name="pop_BE">RefPopulation!$C$6</definedName>
+    <definedName name="pop_BW">RefPopulation!$C$4</definedName>
+    <definedName name="pop_BY">RefPopulation!$C$5</definedName>
+    <definedName name="pop_DE_Total">RefPopulation!$C$20</definedName>
+    <definedName name="pop_HB">RefPopulation!$C$8</definedName>
+    <definedName name="pop_HE">RefPopulation!$C$10</definedName>
+    <definedName name="pop_HH">RefPopulation!$C$9</definedName>
+    <definedName name="pop_MV">RefPopulation!$C$11</definedName>
+    <definedName name="pop_NI">RefPopulation!$C$12</definedName>
+    <definedName name="pop_NW">RefPopulation!$C$13</definedName>
+    <definedName name="pop_RP">RefPopulation!$C$14</definedName>
+    <definedName name="pop_SA">RefPopulation!$C$17</definedName>
+    <definedName name="pop_SH">RefPopulation!$C$18</definedName>
+    <definedName name="pop_SL">RefPopulation!$C$15</definedName>
+    <definedName name="pop_SN">RefPopulation!$C$16</definedName>
+    <definedName name="pop_ST">RefPopulation!$C$17</definedName>
+    <definedName name="pop_TH">RefPopulation!$C$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="98">
   <si>
     <t>Baden-Württemberg</t>
   </si>
@@ -159,10 +195,6 @@
 Pfalz</t>
   </si>
   <si>
-    <t>Doubling
-Time</t>
-  </si>
-  <si>
     <t xml:space="preserve">am 29.2.-2.3.20 führte das RKI 2 Fälle als "Repatriierte" neben den 16 Bundesländern, daher Gesamt an den Tagen um 2 höher als die Summe </t>
   </si>
   <si>
@@ -259,23 +291,105 @@
     <t>Days</t>
   </si>
   <si>
-    <t>min number</t>
+    <t>cases today</t>
   </si>
   <si>
-    <t>of cases to display here</t>
+    <t>TH</t>
   </si>
   <si>
-    <t>last (DE Total)</t>
+    <t>DE_Total</t>
+  </si>
+  <si>
+    <t>SH</t>
+  </si>
+  <si>
+    <t>SN</t>
+  </si>
+  <si>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>RP</t>
+  </si>
+  <si>
+    <t>NW</t>
+  </si>
+  <si>
+    <t>NI</t>
+  </si>
+  <si>
+    <t>MV</t>
+  </si>
+  <si>
+    <t>HE</t>
+  </si>
+  <si>
+    <t>HH</t>
+  </si>
+  <si>
+    <t>HB</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>BY</t>
+  </si>
+  <si>
+    <t>BW</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>% of pop</t>
+  </si>
+  <si>
+    <t>https://de.wikipedia.org/wiki/Liste_der_deutschen_Bundesl%C3%A4nder_nach_Fl%C3%A4che</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://de.wikipedia.org/wiki/Liste_der_deutschen_Bundesl%C3%A4nder_nach_Bev%C3%B6lkerungsdichte </t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>(km^2)</t>
+  </si>
+  <si>
+    <t>pop density</t>
+  </si>
+  <si>
+    <t>(pop/km^2)</t>
+  </si>
+  <si>
+    <t>Sources</t>
+  </si>
+  <si>
+    <t>min number of cases to display here</t>
+  </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>Note</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -331,6 +445,13 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -475,7 +596,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -641,7 +762,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -658,21 +778,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="51">
+  <dxfs count="50">
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -686,7 +846,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -699,36 +859,8 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="27" formatCode="dd/mm/yy\ hh:mm"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
         <right/>
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -736,12 +868,7 @@
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1375,77 +1502,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="27" formatCode="dd/mm/yy\ hh:mm"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -1509,6 +1565,81 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="27" formatCode="dd/mm/yy\ hh:mm"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="27" formatCode="dd/mm/yy\ hh:mm"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2226,7 +2357,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Cases!$T$1</c:f>
+              <c:f>Cases!$T$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2261,7 +2392,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Cases!$B$2:$B$16</c:f>
+              <c:f>Cases!$B$6:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy\ h:mm</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2315,7 +2446,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cases!$T$2:$T$16</c:f>
+              <c:f>Cases!$T$6:$T$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2379,7 +2510,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Cases!$M$1</c:f>
+              <c:f>Cases!$M$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2415,7 +2546,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Cases!$B$2:$B$16</c:f>
+              <c:f>Cases!$B$6:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy\ h:mm</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2469,7 +2600,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cases!$M$2:$M$16</c:f>
+              <c:f>Cases!$M$6:$M$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2533,7 +2664,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Cases!$E$1</c:f>
+              <c:f>Cases!$E$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2568,7 +2699,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Cases!$B$2:$B$16</c:f>
+              <c:f>Cases!$B$6:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy\ h:mm</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2622,7 +2753,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cases!$E$2:$E$16</c:f>
+              <c:f>Cases!$E$6:$E$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2686,7 +2817,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Cases!$D$1</c:f>
+              <c:f>Cases!$D$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2722,7 +2853,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Cases!$B$2:$B$16</c:f>
+              <c:f>Cases!$B$6:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy\ h:mm</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2776,7 +2907,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cases!$D$2:$D$16</c:f>
+              <c:f>Cases!$D$6:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2840,7 +2971,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Cases!$L$1</c:f>
+              <c:f>Cases!$L$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2875,7 +3006,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Cases!$B$2:$B$16</c:f>
+              <c:f>Cases!$B$6:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy\ h:mm</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2929,7 +3060,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cases!$L$2:$L$16</c:f>
+              <c:f>Cases!$L$6:$L$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2987,7 +3118,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Cases!$P$1</c:f>
+              <c:f>Cases!$P$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3022,7 +3153,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Cases!$B$2:$B$16</c:f>
+              <c:f>Cases!$B$6:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy\ h:mm</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3076,7 +3207,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cases!$P$2:$P$16</c:f>
+              <c:f>Cases!$P$6:$P$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3960,13 +4091,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>39157</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>406047</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>79374</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3998,37 +4129,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AA0B1023-8C4D-8145-A1A0-49CB122C06A4}" name="Table2" displayName="Table2" ref="A1:T31" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49" tableBorderDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AA0B1023-8C4D-8145-A1A0-49CB122C06A4}" name="Table2" displayName="Table2" ref="A1:T31" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48" tableBorderDxfId="47">
   <autoFilter ref="A1:T31" xr:uid="{1DA4B026-4C97-DF45-BDEF-EE080E06CCC8}"/>
   <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{7B77E861-ABD7-CC46-BE1B-62FFA855918A}" name="Num"/>
-    <tableColumn id="2" xr3:uid="{A9D891F0-4885-A946-9DA9-30886E848D1C}" name="Datum" dataDxfId="47"/>
-    <tableColumn id="3" xr3:uid="{6B048EE4-8426-2545-A3EF-71248E0D2493}" name="Typ" dataDxfId="46"/>
-    <tableColumn id="4" xr3:uid="{463A535E-E8DD-D048-8D23-5C03A237BD27}" name="Baden-Württemberg" dataDxfId="45"/>
-    <tableColumn id="5" xr3:uid="{C73439B1-ADFE-484D-9DAB-78AB3242649E}" name="Bayern" dataDxfId="44"/>
-    <tableColumn id="6" xr3:uid="{CDCD7B4C-FA1B-5D4B-84EC-1B93C9F2211E}" name="Berlin" dataDxfId="43"/>
-    <tableColumn id="7" xr3:uid="{4B381B0C-9038-7A45-87CA-C74BBBC89932}" name="Brandenburg" dataDxfId="42"/>
-    <tableColumn id="8" xr3:uid="{3367C2BC-28BE-3341-AE87-CDED4BFCEA07}" name="Bremen" dataDxfId="41"/>
-    <tableColumn id="9" xr3:uid="{2369A6E0-C0F1-C44F-8B78-5DB57E9AF79D}" name="Hamburg" dataDxfId="40"/>
-    <tableColumn id="10" xr3:uid="{884AB352-4A81-8D49-AA12-B8EAF3C487E0}" name="Hessen" dataDxfId="39"/>
-    <tableColumn id="11" xr3:uid="{AE5E62A0-1F89-2E45-8E7B-70BF95720068}" name="Mecklenburg-Vorpommern" dataDxfId="38"/>
-    <tableColumn id="12" xr3:uid="{8D805E80-59CE-8347-98B4-6475F75C5C51}" name="Niedersachsen" dataDxfId="37"/>
-    <tableColumn id="13" xr3:uid="{BC5F0195-1635-C145-8EDE-A5C46EA4D710}" name="Nordrhein-Westfalen" dataDxfId="36"/>
-    <tableColumn id="14" xr3:uid="{4BEE7460-1D9B-C945-80A2-92C7F08C0F01}" name="Rheinland-Pfalz" dataDxfId="35"/>
-    <tableColumn id="15" xr3:uid="{D7B5CC10-CE40-3D47-926F-900D84B7F92A}" name="Saarland" dataDxfId="34"/>
-    <tableColumn id="16" xr3:uid="{EB9CA25E-2271-3D42-8A65-F7C41B54CEA5}" name="Sachsen" dataDxfId="33"/>
-    <tableColumn id="17" xr3:uid="{4598E0DF-B360-1440-8958-D3461FAD3F74}" name="Sachsen-Anhalt" dataDxfId="32"/>
-    <tableColumn id="18" xr3:uid="{8B6E9527-F2CB-894B-B3E4-125132A86A5D}" name="Schleswig-Holstein" dataDxfId="31"/>
-    <tableColumn id="19" xr3:uid="{7D2272BD-A08B-574E-81AE-65E0FB33A9ED}" name="Thüringen" dataDxfId="30"/>
-    <tableColumn id="21" xr3:uid="{765949F0-761D-D24F-A85E-B329DA6357CA}" name="Gesamt" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{A9D891F0-4885-A946-9DA9-30886E848D1C}" name="Datum" dataDxfId="46"/>
+    <tableColumn id="3" xr3:uid="{6B048EE4-8426-2545-A3EF-71248E0D2493}" name="Typ" dataDxfId="45"/>
+    <tableColumn id="4" xr3:uid="{463A535E-E8DD-D048-8D23-5C03A237BD27}" name="Baden-Württemberg" dataDxfId="44"/>
+    <tableColumn id="5" xr3:uid="{C73439B1-ADFE-484D-9DAB-78AB3242649E}" name="Bayern" dataDxfId="43"/>
+    <tableColumn id="6" xr3:uid="{CDCD7B4C-FA1B-5D4B-84EC-1B93C9F2211E}" name="Berlin" dataDxfId="42"/>
+    <tableColumn id="7" xr3:uid="{4B381B0C-9038-7A45-87CA-C74BBBC89932}" name="Brandenburg" dataDxfId="41"/>
+    <tableColumn id="8" xr3:uid="{3367C2BC-28BE-3341-AE87-CDED4BFCEA07}" name="Bremen" dataDxfId="40"/>
+    <tableColumn id="9" xr3:uid="{2369A6E0-C0F1-C44F-8B78-5DB57E9AF79D}" name="Hamburg" dataDxfId="39"/>
+    <tableColumn id="10" xr3:uid="{884AB352-4A81-8D49-AA12-B8EAF3C487E0}" name="Hessen" dataDxfId="38"/>
+    <tableColumn id="11" xr3:uid="{AE5E62A0-1F89-2E45-8E7B-70BF95720068}" name="Mecklenburg-Vorpommern" dataDxfId="37"/>
+    <tableColumn id="12" xr3:uid="{8D805E80-59CE-8347-98B4-6475F75C5C51}" name="Niedersachsen" dataDxfId="36"/>
+    <tableColumn id="13" xr3:uid="{BC5F0195-1635-C145-8EDE-A5C46EA4D710}" name="Nordrhein-Westfalen" dataDxfId="35"/>
+    <tableColumn id="14" xr3:uid="{4BEE7460-1D9B-C945-80A2-92C7F08C0F01}" name="Rheinland-Pfalz" dataDxfId="34"/>
+    <tableColumn id="15" xr3:uid="{D7B5CC10-CE40-3D47-926F-900D84B7F92A}" name="Saarland" dataDxfId="33"/>
+    <tableColumn id="16" xr3:uid="{EB9CA25E-2271-3D42-8A65-F7C41B54CEA5}" name="Sachsen" dataDxfId="32"/>
+    <tableColumn id="17" xr3:uid="{4598E0DF-B360-1440-8958-D3461FAD3F74}" name="Sachsen-Anhalt" dataDxfId="31"/>
+    <tableColumn id="18" xr3:uid="{8B6E9527-F2CB-894B-B3E4-125132A86A5D}" name="Schleswig-Holstein" dataDxfId="30"/>
+    <tableColumn id="19" xr3:uid="{7D2272BD-A08B-574E-81AE-65E0FB33A9ED}" name="Thüringen" dataDxfId="29"/>
+    <tableColumn id="21" xr3:uid="{765949F0-761D-D24F-A85E-B329DA6357CA}" name="Gesamt" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BC3E90BD-768C-894C-8066-F63C881D4ADC}" name="Table5" displayName="Table5" ref="A1:W16" totalsRowShown="0" headerRowDxfId="5">
-  <autoFilter ref="A1:W16" xr:uid="{6D4C76C7-14AA-DE49-9FD4-833E447F2FCD}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BC3E90BD-768C-894C-8066-F63C881D4ADC}" name="Table5" displayName="Table5" ref="A5:V20" totalsRowShown="0" headerRowDxfId="27">
+  <autoFilter ref="A5:V20" xr:uid="{6D4C76C7-14AA-DE49-9FD4-833E447F2FCD}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -4051,12 +4182,11 @@
     <filterColumn colId="19" hiddenButton="1"/>
     <filterColumn colId="20" hiddenButton="1"/>
     <filterColumn colId="21" hiddenButton="1"/>
-    <filterColumn colId="22" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="23">
+  <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{DFAB118E-A946-0146-85D1-FEC9DB7A54DB}" name="#"/>
-    <tableColumn id="2" xr3:uid="{7862783A-26AD-6144-8E4F-7DF624F1CEF7}" name="Date" dataDxfId="4"/>
-    <tableColumn id="43" xr3:uid="{F84758D7-1AC4-B146-AFFB-CD4F577D02F4}" name="Type" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{7862783A-26AD-6144-8E4F-7DF624F1CEF7}" name="Date" dataDxfId="26"/>
+    <tableColumn id="43" xr3:uid="{F84758D7-1AC4-B146-AFFB-CD4F577D02F4}" name="Type" dataDxfId="25"/>
     <tableColumn id="4" xr3:uid="{43B6A399-F36C-6047-9E96-578E372A058B}" name="Baden-_x000a_Württemberg"/>
     <tableColumn id="5" xr3:uid="{580A352D-B4BB-8441-B739-8AFA1B5CB9BA}" name="Bayern"/>
     <tableColumn id="6" xr3:uid="{684FD89D-0B27-F841-B632-2CFD5BC231AC}" name="Berlin"/>
@@ -4073,18 +4203,13 @@
     <tableColumn id="17" xr3:uid="{0DBAA36D-F571-034F-AEDF-5DD8569A9F97}" name="Sachsen-_x000a_Anhalt"/>
     <tableColumn id="18" xr3:uid="{32E1BDAD-8FF4-A948-A678-3A7C7BAA73DF}" name="Schleswig-_x000a_Holstein"/>
     <tableColumn id="19" xr3:uid="{EF74120E-C4F2-C545-B056-A59EEF12E00E}" name="Thüringen"/>
-    <tableColumn id="21" xr3:uid="{FF602C9D-05D0-E246-81AB-1676E61777BC}" name="DE Total" dataDxfId="2"/>
-    <tableColumn id="42" xr3:uid="{1C774CC4-9E60-FC4A-945C-79AC482211CE}" name="Delta" dataDxfId="1">
-      <calculatedColumnFormula>IF(ISNUMBER(T1),T2-T1,"")</calculatedColumnFormula>
+    <tableColumn id="21" xr3:uid="{FF602C9D-05D0-E246-81AB-1676E61777BC}" name="DE Total" dataDxfId="24"/>
+    <tableColumn id="42" xr3:uid="{1C774CC4-9E60-FC4A-945C-79AC482211CE}" name="Delta" dataDxfId="23">
+      <calculatedColumnFormula>IF(ISNUMBER(T5),T6-T5,"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="22" xr3:uid="{08AED83D-6D60-7848-A8C4-A04BA0C871FA}" name="Delta (%)" dataCellStyle="Per cent">
-      <calculatedColumnFormula>IF(ISNUMBER(T1),
-((T2-T1)/T1)/(B2-B1),
-"")</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="23" xr3:uid="{E2775D3F-09CC-B848-A2AC-CD974913568E}" name="Doubling_x000a_Time" dataDxfId="0">
-      <calculatedColumnFormula>IF(ISNUMBER(V2),
-1/Cases!$V2,
+      <calculatedColumnFormula>IF(ISNUMBER(T5),
+((T6-T5)/T5)/(B6-B5),
 "")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4093,7 +4218,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{2B4CB1FE-2F78-654B-9A83-851BD72419FA}" name="Table7" displayName="Table7" ref="A1:S16" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{2B4CB1FE-2F78-654B-9A83-851BD72419FA}" name="Table7" displayName="Table7" ref="A1:S16" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19">
   <autoFilter ref="A1:S16" xr:uid="{5EC7B395-6250-0C4B-BF9E-DB8BEACEA0C0}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4116,95 +4241,95 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{E6C8C471-F764-504D-8B4A-7552654EBAEC}" name="#" dataDxfId="24">
-      <calculatedColumnFormula>Table5[[#This Row],['#]]</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{E6C8C471-F764-504D-8B4A-7552654EBAEC}" name="#" dataDxfId="0">
+      <calculatedColumnFormula>Cases!A6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{F08A6D07-D47C-0B4B-BF63-BCF903E95EB5}" name="Date" dataDxfId="23">
-      <calculatedColumnFormula>Table5[[#This Row],[Date]]</calculatedColumnFormula>
+    <tableColumn id="2" xr3:uid="{F08A6D07-D47C-0B4B-BF63-BCF903E95EB5}" name="Date" dataDxfId="1">
+      <calculatedColumnFormula>Cases!B6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B6051F7E-D460-9A42-9D63-3975F8A75ACA}" name="Baden-_x000a_Württemberg" dataDxfId="22">
-      <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!D1),Cases!D1&gt;min_number),
-((Cases!D2-Cases!D1)/Cases!D1)/(Cases!$B2-Cases!$B1),
+    <tableColumn id="3" xr3:uid="{B6051F7E-D460-9A42-9D63-3975F8A75ACA}" name="Baden-_x000a_Württemberg" dataDxfId="18">
+      <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!D5),Cases!D5&gt;min_number),
+((Cases!D6-Cases!D5)/Cases!D5)/(Cases!$B6-Cases!$B5),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{10A737B8-2568-5841-8D5F-D47C446EE26C}" name="Bayern" dataDxfId="21">
-      <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!E1),Cases!E1&gt;min_number),
-((Cases!E2-Cases!E1)/Cases!E1)/(Cases!$B2-Cases!$B1),
+    <tableColumn id="4" xr3:uid="{10A737B8-2568-5841-8D5F-D47C446EE26C}" name="Bayern" dataDxfId="17">
+      <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!E5),Cases!E5&gt;min_number),
+((Cases!E6-Cases!E5)/Cases!E5)/(Cases!$B6-Cases!$B5),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{BCD2105D-8D71-454C-A02E-6424E3BA36AA}" name="Berlin" dataDxfId="20">
-      <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!F1),Cases!F1&gt;min_number),
-((Cases!F2-Cases!F1)/Cases!F1)/(Cases!$B2-Cases!$B1),
+    <tableColumn id="5" xr3:uid="{BCD2105D-8D71-454C-A02E-6424E3BA36AA}" name="Berlin" dataDxfId="16">
+      <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!F5),Cases!F5&gt;min_number),
+((Cases!F6-Cases!F5)/Cases!F5)/(Cases!$B6-Cases!$B5),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{53C79366-40AF-DC47-8F16-1C907EA8A25D}" name="Brandenburg" dataDxfId="19">
-      <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!G1),Cases!G1&gt;min_number),
-((Cases!G2-Cases!G1)/Cases!G1)/(Cases!$B2-Cases!$B1),
+    <tableColumn id="6" xr3:uid="{53C79366-40AF-DC47-8F16-1C907EA8A25D}" name="Brandenburg" dataDxfId="15">
+      <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!G5),Cases!G5&gt;min_number),
+((Cases!G6-Cases!G5)/Cases!G5)/(Cases!$B6-Cases!$B5),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{4AFFEB9A-9EF4-B04F-99AF-1421CC3F79F1}" name="Bremen" dataDxfId="18">
-      <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!H1),Cases!H1&gt;min_number),
-((Cases!H2-Cases!H1)/Cases!H1)/(Cases!$B2-Cases!$B1),
+    <tableColumn id="7" xr3:uid="{4AFFEB9A-9EF4-B04F-99AF-1421CC3F79F1}" name="Bremen" dataDxfId="14">
+      <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!H5),Cases!H5&gt;min_number),
+((Cases!H6-Cases!H5)/Cases!H5)/(Cases!$B6-Cases!$B5),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{C2100E3B-69C7-1749-9A4D-28C483AE2AD3}" name="Hamburg" dataDxfId="17">
-      <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!I1),Cases!I1&gt;min_number),
-((Cases!I2-Cases!I1)/Cases!I1)/(Cases!$B2-Cases!$B1),
+    <tableColumn id="8" xr3:uid="{C2100E3B-69C7-1749-9A4D-28C483AE2AD3}" name="Hamburg" dataDxfId="13">
+      <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!I5),Cases!I5&gt;min_number),
+((Cases!I6-Cases!I5)/Cases!I5)/(Cases!$B6-Cases!$B5),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{F062E681-CDB1-C140-B909-EA794C5F18A9}" name="Hessen" dataDxfId="16">
-      <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!J1),Cases!J1&gt;min_number),
-((Cases!J2-Cases!J1)/Cases!J1)/(Cases!$B2-Cases!$B1),
+    <tableColumn id="9" xr3:uid="{F062E681-CDB1-C140-B909-EA794C5F18A9}" name="Hessen" dataDxfId="12">
+      <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!J5),Cases!J5&gt;min_number),
+((Cases!J6-Cases!J5)/Cases!J5)/(Cases!$B6-Cases!$B5),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{E031E4B1-3E62-C345-B766-887BCDAAC02D}" name="Mecklenburg-_x000a_Vorpommern" dataDxfId="15">
-      <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!K1),Cases!K1&gt;min_number),
-((Cases!K2-Cases!K1)/Cases!K1)/(Cases!$B2-Cases!$B1),
+    <tableColumn id="10" xr3:uid="{E031E4B1-3E62-C345-B766-887BCDAAC02D}" name="Mecklenburg-_x000a_Vorpommern" dataDxfId="11">
+      <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!K5),Cases!K5&gt;min_number),
+((Cases!K6-Cases!K5)/Cases!K5)/(Cases!$B6-Cases!$B5),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{06616FA7-B824-034F-8561-0575963B7953}" name="Niedersachsen" dataDxfId="14">
-      <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!L1),Cases!L1&gt;min_number),
-((Cases!L2-Cases!L1)/Cases!L1)/(Cases!$B2-Cases!$B1),
+    <tableColumn id="11" xr3:uid="{06616FA7-B824-034F-8561-0575963B7953}" name="Niedersachsen" dataDxfId="10">
+      <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!L5),Cases!L5&gt;min_number),
+((Cases!L6-Cases!L5)/Cases!L5)/(Cases!$B6-Cases!$B5),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{A7D554C7-337E-5A4F-B3A4-DD9485FF1D61}" name="Nordrhein-_x000a_Westfalen" dataDxfId="13">
-      <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!M1),Cases!M1&gt;min_number),
-((Cases!M2-Cases!M1)/Cases!M1)/(Cases!$B2-Cases!$B1),
+    <tableColumn id="12" xr3:uid="{A7D554C7-337E-5A4F-B3A4-DD9485FF1D61}" name="Nordrhein-_x000a_Westfalen" dataDxfId="9">
+      <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!M5),Cases!M5&gt;min_number),
+((Cases!M6-Cases!M5)/Cases!M5)/(Cases!$B6-Cases!$B5),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{E7F4E0DB-41C5-F74B-B13C-082338064391}" name="Rheinland-_x000a_Pfalz" dataDxfId="12">
-      <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!N1),Cases!N1&gt;min_number),
-((Cases!N2-Cases!N1)/Cases!N1)/(Cases!$B2-Cases!$B1),
+    <tableColumn id="13" xr3:uid="{E7F4E0DB-41C5-F74B-B13C-082338064391}" name="Rheinland-_x000a_Pfalz" dataDxfId="8">
+      <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!N5),Cases!N5&gt;min_number),
+((Cases!N6-Cases!N5)/Cases!N5)/(Cases!$B6-Cases!$B5),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{F452CCA8-390B-D443-BCA6-EFE7E79127AA}" name="Saarland" dataDxfId="11">
-      <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!O1),Cases!O1&gt;min_number),
-((Cases!O2-Cases!O1)/Cases!O1)/(Cases!$B2-Cases!$B1),
+    <tableColumn id="14" xr3:uid="{F452CCA8-390B-D443-BCA6-EFE7E79127AA}" name="Saarland" dataDxfId="7">
+      <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!O5),Cases!O5&gt;min_number),
+((Cases!O6-Cases!O5)/Cases!O5)/(Cases!$B6-Cases!$B5),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{2BC6A12D-DFD6-A54D-9B25-30C67E2CACC1}" name="Sachsen" dataDxfId="10">
-      <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!P1),Cases!P1&gt;min_number),
-((Cases!P2-Cases!P1)/Cases!P1)/(Cases!$B2-Cases!$B1),
+    <tableColumn id="15" xr3:uid="{2BC6A12D-DFD6-A54D-9B25-30C67E2CACC1}" name="Sachsen" dataDxfId="6">
+      <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!P5),Cases!P5&gt;min_number),
+((Cases!P6-Cases!P5)/Cases!P5)/(Cases!$B6-Cases!$B5),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{F3454210-7502-7B43-87ED-828963C0BA58}" name="Sachsen-_x000a_Anhalt" dataDxfId="9">
-      <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!Q1),Cases!Q1&gt;min_number),
-((Cases!Q2-Cases!Q1)/Cases!Q1)/(Cases!$B2-Cases!$B1),
+    <tableColumn id="16" xr3:uid="{F3454210-7502-7B43-87ED-828963C0BA58}" name="Sachsen-_x000a_Anhalt" dataDxfId="5">
+      <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!Q5),Cases!Q5&gt;min_number),
+((Cases!Q6-Cases!Q5)/Cases!Q5)/(Cases!$B6-Cases!$B5),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{3488A903-5F9F-FF4F-B253-A2C6BDED0D5C}" name="Schleswig-_x000a_Holstein" dataDxfId="8">
-      <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!R1),Cases!R1&gt;min_number),
-((Cases!R2-Cases!R1)/Cases!R1)/(Cases!$B2-Cases!$B1),
+    <tableColumn id="17" xr3:uid="{3488A903-5F9F-FF4F-B253-A2C6BDED0D5C}" name="Schleswig-_x000a_Holstein" dataDxfId="4">
+      <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!R5),Cases!R5&gt;min_number),
+((Cases!R6-Cases!R5)/Cases!R5)/(Cases!$B6-Cases!$B5),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{EBA9256A-1C44-B641-A90D-2900B16B2794}" name="Thüringen" dataDxfId="7">
-      <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!S1),Cases!S1&gt;min_number),
-((Cases!S2-Cases!S1)/Cases!S1)/(Cases!$B2-Cases!$B1),
+    <tableColumn id="18" xr3:uid="{EBA9256A-1C44-B641-A90D-2900B16B2794}" name="Thüringen" dataDxfId="3">
+      <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!S5),Cases!S5&gt;min_number),
+((Cases!S6-Cases!S5)/Cases!S5)/(Cases!$B6-Cases!$B5),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{8590B984-B71C-8D4E-AB2B-CC37C841189C}" name="DE Total" dataDxfId="6">
-      <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!T1),Cases!T1&gt;min_number),
-((Cases!T2-Cases!T1)/Cases!T1)/(Cases!$B2-Cases!$B1),
+    <tableColumn id="20" xr3:uid="{8590B984-B71C-8D4E-AB2B-CC37C841189C}" name="DE Total" dataDxfId="2">
+      <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!T5),Cases!T5&gt;min_number),
+((Cases!T6-Cases!T5)/Cases!T5)/(Cases!$B6-Cases!$B5),
 "")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4515,22 +4640,22 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="29.1640625" style="44" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="125.33203125" style="44" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="10.83203125" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="72" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="7" t="s">
         <v>24</v>
       </c>
@@ -4538,7 +4663,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="7" t="s">
         <v>26</v>
       </c>
@@ -4546,17 +4671,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" s="45" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" s="45" t="s">
         <v>29</v>
@@ -4582,7 +4707,7 @@
       <selection activeCell="D4" sqref="D4:H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
@@ -4591,7 +4716,7 @@
     <col min="5" max="5" width="19.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="E1" s="4">
         <v>43902.625</v>
       </c>
@@ -4599,7 +4724,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="134" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="134">
       <c r="A2" s="4">
         <v>43902.625</v>
       </c>
@@ -4615,21 +4740,21 @@
         <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -4637,15 +4762,15 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>0</v>
@@ -4663,12 +4788,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="3">
         <v>317</v>
@@ -4687,7 +4812,7 @@
       </c>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -4709,7 +4834,7 @@
       </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -4731,7 +4856,7 @@
       </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -4753,7 +4878,7 @@
       </c>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -4775,7 +4900,7 @@
       </c>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -4797,7 +4922,7 @@
       </c>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
@@ -4819,7 +4944,7 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -4841,15 +4966,15 @@
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>9</v>
@@ -4867,7 +4992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
@@ -4889,7 +5014,7 @@
       </c>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
@@ -4911,7 +5036,7 @@
       </c>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
@@ -4933,7 +5058,7 @@
       </c>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
@@ -4955,7 +5080,7 @@
       </c>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
@@ -4977,7 +5102,7 @@
       </c>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
@@ -4999,15 +5124,15 @@
       </c>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>16</v>
@@ -5039,7 +5164,7 @@
       <selection pane="topRight" activeCell="AB1" sqref="AB1:AE19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="27.83203125" style="3" customWidth="1"/>
     <col min="2" max="9" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
@@ -5058,7 +5183,7 @@
     <col min="29" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31">
       <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
@@ -5114,7 +5239,7 @@
         <v>43903.625</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="2" customFormat="1" ht="134" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" s="2" customFormat="1" ht="134">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -5191,10 +5316,10 @@
         <v>19</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AB2" s="2" t="s">
         <v>18</v>
@@ -5203,13 +5328,13 @@
         <v>19</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -5283,7 +5408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -5351,7 +5476,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -5404,7 +5529,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -5454,7 +5579,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -5510,7 +5635,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -5566,7 +5691,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -5625,7 +5750,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -5672,7 +5797,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -5728,7 +5853,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -5823,7 +5948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -5885,7 +6010,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
@@ -5932,7 +6057,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
@@ -5979,7 +6104,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31">
       <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
@@ -6008,7 +6133,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:31">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
@@ -6067,7 +6192,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:31">
       <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
@@ -6117,7 +6242,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:31">
       <c r="A19" s="3" t="s">
         <v>16</v>
       </c>
@@ -6193,7 +6318,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:31">
       <c r="A23" s="7"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -6212,7 +6337,7 @@
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:31">
       <c r="A24" s="7"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -6231,7 +6356,7 @@
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
     </row>
-    <row r="44" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="18:18">
       <c r="R44" s="6"/>
     </row>
   </sheetData>
@@ -6247,14 +6372,14 @@
       <selection activeCell="A29" sqref="A29:T29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="21" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="8" customFormat="1" ht="142" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="8" customFormat="1" ht="142">
       <c r="A1" s="16" t="s">
         <v>23</v>
       </c>
@@ -6316,7 +6441,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20">
       <c r="A2">
         <v>0</v>
       </c>
@@ -6356,7 +6481,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6398,7 +6523,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20">
       <c r="A4">
         <v>2</v>
       </c>
@@ -6446,7 +6571,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20">
       <c r="A5">
         <v>3</v>
       </c>
@@ -6496,7 +6621,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20">
       <c r="A6">
         <v>4</v>
       </c>
@@ -6552,7 +6677,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20">
       <c r="A7">
         <v>5</v>
       </c>
@@ -6612,7 +6737,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20">
       <c r="A8">
         <v>6</v>
       </c>
@@ -6672,7 +6797,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20">
       <c r="A9">
         <v>7</v>
       </c>
@@ -6732,7 +6857,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20">
       <c r="A10">
         <v>7</v>
       </c>
@@ -6762,7 +6887,7 @@
       <c r="S10" s="11"/>
       <c r="T10" s="11"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20">
       <c r="A11">
         <v>8</v>
       </c>
@@ -6822,7 +6947,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20">
       <c r="A12">
         <v>8</v>
       </c>
@@ -6852,7 +6977,7 @@
       <c r="S12" s="11"/>
       <c r="T12" s="11"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20">
       <c r="A13">
         <v>9</v>
       </c>
@@ -6912,7 +7037,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20">
       <c r="A14">
         <v>9</v>
       </c>
@@ -6942,7 +7067,7 @@
       <c r="S14" s="11"/>
       <c r="T14" s="11"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20">
       <c r="A15">
         <v>10</v>
       </c>
@@ -7002,7 +7127,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20">
       <c r="A16">
         <v>10</v>
       </c>
@@ -7034,7 +7159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20">
       <c r="A17">
         <v>10</v>
       </c>
@@ -7064,7 +7189,7 @@
       <c r="S17" s="13"/>
       <c r="T17" s="13"/>
     </row>
-    <row r="18" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" s="23" customFormat="1">
       <c r="A18" s="23">
         <v>11</v>
       </c>
@@ -7126,7 +7251,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20">
       <c r="A19">
         <v>11</v>
       </c>
@@ -7159,7 +7284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20">
       <c r="A20">
         <v>11</v>
       </c>
@@ -7189,7 +7314,7 @@
       <c r="S20" s="11"/>
       <c r="T20" s="11"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20">
       <c r="A21">
         <v>12</v>
       </c>
@@ -7251,7 +7376,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20">
       <c r="A22">
         <v>12</v>
       </c>
@@ -7283,7 +7408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20">
       <c r="A23">
         <v>12</v>
       </c>
@@ -7313,7 +7438,7 @@
       <c r="S23" s="15"/>
       <c r="T23" s="15"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20">
       <c r="A24">
         <v>13</v>
       </c>
@@ -7375,7 +7500,7 @@
         <v>2369</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20">
       <c r="A25">
         <v>13</v>
       </c>
@@ -7411,7 +7536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20">
       <c r="A26">
         <v>13</v>
       </c>
@@ -7419,7 +7544,7 @@
         <v>43902.625</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D26" s="20">
         <v>331</v>
@@ -7473,7 +7598,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20">
       <c r="A27">
         <v>13</v>
       </c>
@@ -7481,7 +7606,7 @@
         <v>43902.625</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D27" s="20">
         <v>1</v>
@@ -7507,7 +7632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20">
       <c r="A28">
         <v>14</v>
       </c>
@@ -7569,7 +7694,7 @@
         <v>3062</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20">
       <c r="A29">
         <v>14</v>
       </c>
@@ -7605,7 +7730,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20">
       <c r="A30">
         <v>14</v>
       </c>
@@ -7613,7 +7738,7 @@
         <v>43903.625</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D30" s="3">
         <v>401</v>
@@ -7667,7 +7792,7 @@
         <v>2576</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20">
       <c r="A31">
         <v>14</v>
       </c>
@@ -7675,7 +7800,7 @@
         <v>43903.625</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
@@ -7711,1136 +7836,1238 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{233E67D7-4FF2-D745-A107-DDC4CB6E1273}">
-  <dimension ref="A1:Z16"/>
+  <dimension ref="A1:Y20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="144" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" style="23" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.6640625" style="79" bestFit="1" customWidth="1"/>
+    <col min="4" max="19" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.5" style="78" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="4.1640625" style="52" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="4.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.33203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="22" customWidth="1"/>
-    <col min="25" max="25" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="120.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.33203125" style="22" customWidth="1"/>
+    <col min="24" max="24" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="120.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="41" customFormat="1" ht="79" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:25">
+      <c r="D1" s="86" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="86" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="86" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="86" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="86" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="86" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="86" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" s="86" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" s="86" t="s">
+        <v>76</v>
+      </c>
+      <c r="M1" s="86" t="s">
+        <v>75</v>
+      </c>
+      <c r="N1" s="86" t="s">
+        <v>74</v>
+      </c>
+      <c r="O1" s="86" t="s">
+        <v>73</v>
+      </c>
+      <c r="P1" s="86" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q1" s="86" t="s">
+        <v>85</v>
+      </c>
+      <c r="R1" s="86" t="s">
+        <v>71</v>
+      </c>
+      <c r="S1" s="86" t="s">
+        <v>69</v>
+      </c>
+      <c r="T1" s="87" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="B2" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="80">
+        <f>LOOKUP(2,1/(ISNUMBER(D6:D10001)),D6:D10001)</f>
+        <v>454</v>
+      </c>
+      <c r="E2" s="80">
+        <f>LOOKUP(2,1/(ISNUMBER(E6:E10001)),E6:E10001)</f>
+        <v>558</v>
+      </c>
+      <c r="F2" s="80">
+        <f>LOOKUP(2,1/(ISNUMBER(F6:F10001)),F6:F10001)</f>
+        <v>174</v>
+      </c>
+      <c r="G2" s="80">
+        <f>LOOKUP(2,1/(ISNUMBER(G6:G10001)),G6:G10001)</f>
+        <v>44</v>
+      </c>
+      <c r="H2" s="80">
+        <f>LOOKUP(2,1/(ISNUMBER(H6:H10001)),H6:H10001)</f>
         <v>42</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="I2" s="80">
+        <f>LOOKUP(2,1/(ISNUMBER(I6:I10001)),I6:I10001)</f>
+        <v>99</v>
+      </c>
+      <c r="J2" s="80">
+        <f>LOOKUP(2,1/(ISNUMBER(J6:J10001)),J6:J10001)</f>
+        <v>148</v>
+      </c>
+      <c r="K2" s="80">
+        <f>LOOKUP(2,1/(ISNUMBER(K6:K10001)),K6:K10001)</f>
+        <v>33</v>
+      </c>
+      <c r="L2" s="80">
+        <f>LOOKUP(2,1/(ISNUMBER(L6:L10001)),L6:L10001)</f>
+        <v>230</v>
+      </c>
+      <c r="M2" s="80">
+        <f>LOOKUP(2,1/(ISNUMBER(M6:M10001)),M6:M10001)</f>
+        <v>936</v>
+      </c>
+      <c r="N2" s="80">
+        <f>LOOKUP(2,1/(ISNUMBER(N6:N10001)),N6:N10001)</f>
+        <v>102</v>
+      </c>
+      <c r="O2" s="80">
+        <f>LOOKUP(2,1/(ISNUMBER(O6:O10001)),O6:O10001)</f>
+        <v>40</v>
+      </c>
+      <c r="P2" s="80">
+        <f>LOOKUP(2,1/(ISNUMBER(P6:P10001)),P6:P10001)</f>
+        <v>83</v>
+      </c>
+      <c r="Q2" s="80">
+        <f>LOOKUP(2,1/(ISNUMBER(Q6:Q10001)),Q6:Q10001)</f>
+        <v>42</v>
+      </c>
+      <c r="R2" s="80">
+        <f>LOOKUP(2,1/(ISNUMBER(R6:R10001)),R6:R10001)</f>
+        <v>48</v>
+      </c>
+      <c r="S2" s="80">
+        <f>LOOKUP(2,1/(ISNUMBER(S6:S10001)),S6:S10001)</f>
+        <v>29</v>
+      </c>
+      <c r="T2" s="80">
+        <f>LOOKUP(2,1/(ISNUMBER(T6:T10001)),T6:T10001)</f>
+        <v>3062</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="B3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="85">
+        <f>last_BW/pop_BW</f>
+        <v>4.1013595916708071E-5</v>
+      </c>
+      <c r="E3" s="85">
+        <f>last_BY/pop_BY</f>
+        <v>4.2671316157746222E-5</v>
+      </c>
+      <c r="F3" s="85">
+        <f>last_BE/pop_BE</f>
+        <v>4.7739244951712029E-5</v>
+      </c>
+      <c r="G3" s="85">
+        <f>last_BB/pop_BB</f>
+        <v>1.7516620884589354E-5</v>
+      </c>
+      <c r="H3" s="85">
+        <f>last_HB/pop_HB</f>
+        <v>6.1493411420204981E-5</v>
+      </c>
+      <c r="I3" s="85">
+        <f>last_HH/pop_HH</f>
+        <v>5.3769280903758417E-5</v>
+      </c>
+      <c r="J3" s="85">
+        <f>last_HE/pop_HE</f>
+        <v>2.3620287912158064E-5</v>
+      </c>
+      <c r="K3" s="85">
+        <f>last_MV/pop_MV</f>
+        <v>2.0500714418835807E-5</v>
+      </c>
+      <c r="L3" s="85">
+        <f>last_NI/pop_NI</f>
+        <v>2.8813389456804971E-5</v>
+      </c>
+      <c r="M3" s="85">
+        <f>last_NW/pop_NW</f>
+        <v>5.2195151873393301E-5</v>
+      </c>
+      <c r="N3" s="85">
+        <f>last_RP/pop_RP</f>
+        <v>2.4970622796709752E-5</v>
+      </c>
+      <c r="O3" s="85">
+        <f>last_SL/pop_SL</f>
+        <v>4.0383644623927313E-5</v>
+      </c>
+      <c r="P3" s="85">
+        <f>last_SN/pop_SN</f>
+        <v>2.0353613379435493E-5</v>
+      </c>
+      <c r="Q3" s="85">
+        <f>last_ST/pop_ST</f>
+        <v>1.90191550061133E-5</v>
+      </c>
+      <c r="R3" s="85">
+        <f>last_SH/pop_SH</f>
+        <v>1.6570580315531468E-5</v>
+      </c>
+      <c r="S3" s="85">
+        <f>last_TH/pop_TH</f>
+        <v>1.3531799729364005E-5</v>
+      </c>
+      <c r="T3" s="85">
+        <f>last_DE_Total/pop_DE_Total</f>
+        <v>3.6883034286044672E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" s="41" customFormat="1" ht="79">
+      <c r="A5" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="R5" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="S5" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="T5" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="48" t="s">
+      <c r="U5" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="V5" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="W5" s="51"/>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6" s="24">
+        <v>43889.416666666664</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>15</v>
+      </c>
+      <c r="M6">
+        <v>25</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="T6" s="77">
+        <v>53</v>
+      </c>
+      <c r="U6" s="52" t="str">
+        <f t="shared" ref="U6:U18" si="0">IF(ISNUMBER(T5),T6-T5,"")</f>
+        <v/>
+      </c>
+      <c r="V6" s="21" t="str">
+        <f t="shared" ref="V6:V19" si="1">IF(ISNUMBER(T5),
+((T6-T5)/T5)/(B6-B5),
+"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="24">
+        <v>43890.416666666664</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>14</v>
+      </c>
+      <c r="E7">
+        <v>15</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="M7">
         <v>30</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="N7">
         <v>1</v>
       </c>
-      <c r="F1" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="R1" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" s="77" t="s">
-        <v>40</v>
-      </c>
-      <c r="U1" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="V1" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="W1" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="X1" s="51"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="24">
-        <v>43889.416666666664</v>
-      </c>
-      <c r="C2" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>15</v>
-      </c>
-      <c r="M2">
-        <v>25</v>
-      </c>
-      <c r="N2">
-        <v>2</v>
-      </c>
-      <c r="R2">
+      <c r="R7">
         <v>1</v>
       </c>
-      <c r="T2" s="78">
-        <v>53</v>
-      </c>
-      <c r="U2" s="52" t="str">
-        <f t="shared" ref="U2:U14" si="0">IF(ISNUMBER(T1),T2-T1,"")</f>
-        <v/>
-      </c>
-      <c r="V2" s="21" t="str">
-        <f t="shared" ref="V2:V15" si="1">IF(ISNUMBER(T1),
-((T2-T1)/T1)/(B2-B1),
-"")</f>
-        <v/>
-      </c>
-      <c r="W2" s="22" t="str">
-        <f>IF(ISNUMBER(V2),
-1/Cases!$V2,
-"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="24">
-        <v>43890.416666666664</v>
-      </c>
-      <c r="C3" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3">
-        <v>14</v>
-      </c>
-      <c r="E3">
-        <v>15</v>
-      </c>
-      <c r="J3">
-        <v>3</v>
-      </c>
-      <c r="M3">
-        <v>30</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
-      <c r="T3" s="78">
+      <c r="T7" s="77">
         <v>66</v>
       </c>
-      <c r="U3" s="52">
+      <c r="U7" s="52">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="V3" s="21">
+      <c r="V7" s="21">
         <f t="shared" si="1"/>
         <v>0.24528301886792453</v>
       </c>
-      <c r="W3" s="22">
-        <f>IF(ISNUMBER(V3),
-1/Cases!$V3,
-"")</f>
-        <v>4.0769230769230766</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="X7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="A8">
         <v>2</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B8" s="24">
         <v>43891.625</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C8" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="D4">
+      <c r="D8">
         <v>15</v>
       </c>
-      <c r="E4">
+      <c r="E8">
         <v>23</v>
       </c>
-      <c r="H4">
+      <c r="H8">
         <v>1</v>
       </c>
-      <c r="I4">
+      <c r="I8">
         <v>1</v>
       </c>
-      <c r="J4">
+      <c r="J8">
         <v>8</v>
       </c>
-      <c r="L4">
+      <c r="L8">
         <v>1</v>
       </c>
-      <c r="M4">
+      <c r="M8">
         <v>74</v>
       </c>
-      <c r="N4">
+      <c r="N8">
         <v>2</v>
       </c>
-      <c r="R4">
+      <c r="R8">
         <v>2</v>
       </c>
-      <c r="T4" s="78">
+      <c r="T8" s="77">
         <v>129</v>
       </c>
-      <c r="U4" s="52">
+      <c r="U8" s="52">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="V4" s="21">
+      <c r="V8" s="21">
         <f t="shared" si="1"/>
         <v>0.78996865203603195</v>
       </c>
-      <c r="W4" s="22">
-        <f>IF(ISNUMBER(V4),
-1/Cases!$V4,
-"")</f>
-        <v>1.2658730158755567</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A5">
+    </row>
+    <row r="9" spans="1:25">
+      <c r="A9">
         <v>3</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B9" s="24">
         <v>43892.625</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C9" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="D5">
+      <c r="D9">
         <v>20</v>
       </c>
-      <c r="E5">
+      <c r="E9">
         <v>26</v>
       </c>
-      <c r="F5">
+      <c r="F9">
         <v>1</v>
       </c>
-      <c r="H5">
+      <c r="H9">
         <v>1</v>
       </c>
-      <c r="I5">
+      <c r="I9">
         <v>2</v>
       </c>
-      <c r="J5">
+      <c r="J9">
         <v>10</v>
       </c>
-      <c r="L5">
+      <c r="L9">
         <v>1</v>
       </c>
-      <c r="M5">
+      <c r="M9">
         <v>90</v>
       </c>
-      <c r="N5">
+      <c r="N9">
         <v>2</v>
       </c>
-      <c r="R5">
+      <c r="R9">
         <v>2</v>
       </c>
-      <c r="T5" s="78">
+      <c r="T9" s="77">
         <v>157</v>
       </c>
-      <c r="U5" s="52">
+      <c r="U9" s="52">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="V5" s="21">
+      <c r="V9" s="21">
         <f t="shared" si="1"/>
         <v>0.21705426356589147</v>
       </c>
-      <c r="W5" s="22">
-        <f>IF(ISNUMBER(V5),
-1/Cases!$V5,
-"")</f>
-        <v>4.6071428571428577</v>
-      </c>
-      <c r="Y5" s="81" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z5" s="80">
-        <f>LOOKUP(2,1/(ISNUMBER(T2:T9999)),T2:T9999)</f>
-        <v>3062</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A6">
+    </row>
+    <row r="10" spans="1:25">
+      <c r="A10">
         <v>4</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B10" s="24">
         <v>43893.625</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C10" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="D6">
+      <c r="D10">
         <v>28</v>
       </c>
-      <c r="E6">
+      <c r="E10">
         <v>37</v>
       </c>
-      <c r="F6">
+      <c r="F10">
         <v>3</v>
       </c>
-      <c r="G6">
+      <c r="G10">
         <v>1</v>
       </c>
-      <c r="H6">
+      <c r="H10">
         <v>2</v>
       </c>
-      <c r="I6">
+      <c r="I10">
         <v>2</v>
       </c>
-      <c r="J6">
+      <c r="J10">
         <v>12</v>
       </c>
-      <c r="L6">
+      <c r="L10">
         <v>2</v>
       </c>
-      <c r="M6">
+      <c r="M10">
         <v>103</v>
       </c>
-      <c r="N6">
+      <c r="N10">
         <v>2</v>
       </c>
-      <c r="P6">
+      <c r="P10">
         <v>1</v>
       </c>
-      <c r="R6">
+      <c r="R10">
         <v>2</v>
       </c>
-      <c r="S6">
+      <c r="S10">
         <v>1</v>
       </c>
-      <c r="T6" s="78">
+      <c r="T10" s="77">
         <v>196</v>
       </c>
-      <c r="U6" s="52">
+      <c r="U10" s="52">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="V6" s="21">
+      <c r="V10" s="21">
         <f t="shared" si="1"/>
         <v>0.24840764331210191</v>
       </c>
-      <c r="W6" s="22">
-        <f>IF(ISNUMBER(V6),
-1/Cases!$V6,
-"")</f>
-        <v>4.0256410256410255</v>
-      </c>
-      <c r="Z6" s="80"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="Y10" s="79"/>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11">
         <v>5</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B11" s="24">
         <v>43894.625</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C11" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="D7">
+      <c r="D11">
         <v>50</v>
       </c>
-      <c r="E7">
+      <c r="E11">
         <v>48</v>
       </c>
-      <c r="F7">
+      <c r="F11">
         <v>7</v>
       </c>
-      <c r="G7">
+      <c r="G11">
         <v>1</v>
       </c>
-      <c r="H7">
+      <c r="H11">
         <v>3</v>
       </c>
-      <c r="I7">
+      <c r="I11">
         <v>3</v>
       </c>
-      <c r="J7">
+      <c r="J11">
         <v>12</v>
       </c>
-      <c r="K7">
+      <c r="K11">
         <v>4</v>
       </c>
-      <c r="L7">
+      <c r="L11">
         <v>7</v>
       </c>
-      <c r="M7">
+      <c r="M11">
         <v>115</v>
       </c>
-      <c r="N7">
+      <c r="N11">
         <v>7</v>
       </c>
-      <c r="O7">
+      <c r="O11">
         <v>1</v>
       </c>
-      <c r="P7">
+      <c r="P11">
         <v>1</v>
       </c>
-      <c r="R7">
+      <c r="R11">
         <v>2</v>
       </c>
-      <c r="S7">
+      <c r="S11">
         <v>1</v>
       </c>
-      <c r="T7" s="78">
+      <c r="T11" s="77">
         <v>262</v>
       </c>
-      <c r="U7" s="52">
+      <c r="U11" s="52">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="V7" s="21">
+      <c r="V11" s="21">
         <f t="shared" si="1"/>
         <v>0.33673469387755101</v>
       </c>
-      <c r="W7" s="22">
-        <f>IF(ISNUMBER(V7),
-1/Cases!$V7,
-"")</f>
-        <v>2.9696969696969697</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A8">
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12">
         <v>6</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B12" s="24">
         <v>43895.625</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C12" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="D8">
+      <c r="D12">
         <v>73</v>
       </c>
-      <c r="E8">
+      <c r="E12">
         <v>70</v>
       </c>
-      <c r="F8">
+      <c r="F12">
         <v>13</v>
       </c>
-      <c r="G8">
+      <c r="G12">
         <v>1</v>
       </c>
-      <c r="H8">
+      <c r="H12">
         <v>3</v>
       </c>
-      <c r="I8">
+      <c r="I12">
         <v>5</v>
       </c>
-      <c r="J8">
+      <c r="J12">
         <v>14</v>
       </c>
-      <c r="K8">
+      <c r="K12">
         <v>4</v>
       </c>
-      <c r="L8">
+      <c r="L12">
         <v>18</v>
       </c>
-      <c r="M8">
+      <c r="M12">
         <v>181</v>
       </c>
-      <c r="N8">
+      <c r="N12">
         <v>8</v>
       </c>
-      <c r="O8">
+      <c r="O12">
         <v>1</v>
       </c>
-      <c r="P8">
+      <c r="P12">
         <v>1</v>
       </c>
-      <c r="R8">
+      <c r="R12">
         <v>7</v>
       </c>
-      <c r="S8">
+      <c r="S12">
         <v>1</v>
       </c>
-      <c r="T8" s="78">
+      <c r="T12" s="77">
         <v>400</v>
       </c>
-      <c r="U8" s="52">
+      <c r="U12" s="52">
         <f t="shared" si="0"/>
         <v>138</v>
       </c>
-      <c r="V8" s="21">
+      <c r="V12" s="21">
         <f t="shared" si="1"/>
         <v>0.52671755725190839</v>
       </c>
-      <c r="W8" s="22">
-        <f>IF(ISNUMBER(V8),
-1/Cases!$V8,
-"")</f>
-        <v>1.8985507246376812</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A9">
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13">
         <v>7</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B13" s="24">
         <v>43896.625</v>
       </c>
-      <c r="C9" s="58" t="s">
+      <c r="C13" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D13" s="3">
         <v>96</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E13" s="3">
         <v>117</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F13" s="3">
         <v>19</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G13" s="3">
         <v>2</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H13" s="3">
         <v>4</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I13" s="3">
         <v>11</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J13" s="3">
         <v>16</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K13" s="3">
         <v>5</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L13" s="3">
         <v>18</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M13" s="3">
         <v>329</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N13" s="3">
         <v>10</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O13" s="3">
         <v>2</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P13" s="3">
         <v>2</v>
       </c>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3">
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3">
         <v>7</v>
       </c>
-      <c r="S9" s="3">
+      <c r="S13" s="3">
         <v>1</v>
       </c>
-      <c r="T9" s="78">
+      <c r="T13" s="77">
         <v>639</v>
       </c>
-      <c r="U9" s="54">
+      <c r="U13" s="54">
         <f t="shared" si="0"/>
         <v>239</v>
       </c>
-      <c r="V9" s="21">
+      <c r="V13" s="21">
         <f t="shared" si="1"/>
         <v>0.59750000000000003</v>
       </c>
-      <c r="W9" s="22">
-        <f>IF(ISNUMBER(V9),
-1/Cases!$V9,
-"")</f>
-        <v>1.6736401673640167</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A10">
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14">
         <v>8</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B14" s="24">
         <v>43897.625</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="C14" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="D10">
+      <c r="D14">
         <v>170</v>
       </c>
-      <c r="E10">
+      <c r="E14">
         <v>134</v>
       </c>
-      <c r="F10">
+      <c r="F14">
         <v>28</v>
       </c>
-      <c r="G10">
+      <c r="G14">
         <v>2</v>
       </c>
-      <c r="H10">
+      <c r="H14">
         <v>4</v>
       </c>
-      <c r="I10">
+      <c r="I14">
         <v>13</v>
       </c>
-      <c r="J10">
+      <c r="J14">
         <v>17</v>
       </c>
-      <c r="K10">
+      <c r="K14">
         <v>5</v>
       </c>
-      <c r="L10">
+      <c r="L14">
         <v>19</v>
       </c>
-      <c r="M10">
+      <c r="M14">
         <v>373</v>
       </c>
-      <c r="N10">
+      <c r="N14">
         <v>13</v>
       </c>
-      <c r="O10">
+      <c r="O14">
         <v>3</v>
       </c>
-      <c r="P10">
+      <c r="P14">
         <v>4</v>
       </c>
-      <c r="R10">
+      <c r="R14">
         <v>8</v>
       </c>
-      <c r="S10">
+      <c r="S14">
         <v>2</v>
       </c>
-      <c r="T10" s="78">
+      <c r="T14" s="77">
         <v>795</v>
       </c>
-      <c r="U10" s="52">
+      <c r="U14" s="52">
         <f t="shared" si="0"/>
         <v>156</v>
       </c>
-      <c r="V10" s="21">
+      <c r="V14" s="21">
         <f t="shared" si="1"/>
         <v>0.24413145539906103</v>
       </c>
-      <c r="W10" s="22">
-        <f>IF(ISNUMBER(V10),
-1/Cases!$V10,
-"")</f>
-        <v>4.0961538461538458</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A11">
+    </row>
+    <row r="15" spans="1:25">
+      <c r="A15">
         <v>9</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B15" s="24">
         <v>43898.625</v>
       </c>
-      <c r="C11" s="58" t="s">
+      <c r="C15" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="D11">
+      <c r="D15">
         <v>182</v>
       </c>
-      <c r="E11">
+      <c r="E15">
         <v>172</v>
       </c>
-      <c r="F11">
+      <c r="F15">
         <v>40</v>
       </c>
-      <c r="G11">
+      <c r="G15">
         <v>4</v>
       </c>
-      <c r="H11">
+      <c r="H15">
         <v>4</v>
       </c>
-      <c r="I11">
+      <c r="I15">
         <v>13</v>
       </c>
-      <c r="J11">
+      <c r="J15">
         <v>19</v>
       </c>
-      <c r="K11">
+      <c r="K15">
         <v>8</v>
       </c>
-      <c r="L11">
+      <c r="L15">
         <v>21</v>
       </c>
-      <c r="M11">
+      <c r="M15">
         <v>398</v>
       </c>
-      <c r="N11">
+      <c r="N15">
         <v>19</v>
       </c>
-      <c r="O11">
+      <c r="O15">
         <v>4</v>
       </c>
-      <c r="P11">
+      <c r="P15">
         <v>7</v>
       </c>
-      <c r="R11">
+      <c r="R15">
         <v>9</v>
       </c>
-      <c r="S11">
+      <c r="S15">
         <v>2</v>
       </c>
-      <c r="T11" s="78">
+      <c r="T15" s="77">
         <v>902</v>
       </c>
-      <c r="U11" s="52">
+      <c r="U15" s="52">
         <f t="shared" si="0"/>
         <v>107</v>
       </c>
-      <c r="V11" s="21">
+      <c r="V15" s="21">
         <f t="shared" si="1"/>
         <v>0.13459119496855346</v>
       </c>
-      <c r="W11" s="22">
-        <f>IF(ISNUMBER(V11),
-1/Cases!$V11,
-"")</f>
-        <v>7.4299065420560746</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A12">
+    </row>
+    <row r="16" spans="1:25">
+      <c r="A16">
         <v>10</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B16" s="24">
         <v>43899.625</v>
       </c>
-      <c r="C12" s="58" t="s">
+      <c r="C16" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="D12">
+      <c r="D16">
         <v>204</v>
       </c>
-      <c r="E12">
+      <c r="E16">
         <v>256</v>
       </c>
-      <c r="F12">
+      <c r="F16">
         <v>48</v>
       </c>
-      <c r="G12">
+      <c r="G16">
         <v>6</v>
       </c>
-      <c r="H12">
+      <c r="H16">
         <v>4</v>
       </c>
-      <c r="I12">
+      <c r="I16">
         <v>17</v>
       </c>
-      <c r="J12">
+      <c r="J16">
         <v>26</v>
       </c>
-      <c r="K12">
+      <c r="K16">
         <v>10</v>
       </c>
-      <c r="L12">
+      <c r="L16">
         <v>38</v>
       </c>
-      <c r="M12">
+      <c r="M16">
         <v>484</v>
       </c>
-      <c r="N12">
+      <c r="N16">
         <v>17</v>
       </c>
-      <c r="O12">
+      <c r="O16">
         <v>6</v>
       </c>
-      <c r="P12">
+      <c r="P16">
         <v>12</v>
       </c>
-      <c r="R12">
+      <c r="R16">
         <v>9</v>
       </c>
-      <c r="S12">
+      <c r="S16">
         <v>2</v>
       </c>
-      <c r="T12" s="78">
+      <c r="T16" s="77">
         <v>1139</v>
       </c>
-      <c r="U12" s="52">
+      <c r="U16" s="52">
         <f t="shared" si="0"/>
         <v>237</v>
       </c>
-      <c r="V12" s="21">
+      <c r="V16" s="21">
         <f t="shared" si="1"/>
         <v>0.26274944567627495</v>
       </c>
-      <c r="W12" s="22">
-        <f>IF(ISNUMBER(V12),
-1/Cases!$V12,
-"")</f>
-        <v>3.8059071729957803</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A13">
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17">
         <v>11</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B17" s="24">
         <v>43900.625</v>
       </c>
-      <c r="C13" s="58" t="s">
+      <c r="C17" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="D13">
+      <c r="D17">
         <v>237</v>
       </c>
-      <c r="E13">
+      <c r="E17">
         <v>314</v>
       </c>
-      <c r="F13">
+      <c r="F17">
         <v>48</v>
       </c>
-      <c r="G13">
+      <c r="G17">
         <v>9</v>
       </c>
-      <c r="H13">
+      <c r="H17">
         <v>4</v>
       </c>
-      <c r="I13">
+      <c r="I17">
         <v>29</v>
       </c>
-      <c r="J13">
+      <c r="J17">
         <v>35</v>
       </c>
-      <c r="K13">
+      <c r="K17">
         <v>13</v>
       </c>
-      <c r="L13">
+      <c r="L17">
         <v>49</v>
       </c>
-      <c r="M13">
+      <c r="M17">
         <v>484</v>
       </c>
-      <c r="N13">
+      <c r="N17">
         <v>25</v>
       </c>
-      <c r="O13">
+      <c r="O17">
         <v>7</v>
       </c>
-      <c r="P13">
+      <c r="P17">
         <v>22</v>
       </c>
-      <c r="Q13">
+      <c r="Q17">
         <v>7</v>
       </c>
-      <c r="R13">
+      <c r="R17">
         <v>9</v>
       </c>
-      <c r="S13">
+      <c r="S17">
         <v>4</v>
       </c>
-      <c r="T13" s="78">
+      <c r="T17" s="77">
         <v>1296</v>
       </c>
-      <c r="U13" s="52">
+      <c r="U17" s="52">
         <f t="shared" si="0"/>
         <v>157</v>
       </c>
-      <c r="V13" s="21">
+      <c r="V17" s="21">
         <f t="shared" si="1"/>
         <v>0.13784021071115013</v>
       </c>
-      <c r="W13" s="22">
-        <f>IF(ISNUMBER(V13),
-1/Cases!$V13,
-"")</f>
-        <v>7.2547770700636942</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A14">
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18">
         <v>12</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B18" s="24">
         <v>43901.625</v>
       </c>
-      <c r="C14" s="58" t="s">
+      <c r="C18" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="D14">
+      <c r="D18">
         <v>277</v>
       </c>
-      <c r="E14">
+      <c r="E18">
         <v>366</v>
       </c>
-      <c r="F14">
+      <c r="F18">
         <v>90</v>
       </c>
-      <c r="G14">
+      <c r="G18">
         <v>24</v>
       </c>
-      <c r="H14">
+      <c r="H18">
         <v>21</v>
       </c>
-      <c r="I14">
+      <c r="I18">
         <v>48</v>
       </c>
-      <c r="J14">
+      <c r="J18">
         <v>48</v>
       </c>
-      <c r="K14">
+      <c r="K18">
         <v>17</v>
       </c>
-      <c r="L14">
+      <c r="L18">
         <v>75</v>
       </c>
-      <c r="M14">
+      <c r="M18">
         <v>484</v>
       </c>
-      <c r="N14">
+      <c r="N18">
         <v>25</v>
       </c>
-      <c r="O14">
+      <c r="O18">
         <v>14</v>
       </c>
-      <c r="P14">
+      <c r="P18">
         <v>26</v>
       </c>
-      <c r="Q14">
+      <c r="Q18">
         <v>15</v>
       </c>
-      <c r="R14">
+      <c r="R18">
         <v>27</v>
       </c>
-      <c r="S14">
+      <c r="S18">
         <v>10</v>
       </c>
-      <c r="T14" s="78">
+      <c r="T18" s="77">
         <v>1567</v>
       </c>
-      <c r="U14" s="52">
+      <c r="U18" s="52">
         <f t="shared" si="0"/>
         <v>271</v>
       </c>
-      <c r="V14" s="21">
+      <c r="V18" s="21">
         <f t="shared" si="1"/>
         <v>0.20910493827160495</v>
       </c>
-      <c r="W14" s="22">
-        <f>IF(ISNUMBER(V14),
-1/Cases!$V14,
-"")</f>
-        <v>4.7822878228782288</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A15" s="59">
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" s="59">
         <v>13</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B19" s="25">
         <v>43902.625</v>
       </c>
-      <c r="C15" s="58" t="s">
+      <c r="C19" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D19" s="13">
         <v>454</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E19" s="13">
         <v>500</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F19" s="13">
         <v>137</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G19" s="13">
         <v>30</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H19" s="13">
         <v>38</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I19" s="13">
         <v>88</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J19" s="13">
         <v>99</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K19" s="13">
         <v>23</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L19" s="13">
         <v>129</v>
       </c>
-      <c r="M15" s="13">
+      <c r="M19" s="13">
         <v>688</v>
       </c>
-      <c r="N15" s="13">
+      <c r="N19" s="13">
         <v>52</v>
       </c>
-      <c r="O15" s="13">
+      <c r="O19" s="13">
         <v>14</v>
       </c>
-      <c r="P15" s="13">
+      <c r="P19" s="13">
         <v>45</v>
       </c>
-      <c r="Q15" s="13">
+      <c r="Q19" s="13">
         <v>27</v>
       </c>
-      <c r="R15" s="13">
+      <c r="R19" s="13">
         <v>31</v>
       </c>
-      <c r="S15" s="13">
+      <c r="S19" s="13">
         <v>14</v>
       </c>
-      <c r="T15" s="78">
+      <c r="T19" s="77">
         <v>2369</v>
       </c>
-      <c r="U15" s="60">
-        <f>IF(ISNUMBER(T14),T15-T14,"")</f>
+      <c r="U19" s="60">
+        <f>IF(ISNUMBER(T18),T19-T18,"")</f>
         <v>802</v>
       </c>
-      <c r="V15" s="61">
+      <c r="V19" s="61">
         <f t="shared" si="1"/>
         <v>0.51180599872367583</v>
       </c>
-      <c r="W15" s="62">
-        <f>IF(ISNUMBER(V15),
-1/Cases!$V15,
-"")</f>
-        <v>1.953865336658354</v>
-      </c>
-      <c r="X15" s="62"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A16" s="59">
+      <c r="W19" s="62"/>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="59">
         <v>14</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B20" s="25">
         <v>43903.625</v>
       </c>
-      <c r="C16" s="58" t="s">
+      <c r="C20" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="74">
+      <c r="D20" s="73">
         <v>454</v>
       </c>
-      <c r="E16" s="74">
+      <c r="E20" s="73">
         <v>558</v>
       </c>
-      <c r="F16" s="74">
+      <c r="F20" s="73">
         <v>174</v>
       </c>
-      <c r="G16" s="74">
+      <c r="G20" s="73">
         <v>44</v>
       </c>
-      <c r="H16" s="74">
+      <c r="H20" s="73">
         <v>42</v>
       </c>
-      <c r="I16" s="74">
+      <c r="I20" s="73">
         <v>99</v>
       </c>
-      <c r="J16" s="74">
+      <c r="J20" s="73">
         <v>148</v>
       </c>
-      <c r="K16" s="74">
+      <c r="K20" s="73">
         <v>33</v>
       </c>
-      <c r="L16" s="74">
+      <c r="L20" s="73">
         <v>230</v>
       </c>
-      <c r="M16" s="74">
+      <c r="M20" s="73">
         <v>936</v>
       </c>
-      <c r="N16" s="74">
+      <c r="N20" s="73">
         <v>102</v>
       </c>
-      <c r="O16" s="74">
+      <c r="O20" s="73">
         <v>40</v>
       </c>
-      <c r="P16" s="74">
+      <c r="P20" s="73">
         <v>83</v>
       </c>
-      <c r="Q16" s="74">
+      <c r="Q20" s="73">
         <v>42</v>
       </c>
-      <c r="R16" s="74">
+      <c r="R20" s="73">
         <v>48</v>
       </c>
-      <c r="S16" s="74">
+      <c r="S20" s="73">
         <v>29</v>
       </c>
-      <c r="T16" s="78">
+      <c r="T20" s="77">
         <v>3062</v>
       </c>
-      <c r="U16" s="60">
-        <f>IF(ISNUMBER(T15),T16-T15,"")</f>
+      <c r="U20" s="60">
+        <f>IF(ISNUMBER(T19),T20-T19,"")</f>
         <v>693</v>
       </c>
-      <c r="V16" s="61">
-        <f>IF(ISNUMBER(T15),
-((T16-T15)/T15)/(B16-B15),
+      <c r="V20" s="61">
+        <f>IF(ISNUMBER(T19),
+((T20-T19)/T19)/(B20-B19),
 "")</f>
         <v>0.29252849303503586</v>
       </c>
-      <c r="W16" s="62">
-        <f>IF(ISNUMBER(V16),
-1/Cases!$V16,
-"")</f>
-        <v>3.4184704184704189</v>
-      </c>
-      <c r="X16" s="62"/>
+      <c r="W20" s="62"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D3:T3">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <tableParts count="1">
@@ -8851,16 +9078,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D35575D0-0A0E-6E43-9D76-74E38D2BC332}">
-  <dimension ref="A1:W16"/>
+  <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="88" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" style="37" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.33203125" style="37" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.6640625" style="37" bestFit="1" customWidth="1"/>
@@ -8872,17 +9099,17 @@
     <col min="16" max="17" width="6.33203125" style="37" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5.6640625" style="37" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="4.6640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="10.83203125" style="37"/>
-    <col min="23" max="23" width="20.5" style="37" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="10.83203125" style="37"/>
+    <col min="20" max="21" width="10.83203125" style="37"/>
+    <col min="22" max="22" width="20.5" style="37" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="10.83203125" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="43" customFormat="1" ht="79" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
-        <v>42</v>
+    <row r="1" spans="1:22" s="43" customFormat="1" ht="79">
+      <c r="A1" s="76" t="s">
+        <v>41</v>
       </c>
       <c r="B1" s="42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" s="48" t="s">
         <v>30</v>
@@ -8933,1694 +9160,1694 @@
         <v>15</v>
       </c>
       <c r="S1" s="41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="U1" s="43" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" s="46">
-        <f>Table5[[#This Row],['#]]</f>
+        <f>Cases!A6</f>
         <v>0</v>
       </c>
       <c r="B2" s="38">
-        <f>Table5[[#This Row],[Date]]</f>
+        <f>Cases!B6</f>
         <v>43889.416666666664</v>
       </c>
       <c r="C2" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!D1),Cases!D1&gt;min_number),
-((Cases!D2-Cases!D1)/Cases!D1)/(Cases!$B2-Cases!$B1),
-"")</f>
-        <v/>
-      </c>
-      <c r="D2" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!E1),Cases!E1&gt;min_number),
-((Cases!E2-Cases!E1)/Cases!E1)/(Cases!$B2-Cases!$B1),
-"")</f>
-        <v/>
-      </c>
-      <c r="E2" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!F1),Cases!F1&gt;min_number),
-((Cases!F2-Cases!F1)/Cases!F1)/(Cases!$B2-Cases!$B1),
-"")</f>
-        <v/>
-      </c>
-      <c r="F2" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!G1),Cases!G1&gt;min_number),
-((Cases!G2-Cases!G1)/Cases!G1)/(Cases!$B2-Cases!$B1),
-"")</f>
-        <v/>
-      </c>
-      <c r="G2" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!H1),Cases!H1&gt;min_number),
-((Cases!H2-Cases!H1)/Cases!H1)/(Cases!$B2-Cases!$B1),
-"")</f>
-        <v/>
-      </c>
-      <c r="H2" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!I1),Cases!I1&gt;min_number),
-((Cases!I2-Cases!I1)/Cases!I1)/(Cases!$B2-Cases!$B1),
-"")</f>
-        <v/>
-      </c>
-      <c r="I2" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!J1),Cases!J1&gt;min_number),
-((Cases!J2-Cases!J1)/Cases!J1)/(Cases!$B2-Cases!$B1),
-"")</f>
-        <v/>
-      </c>
-      <c r="J2" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!K1),Cases!K1&gt;min_number),
-((Cases!K2-Cases!K1)/Cases!K1)/(Cases!$B2-Cases!$B1),
-"")</f>
-        <v/>
-      </c>
-      <c r="K2" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!L1),Cases!L1&gt;min_number),
-((Cases!L2-Cases!L1)/Cases!L1)/(Cases!$B2-Cases!$B1),
-"")</f>
-        <v/>
-      </c>
-      <c r="L2" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!M1),Cases!M1&gt;min_number),
-((Cases!M2-Cases!M1)/Cases!M1)/(Cases!$B2-Cases!$B1),
-"")</f>
-        <v/>
-      </c>
-      <c r="M2" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!N1),Cases!N1&gt;min_number),
-((Cases!N2-Cases!N1)/Cases!N1)/(Cases!$B2-Cases!$B1),
-"")</f>
-        <v/>
-      </c>
-      <c r="N2" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!O1),Cases!O1&gt;min_number),
-((Cases!O2-Cases!O1)/Cases!O1)/(Cases!$B2-Cases!$B1),
-"")</f>
-        <v/>
-      </c>
-      <c r="O2" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!P1),Cases!P1&gt;min_number),
-((Cases!P2-Cases!P1)/Cases!P1)/(Cases!$B2-Cases!$B1),
-"")</f>
-        <v/>
-      </c>
-      <c r="P2" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!Q1),Cases!Q1&gt;min_number),
-((Cases!Q2-Cases!Q1)/Cases!Q1)/(Cases!$B2-Cases!$B1),
-"")</f>
-        <v/>
-      </c>
-      <c r="Q2" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!R1),Cases!R1&gt;min_number),
-((Cases!R2-Cases!R1)/Cases!R1)/(Cases!$B2-Cases!$B1),
-"")</f>
-        <v/>
-      </c>
-      <c r="R2" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!S1),Cases!S1&gt;min_number),
-((Cases!S2-Cases!S1)/Cases!S1)/(Cases!$B2-Cases!$B1),
-"")</f>
-        <v/>
-      </c>
-      <c r="S2" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!T1),Cases!T1&gt;min_number),
-((Cases!T2-Cases!T1)/Cases!T1)/(Cases!$B2-Cases!$B1),
-"")</f>
-        <v/>
-      </c>
-      <c r="U2" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="V2" s="37">
-        <v>10</v>
-      </c>
-      <c r="W2" s="37" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3" s="47">
-        <f>Table5[[#This Row],['#]]</f>
-        <v>1</v>
-      </c>
-      <c r="B3" s="38">
-        <f>Table5[[#This Row],[Date]]</f>
-        <v>43890.416666666664</v>
-      </c>
-      <c r="C3" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!D2),Cases!D2&gt;min_number),
-((Cases!D3-Cases!D2)/Cases!D2)/(Cases!$B3-Cases!$B2),
-"")</f>
-        <v/>
-      </c>
-      <c r="D3" s="39">
-        <f>IF(AND(ISNUMBER(Cases!E2),Cases!E2&gt;min_number),
-((Cases!E3-Cases!E2)/Cases!E2)/(Cases!$B3-Cases!$B2),
-"")</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!F2),Cases!F2&gt;min_number),
-((Cases!F3-Cases!F2)/Cases!F2)/(Cases!$B3-Cases!$B2),
-"")</f>
-        <v/>
-      </c>
-      <c r="F3" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!G2),Cases!G2&gt;min_number),
-((Cases!G3-Cases!G2)/Cases!G2)/(Cases!$B3-Cases!$B2),
-"")</f>
-        <v/>
-      </c>
-      <c r="G3" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!H2),Cases!H2&gt;min_number),
-((Cases!H3-Cases!H2)/Cases!H2)/(Cases!$B3-Cases!$B2),
-"")</f>
-        <v/>
-      </c>
-      <c r="H3" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!I2),Cases!I2&gt;min_number),
-((Cases!I3-Cases!I2)/Cases!I2)/(Cases!$B3-Cases!$B2),
-"")</f>
-        <v/>
-      </c>
-      <c r="I3" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!J2),Cases!J2&gt;min_number),
-((Cases!J3-Cases!J2)/Cases!J2)/(Cases!$B3-Cases!$B2),
-"")</f>
-        <v/>
-      </c>
-      <c r="J3" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!K2),Cases!K2&gt;min_number),
-((Cases!K3-Cases!K2)/Cases!K2)/(Cases!$B3-Cases!$B2),
-"")</f>
-        <v/>
-      </c>
-      <c r="K3" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!L2),Cases!L2&gt;min_number),
-((Cases!L3-Cases!L2)/Cases!L2)/(Cases!$B3-Cases!$B2),
-"")</f>
-        <v/>
-      </c>
-      <c r="L3" s="39">
-        <f>IF(AND(ISNUMBER(Cases!M2),Cases!M2&gt;min_number),
-((Cases!M3-Cases!M2)/Cases!M2)/(Cases!$B3-Cases!$B2),
-"")</f>
-        <v>0.2</v>
-      </c>
-      <c r="M3" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!N2),Cases!N2&gt;min_number),
-((Cases!N3-Cases!N2)/Cases!N2)/(Cases!$B3-Cases!$B2),
-"")</f>
-        <v/>
-      </c>
-      <c r="N3" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!O2),Cases!O2&gt;min_number),
-((Cases!O3-Cases!O2)/Cases!O2)/(Cases!$B3-Cases!$B2),
-"")</f>
-        <v/>
-      </c>
-      <c r="O3" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!P2),Cases!P2&gt;min_number),
-((Cases!P3-Cases!P2)/Cases!P2)/(Cases!$B3-Cases!$B2),
-"")</f>
-        <v/>
-      </c>
-      <c r="P3" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!Q2),Cases!Q2&gt;min_number),
-((Cases!Q3-Cases!Q2)/Cases!Q2)/(Cases!$B3-Cases!$B2),
-"")</f>
-        <v/>
-      </c>
-      <c r="Q3" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!R2),Cases!R2&gt;min_number),
-((Cases!R3-Cases!R2)/Cases!R2)/(Cases!$B3-Cases!$B2),
-"")</f>
-        <v/>
-      </c>
-      <c r="R3" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!S2),Cases!S2&gt;min_number),
-((Cases!S3-Cases!S2)/Cases!S2)/(Cases!$B3-Cases!$B2),
-"")</f>
-        <v/>
-      </c>
-      <c r="S3" s="40">
-        <f>IF(AND(ISNUMBER(Cases!T2),Cases!T2&gt;min_number),
-((Cases!T3-Cases!T2)/Cases!T2)/(Cases!$B3-Cases!$B2),
-"")</f>
-        <v>0.24528301886792453</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A4" s="47">
-        <f>Table5[[#This Row],['#]]</f>
-        <v>2</v>
-      </c>
-      <c r="B4" s="38">
-        <f>Table5[[#This Row],[Date]]</f>
-        <v>43891.625</v>
-      </c>
-      <c r="C4" s="39">
-        <f>IF(AND(ISNUMBER(Cases!D3),Cases!D3&gt;min_number),
-((Cases!D4-Cases!D3)/Cases!D3)/(Cases!$B4-Cases!$B3),
-"")</f>
-        <v>5.9113300492492186E-2</v>
-      </c>
-      <c r="D4" s="39">
-        <f>IF(AND(ISNUMBER(Cases!E3),Cases!E3&gt;min_number),
-((Cases!E4-Cases!E3)/Cases!E3)/(Cases!$B4-Cases!$B3),
-"")</f>
-        <v>0.44137931034394168</v>
-      </c>
-      <c r="E4" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!F3),Cases!F3&gt;min_number),
-((Cases!F4-Cases!F3)/Cases!F3)/(Cases!$B4-Cases!$B3),
-"")</f>
-        <v/>
-      </c>
-      <c r="F4" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!G3),Cases!G3&gt;min_number),
-((Cases!G4-Cases!G3)/Cases!G3)/(Cases!$B4-Cases!$B3),
-"")</f>
-        <v/>
-      </c>
-      <c r="G4" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!H3),Cases!H3&gt;min_number),
-((Cases!H4-Cases!H3)/Cases!H3)/(Cases!$B4-Cases!$B3),
-"")</f>
-        <v/>
-      </c>
-      <c r="H4" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!I3),Cases!I3&gt;min_number),
-((Cases!I4-Cases!I3)/Cases!I3)/(Cases!$B4-Cases!$B3),
-"")</f>
-        <v/>
-      </c>
-      <c r="I4" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!J3),Cases!J3&gt;min_number),
-((Cases!J4-Cases!J3)/Cases!J3)/(Cases!$B4-Cases!$B3),
-"")</f>
-        <v/>
-      </c>
-      <c r="J4" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!K3),Cases!K3&gt;min_number),
-((Cases!K4-Cases!K3)/Cases!K3)/(Cases!$B4-Cases!$B3),
-"")</f>
-        <v/>
-      </c>
-      <c r="K4" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!L3),Cases!L3&gt;min_number),
-((Cases!L4-Cases!L3)/Cases!L3)/(Cases!$B4-Cases!$B3),
-"")</f>
-        <v/>
-      </c>
-      <c r="L4" s="39">
-        <f>IF(AND(ISNUMBER(Cases!M3),Cases!M3&gt;min_number),
-((Cases!M4-Cases!M3)/Cases!M3)/(Cases!$B4-Cases!$B3),
-"")</f>
-        <v>1.2137931034458396</v>
-      </c>
-      <c r="M4" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!N3),Cases!N3&gt;min_number),
-((Cases!N4-Cases!N3)/Cases!N3)/(Cases!$B4-Cases!$B3),
-"")</f>
-        <v/>
-      </c>
-      <c r="N4" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!O3),Cases!O3&gt;min_number),
-((Cases!O4-Cases!O3)/Cases!O3)/(Cases!$B4-Cases!$B3),
-"")</f>
-        <v/>
-      </c>
-      <c r="O4" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!P3),Cases!P3&gt;min_number),
-((Cases!P4-Cases!P3)/Cases!P3)/(Cases!$B4-Cases!$B3),
-"")</f>
-        <v/>
-      </c>
-      <c r="P4" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!Q3),Cases!Q3&gt;min_number),
-((Cases!Q4-Cases!Q3)/Cases!Q3)/(Cases!$B4-Cases!$B3),
-"")</f>
-        <v/>
-      </c>
-      <c r="Q4" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!R3),Cases!R3&gt;min_number),
-((Cases!R4-Cases!R3)/Cases!R3)/(Cases!$B4-Cases!$B3),
-"")</f>
-        <v/>
-      </c>
-      <c r="R4" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!S3),Cases!S3&gt;min_number),
-((Cases!S4-Cases!S3)/Cases!S3)/(Cases!$B4-Cases!$B3),
-"")</f>
-        <v/>
-      </c>
-      <c r="S4" s="40">
-        <f>IF(AND(ISNUMBER(Cases!T3),Cases!T3&gt;min_number),
-((Cases!T4-Cases!T3)/Cases!T3)/(Cases!$B4-Cases!$B3),
-"")</f>
-        <v>0.78996865203603195</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5" s="47">
-        <f>Table5[[#This Row],['#]]</f>
-        <v>3</v>
-      </c>
-      <c r="B5" s="38">
-        <f>Table5[[#This Row],[Date]]</f>
-        <v>43892.625</v>
-      </c>
-      <c r="C5" s="39">
-        <f>IF(AND(ISNUMBER(Cases!D4),Cases!D4&gt;min_number),
-((Cases!D5-Cases!D4)/Cases!D4)/(Cases!$B5-Cases!$B4),
-"")</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D5" s="39">
-        <f>IF(AND(ISNUMBER(Cases!E4),Cases!E4&gt;min_number),
-((Cases!E5-Cases!E4)/Cases!E4)/(Cases!$B5-Cases!$B4),
-"")</f>
-        <v>0.13043478260869565</v>
-      </c>
-      <c r="E5" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!F4),Cases!F4&gt;min_number),
-((Cases!F5-Cases!F4)/Cases!F4)/(Cases!$B5-Cases!$B4),
-"")</f>
-        <v/>
-      </c>
-      <c r="F5" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!G4),Cases!G4&gt;min_number),
-((Cases!G5-Cases!G4)/Cases!G4)/(Cases!$B5-Cases!$B4),
-"")</f>
-        <v/>
-      </c>
-      <c r="G5" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!H4),Cases!H4&gt;min_number),
-((Cases!H5-Cases!H4)/Cases!H4)/(Cases!$B5-Cases!$B4),
-"")</f>
-        <v/>
-      </c>
-      <c r="H5" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!I4),Cases!I4&gt;min_number),
-((Cases!I5-Cases!I4)/Cases!I4)/(Cases!$B5-Cases!$B4),
-"")</f>
-        <v/>
-      </c>
-      <c r="I5" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!J4),Cases!J4&gt;min_number),
-((Cases!J5-Cases!J4)/Cases!J4)/(Cases!$B5-Cases!$B4),
-"")</f>
-        <v/>
-      </c>
-      <c r="J5" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!K4),Cases!K4&gt;min_number),
-((Cases!K5-Cases!K4)/Cases!K4)/(Cases!$B5-Cases!$B4),
-"")</f>
-        <v/>
-      </c>
-      <c r="K5" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!L4),Cases!L4&gt;min_number),
-((Cases!L5-Cases!L4)/Cases!L4)/(Cases!$B5-Cases!$B4),
-"")</f>
-        <v/>
-      </c>
-      <c r="L5" s="39">
-        <f>IF(AND(ISNUMBER(Cases!M4),Cases!M4&gt;min_number),
-((Cases!M5-Cases!M4)/Cases!M4)/(Cases!$B5-Cases!$B4),
-"")</f>
-        <v>0.21621621621621623</v>
-      </c>
-      <c r="M5" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!N4),Cases!N4&gt;min_number),
-((Cases!N5-Cases!N4)/Cases!N4)/(Cases!$B5-Cases!$B4),
-"")</f>
-        <v/>
-      </c>
-      <c r="N5" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!O4),Cases!O4&gt;min_number),
-((Cases!O5-Cases!O4)/Cases!O4)/(Cases!$B5-Cases!$B4),
-"")</f>
-        <v/>
-      </c>
-      <c r="O5" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!P4),Cases!P4&gt;min_number),
-((Cases!P5-Cases!P4)/Cases!P4)/(Cases!$B5-Cases!$B4),
-"")</f>
-        <v/>
-      </c>
-      <c r="P5" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!Q4),Cases!Q4&gt;min_number),
-((Cases!Q5-Cases!Q4)/Cases!Q4)/(Cases!$B5-Cases!$B4),
-"")</f>
-        <v/>
-      </c>
-      <c r="Q5" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!R4),Cases!R4&gt;min_number),
-((Cases!R5-Cases!R4)/Cases!R4)/(Cases!$B5-Cases!$B4),
-"")</f>
-        <v/>
-      </c>
-      <c r="R5" s="39" t="str">
-        <f>IF(AND(ISNUMBER(Cases!S4),Cases!S4&gt;min_number),
-((Cases!S5-Cases!S4)/Cases!S4)/(Cases!$B5-Cases!$B4),
-"")</f>
-        <v/>
-      </c>
-      <c r="S5" s="40">
-        <f>IF(AND(ISNUMBER(Cases!T4),Cases!T4&gt;min_number),
-((Cases!T5-Cases!T4)/Cases!T4)/(Cases!$B5-Cases!$B4),
-"")</f>
-        <v>0.21705426356589147</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A6" s="47">
-        <f>Table5[[#This Row],['#]]</f>
-        <v>4</v>
-      </c>
-      <c r="B6" s="38">
-        <f>Table5[[#This Row],[Date]]</f>
-        <v>43893.625</v>
-      </c>
-      <c r="C6" s="39">
         <f>IF(AND(ISNUMBER(Cases!D5),Cases!D5&gt;min_number),
 ((Cases!D6-Cases!D5)/Cases!D5)/(Cases!$B6-Cases!$B5),
 "")</f>
-        <v>0.4</v>
-      </c>
-      <c r="D6" s="39">
+        <v/>
+      </c>
+      <c r="D2" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!E5),Cases!E5&gt;min_number),
 ((Cases!E6-Cases!E5)/Cases!E5)/(Cases!$B6-Cases!$B5),
 "")</f>
-        <v>0.42307692307692307</v>
-      </c>
-      <c r="E6" s="39" t="str">
+        <v/>
+      </c>
+      <c r="E2" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!F5),Cases!F5&gt;min_number),
 ((Cases!F6-Cases!F5)/Cases!F5)/(Cases!$B6-Cases!$B5),
 "")</f>
         <v/>
       </c>
-      <c r="F6" s="39" t="str">
+      <c r="F2" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!G5),Cases!G5&gt;min_number),
 ((Cases!G6-Cases!G5)/Cases!G5)/(Cases!$B6-Cases!$B5),
 "")</f>
         <v/>
       </c>
-      <c r="G6" s="39" t="str">
+      <c r="G2" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!H5),Cases!H5&gt;min_number),
 ((Cases!H6-Cases!H5)/Cases!H5)/(Cases!$B6-Cases!$B5),
 "")</f>
         <v/>
       </c>
-      <c r="H6" s="39" t="str">
+      <c r="H2" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!I5),Cases!I5&gt;min_number),
 ((Cases!I6-Cases!I5)/Cases!I5)/(Cases!$B6-Cases!$B5),
 "")</f>
         <v/>
       </c>
-      <c r="I6" s="39" t="str">
+      <c r="I2" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!J5),Cases!J5&gt;min_number),
 ((Cases!J6-Cases!J5)/Cases!J5)/(Cases!$B6-Cases!$B5),
 "")</f>
         <v/>
       </c>
-      <c r="J6" s="39" t="str">
+      <c r="J2" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!K5),Cases!K5&gt;min_number),
 ((Cases!K6-Cases!K5)/Cases!K5)/(Cases!$B6-Cases!$B5),
 "")</f>
         <v/>
       </c>
-      <c r="K6" s="39" t="str">
+      <c r="K2" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!L5),Cases!L5&gt;min_number),
 ((Cases!L6-Cases!L5)/Cases!L5)/(Cases!$B6-Cases!$B5),
 "")</f>
         <v/>
       </c>
-      <c r="L6" s="39">
+      <c r="L2" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!M5),Cases!M5&gt;min_number),
 ((Cases!M6-Cases!M5)/Cases!M5)/(Cases!$B6-Cases!$B5),
 "")</f>
-        <v>0.14444444444444443</v>
-      </c>
-      <c r="M6" s="39" t="str">
+        <v/>
+      </c>
+      <c r="M2" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!N5),Cases!N5&gt;min_number),
 ((Cases!N6-Cases!N5)/Cases!N5)/(Cases!$B6-Cases!$B5),
 "")</f>
         <v/>
       </c>
-      <c r="N6" s="39" t="str">
+      <c r="N2" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!O5),Cases!O5&gt;min_number),
 ((Cases!O6-Cases!O5)/Cases!O5)/(Cases!$B6-Cases!$B5),
 "")</f>
         <v/>
       </c>
-      <c r="O6" s="39" t="str">
+      <c r="O2" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!P5),Cases!P5&gt;min_number),
 ((Cases!P6-Cases!P5)/Cases!P5)/(Cases!$B6-Cases!$B5),
 "")</f>
         <v/>
       </c>
-      <c r="P6" s="39" t="str">
+      <c r="P2" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!Q5),Cases!Q5&gt;min_number),
 ((Cases!Q6-Cases!Q5)/Cases!Q5)/(Cases!$B6-Cases!$B5),
 "")</f>
         <v/>
       </c>
-      <c r="Q6" s="39" t="str">
+      <c r="Q2" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!R5),Cases!R5&gt;min_number),
 ((Cases!R6-Cases!R5)/Cases!R5)/(Cases!$B6-Cases!$B5),
 "")</f>
         <v/>
       </c>
-      <c r="R6" s="39" t="str">
+      <c r="R2" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!S5),Cases!S5&gt;min_number),
 ((Cases!S6-Cases!S5)/Cases!S5)/(Cases!$B6-Cases!$B5),
 "")</f>
         <v/>
       </c>
-      <c r="S6" s="40">
+      <c r="S2" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!T5),Cases!T5&gt;min_number),
 ((Cases!T6-Cases!T5)/Cases!T5)/(Cases!$B6-Cases!$B5),
 "")</f>
-        <v>0.24840764331210191</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A7" s="47">
-        <f>Table5[[#This Row],['#]]</f>
-        <v>5</v>
-      </c>
-      <c r="B7" s="38">
-        <f>Table5[[#This Row],[Date]]</f>
-        <v>43894.625</v>
-      </c>
-      <c r="C7" s="39">
+        <v/>
+      </c>
+      <c r="U2" s="37">
+        <v>10</v>
+      </c>
+      <c r="V2" s="37" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" s="47">
+        <f>Cases!A7</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="38">
+        <f>Cases!B7</f>
+        <v>43890.416666666664</v>
+      </c>
+      <c r="C3" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!D6),Cases!D6&gt;min_number),
 ((Cases!D7-Cases!D6)/Cases!D6)/(Cases!$B7-Cases!$B6),
 "")</f>
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="D7" s="39">
+        <v/>
+      </c>
+      <c r="D3" s="39">
         <f>IF(AND(ISNUMBER(Cases!E6),Cases!E6&gt;min_number),
 ((Cases!E7-Cases!E6)/Cases!E6)/(Cases!$B7-Cases!$B6),
 "")</f>
-        <v>0.29729729729729731</v>
-      </c>
-      <c r="E7" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="E3" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!F6),Cases!F6&gt;min_number),
 ((Cases!F7-Cases!F6)/Cases!F6)/(Cases!$B7-Cases!$B6),
 "")</f>
         <v/>
       </c>
-      <c r="F7" s="39" t="str">
+      <c r="F3" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!G6),Cases!G6&gt;min_number),
 ((Cases!G7-Cases!G6)/Cases!G6)/(Cases!$B7-Cases!$B6),
 "")</f>
         <v/>
       </c>
-      <c r="G7" s="39" t="str">
+      <c r="G3" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!H6),Cases!H6&gt;min_number),
 ((Cases!H7-Cases!H6)/Cases!H6)/(Cases!$B7-Cases!$B6),
 "")</f>
         <v/>
       </c>
-      <c r="H7" s="39" t="str">
+      <c r="H3" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!I6),Cases!I6&gt;min_number),
 ((Cases!I7-Cases!I6)/Cases!I6)/(Cases!$B7-Cases!$B6),
 "")</f>
         <v/>
       </c>
-      <c r="I7" s="39">
+      <c r="I3" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!J6),Cases!J6&gt;min_number),
 ((Cases!J7-Cases!J6)/Cases!J6)/(Cases!$B7-Cases!$B6),
 "")</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="39" t="str">
+        <v/>
+      </c>
+      <c r="J3" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!K6),Cases!K6&gt;min_number),
 ((Cases!K7-Cases!K6)/Cases!K6)/(Cases!$B7-Cases!$B6),
 "")</f>
         <v/>
       </c>
-      <c r="K7" s="39" t="str">
+      <c r="K3" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!L6),Cases!L6&gt;min_number),
 ((Cases!L7-Cases!L6)/Cases!L6)/(Cases!$B7-Cases!$B6),
 "")</f>
         <v/>
       </c>
-      <c r="L7" s="39">
+      <c r="L3" s="39">
         <f>IF(AND(ISNUMBER(Cases!M6),Cases!M6&gt;min_number),
 ((Cases!M7-Cases!M6)/Cases!M6)/(Cases!$B7-Cases!$B6),
 "")</f>
-        <v>0.11650485436893204</v>
-      </c>
-      <c r="M7" s="39" t="str">
+        <v>0.2</v>
+      </c>
+      <c r="M3" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!N6),Cases!N6&gt;min_number),
 ((Cases!N7-Cases!N6)/Cases!N6)/(Cases!$B7-Cases!$B6),
 "")</f>
         <v/>
       </c>
-      <c r="N7" s="39" t="str">
+      <c r="N3" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!O6),Cases!O6&gt;min_number),
 ((Cases!O7-Cases!O6)/Cases!O6)/(Cases!$B7-Cases!$B6),
 "")</f>
         <v/>
       </c>
-      <c r="O7" s="39" t="str">
+      <c r="O3" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!P6),Cases!P6&gt;min_number),
 ((Cases!P7-Cases!P6)/Cases!P6)/(Cases!$B7-Cases!$B6),
 "")</f>
         <v/>
       </c>
-      <c r="P7" s="39" t="str">
+      <c r="P3" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!Q6),Cases!Q6&gt;min_number),
 ((Cases!Q7-Cases!Q6)/Cases!Q6)/(Cases!$B7-Cases!$B6),
 "")</f>
         <v/>
       </c>
-      <c r="Q7" s="39" t="str">
+      <c r="Q3" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!R6),Cases!R6&gt;min_number),
 ((Cases!R7-Cases!R6)/Cases!R6)/(Cases!$B7-Cases!$B6),
 "")</f>
         <v/>
       </c>
-      <c r="R7" s="39" t="str">
+      <c r="R3" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!S6),Cases!S6&gt;min_number),
 ((Cases!S7-Cases!S6)/Cases!S6)/(Cases!$B7-Cases!$B6),
 "")</f>
         <v/>
       </c>
-      <c r="S7" s="40">
+      <c r="S3" s="40">
         <f>IF(AND(ISNUMBER(Cases!T6),Cases!T6&gt;min_number),
 ((Cases!T7-Cases!T6)/Cases!T6)/(Cases!$B7-Cases!$B6),
 "")</f>
-        <v>0.33673469387755101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A8" s="47">
-        <f>Table5[[#This Row],['#]]</f>
-        <v>6</v>
-      </c>
-      <c r="B8" s="38">
-        <f>Table5[[#This Row],[Date]]</f>
-        <v>43895.625</v>
-      </c>
-      <c r="C8" s="39">
+        <v>0.24528301886792453</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="47">
+        <f>Cases!A8</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="38">
+        <f>Cases!B8</f>
+        <v>43891.625</v>
+      </c>
+      <c r="C4" s="39">
         <f>IF(AND(ISNUMBER(Cases!D7),Cases!D7&gt;min_number),
 ((Cases!D8-Cases!D7)/Cases!D7)/(Cases!$B8-Cases!$B7),
 "")</f>
-        <v>0.46</v>
-      </c>
-      <c r="D8" s="39">
+        <v>5.9113300492492186E-2</v>
+      </c>
+      <c r="D4" s="39">
         <f>IF(AND(ISNUMBER(Cases!E7),Cases!E7&gt;min_number),
 ((Cases!E8-Cases!E7)/Cases!E7)/(Cases!$B8-Cases!$B7),
 "")</f>
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="E8" s="39" t="str">
+        <v>0.44137931034394168</v>
+      </c>
+      <c r="E4" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!F7),Cases!F7&gt;min_number),
 ((Cases!F8-Cases!F7)/Cases!F7)/(Cases!$B8-Cases!$B7),
 "")</f>
         <v/>
       </c>
-      <c r="F8" s="39" t="str">
+      <c r="F4" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!G7),Cases!G7&gt;min_number),
 ((Cases!G8-Cases!G7)/Cases!G7)/(Cases!$B8-Cases!$B7),
 "")</f>
         <v/>
       </c>
-      <c r="G8" s="39" t="str">
+      <c r="G4" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!H7),Cases!H7&gt;min_number),
 ((Cases!H8-Cases!H7)/Cases!H7)/(Cases!$B8-Cases!$B7),
 "")</f>
         <v/>
       </c>
-      <c r="H8" s="39" t="str">
+      <c r="H4" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!I7),Cases!I7&gt;min_number),
 ((Cases!I8-Cases!I7)/Cases!I7)/(Cases!$B8-Cases!$B7),
 "")</f>
         <v/>
       </c>
-      <c r="I8" s="39">
+      <c r="I4" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!J7),Cases!J7&gt;min_number),
 ((Cases!J8-Cases!J7)/Cases!J7)/(Cases!$B8-Cases!$B7),
 "")</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="J8" s="39" t="str">
+        <v/>
+      </c>
+      <c r="J4" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!K7),Cases!K7&gt;min_number),
 ((Cases!K8-Cases!K7)/Cases!K7)/(Cases!$B8-Cases!$B7),
 "")</f>
         <v/>
       </c>
-      <c r="K8" s="39" t="str">
+      <c r="K4" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!L7),Cases!L7&gt;min_number),
 ((Cases!L8-Cases!L7)/Cases!L7)/(Cases!$B8-Cases!$B7),
 "")</f>
         <v/>
       </c>
-      <c r="L8" s="39">
+      <c r="L4" s="39">
         <f>IF(AND(ISNUMBER(Cases!M7),Cases!M7&gt;min_number),
 ((Cases!M8-Cases!M7)/Cases!M7)/(Cases!$B8-Cases!$B7),
 "")</f>
-        <v>0.57391304347826089</v>
-      </c>
-      <c r="M8" s="39" t="str">
+        <v>1.2137931034458396</v>
+      </c>
+      <c r="M4" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!N7),Cases!N7&gt;min_number),
 ((Cases!N8-Cases!N7)/Cases!N7)/(Cases!$B8-Cases!$B7),
 "")</f>
         <v/>
       </c>
-      <c r="N8" s="39" t="str">
+      <c r="N4" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!O7),Cases!O7&gt;min_number),
 ((Cases!O8-Cases!O7)/Cases!O7)/(Cases!$B8-Cases!$B7),
 "")</f>
         <v/>
       </c>
-      <c r="O8" s="39" t="str">
+      <c r="O4" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!P7),Cases!P7&gt;min_number),
 ((Cases!P8-Cases!P7)/Cases!P7)/(Cases!$B8-Cases!$B7),
 "")</f>
         <v/>
       </c>
-      <c r="P8" s="39" t="str">
+      <c r="P4" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!Q7),Cases!Q7&gt;min_number),
 ((Cases!Q8-Cases!Q7)/Cases!Q7)/(Cases!$B8-Cases!$B7),
 "")</f>
         <v/>
       </c>
-      <c r="Q8" s="39" t="str">
+      <c r="Q4" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!R7),Cases!R7&gt;min_number),
 ((Cases!R8-Cases!R7)/Cases!R7)/(Cases!$B8-Cases!$B7),
 "")</f>
         <v/>
       </c>
-      <c r="R8" s="39" t="str">
+      <c r="R4" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!S7),Cases!S7&gt;min_number),
 ((Cases!S8-Cases!S7)/Cases!S7)/(Cases!$B8-Cases!$B7),
 "")</f>
         <v/>
       </c>
-      <c r="S8" s="40">
+      <c r="S4" s="40">
         <f>IF(AND(ISNUMBER(Cases!T7),Cases!T7&gt;min_number),
 ((Cases!T8-Cases!T7)/Cases!T7)/(Cases!$B8-Cases!$B7),
 "")</f>
-        <v>0.52671755725190839</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A9" s="47">
-        <f>Table5[[#This Row],['#]]</f>
-        <v>7</v>
-      </c>
-      <c r="B9" s="38">
-        <f>Table5[[#This Row],[Date]]</f>
-        <v>43896.625</v>
-      </c>
-      <c r="C9" s="39">
+        <v>0.78996865203603195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="47">
+        <f>Cases!A9</f>
+        <v>3</v>
+      </c>
+      <c r="B5" s="38">
+        <f>Cases!B9</f>
+        <v>43892.625</v>
+      </c>
+      <c r="C5" s="39">
         <f>IF(AND(ISNUMBER(Cases!D8),Cases!D8&gt;min_number),
 ((Cases!D9-Cases!D8)/Cases!D8)/(Cases!$B9-Cases!$B8),
 "")</f>
-        <v>0.31506849315068491</v>
-      </c>
-      <c r="D9" s="39">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D5" s="39">
         <f>IF(AND(ISNUMBER(Cases!E8),Cases!E8&gt;min_number),
 ((Cases!E9-Cases!E8)/Cases!E8)/(Cases!$B9-Cases!$B8),
 "")</f>
-        <v>0.67142857142857137</v>
-      </c>
-      <c r="E9" s="39">
+        <v>0.13043478260869565</v>
+      </c>
+      <c r="E5" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!F8),Cases!F8&gt;min_number),
 ((Cases!F9-Cases!F8)/Cases!F8)/(Cases!$B9-Cases!$B8),
 "")</f>
-        <v>0.46153846153846156</v>
-      </c>
-      <c r="F9" s="39" t="str">
+        <v/>
+      </c>
+      <c r="F5" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!G8),Cases!G8&gt;min_number),
 ((Cases!G9-Cases!G8)/Cases!G8)/(Cases!$B9-Cases!$B8),
 "")</f>
         <v/>
       </c>
-      <c r="G9" s="39" t="str">
+      <c r="G5" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!H8),Cases!H8&gt;min_number),
 ((Cases!H9-Cases!H8)/Cases!H8)/(Cases!$B9-Cases!$B8),
 "")</f>
         <v/>
       </c>
-      <c r="H9" s="39" t="str">
+      <c r="H5" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!I8),Cases!I8&gt;min_number),
 ((Cases!I9-Cases!I8)/Cases!I8)/(Cases!$B9-Cases!$B8),
 "")</f>
         <v/>
       </c>
-      <c r="I9" s="39">
+      <c r="I5" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!J8),Cases!J8&gt;min_number),
 ((Cases!J9-Cases!J8)/Cases!J8)/(Cases!$B9-Cases!$B8),
 "")</f>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="J9" s="39" t="str">
+        <v/>
+      </c>
+      <c r="J5" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!K8),Cases!K8&gt;min_number),
 ((Cases!K9-Cases!K8)/Cases!K8)/(Cases!$B9-Cases!$B8),
 "")</f>
         <v/>
       </c>
-      <c r="K9" s="39">
+      <c r="K5" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!L8),Cases!L8&gt;min_number),
 ((Cases!L9-Cases!L8)/Cases!L8)/(Cases!$B9-Cases!$B8),
 "")</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="39">
+        <v/>
+      </c>
+      <c r="L5" s="39">
         <f>IF(AND(ISNUMBER(Cases!M8),Cases!M8&gt;min_number),
 ((Cases!M9-Cases!M8)/Cases!M8)/(Cases!$B9-Cases!$B8),
 "")</f>
-        <v>0.81767955801104975</v>
-      </c>
-      <c r="M9" s="39" t="str">
+        <v>0.21621621621621623</v>
+      </c>
+      <c r="M5" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!N8),Cases!N8&gt;min_number),
 ((Cases!N9-Cases!N8)/Cases!N8)/(Cases!$B9-Cases!$B8),
 "")</f>
         <v/>
       </c>
-      <c r="N9" s="39" t="str">
+      <c r="N5" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!O8),Cases!O8&gt;min_number),
 ((Cases!O9-Cases!O8)/Cases!O8)/(Cases!$B9-Cases!$B8),
 "")</f>
         <v/>
       </c>
-      <c r="O9" s="39" t="str">
+      <c r="O5" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!P8),Cases!P8&gt;min_number),
 ((Cases!P9-Cases!P8)/Cases!P8)/(Cases!$B9-Cases!$B8),
 "")</f>
         <v/>
       </c>
-      <c r="P9" s="39" t="str">
+      <c r="P5" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!Q8),Cases!Q8&gt;min_number),
 ((Cases!Q9-Cases!Q8)/Cases!Q8)/(Cases!$B9-Cases!$B8),
 "")</f>
         <v/>
       </c>
-      <c r="Q9" s="39" t="str">
+      <c r="Q5" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!R8),Cases!R8&gt;min_number),
 ((Cases!R9-Cases!R8)/Cases!R8)/(Cases!$B9-Cases!$B8),
 "")</f>
         <v/>
       </c>
-      <c r="R9" s="39" t="str">
+      <c r="R5" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!S8),Cases!S8&gt;min_number),
 ((Cases!S9-Cases!S8)/Cases!S8)/(Cases!$B9-Cases!$B8),
 "")</f>
         <v/>
       </c>
-      <c r="S9" s="40">
+      <c r="S5" s="40">
         <f>IF(AND(ISNUMBER(Cases!T8),Cases!T8&gt;min_number),
 ((Cases!T9-Cases!T8)/Cases!T8)/(Cases!$B9-Cases!$B8),
 "")</f>
-        <v>0.59750000000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A10" s="47">
-        <f>Table5[[#This Row],['#]]</f>
-        <v>8</v>
-      </c>
-      <c r="B10" s="38">
-        <f>Table5[[#This Row],[Date]]</f>
-        <v>43897.625</v>
-      </c>
-      <c r="C10" s="39">
+        <v>0.21705426356589147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" s="47">
+        <f>Cases!A10</f>
+        <v>4</v>
+      </c>
+      <c r="B6" s="38">
+        <f>Cases!B10</f>
+        <v>43893.625</v>
+      </c>
+      <c r="C6" s="39">
         <f>IF(AND(ISNUMBER(Cases!D9),Cases!D9&gt;min_number),
 ((Cases!D10-Cases!D9)/Cases!D9)/(Cases!$B10-Cases!$B9),
 "")</f>
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="D10" s="39">
+        <v>0.4</v>
+      </c>
+      <c r="D6" s="39">
         <f>IF(AND(ISNUMBER(Cases!E9),Cases!E9&gt;min_number),
 ((Cases!E10-Cases!E9)/Cases!E9)/(Cases!$B10-Cases!$B9),
 "")</f>
-        <v>0.14529914529914531</v>
-      </c>
-      <c r="E10" s="39">
+        <v>0.42307692307692307</v>
+      </c>
+      <c r="E6" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!F9),Cases!F9&gt;min_number),
 ((Cases!F10-Cases!F9)/Cases!F9)/(Cases!$B10-Cases!$B9),
 "")</f>
-        <v>0.47368421052631576</v>
-      </c>
-      <c r="F10" s="39" t="str">
+        <v/>
+      </c>
+      <c r="F6" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!G9),Cases!G9&gt;min_number),
 ((Cases!G10-Cases!G9)/Cases!G9)/(Cases!$B10-Cases!$B9),
 "")</f>
         <v/>
       </c>
-      <c r="G10" s="39" t="str">
+      <c r="G6" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!H9),Cases!H9&gt;min_number),
 ((Cases!H10-Cases!H9)/Cases!H9)/(Cases!$B10-Cases!$B9),
 "")</f>
         <v/>
       </c>
-      <c r="H10" s="39">
+      <c r="H6" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!I9),Cases!I9&gt;min_number),
 ((Cases!I10-Cases!I9)/Cases!I9)/(Cases!$B10-Cases!$B9),
 "")</f>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I10" s="39">
+        <v/>
+      </c>
+      <c r="I6" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!J9),Cases!J9&gt;min_number),
 ((Cases!J10-Cases!J9)/Cases!J9)/(Cases!$B10-Cases!$B9),
 "")</f>
-        <v>6.25E-2</v>
-      </c>
-      <c r="J10" s="39" t="str">
+        <v/>
+      </c>
+      <c r="J6" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!K9),Cases!K9&gt;min_number),
 ((Cases!K10-Cases!K9)/Cases!K9)/(Cases!$B10-Cases!$B9),
 "")</f>
         <v/>
       </c>
-      <c r="K10" s="39">
+      <c r="K6" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!L9),Cases!L9&gt;min_number),
 ((Cases!L10-Cases!L9)/Cases!L9)/(Cases!$B10-Cases!$B9),
 "")</f>
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="L10" s="39">
+        <v/>
+      </c>
+      <c r="L6" s="39">
         <f>IF(AND(ISNUMBER(Cases!M9),Cases!M9&gt;min_number),
 ((Cases!M10-Cases!M9)/Cases!M9)/(Cases!$B10-Cases!$B9),
 "")</f>
-        <v>0.1337386018237082</v>
-      </c>
-      <c r="M10" s="39" t="str">
+        <v>0.14444444444444443</v>
+      </c>
+      <c r="M6" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!N9),Cases!N9&gt;min_number),
 ((Cases!N10-Cases!N9)/Cases!N9)/(Cases!$B10-Cases!$B9),
 "")</f>
         <v/>
       </c>
-      <c r="N10" s="39" t="str">
+      <c r="N6" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!O9),Cases!O9&gt;min_number),
 ((Cases!O10-Cases!O9)/Cases!O9)/(Cases!$B10-Cases!$B9),
 "")</f>
         <v/>
       </c>
-      <c r="O10" s="39" t="str">
+      <c r="O6" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!P9),Cases!P9&gt;min_number),
 ((Cases!P10-Cases!P9)/Cases!P9)/(Cases!$B10-Cases!$B9),
 "")</f>
         <v/>
       </c>
-      <c r="P10" s="39" t="str">
+      <c r="P6" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!Q9),Cases!Q9&gt;min_number),
 ((Cases!Q10-Cases!Q9)/Cases!Q9)/(Cases!$B10-Cases!$B9),
 "")</f>
         <v/>
       </c>
-      <c r="Q10" s="39" t="str">
+      <c r="Q6" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!R9),Cases!R9&gt;min_number),
 ((Cases!R10-Cases!R9)/Cases!R9)/(Cases!$B10-Cases!$B9),
 "")</f>
         <v/>
       </c>
-      <c r="R10" s="39" t="str">
+      <c r="R6" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!S9),Cases!S9&gt;min_number),
 ((Cases!S10-Cases!S9)/Cases!S9)/(Cases!$B10-Cases!$B9),
 "")</f>
         <v/>
       </c>
-      <c r="S10" s="40">
+      <c r="S6" s="40">
         <f>IF(AND(ISNUMBER(Cases!T9),Cases!T9&gt;min_number),
 ((Cases!T10-Cases!T9)/Cases!T9)/(Cases!$B10-Cases!$B9),
 "")</f>
-        <v>0.24413145539906103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A11" s="47">
-        <f>Table5[[#This Row],['#]]</f>
-        <v>9</v>
-      </c>
-      <c r="B11" s="38">
-        <f>Table5[[#This Row],[Date]]</f>
-        <v>43898.625</v>
-      </c>
-      <c r="C11" s="39">
+        <v>0.24840764331210191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" s="47">
+        <f>Cases!A11</f>
+        <v>5</v>
+      </c>
+      <c r="B7" s="38">
+        <f>Cases!B11</f>
+        <v>43894.625</v>
+      </c>
+      <c r="C7" s="39">
         <f>IF(AND(ISNUMBER(Cases!D10),Cases!D10&gt;min_number),
 ((Cases!D11-Cases!D10)/Cases!D10)/(Cases!$B11-Cases!$B10),
 "")</f>
-        <v>7.0588235294117646E-2</v>
-      </c>
-      <c r="D11" s="39">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="D7" s="39">
         <f>IF(AND(ISNUMBER(Cases!E10),Cases!E10&gt;min_number),
 ((Cases!E11-Cases!E10)/Cases!E10)/(Cases!$B11-Cases!$B10),
 "")</f>
-        <v>0.28358208955223879</v>
-      </c>
-      <c r="E11" s="39">
+        <v>0.29729729729729731</v>
+      </c>
+      <c r="E7" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!F10),Cases!F10&gt;min_number),
 ((Cases!F11-Cases!F10)/Cases!F10)/(Cases!$B11-Cases!$B10),
 "")</f>
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="F11" s="39" t="str">
+        <v/>
+      </c>
+      <c r="F7" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!G10),Cases!G10&gt;min_number),
 ((Cases!G11-Cases!G10)/Cases!G10)/(Cases!$B11-Cases!$B10),
 "")</f>
         <v/>
       </c>
-      <c r="G11" s="39" t="str">
+      <c r="G7" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!H10),Cases!H10&gt;min_number),
 ((Cases!H11-Cases!H10)/Cases!H10)/(Cases!$B11-Cases!$B10),
 "")</f>
         <v/>
       </c>
-      <c r="H11" s="39">
+      <c r="H7" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!I10),Cases!I10&gt;min_number),
 ((Cases!I11-Cases!I10)/Cases!I10)/(Cases!$B11-Cases!$B10),
 "")</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="39">
+        <v/>
+      </c>
+      <c r="I7" s="39">
         <f>IF(AND(ISNUMBER(Cases!J10),Cases!J10&gt;min_number),
 ((Cases!J11-Cases!J10)/Cases!J10)/(Cases!$B11-Cases!$B10),
 "")</f>
-        <v>0.11764705882352941</v>
-      </c>
-      <c r="J11" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="J7" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!K10),Cases!K10&gt;min_number),
 ((Cases!K11-Cases!K10)/Cases!K10)/(Cases!$B11-Cases!$B10),
 "")</f>
         <v/>
       </c>
-      <c r="K11" s="39">
+      <c r="K7" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!L10),Cases!L10&gt;min_number),
 ((Cases!L11-Cases!L10)/Cases!L10)/(Cases!$B11-Cases!$B10),
 "")</f>
-        <v>0.10526315789473684</v>
-      </c>
-      <c r="L11" s="39">
+        <v/>
+      </c>
+      <c r="L7" s="39">
         <f>IF(AND(ISNUMBER(Cases!M10),Cases!M10&gt;min_number),
 ((Cases!M11-Cases!M10)/Cases!M10)/(Cases!$B11-Cases!$B10),
 "")</f>
-        <v>6.7024128686327081E-2</v>
-      </c>
-      <c r="M11" s="39">
+        <v>0.11650485436893204</v>
+      </c>
+      <c r="M7" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!N10),Cases!N10&gt;min_number),
 ((Cases!N11-Cases!N10)/Cases!N10)/(Cases!$B11-Cases!$B10),
 "")</f>
-        <v>0.46153846153846156</v>
-      </c>
-      <c r="N11" s="39" t="str">
+        <v/>
+      </c>
+      <c r="N7" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!O10),Cases!O10&gt;min_number),
 ((Cases!O11-Cases!O10)/Cases!O10)/(Cases!$B11-Cases!$B10),
 "")</f>
         <v/>
       </c>
-      <c r="O11" s="39" t="str">
+      <c r="O7" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!P10),Cases!P10&gt;min_number),
 ((Cases!P11-Cases!P10)/Cases!P10)/(Cases!$B11-Cases!$B10),
 "")</f>
         <v/>
       </c>
-      <c r="P11" s="39" t="str">
+      <c r="P7" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!Q10),Cases!Q10&gt;min_number),
 ((Cases!Q11-Cases!Q10)/Cases!Q10)/(Cases!$B11-Cases!$B10),
 "")</f>
         <v/>
       </c>
-      <c r="Q11" s="39" t="str">
+      <c r="Q7" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!R10),Cases!R10&gt;min_number),
 ((Cases!R11-Cases!R10)/Cases!R10)/(Cases!$B11-Cases!$B10),
 "")</f>
         <v/>
       </c>
-      <c r="R11" s="39" t="str">
+      <c r="R7" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!S10),Cases!S10&gt;min_number),
 ((Cases!S11-Cases!S10)/Cases!S10)/(Cases!$B11-Cases!$B10),
 "")</f>
         <v/>
       </c>
-      <c r="S11" s="40">
+      <c r="S7" s="40">
         <f>IF(AND(ISNUMBER(Cases!T10),Cases!T10&gt;min_number),
 ((Cases!T11-Cases!T10)/Cases!T10)/(Cases!$B11-Cases!$B10),
 "")</f>
-        <v>0.13459119496855346</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A12" s="47">
-        <f>Table5[[#This Row],['#]]</f>
-        <v>10</v>
-      </c>
-      <c r="B12" s="38">
-        <f>Table5[[#This Row],[Date]]</f>
-        <v>43899.625</v>
-      </c>
-      <c r="C12" s="39">
+        <v>0.33673469387755101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" s="47">
+        <f>Cases!A12</f>
+        <v>6</v>
+      </c>
+      <c r="B8" s="38">
+        <f>Cases!B12</f>
+        <v>43895.625</v>
+      </c>
+      <c r="C8" s="39">
         <f>IF(AND(ISNUMBER(Cases!D11),Cases!D11&gt;min_number),
 ((Cases!D12-Cases!D11)/Cases!D11)/(Cases!$B12-Cases!$B11),
 "")</f>
-        <v>0.12087912087912088</v>
-      </c>
-      <c r="D12" s="39">
+        <v>0.46</v>
+      </c>
+      <c r="D8" s="39">
         <f>IF(AND(ISNUMBER(Cases!E11),Cases!E11&gt;min_number),
 ((Cases!E12-Cases!E11)/Cases!E11)/(Cases!$B12-Cases!$B11),
 "")</f>
-        <v>0.48837209302325579</v>
-      </c>
-      <c r="E12" s="39">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E8" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!F11),Cases!F11&gt;min_number),
 ((Cases!F12-Cases!F11)/Cases!F11)/(Cases!$B12-Cases!$B11),
 "")</f>
-        <v>0.2</v>
-      </c>
-      <c r="F12" s="39" t="str">
+        <v/>
+      </c>
+      <c r="F8" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!G11),Cases!G11&gt;min_number),
 ((Cases!G12-Cases!G11)/Cases!G11)/(Cases!$B12-Cases!$B11),
 "")</f>
         <v/>
       </c>
-      <c r="G12" s="39" t="str">
+      <c r="G8" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!H11),Cases!H11&gt;min_number),
 ((Cases!H12-Cases!H11)/Cases!H11)/(Cases!$B12-Cases!$B11),
 "")</f>
         <v/>
       </c>
-      <c r="H12" s="39">
+      <c r="H8" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!I11),Cases!I11&gt;min_number),
 ((Cases!I12-Cases!I11)/Cases!I11)/(Cases!$B12-Cases!$B11),
 "")</f>
-        <v>0.30769230769230771</v>
-      </c>
-      <c r="I12" s="39">
+        <v/>
+      </c>
+      <c r="I8" s="39">
         <f>IF(AND(ISNUMBER(Cases!J11),Cases!J11&gt;min_number),
 ((Cases!J12-Cases!J11)/Cases!J11)/(Cases!$B12-Cases!$B11),
 "")</f>
-        <v>0.36842105263157893</v>
-      </c>
-      <c r="J12" s="39" t="str">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="J8" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!K11),Cases!K11&gt;min_number),
 ((Cases!K12-Cases!K11)/Cases!K11)/(Cases!$B12-Cases!$B11),
 "")</f>
         <v/>
       </c>
-      <c r="K12" s="39">
+      <c r="K8" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!L11),Cases!L11&gt;min_number),
 ((Cases!L12-Cases!L11)/Cases!L11)/(Cases!$B12-Cases!$B11),
 "")</f>
-        <v>0.80952380952380953</v>
-      </c>
-      <c r="L12" s="39">
+        <v/>
+      </c>
+      <c r="L8" s="39">
         <f>IF(AND(ISNUMBER(Cases!M11),Cases!M11&gt;min_number),
 ((Cases!M12-Cases!M11)/Cases!M11)/(Cases!$B12-Cases!$B11),
 "")</f>
-        <v>0.21608040201005024</v>
-      </c>
-      <c r="M12" s="39">
+        <v>0.57391304347826089</v>
+      </c>
+      <c r="M8" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!N11),Cases!N11&gt;min_number),
 ((Cases!N12-Cases!N11)/Cases!N11)/(Cases!$B12-Cases!$B11),
 "")</f>
-        <v>-0.10526315789473684</v>
-      </c>
-      <c r="N12" s="39" t="str">
+        <v/>
+      </c>
+      <c r="N8" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!O11),Cases!O11&gt;min_number),
 ((Cases!O12-Cases!O11)/Cases!O11)/(Cases!$B12-Cases!$B11),
 "")</f>
         <v/>
       </c>
-      <c r="O12" s="39" t="str">
+      <c r="O8" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!P11),Cases!P11&gt;min_number),
 ((Cases!P12-Cases!P11)/Cases!P11)/(Cases!$B12-Cases!$B11),
 "")</f>
         <v/>
       </c>
-      <c r="P12" s="39" t="str">
+      <c r="P8" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!Q11),Cases!Q11&gt;min_number),
 ((Cases!Q12-Cases!Q11)/Cases!Q11)/(Cases!$B12-Cases!$B11),
 "")</f>
         <v/>
       </c>
-      <c r="Q12" s="39" t="str">
+      <c r="Q8" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!R11),Cases!R11&gt;min_number),
 ((Cases!R12-Cases!R11)/Cases!R11)/(Cases!$B12-Cases!$B11),
 "")</f>
         <v/>
       </c>
-      <c r="R12" s="39" t="str">
+      <c r="R8" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!S11),Cases!S11&gt;min_number),
 ((Cases!S12-Cases!S11)/Cases!S11)/(Cases!$B12-Cases!$B11),
 "")</f>
         <v/>
       </c>
-      <c r="S12" s="40">
+      <c r="S8" s="40">
         <f>IF(AND(ISNUMBER(Cases!T11),Cases!T11&gt;min_number),
 ((Cases!T12-Cases!T11)/Cases!T11)/(Cases!$B12-Cases!$B11),
 "")</f>
-        <v>0.26274944567627495</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A13" s="47">
-        <f>Table5[[#This Row],['#]]</f>
-        <v>11</v>
-      </c>
-      <c r="B13" s="38">
-        <f>Table5[[#This Row],[Date]]</f>
-        <v>43900.625</v>
-      </c>
-      <c r="C13" s="39">
+        <v>0.52671755725190839</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" s="47">
+        <f>Cases!A13</f>
+        <v>7</v>
+      </c>
+      <c r="B9" s="38">
+        <f>Cases!B13</f>
+        <v>43896.625</v>
+      </c>
+      <c r="C9" s="39">
         <f>IF(AND(ISNUMBER(Cases!D12),Cases!D12&gt;min_number),
 ((Cases!D13-Cases!D12)/Cases!D12)/(Cases!$B13-Cases!$B12),
 "")</f>
-        <v>0.16176470588235295</v>
-      </c>
-      <c r="D13" s="39">
+        <v>0.31506849315068491</v>
+      </c>
+      <c r="D9" s="39">
         <f>IF(AND(ISNUMBER(Cases!E12),Cases!E12&gt;min_number),
 ((Cases!E13-Cases!E12)/Cases!E12)/(Cases!$B13-Cases!$B12),
 "")</f>
-        <v>0.2265625</v>
-      </c>
-      <c r="E13" s="39">
+        <v>0.67142857142857137</v>
+      </c>
+      <c r="E9" s="39">
         <f>IF(AND(ISNUMBER(Cases!F12),Cases!F12&gt;min_number),
 ((Cases!F13-Cases!F12)/Cases!F12)/(Cases!$B13-Cases!$B12),
 "")</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="39" t="str">
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="F9" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!G12),Cases!G12&gt;min_number),
 ((Cases!G13-Cases!G12)/Cases!G12)/(Cases!$B13-Cases!$B12),
 "")</f>
         <v/>
       </c>
-      <c r="G13" s="39" t="str">
+      <c r="G9" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!H12),Cases!H12&gt;min_number),
 ((Cases!H13-Cases!H12)/Cases!H12)/(Cases!$B13-Cases!$B12),
 "")</f>
         <v/>
       </c>
-      <c r="H13" s="39">
+      <c r="H9" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!I12),Cases!I12&gt;min_number),
 ((Cases!I13-Cases!I12)/Cases!I12)/(Cases!$B13-Cases!$B12),
 "")</f>
-        <v>0.70588235294117652</v>
-      </c>
-      <c r="I13" s="39">
+        <v/>
+      </c>
+      <c r="I9" s="39">
         <f>IF(AND(ISNUMBER(Cases!J12),Cases!J12&gt;min_number),
 ((Cases!J13-Cases!J12)/Cases!J12)/(Cases!$B13-Cases!$B12),
 "")</f>
-        <v>0.34615384615384615</v>
-      </c>
-      <c r="J13" s="39" t="str">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="J9" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!K12),Cases!K12&gt;min_number),
 ((Cases!K13-Cases!K12)/Cases!K12)/(Cases!$B13-Cases!$B12),
 "")</f>
         <v/>
       </c>
-      <c r="K13" s="39">
+      <c r="K9" s="39">
         <f>IF(AND(ISNUMBER(Cases!L12),Cases!L12&gt;min_number),
 ((Cases!L13-Cases!L12)/Cases!L12)/(Cases!$B13-Cases!$B12),
 "")</f>
-        <v>0.28947368421052633</v>
-      </c>
-      <c r="L13" s="39">
+        <v>0</v>
+      </c>
+      <c r="L9" s="39">
         <f>IF(AND(ISNUMBER(Cases!M12),Cases!M12&gt;min_number),
 ((Cases!M13-Cases!M12)/Cases!M12)/(Cases!$B13-Cases!$B12),
 "")</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="39">
+        <v>0.81767955801104975</v>
+      </c>
+      <c r="M9" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!N12),Cases!N12&gt;min_number),
 ((Cases!N13-Cases!N12)/Cases!N12)/(Cases!$B13-Cases!$B12),
 "")</f>
-        <v>0.47058823529411764</v>
-      </c>
-      <c r="N13" s="39" t="str">
+        <v/>
+      </c>
+      <c r="N9" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!O12),Cases!O12&gt;min_number),
 ((Cases!O13-Cases!O12)/Cases!O12)/(Cases!$B13-Cases!$B12),
 "")</f>
         <v/>
       </c>
-      <c r="O13" s="39">
+      <c r="O9" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!P12),Cases!P12&gt;min_number),
 ((Cases!P13-Cases!P12)/Cases!P12)/(Cases!$B13-Cases!$B12),
 "")</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="P13" s="39" t="str">
+        <v/>
+      </c>
+      <c r="P9" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!Q12),Cases!Q12&gt;min_number),
 ((Cases!Q13-Cases!Q12)/Cases!Q12)/(Cases!$B13-Cases!$B12),
 "")</f>
         <v/>
       </c>
-      <c r="Q13" s="39" t="str">
+      <c r="Q9" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!R12),Cases!R12&gt;min_number),
 ((Cases!R13-Cases!R12)/Cases!R12)/(Cases!$B13-Cases!$B12),
 "")</f>
         <v/>
       </c>
-      <c r="R13" s="39" t="str">
+      <c r="R9" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!S12),Cases!S12&gt;min_number),
 ((Cases!S13-Cases!S12)/Cases!S12)/(Cases!$B13-Cases!$B12),
 "")</f>
         <v/>
       </c>
-      <c r="S13" s="40">
+      <c r="S9" s="40">
         <f>IF(AND(ISNUMBER(Cases!T12),Cases!T12&gt;min_number),
 ((Cases!T13-Cases!T12)/Cases!T12)/(Cases!$B13-Cases!$B12),
 "")</f>
-        <v>0.13784021071115013</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A14" s="47">
-        <f>Table5[[#This Row],['#]]</f>
-        <v>12</v>
-      </c>
-      <c r="B14" s="38">
-        <f>Table5[[#This Row],[Date]]</f>
-        <v>43901.625</v>
-      </c>
-      <c r="C14" s="39">
+        <v>0.59750000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" s="47">
+        <f>Cases!A14</f>
+        <v>8</v>
+      </c>
+      <c r="B10" s="38">
+        <f>Cases!B14</f>
+        <v>43897.625</v>
+      </c>
+      <c r="C10" s="39">
         <f>IF(AND(ISNUMBER(Cases!D13),Cases!D13&gt;min_number),
 ((Cases!D14-Cases!D13)/Cases!D13)/(Cases!$B14-Cases!$B13),
 "")</f>
-        <v>0.16877637130801687</v>
-      </c>
-      <c r="D14" s="39">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D10" s="39">
         <f>IF(AND(ISNUMBER(Cases!E13),Cases!E13&gt;min_number),
 ((Cases!E14-Cases!E13)/Cases!E13)/(Cases!$B14-Cases!$B13),
 "")</f>
-        <v>0.16560509554140126</v>
-      </c>
-      <c r="E14" s="39">
+        <v>0.14529914529914531</v>
+      </c>
+      <c r="E10" s="39">
         <f>IF(AND(ISNUMBER(Cases!F13),Cases!F13&gt;min_number),
 ((Cases!F14-Cases!F13)/Cases!F13)/(Cases!$B14-Cases!$B13),
 "")</f>
-        <v>0.875</v>
-      </c>
-      <c r="F14" s="39" t="str">
+        <v>0.47368421052631576</v>
+      </c>
+      <c r="F10" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!G13),Cases!G13&gt;min_number),
 ((Cases!G14-Cases!G13)/Cases!G13)/(Cases!$B14-Cases!$B13),
 "")</f>
         <v/>
       </c>
-      <c r="G14" s="39" t="str">
+      <c r="G10" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!H13),Cases!H13&gt;min_number),
 ((Cases!H14-Cases!H13)/Cases!H13)/(Cases!$B14-Cases!$B13),
 "")</f>
         <v/>
       </c>
-      <c r="H14" s="39">
+      <c r="H10" s="39">
         <f>IF(AND(ISNUMBER(Cases!I13),Cases!I13&gt;min_number),
 ((Cases!I14-Cases!I13)/Cases!I13)/(Cases!$B14-Cases!$B13),
 "")</f>
-        <v>0.65517241379310343</v>
-      </c>
-      <c r="I14" s="39">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I10" s="39">
         <f>IF(AND(ISNUMBER(Cases!J13),Cases!J13&gt;min_number),
 ((Cases!J14-Cases!J13)/Cases!J13)/(Cases!$B14-Cases!$B13),
 "")</f>
-        <v>0.37142857142857144</v>
-      </c>
-      <c r="J14" s="39">
+        <v>6.25E-2</v>
+      </c>
+      <c r="J10" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!K13),Cases!K13&gt;min_number),
 ((Cases!K14-Cases!K13)/Cases!K13)/(Cases!$B14-Cases!$B13),
 "")</f>
-        <v>0.30769230769230771</v>
-      </c>
-      <c r="K14" s="39">
+        <v/>
+      </c>
+      <c r="K10" s="39">
         <f>IF(AND(ISNUMBER(Cases!L13),Cases!L13&gt;min_number),
 ((Cases!L14-Cases!L13)/Cases!L13)/(Cases!$B14-Cases!$B13),
 "")</f>
-        <v>0.53061224489795922</v>
-      </c>
-      <c r="L14" s="39">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="L10" s="39">
         <f>IF(AND(ISNUMBER(Cases!M13),Cases!M13&gt;min_number),
 ((Cases!M14-Cases!M13)/Cases!M13)/(Cases!$B14-Cases!$B13),
 "")</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="39">
+        <v>0.1337386018237082</v>
+      </c>
+      <c r="M10" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!N13),Cases!N13&gt;min_number),
 ((Cases!N14-Cases!N13)/Cases!N13)/(Cases!$B14-Cases!$B13),
 "")</f>
-        <v>0</v>
-      </c>
-      <c r="N14" s="39" t="str">
+        <v/>
+      </c>
+      <c r="N10" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!O13),Cases!O13&gt;min_number),
 ((Cases!O14-Cases!O13)/Cases!O13)/(Cases!$B14-Cases!$B13),
 "")</f>
         <v/>
       </c>
-      <c r="O14" s="39">
+      <c r="O10" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!P13),Cases!P13&gt;min_number),
 ((Cases!P14-Cases!P13)/Cases!P13)/(Cases!$B14-Cases!$B13),
 "")</f>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="P14" s="39" t="str">
+        <v/>
+      </c>
+      <c r="P10" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!Q13),Cases!Q13&gt;min_number),
 ((Cases!Q14-Cases!Q13)/Cases!Q13)/(Cases!$B14-Cases!$B13),
 "")</f>
         <v/>
       </c>
-      <c r="Q14" s="39" t="str">
+      <c r="Q10" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!R13),Cases!R13&gt;min_number),
 ((Cases!R14-Cases!R13)/Cases!R13)/(Cases!$B14-Cases!$B13),
 "")</f>
         <v/>
       </c>
-      <c r="R14" s="39" t="str">
+      <c r="R10" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!S13),Cases!S13&gt;min_number),
 ((Cases!S14-Cases!S13)/Cases!S13)/(Cases!$B14-Cases!$B13),
 "")</f>
         <v/>
       </c>
-      <c r="S14" s="40">
+      <c r="S10" s="40">
         <f>IF(AND(ISNUMBER(Cases!T13),Cases!T13&gt;min_number),
 ((Cases!T14-Cases!T13)/Cases!T13)/(Cases!$B14-Cases!$B13),
 "")</f>
-        <v>0.20910493827160495</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A15" s="63">
-        <f>Table5[[#This Row],['#]]</f>
-        <v>13</v>
-      </c>
-      <c r="B15" s="64">
-        <f>Table5[[#This Row],[Date]]</f>
-        <v>43902.625</v>
-      </c>
-      <c r="C15" s="65">
+        <v>0.24413145539906103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" s="47">
+        <f>Cases!A15</f>
+        <v>9</v>
+      </c>
+      <c r="B11" s="38">
+        <f>Cases!B15</f>
+        <v>43898.625</v>
+      </c>
+      <c r="C11" s="39">
         <f>IF(AND(ISNUMBER(Cases!D14),Cases!D14&gt;min_number),
 ((Cases!D15-Cases!D14)/Cases!D14)/(Cases!$B15-Cases!$B14),
 "")</f>
-        <v>0.63898916967509023</v>
-      </c>
-      <c r="D15" s="65">
+        <v>7.0588235294117646E-2</v>
+      </c>
+      <c r="D11" s="39">
         <f>IF(AND(ISNUMBER(Cases!E14),Cases!E14&gt;min_number),
 ((Cases!E15-Cases!E14)/Cases!E14)/(Cases!$B15-Cases!$B14),
 "")</f>
-        <v>0.36612021857923499</v>
-      </c>
-      <c r="E15" s="65">
+        <v>0.28358208955223879</v>
+      </c>
+      <c r="E11" s="39">
         <f>IF(AND(ISNUMBER(Cases!F14),Cases!F14&gt;min_number),
 ((Cases!F15-Cases!F14)/Cases!F14)/(Cases!$B15-Cases!$B14),
 "")</f>
-        <v>0.52222222222222225</v>
-      </c>
-      <c r="F15" s="65">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="F11" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!G14),Cases!G14&gt;min_number),
 ((Cases!G15-Cases!G14)/Cases!G14)/(Cases!$B15-Cases!$B14),
 "")</f>
-        <v>0.25</v>
-      </c>
-      <c r="G15" s="65">
+        <v/>
+      </c>
+      <c r="G11" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!H14),Cases!H14&gt;min_number),
 ((Cases!H15-Cases!H14)/Cases!H14)/(Cases!$B15-Cases!$B14),
 "")</f>
-        <v>0.80952380952380953</v>
-      </c>
-      <c r="H15" s="65">
+        <v/>
+      </c>
+      <c r="H11" s="39">
         <f>IF(AND(ISNUMBER(Cases!I14),Cases!I14&gt;min_number),
 ((Cases!I15-Cases!I14)/Cases!I14)/(Cases!$B15-Cases!$B14),
 "")</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="I15" s="65">
+        <v>0</v>
+      </c>
+      <c r="I11" s="39">
         <f>IF(AND(ISNUMBER(Cases!J14),Cases!J14&gt;min_number),
 ((Cases!J15-Cases!J14)/Cases!J14)/(Cases!$B15-Cases!$B14),
 "")</f>
-        <v>1.0625</v>
-      </c>
-      <c r="J15" s="65">
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="J11" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!K14),Cases!K14&gt;min_number),
 ((Cases!K15-Cases!K14)/Cases!K14)/(Cases!$B15-Cases!$B14),
 "")</f>
-        <v>0.35294117647058826</v>
-      </c>
-      <c r="K15" s="65">
+        <v/>
+      </c>
+      <c r="K11" s="39">
         <f>IF(AND(ISNUMBER(Cases!L14),Cases!L14&gt;min_number),
 ((Cases!L15-Cases!L14)/Cases!L14)/(Cases!$B15-Cases!$B14),
 "")</f>
-        <v>0.72</v>
-      </c>
-      <c r="L15" s="65">
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="L11" s="39">
         <f>IF(AND(ISNUMBER(Cases!M14),Cases!M14&gt;min_number),
 ((Cases!M15-Cases!M14)/Cases!M14)/(Cases!$B15-Cases!$B14),
 "")</f>
-        <v>0.42148760330578511</v>
-      </c>
-      <c r="M15" s="65">
+        <v>6.7024128686327081E-2</v>
+      </c>
+      <c r="M11" s="39">
         <f>IF(AND(ISNUMBER(Cases!N14),Cases!N14&gt;min_number),
 ((Cases!N15-Cases!N14)/Cases!N14)/(Cases!$B15-Cases!$B14),
 "")</f>
-        <v>1.08</v>
-      </c>
-      <c r="N15" s="65">
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="N11" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!O14),Cases!O14&gt;min_number),
 ((Cases!O15-Cases!O14)/Cases!O14)/(Cases!$B15-Cases!$B14),
 "")</f>
-        <v>0</v>
-      </c>
-      <c r="O15" s="65">
+        <v/>
+      </c>
+      <c r="O11" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!P14),Cases!P14&gt;min_number),
 ((Cases!P15-Cases!P14)/Cases!P14)/(Cases!$B15-Cases!$B14),
 "")</f>
-        <v>0.73076923076923073</v>
-      </c>
-      <c r="P15" s="65">
+        <v/>
+      </c>
+      <c r="P11" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!Q14),Cases!Q14&gt;min_number),
 ((Cases!Q15-Cases!Q14)/Cases!Q14)/(Cases!$B15-Cases!$B14),
 "")</f>
-        <v>0.8</v>
-      </c>
-      <c r="Q15" s="65">
+        <v/>
+      </c>
+      <c r="Q11" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!R14),Cases!R14&gt;min_number),
 ((Cases!R15-Cases!R14)/Cases!R14)/(Cases!$B15-Cases!$B14),
 "")</f>
-        <v>0.14814814814814814</v>
-      </c>
-      <c r="R15" s="65" t="str">
+        <v/>
+      </c>
+      <c r="R11" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!S14),Cases!S14&gt;min_number),
 ((Cases!S15-Cases!S14)/Cases!S14)/(Cases!$B15-Cases!$B14),
 "")</f>
         <v/>
       </c>
-      <c r="S15" s="66">
+      <c r="S11" s="40">
         <f>IF(AND(ISNUMBER(Cases!T14),Cases!T14&gt;min_number),
 ((Cases!T15-Cases!T14)/Cases!T14)/(Cases!$B15-Cases!$B14),
 "")</f>
-        <v>0.51180599872367583</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A16" s="46">
-        <f>Table5[[#This Row],['#]]</f>
-        <v>14</v>
-      </c>
-      <c r="B16" s="38">
-        <f>Table5[[#This Row],[Date]]</f>
-        <v>43903.625</v>
-      </c>
-      <c r="C16" s="39">
+        <v>0.13459119496855346</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" s="47">
+        <f>Cases!A16</f>
+        <v>10</v>
+      </c>
+      <c r="B12" s="38">
+        <f>Cases!B16</f>
+        <v>43899.625</v>
+      </c>
+      <c r="C12" s="39">
         <f>IF(AND(ISNUMBER(Cases!D15),Cases!D15&gt;min_number),
 ((Cases!D16-Cases!D15)/Cases!D15)/(Cases!$B16-Cases!$B15),
 "")</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="39">
+        <v>0.12087912087912088</v>
+      </c>
+      <c r="D12" s="39">
         <f>IF(AND(ISNUMBER(Cases!E15),Cases!E15&gt;min_number),
 ((Cases!E16-Cases!E15)/Cases!E15)/(Cases!$B16-Cases!$B15),
 "")</f>
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="E16" s="39">
+        <v>0.48837209302325579</v>
+      </c>
+      <c r="E12" s="39">
         <f>IF(AND(ISNUMBER(Cases!F15),Cases!F15&gt;min_number),
 ((Cases!F16-Cases!F15)/Cases!F15)/(Cases!$B16-Cases!$B15),
 "")</f>
-        <v>0.27007299270072993</v>
-      </c>
-      <c r="F16" s="39">
+        <v>0.2</v>
+      </c>
+      <c r="F12" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!G15),Cases!G15&gt;min_number),
 ((Cases!G16-Cases!G15)/Cases!G15)/(Cases!$B16-Cases!$B15),
 "")</f>
-        <v>0.46666666666666667</v>
-      </c>
-      <c r="G16" s="39">
+        <v/>
+      </c>
+      <c r="G12" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!H15),Cases!H15&gt;min_number),
 ((Cases!H16-Cases!H15)/Cases!H15)/(Cases!$B16-Cases!$B15),
 "")</f>
-        <v>0.10526315789473684</v>
-      </c>
-      <c r="H16" s="39">
+        <v/>
+      </c>
+      <c r="H12" s="39">
         <f>IF(AND(ISNUMBER(Cases!I15),Cases!I15&gt;min_number),
 ((Cases!I16-Cases!I15)/Cases!I15)/(Cases!$B16-Cases!$B15),
 "")</f>
-        <v>0.125</v>
-      </c>
-      <c r="I16" s="39">
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="I12" s="39">
         <f>IF(AND(ISNUMBER(Cases!J15),Cases!J15&gt;min_number),
 ((Cases!J16-Cases!J15)/Cases!J15)/(Cases!$B16-Cases!$B15),
 "")</f>
-        <v>0.49494949494949497</v>
-      </c>
-      <c r="J16" s="39">
+        <v>0.36842105263157893</v>
+      </c>
+      <c r="J12" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!K15),Cases!K15&gt;min_number),
 ((Cases!K16-Cases!K15)/Cases!K15)/(Cases!$B16-Cases!$B15),
 "")</f>
-        <v>0.43478260869565216</v>
-      </c>
-      <c r="K16" s="39">
+        <v/>
+      </c>
+      <c r="K12" s="39">
         <f>IF(AND(ISNUMBER(Cases!L15),Cases!L15&gt;min_number),
 ((Cases!L16-Cases!L15)/Cases!L15)/(Cases!$B16-Cases!$B15),
 "")</f>
-        <v>0.78294573643410847</v>
-      </c>
-      <c r="L16" s="39">
+        <v>0.80952380952380953</v>
+      </c>
+      <c r="L12" s="39">
         <f>IF(AND(ISNUMBER(Cases!M15),Cases!M15&gt;min_number),
 ((Cases!M16-Cases!M15)/Cases!M15)/(Cases!$B16-Cases!$B15),
 "")</f>
-        <v>0.36046511627906974</v>
-      </c>
-      <c r="M16" s="39">
+        <v>0.21608040201005024</v>
+      </c>
+      <c r="M12" s="39">
         <f>IF(AND(ISNUMBER(Cases!N15),Cases!N15&gt;min_number),
 ((Cases!N16-Cases!N15)/Cases!N15)/(Cases!$B16-Cases!$B15),
 "")</f>
-        <v>0.96153846153846156</v>
-      </c>
-      <c r="N16" s="39">
+        <v>-0.10526315789473684</v>
+      </c>
+      <c r="N12" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!O15),Cases!O15&gt;min_number),
 ((Cases!O16-Cases!O15)/Cases!O15)/(Cases!$B16-Cases!$B15),
 "")</f>
-        <v>1.8571428571428572</v>
-      </c>
-      <c r="O16" s="39">
+        <v/>
+      </c>
+      <c r="O12" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!P15),Cases!P15&gt;min_number),
 ((Cases!P16-Cases!P15)/Cases!P15)/(Cases!$B16-Cases!$B15),
 "")</f>
-        <v>0.84444444444444444</v>
-      </c>
-      <c r="P16" s="39">
+        <v/>
+      </c>
+      <c r="P12" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!Q15),Cases!Q15&gt;min_number),
 ((Cases!Q16-Cases!Q15)/Cases!Q15)/(Cases!$B16-Cases!$B15),
 "")</f>
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="Q16" s="39">
+        <v/>
+      </c>
+      <c r="Q12" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!R15),Cases!R15&gt;min_number),
 ((Cases!R16-Cases!R15)/Cases!R15)/(Cases!$B16-Cases!$B15),
 "")</f>
-        <v>0.54838709677419351</v>
-      </c>
-      <c r="R16" s="39">
+        <v/>
+      </c>
+      <c r="R12" s="39" t="str">
         <f>IF(AND(ISNUMBER(Cases!S15),Cases!S15&gt;min_number),
 ((Cases!S16-Cases!S15)/Cases!S15)/(Cases!$B16-Cases!$B15),
 "")</f>
-        <v>1.0714285714285714</v>
-      </c>
-      <c r="S16" s="39">
+        <v/>
+      </c>
+      <c r="S12" s="40">
         <f>IF(AND(ISNUMBER(Cases!T15),Cases!T15&gt;min_number),
 ((Cases!T16-Cases!T15)/Cases!T15)/(Cases!$B16-Cases!$B15),
+"")</f>
+        <v>0.26274944567627495</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" s="47">
+        <f>Cases!A17</f>
+        <v>11</v>
+      </c>
+      <c r="B13" s="38">
+        <f>Cases!B17</f>
+        <v>43900.625</v>
+      </c>
+      <c r="C13" s="39">
+        <f>IF(AND(ISNUMBER(Cases!D16),Cases!D16&gt;min_number),
+((Cases!D17-Cases!D16)/Cases!D16)/(Cases!$B17-Cases!$B16),
+"")</f>
+        <v>0.16176470588235295</v>
+      </c>
+      <c r="D13" s="39">
+        <f>IF(AND(ISNUMBER(Cases!E16),Cases!E16&gt;min_number),
+((Cases!E17-Cases!E16)/Cases!E16)/(Cases!$B17-Cases!$B16),
+"")</f>
+        <v>0.2265625</v>
+      </c>
+      <c r="E13" s="39">
+        <f>IF(AND(ISNUMBER(Cases!F16),Cases!F16&gt;min_number),
+((Cases!F17-Cases!F16)/Cases!F16)/(Cases!$B17-Cases!$B16),
+"")</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="39" t="str">
+        <f>IF(AND(ISNUMBER(Cases!G16),Cases!G16&gt;min_number),
+((Cases!G17-Cases!G16)/Cases!G16)/(Cases!$B17-Cases!$B16),
+"")</f>
+        <v/>
+      </c>
+      <c r="G13" s="39" t="str">
+        <f>IF(AND(ISNUMBER(Cases!H16),Cases!H16&gt;min_number),
+((Cases!H17-Cases!H16)/Cases!H16)/(Cases!$B17-Cases!$B16),
+"")</f>
+        <v/>
+      </c>
+      <c r="H13" s="39">
+        <f>IF(AND(ISNUMBER(Cases!I16),Cases!I16&gt;min_number),
+((Cases!I17-Cases!I16)/Cases!I16)/(Cases!$B17-Cases!$B16),
+"")</f>
+        <v>0.70588235294117652</v>
+      </c>
+      <c r="I13" s="39">
+        <f>IF(AND(ISNUMBER(Cases!J16),Cases!J16&gt;min_number),
+((Cases!J17-Cases!J16)/Cases!J16)/(Cases!$B17-Cases!$B16),
+"")</f>
+        <v>0.34615384615384615</v>
+      </c>
+      <c r="J13" s="39" t="str">
+        <f>IF(AND(ISNUMBER(Cases!K16),Cases!K16&gt;min_number),
+((Cases!K17-Cases!K16)/Cases!K16)/(Cases!$B17-Cases!$B16),
+"")</f>
+        <v/>
+      </c>
+      <c r="K13" s="39">
+        <f>IF(AND(ISNUMBER(Cases!L16),Cases!L16&gt;min_number),
+((Cases!L17-Cases!L16)/Cases!L16)/(Cases!$B17-Cases!$B16),
+"")</f>
+        <v>0.28947368421052633</v>
+      </c>
+      <c r="L13" s="39">
+        <f>IF(AND(ISNUMBER(Cases!M16),Cases!M16&gt;min_number),
+((Cases!M17-Cases!M16)/Cases!M16)/(Cases!$B17-Cases!$B16),
+"")</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="39">
+        <f>IF(AND(ISNUMBER(Cases!N16),Cases!N16&gt;min_number),
+((Cases!N17-Cases!N16)/Cases!N16)/(Cases!$B17-Cases!$B16),
+"")</f>
+        <v>0.47058823529411764</v>
+      </c>
+      <c r="N13" s="39" t="str">
+        <f>IF(AND(ISNUMBER(Cases!O16),Cases!O16&gt;min_number),
+((Cases!O17-Cases!O16)/Cases!O16)/(Cases!$B17-Cases!$B16),
+"")</f>
+        <v/>
+      </c>
+      <c r="O13" s="39">
+        <f>IF(AND(ISNUMBER(Cases!P16),Cases!P16&gt;min_number),
+((Cases!P17-Cases!P16)/Cases!P16)/(Cases!$B17-Cases!$B16),
+"")</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="P13" s="39" t="str">
+        <f>IF(AND(ISNUMBER(Cases!Q16),Cases!Q16&gt;min_number),
+((Cases!Q17-Cases!Q16)/Cases!Q16)/(Cases!$B17-Cases!$B16),
+"")</f>
+        <v/>
+      </c>
+      <c r="Q13" s="39" t="str">
+        <f>IF(AND(ISNUMBER(Cases!R16),Cases!R16&gt;min_number),
+((Cases!R17-Cases!R16)/Cases!R16)/(Cases!$B17-Cases!$B16),
+"")</f>
+        <v/>
+      </c>
+      <c r="R13" s="39" t="str">
+        <f>IF(AND(ISNUMBER(Cases!S16),Cases!S16&gt;min_number),
+((Cases!S17-Cases!S16)/Cases!S16)/(Cases!$B17-Cases!$B16),
+"")</f>
+        <v/>
+      </c>
+      <c r="S13" s="40">
+        <f>IF(AND(ISNUMBER(Cases!T16),Cases!T16&gt;min_number),
+((Cases!T17-Cases!T16)/Cases!T16)/(Cases!$B17-Cases!$B16),
+"")</f>
+        <v>0.13784021071115013</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" s="47">
+        <f>Cases!A18</f>
+        <v>12</v>
+      </c>
+      <c r="B14" s="38">
+        <f>Cases!B18</f>
+        <v>43901.625</v>
+      </c>
+      <c r="C14" s="39">
+        <f>IF(AND(ISNUMBER(Cases!D17),Cases!D17&gt;min_number),
+((Cases!D18-Cases!D17)/Cases!D17)/(Cases!$B18-Cases!$B17),
+"")</f>
+        <v>0.16877637130801687</v>
+      </c>
+      <c r="D14" s="39">
+        <f>IF(AND(ISNUMBER(Cases!E17),Cases!E17&gt;min_number),
+((Cases!E18-Cases!E17)/Cases!E17)/(Cases!$B18-Cases!$B17),
+"")</f>
+        <v>0.16560509554140126</v>
+      </c>
+      <c r="E14" s="39">
+        <f>IF(AND(ISNUMBER(Cases!F17),Cases!F17&gt;min_number),
+((Cases!F18-Cases!F17)/Cases!F17)/(Cases!$B18-Cases!$B17),
+"")</f>
+        <v>0.875</v>
+      </c>
+      <c r="F14" s="39" t="str">
+        <f>IF(AND(ISNUMBER(Cases!G17),Cases!G17&gt;min_number),
+((Cases!G18-Cases!G17)/Cases!G17)/(Cases!$B18-Cases!$B17),
+"")</f>
+        <v/>
+      </c>
+      <c r="G14" s="39" t="str">
+        <f>IF(AND(ISNUMBER(Cases!H17),Cases!H17&gt;min_number),
+((Cases!H18-Cases!H17)/Cases!H17)/(Cases!$B18-Cases!$B17),
+"")</f>
+        <v/>
+      </c>
+      <c r="H14" s="39">
+        <f>IF(AND(ISNUMBER(Cases!I17),Cases!I17&gt;min_number),
+((Cases!I18-Cases!I17)/Cases!I17)/(Cases!$B18-Cases!$B17),
+"")</f>
+        <v>0.65517241379310343</v>
+      </c>
+      <c r="I14" s="39">
+        <f>IF(AND(ISNUMBER(Cases!J17),Cases!J17&gt;min_number),
+((Cases!J18-Cases!J17)/Cases!J17)/(Cases!$B18-Cases!$B17),
+"")</f>
+        <v>0.37142857142857144</v>
+      </c>
+      <c r="J14" s="39">
+        <f>IF(AND(ISNUMBER(Cases!K17),Cases!K17&gt;min_number),
+((Cases!K18-Cases!K17)/Cases!K17)/(Cases!$B18-Cases!$B17),
+"")</f>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="K14" s="39">
+        <f>IF(AND(ISNUMBER(Cases!L17),Cases!L17&gt;min_number),
+((Cases!L18-Cases!L17)/Cases!L17)/(Cases!$B18-Cases!$B17),
+"")</f>
+        <v>0.53061224489795922</v>
+      </c>
+      <c r="L14" s="39">
+        <f>IF(AND(ISNUMBER(Cases!M17),Cases!M17&gt;min_number),
+((Cases!M18-Cases!M17)/Cases!M17)/(Cases!$B18-Cases!$B17),
+"")</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="39">
+        <f>IF(AND(ISNUMBER(Cases!N17),Cases!N17&gt;min_number),
+((Cases!N18-Cases!N17)/Cases!N17)/(Cases!$B18-Cases!$B17),
+"")</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="39" t="str">
+        <f>IF(AND(ISNUMBER(Cases!O17),Cases!O17&gt;min_number),
+((Cases!O18-Cases!O17)/Cases!O17)/(Cases!$B18-Cases!$B17),
+"")</f>
+        <v/>
+      </c>
+      <c r="O14" s="39">
+        <f>IF(AND(ISNUMBER(Cases!P17),Cases!P17&gt;min_number),
+((Cases!P18-Cases!P17)/Cases!P17)/(Cases!$B18-Cases!$B17),
+"")</f>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="P14" s="39" t="str">
+        <f>IF(AND(ISNUMBER(Cases!Q17),Cases!Q17&gt;min_number),
+((Cases!Q18-Cases!Q17)/Cases!Q17)/(Cases!$B18-Cases!$B17),
+"")</f>
+        <v/>
+      </c>
+      <c r="Q14" s="39" t="str">
+        <f>IF(AND(ISNUMBER(Cases!R17),Cases!R17&gt;min_number),
+((Cases!R18-Cases!R17)/Cases!R17)/(Cases!$B18-Cases!$B17),
+"")</f>
+        <v/>
+      </c>
+      <c r="R14" s="39" t="str">
+        <f>IF(AND(ISNUMBER(Cases!S17),Cases!S17&gt;min_number),
+((Cases!S18-Cases!S17)/Cases!S17)/(Cases!$B18-Cases!$B17),
+"")</f>
+        <v/>
+      </c>
+      <c r="S14" s="40">
+        <f>IF(AND(ISNUMBER(Cases!T17),Cases!T17&gt;min_number),
+((Cases!T18-Cases!T17)/Cases!T17)/(Cases!$B18-Cases!$B17),
+"")</f>
+        <v>0.20910493827160495</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" s="63">
+        <f>Cases!A19</f>
+        <v>13</v>
+      </c>
+      <c r="B15" s="64">
+        <f>Cases!B19</f>
+        <v>43902.625</v>
+      </c>
+      <c r="C15" s="65">
+        <f>IF(AND(ISNUMBER(Cases!D18),Cases!D18&gt;min_number),
+((Cases!D19-Cases!D18)/Cases!D18)/(Cases!$B19-Cases!$B18),
+"")</f>
+        <v>0.63898916967509023</v>
+      </c>
+      <c r="D15" s="65">
+        <f>IF(AND(ISNUMBER(Cases!E18),Cases!E18&gt;min_number),
+((Cases!E19-Cases!E18)/Cases!E18)/(Cases!$B19-Cases!$B18),
+"")</f>
+        <v>0.36612021857923499</v>
+      </c>
+      <c r="E15" s="65">
+        <f>IF(AND(ISNUMBER(Cases!F18),Cases!F18&gt;min_number),
+((Cases!F19-Cases!F18)/Cases!F18)/(Cases!$B19-Cases!$B18),
+"")</f>
+        <v>0.52222222222222225</v>
+      </c>
+      <c r="F15" s="65">
+        <f>IF(AND(ISNUMBER(Cases!G18),Cases!G18&gt;min_number),
+((Cases!G19-Cases!G18)/Cases!G18)/(Cases!$B19-Cases!$B18),
+"")</f>
+        <v>0.25</v>
+      </c>
+      <c r="G15" s="65">
+        <f>IF(AND(ISNUMBER(Cases!H18),Cases!H18&gt;min_number),
+((Cases!H19-Cases!H18)/Cases!H18)/(Cases!$B19-Cases!$B18),
+"")</f>
+        <v>0.80952380952380953</v>
+      </c>
+      <c r="H15" s="65">
+        <f>IF(AND(ISNUMBER(Cases!I18),Cases!I18&gt;min_number),
+((Cases!I19-Cases!I18)/Cases!I18)/(Cases!$B19-Cases!$B18),
+"")</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="I15" s="65">
+        <f>IF(AND(ISNUMBER(Cases!J18),Cases!J18&gt;min_number),
+((Cases!J19-Cases!J18)/Cases!J18)/(Cases!$B19-Cases!$B18),
+"")</f>
+        <v>1.0625</v>
+      </c>
+      <c r="J15" s="65">
+        <f>IF(AND(ISNUMBER(Cases!K18),Cases!K18&gt;min_number),
+((Cases!K19-Cases!K18)/Cases!K18)/(Cases!$B19-Cases!$B18),
+"")</f>
+        <v>0.35294117647058826</v>
+      </c>
+      <c r="K15" s="65">
+        <f>IF(AND(ISNUMBER(Cases!L18),Cases!L18&gt;min_number),
+((Cases!L19-Cases!L18)/Cases!L18)/(Cases!$B19-Cases!$B18),
+"")</f>
+        <v>0.72</v>
+      </c>
+      <c r="L15" s="65">
+        <f>IF(AND(ISNUMBER(Cases!M18),Cases!M18&gt;min_number),
+((Cases!M19-Cases!M18)/Cases!M18)/(Cases!$B19-Cases!$B18),
+"")</f>
+        <v>0.42148760330578511</v>
+      </c>
+      <c r="M15" s="65">
+        <f>IF(AND(ISNUMBER(Cases!N18),Cases!N18&gt;min_number),
+((Cases!N19-Cases!N18)/Cases!N18)/(Cases!$B19-Cases!$B18),
+"")</f>
+        <v>1.08</v>
+      </c>
+      <c r="N15" s="65">
+        <f>IF(AND(ISNUMBER(Cases!O18),Cases!O18&gt;min_number),
+((Cases!O19-Cases!O18)/Cases!O18)/(Cases!$B19-Cases!$B18),
+"")</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="65">
+        <f>IF(AND(ISNUMBER(Cases!P18),Cases!P18&gt;min_number),
+((Cases!P19-Cases!P18)/Cases!P18)/(Cases!$B19-Cases!$B18),
+"")</f>
+        <v>0.73076923076923073</v>
+      </c>
+      <c r="P15" s="65">
+        <f>IF(AND(ISNUMBER(Cases!Q18),Cases!Q18&gt;min_number),
+((Cases!Q19-Cases!Q18)/Cases!Q18)/(Cases!$B19-Cases!$B18),
+"")</f>
+        <v>0.8</v>
+      </c>
+      <c r="Q15" s="65">
+        <f>IF(AND(ISNUMBER(Cases!R18),Cases!R18&gt;min_number),
+((Cases!R19-Cases!R18)/Cases!R18)/(Cases!$B19-Cases!$B18),
+"")</f>
+        <v>0.14814814814814814</v>
+      </c>
+      <c r="R15" s="65" t="str">
+        <f>IF(AND(ISNUMBER(Cases!S18),Cases!S18&gt;min_number),
+((Cases!S19-Cases!S18)/Cases!S18)/(Cases!$B19-Cases!$B18),
+"")</f>
+        <v/>
+      </c>
+      <c r="S15" s="66">
+        <f>IF(AND(ISNUMBER(Cases!T18),Cases!T18&gt;min_number),
+((Cases!T19-Cases!T18)/Cases!T18)/(Cases!$B19-Cases!$B18),
+"")</f>
+        <v>0.51180599872367583</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" s="46">
+        <f>Cases!A20</f>
+        <v>14</v>
+      </c>
+      <c r="B16" s="38">
+        <f>Cases!B20</f>
+        <v>43903.625</v>
+      </c>
+      <c r="C16" s="39">
+        <f>IF(AND(ISNUMBER(Cases!D19),Cases!D19&gt;min_number),
+((Cases!D20-Cases!D19)/Cases!D19)/(Cases!$B20-Cases!$B19),
+"")</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="39">
+        <f>IF(AND(ISNUMBER(Cases!E19),Cases!E19&gt;min_number),
+((Cases!E20-Cases!E19)/Cases!E19)/(Cases!$B20-Cases!$B19),
+"")</f>
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="E16" s="39">
+        <f>IF(AND(ISNUMBER(Cases!F19),Cases!F19&gt;min_number),
+((Cases!F20-Cases!F19)/Cases!F19)/(Cases!$B20-Cases!$B19),
+"")</f>
+        <v>0.27007299270072993</v>
+      </c>
+      <c r="F16" s="39">
+        <f>IF(AND(ISNUMBER(Cases!G19),Cases!G19&gt;min_number),
+((Cases!G20-Cases!G19)/Cases!G19)/(Cases!$B20-Cases!$B19),
+"")</f>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="G16" s="39">
+        <f>IF(AND(ISNUMBER(Cases!H19),Cases!H19&gt;min_number),
+((Cases!H20-Cases!H19)/Cases!H19)/(Cases!$B20-Cases!$B19),
+"")</f>
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="H16" s="39">
+        <f>IF(AND(ISNUMBER(Cases!I19),Cases!I19&gt;min_number),
+((Cases!I20-Cases!I19)/Cases!I19)/(Cases!$B20-Cases!$B19),
+"")</f>
+        <v>0.125</v>
+      </c>
+      <c r="I16" s="39">
+        <f>IF(AND(ISNUMBER(Cases!J19),Cases!J19&gt;min_number),
+((Cases!J20-Cases!J19)/Cases!J19)/(Cases!$B20-Cases!$B19),
+"")</f>
+        <v>0.49494949494949497</v>
+      </c>
+      <c r="J16" s="39">
+        <f>IF(AND(ISNUMBER(Cases!K19),Cases!K19&gt;min_number),
+((Cases!K20-Cases!K19)/Cases!K19)/(Cases!$B20-Cases!$B19),
+"")</f>
+        <v>0.43478260869565216</v>
+      </c>
+      <c r="K16" s="39">
+        <f>IF(AND(ISNUMBER(Cases!L19),Cases!L19&gt;min_number),
+((Cases!L20-Cases!L19)/Cases!L19)/(Cases!$B20-Cases!$B19),
+"")</f>
+        <v>0.78294573643410847</v>
+      </c>
+      <c r="L16" s="39">
+        <f>IF(AND(ISNUMBER(Cases!M19),Cases!M19&gt;min_number),
+((Cases!M20-Cases!M19)/Cases!M19)/(Cases!$B20-Cases!$B19),
+"")</f>
+        <v>0.36046511627906974</v>
+      </c>
+      <c r="M16" s="39">
+        <f>IF(AND(ISNUMBER(Cases!N19),Cases!N19&gt;min_number),
+((Cases!N20-Cases!N19)/Cases!N19)/(Cases!$B20-Cases!$B19),
+"")</f>
+        <v>0.96153846153846156</v>
+      </c>
+      <c r="N16" s="39">
+        <f>IF(AND(ISNUMBER(Cases!O19),Cases!O19&gt;min_number),
+((Cases!O20-Cases!O19)/Cases!O19)/(Cases!$B20-Cases!$B19),
+"")</f>
+        <v>1.8571428571428572</v>
+      </c>
+      <c r="O16" s="39">
+        <f>IF(AND(ISNUMBER(Cases!P19),Cases!P19&gt;min_number),
+((Cases!P20-Cases!P19)/Cases!P19)/(Cases!$B20-Cases!$B19),
+"")</f>
+        <v>0.84444444444444444</v>
+      </c>
+      <c r="P16" s="39">
+        <f>IF(AND(ISNUMBER(Cases!Q19),Cases!Q19&gt;min_number),
+((Cases!Q20-Cases!Q19)/Cases!Q19)/(Cases!$B20-Cases!$B19),
+"")</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="Q16" s="39">
+        <f>IF(AND(ISNUMBER(Cases!R19),Cases!R19&gt;min_number),
+((Cases!R20-Cases!R19)/Cases!R19)/(Cases!$B20-Cases!$B19),
+"")</f>
+        <v>0.54838709677419351</v>
+      </c>
+      <c r="R16" s="39">
+        <f>IF(AND(ISNUMBER(Cases!S19),Cases!S19&gt;min_number),
+((Cases!S20-Cases!S19)/Cases!S19)/(Cases!$B20-Cases!$B19),
+"")</f>
+        <v>1.0714285714285714</v>
+      </c>
+      <c r="S16" s="39">
+        <f>IF(AND(ISNUMBER(Cases!T19),Cases!T19&gt;min_number),
+((Cases!T20-Cases!T19)/Cases!T19)/(Cases!$B20-Cases!$B19),
 "")</f>
         <v>0.29252849303503586</v>
       </c>
@@ -10651,7 +10878,7 @@
       <selection activeCell="A6" sqref="A6:T6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" style="5" bestFit="1" customWidth="1"/>
@@ -10661,12 +10888,12 @@
     <col min="27" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="28" customFormat="1" ht="142" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="28" customFormat="1" ht="142">
       <c r="A1" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" s="27" t="s">
         <v>22</v>
@@ -10720,10 +10947,10 @@
         <v>15</v>
       </c>
       <c r="T1" s="55" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="29">
         <v>10</v>
       </c>
@@ -10755,7 +10982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20">
       <c r="A3" s="32">
         <v>11</v>
       </c>
@@ -10787,7 +11014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20">
       <c r="A4" s="29">
         <v>12</v>
       </c>
@@ -10819,7 +11046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20">
       <c r="A5" s="19">
         <v>13</v>
       </c>
@@ -10855,43 +11082,43 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20">
       <c r="A6" s="19">
         <v>14</v>
       </c>
-      <c r="B6" s="75">
+      <c r="B6" s="74">
         <v>43903.625</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="73">
+      <c r="D6" s="72">
         <v>1</v>
       </c>
-      <c r="E6" s="73">
+      <c r="E6" s="72">
         <v>1</v>
       </c>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="73">
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72">
         <v>3</v>
       </c>
-      <c r="N6" s="73"/>
-      <c r="O6" s="73"/>
-      <c r="P6" s="73"/>
-      <c r="Q6" s="73"/>
-      <c r="R6" s="73"/>
-      <c r="S6" s="73"/>
-      <c r="T6" s="76">
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
+      <c r="Q6" s="72"/>
+      <c r="R6" s="72"/>
+      <c r="S6" s="72"/>
+      <c r="T6" s="75">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:19">
       <c r="B20" s="35"/>
       <c r="C20" s="35"/>
       <c r="D20" s="35"/>
@@ -10908,7 +11135,7 @@
       <c r="R20" s="35"/>
       <c r="S20" s="35"/>
     </row>
-    <row r="45" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="18:18">
       <c r="R45" s="36"/>
     </row>
   </sheetData>
@@ -10918,184 +11145,414 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC41BBED-4D9B-3745-A5D3-14CC93817815}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="92" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="C2" s="1"/>
+      <c r="D2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="C3" s="84">
+        <v>43465</v>
+      </c>
+      <c r="E3">
+        <v>2017</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="71">
-        <v>43465</v>
-      </c>
-      <c r="D1" s="72" t="s">
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>11069500</v>
+      </c>
+      <c r="D4" s="81">
+        <v>35673.71</v>
+      </c>
+      <c r="E4">
+        <v>308</v>
+      </c>
+      <c r="G4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="71" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>13076700</v>
+      </c>
+      <c r="D5" s="82">
+        <v>70542.03</v>
+      </c>
+      <c r="E5">
+        <v>184</v>
+      </c>
+      <c r="G5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H5" s="71" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>3644800</v>
+      </c>
+      <c r="D6">
+        <v>891.12</v>
+      </c>
+      <c r="E6" s="83">
+        <v>4055</v>
+      </c>
+      <c r="F6" s="83"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>2511900</v>
+      </c>
+      <c r="D7" s="81">
+        <v>29654.38</v>
+      </c>
+      <c r="E7">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>683000</v>
+      </c>
+      <c r="D8">
+        <v>419.84</v>
+      </c>
+      <c r="E8" s="83">
+        <v>1624</v>
+      </c>
+      <c r="F8" s="83"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>1841200</v>
+      </c>
+      <c r="D9">
+        <v>755.09</v>
+      </c>
+      <c r="E9" s="83">
+        <v>2424</v>
+      </c>
+      <c r="F9" s="83"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>6265800</v>
+      </c>
+      <c r="D10" s="81">
+        <v>21115.67</v>
+      </c>
+      <c r="E10">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>1609700</v>
+      </c>
+      <c r="D11" s="81">
+        <v>23292.73</v>
+      </c>
+      <c r="E11">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>7982400</v>
+      </c>
+      <c r="D12" s="81">
+        <v>47709.83</v>
+      </c>
+      <c r="E12">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>17932700</v>
+      </c>
+      <c r="D13" s="81">
+        <v>34112.74</v>
+      </c>
+      <c r="E13">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>4084800</v>
+      </c>
+      <c r="D14" s="81">
+        <v>19858</v>
+      </c>
+      <c r="E14">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>990500</v>
+      </c>
+      <c r="D15" s="81">
+        <v>2571.1</v>
+      </c>
+      <c r="E15">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>4077900</v>
+      </c>
+      <c r="D16" s="81">
+        <v>18449.990000000002</v>
+      </c>
+      <c r="E16">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17">
+        <v>2208300</v>
+      </c>
+      <c r="D17" s="81">
+        <v>20452.14</v>
+      </c>
+      <c r="E17">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <v>2896700</v>
+      </c>
+      <c r="D18" s="81">
+        <v>15802.27</v>
+      </c>
+      <c r="E18">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <v>2143100</v>
+      </c>
+      <c r="D19" s="81">
+        <v>16202.37</v>
+      </c>
+      <c r="E19">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="B20" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>11069500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>13076700</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>3644800</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>2511900</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>683000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>1841200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>6265800</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>1609700</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>7982400</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>17932700</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>4084800</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>990500</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>4077900</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>2208300</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>2896700</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>2143100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="C20">
+        <v>83019200</v>
+      </c>
+      <c r="D20" s="81">
+        <v>357578.17</v>
+      </c>
+      <c r="E20">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="B21" t="s">
         <v>57</v>
       </c>
-      <c r="B18">
-        <v>83019200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="C21">
+        <v>66823399.999999993</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="B22" t="s">
         <v>58</v>
       </c>
-      <c r="B19">
-        <v>66823399.999999993</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20">
+      <c r="C22">
         <v>12551000</v>
       </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="C30" s="83"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="83"/>
+      <c r="F30" s="83"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="83"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="C32" s="83"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="83"/>
+      <c r="H32" s="83"/>
+    </row>
+    <row r="33" spans="3:8">
+      <c r="C33" s="83"/>
+      <c r="D33" s="83"/>
+      <c r="E33" s="83"/>
+      <c r="F33" s="83"/>
+      <c r="G33" s="83"/>
+      <c r="H33" s="83"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D1" r:id="rId1" xr:uid="{CF995789-7557-C045-8568-1170118EB7F2}"/>
+    <hyperlink ref="H4" r:id="rId1" xr:uid="{CF10225A-AA57-AE49-B414-A43C06275F64}"/>
+    <hyperlink ref="H5" r:id="rId2" xr:uid="{6ECB820A-C308-5243-B7B3-DA765B3D7DD0}"/>
+    <hyperlink ref="H3" r:id="rId3" xr:uid="{CF995789-7557-C045-8568-1170118EB7F2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11109,47 +11566,47 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2">
         <f>last_DE_Total</f>
         <v>3062</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3">
         <v>1000000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="22">
         <f xml:space="preserve"> LOG(B3/B2,2)</f>
         <v>8.3513100018243858</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" s="52">
         <f>B4*E2</f>

--- a/data/cases-de.xlsx
+++ b/data/cases-de.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/torben/Hacken/GitHub/COVID-19-Coronavirus-German-Regions/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7A9926-4500-A349-A8B3-B2853AE75139}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53BB449-BDA6-AE4F-BA27-0FD9B1B8B889}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14460" activeTab="4" xr2:uid="{309167EE-B9E7-9F44-B3F3-07C1908B9528}"/>
   </bookViews>
@@ -387,9 +387,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.000%"/>
+    <numFmt numFmtId="165" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -782,7 +782,7 @@
     <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -799,77 +799,6 @@
     <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="50">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="27" formatCode="dd/mm/yy\ hh:mm"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1499,6 +1428,77 @@
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="27" formatCode="dd/mm/yy\ hh:mm"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -3529,7 +3529,794 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>cases</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>absolute</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> vs. % of population</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cases!$B$2:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>cases today</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Cases!$D$5:$S$5</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Baden-
+Württemberg</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bayern</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Berlin</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Brandenburg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bremen</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Hamburg</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Hessen</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Mecklenburg-
+Vorpommern</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Niedersachsen</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Nordrhein-
+Westfalen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Rheinland-
+Pfalz</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Saarland</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Sachsen</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Sachsen-
+Anhalt</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Schleswig-
+Holstein</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Thüringen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cases!$D$2:$S$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>454</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>558</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>936</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C50B-B642-9084-3E8CD72281B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="20"/>
+        <c:axId val="189969824"/>
+        <c:axId val="210638112"/>
+      </c:barChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cases!$B$3:$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>% of pop</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Cases!$D$5:$S$5</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Baden-
+Württemberg</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bayern</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Berlin</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Brandenburg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bremen</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Hamburg</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Hessen</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Mecklenburg-
+Vorpommern</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Niedersachsen</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Nordrhein-
+Westfalen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Rheinland-
+Pfalz</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Saarland</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Sachsen</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Sachsen-
+Anhalt</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Schleswig-
+Holstein</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Thüringen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cases!$D$3:$S$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>4.1013595916708071E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2671316157746222E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7739244951712029E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7516620884589354E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1493411420204981E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.3769280903758417E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3620287912158064E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0500714418835807E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8813389456804971E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.2195151873393301E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.4970622796709752E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.0383644623927313E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0353613379435493E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.90191550061133E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.6570580315531468E-5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.3531799729364005E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C50B-B642-9084-3E8CD72281B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="200"/>
+        <c:axId val="214055360"/>
+        <c:axId val="549875920"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="189969824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="210638112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="210638112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Cases</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="189969824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="549875920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>% of populaion</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="214055360"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="214055360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="549875920"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4085,20 +4872,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>39157</xdr:rowOff>
+      <xdr:rowOff>8679</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>406047</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>79374</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>121921</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>79799</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4120,6 +5410,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>20320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>416560</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A1E5090-11DB-164F-B62A-76137D869D36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4241,93 +5567,93 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{E6C8C471-F764-504D-8B4A-7552654EBAEC}" name="#" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{E6C8C471-F764-504D-8B4A-7552654EBAEC}" name="#" dataDxfId="18">
       <calculatedColumnFormula>Cases!A6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{F08A6D07-D47C-0B4B-BF63-BCF903E95EB5}" name="Date" dataDxfId="1">
+    <tableColumn id="2" xr3:uid="{F08A6D07-D47C-0B4B-BF63-BCF903E95EB5}" name="Date" dataDxfId="17">
       <calculatedColumnFormula>Cases!B6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B6051F7E-D460-9A42-9D63-3975F8A75ACA}" name="Baden-_x000a_Württemberg" dataDxfId="18">
+    <tableColumn id="3" xr3:uid="{B6051F7E-D460-9A42-9D63-3975F8A75ACA}" name="Baden-_x000a_Württemberg" dataDxfId="16">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!D5),Cases!D5&gt;min_number),
 ((Cases!D6-Cases!D5)/Cases!D5)/(Cases!$B6-Cases!$B5),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{10A737B8-2568-5841-8D5F-D47C446EE26C}" name="Bayern" dataDxfId="17">
+    <tableColumn id="4" xr3:uid="{10A737B8-2568-5841-8D5F-D47C446EE26C}" name="Bayern" dataDxfId="15">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!E5),Cases!E5&gt;min_number),
 ((Cases!E6-Cases!E5)/Cases!E5)/(Cases!$B6-Cases!$B5),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{BCD2105D-8D71-454C-A02E-6424E3BA36AA}" name="Berlin" dataDxfId="16">
+    <tableColumn id="5" xr3:uid="{BCD2105D-8D71-454C-A02E-6424E3BA36AA}" name="Berlin" dataDxfId="14">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!F5),Cases!F5&gt;min_number),
 ((Cases!F6-Cases!F5)/Cases!F5)/(Cases!$B6-Cases!$B5),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{53C79366-40AF-DC47-8F16-1C907EA8A25D}" name="Brandenburg" dataDxfId="15">
+    <tableColumn id="6" xr3:uid="{53C79366-40AF-DC47-8F16-1C907EA8A25D}" name="Brandenburg" dataDxfId="13">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!G5),Cases!G5&gt;min_number),
 ((Cases!G6-Cases!G5)/Cases!G5)/(Cases!$B6-Cases!$B5),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{4AFFEB9A-9EF4-B04F-99AF-1421CC3F79F1}" name="Bremen" dataDxfId="14">
+    <tableColumn id="7" xr3:uid="{4AFFEB9A-9EF4-B04F-99AF-1421CC3F79F1}" name="Bremen" dataDxfId="12">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!H5),Cases!H5&gt;min_number),
 ((Cases!H6-Cases!H5)/Cases!H5)/(Cases!$B6-Cases!$B5),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{C2100E3B-69C7-1749-9A4D-28C483AE2AD3}" name="Hamburg" dataDxfId="13">
+    <tableColumn id="8" xr3:uid="{C2100E3B-69C7-1749-9A4D-28C483AE2AD3}" name="Hamburg" dataDxfId="11">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!I5),Cases!I5&gt;min_number),
 ((Cases!I6-Cases!I5)/Cases!I5)/(Cases!$B6-Cases!$B5),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{F062E681-CDB1-C140-B909-EA794C5F18A9}" name="Hessen" dataDxfId="12">
+    <tableColumn id="9" xr3:uid="{F062E681-CDB1-C140-B909-EA794C5F18A9}" name="Hessen" dataDxfId="10">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!J5),Cases!J5&gt;min_number),
 ((Cases!J6-Cases!J5)/Cases!J5)/(Cases!$B6-Cases!$B5),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{E031E4B1-3E62-C345-B766-887BCDAAC02D}" name="Mecklenburg-_x000a_Vorpommern" dataDxfId="11">
+    <tableColumn id="10" xr3:uid="{E031E4B1-3E62-C345-B766-887BCDAAC02D}" name="Mecklenburg-_x000a_Vorpommern" dataDxfId="9">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!K5),Cases!K5&gt;min_number),
 ((Cases!K6-Cases!K5)/Cases!K5)/(Cases!$B6-Cases!$B5),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{06616FA7-B824-034F-8561-0575963B7953}" name="Niedersachsen" dataDxfId="10">
+    <tableColumn id="11" xr3:uid="{06616FA7-B824-034F-8561-0575963B7953}" name="Niedersachsen" dataDxfId="8">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!L5),Cases!L5&gt;min_number),
 ((Cases!L6-Cases!L5)/Cases!L5)/(Cases!$B6-Cases!$B5),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{A7D554C7-337E-5A4F-B3A4-DD9485FF1D61}" name="Nordrhein-_x000a_Westfalen" dataDxfId="9">
+    <tableColumn id="12" xr3:uid="{A7D554C7-337E-5A4F-B3A4-DD9485FF1D61}" name="Nordrhein-_x000a_Westfalen" dataDxfId="7">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!M5),Cases!M5&gt;min_number),
 ((Cases!M6-Cases!M5)/Cases!M5)/(Cases!$B6-Cases!$B5),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{E7F4E0DB-41C5-F74B-B13C-082338064391}" name="Rheinland-_x000a_Pfalz" dataDxfId="8">
+    <tableColumn id="13" xr3:uid="{E7F4E0DB-41C5-F74B-B13C-082338064391}" name="Rheinland-_x000a_Pfalz" dataDxfId="6">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!N5),Cases!N5&gt;min_number),
 ((Cases!N6-Cases!N5)/Cases!N5)/(Cases!$B6-Cases!$B5),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{F452CCA8-390B-D443-BCA6-EFE7E79127AA}" name="Saarland" dataDxfId="7">
+    <tableColumn id="14" xr3:uid="{F452CCA8-390B-D443-BCA6-EFE7E79127AA}" name="Saarland" dataDxfId="5">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!O5),Cases!O5&gt;min_number),
 ((Cases!O6-Cases!O5)/Cases!O5)/(Cases!$B6-Cases!$B5),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{2BC6A12D-DFD6-A54D-9B25-30C67E2CACC1}" name="Sachsen" dataDxfId="6">
+    <tableColumn id="15" xr3:uid="{2BC6A12D-DFD6-A54D-9B25-30C67E2CACC1}" name="Sachsen" dataDxfId="4">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!P5),Cases!P5&gt;min_number),
 ((Cases!P6-Cases!P5)/Cases!P5)/(Cases!$B6-Cases!$B5),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{F3454210-7502-7B43-87ED-828963C0BA58}" name="Sachsen-_x000a_Anhalt" dataDxfId="5">
+    <tableColumn id="16" xr3:uid="{F3454210-7502-7B43-87ED-828963C0BA58}" name="Sachsen-_x000a_Anhalt" dataDxfId="3">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!Q5),Cases!Q5&gt;min_number),
 ((Cases!Q6-Cases!Q5)/Cases!Q5)/(Cases!$B6-Cases!$B5),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{3488A903-5F9F-FF4F-B253-A2C6BDED0D5C}" name="Schleswig-_x000a_Holstein" dataDxfId="4">
+    <tableColumn id="17" xr3:uid="{3488A903-5F9F-FF4F-B253-A2C6BDED0D5C}" name="Schleswig-_x000a_Holstein" dataDxfId="2">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!R5),Cases!R5&gt;min_number),
 ((Cases!R6-Cases!R5)/Cases!R5)/(Cases!$B6-Cases!$B5),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{EBA9256A-1C44-B641-A90D-2900B16B2794}" name="Thüringen" dataDxfId="3">
+    <tableColumn id="18" xr3:uid="{EBA9256A-1C44-B641-A90D-2900B16B2794}" name="Thüringen" dataDxfId="1">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!S5),Cases!S5&gt;min_number),
 ((Cases!S6-Cases!S5)/Cases!S5)/(Cases!$B6-Cases!$B5),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{8590B984-B71C-8D4E-AB2B-CC37C841189C}" name="DE Total" dataDxfId="2">
+    <tableColumn id="20" xr3:uid="{8590B984-B71C-8D4E-AB2B-CC37C841189C}" name="DE Total" dataDxfId="0">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!T5),Cases!T5&gt;min_number),
 ((Cases!T6-Cases!T5)/Cases!T5)/(Cases!$B6-Cases!$B5),
 "")</calculatedColumnFormula>
@@ -4640,14 +5966,14 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.1640625" style="44" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="125.33203125" style="44" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="10.83203125" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="44" t="s">
         <v>60</v>
       </c>
@@ -4655,7 +5981,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>24</v>
       </c>
@@ -4663,7 +5989,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>26</v>
       </c>
@@ -4671,7 +5997,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="44" t="s">
         <v>59</v>
       </c>
@@ -4679,7 +6005,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="44" t="s">
         <v>62</v>
       </c>
@@ -4707,7 +6033,7 @@
       <selection activeCell="D4" sqref="D4:H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
@@ -4716,7 +6042,7 @@
     <col min="5" max="5" width="19.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E1" s="4">
         <v>43902.625</v>
       </c>
@@ -4724,7 +6050,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="134">
+    <row r="2" spans="1:8" ht="134" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>43902.625</v>
       </c>
@@ -4746,7 +6072,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
@@ -4762,7 +6088,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -4788,7 +6114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -4812,7 +6138,7 @@
       </c>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -4834,7 +6160,7 @@
       </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -4856,7 +6182,7 @@
       </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -4878,7 +6204,7 @@
       </c>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -4900,7 +6226,7 @@
       </c>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -4922,7 +6248,7 @@
       </c>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
@@ -4944,7 +6270,7 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -4966,7 +6292,7 @@
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
@@ -4992,7 +6318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
@@ -5014,7 +6340,7 @@
       </c>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
@@ -5036,7 +6362,7 @@
       </c>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
@@ -5058,7 +6384,7 @@
       </c>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
@@ -5080,7 +6406,7 @@
       </c>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
@@ -5102,7 +6428,7 @@
       </c>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
@@ -5124,7 +6450,7 @@
       </c>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>16</v>
       </c>
@@ -5164,7 +6490,7 @@
       <selection pane="topRight" activeCell="AB1" sqref="AB1:AE19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.83203125" style="3" customWidth="1"/>
     <col min="2" max="9" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
@@ -5183,7 +6509,7 @@
     <col min="29" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
@@ -5239,7 +6565,7 @@
         <v>43903.625</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="2" customFormat="1" ht="134">
+    <row r="2" spans="1:31" s="2" customFormat="1" ht="134" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -5334,7 +6660,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -5408,7 +6734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -5476,7 +6802,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -5529,7 +6855,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -5579,7 +6905,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -5635,7 +6961,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -5691,7 +7017,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -5750,7 +7076,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -5797,7 +7123,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -5853,7 +7179,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -5948,7 +7274,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -6010,7 +7336,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
@@ -6057,7 +7383,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
@@ -6104,7 +7430,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
@@ -6133,7 +7459,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
@@ -6192,7 +7518,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
@@ -6242,7 +7568,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>16</v>
       </c>
@@ -6318,7 +7644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:31">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -6337,7 +7663,7 @@
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
     </row>
-    <row r="24" spans="1:31">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -6356,7 +7682,7 @@
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
     </row>
-    <row r="44" spans="18:18">
+    <row r="44" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R44" s="6"/>
     </row>
   </sheetData>
@@ -6372,14 +7698,14 @@
       <selection activeCell="A29" sqref="A29:T29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="21" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="8" customFormat="1" ht="142">
+    <row r="1" spans="1:20" s="8" customFormat="1" ht="142" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>23</v>
       </c>
@@ -6441,7 +7767,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -6481,7 +7807,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6523,7 +7849,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -6571,7 +7897,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -6621,7 +7947,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -6677,7 +8003,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -6737,7 +8063,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -6797,7 +8123,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -6857,7 +8183,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -6887,7 +8213,7 @@
       <c r="S10" s="11"/>
       <c r="T10" s="11"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -6947,7 +8273,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
@@ -6977,7 +8303,7 @@
       <c r="S12" s="11"/>
       <c r="T12" s="11"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9</v>
       </c>
@@ -7037,7 +8363,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>9</v>
       </c>
@@ -7067,7 +8393,7 @@
       <c r="S14" s="11"/>
       <c r="T14" s="11"/>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>10</v>
       </c>
@@ -7127,7 +8453,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>10</v>
       </c>
@@ -7159,7 +8485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>10</v>
       </c>
@@ -7189,7 +8515,7 @@
       <c r="S17" s="13"/>
       <c r="T17" s="13"/>
     </row>
-    <row r="18" spans="1:20" s="23" customFormat="1">
+    <row r="18" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="23">
         <v>11</v>
       </c>
@@ -7251,7 +8577,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>11</v>
       </c>
@@ -7284,7 +8610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>11</v>
       </c>
@@ -7314,7 +8640,7 @@
       <c r="S20" s="11"/>
       <c r="T20" s="11"/>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>12</v>
       </c>
@@ -7376,7 +8702,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>12</v>
       </c>
@@ -7408,7 +8734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>12</v>
       </c>
@@ -7438,7 +8764,7 @@
       <c r="S23" s="15"/>
       <c r="T23" s="15"/>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>13</v>
       </c>
@@ -7500,7 +8826,7 @@
         <v>2369</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>13</v>
       </c>
@@ -7536,7 +8862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>13</v>
       </c>
@@ -7598,7 +8924,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>13</v>
       </c>
@@ -7632,7 +8958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>14</v>
       </c>
@@ -7694,7 +9020,7 @@
         <v>3062</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>14</v>
       </c>
@@ -7730,7 +9056,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>14</v>
       </c>
@@ -7792,7 +9118,7 @@
         <v>2576</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>14</v>
       </c>
@@ -7838,14 +9164,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{233E67D7-4FF2-D745-A107-DDC4CB6E1273}">
   <dimension ref="A1:Y20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.83203125" style="23" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="19" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="19" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8.5" style="78" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="4.1640625" style="52" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="4.6640625" style="21" bestFit="1" customWidth="1"/>
@@ -7854,7 +9183,7 @@
     <col min="25" max="25" width="120.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D1" s="86" t="s">
         <v>84</v>
       </c>
@@ -7907,80 +9236,80 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B2" s="23" t="s">
         <v>68</v>
       </c>
       <c r="D2" s="80">
-        <f>LOOKUP(2,1/(ISNUMBER(D6:D10001)),D6:D10001)</f>
+        <f t="shared" ref="D2:T2" si="0">LOOKUP(2,1/(ISNUMBER(D6:D10001)),D6:D10001)</f>
         <v>454</v>
       </c>
       <c r="E2" s="80">
-        <f>LOOKUP(2,1/(ISNUMBER(E6:E10001)),E6:E10001)</f>
+        <f t="shared" si="0"/>
         <v>558</v>
       </c>
       <c r="F2" s="80">
-        <f>LOOKUP(2,1/(ISNUMBER(F6:F10001)),F6:F10001)</f>
+        <f t="shared" si="0"/>
         <v>174</v>
       </c>
       <c r="G2" s="80">
-        <f>LOOKUP(2,1/(ISNUMBER(G6:G10001)),G6:G10001)</f>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="H2" s="80">
-        <f>LOOKUP(2,1/(ISNUMBER(H6:H10001)),H6:H10001)</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="I2" s="80">
-        <f>LOOKUP(2,1/(ISNUMBER(I6:I10001)),I6:I10001)</f>
+        <f t="shared" si="0"/>
         <v>99</v>
       </c>
       <c r="J2" s="80">
-        <f>LOOKUP(2,1/(ISNUMBER(J6:J10001)),J6:J10001)</f>
+        <f t="shared" si="0"/>
         <v>148</v>
       </c>
       <c r="K2" s="80">
-        <f>LOOKUP(2,1/(ISNUMBER(K6:K10001)),K6:K10001)</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="L2" s="80">
-        <f>LOOKUP(2,1/(ISNUMBER(L6:L10001)),L6:L10001)</f>
+        <f t="shared" si="0"/>
         <v>230</v>
       </c>
       <c r="M2" s="80">
-        <f>LOOKUP(2,1/(ISNUMBER(M6:M10001)),M6:M10001)</f>
+        <f t="shared" si="0"/>
         <v>936</v>
       </c>
       <c r="N2" s="80">
-        <f>LOOKUP(2,1/(ISNUMBER(N6:N10001)),N6:N10001)</f>
+        <f t="shared" si="0"/>
         <v>102</v>
       </c>
       <c r="O2" s="80">
-        <f>LOOKUP(2,1/(ISNUMBER(O6:O10001)),O6:O10001)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="P2" s="80">
-        <f>LOOKUP(2,1/(ISNUMBER(P6:P10001)),P6:P10001)</f>
+        <f t="shared" si="0"/>
         <v>83</v>
       </c>
       <c r="Q2" s="80">
-        <f>LOOKUP(2,1/(ISNUMBER(Q6:Q10001)),Q6:Q10001)</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="R2" s="80">
-        <f>LOOKUP(2,1/(ISNUMBER(R6:R10001)),R6:R10001)</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="S2" s="80">
-        <f>LOOKUP(2,1/(ISNUMBER(S6:S10001)),S6:S10001)</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="T2" s="80">
-        <f>LOOKUP(2,1/(ISNUMBER(T6:T10001)),T6:T10001)</f>
+        <f t="shared" si="0"/>
         <v>3062</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B3" s="23" t="s">
         <v>86</v>
       </c>
@@ -8053,7 +9382,7 @@
         <v>3.6883034286044672E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:25" s="41" customFormat="1" ht="79">
+    <row r="5" spans="1:25" s="41" customFormat="1" ht="79" x14ac:dyDescent="0.2">
       <c r="A5" s="41" t="s">
         <v>41</v>
       </c>
@@ -8122,7 +9451,7 @@
       </c>
       <c r="W5" s="51"/>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
@@ -8151,17 +9480,17 @@
         <v>53</v>
       </c>
       <c r="U6" s="52" t="str">
-        <f t="shared" ref="U6:U18" si="0">IF(ISNUMBER(T5),T6-T5,"")</f>
+        <f t="shared" ref="U6:U18" si="1">IF(ISNUMBER(T5),T6-T5,"")</f>
         <v/>
       </c>
       <c r="V6" s="21" t="str">
-        <f t="shared" ref="V6:V19" si="1">IF(ISNUMBER(T5),
+        <f t="shared" ref="V6:V19" si="2">IF(ISNUMBER(T5),
 ((T6-T5)/T5)/(B6-B5),
 "")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -8193,11 +9522,11 @@
         <v>66</v>
       </c>
       <c r="U7" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="V7" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.24528301886792453</v>
       </c>
       <c r="X7" t="s">
@@ -8207,7 +9536,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -8248,15 +9577,15 @@
         <v>129</v>
       </c>
       <c r="U8" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="V8" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.78996865203603195</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3</v>
       </c>
@@ -8300,15 +9629,15 @@
         <v>157</v>
       </c>
       <c r="U9" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="V9" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.21705426356589147</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>4</v>
       </c>
@@ -8361,16 +9690,16 @@
         <v>196</v>
       </c>
       <c r="U10" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="V10" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.24840764331210191</v>
       </c>
       <c r="Y10" s="79"/>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>5</v>
       </c>
@@ -8429,15 +9758,15 @@
         <v>262</v>
       </c>
       <c r="U11" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="V11" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.33673469387755101</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>6</v>
       </c>
@@ -8496,15 +9825,15 @@
         <v>400</v>
       </c>
       <c r="U12" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>138</v>
       </c>
       <c r="V12" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.52671755725190839</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>7</v>
       </c>
@@ -8564,15 +9893,15 @@
         <v>639</v>
       </c>
       <c r="U13" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>239</v>
       </c>
       <c r="V13" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.59750000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>8</v>
       </c>
@@ -8631,15 +9960,15 @@
         <v>795</v>
       </c>
       <c r="U14" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>156</v>
       </c>
       <c r="V14" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.24413145539906103</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>9</v>
       </c>
@@ -8698,15 +10027,15 @@
         <v>902</v>
       </c>
       <c r="U15" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>107</v>
       </c>
       <c r="V15" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.13459119496855346</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>10</v>
       </c>
@@ -8765,15 +10094,15 @@
         <v>1139</v>
       </c>
       <c r="U16" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>237</v>
       </c>
       <c r="V16" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.26274944567627495</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>11</v>
       </c>
@@ -8835,15 +10164,15 @@
         <v>1296</v>
       </c>
       <c r="U17" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>157</v>
       </c>
       <c r="V17" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.13784021071115013</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>12</v>
       </c>
@@ -8905,15 +10234,15 @@
         <v>1567</v>
       </c>
       <c r="U18" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>271</v>
       </c>
       <c r="V18" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.20910493827160495</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="59">
         <v>13</v>
       </c>
@@ -8979,12 +10308,12 @@
         <v>802</v>
       </c>
       <c r="V19" s="61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.51180599872367583</v>
       </c>
       <c r="W19" s="62"/>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="59">
         <v>14</v>
       </c>
@@ -9085,7 +10414,7 @@
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.6640625" style="88" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" style="37" bestFit="1" customWidth="1"/>
@@ -9104,7 +10433,7 @@
     <col min="23" max="16384" width="10.83203125" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="43" customFormat="1" ht="79">
+    <row r="1" spans="1:22" s="43" customFormat="1" ht="79" x14ac:dyDescent="0.2">
       <c r="A1" s="76" t="s">
         <v>41</v>
       </c>
@@ -9166,7 +10495,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="46">
         <f>Cases!A6</f>
         <v>0</v>
@@ -9284,7 +10613,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="47">
         <f>Cases!A7</f>
         <v>1</v>
@@ -9396,7 +10725,7 @@
         <v>0.24528301886792453</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="47">
         <f>Cases!A8</f>
         <v>2</v>
@@ -9508,7 +10837,7 @@
         <v>0.78996865203603195</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="47">
         <f>Cases!A9</f>
         <v>3</v>
@@ -9620,7 +10949,7 @@
         <v>0.21705426356589147</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="47">
         <f>Cases!A10</f>
         <v>4</v>
@@ -9732,7 +11061,7 @@
         <v>0.24840764331210191</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="47">
         <f>Cases!A11</f>
         <v>5</v>
@@ -9844,7 +11173,7 @@
         <v>0.33673469387755101</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="47">
         <f>Cases!A12</f>
         <v>6</v>
@@ -9956,7 +11285,7 @@
         <v>0.52671755725190839</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="47">
         <f>Cases!A13</f>
         <v>7</v>
@@ -10068,7 +11397,7 @@
         <v>0.59750000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="47">
         <f>Cases!A14</f>
         <v>8</v>
@@ -10180,7 +11509,7 @@
         <v>0.24413145539906103</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="47">
         <f>Cases!A15</f>
         <v>9</v>
@@ -10292,7 +11621,7 @@
         <v>0.13459119496855346</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="47">
         <f>Cases!A16</f>
         <v>10</v>
@@ -10404,7 +11733,7 @@
         <v>0.26274944567627495</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="47">
         <f>Cases!A17</f>
         <v>11</v>
@@ -10516,7 +11845,7 @@
         <v>0.13784021071115013</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="47">
         <f>Cases!A18</f>
         <v>12</v>
@@ -10628,7 +11957,7 @@
         <v>0.20910493827160495</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="63">
         <f>Cases!A19</f>
         <v>13</v>
@@ -10740,7 +12069,7 @@
         <v>0.51180599872367583</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="46">
         <f>Cases!A20</f>
         <v>14</v>
@@ -10878,7 +12207,7 @@
       <selection activeCell="A6" sqref="A6:T6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" style="5" bestFit="1" customWidth="1"/>
@@ -10888,7 +12217,7 @@
     <col min="27" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="28" customFormat="1" ht="142">
+    <row r="1" spans="1:20" s="28" customFormat="1" ht="142" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -10950,7 +12279,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="29">
         <v>10</v>
       </c>
@@ -10982,7 +12311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="32">
         <v>11</v>
       </c>
@@ -11014,7 +12343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="29">
         <v>12</v>
       </c>
@@ -11046,7 +12375,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="19">
         <v>13</v>
       </c>
@@ -11082,7 +12411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="19">
         <v>14</v>
       </c>
@@ -11118,7 +12447,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="2:19">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B20" s="35"/>
       <c r="C20" s="35"/>
       <c r="D20" s="35"/>
@@ -11135,7 +12464,7 @@
       <c r="R20" s="35"/>
       <c r="S20" s="35"/>
     </row>
-    <row r="45" spans="18:18">
+    <row r="45" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R45" s="36"/>
     </row>
   </sheetData>
@@ -11151,7 +12480,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.5" bestFit="1" customWidth="1"/>
@@ -11163,7 +12492,7 @@
     <col min="8" max="8" width="92" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
@@ -11181,7 +12510,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C2" s="1"/>
       <c r="D2" s="3" t="s">
         <v>91</v>
@@ -11192,7 +12521,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C3" s="84">
         <v>43465</v>
       </c>
@@ -11207,7 +12536,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>84</v>
       </c>
@@ -11230,7 +12559,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -11253,7 +12582,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>82</v>
       </c>
@@ -11271,7 +12600,7 @@
       </c>
       <c r="F6" s="83"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>81</v>
       </c>
@@ -11288,7 +12617,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>80</v>
       </c>
@@ -11306,7 +12635,7 @@
       </c>
       <c r="F8" s="83"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>79</v>
       </c>
@@ -11324,7 +12653,7 @@
       </c>
       <c r="F9" s="83"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>78</v>
       </c>
@@ -11341,7 +12670,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -11358,7 +12687,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>76</v>
       </c>
@@ -11375,7 +12704,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>75</v>
       </c>
@@ -11392,7 +12721,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>74</v>
       </c>
@@ -11409,7 +12738,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -11426,7 +12755,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>72</v>
       </c>
@@ -11443,7 +12772,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>85</v>
       </c>
@@ -11460,7 +12789,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>71</v>
       </c>
@@ -11477,7 +12806,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>69</v>
       </c>
@@ -11494,7 +12823,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>56</v>
       </c>
@@ -11508,7 +12837,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>57</v>
       </c>
@@ -11516,7 +12845,7 @@
         <v>66823399.999999993</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>58</v>
       </c>
@@ -11524,7 +12853,7 @@
         <v>12551000</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C30" s="83"/>
       <c r="D30" s="83"/>
       <c r="E30" s="83"/>
@@ -11532,7 +12861,7 @@
       <c r="G30" s="83"/>
       <c r="H30" s="83"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C32" s="83"/>
       <c r="D32" s="83"/>
       <c r="E32" s="83"/>
@@ -11540,7 +12869,7 @@
       <c r="G32" s="83"/>
       <c r="H32" s="83"/>
     </row>
-    <row r="33" spans="3:8">
+    <row r="33" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C33" s="83"/>
       <c r="D33" s="83"/>
       <c r="E33" s="83"/>
@@ -11566,13 +12895,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -11587,7 +12916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -11595,7 +12924,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>64</v>
       </c>
@@ -11604,7 +12933,7 @@
         <v>8.3513100018243858</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>67</v>
       </c>

--- a/data/cases-de.xlsx
+++ b/data/cases-de.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/torben/Hacken/GitHub/COVID-19-Coronavirus-German-Regions/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DF4D45-4000-8040-AAAC-27518B4F4C45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28BBABB-9E59-C94E-B283-0B250D78F867}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14320" firstSheet="1" activeTab="6" xr2:uid="{309167EE-B9E7-9F44-B3F3-07C1908B9528}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14320" firstSheet="3" activeTab="9" xr2:uid="{309167EE-B9E7-9F44-B3F3-07C1908B9528}"/>
   </bookViews>
   <sheets>
     <sheet name="Links" sheetId="10" r:id="rId1"/>
@@ -404,7 +404,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -813,7 +813,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -6275,7 +6275,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -6523,6 +6523,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="188829200"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -8314,7 +8315,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>564250</xdr:colOff>
+      <xdr:colOff>272150</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>338550</xdr:rowOff>
     </xdr:to>
@@ -8919,8 +8920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD699B48-9B9A-DD49-8864-472A6998CAC7}">
   <dimension ref="A2:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12114,8 +12115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{233E67D7-4FF2-D745-A107-DDC4CB6E1273}">
   <dimension ref="A1:Y16"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
@@ -14947,8 +14948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C283F65E-4645-8A47-BFE2-5D2317004015}">
   <dimension ref="A1:W21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/data/cases-de.xlsx
+++ b/data/cases-de.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/torben/Hacken/GitHub/COVID-19-Coronavirus-German-Regions/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28BBABB-9E59-C94E-B283-0B250D78F867}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940828F4-83C4-C341-81E0-783FFBB5CCE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14320" firstSheet="3" activeTab="9" xr2:uid="{309167EE-B9E7-9F44-B3F3-07C1908B9528}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14320" activeTab="4" xr2:uid="{309167EE-B9E7-9F44-B3F3-07C1908B9528}"/>
   </bookViews>
   <sheets>
     <sheet name="Links" sheetId="10" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="106">
   <si>
     <t>Baden-Württemberg</t>
   </si>
@@ -219,27 +219,6 @@
   </si>
   <si>
     <t>davon elek­tro­nisch über­mittelt</t>
-  </si>
-  <si>
-    <t>454 (1)</t>
-  </si>
-  <si>
-    <t>331 (1)</t>
-  </si>
-  <si>
-    <t>500 (1)</t>
-  </si>
-  <si>
-    <t>688 (3)</t>
-  </si>
-  <si>
-    <t>688 (2)</t>
-  </si>
-  <si>
-    <t>2.369 (5)</t>
-  </si>
-  <si>
-    <t>1.892 (3)</t>
   </si>
   <si>
     <t>Todesfälle el. übermittelt</t>
@@ -397,6 +376,36 @@
   <si>
     <t>Titel</t>
   </si>
+  <si>
+    <t>(darunter Todes­fälle)</t>
+  </si>
+  <si>
+    <t>Beson­ders be­trof­fene Gebiete in Deutsch­land</t>
+  </si>
+  <si>
+    <t>569 (2)</t>
+  </si>
+  <si>
+    <t>506 (2)</t>
+  </si>
+  <si>
+    <t>681 (1)</t>
+  </si>
+  <si>
+    <t>605 (1)</t>
+  </si>
+  <si>
+    <t>1.154 (5)</t>
+  </si>
+  <si>
+    <t>Landkreis Heinsberg</t>
+  </si>
+  <si>
+    <t>3.795 (8)</t>
+  </si>
+  <si>
+    <t>3.421 (8)</t>
+  </si>
 </sst>
 </file>
 
@@ -406,7 +415,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -433,13 +442,6 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -618,9 +620,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -636,9 +638,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -668,7 +667,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -690,17 +688,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="22" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -714,32 +706,29 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="22" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="22" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
@@ -752,7 +741,7 @@
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -764,16 +753,15 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -786,7 +774,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -803,7 +791,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -812,7 +800,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -827,8 +815,32 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -836,7 +848,46 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="50">
+  <dxfs count="51">
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="27" formatCode="dd/mm/yy\ hh:mm"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1638,46 +1689,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="27" formatCode="dd/mm/yy\ hh:mm"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2430,10 +2441,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Cases!$B$2:$B$16</c:f>
+              <c:f>Cases!$B$2:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy\ h:mm</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>43889.416666666664</c:v>
                 </c:pt>
@@ -2478,16 +2489,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>43903.625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43904.625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cases!$T$2:$T$16</c:f>
+              <c:f>Cases!$T$2:$T$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>53</c:v>
                 </c:pt>
@@ -2532,6 +2546,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>3062</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3795</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2584,10 +2601,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Cases!$B$2:$B$16</c:f>
+              <c:f>Cases!$B$2:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy\ h:mm</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>43889.416666666664</c:v>
                 </c:pt>
@@ -2632,16 +2649,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>43903.625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43904.625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cases!$M$2:$M$16</c:f>
+              <c:f>Cases!$M$2:$M$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>25</c:v>
                 </c:pt>
@@ -2686,6 +2706,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>936</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1154</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2737,10 +2760,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Cases!$B$2:$B$16</c:f>
+              <c:f>Cases!$B$2:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy\ h:mm</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>43889.416666666664</c:v>
                 </c:pt>
@@ -2785,16 +2808,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>43903.625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43904.625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cases!$E$2:$E$16</c:f>
+              <c:f>Cases!$E$2:$E$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>15</c:v>
                 </c:pt>
@@ -2839,6 +2865,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>558</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>681</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2891,10 +2920,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Cases!$B$2:$B$16</c:f>
+              <c:f>Cases!$B$2:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy\ h:mm</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>43889.416666666664</c:v>
                 </c:pt>
@@ -2939,16 +2968,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>43903.625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43904.625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cases!$D$2:$D$16</c:f>
+              <c:f>Cases!$D$2:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -2993,6 +3025,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>454</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>569</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3044,10 +3079,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Cases!$B$2:$B$16</c:f>
+              <c:f>Cases!$B$2:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy\ h:mm</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>43889.416666666664</c:v>
                 </c:pt>
@@ -3092,16 +3127,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>43903.625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43904.625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cases!$L$2:$L$16</c:f>
+              <c:f>Cases!$L$2:$L$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3140,6 +3178,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>253</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3197,10 +3238,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Cases!$B$2:$B$16</c:f>
+              <c:f>Cases!$B$2:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy\ h:mm</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>43889.416666666664</c:v>
                 </c:pt>
@@ -3245,16 +3286,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>43903.625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43904.625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cases!$F$2:$F$16</c:f>
+              <c:f>Cases!$F$2:$F$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3290,6 +3334,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3347,10 +3394,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Cases!$B$2:$B$16</c:f>
+              <c:f>Cases!$B$2:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy\ h:mm</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>43889.416666666664</c:v>
                 </c:pt>
@@ -3395,16 +3442,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>43903.625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43904.625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cases!$J$2:$J$16</c:f>
+              <c:f>Cases!$J$2:$J$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="1">
                   <c:v>3</c:v>
                 </c:pt>
@@ -3446,6 +3496,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3503,10 +3556,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Cases!$B$2:$B$16</c:f>
+              <c:f>Cases!$B$2:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy\ h:mm</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>43889.416666666664</c:v>
                 </c:pt>
@@ -3551,16 +3604,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>43903.625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43904.625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cases!$I$2:$I$16</c:f>
+              <c:f>Cases!$I$2:$I$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3599,6 +3655,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>158</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3660,10 +3719,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Cases!$B$2:$B$16</c:f>
+              <c:f>Cases!$B$2:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy\ h:mm</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>43889.416666666664</c:v>
                 </c:pt>
@@ -3708,16 +3767,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>43903.625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43904.625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cases!$N$2:$N$16</c:f>
+              <c:f>Cases!$N$2:$N$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -3762,6 +3824,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>121</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3813,10 +3878,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Cases!$B$2:$B$16</c:f>
+              <c:f>Cases!$B$2:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy\ h:mm</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>43889.416666666664</c:v>
                 </c:pt>
@@ -3861,16 +3926,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>43903.625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43904.625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cases!$P$2:$P$16</c:f>
+              <c:f>Cases!$P$2:$P$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3903,6 +3971,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3960,10 +4031,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Cases!$B$2:$B$16</c:f>
+              <c:f>Cases!$B$2:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy\ h:mm</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>43889.416666666664</c:v>
                 </c:pt>
@@ -4008,16 +4079,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>43903.625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43904.625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cases!$H$2:$H$16</c:f>
+              <c:f>Cases!$H$2:$H$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4056,6 +4130,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4117,10 +4194,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Cases!$B$2:$B$16</c:f>
+              <c:f>Cases!$B$2:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy\ h:mm</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>43889.416666666664</c:v>
                 </c:pt>
@@ -4165,16 +4242,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>43903.625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43904.625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cases!$R$2:$R$16</c:f>
+              <c:f>Cases!$R$2:$R$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4219,6 +4299,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4276,10 +4359,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Cases!$B$2:$B$16</c:f>
+              <c:f>Cases!$B$2:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy\ h:mm</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>43889.416666666664</c:v>
                 </c:pt>
@@ -4324,16 +4407,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>43903.625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43904.625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cases!$G$2:$G$16</c:f>
+              <c:f>Cases!$G$2:$G$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4366,6 +4452,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4424,10 +4513,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Cases!$B$2:$B$16</c:f>
+              <c:f>Cases!$B$2:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy\ h:mm</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>43889.416666666664</c:v>
                 </c:pt>
@@ -4472,16 +4561,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>43903.625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43904.625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cases!$K$2:$K$16</c:f>
+              <c:f>Cases!$K$2:$K$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="5">
                   <c:v>4</c:v>
                 </c:pt>
@@ -4511,6 +4603,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4572,10 +4667,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Cases!$B$2:$B$16</c:f>
+              <c:f>Cases!$B$2:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy\ h:mm</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>43889.416666666664</c:v>
                 </c:pt>
@@ -4620,16 +4715,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>43903.625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43904.625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cases!$Q$2:$Q$16</c:f>
+              <c:f>Cases!$Q$2:$Q$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="11">
                   <c:v>7</c:v>
                 </c:pt>
@@ -4641,6 +4739,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4701,10 +4802,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Cases!$B$2:$B$16</c:f>
+              <c:f>Cases!$B$2:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy\ h:mm</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>43889.416666666664</c:v>
                 </c:pt>
@@ -4749,16 +4850,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>43903.625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43904.625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cases!$O$2:$O$16</c:f>
+              <c:f>Cases!$O$2:$O$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4787,6 +4891,9 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
@@ -4848,10 +4955,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Cases!$B$2:$B$16</c:f>
+              <c:f>Cases!$B$2:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy\ h:mm</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>43889.416666666664</c:v>
                 </c:pt>
@@ -4896,16 +5003,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>43903.625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43904.625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cases!$S$2:$S$16</c:f>
+              <c:f>Cases!$S$2:$S$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4938,6 +5048,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5449,7 +5562,7 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="1">
-                  <c:v>13.03.20</c:v>
+                  <c:v>14.03.20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5905,7 +6018,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Fälle DE absolut vs. pro 1 Mill Einwohner, 13.03.2020</c:v>
+              <c:v>Fälle DE absolut vs. pro 1 Mill Einwohner, 14.03.2020</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -6028,52 +6141,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>454</c:v>
+                  <c:v>569</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>558</c:v>
+                  <c:v>681</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>174</c:v>
+                  <c:v>216</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>99</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>148</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>230</c:v>
+                  <c:v>253</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>936</c:v>
+                  <c:v>1154</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>102</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>83</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>48</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>29</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6182,52 +6295,52 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>41.01359591670807</c:v>
+                  <c:v>51.402502371380827</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42.671316157746219</c:v>
+                  <c:v>52.077358966711785</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47.739244951712031</c:v>
+                  <c:v>59.262510974539069</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.516620884589354</c:v>
+                  <c:v>24.284406226362517</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>61.493411420204978</c:v>
+                  <c:v>73.206442166910691</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>53.769280903758414</c:v>
+                  <c:v>85.813599826200303</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.620287912158062</c:v>
+                  <c:v>32.398097609243834</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.500714418835805</c:v>
+                  <c:v>27.955519662048829</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28.81338945680497</c:v>
+                  <c:v>31.69472840248547</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>52.1951518733933</c:v>
+                  <c:v>64.351715023393012</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24.970622796709751</c:v>
+                  <c:v>29.622013317665491</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>40.38364462392731</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20.353613379435494</c:v>
+                  <c:v>22.805855955271095</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>19.019155006113301</c:v>
+                  <c:v>20.377666077978535</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16.570580315531469</c:v>
+                  <c:v>20.713225394414334</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13.531799729364005</c:v>
+                  <c:v>21.464234053473938</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8235,8 +8348,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>37201</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>189478</xdr:rowOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>119878</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8346,37 +8459,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AA0B1023-8C4D-8145-A1A0-49CB122C06A4}" name="Table2" displayName="Table2" ref="A1:T31" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48" tableBorderDxfId="47">
-  <autoFilter ref="A1:T31" xr:uid="{1DA4B026-4C97-DF45-BDEF-EE080E06CCC8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AA0B1023-8C4D-8145-A1A0-49CB122C06A4}" name="Table2" displayName="Table2" ref="A1:T35" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49" tableBorderDxfId="48">
+  <autoFilter ref="A1:T35" xr:uid="{1DA4B026-4C97-DF45-BDEF-EE080E06CCC8}"/>
   <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{7B77E861-ABD7-CC46-BE1B-62FFA855918A}" name="Num"/>
-    <tableColumn id="2" xr3:uid="{A9D891F0-4885-A946-9DA9-30886E848D1C}" name="Datum" dataDxfId="46"/>
-    <tableColumn id="3" xr3:uid="{6B048EE4-8426-2545-A3EF-71248E0D2493}" name="Typ" dataDxfId="45"/>
-    <tableColumn id="4" xr3:uid="{463A535E-E8DD-D048-8D23-5C03A237BD27}" name="Baden-Württemberg" dataDxfId="44"/>
-    <tableColumn id="5" xr3:uid="{C73439B1-ADFE-484D-9DAB-78AB3242649E}" name="Bayern" dataDxfId="43"/>
-    <tableColumn id="6" xr3:uid="{CDCD7B4C-FA1B-5D4B-84EC-1B93C9F2211E}" name="Berlin" dataDxfId="42"/>
-    <tableColumn id="7" xr3:uid="{4B381B0C-9038-7A45-87CA-C74BBBC89932}" name="Brandenburg" dataDxfId="41"/>
-    <tableColumn id="8" xr3:uid="{3367C2BC-28BE-3341-AE87-CDED4BFCEA07}" name="Bremen" dataDxfId="40"/>
-    <tableColumn id="9" xr3:uid="{2369A6E0-C0F1-C44F-8B78-5DB57E9AF79D}" name="Hamburg" dataDxfId="39"/>
-    <tableColumn id="10" xr3:uid="{884AB352-4A81-8D49-AA12-B8EAF3C487E0}" name="Hessen" dataDxfId="38"/>
-    <tableColumn id="11" xr3:uid="{AE5E62A0-1F89-2E45-8E7B-70BF95720068}" name="Mecklenburg-Vorpommern" dataDxfId="37"/>
-    <tableColumn id="12" xr3:uid="{8D805E80-59CE-8347-98B4-6475F75C5C51}" name="Niedersachsen" dataDxfId="36"/>
-    <tableColumn id="13" xr3:uid="{BC5F0195-1635-C145-8EDE-A5C46EA4D710}" name="Nordrhein-Westfalen" dataDxfId="35"/>
-    <tableColumn id="14" xr3:uid="{4BEE7460-1D9B-C945-80A2-92C7F08C0F01}" name="Rheinland-Pfalz" dataDxfId="34"/>
-    <tableColumn id="15" xr3:uid="{D7B5CC10-CE40-3D47-926F-900D84B7F92A}" name="Saarland" dataDxfId="33"/>
-    <tableColumn id="16" xr3:uid="{EB9CA25E-2271-3D42-8A65-F7C41B54CEA5}" name="Sachsen" dataDxfId="32"/>
-    <tableColumn id="17" xr3:uid="{4598E0DF-B360-1440-8958-D3461FAD3F74}" name="Sachsen-Anhalt" dataDxfId="31"/>
-    <tableColumn id="18" xr3:uid="{8B6E9527-F2CB-894B-B3E4-125132A86A5D}" name="Schleswig-Holstein" dataDxfId="30"/>
-    <tableColumn id="19" xr3:uid="{7D2272BD-A08B-574E-81AE-65E0FB33A9ED}" name="Thüringen" dataDxfId="29"/>
-    <tableColumn id="21" xr3:uid="{765949F0-761D-D24F-A85E-B329DA6357CA}" name="Gesamt" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{A9D891F0-4885-A946-9DA9-30886E848D1C}" name="Datum" dataDxfId="47"/>
+    <tableColumn id="3" xr3:uid="{6B048EE4-8426-2545-A3EF-71248E0D2493}" name="Typ" dataDxfId="46"/>
+    <tableColumn id="4" xr3:uid="{463A535E-E8DD-D048-8D23-5C03A237BD27}" name="Baden-Württemberg" dataDxfId="45"/>
+    <tableColumn id="5" xr3:uid="{C73439B1-ADFE-484D-9DAB-78AB3242649E}" name="Bayern" dataDxfId="44"/>
+    <tableColumn id="6" xr3:uid="{CDCD7B4C-FA1B-5D4B-84EC-1B93C9F2211E}" name="Berlin" dataDxfId="43"/>
+    <tableColumn id="7" xr3:uid="{4B381B0C-9038-7A45-87CA-C74BBBC89932}" name="Brandenburg" dataDxfId="42"/>
+    <tableColumn id="8" xr3:uid="{3367C2BC-28BE-3341-AE87-CDED4BFCEA07}" name="Bremen" dataDxfId="41"/>
+    <tableColumn id="9" xr3:uid="{2369A6E0-C0F1-C44F-8B78-5DB57E9AF79D}" name="Hamburg" dataDxfId="40"/>
+    <tableColumn id="10" xr3:uid="{884AB352-4A81-8D49-AA12-B8EAF3C487E0}" name="Hessen" dataDxfId="39"/>
+    <tableColumn id="11" xr3:uid="{AE5E62A0-1F89-2E45-8E7B-70BF95720068}" name="Mecklenburg-Vorpommern" dataDxfId="38"/>
+    <tableColumn id="12" xr3:uid="{8D805E80-59CE-8347-98B4-6475F75C5C51}" name="Niedersachsen" dataDxfId="37"/>
+    <tableColumn id="13" xr3:uid="{BC5F0195-1635-C145-8EDE-A5C46EA4D710}" name="Nordrhein-Westfalen" dataDxfId="36"/>
+    <tableColumn id="14" xr3:uid="{4BEE7460-1D9B-C945-80A2-92C7F08C0F01}" name="Rheinland-Pfalz" dataDxfId="35"/>
+    <tableColumn id="15" xr3:uid="{D7B5CC10-CE40-3D47-926F-900D84B7F92A}" name="Saarland" dataDxfId="34"/>
+    <tableColumn id="16" xr3:uid="{EB9CA25E-2271-3D42-8A65-F7C41B54CEA5}" name="Sachsen" dataDxfId="33"/>
+    <tableColumn id="17" xr3:uid="{4598E0DF-B360-1440-8958-D3461FAD3F74}" name="Sachsen-Anhalt" dataDxfId="32"/>
+    <tableColumn id="18" xr3:uid="{8B6E9527-F2CB-894B-B3E4-125132A86A5D}" name="Schleswig-Holstein" dataDxfId="31"/>
+    <tableColumn id="19" xr3:uid="{7D2272BD-A08B-574E-81AE-65E0FB33A9ED}" name="Thüringen" dataDxfId="30"/>
+    <tableColumn id="21" xr3:uid="{765949F0-761D-D24F-A85E-B329DA6357CA}" name="Gesamt" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BC3E90BD-768C-894C-8066-F63C881D4ADC}" name="Table5" displayName="Table5" ref="A1:V16" totalsRowShown="0" headerRowDxfId="27">
-  <autoFilter ref="A1:V16" xr:uid="{6D4C76C7-14AA-DE49-9FD4-833E447F2FCD}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BC3E90BD-768C-894C-8066-F63C881D4ADC}" name="Table5" displayName="Table5" ref="A1:V17" totalsRowShown="0" headerRowDxfId="28">
+  <autoFilter ref="A1:V17" xr:uid="{6D4C76C7-14AA-DE49-9FD4-833E447F2FCD}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -8401,9 +8514,9 @@
     <filterColumn colId="21" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{DFAB118E-A946-0146-85D1-FEC9DB7A54DB}" name="#"/>
-    <tableColumn id="2" xr3:uid="{7862783A-26AD-6144-8E4F-7DF624F1CEF7}" name="Date" dataDxfId="26"/>
-    <tableColumn id="43" xr3:uid="{F84758D7-1AC4-B146-AFFB-CD4F577D02F4}" name="Type" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{DFAB118E-A946-0146-85D1-FEC9DB7A54DB}" name="#" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{7862783A-26AD-6144-8E4F-7DF624F1CEF7}" name="Date" dataDxfId="1"/>
+    <tableColumn id="43" xr3:uid="{F84758D7-1AC4-B146-AFFB-CD4F577D02F4}" name="Type" dataDxfId="27"/>
     <tableColumn id="4" xr3:uid="{43B6A399-F36C-6047-9E96-578E372A058B}" name="Baden-_x000a_Württemberg"/>
     <tableColumn id="5" xr3:uid="{580A352D-B4BB-8441-B739-8AFA1B5CB9BA}" name="Bayern"/>
     <tableColumn id="6" xr3:uid="{684FD89D-0B27-F841-B632-2CFD5BC231AC}" name="Berlin"/>
@@ -8420,8 +8533,8 @@
     <tableColumn id="17" xr3:uid="{0DBAA36D-F571-034F-AEDF-5DD8569A9F97}" name="Sachsen-_x000a_Anhalt"/>
     <tableColumn id="18" xr3:uid="{32E1BDAD-8FF4-A948-A678-3A7C7BAA73DF}" name="Schleswig-_x000a_Holstein"/>
     <tableColumn id="19" xr3:uid="{EF74120E-C4F2-C545-B056-A59EEF12E00E}" name="Thüringen"/>
-    <tableColumn id="21" xr3:uid="{FF602C9D-05D0-E246-81AB-1676E61777BC}" name="DE Total" dataDxfId="24"/>
-    <tableColumn id="42" xr3:uid="{1C774CC4-9E60-FC4A-945C-79AC482211CE}" name="Delta" dataDxfId="23">
+    <tableColumn id="21" xr3:uid="{FF602C9D-05D0-E246-81AB-1676E61777BC}" name="DE Total" dataDxfId="26"/>
+    <tableColumn id="42" xr3:uid="{1C774CC4-9E60-FC4A-945C-79AC482211CE}" name="Delta" dataDxfId="25">
       <calculatedColumnFormula>IF(ISNUMBER(T1),T2-T1,"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="22" xr3:uid="{08AED83D-6D60-7848-A8C4-A04BA0C871FA}" name="Delta (%)" dataCellStyle="Per cent">
@@ -8435,8 +8548,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{2B4CB1FE-2F78-654B-9A83-851BD72419FA}" name="Table7" displayName="Table7" ref="A1:S16" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19">
-  <autoFilter ref="A1:S16" xr:uid="{5EC7B395-6250-0C4B-BF9E-DB8BEACEA0C0}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{2B4CB1FE-2F78-654B-9A83-851BD72419FA}" name="Table7" displayName="Table7" ref="A1:S17" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21">
+  <autoFilter ref="A1:S17" xr:uid="{5EC7B395-6250-0C4B-BF9E-DB8BEACEA0C0}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -8458,93 +8571,93 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{E6C8C471-F764-504D-8B4A-7552654EBAEC}" name="#" dataDxfId="18">
+    <tableColumn id="1" xr3:uid="{E6C8C471-F764-504D-8B4A-7552654EBAEC}" name="#" dataDxfId="20">
       <calculatedColumnFormula>Cases!A2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{F08A6D07-D47C-0B4B-BF63-BCF903E95EB5}" name="Date" dataDxfId="17">
+    <tableColumn id="2" xr3:uid="{F08A6D07-D47C-0B4B-BF63-BCF903E95EB5}" name="Date" dataDxfId="19">
       <calculatedColumnFormula>Cases!B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B6051F7E-D460-9A42-9D63-3975F8A75ACA}" name="Baden-_x000a_Württemberg" dataDxfId="16">
+    <tableColumn id="3" xr3:uid="{B6051F7E-D460-9A42-9D63-3975F8A75ACA}" name="Baden-_x000a_Württemberg" dataDxfId="18">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!D1),Cases!D1&gt;min_number),
 ((Cases!D2-Cases!D1)/Cases!D1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{10A737B8-2568-5841-8D5F-D47C446EE26C}" name="Bayern" dataDxfId="15">
+    <tableColumn id="4" xr3:uid="{10A737B8-2568-5841-8D5F-D47C446EE26C}" name="Bayern" dataDxfId="17">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!E1),Cases!E1&gt;min_number),
 ((Cases!E2-Cases!E1)/Cases!E1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{BCD2105D-8D71-454C-A02E-6424E3BA36AA}" name="Berlin" dataDxfId="14">
+    <tableColumn id="5" xr3:uid="{BCD2105D-8D71-454C-A02E-6424E3BA36AA}" name="Berlin" dataDxfId="16">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!F1),Cases!F1&gt;min_number),
 ((Cases!F2-Cases!F1)/Cases!F1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{53C79366-40AF-DC47-8F16-1C907EA8A25D}" name="Brandenburg" dataDxfId="13">
+    <tableColumn id="6" xr3:uid="{53C79366-40AF-DC47-8F16-1C907EA8A25D}" name="Brandenburg" dataDxfId="15">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!G1),Cases!G1&gt;min_number),
 ((Cases!G2-Cases!G1)/Cases!G1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{4AFFEB9A-9EF4-B04F-99AF-1421CC3F79F1}" name="Bremen" dataDxfId="12">
+    <tableColumn id="7" xr3:uid="{4AFFEB9A-9EF4-B04F-99AF-1421CC3F79F1}" name="Bremen" dataDxfId="14">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!H1),Cases!H1&gt;min_number),
 ((Cases!H2-Cases!H1)/Cases!H1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{C2100E3B-69C7-1749-9A4D-28C483AE2AD3}" name="Hamburg" dataDxfId="11">
+    <tableColumn id="8" xr3:uid="{C2100E3B-69C7-1749-9A4D-28C483AE2AD3}" name="Hamburg" dataDxfId="13">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!I1),Cases!I1&gt;min_number),
 ((Cases!I2-Cases!I1)/Cases!I1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{F062E681-CDB1-C140-B909-EA794C5F18A9}" name="Hessen" dataDxfId="10">
+    <tableColumn id="9" xr3:uid="{F062E681-CDB1-C140-B909-EA794C5F18A9}" name="Hessen" dataDxfId="12">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!J1),Cases!J1&gt;min_number),
 ((Cases!J2-Cases!J1)/Cases!J1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{E031E4B1-3E62-C345-B766-887BCDAAC02D}" name="Mecklenburg-_x000a_Vorpommern" dataDxfId="9">
+    <tableColumn id="10" xr3:uid="{E031E4B1-3E62-C345-B766-887BCDAAC02D}" name="Mecklenburg-_x000a_Vorpommern" dataDxfId="11">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!K1),Cases!K1&gt;min_number),
 ((Cases!K2-Cases!K1)/Cases!K1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{06616FA7-B824-034F-8561-0575963B7953}" name="Niedersachsen" dataDxfId="8">
+    <tableColumn id="11" xr3:uid="{06616FA7-B824-034F-8561-0575963B7953}" name="Niedersachsen" dataDxfId="10">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!L1),Cases!L1&gt;min_number),
 ((Cases!L2-Cases!L1)/Cases!L1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{A7D554C7-337E-5A4F-B3A4-DD9485FF1D61}" name="Nordrhein-_x000a_Westfalen" dataDxfId="7">
+    <tableColumn id="12" xr3:uid="{A7D554C7-337E-5A4F-B3A4-DD9485FF1D61}" name="Nordrhein-_x000a_Westfalen" dataDxfId="9">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!M1),Cases!M1&gt;min_number),
 ((Cases!M2-Cases!M1)/Cases!M1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{E7F4E0DB-41C5-F74B-B13C-082338064391}" name="Rheinland-_x000a_Pfalz" dataDxfId="6">
+    <tableColumn id="13" xr3:uid="{E7F4E0DB-41C5-F74B-B13C-082338064391}" name="Rheinland-_x000a_Pfalz" dataDxfId="8">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!N1),Cases!N1&gt;min_number),
 ((Cases!N2-Cases!N1)/Cases!N1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{F452CCA8-390B-D443-BCA6-EFE7E79127AA}" name="Saarland" dataDxfId="5">
+    <tableColumn id="14" xr3:uid="{F452CCA8-390B-D443-BCA6-EFE7E79127AA}" name="Saarland" dataDxfId="7">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!O1),Cases!O1&gt;min_number),
 ((Cases!O2-Cases!O1)/Cases!O1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{2BC6A12D-DFD6-A54D-9B25-30C67E2CACC1}" name="Sachsen" dataDxfId="4">
+    <tableColumn id="15" xr3:uid="{2BC6A12D-DFD6-A54D-9B25-30C67E2CACC1}" name="Sachsen" dataDxfId="6">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!P1),Cases!P1&gt;min_number),
 ((Cases!P2-Cases!P1)/Cases!P1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{F3454210-7502-7B43-87ED-828963C0BA58}" name="Sachsen-_x000a_Anhalt" dataDxfId="3">
+    <tableColumn id="16" xr3:uid="{F3454210-7502-7B43-87ED-828963C0BA58}" name="Sachsen-_x000a_Anhalt" dataDxfId="5">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!Q1),Cases!Q1&gt;min_number),
 ((Cases!Q2-Cases!Q1)/Cases!Q1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{3488A903-5F9F-FF4F-B253-A2C6BDED0D5C}" name="Schleswig-_x000a_Holstein" dataDxfId="2">
+    <tableColumn id="17" xr3:uid="{3488A903-5F9F-FF4F-B253-A2C6BDED0D5C}" name="Schleswig-_x000a_Holstein" dataDxfId="4">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!R1),Cases!R1&gt;min_number),
 ((Cases!R2-Cases!R1)/Cases!R1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{EBA9256A-1C44-B641-A90D-2900B16B2794}" name="Thüringen" dataDxfId="1">
+    <tableColumn id="18" xr3:uid="{EBA9256A-1C44-B641-A90D-2900B16B2794}" name="Thüringen" dataDxfId="3">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!S1),Cases!S1&gt;min_number),
 ((Cases!S2-Cases!S1)/Cases!S1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{8590B984-B71C-8D4E-AB2B-CC37C841189C}" name="DE Total" dataDxfId="0">
+    <tableColumn id="20" xr3:uid="{8590B984-B71C-8D4E-AB2B-CC37C841189C}" name="DE Total" dataDxfId="2">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!T1),Cases!T1&gt;min_number),
 ((Cases!T2-Cases!T1)/Cases!T1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
@@ -8857,50 +8970,50 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.1640625" style="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="125.33203125" style="44" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="44"/>
+    <col min="1" max="1" width="29.1640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="125.33203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="71" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="41" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="41" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="45" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="45" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="41" t="s">
         <v>29</v>
       </c>
     </row>
@@ -8920,55 +9033,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD699B48-9B9A-DD49-8864-472A6998CAC7}">
   <dimension ref="A2:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B2">
         <f>last_DE_Total</f>
-        <v>3062</v>
+        <v>3795</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B3">
         <v>1000000</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="22">
+        <v>57</v>
+      </c>
+      <c r="B4" s="20">
         <f xml:space="preserve"> LOG(B3/B2,2)</f>
-        <v>8.3513100018243858</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>8.0416843990213458</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="52">
+        <v>60</v>
+      </c>
+      <c r="B5" s="47">
         <f>B4*E2</f>
-        <v>25.053930005473156</v>
+        <v>24.125053197064037</v>
       </c>
     </row>
   </sheetData>
@@ -8978,453 +9091,483 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA00A9F-6A15-E440-8C87-85055F8A0710}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:H20"/>
+      <selection activeCell="F1" sqref="F1:I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" customWidth="1"/>
+    <col min="5" max="5" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="E1" s="4">
-        <v>43902.625</v>
-      </c>
-      <c r="F1" s="3"/>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F1" s="4">
+        <v>43904.625</v>
+      </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" ht="134">
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" ht="134" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>43902.625</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="D2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="H2" s="89" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="89" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="3"/>
+        <v>96</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>454</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3">
-        <v>401</v>
-      </c>
-      <c r="H4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>99</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="90">
+        <v>569</v>
+      </c>
+      <c r="G4" s="90">
+        <v>2</v>
+      </c>
+      <c r="H4" s="90">
+        <v>506</v>
+      </c>
+      <c r="I4" s="90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="3">
-        <v>317</v>
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="90">
+        <v>681</v>
+      </c>
+      <c r="G5" s="90">
         <v>1</v>
       </c>
-      <c r="E5" s="3">
-        <v>558</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="H5" s="90">
+        <v>605</v>
+      </c>
+      <c r="I5" s="90">
         <v>1</v>
       </c>
-      <c r="G5" s="3">
-        <v>412</v>
-      </c>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="3">
-        <v>137</v>
+      <c r="B6" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="C6" s="3">
-        <v>137</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="3">
-        <v>174</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3">
-        <v>174</v>
-      </c>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8">
+        <v>216</v>
+      </c>
+      <c r="D6" s="3">
+        <v>216</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="90">
+        <v>216</v>
+      </c>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90">
+        <v>216</v>
+      </c>
+      <c r="I6" s="90"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="3">
-        <v>30</v>
+      <c r="B7" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C7" s="3">
-        <v>23</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="3">
-        <v>44</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3">
-        <v>44</v>
-      </c>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="D7" s="3">
+        <v>57</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="90">
+        <v>61</v>
+      </c>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90">
+        <v>57</v>
+      </c>
+      <c r="I7" s="90"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="3">
-        <v>38</v>
+      <c r="B8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="C8" s="3">
-        <v>35</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="3">
-        <v>42</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3">
-        <v>42</v>
-      </c>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="D8" s="3">
+        <v>50</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="90">
+        <v>50</v>
+      </c>
+      <c r="G8" s="90"/>
+      <c r="H8" s="90">
+        <v>50</v>
+      </c>
+      <c r="I8" s="90"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="3">
-        <v>88</v>
+      <c r="B9" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C9" s="3">
-        <v>60</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="3">
-        <v>99</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3">
-        <v>99</v>
-      </c>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8">
+        <v>158</v>
+      </c>
+      <c r="D9" s="3">
+        <v>119</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="90">
+        <v>158</v>
+      </c>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90">
+        <v>119</v>
+      </c>
+      <c r="I9" s="90"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="3">
-        <v>99</v>
+      <c r="B10" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C10" s="3">
-        <v>59</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="3">
-        <v>148</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3">
-        <v>94</v>
-      </c>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8">
+        <v>203</v>
+      </c>
+      <c r="D10" s="3">
+        <v>141</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="90">
+        <v>203</v>
+      </c>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90">
+        <v>141</v>
+      </c>
+      <c r="I10" s="90"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3">
+        <v>45</v>
+      </c>
+      <c r="D11" s="3">
         <v>23</v>
       </c>
-      <c r="C11" s="3">
-        <v>16</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="3">
-        <v>33</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3">
-        <v>21</v>
-      </c>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="E11" s="3"/>
+      <c r="F11" s="90">
+        <v>45</v>
+      </c>
+      <c r="G11" s="90"/>
+      <c r="H11" s="90">
+        <v>23</v>
+      </c>
+      <c r="I11" s="90"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="3">
-        <v>129</v>
+      <c r="B12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C12" s="3">
-        <v>81</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="3">
-        <v>230</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3">
-        <v>134</v>
-      </c>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8">
+        <v>253</v>
+      </c>
+      <c r="D12" s="3">
+        <v>187</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="90">
+        <v>253</v>
+      </c>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90">
+        <v>187</v>
+      </c>
+      <c r="I12" s="90"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="3">
-        <v>936</v>
-      </c>
-      <c r="F13" s="3">
-        <v>3</v>
-      </c>
-      <c r="G13" s="3">
-        <v>887</v>
-      </c>
-      <c r="H13" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="90">
+        <v>1154</v>
+      </c>
+      <c r="G13" s="90">
+        <v>5</v>
+      </c>
+      <c r="H13" s="90">
+        <v>1154</v>
+      </c>
+      <c r="I13" s="90">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="3">
-        <v>52</v>
+      <c r="B14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="C14" s="3">
-        <v>52</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="3">
-        <v>102</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3">
-        <v>102</v>
-      </c>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8">
+        <v>121</v>
+      </c>
+      <c r="D14" s="3">
+        <v>121</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="90">
+        <v>121</v>
+      </c>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90">
+        <v>121</v>
+      </c>
+      <c r="I14" s="90"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="3">
-        <v>14</v>
+      <c r="B15" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C15" s="3">
-        <v>8</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="3">
         <v>40</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3">
-        <v>30</v>
-      </c>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="D15" s="3">
+        <v>31</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="90">
+        <v>40</v>
+      </c>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90">
+        <v>31</v>
+      </c>
+      <c r="I15" s="90"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="3">
-        <v>45</v>
+      <c r="B16" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C16" s="3">
-        <v>30</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="3">
-        <v>83</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3">
-        <v>46</v>
-      </c>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="D16" s="3">
+        <v>86</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="90">
+        <v>93</v>
+      </c>
+      <c r="G16" s="90"/>
+      <c r="H16" s="90">
+        <v>86</v>
+      </c>
+      <c r="I16" s="90"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="3">
-        <v>27</v>
+      <c r="B17" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C17" s="3">
-        <v>14</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="3">
-        <v>42</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3">
-        <v>29</v>
-      </c>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="D17" s="3">
+        <v>40</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="90">
+        <v>45</v>
+      </c>
+      <c r="G17" s="90"/>
+      <c r="H17" s="90">
+        <v>40</v>
+      </c>
+      <c r="I17" s="90"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="3">
-        <v>31</v>
+      <c r="B18" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="C18" s="3">
-        <v>29</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="3">
-        <v>48</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3">
-        <v>45</v>
-      </c>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="D18" s="3">
+        <v>54</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="90">
+        <v>60</v>
+      </c>
+      <c r="G18" s="90"/>
+      <c r="H18" s="90">
+        <v>54</v>
+      </c>
+      <c r="I18" s="90"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="3">
-        <v>14</v>
+      <c r="B19" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C19" s="3">
-        <v>12</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="3">
-        <v>29</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3">
-        <v>16</v>
-      </c>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="D19" s="3">
+        <v>31</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="90">
+        <v>46</v>
+      </c>
+      <c r="G19" s="90"/>
+      <c r="H19" s="90">
+        <v>31</v>
+      </c>
+      <c r="I19" s="90"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="6">
-        <v>3062</v>
-      </c>
-      <c r="F20" s="3">
-        <v>5</v>
-      </c>
-      <c r="G20" s="6">
-        <v>2576</v>
-      </c>
-      <c r="H20" s="3">
-        <v>4</v>
+        <v>105</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="90">
+        <v>3795</v>
+      </c>
+      <c r="G20" s="90">
+        <v>8</v>
+      </c>
+      <c r="H20" s="90">
+        <v>3421</v>
+      </c>
+      <c r="I20" s="90">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -9434,14 +9577,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27E71FF5-2B72-8B4C-A9D9-0EB9ABC7551A}">
-  <dimension ref="A1:AE44"/>
+  <dimension ref="A1:AI44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AB1" sqref="AB1:AE19"/>
+      <pane xSplit="1" topLeftCell="AA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AF1" sqref="AF1:AI19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.83203125" style="3" customWidth="1"/>
     <col min="2" max="9" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
@@ -9457,10 +9600,12 @@
     <col min="21" max="24" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="25" max="27" width="10.83203125" style="3"/>
     <col min="28" max="28" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="10.83203125" style="3"/>
+    <col min="29" max="31" width="10.83203125" style="3"/>
+    <col min="32" max="32" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
@@ -9515,8 +9660,11 @@
       <c r="AB1" s="4">
         <v>43903.625</v>
       </c>
-    </row>
-    <row r="2" spans="1:31" s="2" customFormat="1" ht="134">
+      <c r="AF1" s="4">
+        <v>43904.625</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" s="2" customFormat="1" ht="134" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -9593,10 +9741,10 @@
         <v>19</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AB2" s="2" t="s">
         <v>18</v>
@@ -9605,13 +9753,25 @@
         <v>19</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31">
+        <v>44</v>
+      </c>
+      <c r="AF2" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG2" s="89" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH2" s="89" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI2" s="89" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -9684,8 +9844,20 @@
       <c r="AE3" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:31">
+      <c r="AF3" s="90">
+        <v>569</v>
+      </c>
+      <c r="AG3" s="90">
+        <v>2</v>
+      </c>
+      <c r="AH3" s="90">
+        <v>506</v>
+      </c>
+      <c r="AI3" s="90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -9752,8 +9924,20 @@
       <c r="AD4" s="3">
         <v>412</v>
       </c>
-    </row>
-    <row r="5" spans="1:31">
+      <c r="AF4" s="90">
+        <v>681</v>
+      </c>
+      <c r="AG4" s="90">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="90">
+        <v>605</v>
+      </c>
+      <c r="AI4" s="90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -9805,8 +9989,16 @@
       <c r="AD5" s="3">
         <v>174</v>
       </c>
-    </row>
-    <row r="6" spans="1:31">
+      <c r="AF5" s="90">
+        <v>216</v>
+      </c>
+      <c r="AG5" s="90"/>
+      <c r="AH5" s="90">
+        <v>216</v>
+      </c>
+      <c r="AI5" s="90"/>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -9855,8 +10047,16 @@
       <c r="AD6" s="3">
         <v>44</v>
       </c>
-    </row>
-    <row r="7" spans="1:31">
+      <c r="AF6" s="90">
+        <v>61</v>
+      </c>
+      <c r="AG6" s="90"/>
+      <c r="AH6" s="90">
+        <v>57</v>
+      </c>
+      <c r="AI6" s="90"/>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -9911,8 +10111,16 @@
       <c r="AD7" s="3">
         <v>42</v>
       </c>
-    </row>
-    <row r="8" spans="1:31">
+      <c r="AF7" s="90">
+        <v>50</v>
+      </c>
+      <c r="AG7" s="90"/>
+      <c r="AH7" s="90">
+        <v>50</v>
+      </c>
+      <c r="AI7" s="90"/>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -9967,8 +10175,16 @@
       <c r="AD8" s="3">
         <v>99</v>
       </c>
-    </row>
-    <row r="9" spans="1:31">
+      <c r="AF8" s="90">
+        <v>158</v>
+      </c>
+      <c r="AG8" s="90"/>
+      <c r="AH8" s="90">
+        <v>119</v>
+      </c>
+      <c r="AI8" s="90"/>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -10026,8 +10242,16 @@
       <c r="AD9" s="3">
         <v>94</v>
       </c>
-    </row>
-    <row r="10" spans="1:31">
+      <c r="AF9" s="90">
+        <v>203</v>
+      </c>
+      <c r="AG9" s="90"/>
+      <c r="AH9" s="90">
+        <v>141</v>
+      </c>
+      <c r="AI9" s="90"/>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -10073,8 +10297,16 @@
       <c r="AD10" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:31">
+      <c r="AF10" s="90">
+        <v>45</v>
+      </c>
+      <c r="AG10" s="90"/>
+      <c r="AH10" s="90">
+        <v>23</v>
+      </c>
+      <c r="AI10" s="90"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -10129,8 +10361,16 @@
       <c r="AD11" s="3">
         <v>134</v>
       </c>
-    </row>
-    <row r="12" spans="1:31">
+      <c r="AF11" s="90">
+        <v>253</v>
+      </c>
+      <c r="AG11" s="90"/>
+      <c r="AH11" s="90">
+        <v>187</v>
+      </c>
+      <c r="AI11" s="90"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -10224,8 +10464,20 @@
       <c r="AE12" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:31">
+      <c r="AF12" s="90">
+        <v>1154</v>
+      </c>
+      <c r="AG12" s="90">
+        <v>5</v>
+      </c>
+      <c r="AH12" s="90">
+        <v>1154</v>
+      </c>
+      <c r="AI12" s="90">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -10286,8 +10538,16 @@
       <c r="AD13" s="3">
         <v>102</v>
       </c>
-    </row>
-    <row r="14" spans="1:31">
+      <c r="AF13" s="90">
+        <v>121</v>
+      </c>
+      <c r="AG13" s="90"/>
+      <c r="AH13" s="90">
+        <v>121</v>
+      </c>
+      <c r="AI13" s="90"/>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
@@ -10333,8 +10593,16 @@
       <c r="AD14" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:31">
+      <c r="AF14" s="90">
+        <v>40</v>
+      </c>
+      <c r="AG14" s="90"/>
+      <c r="AH14" s="90">
+        <v>31</v>
+      </c>
+      <c r="AI14" s="90"/>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
@@ -10380,8 +10648,16 @@
       <c r="AD15" s="3">
         <v>46</v>
       </c>
-    </row>
-    <row r="16" spans="1:31">
+      <c r="AF15" s="90">
+        <v>93</v>
+      </c>
+      <c r="AG15" s="90"/>
+      <c r="AH15" s="90">
+        <v>86</v>
+      </c>
+      <c r="AI15" s="90"/>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
@@ -10409,8 +10685,16 @@
       <c r="AD16" s="3">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:31">
+      <c r="AF16" s="90">
+        <v>45</v>
+      </c>
+      <c r="AG16" s="90"/>
+      <c r="AH16" s="90">
+        <v>40</v>
+      </c>
+      <c r="AI16" s="90"/>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
@@ -10468,8 +10752,16 @@
       <c r="AD17" s="3">
         <v>45</v>
       </c>
-    </row>
-    <row r="18" spans="1:31">
+      <c r="AF17" s="90">
+        <v>60</v>
+      </c>
+      <c r="AG17" s="90"/>
+      <c r="AH17" s="90">
+        <v>54</v>
+      </c>
+      <c r="AI17" s="90"/>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
@@ -10518,8 +10810,16 @@
       <c r="AD18" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:31">
+      <c r="AF18" s="90">
+        <v>46</v>
+      </c>
+      <c r="AG18" s="90"/>
+      <c r="AH18" s="90">
+        <v>31</v>
+      </c>
+      <c r="AI18" s="90"/>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>16</v>
       </c>
@@ -10594,8 +10894,20 @@
       <c r="AE19" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:31">
+      <c r="AF19" s="90">
+        <v>3795</v>
+      </c>
+      <c r="AG19" s="90">
+        <v>8</v>
+      </c>
+      <c r="AH19" s="90">
+        <v>3421</v>
+      </c>
+      <c r="AI19" s="90">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -10614,7 +10926,7 @@
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
     </row>
-    <row r="24" spans="1:31">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -10633,7 +10945,7 @@
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
     </row>
-    <row r="44" spans="18:18">
+    <row r="44" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R44" s="6"/>
     </row>
   </sheetData>
@@ -10643,445 +10955,445 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F5B1F18-8A79-3242-815B-7FAFD236451B}">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T35"/>
   <sheetViews>
     <sheetView topLeftCell="A20" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:T29"/>
+      <selection activeCell="A33" sqref="A33:T33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="21" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="8" customFormat="1" ht="142">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:20" s="8" customFormat="1" ht="142" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="R1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="S1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="18" t="s">
+      <c r="T1" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="9">
         <v>43889.416666666664</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <v>10</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="10">
         <v>15</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11">
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10">
         <v>25</v>
       </c>
-      <c r="N2" s="11">
+      <c r="N2" s="10">
         <v>2</v>
       </c>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11">
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10">
         <v>1</v>
       </c>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11">
+      <c r="S2" s="10"/>
+      <c r="T2" s="10">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="11">
         <v>43890.416666666664</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="12">
         <v>14</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="12">
         <v>15</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13">
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12">
         <v>3</v>
       </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13">
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12">
         <v>30</v>
       </c>
-      <c r="N3" s="13">
+      <c r="N3" s="12">
         <v>1</v>
       </c>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13">
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12">
         <v>1</v>
       </c>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13">
+      <c r="S3" s="12"/>
+      <c r="T3" s="12">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>43891.625</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>15</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>23</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11">
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10">
         <v>1</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="10">
         <v>1</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="10">
         <v>8</v>
       </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11">
+      <c r="K4" s="10"/>
+      <c r="L4" s="10">
         <v>1</v>
       </c>
-      <c r="M4" s="11">
+      <c r="M4" s="10">
         <v>74</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="10">
         <v>2</v>
       </c>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11">
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10">
         <v>2</v>
       </c>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11">
+      <c r="S4" s="10"/>
+      <c r="T4" s="10">
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <v>43892.625</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="12">
         <v>20</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>26</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="12">
         <v>1</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13">
+      <c r="G5" s="12"/>
+      <c r="H5" s="12">
         <v>1</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="12">
         <v>2</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="12">
         <v>10</v>
       </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13">
+      <c r="K5" s="12"/>
+      <c r="L5" s="12">
         <v>1</v>
       </c>
-      <c r="M5" s="13">
+      <c r="M5" s="12">
         <v>90</v>
       </c>
-      <c r="N5" s="13">
+      <c r="N5" s="12">
         <v>2</v>
       </c>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13">
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12">
         <v>2</v>
       </c>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13">
+      <c r="S5" s="12"/>
+      <c r="T5" s="12">
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <v>43893.625</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>28</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>37</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>3</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <v>1</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="10">
         <v>2</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="10">
         <v>2</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="10">
         <v>12</v>
       </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11">
+      <c r="K6" s="10"/>
+      <c r="L6" s="10">
         <v>2</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="10">
         <v>103</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="10">
         <v>2</v>
       </c>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11">
+      <c r="O6" s="10"/>
+      <c r="P6" s="10">
         <v>1</v>
       </c>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11">
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10">
         <v>2</v>
       </c>
-      <c r="S6" s="11">
+      <c r="S6" s="10">
         <v>1</v>
       </c>
-      <c r="T6" s="11">
+      <c r="T6" s="10">
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="11">
         <v>43894.625</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="12">
         <v>50</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="12">
         <v>48</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="12">
         <v>7</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="12">
         <v>1</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="12">
         <v>3</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="12">
         <v>3</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="12">
         <v>12</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="12">
         <v>4</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="12">
         <v>7</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="12">
         <v>115</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N7" s="12">
         <v>7</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O7" s="12">
         <v>1</v>
       </c>
-      <c r="P7" s="13">
+      <c r="P7" s="12">
         <v>1</v>
       </c>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13">
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12">
         <v>2</v>
       </c>
-      <c r="S7" s="13">
+      <c r="S7" s="12">
         <v>1</v>
       </c>
-      <c r="T7" s="13">
+      <c r="T7" s="12">
         <v>262</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>43895.625</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>73</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>70</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>13</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="10">
         <v>1</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="10">
         <v>3</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="10">
         <v>5</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="10">
         <v>14</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="10">
         <v>4</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="10">
         <v>18</v>
       </c>
-      <c r="M8" s="11">
+      <c r="M8" s="10">
         <v>181</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N8" s="10">
         <v>8</v>
       </c>
-      <c r="O8" s="11">
+      <c r="O8" s="10">
         <v>1</v>
       </c>
-      <c r="P8" s="11">
+      <c r="P8" s="10">
         <v>1</v>
       </c>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11">
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10">
         <v>7</v>
       </c>
-      <c r="S8" s="11">
+      <c r="S8" s="10">
         <v>1</v>
       </c>
-      <c r="T8" s="11">
+      <c r="T8" s="10">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" s="4">
         <v>43896.625</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="3">
@@ -11134,789 +11446,789 @@
         <v>639</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" s="4">
         <v>43896.625</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11">
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10">
         <v>1</v>
       </c>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-    </row>
-    <row r="11" spans="1:20">
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="11">
         <v>43897.625</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="12">
         <v>170</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="12">
         <v>134</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="12">
         <v>28</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="12">
         <v>2</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="12">
         <v>4</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="12">
         <v>13</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="12">
         <v>17</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="12">
         <v>5</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11" s="12">
         <v>19</v>
       </c>
-      <c r="M11" s="13">
+      <c r="M11" s="12">
         <v>373</v>
       </c>
-      <c r="N11" s="13">
+      <c r="N11" s="12">
         <v>13</v>
       </c>
-      <c r="O11" s="13">
+      <c r="O11" s="12">
         <v>3</v>
       </c>
-      <c r="P11" s="13">
+      <c r="P11" s="12">
         <v>4</v>
       </c>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13">
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12">
         <v>8</v>
       </c>
-      <c r="S11" s="13">
+      <c r="S11" s="12">
         <v>2</v>
       </c>
-      <c r="T11" s="13">
+      <c r="T11" s="12">
         <v>795</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="9">
         <v>43897.625</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11">
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10">
         <v>1</v>
       </c>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-    </row>
-    <row r="13" spans="1:20">
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <v>43898.625</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="12">
         <v>182</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="12">
         <v>172</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="12">
         <v>40</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="12">
         <v>4</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="12">
         <v>4</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="12">
         <v>13</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="12">
         <v>19</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="12">
         <v>8</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="12">
         <v>21</v>
       </c>
-      <c r="M13" s="13">
+      <c r="M13" s="12">
         <v>398</v>
       </c>
-      <c r="N13" s="13">
+      <c r="N13" s="12">
         <v>19</v>
       </c>
-      <c r="O13" s="13">
+      <c r="O13" s="12">
         <v>4</v>
       </c>
-      <c r="P13" s="13">
+      <c r="P13" s="12">
         <v>7</v>
       </c>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13">
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12">
         <v>9</v>
       </c>
-      <c r="S13" s="13">
+      <c r="S13" s="12">
         <v>2</v>
       </c>
-      <c r="T13" s="13">
+      <c r="T13" s="12">
         <v>902</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>9</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="9">
         <v>43898.625</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11">
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10">
         <v>1</v>
       </c>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-    </row>
-    <row r="15" spans="1:20">
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>10</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="11">
         <v>43899.625</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="12">
         <v>204</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="12">
         <v>256</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="12">
         <v>48</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="12">
         <v>6</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="12">
         <v>4</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="12">
         <v>17</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J15" s="12">
         <v>26</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K15" s="12">
         <v>10</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L15" s="12">
         <v>38</v>
       </c>
-      <c r="M15" s="13">
+      <c r="M15" s="12">
         <v>484</v>
       </c>
-      <c r="N15" s="13">
+      <c r="N15" s="12">
         <v>17</v>
       </c>
-      <c r="O15" s="13">
+      <c r="O15" s="12">
         <v>6</v>
       </c>
-      <c r="P15" s="13">
+      <c r="P15" s="12">
         <v>12</v>
       </c>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13">
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12">
         <v>9</v>
       </c>
-      <c r="S15" s="13">
+      <c r="S15" s="12">
         <v>2</v>
       </c>
-      <c r="T15" s="13">
+      <c r="T15" s="12">
         <v>1139</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>10</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="9">
         <v>43899.625</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11">
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10">
         <v>2</v>
       </c>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11">
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>10</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="11">
         <v>43899.625</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13">
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12">
         <v>1</v>
       </c>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-    </row>
-    <row r="18" spans="1:20" s="23" customFormat="1">
-      <c r="A18" s="23">
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+    </row>
+    <row r="18" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="21">
         <v>11</v>
       </c>
-      <c r="B18" s="25">
+      <c r="B18" s="23">
         <v>43900.625</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="24">
         <v>237</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E18" s="24">
         <v>314</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F18" s="24">
         <v>48</v>
       </c>
-      <c r="G18" s="26">
+      <c r="G18" s="24">
         <v>9</v>
       </c>
-      <c r="H18" s="26">
+      <c r="H18" s="24">
         <v>4</v>
       </c>
-      <c r="I18" s="26">
+      <c r="I18" s="24">
         <v>29</v>
       </c>
-      <c r="J18" s="26">
+      <c r="J18" s="24">
         <v>35</v>
       </c>
-      <c r="K18" s="26">
+      <c r="K18" s="24">
         <v>13</v>
       </c>
-      <c r="L18" s="26">
+      <c r="L18" s="24">
         <v>49</v>
       </c>
-      <c r="M18" s="26">
+      <c r="M18" s="24">
         <v>484</v>
       </c>
-      <c r="N18" s="26">
+      <c r="N18" s="24">
         <v>25</v>
       </c>
-      <c r="O18" s="26">
+      <c r="O18" s="24">
         <v>7</v>
       </c>
-      <c r="P18" s="26">
+      <c r="P18" s="24">
         <v>22</v>
       </c>
-      <c r="Q18" s="26">
+      <c r="Q18" s="24">
         <v>7</v>
       </c>
-      <c r="R18" s="26">
+      <c r="R18" s="24">
         <v>9</v>
       </c>
-      <c r="S18" s="26">
+      <c r="S18" s="24">
         <v>4</v>
       </c>
-      <c r="T18" s="23">
+      <c r="T18" s="21">
         <v>1296</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>11</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="11">
         <v>43900.625</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13">
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12">
         <v>2</v>
       </c>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13">
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12">
         <f>SUM(D19:S19)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>11</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="9">
         <v>43900.625</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11">
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10">
         <v>1</v>
       </c>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-    </row>
-    <row r="21" spans="1:20">
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>12</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="11">
         <v>43901.625</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="12">
         <v>277</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="12">
         <v>366</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="12">
         <v>90</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="12">
         <v>24</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="12">
         <v>21</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I21" s="12">
         <v>48</v>
       </c>
-      <c r="J21" s="13">
+      <c r="J21" s="12">
         <v>48</v>
       </c>
-      <c r="K21" s="13">
+      <c r="K21" s="12">
         <v>17</v>
       </c>
-      <c r="L21" s="13">
+      <c r="L21" s="12">
         <v>75</v>
       </c>
-      <c r="M21" s="13">
+      <c r="M21" s="12">
         <v>484</v>
       </c>
-      <c r="N21" s="13">
+      <c r="N21" s="12">
         <v>25</v>
       </c>
-      <c r="O21" s="13">
+      <c r="O21" s="12">
         <v>14</v>
       </c>
-      <c r="P21" s="13">
+      <c r="P21" s="12">
         <v>26</v>
       </c>
-      <c r="Q21" s="13">
+      <c r="Q21" s="12">
         <v>15</v>
       </c>
-      <c r="R21" s="13">
+      <c r="R21" s="12">
         <v>27</v>
       </c>
-      <c r="S21" s="13">
+      <c r="S21" s="12">
         <v>10</v>
       </c>
-      <c r="T21" s="13">
+      <c r="T21" s="12">
         <v>1567</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>12</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="9">
         <v>43901.625</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11">
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10">
         <v>3</v>
       </c>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11">
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>12</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B23" s="13">
         <v>43901.625</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15">
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14">
         <v>1</v>
       </c>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="15"/>
-      <c r="S23" s="15"/>
-      <c r="T23" s="15"/>
-    </row>
-    <row r="24" spans="1:20">
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>13</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="11">
         <v>43902.625</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="12">
         <v>454</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="12">
         <v>500</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="12">
         <v>137</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G24" s="12">
         <v>30</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H24" s="12">
         <v>38</v>
       </c>
-      <c r="I24" s="13">
+      <c r="I24" s="12">
         <v>88</v>
       </c>
-      <c r="J24" s="13">
+      <c r="J24" s="12">
         <v>99</v>
       </c>
-      <c r="K24" s="13">
+      <c r="K24" s="12">
         <v>23</v>
       </c>
-      <c r="L24" s="13">
+      <c r="L24" s="12">
         <v>129</v>
       </c>
-      <c r="M24" s="13">
+      <c r="M24" s="12">
         <v>688</v>
       </c>
-      <c r="N24" s="13">
+      <c r="N24" s="12">
         <v>52</v>
       </c>
-      <c r="O24" s="13">
+      <c r="O24" s="12">
         <v>14</v>
       </c>
-      <c r="P24" s="13">
+      <c r="P24" s="12">
         <v>45</v>
       </c>
-      <c r="Q24" s="13">
+      <c r="Q24" s="12">
         <v>27</v>
       </c>
-      <c r="R24" s="13">
+      <c r="R24" s="12">
         <v>31</v>
       </c>
-      <c r="S24" s="13">
+      <c r="S24" s="12">
         <v>14</v>
       </c>
-      <c r="T24" s="56">
+      <c r="T24" s="51">
         <v>2369</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>13</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="11">
         <v>43902.625</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D25" s="18">
         <v>1</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E25" s="18">
         <v>1</v>
       </c>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20">
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18">
         <v>3</v>
       </c>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="20">
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="18">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>13</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="11">
         <v>43902.625</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="18">
+        <v>331</v>
+      </c>
+      <c r="E26" s="18">
+        <v>317</v>
+      </c>
+      <c r="F26" s="18">
+        <v>137</v>
+      </c>
+      <c r="G26" s="18">
+        <v>23</v>
+      </c>
+      <c r="H26" s="18">
+        <v>35</v>
+      </c>
+      <c r="I26" s="18">
+        <v>60</v>
+      </c>
+      <c r="J26" s="18">
+        <v>59</v>
+      </c>
+      <c r="K26" s="18">
+        <v>16</v>
+      </c>
+      <c r="L26" s="18">
+        <v>81</v>
+      </c>
+      <c r="M26" s="18">
+        <v>688</v>
+      </c>
+      <c r="N26" s="18">
         <v>52</v>
       </c>
-      <c r="D26" s="20">
-        <v>331</v>
-      </c>
-      <c r="E26" s="20">
-        <v>317</v>
-      </c>
-      <c r="F26" s="20">
-        <v>137</v>
-      </c>
-      <c r="G26" s="20">
-        <v>23</v>
-      </c>
-      <c r="H26" s="20">
-        <v>35</v>
-      </c>
-      <c r="I26" s="20">
-        <v>60</v>
-      </c>
-      <c r="J26" s="20">
-        <v>59</v>
-      </c>
-      <c r="K26" s="20">
-        <v>16</v>
-      </c>
-      <c r="L26" s="20">
-        <v>81</v>
-      </c>
-      <c r="M26" s="20">
-        <v>688</v>
-      </c>
-      <c r="N26" s="20">
-        <v>52</v>
-      </c>
-      <c r="O26" s="20">
+      <c r="O26" s="18">
         <v>8</v>
       </c>
-      <c r="P26" s="20">
+      <c r="P26" s="18">
         <v>30</v>
       </c>
-      <c r="Q26" s="20">
+      <c r="Q26" s="18">
         <v>14</v>
       </c>
-      <c r="R26" s="20">
+      <c r="R26" s="18">
         <v>29</v>
       </c>
-      <c r="S26" s="20">
+      <c r="S26" s="18">
         <v>12</v>
       </c>
-      <c r="T26" s="57">
+      <c r="T26" s="52">
         <v>1892</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>13</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="11">
         <v>43902.625</v>
       </c>
-      <c r="C27" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="20">
+      <c r="C27" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="18">
         <v>1</v>
       </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20">
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18">
         <v>2</v>
       </c>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="20"/>
-      <c r="T27" s="20">
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="18">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>14</v>
       </c>
       <c r="B28" s="4">
         <v>43903.625</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="3">
@@ -11971,14 +12283,14 @@
         <v>3062</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>14</v>
       </c>
       <c r="B29" s="4">
         <v>43903.625</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="18" t="s">
         <v>19</v>
       </c>
       <c r="D29" s="3">
@@ -12007,15 +12319,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>14</v>
       </c>
       <c r="B30" s="4">
         <v>43903.625</v>
       </c>
-      <c r="C30" s="20" t="s">
-        <v>52</v>
+      <c r="C30" s="18" t="s">
+        <v>45</v>
       </c>
       <c r="D30" s="3">
         <v>401</v>
@@ -12069,15 +12381,15 @@
         <v>2576</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>14</v>
       </c>
       <c r="B31" s="4">
         <v>43903.625</v>
       </c>
-      <c r="C31" s="20" t="s">
-        <v>51</v>
+      <c r="C31" s="18" t="s">
+        <v>44</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
@@ -12103,6 +12415,202 @@
         <v>4</v>
       </c>
     </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>15</v>
+      </c>
+      <c r="B32" s="4">
+        <v>43904.625</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="90">
+        <v>569</v>
+      </c>
+      <c r="E32" s="90">
+        <v>681</v>
+      </c>
+      <c r="F32" s="90">
+        <v>216</v>
+      </c>
+      <c r="G32" s="90">
+        <v>61</v>
+      </c>
+      <c r="H32" s="90">
+        <v>50</v>
+      </c>
+      <c r="I32" s="90">
+        <v>158</v>
+      </c>
+      <c r="J32" s="90">
+        <v>203</v>
+      </c>
+      <c r="K32" s="90">
+        <v>45</v>
+      </c>
+      <c r="L32" s="90">
+        <v>253</v>
+      </c>
+      <c r="M32" s="90">
+        <v>1154</v>
+      </c>
+      <c r="N32" s="90">
+        <v>121</v>
+      </c>
+      <c r="O32" s="90">
+        <v>40</v>
+      </c>
+      <c r="P32" s="90">
+        <v>93</v>
+      </c>
+      <c r="Q32" s="90">
+        <v>45</v>
+      </c>
+      <c r="R32" s="90">
+        <v>60</v>
+      </c>
+      <c r="S32" s="90">
+        <v>46</v>
+      </c>
+      <c r="T32" s="90">
+        <v>3795</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>15</v>
+      </c>
+      <c r="B33" s="4">
+        <v>43904.625</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="90">
+        <v>2</v>
+      </c>
+      <c r="E33" s="90">
+        <v>1</v>
+      </c>
+      <c r="F33" s="90"/>
+      <c r="G33" s="90"/>
+      <c r="H33" s="90"/>
+      <c r="I33" s="90"/>
+      <c r="J33" s="90"/>
+      <c r="K33" s="90"/>
+      <c r="L33" s="90"/>
+      <c r="M33" s="90">
+        <v>5</v>
+      </c>
+      <c r="N33" s="90"/>
+      <c r="O33" s="90"/>
+      <c r="P33" s="90"/>
+      <c r="Q33" s="90"/>
+      <c r="R33" s="90"/>
+      <c r="S33" s="90"/>
+      <c r="T33" s="90">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>15</v>
+      </c>
+      <c r="B34" s="4">
+        <v>43904.625</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="90">
+        <v>506</v>
+      </c>
+      <c r="E34" s="90">
+        <v>605</v>
+      </c>
+      <c r="F34" s="90">
+        <v>216</v>
+      </c>
+      <c r="G34" s="90">
+        <v>57</v>
+      </c>
+      <c r="H34" s="90">
+        <v>50</v>
+      </c>
+      <c r="I34" s="90">
+        <v>119</v>
+      </c>
+      <c r="J34" s="90">
+        <v>141</v>
+      </c>
+      <c r="K34" s="90">
+        <v>23</v>
+      </c>
+      <c r="L34" s="90">
+        <v>187</v>
+      </c>
+      <c r="M34" s="90">
+        <v>1154</v>
+      </c>
+      <c r="N34" s="90">
+        <v>121</v>
+      </c>
+      <c r="O34" s="90">
+        <v>31</v>
+      </c>
+      <c r="P34" s="90">
+        <v>86</v>
+      </c>
+      <c r="Q34" s="90">
+        <v>40</v>
+      </c>
+      <c r="R34" s="90">
+        <v>54</v>
+      </c>
+      <c r="S34" s="90">
+        <v>31</v>
+      </c>
+      <c r="T34" s="90">
+        <v>3421</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>15</v>
+      </c>
+      <c r="B35" s="4">
+        <v>43904.625</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="90">
+        <v>2</v>
+      </c>
+      <c r="E35" s="90">
+        <v>1</v>
+      </c>
+      <c r="F35" s="90"/>
+      <c r="G35" s="90"/>
+      <c r="H35" s="90"/>
+      <c r="I35" s="90"/>
+      <c r="J35" s="90"/>
+      <c r="K35" s="90"/>
+      <c r="L35" s="90"/>
+      <c r="M35" s="90">
+        <v>5</v>
+      </c>
+      <c r="N35" s="90"/>
+      <c r="O35" s="90"/>
+      <c r="P35" s="90"/>
+      <c r="Q35" s="90"/>
+      <c r="R35" s="90"/>
+      <c r="S35" s="90"/>
+      <c r="T35" s="90">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -12113,107 +12621,107 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{233E67D7-4FF2-D745-A107-DDC4CB6E1273}">
-  <dimension ref="A1:Y16"/>
+  <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N41" sqref="N41"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="74" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" style="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
     <col min="5" max="9" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="19" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.5" style="78" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.1640625" style="52" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.33203125" style="22" customWidth="1"/>
+    <col min="20" max="20" width="8.5" style="72" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.1640625" style="47" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.33203125" style="20" customWidth="1"/>
     <col min="24" max="24" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="120.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="41" customFormat="1" ht="79">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:25" s="37" customFormat="1" ht="79" x14ac:dyDescent="0.2">
+      <c r="A1" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="48" t="s">
+      <c r="C1" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="K1" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="L1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="48" t="s">
+      <c r="M1" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="48" t="s">
+      <c r="N1" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="41" t="s">
+      <c r="O1" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="41" t="s">
+      <c r="P1" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="48" t="s">
+      <c r="Q1" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="48" t="s">
+      <c r="R1" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="41" t="s">
+      <c r="S1" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="76" t="s">
+      <c r="T1" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="U1" s="53" t="s">
+      <c r="U1" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="V1" s="50" t="s">
+      <c r="V1" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="W1" s="51"/>
-    </row>
-    <row r="2" spans="1:25">
-      <c r="A2">
+      <c r="W1" s="46"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A2" s="74">
         <v>0</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B2" s="22">
         <v>43889.416666666664</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="53" t="s">
         <v>18</v>
       </c>
       <c r="D2">
@@ -12231,28 +12739,28 @@
       <c r="R2">
         <v>1</v>
       </c>
-      <c r="T2" s="77">
+      <c r="T2" s="71">
         <v>53</v>
       </c>
-      <c r="U2" s="52" t="str">
+      <c r="U2" s="47" t="str">
         <f t="shared" ref="U2:U14" si="0">IF(ISNUMBER(T1),T2-T1,"")</f>
         <v/>
       </c>
-      <c r="V2" s="21" t="str">
+      <c r="V2" s="19" t="str">
         <f t="shared" ref="V2:V15" si="1">IF(ISNUMBER(T1),
 ((T2-T1)/T1)/(B2-B1),
 "")</f>
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:25">
-      <c r="A3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A3" s="74">
         <v>1</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="22">
         <v>43890.416666666664</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="53" t="s">
         <v>18</v>
       </c>
       <c r="D3">
@@ -12273,32 +12781,32 @@
       <c r="R3">
         <v>1</v>
       </c>
-      <c r="T3" s="77">
+      <c r="T3" s="71">
         <v>66</v>
       </c>
-      <c r="U3" s="52">
+      <c r="U3" s="47">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="V3" s="21">
+      <c r="V3" s="19">
         <f t="shared" si="1"/>
         <v>0.24528301886792453</v>
       </c>
       <c r="X3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="Y3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
-      <c r="A4">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A4" s="74">
         <v>2</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="22">
         <v>43891.625</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="53" t="s">
         <v>18</v>
       </c>
       <c r="D4">
@@ -12328,26 +12836,26 @@
       <c r="R4">
         <v>2</v>
       </c>
-      <c r="T4" s="77">
+      <c r="T4" s="71">
         <v>129</v>
       </c>
-      <c r="U4" s="52">
+      <c r="U4" s="47">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="V4" s="21">
+      <c r="V4" s="19">
         <f t="shared" si="1"/>
         <v>0.78996865203603195</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
-      <c r="A5">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A5" s="74">
         <v>3</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="22">
         <v>43892.625</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="53" t="s">
         <v>18</v>
       </c>
       <c r="D5">
@@ -12380,26 +12888,26 @@
       <c r="R5">
         <v>2</v>
       </c>
-      <c r="T5" s="77">
+      <c r="T5" s="71">
         <v>157</v>
       </c>
-      <c r="U5" s="52">
+      <c r="U5" s="47">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="V5" s="21">
+      <c r="V5" s="19">
         <f t="shared" si="1"/>
         <v>0.21705426356589147</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
-      <c r="A6">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A6" s="74">
         <v>4</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="22">
         <v>43893.625</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="53" t="s">
         <v>18</v>
       </c>
       <c r="D6">
@@ -12441,27 +12949,27 @@
       <c r="S6">
         <v>1</v>
       </c>
-      <c r="T6" s="77">
+      <c r="T6" s="71">
         <v>196</v>
       </c>
-      <c r="U6" s="52">
+      <c r="U6" s="47">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="V6" s="21">
+      <c r="V6" s="19">
         <f t="shared" si="1"/>
         <v>0.24840764331210191</v>
       </c>
-      <c r="Y6" s="79"/>
-    </row>
-    <row r="7" spans="1:25">
-      <c r="A7">
+      <c r="Y6" s="73"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A7" s="74">
         <v>5</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="22">
         <v>43894.625</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="53" t="s">
         <v>18</v>
       </c>
       <c r="D7">
@@ -12509,26 +13017,26 @@
       <c r="S7">
         <v>1</v>
       </c>
-      <c r="T7" s="77">
+      <c r="T7" s="71">
         <v>262</v>
       </c>
-      <c r="U7" s="52">
+      <c r="U7" s="47">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="V7" s="21">
+      <c r="V7" s="19">
         <f t="shared" si="1"/>
         <v>0.33673469387755101</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
-      <c r="A8">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A8" s="74">
         <v>6</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="22">
         <v>43895.625</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="53" t="s">
         <v>18</v>
       </c>
       <c r="D8">
@@ -12576,26 +13084,26 @@
       <c r="S8">
         <v>1</v>
       </c>
-      <c r="T8" s="77">
+      <c r="T8" s="71">
         <v>400</v>
       </c>
-      <c r="U8" s="52">
+      <c r="U8" s="47">
         <f t="shared" si="0"/>
         <v>138</v>
       </c>
-      <c r="V8" s="21">
+      <c r="V8" s="19">
         <f t="shared" si="1"/>
         <v>0.52671755725190839</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
-      <c r="A9">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A9" s="74">
         <v>7</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="22">
         <v>43896.625</v>
       </c>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="53" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="3">
@@ -12644,26 +13152,26 @@
       <c r="S9" s="3">
         <v>1</v>
       </c>
-      <c r="T9" s="77">
+      <c r="T9" s="71">
         <v>639</v>
       </c>
-      <c r="U9" s="54">
+      <c r="U9" s="49">
         <f t="shared" si="0"/>
         <v>239</v>
       </c>
-      <c r="V9" s="21">
+      <c r="V9" s="19">
         <f t="shared" si="1"/>
         <v>0.59750000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
-      <c r="A10">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A10" s="74">
         <v>8</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="22">
         <v>43897.625</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="53" t="s">
         <v>18</v>
       </c>
       <c r="D10">
@@ -12711,26 +13219,26 @@
       <c r="S10">
         <v>2</v>
       </c>
-      <c r="T10" s="77">
+      <c r="T10" s="71">
         <v>795</v>
       </c>
-      <c r="U10" s="52">
+      <c r="U10" s="47">
         <f t="shared" si="0"/>
         <v>156</v>
       </c>
-      <c r="V10" s="21">
+      <c r="V10" s="19">
         <f t="shared" si="1"/>
         <v>0.24413145539906103</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
-      <c r="A11">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A11" s="74">
         <v>9</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="22">
         <v>43898.625</v>
       </c>
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="53" t="s">
         <v>18</v>
       </c>
       <c r="D11">
@@ -12778,26 +13286,26 @@
       <c r="S11">
         <v>2</v>
       </c>
-      <c r="T11" s="77">
+      <c r="T11" s="71">
         <v>902</v>
       </c>
-      <c r="U11" s="52">
+      <c r="U11" s="47">
         <f t="shared" si="0"/>
         <v>107</v>
       </c>
-      <c r="V11" s="21">
+      <c r="V11" s="19">
         <f t="shared" si="1"/>
         <v>0.13459119496855346</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
-      <c r="A12">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A12" s="74">
         <v>10</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="22">
         <v>43899.625</v>
       </c>
-      <c r="C12" s="58" t="s">
+      <c r="C12" s="53" t="s">
         <v>18</v>
       </c>
       <c r="D12">
@@ -12845,26 +13353,26 @@
       <c r="S12">
         <v>2</v>
       </c>
-      <c r="T12" s="77">
+      <c r="T12" s="71">
         <v>1139</v>
       </c>
-      <c r="U12" s="52">
+      <c r="U12" s="47">
         <f t="shared" si="0"/>
         <v>237</v>
       </c>
-      <c r="V12" s="21">
+      <c r="V12" s="19">
         <f t="shared" si="1"/>
         <v>0.26274944567627495</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
-      <c r="A13">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A13" s="74">
         <v>11</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="22">
         <v>43900.625</v>
       </c>
-      <c r="C13" s="58" t="s">
+      <c r="C13" s="53" t="s">
         <v>18</v>
       </c>
       <c r="D13">
@@ -12915,26 +13423,26 @@
       <c r="S13">
         <v>4</v>
       </c>
-      <c r="T13" s="77">
+      <c r="T13" s="71">
         <v>1296</v>
       </c>
-      <c r="U13" s="52">
+      <c r="U13" s="47">
         <f t="shared" si="0"/>
         <v>157</v>
       </c>
-      <c r="V13" s="21">
+      <c r="V13" s="19">
         <f t="shared" si="1"/>
         <v>0.13784021071115013</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
-      <c r="A14">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A14" s="74">
         <v>12</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="22">
         <v>43901.625</v>
       </c>
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="53" t="s">
         <v>18</v>
       </c>
       <c r="D14">
@@ -12985,161 +13493,233 @@
       <c r="S14">
         <v>10</v>
       </c>
-      <c r="T14" s="77">
+      <c r="T14" s="71">
         <v>1567</v>
       </c>
-      <c r="U14" s="52">
+      <c r="U14" s="47">
         <f t="shared" si="0"/>
         <v>271</v>
       </c>
-      <c r="V14" s="21">
+      <c r="V14" s="19">
         <f t="shared" si="1"/>
         <v>0.20910493827160495</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
-      <c r="A15" s="59">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A15" s="98">
         <v>13</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B15" s="23">
         <v>43902.625</v>
       </c>
-      <c r="C15" s="58" t="s">
+      <c r="C15" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="12">
         <v>454</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="12">
         <v>500</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="12">
         <v>137</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="12">
         <v>30</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="12">
         <v>38</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="12">
         <v>88</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J15" s="12">
         <v>99</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K15" s="12">
         <v>23</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L15" s="12">
         <v>129</v>
       </c>
-      <c r="M15" s="13">
+      <c r="M15" s="12">
         <v>688</v>
       </c>
-      <c r="N15" s="13">
+      <c r="N15" s="12">
         <v>52</v>
       </c>
-      <c r="O15" s="13">
+      <c r="O15" s="12">
         <v>14</v>
       </c>
-      <c r="P15" s="13">
+      <c r="P15" s="12">
         <v>45</v>
       </c>
-      <c r="Q15" s="13">
+      <c r="Q15" s="12">
         <v>27</v>
       </c>
-      <c r="R15" s="13">
+      <c r="R15" s="12">
         <v>31</v>
       </c>
-      <c r="S15" s="13">
+      <c r="S15" s="12">
         <v>14</v>
       </c>
-      <c r="T15" s="77">
+      <c r="T15" s="71">
         <v>2369</v>
       </c>
-      <c r="U15" s="60">
+      <c r="U15" s="54">
         <f>IF(ISNUMBER(T14),T15-T14,"")</f>
         <v>802</v>
       </c>
-      <c r="V15" s="61">
+      <c r="V15" s="55">
         <f t="shared" si="1"/>
         <v>0.51180599872367583</v>
       </c>
-      <c r="W15" s="62"/>
-    </row>
-    <row r="16" spans="1:25">
-      <c r="A16" s="59">
+      <c r="W15" s="56"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A16" s="98">
         <v>14</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16" s="23">
         <v>43903.625</v>
       </c>
-      <c r="C16" s="58" t="s">
+      <c r="C16" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="73">
+      <c r="D16" s="67">
         <v>454</v>
       </c>
-      <c r="E16" s="73">
+      <c r="E16" s="67">
         <v>558</v>
       </c>
-      <c r="F16" s="73">
+      <c r="F16" s="67">
         <v>174</v>
       </c>
-      <c r="G16" s="73">
+      <c r="G16" s="67">
         <v>44</v>
       </c>
-      <c r="H16" s="73">
+      <c r="H16" s="67">
         <v>42</v>
       </c>
-      <c r="I16" s="73">
+      <c r="I16" s="67">
         <v>99</v>
       </c>
-      <c r="J16" s="73">
+      <c r="J16" s="67">
         <v>148</v>
       </c>
-      <c r="K16" s="73">
+      <c r="K16" s="67">
         <v>33</v>
       </c>
-      <c r="L16" s="73">
+      <c r="L16" s="67">
         <v>230</v>
       </c>
-      <c r="M16" s="73">
+      <c r="M16" s="67">
         <v>936</v>
       </c>
-      <c r="N16" s="73">
+      <c r="N16" s="67">
         <v>102</v>
       </c>
-      <c r="O16" s="73">
+      <c r="O16" s="67">
         <v>40</v>
       </c>
-      <c r="P16" s="73">
+      <c r="P16" s="67">
         <v>83</v>
       </c>
-      <c r="Q16" s="73">
+      <c r="Q16" s="67">
         <v>42</v>
       </c>
-      <c r="R16" s="73">
+      <c r="R16" s="67">
         <v>48</v>
       </c>
-      <c r="S16" s="73">
+      <c r="S16" s="67">
         <v>29</v>
       </c>
-      <c r="T16" s="77">
+      <c r="T16" s="71">
         <v>3062</v>
       </c>
-      <c r="U16" s="60">
+      <c r="U16" s="54">
         <f>IF(ISNUMBER(T15),T16-T15,"")</f>
         <v>693</v>
       </c>
-      <c r="V16" s="61">
+      <c r="V16" s="55">
         <f>IF(ISNUMBER(T15),
 ((T16-T15)/T15)/(B16-B15),
 "")</f>
         <v>0.29252849303503586</v>
       </c>
-      <c r="W16" s="62"/>
+      <c r="W16" s="56"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A17" s="98">
+        <v>15</v>
+      </c>
+      <c r="B17" s="23">
+        <v>43904.625</v>
+      </c>
+      <c r="C17" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="71">
+        <v>569</v>
+      </c>
+      <c r="E17" s="71">
+        <v>681</v>
+      </c>
+      <c r="F17" s="71">
+        <v>216</v>
+      </c>
+      <c r="G17" s="71">
+        <v>61</v>
+      </c>
+      <c r="H17" s="71">
+        <v>50</v>
+      </c>
+      <c r="I17" s="71">
+        <v>158</v>
+      </c>
+      <c r="J17" s="71">
+        <v>203</v>
+      </c>
+      <c r="K17" s="71">
+        <v>45</v>
+      </c>
+      <c r="L17" s="71">
+        <v>253</v>
+      </c>
+      <c r="M17" s="71">
+        <v>1154</v>
+      </c>
+      <c r="N17" s="71">
+        <v>121</v>
+      </c>
+      <c r="O17" s="71">
+        <v>40</v>
+      </c>
+      <c r="P17" s="71">
+        <v>93</v>
+      </c>
+      <c r="Q17" s="71">
+        <v>45</v>
+      </c>
+      <c r="R17" s="71">
+        <v>60</v>
+      </c>
+      <c r="S17" s="71">
+        <v>46</v>
+      </c>
+      <c r="T17" s="71">
+        <v>3795</v>
+      </c>
+      <c r="U17" s="54">
+        <f>IF(ISNUMBER(T16),T17-T16,"")</f>
+        <v>733</v>
+      </c>
+      <c r="V17" s="55">
+        <f>IF(ISNUMBER(T16),
+((T17-T16)/T16)/(B17-B16),
+"")</f>
+        <v>0.23938602220770738</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13152,1782 +13732,1894 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D35575D0-0A0E-6E43-9D76-74E38D2BC332}">
-  <dimension ref="A1:V16"/>
+  <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="S17" sqref="A2:S17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="87" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" style="37" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.6640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="5.6640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.33203125" style="37" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.6640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="6.33203125" style="37" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="5.6640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="6.33203125" style="37" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.6640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.6640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="10.83203125" style="37"/>
-    <col min="22" max="22" width="20.5" style="37" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="10.83203125" style="37"/>
+    <col min="1" max="1" width="3.6640625" style="81" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="5.6640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.33203125" style="33" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.6640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="6.33203125" style="33" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="5.6640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="6.33203125" style="33" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.6640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.6640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="10.83203125" style="33"/>
+    <col min="22" max="22" width="20.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="10.83203125" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="43" customFormat="1" ht="79">
-      <c r="A1" s="76" t="s">
+    <row r="1" spans="1:22" s="39" customFormat="1" ht="79" x14ac:dyDescent="0.2">
+      <c r="A1" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="J1" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="48" t="s">
+      <c r="L1" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="48" t="s">
+      <c r="M1" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="N1" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="41" t="s">
+      <c r="O1" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="48" t="s">
+      <c r="P1" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="48" t="s">
+      <c r="Q1" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="41" t="s">
+      <c r="R1" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="41" t="s">
+      <c r="S1" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="U1" s="43" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
-      <c r="A2" s="46">
+      <c r="U1" s="39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" s="42">
         <f>Cases!A2</f>
         <v>0</v>
       </c>
-      <c r="B2" s="38">
+      <c r="B2" s="34">
         <f>Cases!B2</f>
         <v>43889.416666666664</v>
       </c>
-      <c r="C2" s="39" t="str">
+      <c r="C2" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!D1),Cases!D1&gt;min_number),
 ((Cases!D2-Cases!D1)/Cases!D1)/(Cases!$B2-Cases!$B1),
 "")</f>
         <v/>
       </c>
-      <c r="D2" s="39" t="str">
+      <c r="D2" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!E1),Cases!E1&gt;min_number),
 ((Cases!E2-Cases!E1)/Cases!E1)/(Cases!$B2-Cases!$B1),
 "")</f>
         <v/>
       </c>
-      <c r="E2" s="39" t="str">
+      <c r="E2" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!F1),Cases!F1&gt;min_number),
 ((Cases!F2-Cases!F1)/Cases!F1)/(Cases!$B2-Cases!$B1),
 "")</f>
         <v/>
       </c>
-      <c r="F2" s="39" t="str">
+      <c r="F2" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!G1),Cases!G1&gt;min_number),
 ((Cases!G2-Cases!G1)/Cases!G1)/(Cases!$B2-Cases!$B1),
 "")</f>
         <v/>
       </c>
-      <c r="G2" s="39" t="str">
+      <c r="G2" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!H1),Cases!H1&gt;min_number),
 ((Cases!H2-Cases!H1)/Cases!H1)/(Cases!$B2-Cases!$B1),
 "")</f>
         <v/>
       </c>
-      <c r="H2" s="39" t="str">
+      <c r="H2" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!I1),Cases!I1&gt;min_number),
 ((Cases!I2-Cases!I1)/Cases!I1)/(Cases!$B2-Cases!$B1),
 "")</f>
         <v/>
       </c>
-      <c r="I2" s="39" t="str">
+      <c r="I2" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!J1),Cases!J1&gt;min_number),
 ((Cases!J2-Cases!J1)/Cases!J1)/(Cases!$B2-Cases!$B1),
 "")</f>
         <v/>
       </c>
-      <c r="J2" s="39" t="str">
+      <c r="J2" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!K1),Cases!K1&gt;min_number),
 ((Cases!K2-Cases!K1)/Cases!K1)/(Cases!$B2-Cases!$B1),
 "")</f>
         <v/>
       </c>
-      <c r="K2" s="39" t="str">
+      <c r="K2" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!L1),Cases!L1&gt;min_number),
 ((Cases!L2-Cases!L1)/Cases!L1)/(Cases!$B2-Cases!$B1),
 "")</f>
         <v/>
       </c>
-      <c r="L2" s="39" t="str">
+      <c r="L2" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!M1),Cases!M1&gt;min_number),
 ((Cases!M2-Cases!M1)/Cases!M1)/(Cases!$B2-Cases!$B1),
 "")</f>
         <v/>
       </c>
-      <c r="M2" s="39" t="str">
+      <c r="M2" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!N1),Cases!N1&gt;min_number),
 ((Cases!N2-Cases!N1)/Cases!N1)/(Cases!$B2-Cases!$B1),
 "")</f>
         <v/>
       </c>
-      <c r="N2" s="39" t="str">
+      <c r="N2" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!O1),Cases!O1&gt;min_number),
 ((Cases!O2-Cases!O1)/Cases!O1)/(Cases!$B2-Cases!$B1),
 "")</f>
         <v/>
       </c>
-      <c r="O2" s="39" t="str">
+      <c r="O2" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!P1),Cases!P1&gt;min_number),
 ((Cases!P2-Cases!P1)/Cases!P1)/(Cases!$B2-Cases!$B1),
 "")</f>
         <v/>
       </c>
-      <c r="P2" s="39" t="str">
+      <c r="P2" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!Q1),Cases!Q1&gt;min_number),
 ((Cases!Q2-Cases!Q1)/Cases!Q1)/(Cases!$B2-Cases!$B1),
 "")</f>
         <v/>
       </c>
-      <c r="Q2" s="39" t="str">
+      <c r="Q2" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!R1),Cases!R1&gt;min_number),
 ((Cases!R2-Cases!R1)/Cases!R1)/(Cases!$B2-Cases!$B1),
 "")</f>
         <v/>
       </c>
-      <c r="R2" s="39" t="str">
+      <c r="R2" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!S1),Cases!S1&gt;min_number),
 ((Cases!S2-Cases!S1)/Cases!S1)/(Cases!$B2-Cases!$B1),
 "")</f>
         <v/>
       </c>
-      <c r="S2" s="39" t="str">
+      <c r="S2" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!T1),Cases!T1&gt;min_number),
 ((Cases!T2-Cases!T1)/Cases!T1)/(Cases!$B2-Cases!$B1),
 "")</f>
         <v/>
       </c>
-      <c r="U2" s="37">
+      <c r="U2" s="33">
         <v>10</v>
       </c>
-      <c r="V2" s="37" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
-      <c r="A3" s="47">
+      <c r="V2" s="33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" s="43">
         <f>Cases!A3</f>
         <v>1</v>
       </c>
-      <c r="B3" s="38">
+      <c r="B3" s="34">
         <f>Cases!B3</f>
         <v>43890.416666666664</v>
       </c>
-      <c r="C3" s="39" t="str">
+      <c r="C3" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!D2),Cases!D2&gt;min_number),
 ((Cases!D3-Cases!D2)/Cases!D2)/(Cases!$B3-Cases!$B2),
 "")</f>
         <v/>
       </c>
-      <c r="D3" s="39">
+      <c r="D3" s="35">
         <f>IF(AND(ISNUMBER(Cases!E2),Cases!E2&gt;min_number),
 ((Cases!E3-Cases!E2)/Cases!E2)/(Cases!$B3-Cases!$B2),
 "")</f>
         <v>0</v>
       </c>
-      <c r="E3" s="39" t="str">
+      <c r="E3" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!F2),Cases!F2&gt;min_number),
 ((Cases!F3-Cases!F2)/Cases!F2)/(Cases!$B3-Cases!$B2),
 "")</f>
         <v/>
       </c>
-      <c r="F3" s="39" t="str">
+      <c r="F3" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!G2),Cases!G2&gt;min_number),
 ((Cases!G3-Cases!G2)/Cases!G2)/(Cases!$B3-Cases!$B2),
 "")</f>
         <v/>
       </c>
-      <c r="G3" s="39" t="str">
+      <c r="G3" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!H2),Cases!H2&gt;min_number),
 ((Cases!H3-Cases!H2)/Cases!H2)/(Cases!$B3-Cases!$B2),
 "")</f>
         <v/>
       </c>
-      <c r="H3" s="39" t="str">
+      <c r="H3" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!I2),Cases!I2&gt;min_number),
 ((Cases!I3-Cases!I2)/Cases!I2)/(Cases!$B3-Cases!$B2),
 "")</f>
         <v/>
       </c>
-      <c r="I3" s="39" t="str">
+      <c r="I3" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!J2),Cases!J2&gt;min_number),
 ((Cases!J3-Cases!J2)/Cases!J2)/(Cases!$B3-Cases!$B2),
 "")</f>
         <v/>
       </c>
-      <c r="J3" s="39" t="str">
+      <c r="J3" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!K2),Cases!K2&gt;min_number),
 ((Cases!K3-Cases!K2)/Cases!K2)/(Cases!$B3-Cases!$B2),
 "")</f>
         <v/>
       </c>
-      <c r="K3" s="39" t="str">
+      <c r="K3" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!L2),Cases!L2&gt;min_number),
 ((Cases!L3-Cases!L2)/Cases!L2)/(Cases!$B3-Cases!$B2),
 "")</f>
         <v/>
       </c>
-      <c r="L3" s="39">
+      <c r="L3" s="35">
         <f>IF(AND(ISNUMBER(Cases!M2),Cases!M2&gt;min_number),
 ((Cases!M3-Cases!M2)/Cases!M2)/(Cases!$B3-Cases!$B2),
 "")</f>
         <v>0.2</v>
       </c>
-      <c r="M3" s="39" t="str">
+      <c r="M3" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!N2),Cases!N2&gt;min_number),
 ((Cases!N3-Cases!N2)/Cases!N2)/(Cases!$B3-Cases!$B2),
 "")</f>
         <v/>
       </c>
-      <c r="N3" s="39" t="str">
+      <c r="N3" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!O2),Cases!O2&gt;min_number),
 ((Cases!O3-Cases!O2)/Cases!O2)/(Cases!$B3-Cases!$B2),
 "")</f>
         <v/>
       </c>
-      <c r="O3" s="39" t="str">
+      <c r="O3" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!P2),Cases!P2&gt;min_number),
 ((Cases!P3-Cases!P2)/Cases!P2)/(Cases!$B3-Cases!$B2),
 "")</f>
         <v/>
       </c>
-      <c r="P3" s="39" t="str">
+      <c r="P3" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!Q2),Cases!Q2&gt;min_number),
 ((Cases!Q3-Cases!Q2)/Cases!Q2)/(Cases!$B3-Cases!$B2),
 "")</f>
         <v/>
       </c>
-      <c r="Q3" s="39" t="str">
+      <c r="Q3" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!R2),Cases!R2&gt;min_number),
 ((Cases!R3-Cases!R2)/Cases!R2)/(Cases!$B3-Cases!$B2),
 "")</f>
         <v/>
       </c>
-      <c r="R3" s="39" t="str">
+      <c r="R3" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!S2),Cases!S2&gt;min_number),
 ((Cases!S3-Cases!S2)/Cases!S2)/(Cases!$B3-Cases!$B2),
 "")</f>
         <v/>
       </c>
-      <c r="S3" s="40">
+      <c r="S3" s="36">
         <f>IF(AND(ISNUMBER(Cases!T2),Cases!T2&gt;min_number),
 ((Cases!T3-Cases!T2)/Cases!T2)/(Cases!$B3-Cases!$B2),
 "")</f>
         <v>0.24528301886792453</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
-      <c r="A4" s="47">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" s="43">
         <f>Cases!A4</f>
         <v>2</v>
       </c>
-      <c r="B4" s="38">
+      <c r="B4" s="34">
         <f>Cases!B4</f>
         <v>43891.625</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="35">
         <f>IF(AND(ISNUMBER(Cases!D3),Cases!D3&gt;min_number),
 ((Cases!D4-Cases!D3)/Cases!D3)/(Cases!$B4-Cases!$B3),
 "")</f>
         <v>5.9113300492492186E-2</v>
       </c>
-      <c r="D4" s="39">
+      <c r="D4" s="35">
         <f>IF(AND(ISNUMBER(Cases!E3),Cases!E3&gt;min_number),
 ((Cases!E4-Cases!E3)/Cases!E3)/(Cases!$B4-Cases!$B3),
 "")</f>
         <v>0.44137931034394168</v>
       </c>
-      <c r="E4" s="39" t="str">
+      <c r="E4" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!F3),Cases!F3&gt;min_number),
 ((Cases!F4-Cases!F3)/Cases!F3)/(Cases!$B4-Cases!$B3),
 "")</f>
         <v/>
       </c>
-      <c r="F4" s="39" t="str">
+      <c r="F4" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!G3),Cases!G3&gt;min_number),
 ((Cases!G4-Cases!G3)/Cases!G3)/(Cases!$B4-Cases!$B3),
 "")</f>
         <v/>
       </c>
-      <c r="G4" s="39" t="str">
+      <c r="G4" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!H3),Cases!H3&gt;min_number),
 ((Cases!H4-Cases!H3)/Cases!H3)/(Cases!$B4-Cases!$B3),
 "")</f>
         <v/>
       </c>
-      <c r="H4" s="39" t="str">
+      <c r="H4" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!I3),Cases!I3&gt;min_number),
 ((Cases!I4-Cases!I3)/Cases!I3)/(Cases!$B4-Cases!$B3),
 "")</f>
         <v/>
       </c>
-      <c r="I4" s="39" t="str">
+      <c r="I4" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!J3),Cases!J3&gt;min_number),
 ((Cases!J4-Cases!J3)/Cases!J3)/(Cases!$B4-Cases!$B3),
 "")</f>
         <v/>
       </c>
-      <c r="J4" s="39" t="str">
+      <c r="J4" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!K3),Cases!K3&gt;min_number),
 ((Cases!K4-Cases!K3)/Cases!K3)/(Cases!$B4-Cases!$B3),
 "")</f>
         <v/>
       </c>
-      <c r="K4" s="39" t="str">
+      <c r="K4" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!L3),Cases!L3&gt;min_number),
 ((Cases!L4-Cases!L3)/Cases!L3)/(Cases!$B4-Cases!$B3),
 "")</f>
         <v/>
       </c>
-      <c r="L4" s="39">
+      <c r="L4" s="35">
         <f>IF(AND(ISNUMBER(Cases!M3),Cases!M3&gt;min_number),
 ((Cases!M4-Cases!M3)/Cases!M3)/(Cases!$B4-Cases!$B3),
 "")</f>
         <v>1.2137931034458396</v>
       </c>
-      <c r="M4" s="39" t="str">
+      <c r="M4" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!N3),Cases!N3&gt;min_number),
 ((Cases!N4-Cases!N3)/Cases!N3)/(Cases!$B4-Cases!$B3),
 "")</f>
         <v/>
       </c>
-      <c r="N4" s="39" t="str">
+      <c r="N4" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!O3),Cases!O3&gt;min_number),
 ((Cases!O4-Cases!O3)/Cases!O3)/(Cases!$B4-Cases!$B3),
 "")</f>
         <v/>
       </c>
-      <c r="O4" s="39" t="str">
+      <c r="O4" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!P3),Cases!P3&gt;min_number),
 ((Cases!P4-Cases!P3)/Cases!P3)/(Cases!$B4-Cases!$B3),
 "")</f>
         <v/>
       </c>
-      <c r="P4" s="39" t="str">
+      <c r="P4" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!Q3),Cases!Q3&gt;min_number),
 ((Cases!Q4-Cases!Q3)/Cases!Q3)/(Cases!$B4-Cases!$B3),
 "")</f>
         <v/>
       </c>
-      <c r="Q4" s="39" t="str">
+      <c r="Q4" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!R3),Cases!R3&gt;min_number),
 ((Cases!R4-Cases!R3)/Cases!R3)/(Cases!$B4-Cases!$B3),
 "")</f>
         <v/>
       </c>
-      <c r="R4" s="39" t="str">
+      <c r="R4" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!S3),Cases!S3&gt;min_number),
 ((Cases!S4-Cases!S3)/Cases!S3)/(Cases!$B4-Cases!$B3),
 "")</f>
         <v/>
       </c>
-      <c r="S4" s="40">
+      <c r="S4" s="36">
         <f>IF(AND(ISNUMBER(Cases!T3),Cases!T3&gt;min_number),
 ((Cases!T4-Cases!T3)/Cases!T3)/(Cases!$B4-Cases!$B3),
 "")</f>
         <v>0.78996865203603195</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
-      <c r="A5" s="47">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" s="43">
         <f>Cases!A5</f>
         <v>3</v>
       </c>
-      <c r="B5" s="38">
+      <c r="B5" s="34">
         <f>Cases!B5</f>
         <v>43892.625</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5" s="35">
         <f>IF(AND(ISNUMBER(Cases!D4),Cases!D4&gt;min_number),
 ((Cases!D5-Cases!D4)/Cases!D4)/(Cases!$B5-Cases!$B4),
 "")</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D5" s="39">
+      <c r="D5" s="35">
         <f>IF(AND(ISNUMBER(Cases!E4),Cases!E4&gt;min_number),
 ((Cases!E5-Cases!E4)/Cases!E4)/(Cases!$B5-Cases!$B4),
 "")</f>
         <v>0.13043478260869565</v>
       </c>
-      <c r="E5" s="39" t="str">
+      <c r="E5" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!F4),Cases!F4&gt;min_number),
 ((Cases!F5-Cases!F4)/Cases!F4)/(Cases!$B5-Cases!$B4),
 "")</f>
         <v/>
       </c>
-      <c r="F5" s="39" t="str">
+      <c r="F5" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!G4),Cases!G4&gt;min_number),
 ((Cases!G5-Cases!G4)/Cases!G4)/(Cases!$B5-Cases!$B4),
 "")</f>
         <v/>
       </c>
-      <c r="G5" s="39" t="str">
+      <c r="G5" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!H4),Cases!H4&gt;min_number),
 ((Cases!H5-Cases!H4)/Cases!H4)/(Cases!$B5-Cases!$B4),
 "")</f>
         <v/>
       </c>
-      <c r="H5" s="39" t="str">
+      <c r="H5" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!I4),Cases!I4&gt;min_number),
 ((Cases!I5-Cases!I4)/Cases!I4)/(Cases!$B5-Cases!$B4),
 "")</f>
         <v/>
       </c>
-      <c r="I5" s="39" t="str">
+      <c r="I5" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!J4),Cases!J4&gt;min_number),
 ((Cases!J5-Cases!J4)/Cases!J4)/(Cases!$B5-Cases!$B4),
 "")</f>
         <v/>
       </c>
-      <c r="J5" s="39" t="str">
+      <c r="J5" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!K4),Cases!K4&gt;min_number),
 ((Cases!K5-Cases!K4)/Cases!K4)/(Cases!$B5-Cases!$B4),
 "")</f>
         <v/>
       </c>
-      <c r="K5" s="39" t="str">
+      <c r="K5" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!L4),Cases!L4&gt;min_number),
 ((Cases!L5-Cases!L4)/Cases!L4)/(Cases!$B5-Cases!$B4),
 "")</f>
         <v/>
       </c>
-      <c r="L5" s="39">
+      <c r="L5" s="35">
         <f>IF(AND(ISNUMBER(Cases!M4),Cases!M4&gt;min_number),
 ((Cases!M5-Cases!M4)/Cases!M4)/(Cases!$B5-Cases!$B4),
 "")</f>
         <v>0.21621621621621623</v>
       </c>
-      <c r="M5" s="39" t="str">
+      <c r="M5" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!N4),Cases!N4&gt;min_number),
 ((Cases!N5-Cases!N4)/Cases!N4)/(Cases!$B5-Cases!$B4),
 "")</f>
         <v/>
       </c>
-      <c r="N5" s="39" t="str">
+      <c r="N5" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!O4),Cases!O4&gt;min_number),
 ((Cases!O5-Cases!O4)/Cases!O4)/(Cases!$B5-Cases!$B4),
 "")</f>
         <v/>
       </c>
-      <c r="O5" s="39" t="str">
+      <c r="O5" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!P4),Cases!P4&gt;min_number),
 ((Cases!P5-Cases!P4)/Cases!P4)/(Cases!$B5-Cases!$B4),
 "")</f>
         <v/>
       </c>
-      <c r="P5" s="39" t="str">
+      <c r="P5" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!Q4),Cases!Q4&gt;min_number),
 ((Cases!Q5-Cases!Q4)/Cases!Q4)/(Cases!$B5-Cases!$B4),
 "")</f>
         <v/>
       </c>
-      <c r="Q5" s="39" t="str">
+      <c r="Q5" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!R4),Cases!R4&gt;min_number),
 ((Cases!R5-Cases!R4)/Cases!R4)/(Cases!$B5-Cases!$B4),
 "")</f>
         <v/>
       </c>
-      <c r="R5" s="39" t="str">
+      <c r="R5" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!S4),Cases!S4&gt;min_number),
 ((Cases!S5-Cases!S4)/Cases!S4)/(Cases!$B5-Cases!$B4),
 "")</f>
         <v/>
       </c>
-      <c r="S5" s="40">
+      <c r="S5" s="36">
         <f>IF(AND(ISNUMBER(Cases!T4),Cases!T4&gt;min_number),
 ((Cases!T5-Cases!T4)/Cases!T4)/(Cases!$B5-Cases!$B4),
 "")</f>
         <v>0.21705426356589147</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
-      <c r="A6" s="47">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" s="43">
         <f>Cases!A6</f>
         <v>4</v>
       </c>
-      <c r="B6" s="38">
+      <c r="B6" s="34">
         <f>Cases!B6</f>
         <v>43893.625</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="35">
         <f>IF(AND(ISNUMBER(Cases!D5),Cases!D5&gt;min_number),
 ((Cases!D6-Cases!D5)/Cases!D5)/(Cases!$B6-Cases!$B5),
 "")</f>
         <v>0.4</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D6" s="35">
         <f>IF(AND(ISNUMBER(Cases!E5),Cases!E5&gt;min_number),
 ((Cases!E6-Cases!E5)/Cases!E5)/(Cases!$B6-Cases!$B5),
 "")</f>
         <v>0.42307692307692307</v>
       </c>
-      <c r="E6" s="39" t="str">
+      <c r="E6" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!F5),Cases!F5&gt;min_number),
 ((Cases!F6-Cases!F5)/Cases!F5)/(Cases!$B6-Cases!$B5),
 "")</f>
         <v/>
       </c>
-      <c r="F6" s="39" t="str">
+      <c r="F6" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!G5),Cases!G5&gt;min_number),
 ((Cases!G6-Cases!G5)/Cases!G5)/(Cases!$B6-Cases!$B5),
 "")</f>
         <v/>
       </c>
-      <c r="G6" s="39" t="str">
+      <c r="G6" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!H5),Cases!H5&gt;min_number),
 ((Cases!H6-Cases!H5)/Cases!H5)/(Cases!$B6-Cases!$B5),
 "")</f>
         <v/>
       </c>
-      <c r="H6" s="39" t="str">
+      <c r="H6" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!I5),Cases!I5&gt;min_number),
 ((Cases!I6-Cases!I5)/Cases!I5)/(Cases!$B6-Cases!$B5),
 "")</f>
         <v/>
       </c>
-      <c r="I6" s="39" t="str">
+      <c r="I6" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!J5),Cases!J5&gt;min_number),
 ((Cases!J6-Cases!J5)/Cases!J5)/(Cases!$B6-Cases!$B5),
 "")</f>
         <v/>
       </c>
-      <c r="J6" s="39" t="str">
+      <c r="J6" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!K5),Cases!K5&gt;min_number),
 ((Cases!K6-Cases!K5)/Cases!K5)/(Cases!$B6-Cases!$B5),
 "")</f>
         <v/>
       </c>
-      <c r="K6" s="39" t="str">
+      <c r="K6" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!L5),Cases!L5&gt;min_number),
 ((Cases!L6-Cases!L5)/Cases!L5)/(Cases!$B6-Cases!$B5),
 "")</f>
         <v/>
       </c>
-      <c r="L6" s="39">
+      <c r="L6" s="35">
         <f>IF(AND(ISNUMBER(Cases!M5),Cases!M5&gt;min_number),
 ((Cases!M6-Cases!M5)/Cases!M5)/(Cases!$B6-Cases!$B5),
 "")</f>
         <v>0.14444444444444443</v>
       </c>
-      <c r="M6" s="39" t="str">
+      <c r="M6" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!N5),Cases!N5&gt;min_number),
 ((Cases!N6-Cases!N5)/Cases!N5)/(Cases!$B6-Cases!$B5),
 "")</f>
         <v/>
       </c>
-      <c r="N6" s="39" t="str">
+      <c r="N6" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!O5),Cases!O5&gt;min_number),
 ((Cases!O6-Cases!O5)/Cases!O5)/(Cases!$B6-Cases!$B5),
 "")</f>
         <v/>
       </c>
-      <c r="O6" s="39" t="str">
+      <c r="O6" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!P5),Cases!P5&gt;min_number),
 ((Cases!P6-Cases!P5)/Cases!P5)/(Cases!$B6-Cases!$B5),
 "")</f>
         <v/>
       </c>
-      <c r="P6" s="39" t="str">
+      <c r="P6" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!Q5),Cases!Q5&gt;min_number),
 ((Cases!Q6-Cases!Q5)/Cases!Q5)/(Cases!$B6-Cases!$B5),
 "")</f>
         <v/>
       </c>
-      <c r="Q6" s="39" t="str">
+      <c r="Q6" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!R5),Cases!R5&gt;min_number),
 ((Cases!R6-Cases!R5)/Cases!R5)/(Cases!$B6-Cases!$B5),
 "")</f>
         <v/>
       </c>
-      <c r="R6" s="39" t="str">
+      <c r="R6" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!S5),Cases!S5&gt;min_number),
 ((Cases!S6-Cases!S5)/Cases!S5)/(Cases!$B6-Cases!$B5),
 "")</f>
         <v/>
       </c>
-      <c r="S6" s="40">
+      <c r="S6" s="36">
         <f>IF(AND(ISNUMBER(Cases!T5),Cases!T5&gt;min_number),
 ((Cases!T6-Cases!T5)/Cases!T5)/(Cases!$B6-Cases!$B5),
 "")</f>
         <v>0.24840764331210191</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
-      <c r="A7" s="47">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7" s="43">
         <f>Cases!A7</f>
         <v>5</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="34">
         <f>Cases!B7</f>
         <v>43894.625</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="35">
         <f>IF(AND(ISNUMBER(Cases!D6),Cases!D6&gt;min_number),
 ((Cases!D7-Cases!D6)/Cases!D6)/(Cases!$B7-Cases!$B6),
 "")</f>
         <v>0.7857142857142857</v>
       </c>
-      <c r="D7" s="39">
+      <c r="D7" s="35">
         <f>IF(AND(ISNUMBER(Cases!E6),Cases!E6&gt;min_number),
 ((Cases!E7-Cases!E6)/Cases!E6)/(Cases!$B7-Cases!$B6),
 "")</f>
         <v>0.29729729729729731</v>
       </c>
-      <c r="E7" s="39" t="str">
+      <c r="E7" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!F6),Cases!F6&gt;min_number),
 ((Cases!F7-Cases!F6)/Cases!F6)/(Cases!$B7-Cases!$B6),
 "")</f>
         <v/>
       </c>
-      <c r="F7" s="39" t="str">
+      <c r="F7" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!G6),Cases!G6&gt;min_number),
 ((Cases!G7-Cases!G6)/Cases!G6)/(Cases!$B7-Cases!$B6),
 "")</f>
         <v/>
       </c>
-      <c r="G7" s="39" t="str">
+      <c r="G7" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!H6),Cases!H6&gt;min_number),
 ((Cases!H7-Cases!H6)/Cases!H6)/(Cases!$B7-Cases!$B6),
 "")</f>
         <v/>
       </c>
-      <c r="H7" s="39" t="str">
+      <c r="H7" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!I6),Cases!I6&gt;min_number),
 ((Cases!I7-Cases!I6)/Cases!I6)/(Cases!$B7-Cases!$B6),
 "")</f>
         <v/>
       </c>
-      <c r="I7" s="39">
+      <c r="I7" s="35">
         <f>IF(AND(ISNUMBER(Cases!J6),Cases!J6&gt;min_number),
 ((Cases!J7-Cases!J6)/Cases!J6)/(Cases!$B7-Cases!$B6),
 "")</f>
         <v>0</v>
       </c>
-      <c r="J7" s="39" t="str">
+      <c r="J7" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!K6),Cases!K6&gt;min_number),
 ((Cases!K7-Cases!K6)/Cases!K6)/(Cases!$B7-Cases!$B6),
 "")</f>
         <v/>
       </c>
-      <c r="K7" s="39" t="str">
+      <c r="K7" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!L6),Cases!L6&gt;min_number),
 ((Cases!L7-Cases!L6)/Cases!L6)/(Cases!$B7-Cases!$B6),
 "")</f>
         <v/>
       </c>
-      <c r="L7" s="39">
+      <c r="L7" s="35">
         <f>IF(AND(ISNUMBER(Cases!M6),Cases!M6&gt;min_number),
 ((Cases!M7-Cases!M6)/Cases!M6)/(Cases!$B7-Cases!$B6),
 "")</f>
         <v>0.11650485436893204</v>
       </c>
-      <c r="M7" s="39" t="str">
+      <c r="M7" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!N6),Cases!N6&gt;min_number),
 ((Cases!N7-Cases!N6)/Cases!N6)/(Cases!$B7-Cases!$B6),
 "")</f>
         <v/>
       </c>
-      <c r="N7" s="39" t="str">
+      <c r="N7" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!O6),Cases!O6&gt;min_number),
 ((Cases!O7-Cases!O6)/Cases!O6)/(Cases!$B7-Cases!$B6),
 "")</f>
         <v/>
       </c>
-      <c r="O7" s="39" t="str">
+      <c r="O7" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!P6),Cases!P6&gt;min_number),
 ((Cases!P7-Cases!P6)/Cases!P6)/(Cases!$B7-Cases!$B6),
 "")</f>
         <v/>
       </c>
-      <c r="P7" s="39" t="str">
+      <c r="P7" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!Q6),Cases!Q6&gt;min_number),
 ((Cases!Q7-Cases!Q6)/Cases!Q6)/(Cases!$B7-Cases!$B6),
 "")</f>
         <v/>
       </c>
-      <c r="Q7" s="39" t="str">
+      <c r="Q7" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!R6),Cases!R6&gt;min_number),
 ((Cases!R7-Cases!R6)/Cases!R6)/(Cases!$B7-Cases!$B6),
 "")</f>
         <v/>
       </c>
-      <c r="R7" s="39" t="str">
+      <c r="R7" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!S6),Cases!S6&gt;min_number),
 ((Cases!S7-Cases!S6)/Cases!S6)/(Cases!$B7-Cases!$B6),
 "")</f>
         <v/>
       </c>
-      <c r="S7" s="40">
+      <c r="S7" s="36">
         <f>IF(AND(ISNUMBER(Cases!T6),Cases!T6&gt;min_number),
 ((Cases!T7-Cases!T6)/Cases!T6)/(Cases!$B7-Cases!$B6),
 "")</f>
         <v>0.33673469387755101</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
-      <c r="A8" s="47">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8" s="43">
         <f>Cases!A8</f>
         <v>6</v>
       </c>
-      <c r="B8" s="38">
+      <c r="B8" s="34">
         <f>Cases!B8</f>
         <v>43895.625</v>
       </c>
-      <c r="C8" s="39">
+      <c r="C8" s="35">
         <f>IF(AND(ISNUMBER(Cases!D7),Cases!D7&gt;min_number),
 ((Cases!D8-Cases!D7)/Cases!D7)/(Cases!$B8-Cases!$B7),
 "")</f>
         <v>0.46</v>
       </c>
-      <c r="D8" s="39">
+      <c r="D8" s="35">
         <f>IF(AND(ISNUMBER(Cases!E7),Cases!E7&gt;min_number),
 ((Cases!E8-Cases!E7)/Cases!E7)/(Cases!$B8-Cases!$B7),
 "")</f>
         <v>0.45833333333333331</v>
       </c>
-      <c r="E8" s="39" t="str">
+      <c r="E8" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!F7),Cases!F7&gt;min_number),
 ((Cases!F8-Cases!F7)/Cases!F7)/(Cases!$B8-Cases!$B7),
 "")</f>
         <v/>
       </c>
-      <c r="F8" s="39" t="str">
+      <c r="F8" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!G7),Cases!G7&gt;min_number),
 ((Cases!G8-Cases!G7)/Cases!G7)/(Cases!$B8-Cases!$B7),
 "")</f>
         <v/>
       </c>
-      <c r="G8" s="39" t="str">
+      <c r="G8" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!H7),Cases!H7&gt;min_number),
 ((Cases!H8-Cases!H7)/Cases!H7)/(Cases!$B8-Cases!$B7),
 "")</f>
         <v/>
       </c>
-      <c r="H8" s="39" t="str">
+      <c r="H8" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!I7),Cases!I7&gt;min_number),
 ((Cases!I8-Cases!I7)/Cases!I7)/(Cases!$B8-Cases!$B7),
 "")</f>
         <v/>
       </c>
-      <c r="I8" s="39">
+      <c r="I8" s="35">
         <f>IF(AND(ISNUMBER(Cases!J7),Cases!J7&gt;min_number),
 ((Cases!J8-Cases!J7)/Cases!J7)/(Cases!$B8-Cases!$B7),
 "")</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="J8" s="39" t="str">
+      <c r="J8" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!K7),Cases!K7&gt;min_number),
 ((Cases!K8-Cases!K7)/Cases!K7)/(Cases!$B8-Cases!$B7),
 "")</f>
         <v/>
       </c>
-      <c r="K8" s="39" t="str">
+      <c r="K8" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!L7),Cases!L7&gt;min_number),
 ((Cases!L8-Cases!L7)/Cases!L7)/(Cases!$B8-Cases!$B7),
 "")</f>
         <v/>
       </c>
-      <c r="L8" s="39">
+      <c r="L8" s="35">
         <f>IF(AND(ISNUMBER(Cases!M7),Cases!M7&gt;min_number),
 ((Cases!M8-Cases!M7)/Cases!M7)/(Cases!$B8-Cases!$B7),
 "")</f>
         <v>0.57391304347826089</v>
       </c>
-      <c r="M8" s="39" t="str">
+      <c r="M8" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!N7),Cases!N7&gt;min_number),
 ((Cases!N8-Cases!N7)/Cases!N7)/(Cases!$B8-Cases!$B7),
 "")</f>
         <v/>
       </c>
-      <c r="N8" s="39" t="str">
+      <c r="N8" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!O7),Cases!O7&gt;min_number),
 ((Cases!O8-Cases!O7)/Cases!O7)/(Cases!$B8-Cases!$B7),
 "")</f>
         <v/>
       </c>
-      <c r="O8" s="39" t="str">
+      <c r="O8" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!P7),Cases!P7&gt;min_number),
 ((Cases!P8-Cases!P7)/Cases!P7)/(Cases!$B8-Cases!$B7),
 "")</f>
         <v/>
       </c>
-      <c r="P8" s="39" t="str">
+      <c r="P8" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!Q7),Cases!Q7&gt;min_number),
 ((Cases!Q8-Cases!Q7)/Cases!Q7)/(Cases!$B8-Cases!$B7),
 "")</f>
         <v/>
       </c>
-      <c r="Q8" s="39" t="str">
+      <c r="Q8" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!R7),Cases!R7&gt;min_number),
 ((Cases!R8-Cases!R7)/Cases!R7)/(Cases!$B8-Cases!$B7),
 "")</f>
         <v/>
       </c>
-      <c r="R8" s="39" t="str">
+      <c r="R8" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!S7),Cases!S7&gt;min_number),
 ((Cases!S8-Cases!S7)/Cases!S7)/(Cases!$B8-Cases!$B7),
 "")</f>
         <v/>
       </c>
-      <c r="S8" s="40">
+      <c r="S8" s="36">
         <f>IF(AND(ISNUMBER(Cases!T7),Cases!T7&gt;min_number),
 ((Cases!T8-Cases!T7)/Cases!T7)/(Cases!$B8-Cases!$B7),
 "")</f>
         <v>0.52671755725190839</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
-      <c r="A9" s="47">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9" s="43">
         <f>Cases!A9</f>
         <v>7</v>
       </c>
-      <c r="B9" s="38">
+      <c r="B9" s="34">
         <f>Cases!B9</f>
         <v>43896.625</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="35">
         <f>IF(AND(ISNUMBER(Cases!D8),Cases!D8&gt;min_number),
 ((Cases!D9-Cases!D8)/Cases!D8)/(Cases!$B9-Cases!$B8),
 "")</f>
         <v>0.31506849315068491</v>
       </c>
-      <c r="D9" s="39">
+      <c r="D9" s="35">
         <f>IF(AND(ISNUMBER(Cases!E8),Cases!E8&gt;min_number),
 ((Cases!E9-Cases!E8)/Cases!E8)/(Cases!$B9-Cases!$B8),
 "")</f>
         <v>0.67142857142857137</v>
       </c>
-      <c r="E9" s="39">
+      <c r="E9" s="35">
         <f>IF(AND(ISNUMBER(Cases!F8),Cases!F8&gt;min_number),
 ((Cases!F9-Cases!F8)/Cases!F8)/(Cases!$B9-Cases!$B8),
 "")</f>
         <v>0.46153846153846156</v>
       </c>
-      <c r="F9" s="39" t="str">
+      <c r="F9" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!G8),Cases!G8&gt;min_number),
 ((Cases!G9-Cases!G8)/Cases!G8)/(Cases!$B9-Cases!$B8),
 "")</f>
         <v/>
       </c>
-      <c r="G9" s="39" t="str">
+      <c r="G9" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!H8),Cases!H8&gt;min_number),
 ((Cases!H9-Cases!H8)/Cases!H8)/(Cases!$B9-Cases!$B8),
 "")</f>
         <v/>
       </c>
-      <c r="H9" s="39" t="str">
+      <c r="H9" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!I8),Cases!I8&gt;min_number),
 ((Cases!I9-Cases!I8)/Cases!I8)/(Cases!$B9-Cases!$B8),
 "")</f>
         <v/>
       </c>
-      <c r="I9" s="39">
+      <c r="I9" s="35">
         <f>IF(AND(ISNUMBER(Cases!J8),Cases!J8&gt;min_number),
 ((Cases!J9-Cases!J8)/Cases!J8)/(Cases!$B9-Cases!$B8),
 "")</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="J9" s="39" t="str">
+      <c r="J9" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!K8),Cases!K8&gt;min_number),
 ((Cases!K9-Cases!K8)/Cases!K8)/(Cases!$B9-Cases!$B8),
 "")</f>
         <v/>
       </c>
-      <c r="K9" s="39">
+      <c r="K9" s="35">
         <f>IF(AND(ISNUMBER(Cases!L8),Cases!L8&gt;min_number),
 ((Cases!L9-Cases!L8)/Cases!L8)/(Cases!$B9-Cases!$B8),
 "")</f>
         <v>0</v>
       </c>
-      <c r="L9" s="39">
+      <c r="L9" s="35">
         <f>IF(AND(ISNUMBER(Cases!M8),Cases!M8&gt;min_number),
 ((Cases!M9-Cases!M8)/Cases!M8)/(Cases!$B9-Cases!$B8),
 "")</f>
         <v>0.81767955801104975</v>
       </c>
-      <c r="M9" s="39" t="str">
+      <c r="M9" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!N8),Cases!N8&gt;min_number),
 ((Cases!N9-Cases!N8)/Cases!N8)/(Cases!$B9-Cases!$B8),
 "")</f>
         <v/>
       </c>
-      <c r="N9" s="39" t="str">
+      <c r="N9" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!O8),Cases!O8&gt;min_number),
 ((Cases!O9-Cases!O8)/Cases!O8)/(Cases!$B9-Cases!$B8),
 "")</f>
         <v/>
       </c>
-      <c r="O9" s="39" t="str">
+      <c r="O9" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!P8),Cases!P8&gt;min_number),
 ((Cases!P9-Cases!P8)/Cases!P8)/(Cases!$B9-Cases!$B8),
 "")</f>
         <v/>
       </c>
-      <c r="P9" s="39" t="str">
+      <c r="P9" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!Q8),Cases!Q8&gt;min_number),
 ((Cases!Q9-Cases!Q8)/Cases!Q8)/(Cases!$B9-Cases!$B8),
 "")</f>
         <v/>
       </c>
-      <c r="Q9" s="39" t="str">
+      <c r="Q9" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!R8),Cases!R8&gt;min_number),
 ((Cases!R9-Cases!R8)/Cases!R8)/(Cases!$B9-Cases!$B8),
 "")</f>
         <v/>
       </c>
-      <c r="R9" s="39" t="str">
+      <c r="R9" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!S8),Cases!S8&gt;min_number),
 ((Cases!S9-Cases!S8)/Cases!S8)/(Cases!$B9-Cases!$B8),
 "")</f>
         <v/>
       </c>
-      <c r="S9" s="40">
+      <c r="S9" s="36">
         <f>IF(AND(ISNUMBER(Cases!T8),Cases!T8&gt;min_number),
 ((Cases!T9-Cases!T8)/Cases!T8)/(Cases!$B9-Cases!$B8),
 "")</f>
         <v>0.59750000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
-      <c r="A10" s="47">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10" s="43">
         <f>Cases!A10</f>
         <v>8</v>
       </c>
-      <c r="B10" s="38">
+      <c r="B10" s="34">
         <f>Cases!B10</f>
         <v>43897.625</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="35">
         <f>IF(AND(ISNUMBER(Cases!D9),Cases!D9&gt;min_number),
 ((Cases!D10-Cases!D9)/Cases!D9)/(Cases!$B10-Cases!$B9),
 "")</f>
         <v>0.77083333333333337</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D10" s="35">
         <f>IF(AND(ISNUMBER(Cases!E9),Cases!E9&gt;min_number),
 ((Cases!E10-Cases!E9)/Cases!E9)/(Cases!$B10-Cases!$B9),
 "")</f>
         <v>0.14529914529914531</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="35">
         <f>IF(AND(ISNUMBER(Cases!F9),Cases!F9&gt;min_number),
 ((Cases!F10-Cases!F9)/Cases!F9)/(Cases!$B10-Cases!$B9),
 "")</f>
         <v>0.47368421052631576</v>
       </c>
-      <c r="F10" s="39" t="str">
+      <c r="F10" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!G9),Cases!G9&gt;min_number),
 ((Cases!G10-Cases!G9)/Cases!G9)/(Cases!$B10-Cases!$B9),
 "")</f>
         <v/>
       </c>
-      <c r="G10" s="39" t="str">
+      <c r="G10" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!H9),Cases!H9&gt;min_number),
 ((Cases!H10-Cases!H9)/Cases!H9)/(Cases!$B10-Cases!$B9),
 "")</f>
         <v/>
       </c>
-      <c r="H10" s="39">
+      <c r="H10" s="35">
         <f>IF(AND(ISNUMBER(Cases!I9),Cases!I9&gt;min_number),
 ((Cases!I10-Cases!I9)/Cases!I9)/(Cases!$B10-Cases!$B9),
 "")</f>
         <v>0.18181818181818182</v>
       </c>
-      <c r="I10" s="39">
+      <c r="I10" s="35">
         <f>IF(AND(ISNUMBER(Cases!J9),Cases!J9&gt;min_number),
 ((Cases!J10-Cases!J9)/Cases!J9)/(Cases!$B10-Cases!$B9),
 "")</f>
         <v>6.25E-2</v>
       </c>
-      <c r="J10" s="39" t="str">
+      <c r="J10" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!K9),Cases!K9&gt;min_number),
 ((Cases!K10-Cases!K9)/Cases!K9)/(Cases!$B10-Cases!$B9),
 "")</f>
         <v/>
       </c>
-      <c r="K10" s="39">
+      <c r="K10" s="35">
         <f>IF(AND(ISNUMBER(Cases!L9),Cases!L9&gt;min_number),
 ((Cases!L10-Cases!L9)/Cases!L9)/(Cases!$B10-Cases!$B9),
 "")</f>
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="L10" s="39">
+      <c r="L10" s="35">
         <f>IF(AND(ISNUMBER(Cases!M9),Cases!M9&gt;min_number),
 ((Cases!M10-Cases!M9)/Cases!M9)/(Cases!$B10-Cases!$B9),
 "")</f>
         <v>0.1337386018237082</v>
       </c>
-      <c r="M10" s="39" t="str">
+      <c r="M10" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!N9),Cases!N9&gt;min_number),
 ((Cases!N10-Cases!N9)/Cases!N9)/(Cases!$B10-Cases!$B9),
 "")</f>
         <v/>
       </c>
-      <c r="N10" s="39" t="str">
+      <c r="N10" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!O9),Cases!O9&gt;min_number),
 ((Cases!O10-Cases!O9)/Cases!O9)/(Cases!$B10-Cases!$B9),
 "")</f>
         <v/>
       </c>
-      <c r="O10" s="39" t="str">
+      <c r="O10" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!P9),Cases!P9&gt;min_number),
 ((Cases!P10-Cases!P9)/Cases!P9)/(Cases!$B10-Cases!$B9),
 "")</f>
         <v/>
       </c>
-      <c r="P10" s="39" t="str">
+      <c r="P10" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!Q9),Cases!Q9&gt;min_number),
 ((Cases!Q10-Cases!Q9)/Cases!Q9)/(Cases!$B10-Cases!$B9),
 "")</f>
         <v/>
       </c>
-      <c r="Q10" s="39" t="str">
+      <c r="Q10" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!R9),Cases!R9&gt;min_number),
 ((Cases!R10-Cases!R9)/Cases!R9)/(Cases!$B10-Cases!$B9),
 "")</f>
         <v/>
       </c>
-      <c r="R10" s="39" t="str">
+      <c r="R10" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!S9),Cases!S9&gt;min_number),
 ((Cases!S10-Cases!S9)/Cases!S9)/(Cases!$B10-Cases!$B9),
 "")</f>
         <v/>
       </c>
-      <c r="S10" s="40">
+      <c r="S10" s="36">
         <f>IF(AND(ISNUMBER(Cases!T9),Cases!T9&gt;min_number),
 ((Cases!T10-Cases!T9)/Cases!T9)/(Cases!$B10-Cases!$B9),
 "")</f>
         <v>0.24413145539906103</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
-      <c r="A11" s="47">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11" s="43">
         <f>Cases!A11</f>
         <v>9</v>
       </c>
-      <c r="B11" s="38">
+      <c r="B11" s="34">
         <f>Cases!B11</f>
         <v>43898.625</v>
       </c>
-      <c r="C11" s="39">
+      <c r="C11" s="35">
         <f>IF(AND(ISNUMBER(Cases!D10),Cases!D10&gt;min_number),
 ((Cases!D11-Cases!D10)/Cases!D10)/(Cases!$B11-Cases!$B10),
 "")</f>
         <v>7.0588235294117646E-2</v>
       </c>
-      <c r="D11" s="39">
+      <c r="D11" s="35">
         <f>IF(AND(ISNUMBER(Cases!E10),Cases!E10&gt;min_number),
 ((Cases!E11-Cases!E10)/Cases!E10)/(Cases!$B11-Cases!$B10),
 "")</f>
         <v>0.28358208955223879</v>
       </c>
-      <c r="E11" s="39">
+      <c r="E11" s="35">
         <f>IF(AND(ISNUMBER(Cases!F10),Cases!F10&gt;min_number),
 ((Cases!F11-Cases!F10)/Cases!F10)/(Cases!$B11-Cases!$B10),
 "")</f>
         <v>0.42857142857142855</v>
       </c>
-      <c r="F11" s="39" t="str">
+      <c r="F11" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!G10),Cases!G10&gt;min_number),
 ((Cases!G11-Cases!G10)/Cases!G10)/(Cases!$B11-Cases!$B10),
 "")</f>
         <v/>
       </c>
-      <c r="G11" s="39" t="str">
+      <c r="G11" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!H10),Cases!H10&gt;min_number),
 ((Cases!H11-Cases!H10)/Cases!H10)/(Cases!$B11-Cases!$B10),
 "")</f>
         <v/>
       </c>
-      <c r="H11" s="39">
+      <c r="H11" s="35">
         <f>IF(AND(ISNUMBER(Cases!I10),Cases!I10&gt;min_number),
 ((Cases!I11-Cases!I10)/Cases!I10)/(Cases!$B11-Cases!$B10),
 "")</f>
         <v>0</v>
       </c>
-      <c r="I11" s="39">
+      <c r="I11" s="35">
         <f>IF(AND(ISNUMBER(Cases!J10),Cases!J10&gt;min_number),
 ((Cases!J11-Cases!J10)/Cases!J10)/(Cases!$B11-Cases!$B10),
 "")</f>
         <v>0.11764705882352941</v>
       </c>
-      <c r="J11" s="39" t="str">
+      <c r="J11" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!K10),Cases!K10&gt;min_number),
 ((Cases!K11-Cases!K10)/Cases!K10)/(Cases!$B11-Cases!$B10),
 "")</f>
         <v/>
       </c>
-      <c r="K11" s="39">
+      <c r="K11" s="35">
         <f>IF(AND(ISNUMBER(Cases!L10),Cases!L10&gt;min_number),
 ((Cases!L11-Cases!L10)/Cases!L10)/(Cases!$B11-Cases!$B10),
 "")</f>
         <v>0.10526315789473684</v>
       </c>
-      <c r="L11" s="39">
+      <c r="L11" s="35">
         <f>IF(AND(ISNUMBER(Cases!M10),Cases!M10&gt;min_number),
 ((Cases!M11-Cases!M10)/Cases!M10)/(Cases!$B11-Cases!$B10),
 "")</f>
         <v>6.7024128686327081E-2</v>
       </c>
-      <c r="M11" s="39">
+      <c r="M11" s="35">
         <f>IF(AND(ISNUMBER(Cases!N10),Cases!N10&gt;min_number),
 ((Cases!N11-Cases!N10)/Cases!N10)/(Cases!$B11-Cases!$B10),
 "")</f>
         <v>0.46153846153846156</v>
       </c>
-      <c r="N11" s="39" t="str">
+      <c r="N11" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!O10),Cases!O10&gt;min_number),
 ((Cases!O11-Cases!O10)/Cases!O10)/(Cases!$B11-Cases!$B10),
 "")</f>
         <v/>
       </c>
-      <c r="O11" s="39" t="str">
+      <c r="O11" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!P10),Cases!P10&gt;min_number),
 ((Cases!P11-Cases!P10)/Cases!P10)/(Cases!$B11-Cases!$B10),
 "")</f>
         <v/>
       </c>
-      <c r="P11" s="39" t="str">
+      <c r="P11" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!Q10),Cases!Q10&gt;min_number),
 ((Cases!Q11-Cases!Q10)/Cases!Q10)/(Cases!$B11-Cases!$B10),
 "")</f>
         <v/>
       </c>
-      <c r="Q11" s="39" t="str">
+      <c r="Q11" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!R10),Cases!R10&gt;min_number),
 ((Cases!R11-Cases!R10)/Cases!R10)/(Cases!$B11-Cases!$B10),
 "")</f>
         <v/>
       </c>
-      <c r="R11" s="39" t="str">
+      <c r="R11" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!S10),Cases!S10&gt;min_number),
 ((Cases!S11-Cases!S10)/Cases!S10)/(Cases!$B11-Cases!$B10),
 "")</f>
         <v/>
       </c>
-      <c r="S11" s="40">
+      <c r="S11" s="36">
         <f>IF(AND(ISNUMBER(Cases!T10),Cases!T10&gt;min_number),
 ((Cases!T11-Cases!T10)/Cases!T10)/(Cases!$B11-Cases!$B10),
 "")</f>
         <v>0.13459119496855346</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
-      <c r="A12" s="47">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12" s="43">
         <f>Cases!A12</f>
         <v>10</v>
       </c>
-      <c r="B12" s="38">
+      <c r="B12" s="34">
         <f>Cases!B12</f>
         <v>43899.625</v>
       </c>
-      <c r="C12" s="39">
+      <c r="C12" s="35">
         <f>IF(AND(ISNUMBER(Cases!D11),Cases!D11&gt;min_number),
 ((Cases!D12-Cases!D11)/Cases!D11)/(Cases!$B12-Cases!$B11),
 "")</f>
         <v>0.12087912087912088</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D12" s="35">
         <f>IF(AND(ISNUMBER(Cases!E11),Cases!E11&gt;min_number),
 ((Cases!E12-Cases!E11)/Cases!E11)/(Cases!$B12-Cases!$B11),
 "")</f>
         <v>0.48837209302325579</v>
       </c>
-      <c r="E12" s="39">
+      <c r="E12" s="35">
         <f>IF(AND(ISNUMBER(Cases!F11),Cases!F11&gt;min_number),
 ((Cases!F12-Cases!F11)/Cases!F11)/(Cases!$B12-Cases!$B11),
 "")</f>
         <v>0.2</v>
       </c>
-      <c r="F12" s="39" t="str">
+      <c r="F12" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!G11),Cases!G11&gt;min_number),
 ((Cases!G12-Cases!G11)/Cases!G11)/(Cases!$B12-Cases!$B11),
 "")</f>
         <v/>
       </c>
-      <c r="G12" s="39" t="str">
+      <c r="G12" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!H11),Cases!H11&gt;min_number),
 ((Cases!H12-Cases!H11)/Cases!H11)/(Cases!$B12-Cases!$B11),
 "")</f>
         <v/>
       </c>
-      <c r="H12" s="39">
+      <c r="H12" s="35">
         <f>IF(AND(ISNUMBER(Cases!I11),Cases!I11&gt;min_number),
 ((Cases!I12-Cases!I11)/Cases!I11)/(Cases!$B12-Cases!$B11),
 "")</f>
         <v>0.30769230769230771</v>
       </c>
-      <c r="I12" s="39">
+      <c r="I12" s="35">
         <f>IF(AND(ISNUMBER(Cases!J11),Cases!J11&gt;min_number),
 ((Cases!J12-Cases!J11)/Cases!J11)/(Cases!$B12-Cases!$B11),
 "")</f>
         <v>0.36842105263157893</v>
       </c>
-      <c r="J12" s="39" t="str">
+      <c r="J12" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!K11),Cases!K11&gt;min_number),
 ((Cases!K12-Cases!K11)/Cases!K11)/(Cases!$B12-Cases!$B11),
 "")</f>
         <v/>
       </c>
-      <c r="K12" s="39">
+      <c r="K12" s="35">
         <f>IF(AND(ISNUMBER(Cases!L11),Cases!L11&gt;min_number),
 ((Cases!L12-Cases!L11)/Cases!L11)/(Cases!$B12-Cases!$B11),
 "")</f>
         <v>0.80952380952380953</v>
       </c>
-      <c r="L12" s="39">
+      <c r="L12" s="35">
         <f>IF(AND(ISNUMBER(Cases!M11),Cases!M11&gt;min_number),
 ((Cases!M12-Cases!M11)/Cases!M11)/(Cases!$B12-Cases!$B11),
 "")</f>
         <v>0.21608040201005024</v>
       </c>
-      <c r="M12" s="39">
+      <c r="M12" s="35">
         <f>IF(AND(ISNUMBER(Cases!N11),Cases!N11&gt;min_number),
 ((Cases!N12-Cases!N11)/Cases!N11)/(Cases!$B12-Cases!$B11),
 "")</f>
         <v>-0.10526315789473684</v>
       </c>
-      <c r="N12" s="39" t="str">
+      <c r="N12" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!O11),Cases!O11&gt;min_number),
 ((Cases!O12-Cases!O11)/Cases!O11)/(Cases!$B12-Cases!$B11),
 "")</f>
         <v/>
       </c>
-      <c r="O12" s="39" t="str">
+      <c r="O12" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!P11),Cases!P11&gt;min_number),
 ((Cases!P12-Cases!P11)/Cases!P11)/(Cases!$B12-Cases!$B11),
 "")</f>
         <v/>
       </c>
-      <c r="P12" s="39" t="str">
+      <c r="P12" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!Q11),Cases!Q11&gt;min_number),
 ((Cases!Q12-Cases!Q11)/Cases!Q11)/(Cases!$B12-Cases!$B11),
 "")</f>
         <v/>
       </c>
-      <c r="Q12" s="39" t="str">
+      <c r="Q12" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!R11),Cases!R11&gt;min_number),
 ((Cases!R12-Cases!R11)/Cases!R11)/(Cases!$B12-Cases!$B11),
 "")</f>
         <v/>
       </c>
-      <c r="R12" s="39" t="str">
+      <c r="R12" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!S11),Cases!S11&gt;min_number),
 ((Cases!S12-Cases!S11)/Cases!S11)/(Cases!$B12-Cases!$B11),
 "")</f>
         <v/>
       </c>
-      <c r="S12" s="40">
+      <c r="S12" s="36">
         <f>IF(AND(ISNUMBER(Cases!T11),Cases!T11&gt;min_number),
 ((Cases!T12-Cases!T11)/Cases!T11)/(Cases!$B12-Cases!$B11),
 "")</f>
         <v>0.26274944567627495</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
-      <c r="A13" s="47">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A13" s="43">
         <f>Cases!A13</f>
         <v>11</v>
       </c>
-      <c r="B13" s="38">
+      <c r="B13" s="34">
         <f>Cases!B13</f>
         <v>43900.625</v>
       </c>
-      <c r="C13" s="39">
+      <c r="C13" s="35">
         <f>IF(AND(ISNUMBER(Cases!D12),Cases!D12&gt;min_number),
 ((Cases!D13-Cases!D12)/Cases!D12)/(Cases!$B13-Cases!$B12),
 "")</f>
         <v>0.16176470588235295</v>
       </c>
-      <c r="D13" s="39">
+      <c r="D13" s="35">
         <f>IF(AND(ISNUMBER(Cases!E12),Cases!E12&gt;min_number),
 ((Cases!E13-Cases!E12)/Cases!E12)/(Cases!$B13-Cases!$B12),
 "")</f>
         <v>0.2265625</v>
       </c>
-      <c r="E13" s="39">
+      <c r="E13" s="35">
         <f>IF(AND(ISNUMBER(Cases!F12),Cases!F12&gt;min_number),
 ((Cases!F13-Cases!F12)/Cases!F12)/(Cases!$B13-Cases!$B12),
 "")</f>
         <v>0</v>
       </c>
-      <c r="F13" s="39" t="str">
+      <c r="F13" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!G12),Cases!G12&gt;min_number),
 ((Cases!G13-Cases!G12)/Cases!G12)/(Cases!$B13-Cases!$B12),
 "")</f>
         <v/>
       </c>
-      <c r="G13" s="39" t="str">
+      <c r="G13" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!H12),Cases!H12&gt;min_number),
 ((Cases!H13-Cases!H12)/Cases!H12)/(Cases!$B13-Cases!$B12),
 "")</f>
         <v/>
       </c>
-      <c r="H13" s="39">
+      <c r="H13" s="35">
         <f>IF(AND(ISNUMBER(Cases!I12),Cases!I12&gt;min_number),
 ((Cases!I13-Cases!I12)/Cases!I12)/(Cases!$B13-Cases!$B12),
 "")</f>
         <v>0.70588235294117652</v>
       </c>
-      <c r="I13" s="39">
+      <c r="I13" s="35">
         <f>IF(AND(ISNUMBER(Cases!J12),Cases!J12&gt;min_number),
 ((Cases!J13-Cases!J12)/Cases!J12)/(Cases!$B13-Cases!$B12),
 "")</f>
         <v>0.34615384615384615</v>
       </c>
-      <c r="J13" s="39" t="str">
+      <c r="J13" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!K12),Cases!K12&gt;min_number),
 ((Cases!K13-Cases!K12)/Cases!K12)/(Cases!$B13-Cases!$B12),
 "")</f>
         <v/>
       </c>
-      <c r="K13" s="39">
+      <c r="K13" s="35">
         <f>IF(AND(ISNUMBER(Cases!L12),Cases!L12&gt;min_number),
 ((Cases!L13-Cases!L12)/Cases!L12)/(Cases!$B13-Cases!$B12),
 "")</f>
         <v>0.28947368421052633</v>
       </c>
-      <c r="L13" s="39">
+      <c r="L13" s="35">
         <f>IF(AND(ISNUMBER(Cases!M12),Cases!M12&gt;min_number),
 ((Cases!M13-Cases!M12)/Cases!M12)/(Cases!$B13-Cases!$B12),
 "")</f>
         <v>0</v>
       </c>
-      <c r="M13" s="39">
+      <c r="M13" s="35">
         <f>IF(AND(ISNUMBER(Cases!N12),Cases!N12&gt;min_number),
 ((Cases!N13-Cases!N12)/Cases!N12)/(Cases!$B13-Cases!$B12),
 "")</f>
         <v>0.47058823529411764</v>
       </c>
-      <c r="N13" s="39" t="str">
+      <c r="N13" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!O12),Cases!O12&gt;min_number),
 ((Cases!O13-Cases!O12)/Cases!O12)/(Cases!$B13-Cases!$B12),
 "")</f>
         <v/>
       </c>
-      <c r="O13" s="39">
+      <c r="O13" s="35">
         <f>IF(AND(ISNUMBER(Cases!P12),Cases!P12&gt;min_number),
 ((Cases!P13-Cases!P12)/Cases!P12)/(Cases!$B13-Cases!$B12),
 "")</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P13" s="39" t="str">
+      <c r="P13" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!Q12),Cases!Q12&gt;min_number),
 ((Cases!Q13-Cases!Q12)/Cases!Q12)/(Cases!$B13-Cases!$B12),
 "")</f>
         <v/>
       </c>
-      <c r="Q13" s="39" t="str">
+      <c r="Q13" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!R12),Cases!R12&gt;min_number),
 ((Cases!R13-Cases!R12)/Cases!R12)/(Cases!$B13-Cases!$B12),
 "")</f>
         <v/>
       </c>
-      <c r="R13" s="39" t="str">
+      <c r="R13" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!S12),Cases!S12&gt;min_number),
 ((Cases!S13-Cases!S12)/Cases!S12)/(Cases!$B13-Cases!$B12),
 "")</f>
         <v/>
       </c>
-      <c r="S13" s="40">
+      <c r="S13" s="36">
         <f>IF(AND(ISNUMBER(Cases!T12),Cases!T12&gt;min_number),
 ((Cases!T13-Cases!T12)/Cases!T12)/(Cases!$B13-Cases!$B12),
 "")</f>
         <v>0.13784021071115013</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
-      <c r="A14" s="47">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A14" s="43">
         <f>Cases!A14</f>
         <v>12</v>
       </c>
-      <c r="B14" s="38">
+      <c r="B14" s="34">
         <f>Cases!B14</f>
         <v>43901.625</v>
       </c>
-      <c r="C14" s="39">
+      <c r="C14" s="35">
         <f>IF(AND(ISNUMBER(Cases!D13),Cases!D13&gt;min_number),
 ((Cases!D14-Cases!D13)/Cases!D13)/(Cases!$B14-Cases!$B13),
 "")</f>
         <v>0.16877637130801687</v>
       </c>
-      <c r="D14" s="39">
+      <c r="D14" s="35">
         <f>IF(AND(ISNUMBER(Cases!E13),Cases!E13&gt;min_number),
 ((Cases!E14-Cases!E13)/Cases!E13)/(Cases!$B14-Cases!$B13),
 "")</f>
         <v>0.16560509554140126</v>
       </c>
-      <c r="E14" s="39">
+      <c r="E14" s="35">
         <f>IF(AND(ISNUMBER(Cases!F13),Cases!F13&gt;min_number),
 ((Cases!F14-Cases!F13)/Cases!F13)/(Cases!$B14-Cases!$B13),
 "")</f>
         <v>0.875</v>
       </c>
-      <c r="F14" s="39" t="str">
+      <c r="F14" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!G13),Cases!G13&gt;min_number),
 ((Cases!G14-Cases!G13)/Cases!G13)/(Cases!$B14-Cases!$B13),
 "")</f>
         <v/>
       </c>
-      <c r="G14" s="39" t="str">
+      <c r="G14" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!H13),Cases!H13&gt;min_number),
 ((Cases!H14-Cases!H13)/Cases!H13)/(Cases!$B14-Cases!$B13),
 "")</f>
         <v/>
       </c>
-      <c r="H14" s="39">
+      <c r="H14" s="35">
         <f>IF(AND(ISNUMBER(Cases!I13),Cases!I13&gt;min_number),
 ((Cases!I14-Cases!I13)/Cases!I13)/(Cases!$B14-Cases!$B13),
 "")</f>
         <v>0.65517241379310343</v>
       </c>
-      <c r="I14" s="39">
+      <c r="I14" s="35">
         <f>IF(AND(ISNUMBER(Cases!J13),Cases!J13&gt;min_number),
 ((Cases!J14-Cases!J13)/Cases!J13)/(Cases!$B14-Cases!$B13),
 "")</f>
         <v>0.37142857142857144</v>
       </c>
-      <c r="J14" s="39">
+      <c r="J14" s="35">
         <f>IF(AND(ISNUMBER(Cases!K13),Cases!K13&gt;min_number),
 ((Cases!K14-Cases!K13)/Cases!K13)/(Cases!$B14-Cases!$B13),
 "")</f>
         <v>0.30769230769230771</v>
       </c>
-      <c r="K14" s="39">
+      <c r="K14" s="35">
         <f>IF(AND(ISNUMBER(Cases!L13),Cases!L13&gt;min_number),
 ((Cases!L14-Cases!L13)/Cases!L13)/(Cases!$B14-Cases!$B13),
 "")</f>
         <v>0.53061224489795922</v>
       </c>
-      <c r="L14" s="39">
+      <c r="L14" s="35">
         <f>IF(AND(ISNUMBER(Cases!M13),Cases!M13&gt;min_number),
 ((Cases!M14-Cases!M13)/Cases!M13)/(Cases!$B14-Cases!$B13),
 "")</f>
         <v>0</v>
       </c>
-      <c r="M14" s="39">
+      <c r="M14" s="35">
         <f>IF(AND(ISNUMBER(Cases!N13),Cases!N13&gt;min_number),
 ((Cases!N14-Cases!N13)/Cases!N13)/(Cases!$B14-Cases!$B13),
 "")</f>
         <v>0</v>
       </c>
-      <c r="N14" s="39" t="str">
+      <c r="N14" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!O13),Cases!O13&gt;min_number),
 ((Cases!O14-Cases!O13)/Cases!O13)/(Cases!$B14-Cases!$B13),
 "")</f>
         <v/>
       </c>
-      <c r="O14" s="39">
+      <c r="O14" s="35">
         <f>IF(AND(ISNUMBER(Cases!P13),Cases!P13&gt;min_number),
 ((Cases!P14-Cases!P13)/Cases!P13)/(Cases!$B14-Cases!$B13),
 "")</f>
         <v>0.18181818181818182</v>
       </c>
-      <c r="P14" s="39" t="str">
+      <c r="P14" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!Q13),Cases!Q13&gt;min_number),
 ((Cases!Q14-Cases!Q13)/Cases!Q13)/(Cases!$B14-Cases!$B13),
 "")</f>
         <v/>
       </c>
-      <c r="Q14" s="39" t="str">
+      <c r="Q14" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!R13),Cases!R13&gt;min_number),
 ((Cases!R14-Cases!R13)/Cases!R13)/(Cases!$B14-Cases!$B13),
 "")</f>
         <v/>
       </c>
-      <c r="R14" s="39" t="str">
+      <c r="R14" s="35" t="str">
         <f>IF(AND(ISNUMBER(Cases!S13),Cases!S13&gt;min_number),
 ((Cases!S14-Cases!S13)/Cases!S13)/(Cases!$B14-Cases!$B13),
 "")</f>
         <v/>
       </c>
-      <c r="S14" s="40">
+      <c r="S14" s="36">
         <f>IF(AND(ISNUMBER(Cases!T13),Cases!T13&gt;min_number),
 ((Cases!T14-Cases!T13)/Cases!T13)/(Cases!$B14-Cases!$B13),
 "")</f>
         <v>0.20910493827160495</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
-      <c r="A15" s="63">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A15" s="57">
         <f>Cases!A15</f>
         <v>13</v>
       </c>
-      <c r="B15" s="64">
+      <c r="B15" s="58">
         <f>Cases!B15</f>
         <v>43902.625</v>
       </c>
-      <c r="C15" s="65">
+      <c r="C15" s="59">
         <f>IF(AND(ISNUMBER(Cases!D14),Cases!D14&gt;min_number),
 ((Cases!D15-Cases!D14)/Cases!D14)/(Cases!$B15-Cases!$B14),
 "")</f>
         <v>0.63898916967509023</v>
       </c>
-      <c r="D15" s="65">
+      <c r="D15" s="59">
         <f>IF(AND(ISNUMBER(Cases!E14),Cases!E14&gt;min_number),
 ((Cases!E15-Cases!E14)/Cases!E14)/(Cases!$B15-Cases!$B14),
 "")</f>
         <v>0.36612021857923499</v>
       </c>
-      <c r="E15" s="65">
+      <c r="E15" s="59">
         <f>IF(AND(ISNUMBER(Cases!F14),Cases!F14&gt;min_number),
 ((Cases!F15-Cases!F14)/Cases!F14)/(Cases!$B15-Cases!$B14),
 "")</f>
         <v>0.52222222222222225</v>
       </c>
-      <c r="F15" s="65">
+      <c r="F15" s="59">
         <f>IF(AND(ISNUMBER(Cases!G14),Cases!G14&gt;min_number),
 ((Cases!G15-Cases!G14)/Cases!G14)/(Cases!$B15-Cases!$B14),
 "")</f>
         <v>0.25</v>
       </c>
-      <c r="G15" s="65">
+      <c r="G15" s="59">
         <f>IF(AND(ISNUMBER(Cases!H14),Cases!H14&gt;min_number),
 ((Cases!H15-Cases!H14)/Cases!H14)/(Cases!$B15-Cases!$B14),
 "")</f>
         <v>0.80952380952380953</v>
       </c>
-      <c r="H15" s="65">
+      <c r="H15" s="59">
         <f>IF(AND(ISNUMBER(Cases!I14),Cases!I14&gt;min_number),
 ((Cases!I15-Cases!I14)/Cases!I14)/(Cases!$B15-Cases!$B14),
 "")</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="I15" s="65">
+      <c r="I15" s="59">
         <f>IF(AND(ISNUMBER(Cases!J14),Cases!J14&gt;min_number),
 ((Cases!J15-Cases!J14)/Cases!J14)/(Cases!$B15-Cases!$B14),
 "")</f>
         <v>1.0625</v>
       </c>
-      <c r="J15" s="65">
+      <c r="J15" s="59">
         <f>IF(AND(ISNUMBER(Cases!K14),Cases!K14&gt;min_number),
 ((Cases!K15-Cases!K14)/Cases!K14)/(Cases!$B15-Cases!$B14),
 "")</f>
         <v>0.35294117647058826</v>
       </c>
-      <c r="K15" s="65">
+      <c r="K15" s="59">
         <f>IF(AND(ISNUMBER(Cases!L14),Cases!L14&gt;min_number),
 ((Cases!L15-Cases!L14)/Cases!L14)/(Cases!$B15-Cases!$B14),
 "")</f>
         <v>0.72</v>
       </c>
-      <c r="L15" s="65">
+      <c r="L15" s="59">
         <f>IF(AND(ISNUMBER(Cases!M14),Cases!M14&gt;min_number),
 ((Cases!M15-Cases!M14)/Cases!M14)/(Cases!$B15-Cases!$B14),
 "")</f>
         <v>0.42148760330578511</v>
       </c>
-      <c r="M15" s="65">
+      <c r="M15" s="59">
         <f>IF(AND(ISNUMBER(Cases!N14),Cases!N14&gt;min_number),
 ((Cases!N15-Cases!N14)/Cases!N14)/(Cases!$B15-Cases!$B14),
 "")</f>
         <v>1.08</v>
       </c>
-      <c r="N15" s="65">
+      <c r="N15" s="59">
         <f>IF(AND(ISNUMBER(Cases!O14),Cases!O14&gt;min_number),
 ((Cases!O15-Cases!O14)/Cases!O14)/(Cases!$B15-Cases!$B14),
 "")</f>
         <v>0</v>
       </c>
-      <c r="O15" s="65">
+      <c r="O15" s="59">
         <f>IF(AND(ISNUMBER(Cases!P14),Cases!P14&gt;min_number),
 ((Cases!P15-Cases!P14)/Cases!P14)/(Cases!$B15-Cases!$B14),
 "")</f>
         <v>0.73076923076923073</v>
       </c>
-      <c r="P15" s="65">
+      <c r="P15" s="59">
         <f>IF(AND(ISNUMBER(Cases!Q14),Cases!Q14&gt;min_number),
 ((Cases!Q15-Cases!Q14)/Cases!Q14)/(Cases!$B15-Cases!$B14),
 "")</f>
         <v>0.8</v>
       </c>
-      <c r="Q15" s="65">
+      <c r="Q15" s="59">
         <f>IF(AND(ISNUMBER(Cases!R14),Cases!R14&gt;min_number),
 ((Cases!R15-Cases!R14)/Cases!R14)/(Cases!$B15-Cases!$B14),
 "")</f>
         <v>0.14814814814814814</v>
       </c>
-      <c r="R15" s="65" t="str">
+      <c r="R15" s="59" t="str">
         <f>IF(AND(ISNUMBER(Cases!S14),Cases!S14&gt;min_number),
 ((Cases!S15-Cases!S14)/Cases!S14)/(Cases!$B15-Cases!$B14),
 "")</f>
         <v/>
       </c>
-      <c r="S15" s="66">
+      <c r="S15" s="60">
         <f>IF(AND(ISNUMBER(Cases!T14),Cases!T14&gt;min_number),
 ((Cases!T15-Cases!T14)/Cases!T14)/(Cases!$B15-Cases!$B14),
 "")</f>
         <v>0.51180599872367583</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
-      <c r="A16" s="46">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A16" s="42">
         <f>Cases!A16</f>
         <v>14</v>
       </c>
-      <c r="B16" s="38">
+      <c r="B16" s="34">
         <f>Cases!B16</f>
         <v>43903.625</v>
       </c>
-      <c r="C16" s="39">
+      <c r="C16" s="35">
         <f>IF(AND(ISNUMBER(Cases!D15),Cases!D15&gt;min_number),
 ((Cases!D16-Cases!D15)/Cases!D15)/(Cases!$B16-Cases!$B15),
 "")</f>
         <v>0</v>
       </c>
-      <c r="D16" s="39">
+      <c r="D16" s="35">
         <f>IF(AND(ISNUMBER(Cases!E15),Cases!E15&gt;min_number),
 ((Cases!E16-Cases!E15)/Cases!E15)/(Cases!$B16-Cases!$B15),
 "")</f>
         <v>0.11600000000000001</v>
       </c>
-      <c r="E16" s="39">
+      <c r="E16" s="35">
         <f>IF(AND(ISNUMBER(Cases!F15),Cases!F15&gt;min_number),
 ((Cases!F16-Cases!F15)/Cases!F15)/(Cases!$B16-Cases!$B15),
 "")</f>
         <v>0.27007299270072993</v>
       </c>
-      <c r="F16" s="39">
+      <c r="F16" s="35">
         <f>IF(AND(ISNUMBER(Cases!G15),Cases!G15&gt;min_number),
 ((Cases!G16-Cases!G15)/Cases!G15)/(Cases!$B16-Cases!$B15),
 "")</f>
         <v>0.46666666666666667</v>
       </c>
-      <c r="G16" s="39">
+      <c r="G16" s="35">
         <f>IF(AND(ISNUMBER(Cases!H15),Cases!H15&gt;min_number),
 ((Cases!H16-Cases!H15)/Cases!H15)/(Cases!$B16-Cases!$B15),
 "")</f>
         <v>0.10526315789473684</v>
       </c>
-      <c r="H16" s="39">
+      <c r="H16" s="35">
         <f>IF(AND(ISNUMBER(Cases!I15),Cases!I15&gt;min_number),
 ((Cases!I16-Cases!I15)/Cases!I15)/(Cases!$B16-Cases!$B15),
 "")</f>
         <v>0.125</v>
       </c>
-      <c r="I16" s="39">
+      <c r="I16" s="35">
         <f>IF(AND(ISNUMBER(Cases!J15),Cases!J15&gt;min_number),
 ((Cases!J16-Cases!J15)/Cases!J15)/(Cases!$B16-Cases!$B15),
 "")</f>
         <v>0.49494949494949497</v>
       </c>
-      <c r="J16" s="39">
+      <c r="J16" s="35">
         <f>IF(AND(ISNUMBER(Cases!K15),Cases!K15&gt;min_number),
 ((Cases!K16-Cases!K15)/Cases!K15)/(Cases!$B16-Cases!$B15),
 "")</f>
         <v>0.43478260869565216</v>
       </c>
-      <c r="K16" s="39">
+      <c r="K16" s="35">
         <f>IF(AND(ISNUMBER(Cases!L15),Cases!L15&gt;min_number),
 ((Cases!L16-Cases!L15)/Cases!L15)/(Cases!$B16-Cases!$B15),
 "")</f>
         <v>0.78294573643410847</v>
       </c>
-      <c r="L16" s="39">
+      <c r="L16" s="35">
         <f>IF(AND(ISNUMBER(Cases!M15),Cases!M15&gt;min_number),
 ((Cases!M16-Cases!M15)/Cases!M15)/(Cases!$B16-Cases!$B15),
 "")</f>
         <v>0.36046511627906974</v>
       </c>
-      <c r="M16" s="39">
+      <c r="M16" s="35">
         <f>IF(AND(ISNUMBER(Cases!N15),Cases!N15&gt;min_number),
 ((Cases!N16-Cases!N15)/Cases!N15)/(Cases!$B16-Cases!$B15),
 "")</f>
         <v>0.96153846153846156</v>
       </c>
-      <c r="N16" s="39">
+      <c r="N16" s="35">
         <f>IF(AND(ISNUMBER(Cases!O15),Cases!O15&gt;min_number),
 ((Cases!O16-Cases!O15)/Cases!O15)/(Cases!$B16-Cases!$B15),
 "")</f>
         <v>1.8571428571428572</v>
       </c>
-      <c r="O16" s="39">
+      <c r="O16" s="35">
         <f>IF(AND(ISNUMBER(Cases!P15),Cases!P15&gt;min_number),
 ((Cases!P16-Cases!P15)/Cases!P15)/(Cases!$B16-Cases!$B15),
 "")</f>
         <v>0.84444444444444444</v>
       </c>
-      <c r="P16" s="39">
+      <c r="P16" s="35">
         <f>IF(AND(ISNUMBER(Cases!Q15),Cases!Q15&gt;min_number),
 ((Cases!Q16-Cases!Q15)/Cases!Q15)/(Cases!$B16-Cases!$B15),
 "")</f>
         <v>0.55555555555555558</v>
       </c>
-      <c r="Q16" s="39">
+      <c r="Q16" s="35">
         <f>IF(AND(ISNUMBER(Cases!R15),Cases!R15&gt;min_number),
 ((Cases!R16-Cases!R15)/Cases!R15)/(Cases!$B16-Cases!$B15),
 "")</f>
         <v>0.54838709677419351</v>
       </c>
-      <c r="R16" s="39">
+      <c r="R16" s="35">
         <f>IF(AND(ISNUMBER(Cases!S15),Cases!S15&gt;min_number),
 ((Cases!S16-Cases!S15)/Cases!S15)/(Cases!$B16-Cases!$B15),
 "")</f>
         <v>1.0714285714285714</v>
       </c>
-      <c r="S16" s="39">
+      <c r="S16" s="35">
         <f>IF(AND(ISNUMBER(Cases!T15),Cases!T15&gt;min_number),
 ((Cases!T16-Cases!T15)/Cases!T15)/(Cases!$B16-Cases!$B15),
 "")</f>
         <v>0.29252849303503586</v>
       </c>
     </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" s="57">
+        <f>Cases!A17</f>
+        <v>15</v>
+      </c>
+      <c r="B17" s="58">
+        <f>Cases!B17</f>
+        <v>43904.625</v>
+      </c>
+      <c r="C17" s="59">
+        <f>IF(AND(ISNUMBER(Cases!D16),Cases!D16&gt;min_number),
+((Cases!D17-Cases!D16)/Cases!D16)/(Cases!$B17-Cases!$B16),
+"")</f>
+        <v>0.25330396475770928</v>
+      </c>
+      <c r="D17" s="59">
+        <f>IF(AND(ISNUMBER(Cases!E16),Cases!E16&gt;min_number),
+((Cases!E17-Cases!E16)/Cases!E16)/(Cases!$B17-Cases!$B16),
+"")</f>
+        <v>0.22043010752688172</v>
+      </c>
+      <c r="E17" s="59">
+        <f>IF(AND(ISNUMBER(Cases!F16),Cases!F16&gt;min_number),
+((Cases!F17-Cases!F16)/Cases!F16)/(Cases!$B17-Cases!$B16),
+"")</f>
+        <v>0.2413793103448276</v>
+      </c>
+      <c r="F17" s="59">
+        <f>IF(AND(ISNUMBER(Cases!G16),Cases!G16&gt;min_number),
+((Cases!G17-Cases!G16)/Cases!G16)/(Cases!$B17-Cases!$B16),
+"")</f>
+        <v>0.38636363636363635</v>
+      </c>
+      <c r="G17" s="59">
+        <f>IF(AND(ISNUMBER(Cases!H16),Cases!H16&gt;min_number),
+((Cases!H17-Cases!H16)/Cases!H16)/(Cases!$B17-Cases!$B16),
+"")</f>
+        <v>0.19047619047619047</v>
+      </c>
+      <c r="H17" s="59">
+        <f>IF(AND(ISNUMBER(Cases!I16),Cases!I16&gt;min_number),
+((Cases!I17-Cases!I16)/Cases!I16)/(Cases!$B17-Cases!$B16),
+"")</f>
+        <v>0.59595959595959591</v>
+      </c>
+      <c r="I17" s="59">
+        <f>IF(AND(ISNUMBER(Cases!J16),Cases!J16&gt;min_number),
+((Cases!J17-Cases!J16)/Cases!J16)/(Cases!$B17-Cases!$B16),
+"")</f>
+        <v>0.3716216216216216</v>
+      </c>
+      <c r="J17" s="59">
+        <f>IF(AND(ISNUMBER(Cases!K16),Cases!K16&gt;min_number),
+((Cases!K17-Cases!K16)/Cases!K16)/(Cases!$B17-Cases!$B16),
+"")</f>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="K17" s="59">
+        <f>IF(AND(ISNUMBER(Cases!L16),Cases!L16&gt;min_number),
+((Cases!L17-Cases!L16)/Cases!L16)/(Cases!$B17-Cases!$B16),
+"")</f>
+        <v>0.1</v>
+      </c>
+      <c r="L17" s="59">
+        <f>IF(AND(ISNUMBER(Cases!M16),Cases!M16&gt;min_number),
+((Cases!M17-Cases!M16)/Cases!M16)/(Cases!$B17-Cases!$B16),
+"")</f>
+        <v>0.23290598290598291</v>
+      </c>
+      <c r="M17" s="59">
+        <f>IF(AND(ISNUMBER(Cases!N16),Cases!N16&gt;min_number),
+((Cases!N17-Cases!N16)/Cases!N16)/(Cases!$B17-Cases!$B16),
+"")</f>
+        <v>0.18627450980392157</v>
+      </c>
+      <c r="N17" s="59">
+        <f>IF(AND(ISNUMBER(Cases!O16),Cases!O16&gt;min_number),
+((Cases!O17-Cases!O16)/Cases!O16)/(Cases!$B17-Cases!$B16),
+"")</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="59">
+        <f>IF(AND(ISNUMBER(Cases!P16),Cases!P16&gt;min_number),
+((Cases!P17-Cases!P16)/Cases!P16)/(Cases!$B17-Cases!$B16),
+"")</f>
+        <v>0.12048192771084337</v>
+      </c>
+      <c r="P17" s="59">
+        <f>IF(AND(ISNUMBER(Cases!Q16),Cases!Q16&gt;min_number),
+((Cases!Q17-Cases!Q16)/Cases!Q16)/(Cases!$B17-Cases!$B16),
+"")</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="Q17" s="59">
+        <f>IF(AND(ISNUMBER(Cases!R16),Cases!R16&gt;min_number),
+((Cases!R17-Cases!R16)/Cases!R16)/(Cases!$B17-Cases!$B16),
+"")</f>
+        <v>0.25</v>
+      </c>
+      <c r="R17" s="59">
+        <f>IF(AND(ISNUMBER(Cases!S16),Cases!S16&gt;min_number),
+((Cases!S17-Cases!S16)/Cases!S16)/(Cases!$B17-Cases!$B16),
+"")</f>
+        <v>0.58620689655172409</v>
+      </c>
+      <c r="S17" s="60">
+        <f>IF(AND(ISNUMBER(Cases!T16),Cases!T16&gt;min_number),
+((Cases!T17-Cases!T16)/Cases!T16)/(Cases!$B17-Cases!$B16),
+"")</f>
+        <v>0.23938602220770738</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:S16">
+  <conditionalFormatting sqref="C2:S17">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -14952,10 +15644,10 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" style="85" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="79" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="3.33203125" bestFit="1" customWidth="1"/>
@@ -14965,346 +15657,346 @@
     <col min="20" max="20" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="22"/>
-    </row>
-    <row r="2" spans="1:23" ht="19">
+        <v>93</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="20"/>
+    </row>
+    <row r="2" spans="1:23" ht="19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D2">
         <v>1000000</v>
       </c>
       <c r="H2" t="s">
-        <v>102</v>
-      </c>
-      <c r="I2" s="94" t="str">
+        <v>95</v>
+      </c>
+      <c r="I2" s="88" t="str">
         <f>"Fälle DE absolut vs. pro 1 Mill Einwohner, "&amp;TEXT(C3,"TT.MM.JJJJ")</f>
-        <v>Fälle DE absolut vs. pro 1 Mill Einwohner, 13.03.2020</v>
-      </c>
-      <c r="U2" s="52"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="22"/>
-    </row>
-    <row r="3" spans="1:23">
-      <c r="C3" s="93">
+        <v>Fälle DE absolut vs. pro 1 Mill Einwohner, 14.03.2020</v>
+      </c>
+      <c r="U2" s="47"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="20"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C3" s="87">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!B2:B9997)),Cases!B2:B9997)</f>
-        <v>43903.625</v>
-      </c>
-      <c r="U3" s="52"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="22"/>
-    </row>
-    <row r="4" spans="1:23">
+        <v>43904.625</v>
+      </c>
+      <c r="U3" s="47"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="20"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="92" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="92" t="s">
-        <v>99</v>
-      </c>
-      <c r="T4" s="78"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="22"/>
-    </row>
-    <row r="5" spans="1:23" ht="34">
-      <c r="A5" s="89" t="s">
+      <c r="B4" s="85"/>
+      <c r="C4" s="86" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="86" t="s">
+        <v>92</v>
+      </c>
+      <c r="T4" s="72"/>
+      <c r="U4" s="47"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="20"/>
+    </row>
+    <row r="5" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="85" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="80">
+      <c r="B5" s="79" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="74">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!D2:D9997)),Cases!D2:D9997)</f>
-        <v>454</v>
-      </c>
-      <c r="D5" s="88">
+        <v>569</v>
+      </c>
+      <c r="D5" s="82">
         <f>last_BW/pop_BW*per_pop_scale</f>
-        <v>41.01359591670807</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23">
+        <v>51.402502371380827</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="80">
+      <c r="B6" s="79" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="74">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!E2:E9997)),Cases!E2:E9997)</f>
-        <v>558</v>
-      </c>
-      <c r="D6" s="88">
+        <v>681</v>
+      </c>
+      <c r="D6" s="82">
         <f>last_BY/pop_BY*per_pop_scale</f>
-        <v>42.671316157746219</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23">
+        <v>52.077358966711785</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="85" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" s="80">
+      <c r="B7" s="79" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="74">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!F2:F9997)),Cases!F2:F9997)</f>
-        <v>174</v>
-      </c>
-      <c r="D7" s="88">
+        <v>216</v>
+      </c>
+      <c r="D7" s="82">
         <f>last_BE/pop_BE*per_pop_scale</f>
-        <v>47.739244951712031</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23">
+        <v>59.262510974539069</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="85" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="80">
+      <c r="B8" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="74">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!G2:G9997)),Cases!G2:G9997)</f>
-        <v>44</v>
-      </c>
-      <c r="D8" s="88">
+        <v>61</v>
+      </c>
+      <c r="D8" s="82">
         <f>last_BB/pop_BB*per_pop_scale</f>
-        <v>17.516620884589354</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23">
+        <v>24.284406226362517</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="85" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="80">
+      <c r="B9" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="74">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!H2:H9997)),Cases!H2:H9997)</f>
-        <v>42</v>
-      </c>
-      <c r="D9" s="88">
+        <v>50</v>
+      </c>
+      <c r="D9" s="82">
         <f>last_HB/pop_HB*per_pop_scale</f>
-        <v>61.493411420204978</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23">
+        <v>73.206442166910691</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="85" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="80">
+      <c r="B10" s="79" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="74">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!I2:I9997)),Cases!I2:I9997)</f>
-        <v>99</v>
-      </c>
-      <c r="D10" s="88">
+        <v>158</v>
+      </c>
+      <c r="D10" s="82">
         <f>last_HH/pop_HH*per_pop_scale</f>
-        <v>53.769280903758414</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23">
+        <v>85.813599826200303</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="85" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="80">
+      <c r="B11" s="79" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="74">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!J2:J9997)),Cases!J2:J9997)</f>
-        <v>148</v>
-      </c>
-      <c r="D11" s="88">
+        <v>203</v>
+      </c>
+      <c r="D11" s="82">
         <f>last_HE/pop_HE*per_pop_scale</f>
-        <v>23.620287912158062</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="34">
-      <c r="A12" s="89" t="s">
+        <v>32.398097609243834</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="85" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="80">
+      <c r="B12" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="74">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!K2:K9997)),Cases!K2:K9997)</f>
-        <v>33</v>
-      </c>
-      <c r="D12" s="88">
+        <v>45</v>
+      </c>
+      <c r="D12" s="82">
         <f>last_MV/pop_MV*per_pop_scale</f>
-        <v>20.500714418835805</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
+        <v>27.955519662048829</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="80">
+      <c r="B13" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="74">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!L2:L9997)),Cases!L2:L9997)</f>
-        <v>230</v>
-      </c>
-      <c r="D13" s="88">
+        <v>253</v>
+      </c>
+      <c r="D13" s="82">
         <f>last_NI/pop_NI*per_pop_scale</f>
-        <v>28.81338945680497</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="34">
-      <c r="A14" s="89" t="s">
+        <v>31.69472840248547</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="85" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="80">
+      <c r="B14" s="79" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="74">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!M2:M9997)),Cases!M2:M9997)</f>
-        <v>936</v>
-      </c>
-      <c r="D14" s="88">
+        <v>1154</v>
+      </c>
+      <c r="D14" s="82">
         <f>last_NW/pop_NW*per_pop_scale</f>
-        <v>52.1951518733933</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="34">
-      <c r="A15" s="89" t="s">
+        <v>64.351715023393012</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="85" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="80">
+      <c r="B15" s="79" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="74">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!N2:N9997)),Cases!N2:N9997)</f>
-        <v>102</v>
-      </c>
-      <c r="D15" s="88">
+        <v>121</v>
+      </c>
+      <c r="D15" s="82">
         <f>last_RP/pop_RP*per_pop_scale</f>
-        <v>24.970622796709751</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
+        <v>29.622013317665491</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="85" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="80">
+      <c r="B16" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="74">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!O2:O9997)),Cases!O2:O9997)</f>
         <v>40</v>
       </c>
-      <c r="D16" s="88">
+      <c r="D16" s="82">
         <f>last_SL/pop_SL*per_pop_scale</f>
         <v>40.38364462392731</v>
       </c>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="85"/>
-      <c r="I16" s="85"/>
-      <c r="J16" s="85"/>
-      <c r="K16" s="85"/>
-      <c r="L16" s="86"/>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="80"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="85" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="80">
+      <c r="B17" s="79" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="74">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!P2:P9997)),Cases!P2:P9997)</f>
-        <v>83</v>
-      </c>
-      <c r="D17" s="88">
+        <v>93</v>
+      </c>
+      <c r="D17" s="82">
         <f>last_SN/pop_SN*per_pop_scale</f>
-        <v>20.353613379435494</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="34">
-      <c r="A18" s="89" t="s">
+        <v>22.805855955271095</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="85" t="s">
-        <v>85</v>
-      </c>
-      <c r="C18" s="80">
+      <c r="B18" s="79" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="74">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!Q2:Q9997)),Cases!Q2:Q9997)</f>
-        <v>42</v>
-      </c>
-      <c r="D18" s="88">
+        <v>45</v>
+      </c>
+      <c r="D18" s="82">
         <f>last_ST/pop_ST*per_pop_scale</f>
-        <v>19.019155006113301</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="34">
-      <c r="A19" s="89" t="s">
+        <v>20.377666077978535</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="85" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="80">
+      <c r="B19" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="74">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!R2:R9997)),Cases!R2:R9997)</f>
-        <v>48</v>
-      </c>
-      <c r="D19" s="88">
+        <v>60</v>
+      </c>
+      <c r="D19" s="82">
         <f>last_SH/pop_SH*per_pop_scale</f>
-        <v>16.570580315531469</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>20.713225394414334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="85" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="80">
+      <c r="B20" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="74">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!S2:S9997)),Cases!S2:S9997)</f>
-        <v>29</v>
-      </c>
-      <c r="D20" s="88">
+        <v>46</v>
+      </c>
+      <c r="D20" s="82">
         <f>last_TH/pop_TH*per_pop_scale</f>
-        <v>13.531799729364005</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>21.464234053473938</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>98</v>
-      </c>
-      <c r="B21" s="86" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="80">
+        <v>91</v>
+      </c>
+      <c r="B21" s="80" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="74">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!T2:T9997)),Cases!T2:T9997)</f>
-        <v>3062</v>
-      </c>
-      <c r="D21" s="88">
+        <v>3795</v>
+      </c>
+      <c r="D21" s="82">
         <f>last_DE_Total/pop_DE_Total*per_pop_scale</f>
-        <v>36.883034286044669</v>
+        <v>45.712317150731394</v>
       </c>
     </row>
   </sheetData>
@@ -15338,12 +16030,12 @@
   <dimension ref="A1:T45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:T6"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="96" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="20" width="3.6640625" style="5" bestFit="1" customWidth="1"/>
@@ -15351,255 +16043,291 @@
     <col min="27" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="28" customFormat="1" ht="142">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:20" s="26" customFormat="1" ht="142" x14ac:dyDescent="0.2">
+      <c r="A1" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="N1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="O1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="P1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="Q1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="R1" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="27" t="s">
+      <c r="S1" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="55" t="s">
+      <c r="T1" s="50" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="29">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="94">
         <v>10</v>
       </c>
-      <c r="B2" s="30">
+      <c r="B2" s="27">
         <v>43899.625</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67">
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61">
         <v>2</v>
       </c>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="68">
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="62">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="32">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" s="95">
         <v>11</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B3" s="29">
         <v>43900.625</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69">
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63">
         <v>2</v>
       </c>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="69"/>
-      <c r="S3" s="69"/>
-      <c r="T3" s="70">
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="64">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="29">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" s="94">
         <v>12</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="27">
         <v>43901.625</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67">
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61">
         <v>3</v>
       </c>
-      <c r="N4" s="67"/>
-      <c r="O4" s="67"/>
-      <c r="P4" s="67"/>
-      <c r="Q4" s="67"/>
-      <c r="R4" s="67"/>
-      <c r="S4" s="67"/>
-      <c r="T4" s="68">
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="62">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="19">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" s="95">
         <v>13</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>43902.625</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="69">
+      <c r="D5" s="63">
         <v>1</v>
       </c>
-      <c r="E5" s="69">
+      <c r="E5" s="63">
         <v>1</v>
       </c>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69">
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63">
         <v>3</v>
       </c>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="69"/>
-      <c r="T5" s="70">
+      <c r="N5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="63"/>
+      <c r="T5" s="64">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="19">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" s="95">
         <v>14</v>
       </c>
-      <c r="B6" s="74">
+      <c r="B6" s="68">
         <v>43903.625</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="72">
+      <c r="D6" s="66">
         <v>1</v>
       </c>
-      <c r="E6" s="72">
+      <c r="E6" s="66">
         <v>1</v>
       </c>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72">
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66">
         <v>3</v>
       </c>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="72"/>
-      <c r="S6" s="72"/>
-      <c r="T6" s="75">
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="69">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="2:19">
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="35"/>
-      <c r="S20" s="35"/>
-    </row>
-    <row r="45" spans="18:18">
-      <c r="R45" s="36"/>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" s="95">
+        <v>15</v>
+      </c>
+      <c r="B7" s="68">
+        <v>43904.625</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="91">
+        <v>2</v>
+      </c>
+      <c r="E7" s="91">
+        <v>1</v>
+      </c>
+      <c r="F7" s="91"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="91"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="91">
+        <v>5</v>
+      </c>
+      <c r="N7" s="91"/>
+      <c r="O7" s="91"/>
+      <c r="P7" s="91"/>
+      <c r="Q7" s="91"/>
+      <c r="R7" s="91"/>
+      <c r="S7" s="91"/>
+      <c r="T7" s="92">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="31"/>
+    </row>
+    <row r="45" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R45" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15611,10 +16339,10 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B4" sqref="B4:B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.5" bestFit="1" customWidth="1"/>
@@ -15626,37 +16354,37 @@
     <col min="8" max="8" width="92" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C2" s="1"/>
       <c r="D2" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:8">
-      <c r="C3" s="84">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C3" s="78">
         <v>43465</v>
       </c>
       <c r="E3">
@@ -15664,15 +16392,15 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H3" s="71" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>81</v>
+      </c>
+      <c r="H3" s="65" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -15680,22 +16408,22 @@
       <c r="C4">
         <v>11069500</v>
       </c>
-      <c r="D4" s="81">
+      <c r="D4" s="75">
         <v>35673.71</v>
       </c>
       <c r="E4">
         <v>308</v>
       </c>
       <c r="G4" t="s">
-        <v>89</v>
-      </c>
-      <c r="H4" s="71" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="H4" s="65" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -15703,22 +16431,22 @@
       <c r="C5">
         <v>13076700</v>
       </c>
-      <c r="D5" s="82">
+      <c r="D5" s="76">
         <v>70542.03</v>
       </c>
       <c r="E5">
         <v>184</v>
       </c>
       <c r="G5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H5" s="71" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="H5" s="65" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -15729,14 +16457,14 @@
       <c r="D6">
         <v>891.12</v>
       </c>
-      <c r="E6" s="83">
+      <c r="E6" s="77">
         <v>4055</v>
       </c>
-      <c r="F6" s="83"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="F6" s="77"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -15744,16 +16472,16 @@
       <c r="C7">
         <v>2511900</v>
       </c>
-      <c r="D7" s="81">
+      <c r="D7" s="75">
         <v>29654.38</v>
       </c>
       <c r="E7">
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -15764,14 +16492,14 @@
       <c r="D8">
         <v>419.84</v>
       </c>
-      <c r="E8" s="83">
+      <c r="E8" s="77">
         <v>1624</v>
       </c>
-      <c r="F8" s="83"/>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="F8" s="77"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -15782,14 +16510,14 @@
       <c r="D9">
         <v>755.09</v>
       </c>
-      <c r="E9" s="83">
+      <c r="E9" s="77">
         <v>2424</v>
       </c>
-      <c r="F9" s="83"/>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="F9" s="77"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -15797,16 +16525,16 @@
       <c r="C10">
         <v>6265800</v>
       </c>
-      <c r="D10" s="81">
+      <c r="D10" s="75">
         <v>21115.67</v>
       </c>
       <c r="E10">
         <v>296</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
@@ -15814,16 +16542,16 @@
       <c r="C11">
         <v>1609700</v>
       </c>
-      <c r="D11" s="81">
+      <c r="D11" s="75">
         <v>23292.73</v>
       </c>
       <c r="E11">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -15831,16 +16559,16 @@
       <c r="C12">
         <v>7982400</v>
       </c>
-      <c r="D12" s="81">
+      <c r="D12" s="75">
         <v>47709.83</v>
       </c>
       <c r="E12">
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
@@ -15848,16 +16576,16 @@
       <c r="C13">
         <v>17932700</v>
       </c>
-      <c r="D13" s="81">
+      <c r="D13" s="75">
         <v>34112.74</v>
       </c>
       <c r="E13">
         <v>525</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
@@ -15865,16 +16593,16 @@
       <c r="C14">
         <v>4084800</v>
       </c>
-      <c r="D14" s="81">
+      <c r="D14" s="75">
         <v>19858</v>
       </c>
       <c r="E14">
         <v>205</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
@@ -15882,16 +16610,16 @@
       <c r="C15">
         <v>990500</v>
       </c>
-      <c r="D15" s="81">
+      <c r="D15" s="75">
         <v>2571.1</v>
       </c>
       <c r="E15">
         <v>387</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
@@ -15899,16 +16627,16 @@
       <c r="C16">
         <v>4077900</v>
       </c>
-      <c r="D16" s="81">
+      <c r="D16" s="75">
         <v>18449.990000000002</v>
       </c>
       <c r="E16">
         <v>221</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -15916,16 +16644,16 @@
       <c r="C17">
         <v>2208300</v>
       </c>
-      <c r="D17" s="81">
+      <c r="D17" s="75">
         <v>20452.14</v>
       </c>
       <c r="E17">
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
@@ -15933,16 +16661,16 @@
       <c r="C18">
         <v>2896700</v>
       </c>
-      <c r="D18" s="81">
+      <c r="D18" s="75">
         <v>15802.27</v>
       </c>
       <c r="E18">
         <v>183</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
@@ -15950,69 +16678,69 @@
       <c r="C19">
         <v>2143100</v>
       </c>
-      <c r="D19" s="81">
+      <c r="D19" s="75">
         <v>16202.37</v>
       </c>
       <c r="E19">
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C20">
         <v>83019200</v>
       </c>
-      <c r="D20" s="81">
+      <c r="D20" s="75">
         <v>357578.17</v>
       </c>
       <c r="E20">
         <v>232</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C21">
         <v>66823399.999999993</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C22">
         <v>12551000</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
-      <c r="C30" s="83"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="83"/>
-      <c r="F30" s="83"/>
-      <c r="G30" s="83"/>
-      <c r="H30" s="83"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="C32" s="83"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="83"/>
-    </row>
-    <row r="33" spans="3:8">
-      <c r="C33" s="83"/>
-      <c r="D33" s="83"/>
-      <c r="E33" s="83"/>
-      <c r="F33" s="83"/>
-      <c r="G33" s="83"/>
-      <c r="H33" s="83"/>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C30" s="77"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="77"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C32" s="77"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="77"/>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C33" s="77"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="77"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/data/cases-de.xlsx
+++ b/data/cases-de.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/torben/Hacken/GitHub/COVID-19-Coronavirus-German-Regions/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940828F4-83C4-C341-81E0-783FFBB5CCE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7885F6D-FA85-7848-A3E4-2EB21B18D3FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14320" activeTab="4" xr2:uid="{309167EE-B9E7-9F44-B3F3-07C1908B9528}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14300" activeTab="4" xr2:uid="{309167EE-B9E7-9F44-B3F3-07C1908B9528}"/>
   </bookViews>
   <sheets>
     <sheet name="Links" sheetId="10" r:id="rId1"/>
@@ -25,6 +25,8 @@
     <sheet name="When will it be 1 Mill cases" sheetId="13" r:id="rId10"/>
   </sheets>
   <definedNames>
+    <definedName name="guide_doubling">Cases!$Z$4</definedName>
+    <definedName name="guide_start">Cases!$Z$3</definedName>
     <definedName name="laast_BY">'Cases Rel'!$C$6</definedName>
     <definedName name="last_BB">'Cases Rel'!$C$8</definedName>
     <definedName name="last_BE">'Cases Rel'!$C$7</definedName>
@@ -81,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="111">
   <si>
     <t>Baden-Württemberg</t>
   </si>
@@ -406,14 +408,29 @@
   <si>
     <t>3.421 (8)</t>
   </si>
+  <si>
+    <t>guide_line settings</t>
+  </si>
+  <si>
+    <t>start value</t>
+  </si>
+  <si>
+    <t>doubling time</t>
+  </si>
+  <si>
+    <t>Model: Verdoppung
+alle 3 Tage</t>
+  </si>
+  <si>
+    <t>DE mittel per pop</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -622,7 +639,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -801,9 +818,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -842,52 +856,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="51">
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="27" formatCode="dd/mm/yy\ hh:mm"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="52">
     <dxf>
       <font>
         <b val="0"/>
@@ -1657,6 +1650,25 @@
       <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
@@ -1687,6 +1699,45 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="27" formatCode="dd/mm/yy\ hh:mm"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2441,10 +2492,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Cases!$B$2:$B$17</c:f>
+              <c:f>Cases!$B$2:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy\ h:mm</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>43889.416666666664</c:v>
                 </c:pt>
@@ -2492,16 +2543,19 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>43904.625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43905.625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cases!$T$2:$T$17</c:f>
+              <c:f>Cases!$T$2:$T$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>53</c:v>
                 </c:pt>
@@ -2549,6 +2603,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>3795</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2561,8 +2618,163 @@
           </c:extLst>
         </c:ser>
         <c:ser>
+          <c:idx val="17"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cases!$W$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Model: Verdoppung
+alle 3 Tage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Cases!$B$2:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy\ h:mm</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>43889.416666666664</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43890.416666666664</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43891.625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43892.625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43893.625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43894.625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43895.625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43896.625</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43897.625</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43898.625</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43899.625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43900.625</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43901.625</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43902.625</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43903.625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43904.625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43905.625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Cases!$W$2:$W$18</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="1">
+                  <c:v>62.996052494743658</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79.37005259840997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125.9921049894873</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>158.74010519681994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251.9842099789746</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>317.48021039363988</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>399.99999999999989</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>503.96841995794927</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>634.96042078727965</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>799.99999999999989</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1007.9368399158982</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1269.9208415745593</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1599.9999999999993</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2015.8736798317964</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E3DA-E341-BE89-3677C6334622}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="3"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Cases!$M$1</c:f>
@@ -2601,10 +2813,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Cases!$B$2:$B$17</c:f>
+              <c:f>Cases!$B$2:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy\ h:mm</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>43889.416666666664</c:v>
                 </c:pt>
@@ -2652,16 +2864,19 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>43904.625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43905.625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cases!$M$2:$M$17</c:f>
+              <c:f>Cases!$M$2:$M$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>25</c:v>
                 </c:pt>
@@ -2709,6 +2924,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1154</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1407</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2722,7 +2940,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>Cases!$E$1</c:f>
@@ -2760,10 +2978,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Cases!$B$2:$B$17</c:f>
+              <c:f>Cases!$B$2:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy\ h:mm</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>43889.416666666664</c:v>
                 </c:pt>
@@ -2811,16 +3029,19 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>43904.625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43905.625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cases!$E$2:$E$17</c:f>
+              <c:f>Cases!$E$2:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>15</c:v>
                 </c:pt>
@@ -2868,6 +3089,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>681</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>886</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2881,7 +3105,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
-          <c:order val="3"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
               <c:f>Cases!$D$1</c:f>
@@ -2920,10 +3144,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Cases!$B$2:$B$17</c:f>
+              <c:f>Cases!$B$2:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy\ h:mm</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>43889.416666666664</c:v>
                 </c:pt>
@@ -2971,16 +3195,19 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>43904.625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43905.625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cases!$D$2:$D$17</c:f>
+              <c:f>Cases!$D$2:$D$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -3028,6 +3255,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>569</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>827</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3041,7 +3271,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="4"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
               <c:f>Cases!$L$1</c:f>
@@ -3079,10 +3309,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Cases!$B$2:$B$17</c:f>
+              <c:f>Cases!$B$2:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy\ h:mm</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>43889.416666666664</c:v>
                 </c:pt>
@@ -3130,16 +3360,19 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>43904.625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43905.625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cases!$L$2:$L$17</c:f>
+              <c:f>Cases!$L$2:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3181,6 +3414,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>287</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3194,7 +3430,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
-          <c:order val="5"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
               <c:f>Cases!$F$1</c:f>
@@ -3238,10 +3474,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Cases!$B$2:$B$17</c:f>
+              <c:f>Cases!$B$2:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy\ h:mm</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>43889.416666666664</c:v>
                 </c:pt>
@@ -3289,16 +3525,19 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>43904.625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43905.625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cases!$F$2:$F$17</c:f>
+              <c:f>Cases!$F$2:$F$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3337,6 +3576,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>265</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3350,7 +3592,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="10"/>
-          <c:order val="6"/>
+          <c:order val="7"/>
           <c:tx>
             <c:strRef>
               <c:f>Cases!$J$1</c:f>
@@ -3394,10 +3636,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Cases!$B$2:$B$17</c:f>
+              <c:f>Cases!$B$2:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy\ h:mm</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>43889.416666666664</c:v>
                 </c:pt>
@@ -3445,16 +3687,19 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>43904.625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43905.625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cases!$J$2:$J$17</c:f>
+              <c:f>Cases!$J$2:$J$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="1">
                   <c:v>3</c:v>
                 </c:pt>
@@ -3499,6 +3744,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>286</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3512,7 +3760,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
-          <c:order val="7"/>
+          <c:order val="8"/>
           <c:tx>
             <c:strRef>
               <c:f>Cases!$I$1</c:f>
@@ -3556,10 +3804,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Cases!$B$2:$B$17</c:f>
+              <c:f>Cases!$B$2:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy\ h:mm</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>43889.416666666664</c:v>
                 </c:pt>
@@ -3607,16 +3855,19 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>43904.625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43905.625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cases!$I$2:$I$17</c:f>
+              <c:f>Cases!$I$2:$I$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3658,6 +3909,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>162</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3671,7 +3925,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="12"/>
-          <c:order val="8"/>
+          <c:order val="9"/>
           <c:tx>
             <c:strRef>
               <c:f>Cases!$N$1</c:f>
@@ -3719,10 +3973,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Cases!$B$2:$B$17</c:f>
+              <c:f>Cases!$B$2:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy\ h:mm</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>43889.416666666664</c:v>
                 </c:pt>
@@ -3770,16 +4024,19 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>43904.625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43905.625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cases!$N$2:$N$17</c:f>
+              <c:f>Cases!$N$2:$N$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -3827,6 +4084,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>168</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3840,7 +4100,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="9"/>
+          <c:order val="10"/>
           <c:tx>
             <c:strRef>
               <c:f>Cases!$P$1</c:f>
@@ -3878,10 +4138,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Cases!$B$2:$B$17</c:f>
+              <c:f>Cases!$B$2:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy\ h:mm</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>43889.416666666664</c:v>
                 </c:pt>
@@ -3929,16 +4189,19 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>43904.625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43905.625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cases!$P$2:$P$17</c:f>
+              <c:f>Cases!$P$2:$P$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3974,6 +4237,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>130</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3987,7 +4253,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
-          <c:order val="10"/>
+          <c:order val="11"/>
           <c:tx>
             <c:strRef>
               <c:f>Cases!$H$1</c:f>
@@ -4031,10 +4297,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Cases!$B$2:$B$17</c:f>
+              <c:f>Cases!$B$2:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy\ h:mm</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>43889.416666666664</c:v>
                 </c:pt>
@@ -4082,16 +4348,19 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>43904.625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43905.625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cases!$H$2:$H$17</c:f>
+              <c:f>Cases!$H$2:$H$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4133,6 +4402,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4146,7 +4418,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="15"/>
-          <c:order val="11"/>
+          <c:order val="12"/>
           <c:tx>
             <c:strRef>
               <c:f>Cases!$R$1</c:f>
@@ -4194,10 +4466,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Cases!$B$2:$B$17</c:f>
+              <c:f>Cases!$B$2:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy\ h:mm</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>43889.416666666664</c:v>
                 </c:pt>
@@ -4245,16 +4517,19 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>43904.625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43905.625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cases!$R$2:$R$17</c:f>
+              <c:f>Cases!$R$2:$R$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4302,6 +4577,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>103</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4315,7 +4593,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
-          <c:order val="12"/>
+          <c:order val="13"/>
           <c:tx>
             <c:strRef>
               <c:f>Cases!$G$1</c:f>
@@ -4359,10 +4637,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Cases!$B$2:$B$17</c:f>
+              <c:f>Cases!$B$2:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy\ h:mm</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>43889.416666666664</c:v>
                 </c:pt>
@@ -4410,16 +4688,19 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>43904.625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43905.625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cases!$G$2:$G$17</c:f>
+              <c:f>Cases!$G$2:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4455,6 +4736,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>84</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4468,7 +4752,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="11"/>
-          <c:order val="13"/>
+          <c:order val="14"/>
           <c:tx>
             <c:strRef>
               <c:f>Cases!$K$1</c:f>
@@ -4513,10 +4797,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Cases!$B$2:$B$17</c:f>
+              <c:f>Cases!$B$2:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy\ h:mm</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>43889.416666666664</c:v>
                 </c:pt>
@@ -4564,16 +4848,19 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>43904.625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43905.625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cases!$K$2:$K$17</c:f>
+              <c:f>Cases!$K$2:$K$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="5">
                   <c:v>4</c:v>
                 </c:pt>
@@ -4606,6 +4893,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4619,7 +4909,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="14"/>
-          <c:order val="14"/>
+          <c:order val="15"/>
           <c:tx>
             <c:strRef>
               <c:f>Cases!$Q$1</c:f>
@@ -4667,10 +4957,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Cases!$B$2:$B$17</c:f>
+              <c:f>Cases!$B$2:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy\ h:mm</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>43889.416666666664</c:v>
                 </c:pt>
@@ -4718,16 +5008,19 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>43904.625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43905.625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cases!$Q$2:$Q$17</c:f>
+              <c:f>Cases!$Q$2:$Q$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="11">
                   <c:v>7</c:v>
                 </c:pt>
@@ -4742,6 +5035,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4755,7 +5051,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="13"/>
-          <c:order val="15"/>
+          <c:order val="16"/>
           <c:tx>
             <c:strRef>
               <c:f>Cases!$O$1</c:f>
@@ -4802,10 +5098,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Cases!$B$2:$B$17</c:f>
+              <c:f>Cases!$B$2:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy\ h:mm</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>43889.416666666664</c:v>
                 </c:pt>
@@ -4853,16 +5149,19 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>43904.625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43905.625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cases!$O$2:$O$17</c:f>
+              <c:f>Cases!$O$2:$O$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4895,6 +5194,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4908,7 +5210,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="16"/>
-          <c:order val="16"/>
+          <c:order val="17"/>
           <c:tx>
             <c:strRef>
               <c:f>Cases!$S$1</c:f>
@@ -4955,10 +5257,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Cases!$B$2:$B$17</c:f>
+              <c:f>Cases!$B$2:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy\ h:mm</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>43889.416666666664</c:v>
                 </c:pt>
@@ -5006,16 +5308,19 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>43904.625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43905.625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cases!$S$2:$S$17</c:f>
+              <c:f>Cases!$S$2:$S$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
@@ -5051,6 +5356,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>51</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5519,7 +5827,7 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0">
                   <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
@@ -5562,7 +5870,7 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="1">
-                  <c:v>14.03.20</c:v>
+                  <c:v>15.03.20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5797,7 +6105,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5895,7 +6203,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6018,7 +6326,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Fälle DE absolut vs. pro 1 Mill Einwohner, 14.03.2020</c:v>
+              <c:v>Fälle DE absolut vs. pro 1 Mill Einwohner, 15.03.2020</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -6062,6 +6370,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cases Rel'!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cases today</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -6141,52 +6460,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>569</c:v>
+                  <c:v>827</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>681</c:v>
+                  <c:v>886</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>216</c:v>
+                  <c:v>265</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>61</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>45</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>253</c:v>
+                  <c:v>287</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1154</c:v>
+                  <c:v>1407</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>121</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>93</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>60</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>46</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6216,6 +6535,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cases Rel'!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>per pop</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent2"/>
@@ -6292,55 +6622,55 @@
             <c:numRef>
               <c:f>'Cases Rel'!$D$5:$D$20</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>51.402502371380827</c:v>
+                  <c:v>74.709788156646638</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52.077358966711785</c:v>
+                  <c:v>67.754096981654399</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59.262510974539069</c:v>
+                  <c:v>72.70632133450394</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.284406226362517</c:v>
+                  <c:v>33.440821688761496</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>73.206442166910691</c:v>
+                  <c:v>77.598828696925324</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>85.813599826200303</c:v>
+                  <c:v>87.986096024331957</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.398097609243834</c:v>
+                  <c:v>45.644610424845993</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27.955519662048829</c:v>
+                  <c:v>31.061688513387587</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31.69472840248547</c:v>
+                  <c:v>35.954099017839248</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>64.351715023393012</c:v>
+                  <c:v>78.4600199635303</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>29.622013317665491</c:v>
+                  <c:v>41.128084606345482</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40.38364462392731</c:v>
+                  <c:v>32.306915699141847</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>22.805855955271095</c:v>
+                  <c:v>31.879153485862826</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20.377666077978535</c:v>
+                  <c:v>21.283340125888692</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20.713225394414334</c:v>
+                  <c:v>35.557703593744606</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>21.464234053473938</c:v>
+                  <c:v>23.797302972329803</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6363,6 +6693,175 @@
         <c:axId val="211396256"/>
         <c:axId val="188829200"/>
       </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cases Rel'!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DE mittel per pop</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Cases Rel'!$A$5:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Baden-
+Württemberg</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bayern</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Berlin</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Brandenburg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bremen</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Hamburg</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Hessen</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Mecklenburg-
+Vorpommern</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Niedersachsen</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Nordrhein-
+Westfalen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Rheinland-
+Pfalz</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Saarland</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Sachsen</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Sachsen-
+Anhalt</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Schleswig-
+Holstein</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Thüringen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cases Rel'!$E$5:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>58.275675988205137</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58.275675988205137</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58.275675988205137</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.275675988205137</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58.275675988205137</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58.275675988205137</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58.275675988205137</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58.275675988205137</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58.275675988205137</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>58.275675988205137</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>58.275675988205137</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>58.275675988205137</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>58.275675988205137</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>58.275675988205137</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>58.275675988205137</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>58.275675988205137</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-256D-6247-A67D-99C272FFB7E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="211396256"/>
+        <c:axId val="188829200"/>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="189866320"/>
         <c:scaling>
@@ -8348,8 +8847,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>37201</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>119878</xdr:rowOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>73478</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8459,37 +8958,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AA0B1023-8C4D-8145-A1A0-49CB122C06A4}" name="Table2" displayName="Table2" ref="A1:T35" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49" tableBorderDxfId="48">
-  <autoFilter ref="A1:T35" xr:uid="{1DA4B026-4C97-DF45-BDEF-EE080E06CCC8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AA0B1023-8C4D-8145-A1A0-49CB122C06A4}" name="Table2" displayName="Table2" ref="A1:T39" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50" tableBorderDxfId="49">
+  <autoFilter ref="A1:T39" xr:uid="{1DA4B026-4C97-DF45-BDEF-EE080E06CCC8}"/>
   <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{7B77E861-ABD7-CC46-BE1B-62FFA855918A}" name="Num"/>
-    <tableColumn id="2" xr3:uid="{A9D891F0-4885-A946-9DA9-30886E848D1C}" name="Datum" dataDxfId="47"/>
-    <tableColumn id="3" xr3:uid="{6B048EE4-8426-2545-A3EF-71248E0D2493}" name="Typ" dataDxfId="46"/>
-    <tableColumn id="4" xr3:uid="{463A535E-E8DD-D048-8D23-5C03A237BD27}" name="Baden-Württemberg" dataDxfId="45"/>
-    <tableColumn id="5" xr3:uid="{C73439B1-ADFE-484D-9DAB-78AB3242649E}" name="Bayern" dataDxfId="44"/>
-    <tableColumn id="6" xr3:uid="{CDCD7B4C-FA1B-5D4B-84EC-1B93C9F2211E}" name="Berlin" dataDxfId="43"/>
-    <tableColumn id="7" xr3:uid="{4B381B0C-9038-7A45-87CA-C74BBBC89932}" name="Brandenburg" dataDxfId="42"/>
-    <tableColumn id="8" xr3:uid="{3367C2BC-28BE-3341-AE87-CDED4BFCEA07}" name="Bremen" dataDxfId="41"/>
-    <tableColumn id="9" xr3:uid="{2369A6E0-C0F1-C44F-8B78-5DB57E9AF79D}" name="Hamburg" dataDxfId="40"/>
-    <tableColumn id="10" xr3:uid="{884AB352-4A81-8D49-AA12-B8EAF3C487E0}" name="Hessen" dataDxfId="39"/>
-    <tableColumn id="11" xr3:uid="{AE5E62A0-1F89-2E45-8E7B-70BF95720068}" name="Mecklenburg-Vorpommern" dataDxfId="38"/>
-    <tableColumn id="12" xr3:uid="{8D805E80-59CE-8347-98B4-6475F75C5C51}" name="Niedersachsen" dataDxfId="37"/>
-    <tableColumn id="13" xr3:uid="{BC5F0195-1635-C145-8EDE-A5C46EA4D710}" name="Nordrhein-Westfalen" dataDxfId="36"/>
-    <tableColumn id="14" xr3:uid="{4BEE7460-1D9B-C945-80A2-92C7F08C0F01}" name="Rheinland-Pfalz" dataDxfId="35"/>
-    <tableColumn id="15" xr3:uid="{D7B5CC10-CE40-3D47-926F-900D84B7F92A}" name="Saarland" dataDxfId="34"/>
-    <tableColumn id="16" xr3:uid="{EB9CA25E-2271-3D42-8A65-F7C41B54CEA5}" name="Sachsen" dataDxfId="33"/>
-    <tableColumn id="17" xr3:uid="{4598E0DF-B360-1440-8958-D3461FAD3F74}" name="Sachsen-Anhalt" dataDxfId="32"/>
-    <tableColumn id="18" xr3:uid="{8B6E9527-F2CB-894B-B3E4-125132A86A5D}" name="Schleswig-Holstein" dataDxfId="31"/>
-    <tableColumn id="19" xr3:uid="{7D2272BD-A08B-574E-81AE-65E0FB33A9ED}" name="Thüringen" dataDxfId="30"/>
-    <tableColumn id="21" xr3:uid="{765949F0-761D-D24F-A85E-B329DA6357CA}" name="Gesamt" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{A9D891F0-4885-A946-9DA9-30886E848D1C}" name="Datum" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{6B048EE4-8426-2545-A3EF-71248E0D2493}" name="Typ" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{463A535E-E8DD-D048-8D23-5C03A237BD27}" name="Baden-Württemberg" dataDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{C73439B1-ADFE-484D-9DAB-78AB3242649E}" name="Bayern" dataDxfId="45"/>
+    <tableColumn id="6" xr3:uid="{CDCD7B4C-FA1B-5D4B-84EC-1B93C9F2211E}" name="Berlin" dataDxfId="44"/>
+    <tableColumn id="7" xr3:uid="{4B381B0C-9038-7A45-87CA-C74BBBC89932}" name="Brandenburg" dataDxfId="43"/>
+    <tableColumn id="8" xr3:uid="{3367C2BC-28BE-3341-AE87-CDED4BFCEA07}" name="Bremen" dataDxfId="42"/>
+    <tableColumn id="9" xr3:uid="{2369A6E0-C0F1-C44F-8B78-5DB57E9AF79D}" name="Hamburg" dataDxfId="41"/>
+    <tableColumn id="10" xr3:uid="{884AB352-4A81-8D49-AA12-B8EAF3C487E0}" name="Hessen" dataDxfId="40"/>
+    <tableColumn id="11" xr3:uid="{AE5E62A0-1F89-2E45-8E7B-70BF95720068}" name="Mecklenburg-Vorpommern" dataDxfId="39"/>
+    <tableColumn id="12" xr3:uid="{8D805E80-59CE-8347-98B4-6475F75C5C51}" name="Niedersachsen" dataDxfId="38"/>
+    <tableColumn id="13" xr3:uid="{BC5F0195-1635-C145-8EDE-A5C46EA4D710}" name="Nordrhein-Westfalen" dataDxfId="37"/>
+    <tableColumn id="14" xr3:uid="{4BEE7460-1D9B-C945-80A2-92C7F08C0F01}" name="Rheinland-Pfalz" dataDxfId="36"/>
+    <tableColumn id="15" xr3:uid="{D7B5CC10-CE40-3D47-926F-900D84B7F92A}" name="Saarland" dataDxfId="35"/>
+    <tableColumn id="16" xr3:uid="{EB9CA25E-2271-3D42-8A65-F7C41B54CEA5}" name="Sachsen" dataDxfId="34"/>
+    <tableColumn id="17" xr3:uid="{4598E0DF-B360-1440-8958-D3461FAD3F74}" name="Sachsen-Anhalt" dataDxfId="33"/>
+    <tableColumn id="18" xr3:uid="{8B6E9527-F2CB-894B-B3E4-125132A86A5D}" name="Schleswig-Holstein" dataDxfId="32"/>
+    <tableColumn id="19" xr3:uid="{7D2272BD-A08B-574E-81AE-65E0FB33A9ED}" name="Thüringen" dataDxfId="31"/>
+    <tableColumn id="21" xr3:uid="{765949F0-761D-D24F-A85E-B329DA6357CA}" name="Gesamt" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BC3E90BD-768C-894C-8066-F63C881D4ADC}" name="Table5" displayName="Table5" ref="A1:V17" totalsRowShown="0" headerRowDxfId="28">
-  <autoFilter ref="A1:V17" xr:uid="{6D4C76C7-14AA-DE49-9FD4-833E447F2FCD}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BC3E90BD-768C-894C-8066-F63C881D4ADC}" name="Table5" displayName="Table5" ref="A1:W18" totalsRowShown="0" headerRowDxfId="29">
+  <autoFilter ref="A1:W18" xr:uid="{6D4C76C7-14AA-DE49-9FD4-833E447F2FCD}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -8512,11 +9011,12 @@
     <filterColumn colId="19" hiddenButton="1"/>
     <filterColumn colId="20" hiddenButton="1"/>
     <filterColumn colId="21" hiddenButton="1"/>
+    <filterColumn colId="22" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{DFAB118E-A946-0146-85D1-FEC9DB7A54DB}" name="#" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{7862783A-26AD-6144-8E4F-7DF624F1CEF7}" name="Date" dataDxfId="1"/>
-    <tableColumn id="43" xr3:uid="{F84758D7-1AC4-B146-AFFB-CD4F577D02F4}" name="Type" dataDxfId="27"/>
+  <tableColumns count="23">
+    <tableColumn id="1" xr3:uid="{DFAB118E-A946-0146-85D1-FEC9DB7A54DB}" name="#" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{7862783A-26AD-6144-8E4F-7DF624F1CEF7}" name="Date" dataDxfId="27"/>
+    <tableColumn id="43" xr3:uid="{F84758D7-1AC4-B146-AFFB-CD4F577D02F4}" name="Type" dataDxfId="26"/>
     <tableColumn id="4" xr3:uid="{43B6A399-F36C-6047-9E96-578E372A058B}" name="Baden-_x000a_Württemberg"/>
     <tableColumn id="5" xr3:uid="{580A352D-B4BB-8441-B739-8AFA1B5CB9BA}" name="Bayern"/>
     <tableColumn id="6" xr3:uid="{684FD89D-0B27-F841-B632-2CFD5BC231AC}" name="Berlin"/>
@@ -8533,8 +9033,8 @@
     <tableColumn id="17" xr3:uid="{0DBAA36D-F571-034F-AEDF-5DD8569A9F97}" name="Sachsen-_x000a_Anhalt"/>
     <tableColumn id="18" xr3:uid="{32E1BDAD-8FF4-A948-A678-3A7C7BAA73DF}" name="Schleswig-_x000a_Holstein"/>
     <tableColumn id="19" xr3:uid="{EF74120E-C4F2-C545-B056-A59EEF12E00E}" name="Thüringen"/>
-    <tableColumn id="21" xr3:uid="{FF602C9D-05D0-E246-81AB-1676E61777BC}" name="DE Total" dataDxfId="26"/>
-    <tableColumn id="42" xr3:uid="{1C774CC4-9E60-FC4A-945C-79AC482211CE}" name="Delta" dataDxfId="25">
+    <tableColumn id="21" xr3:uid="{FF602C9D-05D0-E246-81AB-1676E61777BC}" name="DE Total" dataDxfId="25"/>
+    <tableColumn id="42" xr3:uid="{1C774CC4-9E60-FC4A-945C-79AC482211CE}" name="Delta" dataDxfId="24">
       <calculatedColumnFormula>IF(ISNUMBER(T1),T2-T1,"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="22" xr3:uid="{08AED83D-6D60-7848-A8C4-A04BA0C871FA}" name="Delta (%)" dataCellStyle="Per cent">
@@ -8542,14 +9042,17 @@
 ((T2-T1)/T1)/(B2-B1),
 "")</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="3" xr3:uid="{1AB816A2-C2FA-174A-A500-F77513DDE31E}" name="Model: Verdoppung_x000a_alle 3 Tage" dataDxfId="23" dataCellStyle="Per cent">
+      <calculatedColumnFormula>guide_start*EXP(Table5[[#This Row],['#]]*(LN(2)/guide_doubling))</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{2B4CB1FE-2F78-654B-9A83-851BD72419FA}" name="Table7" displayName="Table7" ref="A1:S17" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21">
-  <autoFilter ref="A1:S17" xr:uid="{5EC7B395-6250-0C4B-BF9E-DB8BEACEA0C0}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{2B4CB1FE-2F78-654B-9A83-851BD72419FA}" name="Table7" displayName="Table7" ref="A1:S18" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19">
+  <autoFilter ref="A1:S18" xr:uid="{5EC7B395-6250-0C4B-BF9E-DB8BEACEA0C0}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -8571,93 +9074,93 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{E6C8C471-F764-504D-8B4A-7552654EBAEC}" name="#" dataDxfId="20">
+    <tableColumn id="1" xr3:uid="{E6C8C471-F764-504D-8B4A-7552654EBAEC}" name="#" dataDxfId="18">
       <calculatedColumnFormula>Cases!A2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{F08A6D07-D47C-0B4B-BF63-BCF903E95EB5}" name="Date" dataDxfId="19">
+    <tableColumn id="2" xr3:uid="{F08A6D07-D47C-0B4B-BF63-BCF903E95EB5}" name="Date" dataDxfId="17">
       <calculatedColumnFormula>Cases!B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B6051F7E-D460-9A42-9D63-3975F8A75ACA}" name="Baden-_x000a_Württemberg" dataDxfId="18">
+    <tableColumn id="3" xr3:uid="{B6051F7E-D460-9A42-9D63-3975F8A75ACA}" name="Baden-_x000a_Württemberg" dataDxfId="16">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!D1),Cases!D1&gt;min_number),
 ((Cases!D2-Cases!D1)/Cases!D1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{10A737B8-2568-5841-8D5F-D47C446EE26C}" name="Bayern" dataDxfId="17">
+    <tableColumn id="4" xr3:uid="{10A737B8-2568-5841-8D5F-D47C446EE26C}" name="Bayern" dataDxfId="15">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!E1),Cases!E1&gt;min_number),
 ((Cases!E2-Cases!E1)/Cases!E1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{BCD2105D-8D71-454C-A02E-6424E3BA36AA}" name="Berlin" dataDxfId="16">
+    <tableColumn id="5" xr3:uid="{BCD2105D-8D71-454C-A02E-6424E3BA36AA}" name="Berlin" dataDxfId="14">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!F1),Cases!F1&gt;min_number),
 ((Cases!F2-Cases!F1)/Cases!F1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{53C79366-40AF-DC47-8F16-1C907EA8A25D}" name="Brandenburg" dataDxfId="15">
+    <tableColumn id="6" xr3:uid="{53C79366-40AF-DC47-8F16-1C907EA8A25D}" name="Brandenburg" dataDxfId="13">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!G1),Cases!G1&gt;min_number),
 ((Cases!G2-Cases!G1)/Cases!G1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{4AFFEB9A-9EF4-B04F-99AF-1421CC3F79F1}" name="Bremen" dataDxfId="14">
+    <tableColumn id="7" xr3:uid="{4AFFEB9A-9EF4-B04F-99AF-1421CC3F79F1}" name="Bremen" dataDxfId="12">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!H1),Cases!H1&gt;min_number),
 ((Cases!H2-Cases!H1)/Cases!H1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{C2100E3B-69C7-1749-9A4D-28C483AE2AD3}" name="Hamburg" dataDxfId="13">
+    <tableColumn id="8" xr3:uid="{C2100E3B-69C7-1749-9A4D-28C483AE2AD3}" name="Hamburg" dataDxfId="11">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!I1),Cases!I1&gt;min_number),
 ((Cases!I2-Cases!I1)/Cases!I1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{F062E681-CDB1-C140-B909-EA794C5F18A9}" name="Hessen" dataDxfId="12">
+    <tableColumn id="9" xr3:uid="{F062E681-CDB1-C140-B909-EA794C5F18A9}" name="Hessen" dataDxfId="10">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!J1),Cases!J1&gt;min_number),
 ((Cases!J2-Cases!J1)/Cases!J1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{E031E4B1-3E62-C345-B766-887BCDAAC02D}" name="Mecklenburg-_x000a_Vorpommern" dataDxfId="11">
+    <tableColumn id="10" xr3:uid="{E031E4B1-3E62-C345-B766-887BCDAAC02D}" name="Mecklenburg-_x000a_Vorpommern" dataDxfId="9">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!K1),Cases!K1&gt;min_number),
 ((Cases!K2-Cases!K1)/Cases!K1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{06616FA7-B824-034F-8561-0575963B7953}" name="Niedersachsen" dataDxfId="10">
+    <tableColumn id="11" xr3:uid="{06616FA7-B824-034F-8561-0575963B7953}" name="Niedersachsen" dataDxfId="8">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!L1),Cases!L1&gt;min_number),
 ((Cases!L2-Cases!L1)/Cases!L1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{A7D554C7-337E-5A4F-B3A4-DD9485FF1D61}" name="Nordrhein-_x000a_Westfalen" dataDxfId="9">
+    <tableColumn id="12" xr3:uid="{A7D554C7-337E-5A4F-B3A4-DD9485FF1D61}" name="Nordrhein-_x000a_Westfalen" dataDxfId="7">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!M1),Cases!M1&gt;min_number),
 ((Cases!M2-Cases!M1)/Cases!M1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{E7F4E0DB-41C5-F74B-B13C-082338064391}" name="Rheinland-_x000a_Pfalz" dataDxfId="8">
+    <tableColumn id="13" xr3:uid="{E7F4E0DB-41C5-F74B-B13C-082338064391}" name="Rheinland-_x000a_Pfalz" dataDxfId="6">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!N1),Cases!N1&gt;min_number),
 ((Cases!N2-Cases!N1)/Cases!N1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{F452CCA8-390B-D443-BCA6-EFE7E79127AA}" name="Saarland" dataDxfId="7">
+    <tableColumn id="14" xr3:uid="{F452CCA8-390B-D443-BCA6-EFE7E79127AA}" name="Saarland" dataDxfId="5">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!O1),Cases!O1&gt;min_number),
 ((Cases!O2-Cases!O1)/Cases!O1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{2BC6A12D-DFD6-A54D-9B25-30C67E2CACC1}" name="Sachsen" dataDxfId="6">
+    <tableColumn id="15" xr3:uid="{2BC6A12D-DFD6-A54D-9B25-30C67E2CACC1}" name="Sachsen" dataDxfId="4">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!P1),Cases!P1&gt;min_number),
 ((Cases!P2-Cases!P1)/Cases!P1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{F3454210-7502-7B43-87ED-828963C0BA58}" name="Sachsen-_x000a_Anhalt" dataDxfId="5">
+    <tableColumn id="16" xr3:uid="{F3454210-7502-7B43-87ED-828963C0BA58}" name="Sachsen-_x000a_Anhalt" dataDxfId="3">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!Q1),Cases!Q1&gt;min_number),
 ((Cases!Q2-Cases!Q1)/Cases!Q1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{3488A903-5F9F-FF4F-B253-A2C6BDED0D5C}" name="Schleswig-_x000a_Holstein" dataDxfId="4">
+    <tableColumn id="17" xr3:uid="{3488A903-5F9F-FF4F-B253-A2C6BDED0D5C}" name="Schleswig-_x000a_Holstein" dataDxfId="2">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!R1),Cases!R1&gt;min_number),
 ((Cases!R2-Cases!R1)/Cases!R1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{EBA9256A-1C44-B641-A90D-2900B16B2794}" name="Thüringen" dataDxfId="3">
+    <tableColumn id="18" xr3:uid="{EBA9256A-1C44-B641-A90D-2900B16B2794}" name="Thüringen" dataDxfId="1">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!S1),Cases!S1&gt;min_number),
 ((Cases!S2-Cases!S1)/Cases!S1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{8590B984-B71C-8D4E-AB2B-CC37C841189C}" name="DE Total" dataDxfId="2">
+    <tableColumn id="20" xr3:uid="{8590B984-B71C-8D4E-AB2B-CC37C841189C}" name="DE Total" dataDxfId="0">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!T1),Cases!T1&gt;min_number),
 ((Cases!T2-Cases!T1)/Cases!T1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
@@ -9049,7 +9552,7 @@
       </c>
       <c r="B2">
         <f>last_DE_Total</f>
-        <v>3795</v>
+        <v>4838</v>
       </c>
       <c r="D2" t="s">
         <v>59</v>
@@ -9072,7 +9575,7 @@
       </c>
       <c r="B4" s="20">
         <f xml:space="preserve"> LOG(B3/B2,2)</f>
-        <v>8.0416843990213458</v>
+        <v>7.6913735153442495</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -9081,7 +9584,7 @@
       </c>
       <c r="B5" s="47">
         <f>B4*E2</f>
-        <v>24.125053197064037</v>
+        <v>23.074120546032749</v>
       </c>
     </row>
   </sheetData>
@@ -9091,10 +9594,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA00A9F-6A15-E440-8C87-85055F8A0710}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:I20"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4:M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9105,17 +9608,21 @@
     <col min="4" max="4" width="29.33203125" customWidth="1"/>
     <col min="5" max="5" width="42.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="F1" s="4">
         <v>43904.625</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
+      <c r="J1" s="4">
+        <v>43905.625</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" ht="134" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="134" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>43902.625</v>
       </c>
@@ -9131,20 +9638,32 @@
       <c r="E2" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F2" s="89" t="s">
+      <c r="F2" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="89" t="s">
+      <c r="H2" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="89" t="s">
+      <c r="I2" s="88" t="s">
         <v>44</v>
       </c>
+      <c r="J2" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="88" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="88" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="88" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
@@ -9156,12 +9675,12 @@
         <v>96</v>
       </c>
       <c r="E3" s="3"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -9175,20 +9694,32 @@
         <v>99</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="90">
+      <c r="F4" s="89">
         <v>569</v>
       </c>
-      <c r="G4" s="90">
+      <c r="G4" s="89">
         <v>2</v>
       </c>
-      <c r="H4" s="90">
+      <c r="H4" s="89">
         <v>506</v>
       </c>
-      <c r="I4" s="90">
+      <c r="I4" s="89">
         <v>2</v>
       </c>
+      <c r="J4">
+        <v>827</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>524</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -9202,20 +9733,32 @@
         <v>101</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="90">
+      <c r="F5" s="89">
         <v>681</v>
       </c>
-      <c r="G5" s="90">
+      <c r="G5" s="89">
         <v>1</v>
       </c>
-      <c r="H5" s="90">
+      <c r="H5" s="89">
         <v>605</v>
       </c>
-      <c r="I5" s="90">
+      <c r="I5" s="89">
         <v>1</v>
       </c>
+      <c r="J5">
+        <v>886</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <v>804</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -9229,16 +9772,22 @@
         <v>216</v>
       </c>
       <c r="E6" s="3"/>
-      <c r="F6" s="90">
+      <c r="F6" s="89">
         <v>216</v>
       </c>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90">
+      <c r="G6" s="89"/>
+      <c r="H6" s="89">
         <v>216</v>
       </c>
-      <c r="I6" s="90"/>
+      <c r="I6" s="89"/>
+      <c r="J6">
+        <v>265</v>
+      </c>
+      <c r="L6">
+        <v>265</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -9252,16 +9801,22 @@
         <v>57</v>
       </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="90">
+      <c r="F7" s="89">
         <v>61</v>
       </c>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90">
+      <c r="G7" s="89"/>
+      <c r="H7" s="89">
         <v>57</v>
       </c>
-      <c r="I7" s="90"/>
+      <c r="I7" s="89"/>
+      <c r="J7">
+        <v>84</v>
+      </c>
+      <c r="L7">
+        <v>56</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -9275,16 +9830,22 @@
         <v>50</v>
       </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="90">
+      <c r="F8" s="89">
         <v>50</v>
       </c>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90">
+      <c r="G8" s="89"/>
+      <c r="H8" s="89">
         <v>50</v>
       </c>
-      <c r="I8" s="90"/>
+      <c r="I8" s="89"/>
+      <c r="J8">
+        <v>53</v>
+      </c>
+      <c r="L8">
+        <v>53</v>
+      </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -9298,16 +9859,22 @@
         <v>119</v>
       </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="90">
+      <c r="F9" s="89">
         <v>158</v>
       </c>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90">
+      <c r="G9" s="89"/>
+      <c r="H9" s="89">
         <v>119</v>
       </c>
-      <c r="I9" s="90"/>
+      <c r="I9" s="89"/>
+      <c r="J9">
+        <v>162</v>
+      </c>
+      <c r="L9">
+        <v>162</v>
+      </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -9321,16 +9888,22 @@
         <v>141</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="90">
+      <c r="F10" s="89">
         <v>203</v>
       </c>
-      <c r="G10" s="90"/>
-      <c r="H10" s="90">
+      <c r="G10" s="89"/>
+      <c r="H10" s="89">
         <v>141</v>
       </c>
-      <c r="I10" s="90"/>
+      <c r="I10" s="89"/>
+      <c r="J10">
+        <v>286</v>
+      </c>
+      <c r="L10">
+        <v>207</v>
+      </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
@@ -9344,16 +9917,22 @@
         <v>23</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="90">
+      <c r="F11" s="89">
         <v>45</v>
       </c>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90">
+      <c r="G11" s="89"/>
+      <c r="H11" s="89">
         <v>23</v>
       </c>
-      <c r="I11" s="90"/>
+      <c r="I11" s="89"/>
+      <c r="J11">
+        <v>50</v>
+      </c>
+      <c r="L11">
+        <v>33</v>
+      </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -9367,16 +9946,22 @@
         <v>187</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="90">
+      <c r="F12" s="89">
         <v>253</v>
       </c>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90">
+      <c r="G12" s="89"/>
+      <c r="H12" s="89">
         <v>187</v>
       </c>
-      <c r="I12" s="90"/>
+      <c r="I12" s="89"/>
+      <c r="J12">
+        <v>287</v>
+      </c>
+      <c r="L12">
+        <v>238</v>
+      </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
@@ -9392,20 +9977,32 @@
       <c r="E13" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F13" s="90">
+      <c r="F13" s="89">
         <v>1154</v>
       </c>
-      <c r="G13" s="90">
+      <c r="G13" s="89">
         <v>5</v>
       </c>
-      <c r="H13" s="90">
+      <c r="H13" s="89">
         <v>1154</v>
       </c>
-      <c r="I13" s="90">
+      <c r="I13" s="89">
         <v>5</v>
       </c>
+      <c r="J13" s="77">
+        <v>1407</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+      <c r="L13" s="77">
+        <v>1407</v>
+      </c>
+      <c r="M13">
+        <v>5</v>
+      </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
@@ -9419,16 +10016,22 @@
         <v>121</v>
       </c>
       <c r="E14" s="3"/>
-      <c r="F14" s="90">
+      <c r="F14" s="89">
         <v>121</v>
       </c>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90">
+      <c r="G14" s="89"/>
+      <c r="H14" s="89">
         <v>121</v>
       </c>
-      <c r="I14" s="90"/>
+      <c r="I14" s="89"/>
+      <c r="J14">
+        <v>168</v>
+      </c>
+      <c r="L14">
+        <v>168</v>
+      </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
@@ -9442,16 +10045,22 @@
         <v>31</v>
       </c>
       <c r="E15" s="3"/>
-      <c r="F15" s="90">
+      <c r="F15" s="89">
         <v>40</v>
       </c>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90">
+      <c r="G15" s="89"/>
+      <c r="H15" s="89">
         <v>31</v>
       </c>
-      <c r="I15" s="90"/>
+      <c r="I15" s="89"/>
+      <c r="J15">
+        <v>32</v>
+      </c>
+      <c r="L15">
+        <v>32</v>
+      </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
@@ -9465,16 +10074,22 @@
         <v>86</v>
       </c>
       <c r="E16" s="3"/>
-      <c r="F16" s="90">
+      <c r="F16" s="89">
         <v>93</v>
       </c>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90">
+      <c r="G16" s="89"/>
+      <c r="H16" s="89">
         <v>86</v>
       </c>
-      <c r="I16" s="90"/>
+      <c r="I16" s="89"/>
+      <c r="J16">
+        <v>130</v>
+      </c>
+      <c r="L16">
+        <v>91</v>
+      </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
@@ -9488,16 +10103,22 @@
         <v>40</v>
       </c>
       <c r="E17" s="3"/>
-      <c r="F17" s="90">
+      <c r="F17" s="89">
         <v>45</v>
       </c>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90">
+      <c r="G17" s="89"/>
+      <c r="H17" s="89">
         <v>40</v>
       </c>
-      <c r="I17" s="90"/>
+      <c r="I17" s="89"/>
+      <c r="J17">
+        <v>47</v>
+      </c>
+      <c r="L17">
+        <v>40</v>
+      </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
@@ -9511,16 +10132,22 @@
         <v>54</v>
       </c>
       <c r="E18" s="3"/>
-      <c r="F18" s="90">
+      <c r="F18" s="89">
         <v>60</v>
       </c>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90">
+      <c r="G18" s="89"/>
+      <c r="H18" s="89">
         <v>54</v>
       </c>
-      <c r="I18" s="90"/>
+      <c r="I18" s="89"/>
+      <c r="J18">
+        <v>103</v>
+      </c>
+      <c r="L18">
+        <v>79</v>
+      </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
@@ -9534,16 +10161,22 @@
         <v>31</v>
       </c>
       <c r="E19" s="3"/>
-      <c r="F19" s="90">
+      <c r="F19" s="89">
         <v>46</v>
       </c>
-      <c r="G19" s="90"/>
-      <c r="H19" s="90">
+      <c r="G19" s="89"/>
+      <c r="H19" s="89">
         <v>31</v>
       </c>
-      <c r="I19" s="90"/>
+      <c r="I19" s="89"/>
+      <c r="J19">
+        <v>51</v>
+      </c>
+      <c r="L19">
+        <v>36</v>
+      </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>16</v>
       </c>
@@ -9557,16 +10190,28 @@
         <v>105</v>
       </c>
       <c r="E20" s="3"/>
-      <c r="F20" s="90">
+      <c r="F20" s="89">
         <v>3795</v>
       </c>
-      <c r="G20" s="90">
+      <c r="G20" s="89">
         <v>8</v>
       </c>
-      <c r="H20" s="90">
+      <c r="H20" s="89">
         <v>3421</v>
       </c>
-      <c r="I20" s="90">
+      <c r="I20" s="89">
+        <v>8</v>
+      </c>
+      <c r="J20" s="77">
+        <v>4838</v>
+      </c>
+      <c r="K20">
+        <v>12</v>
+      </c>
+      <c r="L20" s="77">
+        <v>4195</v>
+      </c>
+      <c r="M20">
         <v>8</v>
       </c>
     </row>
@@ -9577,11 +10222,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27E71FF5-2B72-8B4C-A9D9-0EB9ABC7551A}">
-  <dimension ref="A1:AI44"/>
+  <dimension ref="A1:AM44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="AA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AF1" sqref="AF1:AI19"/>
+      <selection pane="topRight" activeCell="AJ1" sqref="AJ1:AM19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9602,10 +10247,12 @@
     <col min="28" max="28" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="29" max="31" width="10.83203125" style="3"/>
     <col min="32" max="32" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="33" max="16384" width="10.83203125" style="3"/>
+    <col min="33" max="35" width="10.83203125" style="3"/>
+    <col min="36" max="36" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
@@ -9663,8 +10310,11 @@
       <c r="AF1" s="4">
         <v>43904.625</v>
       </c>
+      <c r="AJ1" s="4">
+        <v>43905.625</v>
+      </c>
     </row>
-    <row r="2" spans="1:35" s="2" customFormat="1" ht="134" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:39" s="2" customFormat="1" ht="134" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -9758,20 +10408,32 @@
       <c r="AE2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AF2" s="89" t="s">
+      <c r="AF2" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="AG2" s="89" t="s">
+      <c r="AG2" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="AH2" s="89" t="s">
+      <c r="AH2" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="AI2" s="89" t="s">
+      <c r="AI2" s="88" t="s">
         <v>44</v>
       </c>
+      <c r="AJ2" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK2" s="88" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL2" s="88" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM2" s="88" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -9844,20 +10506,32 @@
       <c r="AE3" s="3">
         <v>1</v>
       </c>
-      <c r="AF3" s="90">
+      <c r="AF3" s="89">
         <v>569</v>
       </c>
-      <c r="AG3" s="90">
+      <c r="AG3" s="89">
         <v>2</v>
       </c>
-      <c r="AH3" s="90">
+      <c r="AH3" s="89">
         <v>506</v>
       </c>
-      <c r="AI3" s="90">
+      <c r="AI3" s="89">
         <v>2</v>
       </c>
+      <c r="AJ3">
+        <v>827</v>
+      </c>
+      <c r="AK3">
+        <v>3</v>
+      </c>
+      <c r="AL3">
+        <v>524</v>
+      </c>
+      <c r="AM3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -9924,20 +10598,32 @@
       <c r="AD4" s="3">
         <v>412</v>
       </c>
-      <c r="AF4" s="90">
+      <c r="AF4" s="89">
         <v>681</v>
       </c>
-      <c r="AG4" s="90">
+      <c r="AG4" s="89">
         <v>1</v>
       </c>
-      <c r="AH4" s="90">
+      <c r="AH4" s="89">
         <v>605</v>
       </c>
-      <c r="AI4" s="90">
+      <c r="AI4" s="89">
         <v>1</v>
       </c>
+      <c r="AJ4">
+        <v>886</v>
+      </c>
+      <c r="AK4">
+        <v>4</v>
+      </c>
+      <c r="AL4">
+        <v>804</v>
+      </c>
+      <c r="AM4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -9989,16 +10675,24 @@
       <c r="AD5" s="3">
         <v>174</v>
       </c>
-      <c r="AF5" s="90">
+      <c r="AF5" s="89">
         <v>216</v>
       </c>
-      <c r="AG5" s="90"/>
-      <c r="AH5" s="90">
+      <c r="AG5" s="89"/>
+      <c r="AH5" s="89">
         <v>216</v>
       </c>
-      <c r="AI5" s="90"/>
+      <c r="AI5" s="89"/>
+      <c r="AJ5">
+        <v>265</v>
+      </c>
+      <c r="AK5"/>
+      <c r="AL5">
+        <v>265</v>
+      </c>
+      <c r="AM5"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -10047,16 +10741,24 @@
       <c r="AD6" s="3">
         <v>44</v>
       </c>
-      <c r="AF6" s="90">
+      <c r="AF6" s="89">
         <v>61</v>
       </c>
-      <c r="AG6" s="90"/>
-      <c r="AH6" s="90">
+      <c r="AG6" s="89"/>
+      <c r="AH6" s="89">
         <v>57</v>
       </c>
-      <c r="AI6" s="90"/>
+      <c r="AI6" s="89"/>
+      <c r="AJ6">
+        <v>84</v>
+      </c>
+      <c r="AK6"/>
+      <c r="AL6">
+        <v>56</v>
+      </c>
+      <c r="AM6"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -10111,16 +10813,24 @@
       <c r="AD7" s="3">
         <v>42</v>
       </c>
-      <c r="AF7" s="90">
+      <c r="AF7" s="89">
         <v>50</v>
       </c>
-      <c r="AG7" s="90"/>
-      <c r="AH7" s="90">
+      <c r="AG7" s="89"/>
+      <c r="AH7" s="89">
         <v>50</v>
       </c>
-      <c r="AI7" s="90"/>
+      <c r="AI7" s="89"/>
+      <c r="AJ7">
+        <v>53</v>
+      </c>
+      <c r="AK7"/>
+      <c r="AL7">
+        <v>53</v>
+      </c>
+      <c r="AM7"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -10175,16 +10885,24 @@
       <c r="AD8" s="3">
         <v>99</v>
       </c>
-      <c r="AF8" s="90">
+      <c r="AF8" s="89">
         <v>158</v>
       </c>
-      <c r="AG8" s="90"/>
-      <c r="AH8" s="90">
+      <c r="AG8" s="89"/>
+      <c r="AH8" s="89">
         <v>119</v>
       </c>
-      <c r="AI8" s="90"/>
+      <c r="AI8" s="89"/>
+      <c r="AJ8">
+        <v>162</v>
+      </c>
+      <c r="AK8"/>
+      <c r="AL8">
+        <v>162</v>
+      </c>
+      <c r="AM8"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -10242,16 +10960,24 @@
       <c r="AD9" s="3">
         <v>94</v>
       </c>
-      <c r="AF9" s="90">
+      <c r="AF9" s="89">
         <v>203</v>
       </c>
-      <c r="AG9" s="90"/>
-      <c r="AH9" s="90">
+      <c r="AG9" s="89"/>
+      <c r="AH9" s="89">
         <v>141</v>
       </c>
-      <c r="AI9" s="90"/>
+      <c r="AI9" s="89"/>
+      <c r="AJ9">
+        <v>286</v>
+      </c>
+      <c r="AK9"/>
+      <c r="AL9">
+        <v>207</v>
+      </c>
+      <c r="AM9"/>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -10297,16 +11023,24 @@
       <c r="AD10" s="3">
         <v>21</v>
       </c>
-      <c r="AF10" s="90">
+      <c r="AF10" s="89">
         <v>45</v>
       </c>
-      <c r="AG10" s="90"/>
-      <c r="AH10" s="90">
+      <c r="AG10" s="89"/>
+      <c r="AH10" s="89">
         <v>23</v>
       </c>
-      <c r="AI10" s="90"/>
+      <c r="AI10" s="89"/>
+      <c r="AJ10">
+        <v>50</v>
+      </c>
+      <c r="AK10"/>
+      <c r="AL10">
+        <v>33</v>
+      </c>
+      <c r="AM10"/>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -10361,16 +11095,24 @@
       <c r="AD11" s="3">
         <v>134</v>
       </c>
-      <c r="AF11" s="90">
+      <c r="AF11" s="89">
         <v>253</v>
       </c>
-      <c r="AG11" s="90"/>
-      <c r="AH11" s="90">
+      <c r="AG11" s="89"/>
+      <c r="AH11" s="89">
         <v>187</v>
       </c>
-      <c r="AI11" s="90"/>
+      <c r="AI11" s="89"/>
+      <c r="AJ11">
+        <v>287</v>
+      </c>
+      <c r="AK11"/>
+      <c r="AL11">
+        <v>238</v>
+      </c>
+      <c r="AM11"/>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -10464,20 +11206,32 @@
       <c r="AE12" s="3">
         <v>3</v>
       </c>
-      <c r="AF12" s="90">
+      <c r="AF12" s="89">
         <v>1154</v>
       </c>
-      <c r="AG12" s="90">
+      <c r="AG12" s="89">
         <v>5</v>
       </c>
-      <c r="AH12" s="90">
+      <c r="AH12" s="89">
         <v>1154</v>
       </c>
-      <c r="AI12" s="90">
+      <c r="AI12" s="89">
         <v>5</v>
       </c>
+      <c r="AJ12" s="77">
+        <v>1407</v>
+      </c>
+      <c r="AK12">
+        <v>5</v>
+      </c>
+      <c r="AL12" s="77">
+        <v>1407</v>
+      </c>
+      <c r="AM12">
+        <v>5</v>
+      </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -10538,16 +11292,24 @@
       <c r="AD13" s="3">
         <v>102</v>
       </c>
-      <c r="AF13" s="90">
+      <c r="AF13" s="89">
         <v>121</v>
       </c>
-      <c r="AG13" s="90"/>
-      <c r="AH13" s="90">
+      <c r="AG13" s="89"/>
+      <c r="AH13" s="89">
         <v>121</v>
       </c>
-      <c r="AI13" s="90"/>
+      <c r="AI13" s="89"/>
+      <c r="AJ13">
+        <v>168</v>
+      </c>
+      <c r="AK13"/>
+      <c r="AL13">
+        <v>168</v>
+      </c>
+      <c r="AM13"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
@@ -10593,16 +11355,24 @@
       <c r="AD14" s="3">
         <v>30</v>
       </c>
-      <c r="AF14" s="90">
+      <c r="AF14" s="89">
         <v>40</v>
       </c>
-      <c r="AG14" s="90"/>
-      <c r="AH14" s="90">
+      <c r="AG14" s="89"/>
+      <c r="AH14" s="89">
         <v>31</v>
       </c>
-      <c r="AI14" s="90"/>
+      <c r="AI14" s="89"/>
+      <c r="AJ14">
+        <v>32</v>
+      </c>
+      <c r="AK14"/>
+      <c r="AL14">
+        <v>32</v>
+      </c>
+      <c r="AM14"/>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
@@ -10648,16 +11418,24 @@
       <c r="AD15" s="3">
         <v>46</v>
       </c>
-      <c r="AF15" s="90">
+      <c r="AF15" s="89">
         <v>93</v>
       </c>
-      <c r="AG15" s="90"/>
-      <c r="AH15" s="90">
+      <c r="AG15" s="89"/>
+      <c r="AH15" s="89">
         <v>86</v>
       </c>
-      <c r="AI15" s="90"/>
+      <c r="AI15" s="89"/>
+      <c r="AJ15">
+        <v>130</v>
+      </c>
+      <c r="AK15"/>
+      <c r="AL15">
+        <v>91</v>
+      </c>
+      <c r="AM15"/>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
@@ -10685,16 +11463,24 @@
       <c r="AD16" s="3">
         <v>29</v>
       </c>
-      <c r="AF16" s="90">
+      <c r="AF16" s="89">
         <v>45</v>
       </c>
-      <c r="AG16" s="90"/>
-      <c r="AH16" s="90">
+      <c r="AG16" s="89"/>
+      <c r="AH16" s="89">
         <v>40</v>
       </c>
-      <c r="AI16" s="90"/>
+      <c r="AI16" s="89"/>
+      <c r="AJ16">
+        <v>47</v>
+      </c>
+      <c r="AK16"/>
+      <c r="AL16">
+        <v>40</v>
+      </c>
+      <c r="AM16"/>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
@@ -10752,16 +11538,24 @@
       <c r="AD17" s="3">
         <v>45</v>
       </c>
-      <c r="AF17" s="90">
+      <c r="AF17" s="89">
         <v>60</v>
       </c>
-      <c r="AG17" s="90"/>
-      <c r="AH17" s="90">
+      <c r="AG17" s="89"/>
+      <c r="AH17" s="89">
         <v>54</v>
       </c>
-      <c r="AI17" s="90"/>
+      <c r="AI17" s="89"/>
+      <c r="AJ17">
+        <v>103</v>
+      </c>
+      <c r="AK17"/>
+      <c r="AL17">
+        <v>79</v>
+      </c>
+      <c r="AM17"/>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
@@ -10810,16 +11604,24 @@
       <c r="AD18" s="3">
         <v>16</v>
       </c>
-      <c r="AF18" s="90">
+      <c r="AF18" s="89">
         <v>46</v>
       </c>
-      <c r="AG18" s="90"/>
-      <c r="AH18" s="90">
+      <c r="AG18" s="89"/>
+      <c r="AH18" s="89">
         <v>31</v>
       </c>
-      <c r="AI18" s="90"/>
+      <c r="AI18" s="89"/>
+      <c r="AJ18">
+        <v>51</v>
+      </c>
+      <c r="AK18"/>
+      <c r="AL18">
+        <v>36</v>
+      </c>
+      <c r="AM18"/>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>16</v>
       </c>
@@ -10894,20 +11696,32 @@
       <c r="AE19" s="3">
         <v>4</v>
       </c>
-      <c r="AF19" s="90">
+      <c r="AF19" s="89">
         <v>3795</v>
       </c>
-      <c r="AG19" s="90">
+      <c r="AG19" s="89">
         <v>8</v>
       </c>
-      <c r="AH19" s="90">
+      <c r="AH19" s="89">
         <v>3421</v>
       </c>
-      <c r="AI19" s="90">
+      <c r="AI19" s="89">
         <v>8</v>
       </c>
+      <c r="AJ19" s="77">
+        <v>4838</v>
+      </c>
+      <c r="AK19">
+        <v>12</v>
+      </c>
+      <c r="AL19" s="77">
+        <v>4195</v>
+      </c>
+      <c r="AM19">
+        <v>8</v>
+      </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -10926,7 +11740,7 @@
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -10955,10 +11769,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F5B1F18-8A79-3242-815B-7FAFD236451B}">
-  <dimension ref="A1:T35"/>
+  <dimension ref="A1:T39"/>
   <sheetViews>
     <sheetView topLeftCell="A20" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:T33"/>
+      <selection activeCell="A37" sqref="A37:T37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12425,55 +13239,55 @@
       <c r="C32" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="90">
+      <c r="D32" s="89">
         <v>569</v>
       </c>
-      <c r="E32" s="90">
+      <c r="E32" s="89">
         <v>681</v>
       </c>
-      <c r="F32" s="90">
+      <c r="F32" s="89">
         <v>216</v>
       </c>
-      <c r="G32" s="90">
+      <c r="G32" s="89">
         <v>61</v>
       </c>
-      <c r="H32" s="90">
+      <c r="H32" s="89">
         <v>50</v>
       </c>
-      <c r="I32" s="90">
+      <c r="I32" s="89">
         <v>158</v>
       </c>
-      <c r="J32" s="90">
+      <c r="J32" s="89">
         <v>203</v>
       </c>
-      <c r="K32" s="90">
+      <c r="K32" s="89">
         <v>45</v>
       </c>
-      <c r="L32" s="90">
+      <c r="L32" s="89">
         <v>253</v>
       </c>
-      <c r="M32" s="90">
+      <c r="M32" s="89">
         <v>1154</v>
       </c>
-      <c r="N32" s="90">
+      <c r="N32" s="89">
         <v>121</v>
       </c>
-      <c r="O32" s="90">
+      <c r="O32" s="89">
         <v>40</v>
       </c>
-      <c r="P32" s="90">
+      <c r="P32" s="89">
         <v>93</v>
       </c>
-      <c r="Q32" s="90">
+      <c r="Q32" s="89">
         <v>45</v>
       </c>
-      <c r="R32" s="90">
+      <c r="R32" s="89">
         <v>60</v>
       </c>
-      <c r="S32" s="90">
+      <c r="S32" s="89">
         <v>46</v>
       </c>
-      <c r="T32" s="90">
+      <c r="T32" s="89">
         <v>3795</v>
       </c>
     </row>
@@ -12487,29 +13301,29 @@
       <c r="C33" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="90">
+      <c r="D33" s="89">
         <v>2</v>
       </c>
-      <c r="E33" s="90">
+      <c r="E33" s="89">
         <v>1</v>
       </c>
-      <c r="F33" s="90"/>
-      <c r="G33" s="90"/>
-      <c r="H33" s="90"/>
-      <c r="I33" s="90"/>
-      <c r="J33" s="90"/>
-      <c r="K33" s="90"/>
-      <c r="L33" s="90"/>
-      <c r="M33" s="90">
+      <c r="F33" s="89"/>
+      <c r="G33" s="89"/>
+      <c r="H33" s="89"/>
+      <c r="I33" s="89"/>
+      <c r="J33" s="89"/>
+      <c r="K33" s="89"/>
+      <c r="L33" s="89"/>
+      <c r="M33" s="89">
         <v>5</v>
       </c>
-      <c r="N33" s="90"/>
-      <c r="O33" s="90"/>
-      <c r="P33" s="90"/>
-      <c r="Q33" s="90"/>
-      <c r="R33" s="90"/>
-      <c r="S33" s="90"/>
-      <c r="T33" s="90">
+      <c r="N33" s="89"/>
+      <c r="O33" s="89"/>
+      <c r="P33" s="89"/>
+      <c r="Q33" s="89"/>
+      <c r="R33" s="89"/>
+      <c r="S33" s="89"/>
+      <c r="T33" s="89">
         <v>8</v>
       </c>
     </row>
@@ -12523,55 +13337,55 @@
       <c r="C34" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D34" s="90">
+      <c r="D34" s="89">
         <v>506</v>
       </c>
-      <c r="E34" s="90">
+      <c r="E34" s="89">
         <v>605</v>
       </c>
-      <c r="F34" s="90">
+      <c r="F34" s="89">
         <v>216</v>
       </c>
-      <c r="G34" s="90">
+      <c r="G34" s="89">
         <v>57</v>
       </c>
-      <c r="H34" s="90">
+      <c r="H34" s="89">
         <v>50</v>
       </c>
-      <c r="I34" s="90">
+      <c r="I34" s="89">
         <v>119</v>
       </c>
-      <c r="J34" s="90">
+      <c r="J34" s="89">
         <v>141</v>
       </c>
-      <c r="K34" s="90">
+      <c r="K34" s="89">
         <v>23</v>
       </c>
-      <c r="L34" s="90">
+      <c r="L34" s="89">
         <v>187</v>
       </c>
-      <c r="M34" s="90">
+      <c r="M34" s="89">
         <v>1154</v>
       </c>
-      <c r="N34" s="90">
+      <c r="N34" s="89">
         <v>121</v>
       </c>
-      <c r="O34" s="90">
+      <c r="O34" s="89">
         <v>31</v>
       </c>
-      <c r="P34" s="90">
+      <c r="P34" s="89">
         <v>86</v>
       </c>
-      <c r="Q34" s="90">
+      <c r="Q34" s="89">
         <v>40</v>
       </c>
-      <c r="R34" s="90">
+      <c r="R34" s="89">
         <v>54</v>
       </c>
-      <c r="S34" s="90">
+      <c r="S34" s="89">
         <v>31</v>
       </c>
-      <c r="T34" s="90">
+      <c r="T34" s="89">
         <v>3421</v>
       </c>
     </row>
@@ -12585,29 +13399,199 @@
       <c r="C35" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="90">
+      <c r="D35" s="89">
         <v>2</v>
       </c>
-      <c r="E35" s="90">
+      <c r="E35" s="89">
         <v>1</v>
       </c>
-      <c r="F35" s="90"/>
-      <c r="G35" s="90"/>
-      <c r="H35" s="90"/>
-      <c r="I35" s="90"/>
-      <c r="J35" s="90"/>
-      <c r="K35" s="90"/>
-      <c r="L35" s="90"/>
-      <c r="M35" s="90">
+      <c r="F35" s="89"/>
+      <c r="G35" s="89"/>
+      <c r="H35" s="89"/>
+      <c r="I35" s="89"/>
+      <c r="J35" s="89"/>
+      <c r="K35" s="89"/>
+      <c r="L35" s="89"/>
+      <c r="M35" s="89">
         <v>5</v>
       </c>
-      <c r="N35" s="90"/>
-      <c r="O35" s="90"/>
-      <c r="P35" s="90"/>
-      <c r="Q35" s="90"/>
-      <c r="R35" s="90"/>
-      <c r="S35" s="90"/>
-      <c r="T35" s="90">
+      <c r="N35" s="89"/>
+      <c r="O35" s="89"/>
+      <c r="P35" s="89"/>
+      <c r="Q35" s="89"/>
+      <c r="R35" s="89"/>
+      <c r="S35" s="89"/>
+      <c r="T35" s="89">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>16</v>
+      </c>
+      <c r="B36" s="4">
+        <v>43905.625</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36">
+        <v>827</v>
+      </c>
+      <c r="E36">
+        <v>886</v>
+      </c>
+      <c r="F36">
+        <v>265</v>
+      </c>
+      <c r="G36">
+        <v>84</v>
+      </c>
+      <c r="H36">
+        <v>53</v>
+      </c>
+      <c r="I36">
+        <v>162</v>
+      </c>
+      <c r="J36">
+        <v>286</v>
+      </c>
+      <c r="K36">
+        <v>50</v>
+      </c>
+      <c r="L36">
+        <v>287</v>
+      </c>
+      <c r="M36" s="77">
+        <v>1407</v>
+      </c>
+      <c r="N36">
+        <v>168</v>
+      </c>
+      <c r="O36">
+        <v>32</v>
+      </c>
+      <c r="P36">
+        <v>130</v>
+      </c>
+      <c r="Q36">
+        <v>47</v>
+      </c>
+      <c r="R36">
+        <v>103</v>
+      </c>
+      <c r="S36">
+        <v>51</v>
+      </c>
+      <c r="T36" s="77">
+        <v>4838</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>16</v>
+      </c>
+      <c r="B37" s="4">
+        <v>43905.625</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>4</v>
+      </c>
+      <c r="M37">
+        <v>5</v>
+      </c>
+      <c r="T37">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>16</v>
+      </c>
+      <c r="B38" s="4">
+        <v>43905.625</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38">
+        <v>524</v>
+      </c>
+      <c r="E38">
+        <v>804</v>
+      </c>
+      <c r="F38">
+        <v>265</v>
+      </c>
+      <c r="G38">
+        <v>56</v>
+      </c>
+      <c r="H38">
+        <v>53</v>
+      </c>
+      <c r="I38">
+        <v>162</v>
+      </c>
+      <c r="J38">
+        <v>207</v>
+      </c>
+      <c r="K38">
+        <v>33</v>
+      </c>
+      <c r="L38">
+        <v>238</v>
+      </c>
+      <c r="M38" s="77">
+        <v>1407</v>
+      </c>
+      <c r="N38">
+        <v>168</v>
+      </c>
+      <c r="O38">
+        <v>32</v>
+      </c>
+      <c r="P38">
+        <v>91</v>
+      </c>
+      <c r="Q38">
+        <v>40</v>
+      </c>
+      <c r="R38">
+        <v>79</v>
+      </c>
+      <c r="S38">
+        <v>36</v>
+      </c>
+      <c r="T38" s="77">
+        <v>4195</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>16</v>
+      </c>
+      <c r="B39" s="4">
+        <v>43905.625</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>5</v>
+      </c>
+      <c r="T39">
         <v>8</v>
       </c>
     </row>
@@ -12621,11 +13605,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{233E67D7-4FF2-D745-A107-DDC4CB6E1273}">
-  <dimension ref="A1:Y17"/>
+  <dimension ref="A1:Z18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12638,15 +13622,16 @@
     <col min="10" max="10" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="19" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8.5" style="72" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.1640625" style="47" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.1640625" style="47" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="4.6640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.33203125" style="20" customWidth="1"/>
-    <col min="24" max="24" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="120.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.33203125" style="98" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="20" customWidth="1"/>
+    <col min="25" max="25" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="120.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="37" customFormat="1" ht="79" x14ac:dyDescent="0.2">
-      <c r="A1" s="97" t="s">
+    <row r="1" spans="1:26" s="37" customFormat="1" ht="106" x14ac:dyDescent="0.2">
+      <c r="A1" s="96" t="s">
         <v>41</v>
       </c>
       <c r="B1" s="38" t="s">
@@ -12712,9 +13697,12 @@
       <c r="V1" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="W1" s="46"/>
+      <c r="W1" s="100" t="s">
+        <v>109</v>
+      </c>
+      <c r="X1" s="46"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="74">
         <v>0</v>
       </c>
@@ -12752,8 +13740,11 @@
 "")</f>
         <v/>
       </c>
+      <c r="Y2" t="s">
+        <v>106</v>
+      </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="74">
         <v>1</v>
       </c>
@@ -12792,14 +13783,18 @@
         <f t="shared" si="1"/>
         <v>0.24528301886792453</v>
       </c>
-      <c r="X3" t="s">
-        <v>89</v>
+      <c r="W3" s="98">
+        <f>guide_start*EXP(Table5[[#This Row],['#]]*(LN(2)/guide_doubling))</f>
+        <v>62.996052494743658</v>
       </c>
       <c r="Y3" t="s">
-        <v>36</v>
+        <v>107</v>
+      </c>
+      <c r="Z3" s="73">
+        <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="74">
         <v>2</v>
       </c>
@@ -12847,8 +13842,18 @@
         <f t="shared" si="1"/>
         <v>0.78996865203603195</v>
       </c>
+      <c r="W4" s="98">
+        <f>guide_start*EXP(Table5[[#This Row],['#]]*(LN(2)/guide_doubling))</f>
+        <v>79.37005259840997</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z4" s="73">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="74">
         <v>3</v>
       </c>
@@ -12899,8 +13904,12 @@
         <f t="shared" si="1"/>
         <v>0.21705426356589147</v>
       </c>
+      <c r="W5" s="98">
+        <f>guide_start*EXP(Table5[[#This Row],['#]]*(LN(2)/guide_doubling))</f>
+        <v>100</v>
+      </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="74">
         <v>4</v>
       </c>
@@ -12960,9 +13969,18 @@
         <f t="shared" si="1"/>
         <v>0.24840764331210191</v>
       </c>
-      <c r="Y6" s="73"/>
+      <c r="W6" s="98">
+        <f>guide_start*EXP(Table5[[#This Row],['#]]*(LN(2)/guide_doubling))</f>
+        <v>125.9921049894873</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="74">
         <v>5</v>
       </c>
@@ -13028,8 +14046,12 @@
         <f t="shared" si="1"/>
         <v>0.33673469387755101</v>
       </c>
+      <c r="W7" s="98">
+        <f>guide_start*EXP(Table5[[#This Row],['#]]*(LN(2)/guide_doubling))</f>
+        <v>158.74010519681994</v>
+      </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="74">
         <v>6</v>
       </c>
@@ -13095,8 +14117,12 @@
         <f t="shared" si="1"/>
         <v>0.52671755725190839</v>
       </c>
+      <c r="W8" s="98">
+        <f>guide_start*EXP(Table5[[#This Row],['#]]*(LN(2)/guide_doubling))</f>
+        <v>200</v>
+      </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="74">
         <v>7</v>
       </c>
@@ -13163,8 +14189,12 @@
         <f t="shared" si="1"/>
         <v>0.59750000000000003</v>
       </c>
+      <c r="W9" s="98">
+        <f>guide_start*EXP(Table5[[#This Row],['#]]*(LN(2)/guide_doubling))</f>
+        <v>251.9842099789746</v>
+      </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="74">
         <v>8</v>
       </c>
@@ -13230,8 +14260,12 @@
         <f t="shared" si="1"/>
         <v>0.24413145539906103</v>
       </c>
+      <c r="W10" s="98">
+        <f>guide_start*EXP(Table5[[#This Row],['#]]*(LN(2)/guide_doubling))</f>
+        <v>317.48021039363988</v>
+      </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="74">
         <v>9</v>
       </c>
@@ -13297,8 +14331,12 @@
         <f t="shared" si="1"/>
         <v>0.13459119496855346</v>
       </c>
+      <c r="W11" s="98">
+        <f>guide_start*EXP(Table5[[#This Row],['#]]*(LN(2)/guide_doubling))</f>
+        <v>399.99999999999989</v>
+      </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="74">
         <v>10</v>
       </c>
@@ -13364,8 +14402,12 @@
         <f t="shared" si="1"/>
         <v>0.26274944567627495</v>
       </c>
+      <c r="W12" s="98">
+        <f>guide_start*EXP(Table5[[#This Row],['#]]*(LN(2)/guide_doubling))</f>
+        <v>503.96841995794927</v>
+      </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="74">
         <v>11</v>
       </c>
@@ -13434,8 +14476,12 @@
         <f t="shared" si="1"/>
         <v>0.13784021071115013</v>
       </c>
+      <c r="W13" s="98">
+        <f>guide_start*EXP(Table5[[#This Row],['#]]*(LN(2)/guide_doubling))</f>
+        <v>634.96042078727965</v>
+      </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="74">
         <v>12</v>
       </c>
@@ -13504,9 +14550,13 @@
         <f t="shared" si="1"/>
         <v>0.20910493827160495</v>
       </c>
+      <c r="W14" s="98">
+        <f>guide_start*EXP(Table5[[#This Row],['#]]*(LN(2)/guide_doubling))</f>
+        <v>799.99999999999989</v>
+      </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A15" s="98">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A15" s="97">
         <v>13</v>
       </c>
       <c r="B15" s="23">
@@ -13574,10 +14624,14 @@
         <f t="shared" si="1"/>
         <v>0.51180599872367583</v>
       </c>
-      <c r="W15" s="56"/>
+      <c r="W15" s="99">
+        <f>guide_start*EXP(Table5[[#This Row],['#]]*(LN(2)/guide_doubling))</f>
+        <v>1007.9368399158982</v>
+      </c>
+      <c r="X15" s="56"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A16" s="98">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A16" s="97">
         <v>14</v>
       </c>
       <c r="B16" s="23">
@@ -13647,10 +14701,14 @@
 "")</f>
         <v>0.29252849303503586</v>
       </c>
-      <c r="W16" s="56"/>
+      <c r="W16" s="99">
+        <f>guide_start*EXP(Table5[[#This Row],['#]]*(LN(2)/guide_doubling))</f>
+        <v>1269.9208415745593</v>
+      </c>
+      <c r="X16" s="56"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A17" s="98">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A17" s="97">
         <v>15</v>
       </c>
       <c r="B17" s="23">
@@ -13719,6 +14777,86 @@
 ((T17-T16)/T16)/(B17-B16),
 "")</f>
         <v>0.23938602220770738</v>
+      </c>
+      <c r="W17" s="99">
+        <f>guide_start*EXP(Table5[[#This Row],['#]]*(LN(2)/guide_doubling))</f>
+        <v>1599.9999999999993</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A18" s="97">
+        <v>16</v>
+      </c>
+      <c r="B18" s="53">
+        <v>43905.625</v>
+      </c>
+      <c r="C18" s="102" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="103">
+        <v>827</v>
+      </c>
+      <c r="E18" s="103">
+        <v>886</v>
+      </c>
+      <c r="F18" s="103">
+        <v>265</v>
+      </c>
+      <c r="G18" s="103">
+        <v>84</v>
+      </c>
+      <c r="H18" s="103">
+        <v>53</v>
+      </c>
+      <c r="I18" s="103">
+        <v>162</v>
+      </c>
+      <c r="J18" s="103">
+        <v>286</v>
+      </c>
+      <c r="K18" s="103">
+        <v>50</v>
+      </c>
+      <c r="L18" s="103">
+        <v>287</v>
+      </c>
+      <c r="M18" s="103">
+        <v>1407</v>
+      </c>
+      <c r="N18" s="103">
+        <v>168</v>
+      </c>
+      <c r="O18" s="103">
+        <v>32</v>
+      </c>
+      <c r="P18" s="103">
+        <v>130</v>
+      </c>
+      <c r="Q18" s="103">
+        <v>47</v>
+      </c>
+      <c r="R18" s="103">
+        <v>103</v>
+      </c>
+      <c r="S18" s="103">
+        <v>51</v>
+      </c>
+      <c r="T18" s="104">
+        <v>4838</v>
+      </c>
+      <c r="U18" s="54">
+        <f>IF(ISNUMBER(T17),T18-T17,"")</f>
+        <v>1043</v>
+      </c>
+      <c r="V18" s="55">
+        <f>IF(ISNUMBER(T17),
+((T18-T17)/T17)/(B18-B17),
+"")</f>
+        <v>0.2748353096179183</v>
+      </c>
+      <c r="W18" s="99">
+        <f>guide_start*EXP(Table5[[#This Row],['#]]*(LN(2)/guide_doubling))</f>
+        <v>2015.8736798317964</v>
       </c>
     </row>
   </sheetData>
@@ -13732,11 +14870,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D35575D0-0A0E-6E43-9D76-74E38D2BC332}">
-  <dimension ref="A1:V17"/>
+  <dimension ref="A1:V18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S17" sqref="A2:S17"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15618,8 +16756,120 @@
         <v>0.23938602220770738</v>
       </c>
     </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" s="57">
+        <f>Cases!A18</f>
+        <v>16</v>
+      </c>
+      <c r="B18" s="58">
+        <f>Cases!B18</f>
+        <v>43905.625</v>
+      </c>
+      <c r="C18" s="59">
+        <f>IF(AND(ISNUMBER(Cases!D17),Cases!D17&gt;min_number),
+((Cases!D18-Cases!D17)/Cases!D17)/(Cases!$B18-Cases!$B17),
+"")</f>
+        <v>0.45342706502636204</v>
+      </c>
+      <c r="D18" s="59">
+        <f>IF(AND(ISNUMBER(Cases!E17),Cases!E17&gt;min_number),
+((Cases!E18-Cases!E17)/Cases!E17)/(Cases!$B18-Cases!$B17),
+"")</f>
+        <v>0.30102790014684289</v>
+      </c>
+      <c r="E18" s="59">
+        <f>IF(AND(ISNUMBER(Cases!F17),Cases!F17&gt;min_number),
+((Cases!F18-Cases!F17)/Cases!F17)/(Cases!$B18-Cases!$B17),
+"")</f>
+        <v>0.22685185185185186</v>
+      </c>
+      <c r="F18" s="59">
+        <f>IF(AND(ISNUMBER(Cases!G17),Cases!G17&gt;min_number),
+((Cases!G18-Cases!G17)/Cases!G17)/(Cases!$B18-Cases!$B17),
+"")</f>
+        <v>0.37704918032786883</v>
+      </c>
+      <c r="G18" s="59">
+        <f>IF(AND(ISNUMBER(Cases!H17),Cases!H17&gt;min_number),
+((Cases!H18-Cases!H17)/Cases!H17)/(Cases!$B18-Cases!$B17),
+"")</f>
+        <v>0.06</v>
+      </c>
+      <c r="H18" s="59">
+        <f>IF(AND(ISNUMBER(Cases!I17),Cases!I17&gt;min_number),
+((Cases!I18-Cases!I17)/Cases!I17)/(Cases!$B18-Cases!$B17),
+"")</f>
+        <v>2.5316455696202531E-2</v>
+      </c>
+      <c r="I18" s="59">
+        <f>IF(AND(ISNUMBER(Cases!J17),Cases!J17&gt;min_number),
+((Cases!J18-Cases!J17)/Cases!J17)/(Cases!$B18-Cases!$B17),
+"")</f>
+        <v>0.40886699507389163</v>
+      </c>
+      <c r="J18" s="59">
+        <f>IF(AND(ISNUMBER(Cases!K17),Cases!K17&gt;min_number),
+((Cases!K18-Cases!K17)/Cases!K17)/(Cases!$B18-Cases!$B17),
+"")</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="K18" s="59">
+        <f>IF(AND(ISNUMBER(Cases!L17),Cases!L17&gt;min_number),
+((Cases!L18-Cases!L17)/Cases!L17)/(Cases!$B18-Cases!$B17),
+"")</f>
+        <v>0.13438735177865613</v>
+      </c>
+      <c r="L18" s="59">
+        <f>IF(AND(ISNUMBER(Cases!M17),Cases!M17&gt;min_number),
+((Cases!M18-Cases!M17)/Cases!M17)/(Cases!$B18-Cases!$B17),
+"")</f>
+        <v>0.21923743500866552</v>
+      </c>
+      <c r="M18" s="59">
+        <f>IF(AND(ISNUMBER(Cases!N17),Cases!N17&gt;min_number),
+((Cases!N18-Cases!N17)/Cases!N17)/(Cases!$B18-Cases!$B17),
+"")</f>
+        <v>0.38842975206611569</v>
+      </c>
+      <c r="N18" s="59">
+        <f>IF(AND(ISNUMBER(Cases!O17),Cases!O17&gt;min_number),
+((Cases!O18-Cases!O17)/Cases!O17)/(Cases!$B18-Cases!$B17),
+"")</f>
+        <v>-0.2</v>
+      </c>
+      <c r="O18" s="59">
+        <f>IF(AND(ISNUMBER(Cases!P17),Cases!P17&gt;min_number),
+((Cases!P18-Cases!P17)/Cases!P17)/(Cases!$B18-Cases!$B17),
+"")</f>
+        <v>0.39784946236559138</v>
+      </c>
+      <c r="P18" s="59">
+        <f>IF(AND(ISNUMBER(Cases!Q17),Cases!Q17&gt;min_number),
+((Cases!Q18-Cases!Q17)/Cases!Q17)/(Cases!$B18-Cases!$B17),
+"")</f>
+        <v>4.4444444444444446E-2</v>
+      </c>
+      <c r="Q18" s="59">
+        <f>IF(AND(ISNUMBER(Cases!R17),Cases!R17&gt;min_number),
+((Cases!R18-Cases!R17)/Cases!R17)/(Cases!$B18-Cases!$B17),
+"")</f>
+        <v>0.71666666666666667</v>
+      </c>
+      <c r="R18" s="59">
+        <f>IF(AND(ISNUMBER(Cases!S17),Cases!S17&gt;min_number),
+((Cases!S18-Cases!S17)/Cases!S17)/(Cases!$B18-Cases!$B17),
+"")</f>
+        <v>0.10869565217391304</v>
+      </c>
+      <c r="S18" s="60">
+        <f>IF(AND(ISNUMBER(Cases!T17),Cases!T17&gt;min_number),
+((Cases!T18-Cases!T17)/Cases!T17)/(Cases!$B18-Cases!$B17),
+"")</f>
+        <v>0.2748353096179183</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:S17">
+  <conditionalFormatting sqref="C2:S18">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -15640,17 +16890,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C283F65E-4645-8A47-BFE2-5D2317004015}">
   <dimension ref="A1:W21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" style="79" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" style="47" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
     <col min="10" max="19" width="5.6640625" bestFit="1" customWidth="1"/>
@@ -15661,9 +16910,9 @@
       <c r="A1" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="84"/>
+      <c r="B1" s="83"/>
       <c r="C1" s="21"/>
-      <c r="D1" s="79"/>
+      <c r="D1" s="105"/>
       <c r="E1" s="79"/>
       <c r="F1" s="79"/>
       <c r="G1" s="79"/>
@@ -15681,24 +16930,24 @@
       <c r="A2" t="s">
         <v>94</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="47">
         <v>1000000</v>
       </c>
       <c r="H2" t="s">
         <v>95</v>
       </c>
-      <c r="I2" s="88" t="str">
+      <c r="I2" s="87" t="str">
         <f>"Fälle DE absolut vs. pro 1 Mill Einwohner, "&amp;TEXT(C3,"TT.MM.JJJJ")</f>
-        <v>Fälle DE absolut vs. pro 1 Mill Einwohner, 14.03.2020</v>
+        <v>Fälle DE absolut vs. pro 1 Mill Einwohner, 15.03.2020</v>
       </c>
       <c r="U2" s="47"/>
       <c r="V2" s="19"/>
       <c r="W2" s="20"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C3" s="87">
+      <c r="C3" s="86">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!B2:B9997)),Cases!B2:B9997)</f>
-        <v>43904.625</v>
+        <v>43905.625</v>
       </c>
       <c r="U3" s="47"/>
       <c r="V3" s="19"/>
@@ -15708,12 +16957,15 @@
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="86" t="s">
+      <c r="B4" s="84"/>
+      <c r="C4" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="86" t="s">
+      <c r="D4" s="106" t="s">
         <v>92</v>
+      </c>
+      <c r="E4" s="85" t="s">
+        <v>110</v>
       </c>
       <c r="T4" s="72"/>
       <c r="U4" s="47"/>
@@ -15721,7 +16973,7 @@
       <c r="W4" s="20"/>
     </row>
     <row r="5" spans="1:23" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="82" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="79" t="s">
@@ -15729,11 +16981,15 @@
       </c>
       <c r="C5" s="74">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!D2:D9997)),Cases!D2:D9997)</f>
-        <v>569</v>
-      </c>
-      <c r="D5" s="82">
+        <v>827</v>
+      </c>
+      <c r="D5" s="107">
         <f>last_BW/pop_BW*per_pop_scale</f>
-        <v>51.402502371380827</v>
+        <v>74.709788156646638</v>
+      </c>
+      <c r="E5" s="47">
+        <f>$D$21</f>
+        <v>58.275675988205137</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
@@ -15745,11 +17001,15 @@
       </c>
       <c r="C6" s="74">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!E2:E9997)),Cases!E2:E9997)</f>
-        <v>681</v>
-      </c>
-      <c r="D6" s="82">
+        <v>886</v>
+      </c>
+      <c r="D6" s="107">
         <f>last_BY/pop_BY*per_pop_scale</f>
-        <v>52.077358966711785</v>
+        <v>67.754096981654399</v>
+      </c>
+      <c r="E6" s="47">
+        <f t="shared" ref="E6:E20" si="0">$D$21</f>
+        <v>58.275675988205137</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
@@ -15761,11 +17021,15 @@
       </c>
       <c r="C7" s="74">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!F2:F9997)),Cases!F2:F9997)</f>
-        <v>216</v>
-      </c>
-      <c r="D7" s="82">
+        <v>265</v>
+      </c>
+      <c r="D7" s="107">
         <f>last_BE/pop_BE*per_pop_scale</f>
-        <v>59.262510974539069</v>
+        <v>72.70632133450394</v>
+      </c>
+      <c r="E7" s="47">
+        <f t="shared" si="0"/>
+        <v>58.275675988205137</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
@@ -15777,11 +17041,15 @@
       </c>
       <c r="C8" s="74">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!G2:G9997)),Cases!G2:G9997)</f>
-        <v>61</v>
-      </c>
-      <c r="D8" s="82">
+        <v>84</v>
+      </c>
+      <c r="D8" s="107">
         <f>last_BB/pop_BB*per_pop_scale</f>
-        <v>24.284406226362517</v>
+        <v>33.440821688761496</v>
+      </c>
+      <c r="E8" s="47">
+        <f t="shared" si="0"/>
+        <v>58.275675988205137</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
@@ -15793,11 +17061,15 @@
       </c>
       <c r="C9" s="74">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!H2:H9997)),Cases!H2:H9997)</f>
-        <v>50</v>
-      </c>
-      <c r="D9" s="82">
+        <v>53</v>
+      </c>
+      <c r="D9" s="107">
         <f>last_HB/pop_HB*per_pop_scale</f>
-        <v>73.206442166910691</v>
+        <v>77.598828696925324</v>
+      </c>
+      <c r="E9" s="47">
+        <f t="shared" si="0"/>
+        <v>58.275675988205137</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
@@ -15809,11 +17081,15 @@
       </c>
       <c r="C10" s="74">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!I2:I9997)),Cases!I2:I9997)</f>
-        <v>158</v>
-      </c>
-      <c r="D10" s="82">
+        <v>162</v>
+      </c>
+      <c r="D10" s="107">
         <f>last_HH/pop_HH*per_pop_scale</f>
-        <v>85.813599826200303</v>
+        <v>87.986096024331957</v>
+      </c>
+      <c r="E10" s="47">
+        <f t="shared" si="0"/>
+        <v>58.275675988205137</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
@@ -15825,15 +17101,19 @@
       </c>
       <c r="C11" s="74">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!J2:J9997)),Cases!J2:J9997)</f>
-        <v>203</v>
-      </c>
-      <c r="D11" s="82">
+        <v>286</v>
+      </c>
+      <c r="D11" s="107">
         <f>last_HE/pop_HE*per_pop_scale</f>
-        <v>32.398097609243834</v>
+        <v>45.644610424845993</v>
+      </c>
+      <c r="E11" s="47">
+        <f t="shared" si="0"/>
+        <v>58.275675988205137</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="83" t="s">
+      <c r="A12" s="82" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="79" t="s">
@@ -15841,11 +17121,15 @@
       </c>
       <c r="C12" s="74">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!K2:K9997)),Cases!K2:K9997)</f>
-        <v>45</v>
-      </c>
-      <c r="D12" s="82">
+        <v>50</v>
+      </c>
+      <c r="D12" s="107">
         <f>last_MV/pop_MV*per_pop_scale</f>
-        <v>27.955519662048829</v>
+        <v>31.061688513387587</v>
+      </c>
+      <c r="E12" s="47">
+        <f t="shared" si="0"/>
+        <v>58.275675988205137</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
@@ -15857,15 +17141,19 @@
       </c>
       <c r="C13" s="74">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!L2:L9997)),Cases!L2:L9997)</f>
-        <v>253</v>
-      </c>
-      <c r="D13" s="82">
+        <v>287</v>
+      </c>
+      <c r="D13" s="107">
         <f>last_NI/pop_NI*per_pop_scale</f>
-        <v>31.69472840248547</v>
+        <v>35.954099017839248</v>
+      </c>
+      <c r="E13" s="47">
+        <f t="shared" si="0"/>
+        <v>58.275675988205137</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="83" t="s">
+      <c r="A14" s="82" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="79" t="s">
@@ -15873,15 +17161,19 @@
       </c>
       <c r="C14" s="74">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!M2:M9997)),Cases!M2:M9997)</f>
-        <v>1154</v>
-      </c>
-      <c r="D14" s="82">
+        <v>1407</v>
+      </c>
+      <c r="D14" s="107">
         <f>last_NW/pop_NW*per_pop_scale</f>
-        <v>64.351715023393012</v>
+        <v>78.4600199635303</v>
+      </c>
+      <c r="E14" s="47">
+        <f t="shared" si="0"/>
+        <v>58.275675988205137</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15" s="83" t="s">
+      <c r="A15" s="82" t="s">
         <v>35</v>
       </c>
       <c r="B15" s="79" t="s">
@@ -15889,11 +17181,15 @@
       </c>
       <c r="C15" s="74">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!N2:N9997)),Cases!N2:N9997)</f>
-        <v>121</v>
-      </c>
-      <c r="D15" s="82">
+        <v>168</v>
+      </c>
+      <c r="D15" s="107">
         <f>last_RP/pop_RP*per_pop_scale</f>
-        <v>29.622013317665491</v>
+        <v>41.128084606345482</v>
+      </c>
+      <c r="E15" s="47">
+        <f t="shared" si="0"/>
+        <v>58.275675988205137</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
@@ -15905,11 +17201,15 @@
       </c>
       <c r="C16" s="74">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!O2:O9997)),Cases!O2:O9997)</f>
-        <v>40</v>
-      </c>
-      <c r="D16" s="82">
+        <v>32</v>
+      </c>
+      <c r="D16" s="107">
         <f>last_SL/pop_SL*per_pop_scale</f>
-        <v>40.38364462392731</v>
+        <v>32.306915699141847</v>
+      </c>
+      <c r="E16" s="47">
+        <f t="shared" si="0"/>
+        <v>58.275675988205137</v>
       </c>
       <c r="F16" s="79"/>
       <c r="G16" s="79"/>
@@ -15919,7 +17219,7 @@
       <c r="K16" s="79"/>
       <c r="L16" s="80"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -15928,15 +17228,19 @@
       </c>
       <c r="C17" s="74">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!P2:P9997)),Cases!P2:P9997)</f>
-        <v>93</v>
-      </c>
-      <c r="D17" s="82">
+        <v>130</v>
+      </c>
+      <c r="D17" s="107">
         <f>last_SN/pop_SN*per_pop_scale</f>
-        <v>22.805855955271095</v>
+        <v>31.879153485862826</v>
+      </c>
+      <c r="E17" s="47">
+        <f t="shared" si="0"/>
+        <v>58.275675988205137</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A18" s="83" t="s">
+    <row r="18" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" s="82" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="79" t="s">
@@ -15944,15 +17248,19 @@
       </c>
       <c r="C18" s="74">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!Q2:Q9997)),Cases!Q2:Q9997)</f>
-        <v>45</v>
-      </c>
-      <c r="D18" s="82">
+        <v>47</v>
+      </c>
+      <c r="D18" s="107">
         <f>last_ST/pop_ST*per_pop_scale</f>
-        <v>20.377666077978535</v>
+        <v>21.283340125888692</v>
+      </c>
+      <c r="E18" s="47">
+        <f t="shared" si="0"/>
+        <v>58.275675988205137</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A19" s="83" t="s">
+    <row r="19" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19" s="82" t="s">
         <v>33</v>
       </c>
       <c r="B19" s="79" t="s">
@@ -15960,14 +17268,18 @@
       </c>
       <c r="C19" s="74">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!R2:R9997)),Cases!R2:R9997)</f>
-        <v>60</v>
-      </c>
-      <c r="D19" s="82">
+        <v>103</v>
+      </c>
+      <c r="D19" s="107">
         <f>last_SH/pop_SH*per_pop_scale</f>
-        <v>20.713225394414334</v>
+        <v>35.557703593744606</v>
+      </c>
+      <c r="E19" s="47">
+        <f t="shared" si="0"/>
+        <v>58.275675988205137</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -15976,14 +17288,18 @@
       </c>
       <c r="C20" s="74">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!S2:S9997)),Cases!S2:S9997)</f>
-        <v>46</v>
-      </c>
-      <c r="D20" s="82">
+        <v>51</v>
+      </c>
+      <c r="D20" s="107">
         <f>last_TH/pop_TH*per_pop_scale</f>
-        <v>21.464234053473938</v>
+        <v>23.797302972329803</v>
+      </c>
+      <c r="E20" s="47">
+        <f t="shared" si="0"/>
+        <v>58.275675988205137</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>91</v>
       </c>
@@ -15992,11 +17308,11 @@
       </c>
       <c r="C21" s="74">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!T2:T9997)),Cases!T2:T9997)</f>
-        <v>3795</v>
-      </c>
-      <c r="D21" s="82">
+        <v>4838</v>
+      </c>
+      <c r="D21" s="107">
         <f>last_DE_Total/pop_DE_Total*per_pop_scale</f>
-        <v>45.712317150731394</v>
+        <v>58.275675988205137</v>
       </c>
     </row>
   </sheetData>
@@ -16030,12 +17346,12 @@
   <dimension ref="A1:T45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="96" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="95" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="20" width="3.6640625" style="5" bestFit="1" customWidth="1"/>
@@ -16044,7 +17360,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="26" customFormat="1" ht="142" x14ac:dyDescent="0.2">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="92" t="s">
         <v>41</v>
       </c>
       <c r="B1" s="50" t="s">
@@ -16106,7 +17422,7 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="94">
+      <c r="A2" s="93">
         <v>10</v>
       </c>
       <c r="B2" s="27">
@@ -16138,7 +17454,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="95">
+      <c r="A3" s="94">
         <v>11</v>
       </c>
       <c r="B3" s="29">
@@ -16170,7 +17486,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" s="94">
+      <c r="A4" s="93">
         <v>12</v>
       </c>
       <c r="B4" s="27">
@@ -16202,7 +17518,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="95">
+      <c r="A5" s="94">
         <v>13</v>
       </c>
       <c r="B5" s="13">
@@ -16238,7 +17554,7 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" s="95">
+      <c r="A6" s="94">
         <v>14</v>
       </c>
       <c r="B6" s="68">
@@ -16274,7 +17590,7 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A7" s="95">
+      <c r="A7" s="94">
         <v>15</v>
       </c>
       <c r="B7" s="68">
@@ -16283,30 +17599,66 @@
       <c r="C7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="91">
+      <c r="D7" s="90">
         <v>2</v>
       </c>
-      <c r="E7" s="91">
+      <c r="E7" s="90">
         <v>1</v>
       </c>
-      <c r="F7" s="91"/>
-      <c r="G7" s="91"/>
-      <c r="H7" s="91"/>
-      <c r="I7" s="91"/>
-      <c r="J7" s="91"/>
-      <c r="K7" s="91"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="91">
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="90">
         <v>5</v>
       </c>
-      <c r="N7" s="91"/>
-      <c r="O7" s="91"/>
-      <c r="P7" s="91"/>
-      <c r="Q7" s="91"/>
-      <c r="R7" s="91"/>
-      <c r="S7" s="91"/>
-      <c r="T7" s="92">
+      <c r="N7" s="90"/>
+      <c r="O7" s="90"/>
+      <c r="P7" s="90"/>
+      <c r="Q7" s="90"/>
+      <c r="R7" s="90"/>
+      <c r="S7" s="90"/>
+      <c r="T7" s="91">
         <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" s="101">
+        <v>16</v>
+      </c>
+      <c r="B8" s="68">
+        <v>43905.625</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="66">
+        <v>3</v>
+      </c>
+      <c r="E8" s="66">
+        <v>4</v>
+      </c>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66">
+        <v>5</v>
+      </c>
+      <c r="N8" s="66"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="66"/>
+      <c r="R8" s="66"/>
+      <c r="S8" s="66"/>
+      <c r="T8" s="69">
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.2">

--- a/data/cases-de.xlsx
+++ b/data/cases-de.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/torben/Hacken/GitHub/COVID-19-Coronavirus-German-Regions/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7885F6D-FA85-7848-A3E4-2EB21B18D3FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FB263A-4EFA-C54B-9750-65BB25D4E1D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14300" activeTab="4" xr2:uid="{309167EE-B9E7-9F44-B3F3-07C1908B9528}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14300" xr2:uid="{309167EE-B9E7-9F44-B3F3-07C1908B9528}"/>
   </bookViews>
   <sheets>
     <sheet name="Links" sheetId="10" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="109">
   <si>
     <t>Baden-Württemberg</t>
   </si>
@@ -206,9 +206,6 @@
   </si>
   <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t>DE Total</t>
   </si>
   <si>
     <t>Delta (%)</t>
@@ -364,9 +361,6 @@
     <t>DE</t>
   </si>
   <si>
-    <t>Deutschland Total</t>
-  </si>
-  <si>
     <t>per pop</t>
   </si>
   <si>
@@ -432,7 +426,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -639,7 +633,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -873,6 +867,9 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2448,7 +2445,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10381222222222222"/>
+          <c:y val="8.9037669376693773E-2"/>
+          <c:w val="0.67038305555555555"/>
+          <c:h val="0.82974037940379408"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -2461,7 +2468,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DE Total</c:v>
+                  <c:v>Deutschland</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5420,7 +5427,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -5486,7 +5493,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Fälle</a:t>
+                  <a:t>Anzahl offiziell gemeldeter Infektionen</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -6326,7 +6333,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Fälle DE absolut vs. pro 1 Mill Einwohner, 15.03.2020</c:v>
+              <c:v>Infektionen gesamt und pro 1 Millionen Einwohner, 15.03.2020</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -6940,13 +6947,24 @@
               <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="accent1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -6954,12 +6972,13 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB">
+                  <a:rPr lang="en-GB" b="0">
                     <a:solidFill>
                       <a:schemeClr val="accent1"/>
                     </a:solidFill>
+                    <a:effectLst/>
                   </a:rPr>
-                  <a:t>Fälle</a:t>
+                  <a:t>Anzahl offiziell gemeldeter Infektionen</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -6976,13 +6995,24 @@
             <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -7057,7 +7087,7 @@
                       <a:schemeClr val="accent2"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>Fälle pro 1 Mill Einwohner</a:t>
+                  <a:t>Infektionen pro 1 Millionen Einwohner</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -9033,7 +9063,7 @@
     <tableColumn id="17" xr3:uid="{0DBAA36D-F571-034F-AEDF-5DD8569A9F97}" name="Sachsen-_x000a_Anhalt"/>
     <tableColumn id="18" xr3:uid="{32E1BDAD-8FF4-A948-A678-3A7C7BAA73DF}" name="Schleswig-_x000a_Holstein"/>
     <tableColumn id="19" xr3:uid="{EF74120E-C4F2-C545-B056-A59EEF12E00E}" name="Thüringen"/>
-    <tableColumn id="21" xr3:uid="{FF602C9D-05D0-E246-81AB-1676E61777BC}" name="DE Total" dataDxfId="25"/>
+    <tableColumn id="21" xr3:uid="{FF602C9D-05D0-E246-81AB-1676E61777BC}" name="Deutschland" dataDxfId="25"/>
     <tableColumn id="42" xr3:uid="{1C774CC4-9E60-FC4A-945C-79AC482211CE}" name="Delta" dataDxfId="24">
       <calculatedColumnFormula>IF(ISNUMBER(T1),T2-T1,"")</calculatedColumnFormula>
     </tableColumn>
@@ -9160,7 +9190,7 @@
 ((Cases!S2-Cases!S1)/Cases!S1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{8590B984-B71C-8D4E-AB2B-CC37C841189C}" name="DE Total" dataDxfId="0">
+    <tableColumn id="20" xr3:uid="{8590B984-B71C-8D4E-AB2B-CC37C841189C}" name="Deutschland" dataDxfId="0">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!T1),Cases!T1&gt;min_number),
 ((Cases!T2-Cases!T1)/Cases!T1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
@@ -9469,26 +9499,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05B1DF0-9508-684D-9C94-CA87D158EEEF}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="29.1640625" style="40" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="125.33203125" style="40" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="10.83203125" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="65" t="s">
-        <v>54</v>
-      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="7" t="s">
         <v>24</v>
       </c>
@@ -9496,7 +9524,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="7" t="s">
         <v>26</v>
       </c>
@@ -9504,17 +9532,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="41" t="s">
         <v>29</v>
@@ -9540,47 +9568,47 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2">
         <f>last_DE_Total</f>
         <v>4838</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3">
         <v>1000000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="20">
         <f xml:space="preserve"> LOG(B3/B2,2)</f>
         <v>7.6913735153442495</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="47">
         <f>B4*E2</f>
@@ -9600,7 +9628,7 @@
       <selection activeCell="J4" sqref="J4:M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
@@ -9611,7 +9639,7 @@
     <col min="10" max="10" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="F1" s="4">
         <v>43904.625</v>
       </c>
@@ -9622,7 +9650,7 @@
         <v>43905.625</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="134" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="134">
       <c r="A2" s="4">
         <v>43902.625</v>
       </c>
@@ -9630,13 +9658,13 @@
         <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F2" s="88" t="s">
         <v>18</v>
@@ -9645,10 +9673,10 @@
         <v>19</v>
       </c>
       <c r="H2" s="88" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I2" s="88" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J2" s="88" t="s">
         <v>18</v>
@@ -9657,22 +9685,22 @@
         <v>19</v>
       </c>
       <c r="L2" s="88" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M2" s="88" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="89"/>
@@ -9680,7 +9708,7 @@
       <c r="H3" s="89"/>
       <c r="I3" s="89"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -9688,10 +9716,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="89">
@@ -9719,7 +9747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -9727,10 +9755,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="89">
@@ -9758,7 +9786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -9787,7 +9815,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -9816,7 +9844,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -9845,7 +9873,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -9874,7 +9902,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -9903,7 +9931,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
@@ -9932,7 +9960,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -9961,7 +9989,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
@@ -9969,13 +9997,13 @@
         <v>9</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F13" s="89">
         <v>1154</v>
@@ -10002,7 +10030,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
@@ -10031,7 +10059,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
@@ -10060,7 +10088,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
@@ -10089,7 +10117,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
@@ -10118,7 +10146,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
@@ -10147,7 +10175,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
@@ -10176,7 +10204,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20" s="3" t="s">
         <v>16</v>
       </c>
@@ -10184,10 +10212,10 @@
         <v>16</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="89">
@@ -10229,7 +10257,7 @@
       <selection pane="topRight" activeCell="AJ1" sqref="AJ1:AM19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="27.83203125" style="3" customWidth="1"/>
     <col min="2" max="9" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
@@ -10252,7 +10280,7 @@
     <col min="37" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39">
       <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
@@ -10314,7 +10342,7 @@
         <v>43905.625</v>
       </c>
     </row>
-    <row r="2" spans="1:39" s="2" customFormat="1" ht="134" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:39" s="2" customFormat="1" ht="134">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -10391,10 +10419,10 @@
         <v>19</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AB2" s="2" t="s">
         <v>18</v>
@@ -10403,10 +10431,10 @@
         <v>19</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF2" s="88" t="s">
         <v>18</v>
@@ -10415,10 +10443,10 @@
         <v>19</v>
       </c>
       <c r="AH2" s="88" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI2" s="88" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AJ2" s="88" t="s">
         <v>18</v>
@@ -10427,13 +10455,13 @@
         <v>19</v>
       </c>
       <c r="AL2" s="88" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AM2" s="88" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:39">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -10531,7 +10559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:39">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -10623,7 +10651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:39">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -10692,7 +10720,7 @@
       </c>
       <c r="AM5"/>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:39">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -10758,7 +10786,7 @@
       </c>
       <c r="AM6"/>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:39">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -10830,7 +10858,7 @@
       </c>
       <c r="AM7"/>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:39">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -10902,7 +10930,7 @@
       </c>
       <c r="AM8"/>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:39">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -10977,7 +11005,7 @@
       </c>
       <c r="AM9"/>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:39">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -11040,7 +11068,7 @@
       </c>
       <c r="AM10"/>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:39">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -11112,7 +11140,7 @@
       </c>
       <c r="AM11"/>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:39">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -11231,7 +11259,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:39">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -11309,7 +11337,7 @@
       </c>
       <c r="AM13"/>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:39">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
@@ -11372,7 +11400,7 @@
       </c>
       <c r="AM14"/>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:39">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
@@ -11435,7 +11463,7 @@
       </c>
       <c r="AM15"/>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:39">
       <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
@@ -11480,7 +11508,7 @@
       </c>
       <c r="AM16"/>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:39">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
@@ -11555,7 +11583,7 @@
       </c>
       <c r="AM17"/>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:39">
       <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
@@ -11621,7 +11649,7 @@
       </c>
       <c r="AM18"/>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:39">
       <c r="A19" s="3" t="s">
         <v>16</v>
       </c>
@@ -11721,7 +11749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:39">
       <c r="A23" s="7"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -11740,7 +11768,7 @@
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:39">
       <c r="A24" s="7"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -11759,7 +11787,7 @@
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
     </row>
-    <row r="44" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="18:18">
       <c r="R44" s="6"/>
     </row>
   </sheetData>
@@ -11775,14 +11803,14 @@
       <selection activeCell="A37" sqref="A37:T37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="21" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="8" customFormat="1" ht="142" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="8" customFormat="1" ht="142">
       <c r="A1" s="15" t="s">
         <v>23</v>
       </c>
@@ -11844,7 +11872,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20">
       <c r="A2">
         <v>0</v>
       </c>
@@ -11884,7 +11912,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20">
       <c r="A3">
         <v>1</v>
       </c>
@@ -11926,7 +11954,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20">
       <c r="A4">
         <v>2</v>
       </c>
@@ -11974,7 +12002,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20">
       <c r="A5">
         <v>3</v>
       </c>
@@ -12024,7 +12052,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20">
       <c r="A6">
         <v>4</v>
       </c>
@@ -12080,7 +12108,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20">
       <c r="A7">
         <v>5</v>
       </c>
@@ -12140,7 +12168,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20">
       <c r="A8">
         <v>6</v>
       </c>
@@ -12200,7 +12228,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20">
       <c r="A9">
         <v>7</v>
       </c>
@@ -12260,7 +12288,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20">
       <c r="A10">
         <v>7</v>
       </c>
@@ -12290,7 +12318,7 @@
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20">
       <c r="A11">
         <v>8</v>
       </c>
@@ -12350,7 +12378,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20">
       <c r="A12">
         <v>8</v>
       </c>
@@ -12380,7 +12408,7 @@
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20">
       <c r="A13">
         <v>9</v>
       </c>
@@ -12440,7 +12468,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20">
       <c r="A14">
         <v>9</v>
       </c>
@@ -12470,7 +12498,7 @@
       <c r="S14" s="10"/>
       <c r="T14" s="10"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20">
       <c r="A15">
         <v>10</v>
       </c>
@@ -12530,7 +12558,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20">
       <c r="A16">
         <v>10</v>
       </c>
@@ -12562,7 +12590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20">
       <c r="A17">
         <v>10</v>
       </c>
@@ -12592,7 +12620,7 @@
       <c r="S17" s="12"/>
       <c r="T17" s="12"/>
     </row>
-    <row r="18" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" s="21" customFormat="1">
       <c r="A18" s="21">
         <v>11</v>
       </c>
@@ -12654,7 +12682,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20">
       <c r="A19">
         <v>11</v>
       </c>
@@ -12687,7 +12715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20">
       <c r="A20">
         <v>11</v>
       </c>
@@ -12717,7 +12745,7 @@
       <c r="S20" s="10"/>
       <c r="T20" s="10"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20">
       <c r="A21">
         <v>12</v>
       </c>
@@ -12779,7 +12807,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20">
       <c r="A22">
         <v>12</v>
       </c>
@@ -12811,7 +12839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20">
       <c r="A23">
         <v>12</v>
       </c>
@@ -12841,7 +12869,7 @@
       <c r="S23" s="14"/>
       <c r="T23" s="14"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20">
       <c r="A24">
         <v>13</v>
       </c>
@@ -12903,7 +12931,7 @@
         <v>2369</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20">
       <c r="A25">
         <v>13</v>
       </c>
@@ -12939,7 +12967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20">
       <c r="A26">
         <v>13</v>
       </c>
@@ -12947,7 +12975,7 @@
         <v>43902.625</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D26" s="18">
         <v>331</v>
@@ -13001,7 +13029,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20">
       <c r="A27">
         <v>13</v>
       </c>
@@ -13009,7 +13037,7 @@
         <v>43902.625</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D27" s="18">
         <v>1</v>
@@ -13035,7 +13063,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20">
       <c r="A28">
         <v>14</v>
       </c>
@@ -13097,7 +13125,7 @@
         <v>3062</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20">
       <c r="A29">
         <v>14</v>
       </c>
@@ -13133,7 +13161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20">
       <c r="A30">
         <v>14</v>
       </c>
@@ -13141,7 +13169,7 @@
         <v>43903.625</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D30" s="3">
         <v>401</v>
@@ -13195,7 +13223,7 @@
         <v>2576</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20">
       <c r="A31">
         <v>14</v>
       </c>
@@ -13203,7 +13231,7 @@
         <v>43903.625</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
@@ -13229,7 +13257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20">
       <c r="A32">
         <v>15</v>
       </c>
@@ -13291,7 +13319,7 @@
         <v>3795</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20">
       <c r="A33">
         <v>15</v>
       </c>
@@ -13327,7 +13355,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20">
       <c r="A34">
         <v>15</v>
       </c>
@@ -13335,7 +13363,7 @@
         <v>43904.625</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D34" s="89">
         <v>506</v>
@@ -13389,7 +13417,7 @@
         <v>3421</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20">
       <c r="A35">
         <v>15</v>
       </c>
@@ -13397,7 +13425,7 @@
         <v>43904.625</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D35" s="89">
         <v>2</v>
@@ -13425,7 +13453,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20">
       <c r="A36">
         <v>16</v>
       </c>
@@ -13487,7 +13515,7 @@
         <v>4838</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20">
       <c r="A37">
         <v>16</v>
       </c>
@@ -13510,7 +13538,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20">
       <c r="A38">
         <v>16</v>
       </c>
@@ -13518,7 +13546,7 @@
         <v>43905.625</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D38">
         <v>524</v>
@@ -13572,7 +13600,7 @@
         <v>4195</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20">
       <c r="A39">
         <v>16</v>
       </c>
@@ -13580,7 +13608,7 @@
         <v>43905.625</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -13607,12 +13635,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{233E67D7-4FF2-D745-A107-DDC4CB6E1273}">
   <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T18" sqref="T18"/>
+    <sheetView topLeftCell="G1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.6640625" style="74" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.83203125" style="21" bestFit="1" customWidth="1"/>
@@ -13630,15 +13658,15 @@
     <col min="26" max="26" width="120.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="37" customFormat="1" ht="106" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" s="37" customFormat="1" ht="105">
       <c r="A1" s="96" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="38" t="s">
         <v>38</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D1" s="44" t="s">
         <v>30</v>
@@ -13688,21 +13716,21 @@
       <c r="S1" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="70" t="s">
-        <v>39</v>
+      <c r="T1" s="108" t="s">
+        <v>48</v>
       </c>
       <c r="U1" s="48" t="s">
         <v>37</v>
       </c>
       <c r="V1" s="45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W1" s="100" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="X1" s="46"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26">
       <c r="A2" s="74">
         <v>0</v>
       </c>
@@ -13741,10 +13769,10 @@
         <v/>
       </c>
       <c r="Y2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26">
       <c r="A3" s="74">
         <v>1</v>
       </c>
@@ -13788,13 +13816,13 @@
         <v>62.996052494743658</v>
       </c>
       <c r="Y3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Z3" s="73">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26">
       <c r="A4" s="74">
         <v>2</v>
       </c>
@@ -13847,13 +13875,13 @@
         <v>79.37005259840997</v>
       </c>
       <c r="Y4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Z4" s="73">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26">
       <c r="A5" s="74">
         <v>3</v>
       </c>
@@ -13909,7 +13937,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26">
       <c r="A6" s="74">
         <v>4</v>
       </c>
@@ -13974,13 +14002,13 @@
         <v>125.9921049894873</v>
       </c>
       <c r="Y6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26">
       <c r="A7" s="74">
         <v>5</v>
       </c>
@@ -14051,7 +14079,7 @@
         <v>158.74010519681994</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26">
       <c r="A8" s="74">
         <v>6</v>
       </c>
@@ -14122,7 +14150,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26">
       <c r="A9" s="74">
         <v>7</v>
       </c>
@@ -14194,7 +14222,7 @@
         <v>251.9842099789746</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26">
       <c r="A10" s="74">
         <v>8</v>
       </c>
@@ -14265,7 +14293,7 @@
         <v>317.48021039363988</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26">
       <c r="A11" s="74">
         <v>9</v>
       </c>
@@ -14336,7 +14364,7 @@
         <v>399.99999999999989</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26">
       <c r="A12" s="74">
         <v>10</v>
       </c>
@@ -14407,7 +14435,7 @@
         <v>503.96841995794927</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26">
       <c r="A13" s="74">
         <v>11</v>
       </c>
@@ -14481,7 +14509,7 @@
         <v>634.96042078727965</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26">
       <c r="A14" s="74">
         <v>12</v>
       </c>
@@ -14555,7 +14583,7 @@
         <v>799.99999999999989</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26">
       <c r="A15" s="97">
         <v>13</v>
       </c>
@@ -14630,7 +14658,7 @@
       </c>
       <c r="X15" s="56"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26">
       <c r="A16" s="97">
         <v>14</v>
       </c>
@@ -14707,7 +14735,7 @@
       </c>
       <c r="X16" s="56"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23">
       <c r="A17" s="97">
         <v>15</v>
       </c>
@@ -14783,7 +14811,7 @@
         <v>1599.9999999999993</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23">
       <c r="A18" s="97">
         <v>16</v>
       </c>
@@ -14874,10 +14902,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomLeft" activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.6640625" style="81" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" style="33" bestFit="1" customWidth="1"/>
@@ -14896,9 +14924,9 @@
     <col min="23" max="16384" width="10.83203125" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="39" customFormat="1" ht="79" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" s="39" customFormat="1" ht="79">
       <c r="A1" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="38" t="s">
         <v>38</v>
@@ -14952,13 +14980,13 @@
         <v>15</v>
       </c>
       <c r="S1" s="37" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="U1" s="39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22">
       <c r="A2" s="42">
         <f>Cases!A2</f>
         <v>0</v>
@@ -15073,10 +15101,10 @@
         <v>10</v>
       </c>
       <c r="V2" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22">
       <c r="A3" s="43">
         <f>Cases!A3</f>
         <v>1</v>
@@ -15188,7 +15216,7 @@
         <v>0.24528301886792453</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22">
       <c r="A4" s="43">
         <f>Cases!A4</f>
         <v>2</v>
@@ -15300,7 +15328,7 @@
         <v>0.78996865203603195</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22">
       <c r="A5" s="43">
         <f>Cases!A5</f>
         <v>3</v>
@@ -15412,7 +15440,7 @@
         <v>0.21705426356589147</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22">
       <c r="A6" s="43">
         <f>Cases!A6</f>
         <v>4</v>
@@ -15524,7 +15552,7 @@
         <v>0.24840764331210191</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22">
       <c r="A7" s="43">
         <f>Cases!A7</f>
         <v>5</v>
@@ -15636,7 +15664,7 @@
         <v>0.33673469387755101</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22">
       <c r="A8" s="43">
         <f>Cases!A8</f>
         <v>6</v>
@@ -15748,7 +15776,7 @@
         <v>0.52671755725190839</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22">
       <c r="A9" s="43">
         <f>Cases!A9</f>
         <v>7</v>
@@ -15860,7 +15888,7 @@
         <v>0.59750000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22">
       <c r="A10" s="43">
         <f>Cases!A10</f>
         <v>8</v>
@@ -15972,7 +16000,7 @@
         <v>0.24413145539906103</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22">
       <c r="A11" s="43">
         <f>Cases!A11</f>
         <v>9</v>
@@ -16084,7 +16112,7 @@
         <v>0.13459119496855346</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22">
       <c r="A12" s="43">
         <f>Cases!A12</f>
         <v>10</v>
@@ -16196,7 +16224,7 @@
         <v>0.26274944567627495</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22">
       <c r="A13" s="43">
         <f>Cases!A13</f>
         <v>11</v>
@@ -16308,7 +16336,7 @@
         <v>0.13784021071115013</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22">
       <c r="A14" s="43">
         <f>Cases!A14</f>
         <v>12</v>
@@ -16420,7 +16448,7 @@
         <v>0.20910493827160495</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22">
       <c r="A15" s="57">
         <f>Cases!A15</f>
         <v>13</v>
@@ -16532,7 +16560,7 @@
         <v>0.51180599872367583</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22">
       <c r="A16" s="42">
         <f>Cases!A16</f>
         <v>14</v>
@@ -16644,7 +16672,7 @@
         <v>0.29252849303503586</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19">
       <c r="A17" s="57">
         <f>Cases!A17</f>
         <v>15</v>
@@ -16756,7 +16784,7 @@
         <v>0.23938602220770738</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19">
       <c r="A18" s="57">
         <f>Cases!A18</f>
         <v>16</v>
@@ -16890,9 +16918,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C283F65E-4645-8A47-BFE2-5D2317004015}">
   <dimension ref="A1:W21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="24.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" style="79" bestFit="1" customWidth="1"/>
@@ -16906,9 +16936,9 @@
     <col min="20" max="20" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B1" s="83"/>
       <c r="C1" s="21"/>
@@ -16926,25 +16956,25 @@
       <c r="V1" s="19"/>
       <c r="W1" s="20"/>
     </row>
-    <row r="2" spans="1:23" ht="19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" ht="19">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D2" s="47">
         <v>1000000</v>
       </c>
       <c r="H2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I2" s="87" t="str">
-        <f>"Fälle DE absolut vs. pro 1 Mill Einwohner, "&amp;TEXT(C3,"TT.MM.JJJJ")</f>
-        <v>Fälle DE absolut vs. pro 1 Mill Einwohner, 15.03.2020</v>
+        <f>"Infektionen gesamt und pro 1 Millionen Einwohner, "&amp;TEXT(C3,"TT.MM.JJJJ")</f>
+        <v>Infektionen gesamt und pro 1 Millionen Einwohner, 15.03.2020</v>
       </c>
       <c r="U2" s="47"/>
       <c r="V2" s="19"/>
       <c r="W2" s="20"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23">
       <c r="C3" s="86">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!B2:B9997)),Cases!B2:B9997)</f>
         <v>43905.625</v>
@@ -16953,31 +16983,31 @@
       <c r="V3" s="19"/>
       <c r="W3" s="20"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="84"/>
       <c r="C4" s="85" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="106" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E4" s="85" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T4" s="72"/>
       <c r="U4" s="47"/>
       <c r="V4" s="19"/>
       <c r="W4" s="20"/>
     </row>
-    <row r="5" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" ht="34">
       <c r="A5" s="82" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="79" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" s="74">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!D2:D9997)),Cases!D2:D9997)</f>
@@ -16992,12 +17022,12 @@
         <v>58.275675988205137</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="79" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" s="74">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!E2:E9997)),Cases!E2:E9997)</f>
@@ -17012,12 +17042,12 @@
         <v>58.275675988205137</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="79" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" s="74">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!F2:F9997)),Cases!F2:F9997)</f>
@@ -17032,12 +17062,12 @@
         <v>58.275675988205137</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="79" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8" s="74">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!G2:G9997)),Cases!G2:G9997)</f>
@@ -17052,12 +17082,12 @@
         <v>58.275675988205137</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="79" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C9" s="74">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!H2:H9997)),Cases!H2:H9997)</f>
@@ -17072,12 +17102,12 @@
         <v>58.275675988205137</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="79" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" s="74">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!I2:I9997)),Cases!I2:I9997)</f>
@@ -17092,12 +17122,12 @@
         <v>58.275675988205137</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="79" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11" s="74">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!J2:J9997)),Cases!J2:J9997)</f>
@@ -17112,12 +17142,12 @@
         <v>58.275675988205137</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="34">
       <c r="A12" s="82" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="79" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12" s="74">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!K2:K9997)),Cases!K2:K9997)</f>
@@ -17132,12 +17162,12 @@
         <v>58.275675988205137</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="79" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" s="74">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!L2:L9997)),Cases!L2:L9997)</f>
@@ -17152,12 +17182,12 @@
         <v>58.275675988205137</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="34">
       <c r="A14" s="82" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="79" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" s="74">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!M2:M9997)),Cases!M2:M9997)</f>
@@ -17172,12 +17202,12 @@
         <v>58.275675988205137</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" ht="34">
       <c r="A15" s="82" t="s">
         <v>35</v>
       </c>
       <c r="B15" s="79" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C15" s="74">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!N2:N9997)),Cases!N2:N9997)</f>
@@ -17192,12 +17222,12 @@
         <v>58.275675988205137</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="79" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16" s="74">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!O2:O9997)),Cases!O2:O9997)</f>
@@ -17219,12 +17249,12 @@
       <c r="K16" s="79"/>
       <c r="L16" s="80"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="79" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17" s="74">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!P2:P9997)),Cases!P2:P9997)</f>
@@ -17239,12 +17269,12 @@
         <v>58.275675988205137</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="34">
       <c r="A18" s="82" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="79" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C18" s="74">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!Q2:Q9997)),Cases!Q2:Q9997)</f>
@@ -17259,12 +17289,12 @@
         <v>58.275675988205137</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="34">
       <c r="A19" s="82" t="s">
         <v>33</v>
       </c>
       <c r="B19" s="79" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C19" s="74">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!R2:R9997)),Cases!R2:R9997)</f>
@@ -17279,12 +17309,12 @@
         <v>58.275675988205137</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="79" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C20" s="74">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!S2:S9997)),Cases!S2:S9997)</f>
@@ -17299,12 +17329,12 @@
         <v>58.275675988205137</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="B21" s="80" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C21" s="74">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!T2:T9997)),Cases!T2:T9997)</f>
@@ -17346,10 +17376,10 @@
   <dimension ref="A1:T45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.6640625" style="95" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" style="5" bestFit="1" customWidth="1"/>
@@ -17359,9 +17389,9 @@
     <col min="27" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="26" customFormat="1" ht="142" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="26" customFormat="1" ht="142">
       <c r="A1" s="92" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="50" t="s">
         <v>38</v>
@@ -17418,10 +17448,10 @@
         <v>15</v>
       </c>
       <c r="T1" s="50" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20">
       <c r="A2" s="93">
         <v>10</v>
       </c>
@@ -17453,7 +17483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20">
       <c r="A3" s="94">
         <v>11</v>
       </c>
@@ -17485,7 +17515,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20">
       <c r="A4" s="93">
         <v>12</v>
       </c>
@@ -17517,7 +17547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20">
       <c r="A5" s="94">
         <v>13</v>
       </c>
@@ -17553,7 +17583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20">
       <c r="A6" s="94">
         <v>14</v>
       </c>
@@ -17589,7 +17619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20">
       <c r="A7" s="94">
         <v>15</v>
       </c>
@@ -17625,7 +17655,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20">
       <c r="A8" s="101">
         <v>16</v>
       </c>
@@ -17661,7 +17691,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:19">
       <c r="B20" s="31"/>
       <c r="C20" s="31"/>
       <c r="D20" s="31"/>
@@ -17678,7 +17708,7 @@
       <c r="R20" s="31"/>
       <c r="S20" s="31"/>
     </row>
-    <row r="45" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="18:18">
       <c r="R45" s="32"/>
     </row>
   </sheetData>
@@ -17694,7 +17724,7 @@
       <selection activeCell="B4" sqref="B4:B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.5" bestFit="1" customWidth="1"/>
@@ -17706,36 +17736,36 @@
     <col min="8" max="8" width="92" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="C2" s="1"/>
       <c r="D2" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="C3" s="78">
         <v>43465</v>
       </c>
@@ -17744,15 +17774,15 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" s="65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -17767,15 +17797,15 @@
         <v>308</v>
       </c>
       <c r="G4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H4" s="65" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -17790,15 +17820,15 @@
         <v>184</v>
       </c>
       <c r="G5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H5" s="65" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -17814,9 +17844,9 @@
       </c>
       <c r="F6" s="77"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -17831,9 +17861,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -17849,9 +17879,9 @@
       </c>
       <c r="F8" s="77"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -17867,9 +17897,9 @@
       </c>
       <c r="F9" s="77"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -17884,9 +17914,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
@@ -17901,9 +17931,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -17918,9 +17948,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
@@ -17935,9 +17965,9 @@
         <v>525</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
@@ -17952,9 +17982,9 @@
         <v>205</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
@@ -17969,9 +17999,9 @@
         <v>387</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
@@ -17986,9 +18016,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -18003,9 +18033,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
@@ -18020,9 +18050,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
@@ -18037,12 +18067,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20">
         <v>83019200</v>
@@ -18054,23 +18084,23 @@
         <v>232</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="B21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21">
         <v>66823399.999999993</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="B22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22">
         <v>12551000</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="C30" s="77"/>
       <c r="D30" s="77"/>
       <c r="E30" s="77"/>
@@ -18078,7 +18108,7 @@
       <c r="G30" s="77"/>
       <c r="H30" s="77"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="C32" s="77"/>
       <c r="D32" s="77"/>
       <c r="E32" s="77"/>
@@ -18086,7 +18116,7 @@
       <c r="G32" s="77"/>
       <c r="H32" s="77"/>
     </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:8">
       <c r="C33" s="77"/>
       <c r="D33" s="77"/>
       <c r="E33" s="77"/>

--- a/data/cases-de.xlsx
+++ b/data/cases-de.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/torben/Hacken/GitHub/COVID-19-Coronavirus-German-Regions/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD880A9-B064-5C42-9BF5-906906FCFCB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76943376-EAFE-DE4B-B3DE-080D5A93A546}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14300" activeTab="1" xr2:uid="{309167EE-B9E7-9F44-B3F3-07C1908B9528}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14300" firstSheet="1" activeTab="5" xr2:uid="{309167EE-B9E7-9F44-B3F3-07C1908B9528}"/>
   </bookViews>
   <sheets>
     <sheet name="Links" sheetId="10" r:id="rId1"/>
@@ -937,598 +937,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="27" formatCode="dd/mm/yy\ hh:mm"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
         <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -2378,6 +1786,598 @@
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="27" formatCode="dd/mm/yy\ hh:mm"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2771,58 +2771,58 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="1">
-                  <c:v>0.98431332023036966</c:v>
+                  <c:v>70.437461195685259</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.240157071850156</c:v>
+                  <c:v>88.745640061597172</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5625000000000007</c:v>
+                  <c:v>111.81250000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9686266404607398</c:v>
+                  <c:v>140.87492239137055</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.4803141437003124</c:v>
+                  <c:v>177.49128012319437</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.125</c:v>
+                  <c:v>223.625</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9372532809214795</c:v>
+                  <c:v>281.74984478274109</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.960628287400624</c:v>
+                  <c:v>354.98256024638863</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.2500000000000018</c:v>
+                  <c:v>447.25000000000011</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.8745065618429591</c:v>
+                  <c:v>563.49968956548219</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.921256574801248</c:v>
+                  <c:v>709.96512049277726</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12.5</c:v>
+                  <c:v>894.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15.749013123685915</c:v>
+                  <c:v>1126.9993791309641</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19.842513149602496</c:v>
+                  <c:v>1419.9302409855545</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>25</c:v>
+                  <c:v>1789</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>31.498026247371829</c:v>
+                  <c:v>2253.9987582619283</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>39.685026299204992</c:v>
+                  <c:v>2839.860481971109</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>50</c:v>
+                  <c:v>3578</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5694,14 +5694,16 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="434019968"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="434019968"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -9235,36 +9237,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AA0B1023-8C4D-8145-A1A0-49CB122C06A4}" name="Table2" displayName="Table2" ref="A1:T45" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" tableBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AA0B1023-8C4D-8145-A1A0-49CB122C06A4}" name="Table2" displayName="Table2" ref="A1:T45" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51" tableBorderDxfId="50">
   <autoFilter ref="A1:T45" xr:uid="{1DA4B026-4C97-DF45-BDEF-EE080E06CCC8}"/>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{7B77E861-ABD7-CC46-BE1B-62FFA855918A}" name="Num" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{A9D891F0-4885-A946-9DA9-30886E848D1C}" name="Datum" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{6B048EE4-8426-2545-A3EF-71248E0D2493}" name="Typ" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{463A535E-E8DD-D048-8D23-5C03A237BD27}" name="Baden-Württemberg" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{C73439B1-ADFE-484D-9DAB-78AB3242649E}" name="Bayern" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{CDCD7B4C-FA1B-5D4B-84EC-1B93C9F2211E}" name="Berlin" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{4B381B0C-9038-7A45-87CA-C74BBBC89932}" name="Brandenburg" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{3367C2BC-28BE-3341-AE87-CDED4BFCEA07}" name="Bremen" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{2369A6E0-C0F1-C44F-8B78-5DB57E9AF79D}" name="Hamburg" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{884AB352-4A81-8D49-AA12-B8EAF3C487E0}" name="Hessen" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{AE5E62A0-1F89-2E45-8E7B-70BF95720068}" name="Mecklenburg-Vorpommern" dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{8D805E80-59CE-8347-98B4-6475F75C5C51}" name="Niedersachsen" dataDxfId="8"/>
-    <tableColumn id="13" xr3:uid="{BC5F0195-1635-C145-8EDE-A5C46EA4D710}" name="Nordrhein-Westfalen" dataDxfId="7"/>
-    <tableColumn id="14" xr3:uid="{4BEE7460-1D9B-C945-80A2-92C7F08C0F01}" name="Rheinland-Pfalz" dataDxfId="6"/>
-    <tableColumn id="15" xr3:uid="{D7B5CC10-CE40-3D47-926F-900D84B7F92A}" name="Saarland" dataDxfId="5"/>
-    <tableColumn id="16" xr3:uid="{EB9CA25E-2271-3D42-8A65-F7C41B54CEA5}" name="Sachsen" dataDxfId="4"/>
-    <tableColumn id="17" xr3:uid="{4598E0DF-B360-1440-8958-D3461FAD3F74}" name="Sachsen-Anhalt" dataDxfId="3"/>
-    <tableColumn id="18" xr3:uid="{8B6E9527-F2CB-894B-B3E4-125132A86A5D}" name="Schleswig-Holstein" dataDxfId="2"/>
-    <tableColumn id="19" xr3:uid="{7D2272BD-A08B-574E-81AE-65E0FB33A9ED}" name="Thüringen" dataDxfId="1"/>
-    <tableColumn id="21" xr3:uid="{765949F0-761D-D24F-A85E-B329DA6357CA}" name="Gesamt" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{7B77E861-ABD7-CC46-BE1B-62FFA855918A}" name="Num" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{A9D891F0-4885-A946-9DA9-30886E848D1C}" name="Datum" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{6B048EE4-8426-2545-A3EF-71248E0D2493}" name="Typ" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{463A535E-E8DD-D048-8D23-5C03A237BD27}" name="Baden-Württemberg" dataDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{C73439B1-ADFE-484D-9DAB-78AB3242649E}" name="Bayern" dataDxfId="45"/>
+    <tableColumn id="6" xr3:uid="{CDCD7B4C-FA1B-5D4B-84EC-1B93C9F2211E}" name="Berlin" dataDxfId="44"/>
+    <tableColumn id="7" xr3:uid="{4B381B0C-9038-7A45-87CA-C74BBBC89932}" name="Brandenburg" dataDxfId="43"/>
+    <tableColumn id="8" xr3:uid="{3367C2BC-28BE-3341-AE87-CDED4BFCEA07}" name="Bremen" dataDxfId="42"/>
+    <tableColumn id="9" xr3:uid="{2369A6E0-C0F1-C44F-8B78-5DB57E9AF79D}" name="Hamburg" dataDxfId="41"/>
+    <tableColumn id="10" xr3:uid="{884AB352-4A81-8D49-AA12-B8EAF3C487E0}" name="Hessen" dataDxfId="40"/>
+    <tableColumn id="11" xr3:uid="{AE5E62A0-1F89-2E45-8E7B-70BF95720068}" name="Mecklenburg-Vorpommern" dataDxfId="39"/>
+    <tableColumn id="12" xr3:uid="{8D805E80-59CE-8347-98B4-6475F75C5C51}" name="Niedersachsen" dataDxfId="38"/>
+    <tableColumn id="13" xr3:uid="{BC5F0195-1635-C145-8EDE-A5C46EA4D710}" name="Nordrhein-Westfalen" dataDxfId="37"/>
+    <tableColumn id="14" xr3:uid="{4BEE7460-1D9B-C945-80A2-92C7F08C0F01}" name="Rheinland-Pfalz" dataDxfId="36"/>
+    <tableColumn id="15" xr3:uid="{D7B5CC10-CE40-3D47-926F-900D84B7F92A}" name="Saarland" dataDxfId="35"/>
+    <tableColumn id="16" xr3:uid="{EB9CA25E-2271-3D42-8A65-F7C41B54CEA5}" name="Sachsen" dataDxfId="34"/>
+    <tableColumn id="17" xr3:uid="{4598E0DF-B360-1440-8958-D3461FAD3F74}" name="Sachsen-Anhalt" dataDxfId="33"/>
+    <tableColumn id="18" xr3:uid="{8B6E9527-F2CB-894B-B3E4-125132A86A5D}" name="Schleswig-Holstein" dataDxfId="32"/>
+    <tableColumn id="19" xr3:uid="{7D2272BD-A08B-574E-81AE-65E0FB33A9ED}" name="Thüringen" dataDxfId="31"/>
+    <tableColumn id="21" xr3:uid="{765949F0-761D-D24F-A85E-B329DA6357CA}" name="Gesamt" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BC3E90BD-768C-894C-8066-F63C881D4ADC}" name="Table5" displayName="Table5" ref="A1:W20" totalsRowShown="0" headerRowDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BC3E90BD-768C-894C-8066-F63C881D4ADC}" name="Table5" displayName="Table5" ref="A1:W20" totalsRowShown="0" headerRowDxfId="29">
   <autoFilter ref="A1:W20" xr:uid="{6D4C76C7-14AA-DE49-9FD4-833E447F2FCD}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -9291,9 +9293,9 @@
     <filterColumn colId="22" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="23">
-    <tableColumn id="1" xr3:uid="{DFAB118E-A946-0146-85D1-FEC9DB7A54DB}" name="#" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{7862783A-26AD-6144-8E4F-7DF624F1CEF7}" name="Date" dataDxfId="50"/>
-    <tableColumn id="43" xr3:uid="{F84758D7-1AC4-B146-AFFB-CD4F577D02F4}" name="Type" dataDxfId="49"/>
+    <tableColumn id="1" xr3:uid="{DFAB118E-A946-0146-85D1-FEC9DB7A54DB}" name="#" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{7862783A-26AD-6144-8E4F-7DF624F1CEF7}" name="Date" dataDxfId="27"/>
+    <tableColumn id="43" xr3:uid="{F84758D7-1AC4-B146-AFFB-CD4F577D02F4}" name="Type" dataDxfId="26"/>
     <tableColumn id="4" xr3:uid="{43B6A399-F36C-6047-9E96-578E372A058B}" name="Baden-_x000a_Württemberg"/>
     <tableColumn id="5" xr3:uid="{580A352D-B4BB-8441-B739-8AFA1B5CB9BA}" name="Bayern"/>
     <tableColumn id="6" xr3:uid="{684FD89D-0B27-F841-B632-2CFD5BC231AC}" name="Berlin"/>
@@ -9310,8 +9312,8 @@
     <tableColumn id="17" xr3:uid="{0DBAA36D-F571-034F-AEDF-5DD8569A9F97}" name="Sachsen-_x000a_Anhalt"/>
     <tableColumn id="18" xr3:uid="{32E1BDAD-8FF4-A948-A678-3A7C7BAA73DF}" name="Schleswig-_x000a_Holstein"/>
     <tableColumn id="19" xr3:uid="{EF74120E-C4F2-C545-B056-A59EEF12E00E}" name="Thüringen"/>
-    <tableColumn id="21" xr3:uid="{FF602C9D-05D0-E246-81AB-1676E61777BC}" name="Deutschland" dataDxfId="48"/>
-    <tableColumn id="42" xr3:uid="{1C774CC4-9E60-FC4A-945C-79AC482211CE}" name="Delta" dataDxfId="47">
+    <tableColumn id="21" xr3:uid="{FF602C9D-05D0-E246-81AB-1676E61777BC}" name="Deutschland" dataDxfId="25"/>
+    <tableColumn id="42" xr3:uid="{1C774CC4-9E60-FC4A-945C-79AC482211CE}" name="Delta" dataDxfId="24">
       <calculatedColumnFormula>IF(ISNUMBER(T1),T2-T1,"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="22" xr3:uid="{08AED83D-6D60-7848-A8C4-A04BA0C871FA}" name="Delta (%)" dataCellStyle="Per cent">
@@ -9319,7 +9321,7 @@
 ((T2-T1)/T1)/(B2-B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{1AB816A2-C2FA-174A-A500-F77513DDE31E}" name="Model: Verdoppung_x000a_alle 3 Tage" dataDxfId="46" dataCellStyle="Per cent">
+    <tableColumn id="3" xr3:uid="{1AB816A2-C2FA-174A-A500-F77513DDE31E}" name="Model: Verdoppung_x000a_alle 3 Tage" dataDxfId="23" dataCellStyle="Per cent">
       <calculatedColumnFormula>guide_start*EXP(Table5[[#This Row],['#]]*(LN(2)/guide_doubling))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9328,8 +9330,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{2B4CB1FE-2F78-654B-9A83-851BD72419FA}" name="Table7" displayName="Table7" ref="A1:S19" totalsRowShown="0" headerRowDxfId="45" dataDxfId="43" headerRowBorderDxfId="44" tableBorderDxfId="42">
-  <autoFilter ref="A1:S19" xr:uid="{5EC7B395-6250-0C4B-BF9E-DB8BEACEA0C0}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{2B4CB1FE-2F78-654B-9A83-851BD72419FA}" name="Table7" displayName="Table7" ref="A1:S20" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19">
+  <autoFilter ref="A1:S20" xr:uid="{5EC7B395-6250-0C4B-BF9E-DB8BEACEA0C0}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -9351,93 +9353,93 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{E6C8C471-F764-504D-8B4A-7552654EBAEC}" name="#" dataDxfId="41">
+    <tableColumn id="1" xr3:uid="{E6C8C471-F764-504D-8B4A-7552654EBAEC}" name="#" dataDxfId="18">
       <calculatedColumnFormula>Cases!A2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{F08A6D07-D47C-0B4B-BF63-BCF903E95EB5}" name="Date" dataDxfId="40">
+    <tableColumn id="2" xr3:uid="{F08A6D07-D47C-0B4B-BF63-BCF903E95EB5}" name="Date" dataDxfId="17">
       <calculatedColumnFormula>Cases!B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B6051F7E-D460-9A42-9D63-3975F8A75ACA}" name="Baden-_x000a_Württemberg" dataDxfId="39">
+    <tableColumn id="3" xr3:uid="{B6051F7E-D460-9A42-9D63-3975F8A75ACA}" name="Baden-_x000a_Württemberg" dataDxfId="16">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!D1),Cases!D1&gt;min_number),
 ((Cases!D2-Cases!D1)/Cases!D1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{10A737B8-2568-5841-8D5F-D47C446EE26C}" name="Bayern" dataDxfId="38">
+    <tableColumn id="4" xr3:uid="{10A737B8-2568-5841-8D5F-D47C446EE26C}" name="Bayern" dataDxfId="15">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!E1),Cases!E1&gt;min_number),
 ((Cases!E2-Cases!E1)/Cases!E1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{BCD2105D-8D71-454C-A02E-6424E3BA36AA}" name="Berlin" dataDxfId="37">
+    <tableColumn id="5" xr3:uid="{BCD2105D-8D71-454C-A02E-6424E3BA36AA}" name="Berlin" dataDxfId="14">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!F1),Cases!F1&gt;min_number),
 ((Cases!F2-Cases!F1)/Cases!F1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{53C79366-40AF-DC47-8F16-1C907EA8A25D}" name="Brandenburg" dataDxfId="36">
+    <tableColumn id="6" xr3:uid="{53C79366-40AF-DC47-8F16-1C907EA8A25D}" name="Brandenburg" dataDxfId="13">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!G1),Cases!G1&gt;min_number),
 ((Cases!G2-Cases!G1)/Cases!G1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{4AFFEB9A-9EF4-B04F-99AF-1421CC3F79F1}" name="Bremen" dataDxfId="35">
+    <tableColumn id="7" xr3:uid="{4AFFEB9A-9EF4-B04F-99AF-1421CC3F79F1}" name="Bremen" dataDxfId="12">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!H1),Cases!H1&gt;min_number),
 ((Cases!H2-Cases!H1)/Cases!H1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{C2100E3B-69C7-1749-9A4D-28C483AE2AD3}" name="Hamburg" dataDxfId="34">
+    <tableColumn id="8" xr3:uid="{C2100E3B-69C7-1749-9A4D-28C483AE2AD3}" name="Hamburg" dataDxfId="11">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!I1),Cases!I1&gt;min_number),
 ((Cases!I2-Cases!I1)/Cases!I1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{F062E681-CDB1-C140-B909-EA794C5F18A9}" name="Hessen" dataDxfId="33">
+    <tableColumn id="9" xr3:uid="{F062E681-CDB1-C140-B909-EA794C5F18A9}" name="Hessen" dataDxfId="10">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!J1),Cases!J1&gt;min_number),
 ((Cases!J2-Cases!J1)/Cases!J1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{E031E4B1-3E62-C345-B766-887BCDAAC02D}" name="Mecklenburg-_x000a_Vorpommern" dataDxfId="32">
+    <tableColumn id="10" xr3:uid="{E031E4B1-3E62-C345-B766-887BCDAAC02D}" name="Mecklenburg-_x000a_Vorpommern" dataDxfId="9">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!K1),Cases!K1&gt;min_number),
 ((Cases!K2-Cases!K1)/Cases!K1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{06616FA7-B824-034F-8561-0575963B7953}" name="Niedersachsen" dataDxfId="31">
+    <tableColumn id="11" xr3:uid="{06616FA7-B824-034F-8561-0575963B7953}" name="Niedersachsen" dataDxfId="8">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!L1),Cases!L1&gt;min_number),
 ((Cases!L2-Cases!L1)/Cases!L1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{A7D554C7-337E-5A4F-B3A4-DD9485FF1D61}" name="Nordrhein-_x000a_Westfalen" dataDxfId="30">
+    <tableColumn id="12" xr3:uid="{A7D554C7-337E-5A4F-B3A4-DD9485FF1D61}" name="Nordrhein-_x000a_Westfalen" dataDxfId="7">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!M1),Cases!M1&gt;min_number),
 ((Cases!M2-Cases!M1)/Cases!M1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{E7F4E0DB-41C5-F74B-B13C-082338064391}" name="Rheinland-_x000a_Pfalz" dataDxfId="29">
+    <tableColumn id="13" xr3:uid="{E7F4E0DB-41C5-F74B-B13C-082338064391}" name="Rheinland-_x000a_Pfalz" dataDxfId="6">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!N1),Cases!N1&gt;min_number),
 ((Cases!N2-Cases!N1)/Cases!N1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{F452CCA8-390B-D443-BCA6-EFE7E79127AA}" name="Saarland" dataDxfId="28">
+    <tableColumn id="14" xr3:uid="{F452CCA8-390B-D443-BCA6-EFE7E79127AA}" name="Saarland" dataDxfId="5">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!O1),Cases!O1&gt;min_number),
 ((Cases!O2-Cases!O1)/Cases!O1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{2BC6A12D-DFD6-A54D-9B25-30C67E2CACC1}" name="Sachsen" dataDxfId="27">
+    <tableColumn id="15" xr3:uid="{2BC6A12D-DFD6-A54D-9B25-30C67E2CACC1}" name="Sachsen" dataDxfId="4">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!P1),Cases!P1&gt;min_number),
 ((Cases!P2-Cases!P1)/Cases!P1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{F3454210-7502-7B43-87ED-828963C0BA58}" name="Sachsen-_x000a_Anhalt" dataDxfId="26">
+    <tableColumn id="16" xr3:uid="{F3454210-7502-7B43-87ED-828963C0BA58}" name="Sachsen-_x000a_Anhalt" dataDxfId="3">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!Q1),Cases!Q1&gt;min_number),
 ((Cases!Q2-Cases!Q1)/Cases!Q1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{3488A903-5F9F-FF4F-B253-A2C6BDED0D5C}" name="Schleswig-_x000a_Holstein" dataDxfId="25">
+    <tableColumn id="17" xr3:uid="{3488A903-5F9F-FF4F-B253-A2C6BDED0D5C}" name="Schleswig-_x000a_Holstein" dataDxfId="2">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!R1),Cases!R1&gt;min_number),
 ((Cases!R2-Cases!R1)/Cases!R1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{EBA9256A-1C44-B641-A90D-2900B16B2794}" name="Thüringen" dataDxfId="24">
+    <tableColumn id="18" xr3:uid="{EBA9256A-1C44-B641-A90D-2900B16B2794}" name="Thüringen" dataDxfId="1">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!S1),Cases!S1&gt;min_number),
 ((Cases!S2-Cases!S1)/Cases!S1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{8590B984-B71C-8D4E-AB2B-CC37C841189C}" name="Deutschland" dataDxfId="23">
+    <tableColumn id="20" xr3:uid="{8590B984-B71C-8D4E-AB2B-CC37C841189C}" name="Deutschland" dataDxfId="0">
       <calculatedColumnFormula>IF(AND(ISNUMBER(Cases!T1),Cases!T1&gt;min_number),
 ((Cases!T2-Cases!T1)/Cases!T1)/(Cases!$B2-Cases!$B1),
 "")</calculatedColumnFormula>
@@ -9871,7 +9873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA00A9F-6A15-E440-8C87-85055F8A0710}">
   <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
@@ -15031,8 +15033,8 @@
   <dimension ref="A1:Z20"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R21" sqref="R21"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -15210,13 +15212,14 @@
       </c>
       <c r="W3" s="90">
         <f>guide_start*EXP(Table5[[#This Row],['#]]*(LN(2)/guide_doubling))</f>
-        <v>0.98431332023036966</v>
+        <v>70.437461195685259</v>
       </c>
       <c r="Y3" t="s">
         <v>105</v>
       </c>
       <c r="Z3" s="65">
-        <v>50</v>
+        <f>last_DE_Total*0.5</f>
+        <v>3578</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -15270,7 +15273,7 @@
       </c>
       <c r="W4" s="90">
         <f>guide_start*EXP(Table5[[#This Row],['#]]*(LN(2)/guide_doubling))</f>
-        <v>1.240157071850156</v>
+        <v>88.745640061597172</v>
       </c>
       <c r="Y4" t="s">
         <v>106</v>
@@ -15333,7 +15336,7 @@
       </c>
       <c r="W5" s="90">
         <f>guide_start*EXP(Table5[[#This Row],['#]]*(LN(2)/guide_doubling))</f>
-        <v>1.5625000000000007</v>
+        <v>111.81250000000004</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -15399,7 +15402,7 @@
       </c>
       <c r="W6" s="90">
         <f>guide_start*EXP(Table5[[#This Row],['#]]*(LN(2)/guide_doubling))</f>
-        <v>1.9686266404607398</v>
+        <v>140.87492239137055</v>
       </c>
       <c r="Y6" t="s">
         <v>88</v>
@@ -15477,7 +15480,7 @@
       </c>
       <c r="W7" s="90">
         <f>guide_start*EXP(Table5[[#This Row],['#]]*(LN(2)/guide_doubling))</f>
-        <v>2.4803141437003124</v>
+        <v>177.49128012319437</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -15549,7 +15552,7 @@
       </c>
       <c r="W8" s="90">
         <f>guide_start*EXP(Table5[[#This Row],['#]]*(LN(2)/guide_doubling))</f>
-        <v>3.125</v>
+        <v>223.625</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -15622,7 +15625,7 @@
       </c>
       <c r="W9" s="90">
         <f>guide_start*EXP(Table5[[#This Row],['#]]*(LN(2)/guide_doubling))</f>
-        <v>3.9372532809214795</v>
+        <v>281.74984478274109</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -15694,7 +15697,7 @@
       </c>
       <c r="W10" s="90">
         <f>guide_start*EXP(Table5[[#This Row],['#]]*(LN(2)/guide_doubling))</f>
-        <v>4.960628287400624</v>
+        <v>354.98256024638863</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -15766,7 +15769,7 @@
       </c>
       <c r="W11" s="90">
         <f>guide_start*EXP(Table5[[#This Row],['#]]*(LN(2)/guide_doubling))</f>
-        <v>6.2500000000000018</v>
+        <v>447.25000000000011</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -15838,7 +15841,7 @@
       </c>
       <c r="W12" s="90">
         <f>guide_start*EXP(Table5[[#This Row],['#]]*(LN(2)/guide_doubling))</f>
-        <v>7.8745065618429591</v>
+        <v>563.49968956548219</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -15913,7 +15916,7 @@
       </c>
       <c r="W13" s="90">
         <f>guide_start*EXP(Table5[[#This Row],['#]]*(LN(2)/guide_doubling))</f>
-        <v>9.921256574801248</v>
+        <v>709.96512049277726</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -15988,7 +15991,7 @@
       </c>
       <c r="W14" s="90">
         <f>guide_start*EXP(Table5[[#This Row],['#]]*(LN(2)/guide_doubling))</f>
-        <v>12.5</v>
+        <v>894.5</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -16054,7 +16057,7 @@
         <v>2369</v>
       </c>
       <c r="U15" s="46">
-        <f>IF(ISNUMBER(T14),T15-T14,"")</f>
+        <f t="shared" ref="U15:U20" si="3">IF(ISNUMBER(T14),T15-T14,"")</f>
         <v>802</v>
       </c>
       <c r="V15" s="47">
@@ -16063,7 +16066,7 @@
       </c>
       <c r="W15" s="91">
         <f>guide_start*EXP(Table5[[#This Row],['#]]*(LN(2)/guide_doubling))</f>
-        <v>15.749013123685915</v>
+        <v>1126.9993791309641</v>
       </c>
       <c r="X15" s="48"/>
     </row>
@@ -16130,7 +16133,7 @@
         <v>3062</v>
       </c>
       <c r="U16" s="46">
-        <f>IF(ISNUMBER(T15),T16-T15,"")</f>
+        <f t="shared" si="3"/>
         <v>693</v>
       </c>
       <c r="V16" s="47">
@@ -16141,7 +16144,7 @@
       </c>
       <c r="W16" s="91">
         <f>guide_start*EXP(Table5[[#This Row],['#]]*(LN(2)/guide_doubling))</f>
-        <v>19.842513149602496</v>
+        <v>1419.9302409855545</v>
       </c>
       <c r="X16" s="48"/>
     </row>
@@ -16208,7 +16211,7 @@
         <v>3795</v>
       </c>
       <c r="U17" s="46">
-        <f>IF(ISNUMBER(T16),T17-T16,"")</f>
+        <f t="shared" si="3"/>
         <v>733</v>
       </c>
       <c r="V17" s="47">
@@ -16219,7 +16222,7 @@
       </c>
       <c r="W17" s="91">
         <f>guide_start*EXP(Table5[[#This Row],['#]]*(LN(2)/guide_doubling))</f>
-        <v>25</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -16285,7 +16288,7 @@
         <v>4838</v>
       </c>
       <c r="U18" s="46">
-        <f>IF(ISNUMBER(T17),T18-T17,"")</f>
+        <f t="shared" si="3"/>
         <v>1043</v>
       </c>
       <c r="V18" s="47">
@@ -16296,7 +16299,7 @@
       </c>
       <c r="W18" s="91">
         <f>guide_start*EXP(Table5[[#This Row],['#]]*(LN(2)/guide_doubling))</f>
-        <v>31.498026247371829</v>
+        <v>2253.9987582619283</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -16362,7 +16365,7 @@
         <v>6012</v>
       </c>
       <c r="U19" s="46">
-        <f>IF(ISNUMBER(T18),T19-T18,"")</f>
+        <f t="shared" si="3"/>
         <v>1174</v>
       </c>
       <c r="V19" s="47">
@@ -16373,7 +16376,7 @@
       </c>
       <c r="W19" s="91">
         <f>guide_start*EXP(Table5[[#This Row],['#]]*(LN(2)/guide_doubling))</f>
-        <v>39.685026299204992</v>
+        <v>2839.860481971109</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -16438,7 +16441,7 @@
         <v>7156</v>
       </c>
       <c r="U20" s="46">
-        <f>IF(ISNUMBER(T19),T20-T19,"")</f>
+        <f t="shared" si="3"/>
         <v>1144</v>
       </c>
       <c r="V20" s="47">
@@ -16449,7 +16452,7 @@
       </c>
       <c r="W20" s="91">
         <f>guide_start*EXP(Table5[[#This Row],['#]]*(LN(2)/guide_doubling))</f>
-        <v>50</v>
+        <v>3578</v>
       </c>
     </row>
   </sheetData>
@@ -16464,9 +16467,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D35575D0-0A0E-6E43-9D76-74E38D2BC332}">
-  <dimension ref="A1:V19"/>
+  <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="S2" sqref="S2"/>
     </sheetView>
@@ -18574,8 +18577,120 @@
         <v>0.24266225713104589</v>
       </c>
     </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="49">
+        <f>Cases!A20</f>
+        <v>0</v>
+      </c>
+      <c r="B20" s="50">
+        <f>Cases!B20</f>
+        <v>43907.625</v>
+      </c>
+      <c r="C20" s="51">
+        <f>IF(AND(ISNUMBER(Cases!D19),Cases!D19&gt;min_number),
+((Cases!D20-Cases!D19)/Cases!D19)/(Cases!$B20-Cases!$B19),
+"")</f>
+        <v>0.33846153846153848</v>
+      </c>
+      <c r="D20" s="51">
+        <f>IF(AND(ISNUMBER(Cases!E19),Cases!E19&gt;min_number),
+((Cases!E20-Cases!E19)/Cases!E19)/(Cases!$B20-Cases!$B19),
+"")</f>
+        <v>3.9362699156513588E-2</v>
+      </c>
+      <c r="E20" s="51">
+        <f>IF(AND(ISNUMBER(Cases!F19),Cases!F19&gt;min_number),
+((Cases!F20-Cases!F19)/Cases!F19)/(Cases!$B20-Cases!$B19),
+"")</f>
+        <v>0.15</v>
+      </c>
+      <c r="F20" s="51">
+        <f>IF(AND(ISNUMBER(Cases!G19),Cases!G19&gt;min_number),
+((Cases!G20-Cases!G19)/Cases!G19)/(Cases!$B20-Cases!$B19),
+"")</f>
+        <v>-0.22340425531914893</v>
+      </c>
+      <c r="G20" s="51">
+        <f>IF(AND(ISNUMBER(Cases!H19),Cases!H19&gt;min_number),
+((Cases!H20-Cases!H19)/Cases!H19)/(Cases!$B20-Cases!$B19),
+"")</f>
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="H20" s="51">
+        <f>IF(AND(ISNUMBER(Cases!I19),Cases!I19&gt;min_number),
+((Cases!I20-Cases!I19)/Cases!I19)/(Cases!$B20-Cases!$B19),
+"")</f>
+        <v>0.19230769230769232</v>
+      </c>
+      <c r="I20" s="51">
+        <f>IF(AND(ISNUMBER(Cases!J19),Cases!J19&gt;min_number),
+((Cases!J20-Cases!J19)/Cases!J19)/(Cases!$B20-Cases!$B19),
+"")</f>
+        <v>9.0643274853801165E-2</v>
+      </c>
+      <c r="J20" s="51">
+        <f>IF(AND(ISNUMBER(Cases!K19),Cases!K19&gt;min_number),
+((Cases!K20-Cases!K19)/Cases!K19)/(Cases!$B20-Cases!$B19),
+"")</f>
+        <v>-0.11764705882352941</v>
+      </c>
+      <c r="K20" s="51">
+        <f>IF(AND(ISNUMBER(Cases!L19),Cases!L19&gt;min_number),
+((Cases!L20-Cases!L19)/Cases!L19)/(Cases!$B20-Cases!$B19),
+"")</f>
+        <v>-0.16879795396419436</v>
+      </c>
+      <c r="L20" s="51">
+        <f>IF(AND(ISNUMBER(Cases!M19),Cases!M19&gt;min_number),
+((Cases!M20-Cases!M19)/Cases!M19)/(Cases!$B20-Cases!$B19),
+"")</f>
+        <v>0.36599610642439973</v>
+      </c>
+      <c r="M20" s="51">
+        <f>IF(AND(ISNUMBER(Cases!N19),Cases!N19&gt;min_number),
+((Cases!N20-Cases!N19)/Cases!N19)/(Cases!$B20-Cases!$B19),
+"")</f>
+        <v>0.36</v>
+      </c>
+      <c r="N20" s="51">
+        <f>IF(AND(ISNUMBER(Cases!O19),Cases!O19&gt;min_number),
+((Cases!O20-Cases!O19)/Cases!O19)/(Cases!$B20-Cases!$B19),
+"")</f>
+        <v>-0.11764705882352941</v>
+      </c>
+      <c r="O20" s="51">
+        <f>IF(AND(ISNUMBER(Cases!P19),Cases!P19&gt;min_number),
+((Cases!P20-Cases!P19)/Cases!P19)/(Cases!$B20-Cases!$B19),
+"")</f>
+        <v>0.3</v>
+      </c>
+      <c r="P20" s="51">
+        <f>IF(AND(ISNUMBER(Cases!Q19),Cases!Q19&gt;min_number),
+((Cases!Q20-Cases!Q19)/Cases!Q19)/(Cases!$B20-Cases!$B19),
+"")</f>
+        <v>-0.24675324675324675</v>
+      </c>
+      <c r="Q20" s="51">
+        <f>IF(AND(ISNUMBER(Cases!R19),Cases!R19&gt;min_number),
+((Cases!R20-Cases!R19)/Cases!R19)/(Cases!$B20-Cases!$B19),
+"")</f>
+        <v>3.2520325203252036E-2</v>
+      </c>
+      <c r="R20" s="51">
+        <f>IF(AND(ISNUMBER(Cases!S19),Cases!S19&gt;min_number),
+((Cases!S20-Cases!S19)/Cases!S19)/(Cases!$B20-Cases!$B19),
+"")</f>
+        <v>-7.2727272727272724E-2</v>
+      </c>
+      <c r="S20" s="52">
+        <f>IF(AND(ISNUMBER(Cases!T19),Cases!T19&gt;min_number),
+((Cases!T20-Cases!T19)/Cases!T19)/(Cases!$B20-Cases!$B19),
+"")</f>
+        <v>0.19028609447771125</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:S19">
+  <conditionalFormatting sqref="C2:S20">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -18597,7 +18712,7 @@
   <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/data/cases-de.xlsx
+++ b/data/cases-de.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/torben/Hacken/GitHub/COVID-19-Coronavirus-German-Regions/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76943376-EAFE-DE4B-B3DE-080D5A93A546}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFAE1481-E57F-4A45-9E72-6AE21A7A67B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14300" firstSheet="1" activeTab="5" xr2:uid="{309167EE-B9E7-9F44-B3F3-07C1908B9528}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14300" activeTab="9" xr2:uid="{309167EE-B9E7-9F44-B3F3-07C1908B9528}"/>
   </bookViews>
   <sheets>
     <sheet name="Links" sheetId="10" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="When will it be 1 Mill cases" sheetId="13" r:id="rId10"/>
   </sheets>
   <definedNames>
+    <definedName name="date_last_DE_Total">'Cases Rel'!$C$3</definedName>
     <definedName name="guide_doubling">Cases!$Z$4</definedName>
     <definedName name="guide_start">Cases!$Z$3</definedName>
     <definedName name="laast_BY">'Cases Rel'!$C$6</definedName>
@@ -126,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="111">
   <si>
     <t>Baden-Württemberg</t>
   </si>
@@ -686,7 +687,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -880,7 +881,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -918,6 +918,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2530,10 +2538,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Cases!$B$2:$B$20</c:f>
+              <c:f>Cases!$B$2:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy\ h:mm</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>43889.416666666664</c:v>
                 </c:pt>
@@ -2590,16 +2598,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>43907.625</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43908</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cases!$T$2:$T$20</c:f>
+              <c:f>Cases!$T$2:$T$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>53</c:v>
                 </c:pt>
@@ -2656,6 +2667,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>7156</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8198</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2700,10 +2714,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Cases!$B$2:$B$20</c:f>
+              <c:f>Cases!$B$2:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy\ h:mm</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>43889.416666666664</c:v>
                 </c:pt>
@@ -2760,69 +2774,75 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>43907.625</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43908</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cases!$W$2:$W$20</c:f>
+              <c:f>Cases!$W$2:$W$21</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="1">
-                  <c:v>70.437461195685259</c:v>
+                  <c:v>70.519246946248558</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>88.745640061597172</c:v>
+                  <c:v>93.230037444845763</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>111.81250000000004</c:v>
+                  <c:v>117.46248665924838</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>140.87492239137055</c:v>
+                  <c:v>147.99345951498276</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>177.49128012319437</c:v>
+                  <c:v>186.46007488969144</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>223.625</c:v>
+                  <c:v>234.9249733184968</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>281.74984478274109</c:v>
+                  <c:v>295.98691902996546</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>354.98256024638863</c:v>
+                  <c:v>372.92014977938294</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>447.25000000000011</c:v>
+                  <c:v>469.84994663699342</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>563.49968956548219</c:v>
+                  <c:v>591.97383805993093</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>709.96512049277726</c:v>
+                  <c:v>745.84029955876576</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>894.5</c:v>
+                  <c:v>939.69989327398685</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1126.9993791309641</c:v>
+                  <c:v>1183.9476761198616</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1419.9302409855545</c:v>
+                  <c:v>1491.6805991175318</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1789</c:v>
+                  <c:v>1879.3997865479737</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2253.9987582619283</c:v>
+                  <c:v>2367.8953522397237</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2839.860481971109</c:v>
+                  <c:v>2983.3611982350631</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3578</c:v>
+                  <c:v>3758.7995730959474</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2875,10 +2895,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Cases!$B$2:$B$20</c:f>
+              <c:f>Cases!$B$2:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy\ h:mm</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>43889.416666666664</c:v>
                 </c:pt>
@@ -2935,16 +2955,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>43907.625</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43908</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cases!$M$2:$M$20</c:f>
+              <c:f>Cases!$M$2:$M$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>25</c:v>
                 </c:pt>
@@ -3001,6 +3024,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>2105</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2372</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3052,10 +3078,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Cases!$B$2:$B$20</c:f>
+              <c:f>Cases!$B$2:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy\ h:mm</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>43889.416666666664</c:v>
                 </c:pt>
@@ -3112,16 +3138,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>43907.625</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43908</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cases!$E$2:$E$20</c:f>
+              <c:f>Cases!$E$2:$E$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>15</c:v>
                 </c:pt>
@@ -3178,6 +3207,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>1109</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1243</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3230,10 +3262,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Cases!$B$2:$B$20</c:f>
+              <c:f>Cases!$B$2:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy\ h:mm</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>43889.416666666664</c:v>
                 </c:pt>
@@ -3290,16 +3322,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>43907.625</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43908</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cases!$D$2:$D$20</c:f>
+              <c:f>Cases!$D$2:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -3356,6 +3391,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>1479</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1609</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3407,10 +3445,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Cases!$B$2:$B$20</c:f>
+              <c:f>Cases!$B$2:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy\ h:mm</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>43889.416666666664</c:v>
                 </c:pt>
@@ -3467,16 +3505,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>43907.625</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43908</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cases!$L$2:$L$20</c:f>
+              <c:f>Cases!$L$2:$L$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3527,6 +3568,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>478</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3584,10 +3628,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Cases!$B$2:$B$20</c:f>
+              <c:f>Cases!$B$2:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy\ h:mm</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>43889.416666666664</c:v>
                 </c:pt>
@@ -3644,16 +3688,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>43907.625</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43908</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cases!$F$2:$F$20</c:f>
+              <c:f>Cases!$F$2:$F$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3701,6 +3748,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>391</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3758,10 +3808,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Cases!$B$2:$B$20</c:f>
+              <c:f>Cases!$B$2:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy\ h:mm</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>43889.416666666664</c:v>
                 </c:pt>
@@ -3818,16 +3868,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>43907.625</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43908</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cases!$J$2:$J$20</c:f>
+              <c:f>Cases!$J$2:$J$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="1">
                   <c:v>3</c:v>
                 </c:pt>
@@ -3881,6 +3934,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>432</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3938,10 +3994,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Cases!$B$2:$B$20</c:f>
+              <c:f>Cases!$B$2:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy\ h:mm</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>43889.416666666664</c:v>
                 </c:pt>
@@ -3998,16 +4054,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>43907.625</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43908</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cases!$I$2:$I$20</c:f>
+              <c:f>Cases!$I$2:$I$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4058,6 +4117,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>358</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4119,10 +4181,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Cases!$B$2:$B$20</c:f>
+              <c:f>Cases!$B$2:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy\ h:mm</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>43889.416666666664</c:v>
                 </c:pt>
@@ -4179,16 +4241,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>43907.625</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43908</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cases!$N$2:$N$20</c:f>
+              <c:f>Cases!$N$2:$N$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -4245,6 +4310,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>442</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>474</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4296,10 +4364,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Cases!$B$2:$B$20</c:f>
+              <c:f>Cases!$B$2:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy\ h:mm</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>43889.416666666664</c:v>
                 </c:pt>
@@ -4356,16 +4424,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>43907.625</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43908</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cases!$P$2:$P$20</c:f>
+              <c:f>Cases!$P$2:$P$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4410,6 +4481,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>198</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4467,10 +4541,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Cases!$B$2:$B$20</c:f>
+              <c:f>Cases!$B$2:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy\ h:mm</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>43889.416666666664</c:v>
                 </c:pt>
@@ -4527,16 +4601,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>43907.625</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43908</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cases!$H$2:$H$20</c:f>
+              <c:f>Cases!$H$2:$H$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4587,6 +4664,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>69</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4648,10 +4728,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Cases!$B$2:$B$20</c:f>
+              <c:f>Cases!$B$2:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy\ h:mm</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>43889.416666666664</c:v>
                 </c:pt>
@@ -4708,16 +4788,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>43907.625</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43908</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cases!$R$2:$R$20</c:f>
+              <c:f>Cases!$R$2:$R$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4774,6 +4857,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>159</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4831,10 +4917,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Cases!$B$2:$B$20</c:f>
+              <c:f>Cases!$B$2:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy\ h:mm</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>43889.416666666664</c:v>
                 </c:pt>
@@ -4891,16 +4977,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>43907.625</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43908</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cases!$G$2:$G$20</c:f>
+              <c:f>Cases!$G$2:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4945,6 +5034,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5003,10 +5095,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Cases!$B$2:$B$20</c:f>
+              <c:f>Cases!$B$2:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy\ h:mm</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>43889.416666666664</c:v>
                 </c:pt>
@@ -5063,16 +5155,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>43907.625</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43908</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cases!$K$2:$K$20</c:f>
+              <c:f>Cases!$K$2:$K$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="5">
                   <c:v>4</c:v>
                 </c:pt>
@@ -5114,6 +5209,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5175,10 +5273,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Cases!$B$2:$B$20</c:f>
+              <c:f>Cases!$B$2:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy\ h:mm</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>43889.416666666664</c:v>
                 </c:pt>
@@ -5235,16 +5333,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>43907.625</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43908</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cases!$Q$2:$Q$20</c:f>
+              <c:f>Cases!$Q$2:$Q$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="11">
                   <c:v>7</c:v>
                 </c:pt>
@@ -5268,6 +5369,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5328,10 +5432,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Cases!$B$2:$B$20</c:f>
+              <c:f>Cases!$B$2:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy\ h:mm</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>43889.416666666664</c:v>
                 </c:pt>
@@ -5388,16 +5492,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>43907.625</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43908</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cases!$O$2:$O$20</c:f>
+              <c:f>Cases!$O$2:$O$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
@@ -5439,6 +5546,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5499,10 +5609,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Cases!$B$2:$B$20</c:f>
+              <c:f>Cases!$B$2:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy\ h:mm</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>43889.416666666664</c:v>
                 </c:pt>
@@ -5559,16 +5669,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>43907.625</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43908</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cases!$S$2:$S$20</c:f>
+              <c:f>Cases!$S$2:$S$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
@@ -5613,6 +5726,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6126,7 +6242,7 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="1">
-                  <c:v>17.03.20</c:v>
+                  <c:v>18.03.20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6582,7 +6698,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Infektionen gesamt und pro 1 Millionen Einwohner, 17.03.2020</c:v>
+              <c:v>Infektionen gesamt und pro 1 Millionen Einwohner, 18.03.2020</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -6716,52 +6832,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1479</c:v>
+                  <c:v>1609</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1109</c:v>
+                  <c:v>1243</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>345</c:v>
+                  <c:v>391</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>73</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>57</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>310</c:v>
+                  <c:v>358</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>373</c:v>
+                  <c:v>432</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>325</c:v>
+                  <c:v>478</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2105</c:v>
+                  <c:v>2372</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>442</c:v>
+                  <c:v>474</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>75</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>182</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>58</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>127</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>51</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6881,52 +6997,52 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>133.61037083879128</c:v>
+                  <c:v>145.35435204842133</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>84.807329066201717</c:v>
+                  <c:v>95.05456269548128</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>94.655399473222133</c:v>
+                  <c:v>107.27611940298507</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.061666467614156</c:v>
+                  <c:v>36.625661849595922</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>83.455344070278187</c:v>
+                  <c:v>101.02489019033675</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>168.36845535520314</c:v>
+                  <c:v>194.43840973278299</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>59.529509400236208</c:v>
+                  <c:v>68.945705257110021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27.955519662048829</c:v>
+                  <c:v>34.789091134994095</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40.714572058528766</c:v>
+                  <c:v>59.88173982762077</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>117.38332766398813</c:v>
+                  <c:v>132.27232932018046</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>108.2060321190756</c:v>
+                  <c:v>116.03995299647474</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>75.719333669863715</c:v>
+                  <c:v>88.844018172640077</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44.63081488020795</c:v>
+                  <c:v>48.554403001544912</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>26.264547389394554</c:v>
+                  <c:v>47.54788751528325</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43.842993751510342</c:v>
+                  <c:v>54.890047295197981</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>23.797302972329803</c:v>
+                  <c:v>34.529419999066768</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7048,52 +7164,52 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>86.196927939560965</c:v>
+                  <c:v>98.748241370670883</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>86.196927939560965</c:v>
+                  <c:v>98.748241370670883</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>86.196927939560965</c:v>
+                  <c:v>98.748241370670883</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>86.196927939560965</c:v>
+                  <c:v>98.748241370670883</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>86.196927939560965</c:v>
+                  <c:v>98.748241370670883</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>86.196927939560965</c:v>
+                  <c:v>98.748241370670883</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>86.196927939560965</c:v>
+                  <c:v>98.748241370670883</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>86.196927939560965</c:v>
+                  <c:v>98.748241370670883</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>86.196927939560965</c:v>
+                  <c:v>98.748241370670883</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>86.196927939560965</c:v>
+                  <c:v>98.748241370670883</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>86.196927939560965</c:v>
+                  <c:v>98.748241370670883</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>86.196927939560965</c:v>
+                  <c:v>98.748241370670883</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>86.196927939560965</c:v>
+                  <c:v>98.748241370670883</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>86.196927939560965</c:v>
+                  <c:v>98.748241370670883</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>86.196927939560965</c:v>
+                  <c:v>98.748241370670883</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>86.196927939560965</c:v>
+                  <c:v>98.748241370670883</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9237,8 +9353,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AA0B1023-8C4D-8145-A1A0-49CB122C06A4}" name="Table2" displayName="Table2" ref="A1:T45" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51" tableBorderDxfId="50">
-  <autoFilter ref="A1:T45" xr:uid="{1DA4B026-4C97-DF45-BDEF-EE080E06CCC8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AA0B1023-8C4D-8145-A1A0-49CB122C06A4}" name="Table2" displayName="Table2" ref="A1:T47" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51" tableBorderDxfId="50">
+  <autoFilter ref="A1:T47" xr:uid="{1DA4B026-4C97-DF45-BDEF-EE080E06CCC8}"/>
   <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{7B77E861-ABD7-CC46-BE1B-62FFA855918A}" name="Num" dataDxfId="49"/>
     <tableColumn id="2" xr3:uid="{A9D891F0-4885-A946-9DA9-30886E848D1C}" name="Datum" dataDxfId="48"/>
@@ -9266,8 +9382,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BC3E90BD-768C-894C-8066-F63C881D4ADC}" name="Table5" displayName="Table5" ref="A1:W20" totalsRowShown="0" headerRowDxfId="29">
-  <autoFilter ref="A1:W20" xr:uid="{6D4C76C7-14AA-DE49-9FD4-833E447F2FCD}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BC3E90BD-768C-894C-8066-F63C881D4ADC}" name="Table5" displayName="Table5" ref="A1:W21" totalsRowShown="0" headerRowDxfId="29">
+  <autoFilter ref="A1:W21" xr:uid="{6D4C76C7-14AA-DE49-9FD4-833E447F2FCD}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -9330,8 +9446,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{2B4CB1FE-2F78-654B-9A83-851BD72419FA}" name="Table7" displayName="Table7" ref="A1:S20" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19">
-  <autoFilter ref="A1:S20" xr:uid="{5EC7B395-6250-0C4B-BF9E-DB8BEACEA0C0}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{2B4CB1FE-2F78-654B-9A83-851BD72419FA}" name="Table7" displayName="Table7" ref="A1:S21" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19">
+  <autoFilter ref="A1:S21" xr:uid="{5EC7B395-6250-0C4B-BF9E-DB8BEACEA0C0}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -9748,7 +9864,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05B1DF0-9508-684D-9C94-CA87D158EEEF}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -9813,8 +9931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD699B48-9B9A-DD49-8864-472A6998CAC7}">
   <dimension ref="A2:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9829,7 +9947,7 @@
       </c>
       <c r="B2">
         <f>last_DE_Total</f>
-        <v>7156</v>
+        <v>8198</v>
       </c>
       <c r="D2" t="s">
         <v>58</v>
@@ -9852,7 +9970,7 @@
       </c>
       <c r="B4" s="15">
         <f xml:space="preserve"> LOG(B3/B2,2)</f>
-        <v>7.1266308972722658</v>
+        <v>6.9305122946893958</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9861,7 +9979,7 @@
       </c>
       <c r="B5" s="41">
         <f>B4*E2</f>
-        <v>21.379892691816799</v>
+        <v>20.791536884068186</v>
       </c>
     </row>
   </sheetData>
@@ -9873,7 +9991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA00A9F-6A15-E440-8C87-85055F8A0710}">
   <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
@@ -9887,7 +10005,7 @@
     <col min="6" max="6" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9904,11 +10022,14 @@
       <c r="N1" s="4">
         <v>43906.625</v>
       </c>
-      <c r="T1" s="4">
+      <c r="R1" s="4">
         <v>43907.625</v>
       </c>
-      <c r="U1" t="s">
+      <c r="S1" t="s">
         <v>109</v>
+      </c>
+      <c r="T1" s="108">
+        <v>43908</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="134">
@@ -9963,7 +10084,12 @@
       <c r="Q2" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="S2" s="1"/>
+      <c r="R2" s="80" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="80" t="s">
+        <v>19</v>
+      </c>
       <c r="T2" s="80" t="s">
         <v>18</v>
       </c>
@@ -9988,15 +10114,6 @@
       <c r="G3" s="81"/>
       <c r="H3" s="81"/>
       <c r="I3" s="81"/>
-      <c r="S3" t="s">
-        <v>0</v>
-      </c>
-      <c r="T3" s="69">
-        <v>1479</v>
-      </c>
-      <c r="U3">
-        <v>2</v>
-      </c>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="3" t="s">
@@ -10048,14 +10165,17 @@
       <c r="Q4">
         <v>3</v>
       </c>
-      <c r="S4" t="s">
-        <v>1</v>
-      </c>
-      <c r="T4" s="69">
-        <v>1109</v>
-      </c>
-      <c r="U4">
-        <v>4</v>
+      <c r="R4" s="69">
+        <v>1479</v>
+      </c>
+      <c r="S4">
+        <v>2</v>
+      </c>
+      <c r="T4" s="81">
+        <v>1609</v>
+      </c>
+      <c r="U4" s="81">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -10108,14 +10228,17 @@
       <c r="Q5">
         <v>4</v>
       </c>
-      <c r="S5" t="s">
-        <v>2</v>
-      </c>
-      <c r="T5">
-        <v>345</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
+      <c r="R5" s="69">
+        <v>1109</v>
+      </c>
+      <c r="S5">
+        <v>4</v>
+      </c>
+      <c r="T5" s="81">
+        <v>1243</v>
+      </c>
+      <c r="U5" s="81">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -10152,13 +10275,16 @@
       <c r="P6">
         <v>300</v>
       </c>
-      <c r="S6" t="s">
-        <v>3</v>
-      </c>
-      <c r="T6">
-        <v>73</v>
-      </c>
-      <c r="U6">
+      <c r="R6">
+        <v>345</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6" s="81">
+        <v>391</v>
+      </c>
+      <c r="U6" s="81">
         <v>0</v>
       </c>
     </row>
@@ -10196,13 +10322,16 @@
       <c r="P7">
         <v>65</v>
       </c>
-      <c r="S7" t="s">
-        <v>4</v>
-      </c>
-      <c r="T7">
-        <v>57</v>
-      </c>
-      <c r="U7">
+      <c r="R7">
+        <v>73</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7" s="81">
+        <v>92</v>
+      </c>
+      <c r="U7" s="81">
         <v>0</v>
       </c>
     </row>
@@ -10240,13 +10369,16 @@
       <c r="P8">
         <v>56</v>
       </c>
-      <c r="S8" t="s">
-        <v>5</v>
-      </c>
-      <c r="T8">
-        <v>310</v>
-      </c>
-      <c r="U8">
+      <c r="R8">
+        <v>57</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8" s="81">
+        <v>69</v>
+      </c>
+      <c r="U8" s="81">
         <v>0</v>
       </c>
     </row>
@@ -10284,13 +10416,16 @@
       <c r="P9">
         <v>255</v>
       </c>
-      <c r="S9" t="s">
-        <v>6</v>
-      </c>
-      <c r="T9">
-        <v>373</v>
-      </c>
-      <c r="U9">
+      <c r="R9">
+        <v>310</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9" s="81">
+        <v>358</v>
+      </c>
+      <c r="U9" s="81">
         <v>0</v>
       </c>
     </row>
@@ -10328,13 +10463,16 @@
       <c r="P10">
         <v>241</v>
       </c>
-      <c r="S10" t="s">
-        <v>7</v>
-      </c>
-      <c r="T10">
-        <v>45</v>
-      </c>
-      <c r="U10">
+      <c r="R10">
+        <v>373</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10" s="81">
+        <v>432</v>
+      </c>
+      <c r="U10" s="81">
         <v>0</v>
       </c>
     </row>
@@ -10372,13 +10510,16 @@
       <c r="P11">
         <v>36</v>
       </c>
-      <c r="S11" t="s">
-        <v>8</v>
-      </c>
-      <c r="T11">
-        <v>325</v>
-      </c>
-      <c r="U11">
+      <c r="R11">
+        <v>45</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11" s="81">
+        <v>56</v>
+      </c>
+      <c r="U11" s="81">
         <v>0</v>
       </c>
     </row>
@@ -10416,14 +10557,17 @@
       <c r="P12">
         <v>272</v>
       </c>
-      <c r="S12" t="s">
-        <v>9</v>
-      </c>
-      <c r="T12" s="69">
-        <v>2105</v>
-      </c>
-      <c r="U12">
-        <v>6</v>
+      <c r="R12">
+        <v>325</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12" s="81">
+        <v>478</v>
+      </c>
+      <c r="U12" s="81">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -10478,14 +10622,17 @@
       <c r="Q13">
         <v>5</v>
       </c>
-      <c r="S13" t="s">
-        <v>10</v>
-      </c>
-      <c r="T13">
-        <v>442</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
+      <c r="R13" s="69">
+        <v>2105</v>
+      </c>
+      <c r="S13">
+        <v>6</v>
+      </c>
+      <c r="T13" s="81">
+        <v>2372</v>
+      </c>
+      <c r="U13" s="81">
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -10522,13 +10669,16 @@
       <c r="P14">
         <v>325</v>
       </c>
-      <c r="S14" t="s">
-        <v>11</v>
-      </c>
-      <c r="T14">
-        <v>75</v>
-      </c>
-      <c r="U14">
+      <c r="R14">
+        <v>442</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14" s="81">
+        <v>474</v>
+      </c>
+      <c r="U14" s="81">
         <v>0</v>
       </c>
     </row>
@@ -10566,13 +10716,16 @@
       <c r="P15">
         <v>32</v>
       </c>
-      <c r="S15" t="s">
-        <v>12</v>
-      </c>
-      <c r="T15">
-        <v>182</v>
-      </c>
-      <c r="U15">
+      <c r="R15">
+        <v>75</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15" s="81">
+        <v>88</v>
+      </c>
+      <c r="U15" s="81">
         <v>0</v>
       </c>
     </row>
@@ -10610,13 +10763,16 @@
       <c r="P16">
         <v>103</v>
       </c>
-      <c r="S16" t="s">
-        <v>13</v>
-      </c>
-      <c r="T16">
-        <v>58</v>
-      </c>
-      <c r="U16">
+      <c r="R16">
+        <v>182</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16" s="81">
+        <v>198</v>
+      </c>
+      <c r="U16" s="81">
         <v>0</v>
       </c>
     </row>
@@ -10654,13 +10810,16 @@
       <c r="P17">
         <v>40</v>
       </c>
-      <c r="S17" t="s">
-        <v>14</v>
-      </c>
-      <c r="T17">
-        <v>127</v>
-      </c>
-      <c r="U17">
+      <c r="R17">
+        <v>58</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17" s="81">
+        <v>105</v>
+      </c>
+      <c r="U17" s="81">
         <v>0</v>
       </c>
     </row>
@@ -10698,13 +10857,16 @@
       <c r="P18">
         <v>104</v>
       </c>
-      <c r="S18" t="s">
-        <v>15</v>
-      </c>
-      <c r="T18">
-        <v>51</v>
-      </c>
-      <c r="U18">
+      <c r="R18">
+        <v>127</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18" s="81">
+        <v>159</v>
+      </c>
+      <c r="U18" s="81">
         <v>0</v>
       </c>
     </row>
@@ -10742,14 +10904,17 @@
       <c r="P19">
         <v>36</v>
       </c>
-      <c r="S19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="T19" s="108">
-        <v>7156</v>
-      </c>
-      <c r="U19" s="1">
-        <v>12</v>
+      <c r="R19">
+        <v>51</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19" s="81">
+        <v>74</v>
+      </c>
+      <c r="U19" s="81">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -10802,7 +10967,18 @@
       <c r="Q20">
         <v>12</v>
       </c>
-      <c r="T20" s="69"/>
+      <c r="R20" s="107">
+        <v>7156</v>
+      </c>
+      <c r="S20" s="1">
+        <v>12</v>
+      </c>
+      <c r="T20" s="81">
+        <v>8198</v>
+      </c>
+      <c r="U20" s="81">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10811,11 +10987,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27E71FF5-2B72-8B4C-A9D9-0EB9ABC7551A}">
-  <dimension ref="A1:AS44"/>
+  <dimension ref="A1:AU44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AF1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AR1" sqref="AR1"/>
+      <pane xSplit="1" topLeftCell="AI1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AT3" sqref="AT3:AU19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10845,7 +11021,7 @@
     <col min="45" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="4" customFormat="1">
+    <row r="1" spans="1:47" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
@@ -10909,8 +11085,11 @@
       <c r="AS1" s="4" t="s">
         <v>109</v>
       </c>
+      <c r="AT1" s="108">
+        <v>43908</v>
+      </c>
     </row>
-    <row r="2" spans="1:45" s="2" customFormat="1" ht="134">
+    <row r="2" spans="1:47" s="2" customFormat="1" ht="134">
       <c r="A2" s="80" t="s">
         <v>17</v>
       </c>
@@ -11046,8 +11225,14 @@
       <c r="AS2" s="80" t="s">
         <v>19</v>
       </c>
+      <c r="AT2" s="80" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU2" s="80" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:45">
+    <row r="3" spans="1:47">
       <c r="A3" s="81" t="s">
         <v>0</v>
       </c>
@@ -11169,8 +11354,14 @@
       <c r="AS3" s="81">
         <v>2</v>
       </c>
+      <c r="AT3" s="81">
+        <v>1609</v>
+      </c>
+      <c r="AU3" s="81">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:45">
+    <row r="4" spans="1:47">
       <c r="A4" s="81" t="s">
         <v>1</v>
       </c>
@@ -11288,8 +11479,14 @@
       <c r="AS4" s="81">
         <v>4</v>
       </c>
+      <c r="AT4" s="81">
+        <v>1243</v>
+      </c>
+      <c r="AU4" s="81">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:45">
+    <row r="5" spans="1:47">
       <c r="A5" s="81" t="s">
         <v>2</v>
       </c>
@@ -11385,8 +11582,14 @@
       <c r="AS5" s="81">
         <v>0</v>
       </c>
+      <c r="AT5" s="81">
+        <v>391</v>
+      </c>
+      <c r="AU5" s="81">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:45">
+    <row r="6" spans="1:47">
       <c r="A6" s="81" t="s">
         <v>3</v>
       </c>
@@ -11480,8 +11683,14 @@
       <c r="AS6" s="81">
         <v>0</v>
       </c>
+      <c r="AT6" s="81">
+        <v>92</v>
+      </c>
+      <c r="AU6" s="81">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:45">
+    <row r="7" spans="1:47">
       <c r="A7" s="81" t="s">
         <v>4</v>
       </c>
@@ -11579,8 +11788,14 @@
       <c r="AS7" s="81">
         <v>0</v>
       </c>
+      <c r="AT7" s="81">
+        <v>69</v>
+      </c>
+      <c r="AU7" s="81">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:45">
+    <row r="8" spans="1:47">
       <c r="A8" s="81" t="s">
         <v>5</v>
       </c>
@@ -11678,8 +11893,14 @@
       <c r="AS8" s="81">
         <v>0</v>
       </c>
+      <c r="AT8" s="81">
+        <v>358</v>
+      </c>
+      <c r="AU8" s="81">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:45">
+    <row r="9" spans="1:47">
       <c r="A9" s="81" t="s">
         <v>6</v>
       </c>
@@ -11779,8 +12000,14 @@
       <c r="AS9" s="81">
         <v>0</v>
       </c>
+      <c r="AT9" s="81">
+        <v>432</v>
+      </c>
+      <c r="AU9" s="81">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:45">
+    <row r="10" spans="1:47">
       <c r="A10" s="81" t="s">
         <v>7</v>
       </c>
@@ -11872,8 +12099,14 @@
       <c r="AS10" s="81">
         <v>0</v>
       </c>
+      <c r="AT10" s="81">
+        <v>56</v>
+      </c>
+      <c r="AU10" s="81">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:45">
+    <row r="11" spans="1:47">
       <c r="A11" s="81" t="s">
         <v>8</v>
       </c>
@@ -11971,8 +12204,14 @@
       <c r="AS11" s="81">
         <v>0</v>
       </c>
+      <c r="AT11" s="81">
+        <v>478</v>
+      </c>
+      <c r="AU11" s="81">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:45">
+    <row r="12" spans="1:47">
       <c r="A12" s="81" t="s">
         <v>9</v>
       </c>
@@ -12108,8 +12347,14 @@
       <c r="AS12" s="81">
         <v>6</v>
       </c>
+      <c r="AT12" s="81">
+        <v>2372</v>
+      </c>
+      <c r="AU12" s="81">
+        <v>6</v>
+      </c>
     </row>
-    <row r="13" spans="1:45">
+    <row r="13" spans="1:47">
       <c r="A13" s="81" t="s">
         <v>10</v>
       </c>
@@ -12211,8 +12456,14 @@
       <c r="AS13" s="81">
         <v>0</v>
       </c>
+      <c r="AT13" s="81">
+        <v>474</v>
+      </c>
+      <c r="AU13" s="81">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:45">
+    <row r="14" spans="1:47">
       <c r="A14" s="81" t="s">
         <v>11</v>
       </c>
@@ -12304,8 +12555,14 @@
       <c r="AS14" s="81">
         <v>0</v>
       </c>
+      <c r="AT14" s="81">
+        <v>88</v>
+      </c>
+      <c r="AU14" s="81">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:45">
+    <row r="15" spans="1:47">
       <c r="A15" s="81" t="s">
         <v>12</v>
       </c>
@@ -12397,8 +12654,14 @@
       <c r="AS15" s="81">
         <v>0</v>
       </c>
+      <c r="AT15" s="81">
+        <v>198</v>
+      </c>
+      <c r="AU15" s="81">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:45">
+    <row r="16" spans="1:47">
       <c r="A16" s="81" t="s">
         <v>13</v>
       </c>
@@ -12478,8 +12741,14 @@
       <c r="AS16" s="81">
         <v>0</v>
       </c>
+      <c r="AT16" s="81">
+        <v>105</v>
+      </c>
+      <c r="AU16" s="81">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:45">
+    <row r="17" spans="1:47">
       <c r="A17" s="81" t="s">
         <v>14</v>
       </c>
@@ -12579,8 +12848,14 @@
       <c r="AS17" s="81">
         <v>0</v>
       </c>
+      <c r="AT17" s="81">
+        <v>159</v>
+      </c>
+      <c r="AU17" s="81">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:45">
+    <row r="18" spans="1:47">
       <c r="A18" s="81" t="s">
         <v>15</v>
       </c>
@@ -12674,8 +12949,14 @@
       <c r="AS18" s="81">
         <v>0</v>
       </c>
+      <c r="AT18" s="81">
+        <v>74</v>
+      </c>
+      <c r="AU18" s="81">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:45">
+    <row r="19" spans="1:47">
       <c r="A19" s="81" t="s">
         <v>16</v>
       </c>
@@ -12799,8 +13080,14 @@
       <c r="AS19" s="81">
         <v>12</v>
       </c>
+      <c r="AT19" s="81">
+        <v>8198</v>
+      </c>
+      <c r="AU19" s="81">
+        <v>12</v>
+      </c>
     </row>
-    <row r="23" spans="1:45">
+    <row r="23" spans="1:47">
       <c r="A23" s="7"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -12819,7 +13106,7 @@
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
     </row>
-    <row r="24" spans="1:45">
+    <row r="24" spans="1:47">
       <c r="A24" s="7"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -12848,10 +13135,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F5B1F18-8A79-3242-815B-7FAFD236451B}">
-  <dimension ref="A1:T45"/>
+  <dimension ref="A1:T47"/>
   <sheetViews>
-    <sheetView topLeftCell="D31" zoomScale="125" workbookViewId="0">
-      <selection activeCell="T44" sqref="T44"/>
+    <sheetView topLeftCell="K30" zoomScale="125" workbookViewId="0">
+      <selection activeCell="T46" sqref="A46:T46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12930,36 +13217,36 @@
       <c r="B2" s="4">
         <v>43889.416666666664</v>
       </c>
-      <c r="C2" s="101" t="s">
+      <c r="C2" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="101">
+      <c r="D2" s="100">
         <v>10</v>
       </c>
-      <c r="E2" s="101">
+      <c r="E2" s="100">
         <v>15</v>
       </c>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101">
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100">
         <v>25</v>
       </c>
-      <c r="N2" s="101">
+      <c r="N2" s="100">
         <v>2</v>
       </c>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101">
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100">
         <v>1</v>
       </c>
-      <c r="S2" s="101"/>
-      <c r="T2" s="101">
+      <c r="S2" s="100"/>
+      <c r="T2" s="100">
         <v>53</v>
       </c>
     </row>
@@ -12970,38 +13257,38 @@
       <c r="B3" s="4">
         <v>43890.416666666664</v>
       </c>
-      <c r="C3" s="102" t="s">
+      <c r="C3" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="102">
+      <c r="D3" s="101">
         <v>14</v>
       </c>
-      <c r="E3" s="102">
+      <c r="E3" s="101">
         <v>15</v>
       </c>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102">
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101">
         <v>3</v>
       </c>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102">
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101">
         <v>30</v>
       </c>
-      <c r="N3" s="102">
+      <c r="N3" s="101">
         <v>1</v>
       </c>
-      <c r="O3" s="102"/>
-      <c r="P3" s="102"/>
-      <c r="Q3" s="102"/>
-      <c r="R3" s="102">
+      <c r="O3" s="101"/>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="101"/>
+      <c r="R3" s="101">
         <v>1</v>
       </c>
-      <c r="S3" s="102"/>
-      <c r="T3" s="102">
+      <c r="S3" s="101"/>
+      <c r="T3" s="101">
         <v>66</v>
       </c>
     </row>
@@ -13012,44 +13299,44 @@
       <c r="B4" s="4">
         <v>43891.625</v>
       </c>
-      <c r="C4" s="101" t="s">
+      <c r="C4" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="101">
+      <c r="D4" s="100">
         <v>15</v>
       </c>
-      <c r="E4" s="101">
+      <c r="E4" s="100">
         <v>23</v>
       </c>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101">
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100">
         <v>1</v>
       </c>
-      <c r="I4" s="101">
+      <c r="I4" s="100">
         <v>1</v>
       </c>
-      <c r="J4" s="101">
+      <c r="J4" s="100">
         <v>8</v>
       </c>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101">
+      <c r="K4" s="100"/>
+      <c r="L4" s="100">
         <v>1</v>
       </c>
-      <c r="M4" s="101">
+      <c r="M4" s="100">
         <v>74</v>
       </c>
-      <c r="N4" s="101">
+      <c r="N4" s="100">
         <v>2</v>
       </c>
-      <c r="O4" s="101"/>
-      <c r="P4" s="101"/>
-      <c r="Q4" s="101"/>
-      <c r="R4" s="101">
+      <c r="O4" s="100"/>
+      <c r="P4" s="100"/>
+      <c r="Q4" s="100"/>
+      <c r="R4" s="100">
         <v>2</v>
       </c>
-      <c r="S4" s="101"/>
-      <c r="T4" s="101">
+      <c r="S4" s="100"/>
+      <c r="T4" s="100">
         <v>129</v>
       </c>
     </row>
@@ -13060,46 +13347,46 @@
       <c r="B5" s="4">
         <v>43892.625</v>
       </c>
-      <c r="C5" s="102" t="s">
+      <c r="C5" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="102">
+      <c r="D5" s="101">
         <v>20</v>
       </c>
-      <c r="E5" s="102">
+      <c r="E5" s="101">
         <v>26</v>
       </c>
-      <c r="F5" s="102">
+      <c r="F5" s="101">
         <v>1</v>
       </c>
-      <c r="G5" s="102"/>
-      <c r="H5" s="102">
+      <c r="G5" s="101"/>
+      <c r="H5" s="101">
         <v>1</v>
       </c>
-      <c r="I5" s="102">
+      <c r="I5" s="101">
         <v>2</v>
       </c>
-      <c r="J5" s="102">
+      <c r="J5" s="101">
         <v>10</v>
       </c>
-      <c r="K5" s="102"/>
-      <c r="L5" s="102">
+      <c r="K5" s="101"/>
+      <c r="L5" s="101">
         <v>1</v>
       </c>
-      <c r="M5" s="102">
+      <c r="M5" s="101">
         <v>90</v>
       </c>
-      <c r="N5" s="102">
+      <c r="N5" s="101">
         <v>2</v>
       </c>
-      <c r="O5" s="102"/>
-      <c r="P5" s="102"/>
-      <c r="Q5" s="102"/>
-      <c r="R5" s="102">
+      <c r="O5" s="101"/>
+      <c r="P5" s="101"/>
+      <c r="Q5" s="101"/>
+      <c r="R5" s="101">
         <v>2</v>
       </c>
-      <c r="S5" s="102"/>
-      <c r="T5" s="102">
+      <c r="S5" s="101"/>
+      <c r="T5" s="101">
         <v>157</v>
       </c>
     </row>
@@ -13110,52 +13397,52 @@
       <c r="B6" s="4">
         <v>43893.625</v>
       </c>
-      <c r="C6" s="101" t="s">
+      <c r="C6" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="101">
+      <c r="D6" s="100">
         <v>28</v>
       </c>
-      <c r="E6" s="101">
+      <c r="E6" s="100">
         <v>37</v>
       </c>
-      <c r="F6" s="101">
+      <c r="F6" s="100">
         <v>3</v>
       </c>
-      <c r="G6" s="101">
+      <c r="G6" s="100">
         <v>1</v>
       </c>
-      <c r="H6" s="101">
+      <c r="H6" s="100">
         <v>2</v>
       </c>
-      <c r="I6" s="101">
+      <c r="I6" s="100">
         <v>2</v>
       </c>
-      <c r="J6" s="101">
+      <c r="J6" s="100">
         <v>12</v>
       </c>
-      <c r="K6" s="101"/>
-      <c r="L6" s="101">
+      <c r="K6" s="100"/>
+      <c r="L6" s="100">
         <v>2</v>
       </c>
-      <c r="M6" s="101">
+      <c r="M6" s="100">
         <v>103</v>
       </c>
-      <c r="N6" s="101">
+      <c r="N6" s="100">
         <v>2</v>
       </c>
-      <c r="O6" s="101"/>
-      <c r="P6" s="101">
+      <c r="O6" s="100"/>
+      <c r="P6" s="100">
         <v>1</v>
       </c>
-      <c r="Q6" s="101"/>
-      <c r="R6" s="101">
+      <c r="Q6" s="100"/>
+      <c r="R6" s="100">
         <v>2</v>
       </c>
-      <c r="S6" s="101">
+      <c r="S6" s="100">
         <v>1</v>
       </c>
-      <c r="T6" s="101">
+      <c r="T6" s="100">
         <v>196</v>
       </c>
     </row>
@@ -13166,56 +13453,56 @@
       <c r="B7" s="4">
         <v>43894.625</v>
       </c>
-      <c r="C7" s="102" t="s">
+      <c r="C7" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="102">
+      <c r="D7" s="101">
         <v>50</v>
       </c>
-      <c r="E7" s="102">
+      <c r="E7" s="101">
         <v>48</v>
       </c>
-      <c r="F7" s="102">
+      <c r="F7" s="101">
         <v>7</v>
       </c>
-      <c r="G7" s="102">
+      <c r="G7" s="101">
         <v>1</v>
       </c>
-      <c r="H7" s="102">
+      <c r="H7" s="101">
         <v>3</v>
       </c>
-      <c r="I7" s="102">
+      <c r="I7" s="101">
         <v>3</v>
       </c>
-      <c r="J7" s="102">
+      <c r="J7" s="101">
         <v>12</v>
       </c>
-      <c r="K7" s="102">
+      <c r="K7" s="101">
         <v>4</v>
       </c>
-      <c r="L7" s="102">
+      <c r="L7" s="101">
         <v>7</v>
       </c>
-      <c r="M7" s="102">
+      <c r="M7" s="101">
         <v>115</v>
       </c>
-      <c r="N7" s="102">
+      <c r="N7" s="101">
         <v>7</v>
       </c>
-      <c r="O7" s="102">
+      <c r="O7" s="101">
         <v>1</v>
       </c>
-      <c r="P7" s="102">
+      <c r="P7" s="101">
         <v>1</v>
       </c>
-      <c r="Q7" s="102"/>
-      <c r="R7" s="102">
+      <c r="Q7" s="101"/>
+      <c r="R7" s="101">
         <v>2</v>
       </c>
-      <c r="S7" s="102">
+      <c r="S7" s="101">
         <v>1</v>
       </c>
-      <c r="T7" s="102">
+      <c r="T7" s="101">
         <v>262</v>
       </c>
     </row>
@@ -13226,56 +13513,56 @@
       <c r="B8" s="4">
         <v>43895.625</v>
       </c>
-      <c r="C8" s="101" t="s">
+      <c r="C8" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="101">
+      <c r="D8" s="100">
         <v>73</v>
       </c>
-      <c r="E8" s="101">
+      <c r="E8" s="100">
         <v>70</v>
       </c>
-      <c r="F8" s="101">
+      <c r="F8" s="100">
         <v>13</v>
       </c>
-      <c r="G8" s="101">
+      <c r="G8" s="100">
         <v>1</v>
       </c>
-      <c r="H8" s="101">
+      <c r="H8" s="100">
         <v>3</v>
       </c>
-      <c r="I8" s="101">
+      <c r="I8" s="100">
         <v>5</v>
       </c>
-      <c r="J8" s="101">
+      <c r="J8" s="100">
         <v>14</v>
       </c>
-      <c r="K8" s="101">
+      <c r="K8" s="100">
         <v>4</v>
       </c>
-      <c r="L8" s="101">
+      <c r="L8" s="100">
         <v>18</v>
       </c>
-      <c r="M8" s="101">
+      <c r="M8" s="100">
         <v>181</v>
       </c>
-      <c r="N8" s="101">
+      <c r="N8" s="100">
         <v>8</v>
       </c>
-      <c r="O8" s="101">
+      <c r="O8" s="100">
         <v>1</v>
       </c>
-      <c r="P8" s="101">
+      <c r="P8" s="100">
         <v>1</v>
       </c>
-      <c r="Q8" s="101"/>
-      <c r="R8" s="101">
+      <c r="Q8" s="100"/>
+      <c r="R8" s="100">
         <v>7</v>
       </c>
-      <c r="S8" s="101">
+      <c r="S8" s="100">
         <v>1</v>
       </c>
-      <c r="T8" s="101">
+      <c r="T8" s="100">
         <v>400</v>
       </c>
     </row>
@@ -13286,7 +13573,7 @@
       <c r="B9" s="4">
         <v>43896.625</v>
       </c>
-      <c r="C9" s="102" t="s">
+      <c r="C9" s="101" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="81">
@@ -13346,28 +13633,28 @@
       <c r="B10" s="4">
         <v>43896.625</v>
       </c>
-      <c r="C10" s="101" t="s">
+      <c r="C10" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="101"/>
-      <c r="K10" s="101"/>
-      <c r="L10" s="101"/>
-      <c r="M10" s="101">
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="100"/>
+      <c r="M10" s="100">
         <v>1</v>
       </c>
-      <c r="N10" s="101"/>
-      <c r="O10" s="101"/>
-      <c r="P10" s="101"/>
-      <c r="Q10" s="101"/>
-      <c r="R10" s="101"/>
-      <c r="S10" s="101"/>
-      <c r="T10" s="101"/>
+      <c r="N10" s="100"/>
+      <c r="O10" s="100"/>
+      <c r="P10" s="100"/>
+      <c r="Q10" s="100"/>
+      <c r="R10" s="100"/>
+      <c r="S10" s="100"/>
+      <c r="T10" s="100"/>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="64">
@@ -13376,56 +13663,56 @@
       <c r="B11" s="4">
         <v>43897.625</v>
       </c>
-      <c r="C11" s="102" t="s">
+      <c r="C11" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="102">
+      <c r="D11" s="101">
         <v>170</v>
       </c>
-      <c r="E11" s="102">
+      <c r="E11" s="101">
         <v>134</v>
       </c>
-      <c r="F11" s="102">
+      <c r="F11" s="101">
         <v>28</v>
       </c>
-      <c r="G11" s="102">
+      <c r="G11" s="101">
         <v>2</v>
       </c>
-      <c r="H11" s="102">
+      <c r="H11" s="101">
         <v>4</v>
       </c>
-      <c r="I11" s="102">
+      <c r="I11" s="101">
         <v>13</v>
       </c>
-      <c r="J11" s="102">
+      <c r="J11" s="101">
         <v>17</v>
       </c>
-      <c r="K11" s="102">
+      <c r="K11" s="101">
         <v>5</v>
       </c>
-      <c r="L11" s="102">
+      <c r="L11" s="101">
         <v>19</v>
       </c>
-      <c r="M11" s="102">
+      <c r="M11" s="101">
         <v>373</v>
       </c>
-      <c r="N11" s="102">
+      <c r="N11" s="101">
         <v>13</v>
       </c>
-      <c r="O11" s="102">
+      <c r="O11" s="101">
         <v>3</v>
       </c>
-      <c r="P11" s="102">
+      <c r="P11" s="101">
         <v>4</v>
       </c>
-      <c r="Q11" s="102"/>
-      <c r="R11" s="102">
+      <c r="Q11" s="101"/>
+      <c r="R11" s="101">
         <v>8</v>
       </c>
-      <c r="S11" s="102">
+      <c r="S11" s="101">
         <v>2</v>
       </c>
-      <c r="T11" s="102">
+      <c r="T11" s="101">
         <v>795</v>
       </c>
     </row>
@@ -13436,28 +13723,28 @@
       <c r="B12" s="4">
         <v>43897.625</v>
       </c>
-      <c r="C12" s="101" t="s">
+      <c r="C12" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="101"/>
-      <c r="J12" s="101"/>
-      <c r="K12" s="101"/>
-      <c r="L12" s="101"/>
-      <c r="M12" s="101">
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="100"/>
+      <c r="M12" s="100">
         <v>1</v>
       </c>
-      <c r="N12" s="101"/>
-      <c r="O12" s="101"/>
-      <c r="P12" s="101"/>
-      <c r="Q12" s="101"/>
-      <c r="R12" s="101"/>
-      <c r="S12" s="101"/>
-      <c r="T12" s="101"/>
+      <c r="N12" s="100"/>
+      <c r="O12" s="100"/>
+      <c r="P12" s="100"/>
+      <c r="Q12" s="100"/>
+      <c r="R12" s="100"/>
+      <c r="S12" s="100"/>
+      <c r="T12" s="100"/>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="64">
@@ -13466,56 +13753,56 @@
       <c r="B13" s="4">
         <v>43898.625</v>
       </c>
-      <c r="C13" s="102" t="s">
+      <c r="C13" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="102">
+      <c r="D13" s="101">
         <v>182</v>
       </c>
-      <c r="E13" s="102">
+      <c r="E13" s="101">
         <v>172</v>
       </c>
-      <c r="F13" s="102">
+      <c r="F13" s="101">
         <v>40</v>
       </c>
-      <c r="G13" s="102">
+      <c r="G13" s="101">
         <v>4</v>
       </c>
-      <c r="H13" s="102">
+      <c r="H13" s="101">
         <v>4</v>
       </c>
-      <c r="I13" s="102">
+      <c r="I13" s="101">
         <v>13</v>
       </c>
-      <c r="J13" s="102">
+      <c r="J13" s="101">
         <v>19</v>
       </c>
-      <c r="K13" s="102">
+      <c r="K13" s="101">
         <v>8</v>
       </c>
-      <c r="L13" s="102">
+      <c r="L13" s="101">
         <v>21</v>
       </c>
-      <c r="M13" s="102">
+      <c r="M13" s="101">
         <v>398</v>
       </c>
-      <c r="N13" s="102">
+      <c r="N13" s="101">
         <v>19</v>
       </c>
-      <c r="O13" s="102">
+      <c r="O13" s="101">
         <v>4</v>
       </c>
-      <c r="P13" s="102">
+      <c r="P13" s="101">
         <v>7</v>
       </c>
-      <c r="Q13" s="102"/>
-      <c r="R13" s="102">
+      <c r="Q13" s="101"/>
+      <c r="R13" s="101">
         <v>9</v>
       </c>
-      <c r="S13" s="102">
+      <c r="S13" s="101">
         <v>2</v>
       </c>
-      <c r="T13" s="102">
+      <c r="T13" s="101">
         <v>902</v>
       </c>
     </row>
@@ -13526,28 +13813,28 @@
       <c r="B14" s="4">
         <v>43898.625</v>
       </c>
-      <c r="C14" s="101" t="s">
+      <c r="C14" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="101"/>
-      <c r="J14" s="101"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="101"/>
-      <c r="M14" s="101">
+      <c r="D14" s="100"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="100"/>
+      <c r="L14" s="100"/>
+      <c r="M14" s="100">
         <v>1</v>
       </c>
-      <c r="N14" s="101"/>
-      <c r="O14" s="101"/>
-      <c r="P14" s="101"/>
-      <c r="Q14" s="101"/>
-      <c r="R14" s="101"/>
-      <c r="S14" s="101"/>
-      <c r="T14" s="101"/>
+      <c r="N14" s="100"/>
+      <c r="O14" s="100"/>
+      <c r="P14" s="100"/>
+      <c r="Q14" s="100"/>
+      <c r="R14" s="100"/>
+      <c r="S14" s="100"/>
+      <c r="T14" s="100"/>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="64">
@@ -13556,56 +13843,56 @@
       <c r="B15" s="4">
         <v>43899.625</v>
       </c>
-      <c r="C15" s="102" t="s">
+      <c r="C15" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="102">
+      <c r="D15" s="101">
         <v>204</v>
       </c>
-      <c r="E15" s="102">
+      <c r="E15" s="101">
         <v>256</v>
       </c>
-      <c r="F15" s="102">
+      <c r="F15" s="101">
         <v>48</v>
       </c>
-      <c r="G15" s="102">
+      <c r="G15" s="101">
         <v>6</v>
       </c>
-      <c r="H15" s="102">
+      <c r="H15" s="101">
         <v>4</v>
       </c>
-      <c r="I15" s="102">
+      <c r="I15" s="101">
         <v>17</v>
       </c>
-      <c r="J15" s="102">
+      <c r="J15" s="101">
         <v>26</v>
       </c>
-      <c r="K15" s="102">
+      <c r="K15" s="101">
         <v>10</v>
       </c>
-      <c r="L15" s="102">
+      <c r="L15" s="101">
         <v>38</v>
       </c>
-      <c r="M15" s="102">
+      <c r="M15" s="101">
         <v>484</v>
       </c>
-      <c r="N15" s="102">
+      <c r="N15" s="101">
         <v>17</v>
       </c>
-      <c r="O15" s="102">
+      <c r="O15" s="101">
         <v>6</v>
       </c>
-      <c r="P15" s="102">
+      <c r="P15" s="101">
         <v>12</v>
       </c>
-      <c r="Q15" s="102"/>
-      <c r="R15" s="102">
+      <c r="Q15" s="101"/>
+      <c r="R15" s="101">
         <v>9</v>
       </c>
-      <c r="S15" s="102">
+      <c r="S15" s="101">
         <v>2</v>
       </c>
-      <c r="T15" s="102">
+      <c r="T15" s="101">
         <v>1139</v>
       </c>
     </row>
@@ -13616,28 +13903,28 @@
       <c r="B16" s="4">
         <v>43899.625</v>
       </c>
-      <c r="C16" s="101" t="s">
+      <c r="C16" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101">
+      <c r="D16" s="100"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="100"/>
+      <c r="K16" s="100"/>
+      <c r="L16" s="100"/>
+      <c r="M16" s="100">
         <v>2</v>
       </c>
-      <c r="N16" s="101"/>
-      <c r="O16" s="101"/>
-      <c r="P16" s="101"/>
-      <c r="Q16" s="101"/>
-      <c r="R16" s="101"/>
-      <c r="S16" s="101"/>
-      <c r="T16" s="101">
+      <c r="N16" s="100"/>
+      <c r="O16" s="100"/>
+      <c r="P16" s="100"/>
+      <c r="Q16" s="100"/>
+      <c r="R16" s="100"/>
+      <c r="S16" s="100"/>
+      <c r="T16" s="100">
         <v>2</v>
       </c>
     </row>
@@ -13648,88 +13935,88 @@
       <c r="B17" s="4">
         <v>43899.625</v>
       </c>
-      <c r="C17" s="102" t="s">
+      <c r="C17" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="102"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="102"/>
-      <c r="J17" s="102"/>
-      <c r="K17" s="102"/>
-      <c r="L17" s="102"/>
-      <c r="M17" s="102">
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="101"/>
+      <c r="J17" s="101"/>
+      <c r="K17" s="101"/>
+      <c r="L17" s="101"/>
+      <c r="M17" s="101">
         <v>1</v>
       </c>
-      <c r="N17" s="102"/>
-      <c r="O17" s="102"/>
-      <c r="P17" s="102"/>
-      <c r="Q17" s="102"/>
-      <c r="R17" s="102"/>
-      <c r="S17" s="102"/>
-      <c r="T17" s="102"/>
+      <c r="N17" s="101"/>
+      <c r="O17" s="101"/>
+      <c r="P17" s="101"/>
+      <c r="Q17" s="101"/>
+      <c r="R17" s="101"/>
+      <c r="S17" s="101"/>
+      <c r="T17" s="101"/>
     </row>
     <row r="18" spans="1:20" s="16" customFormat="1">
-      <c r="A18" s="103">
+      <c r="A18" s="102">
         <v>11</v>
       </c>
       <c r="B18" s="4">
         <v>43900.625</v>
       </c>
-      <c r="C18" s="104" t="s">
+      <c r="C18" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="104">
+      <c r="D18" s="103">
         <v>237</v>
       </c>
-      <c r="E18" s="104">
+      <c r="E18" s="103">
         <v>314</v>
       </c>
-      <c r="F18" s="104">
+      <c r="F18" s="103">
         <v>48</v>
       </c>
-      <c r="G18" s="104">
+      <c r="G18" s="103">
         <v>9</v>
       </c>
-      <c r="H18" s="104">
+      <c r="H18" s="103">
         <v>4</v>
       </c>
-      <c r="I18" s="104">
+      <c r="I18" s="103">
         <v>29</v>
       </c>
-      <c r="J18" s="104">
+      <c r="J18" s="103">
         <v>35</v>
       </c>
-      <c r="K18" s="104">
+      <c r="K18" s="103">
         <v>13</v>
       </c>
-      <c r="L18" s="104">
+      <c r="L18" s="103">
         <v>49</v>
       </c>
-      <c r="M18" s="104">
+      <c r="M18" s="103">
         <v>484</v>
       </c>
-      <c r="N18" s="104">
+      <c r="N18" s="103">
         <v>25</v>
       </c>
-      <c r="O18" s="104">
+      <c r="O18" s="103">
         <v>7</v>
       </c>
-      <c r="P18" s="104">
+      <c r="P18" s="103">
         <v>22</v>
       </c>
-      <c r="Q18" s="104">
+      <c r="Q18" s="103">
         <v>7</v>
       </c>
-      <c r="R18" s="104">
+      <c r="R18" s="103">
         <v>9</v>
       </c>
-      <c r="S18" s="104">
+      <c r="S18" s="103">
         <v>4</v>
       </c>
-      <c r="T18" s="103">
+      <c r="T18" s="102">
         <v>1296</v>
       </c>
     </row>
@@ -13740,28 +14027,28 @@
       <c r="B19" s="4">
         <v>43900.625</v>
       </c>
-      <c r="C19" s="102" t="s">
+      <c r="C19" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="102"/>
-      <c r="I19" s="102"/>
-      <c r="J19" s="102"/>
-      <c r="K19" s="102"/>
-      <c r="L19" s="102"/>
-      <c r="M19" s="102">
+      <c r="D19" s="101"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="101"/>
+      <c r="J19" s="101"/>
+      <c r="K19" s="101"/>
+      <c r="L19" s="101"/>
+      <c r="M19" s="101">
         <v>2</v>
       </c>
-      <c r="N19" s="102"/>
-      <c r="O19" s="102"/>
-      <c r="P19" s="102"/>
-      <c r="Q19" s="102"/>
-      <c r="R19" s="102"/>
-      <c r="S19" s="102"/>
-      <c r="T19" s="102">
+      <c r="N19" s="101"/>
+      <c r="O19" s="101"/>
+      <c r="P19" s="101"/>
+      <c r="Q19" s="101"/>
+      <c r="R19" s="101"/>
+      <c r="S19" s="101"/>
+      <c r="T19" s="101">
         <f>SUM(D19:S19)</f>
         <v>2</v>
       </c>
@@ -13773,28 +14060,28 @@
       <c r="B20" s="4">
         <v>43900.625</v>
       </c>
-      <c r="C20" s="101" t="s">
+      <c r="C20" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="101"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="101"/>
-      <c r="G20" s="101"/>
-      <c r="H20" s="101"/>
-      <c r="I20" s="101"/>
-      <c r="J20" s="101"/>
-      <c r="K20" s="101"/>
-      <c r="L20" s="101"/>
-      <c r="M20" s="101">
+      <c r="D20" s="100"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="100"/>
+      <c r="I20" s="100"/>
+      <c r="J20" s="100"/>
+      <c r="K20" s="100"/>
+      <c r="L20" s="100"/>
+      <c r="M20" s="100">
         <v>1</v>
       </c>
-      <c r="N20" s="101"/>
-      <c r="O20" s="101"/>
-      <c r="P20" s="101"/>
-      <c r="Q20" s="101"/>
-      <c r="R20" s="101"/>
-      <c r="S20" s="101"/>
-      <c r="T20" s="101"/>
+      <c r="N20" s="100"/>
+      <c r="O20" s="100"/>
+      <c r="P20" s="100"/>
+      <c r="Q20" s="100"/>
+      <c r="R20" s="100"/>
+      <c r="S20" s="100"/>
+      <c r="T20" s="100"/>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="64">
@@ -13803,58 +14090,58 @@
       <c r="B21" s="4">
         <v>43901.625</v>
       </c>
-      <c r="C21" s="102" t="s">
+      <c r="C21" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="102">
+      <c r="D21" s="101">
         <v>277</v>
       </c>
-      <c r="E21" s="102">
+      <c r="E21" s="101">
         <v>366</v>
       </c>
-      <c r="F21" s="102">
+      <c r="F21" s="101">
         <v>90</v>
       </c>
-      <c r="G21" s="102">
+      <c r="G21" s="101">
         <v>24</v>
       </c>
-      <c r="H21" s="102">
+      <c r="H21" s="101">
         <v>21</v>
       </c>
-      <c r="I21" s="102">
+      <c r="I21" s="101">
         <v>48</v>
       </c>
-      <c r="J21" s="102">
+      <c r="J21" s="101">
         <v>48</v>
       </c>
-      <c r="K21" s="102">
+      <c r="K21" s="101">
         <v>17</v>
       </c>
-      <c r="L21" s="102">
+      <c r="L21" s="101">
         <v>75</v>
       </c>
-      <c r="M21" s="102">
+      <c r="M21" s="101">
         <v>484</v>
       </c>
-      <c r="N21" s="102">
+      <c r="N21" s="101">
         <v>25</v>
       </c>
-      <c r="O21" s="102">
+      <c r="O21" s="101">
         <v>14</v>
       </c>
-      <c r="P21" s="102">
+      <c r="P21" s="101">
         <v>26</v>
       </c>
-      <c r="Q21" s="102">
+      <c r="Q21" s="101">
         <v>15</v>
       </c>
-      <c r="R21" s="102">
+      <c r="R21" s="101">
         <v>27</v>
       </c>
-      <c r="S21" s="102">
+      <c r="S21" s="101">
         <v>10</v>
       </c>
-      <c r="T21" s="102">
+      <c r="T21" s="101">
         <v>1567</v>
       </c>
     </row>
@@ -13865,28 +14152,28 @@
       <c r="B22" s="4">
         <v>43901.625</v>
       </c>
-      <c r="C22" s="101" t="s">
+      <c r="C22" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="101"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="101"/>
-      <c r="H22" s="101"/>
-      <c r="I22" s="101"/>
-      <c r="J22" s="101"/>
-      <c r="K22" s="101"/>
-      <c r="L22" s="101"/>
-      <c r="M22" s="101">
+      <c r="D22" s="100"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="100"/>
+      <c r="I22" s="100"/>
+      <c r="J22" s="100"/>
+      <c r="K22" s="100"/>
+      <c r="L22" s="100"/>
+      <c r="M22" s="100">
         <v>3</v>
       </c>
-      <c r="N22" s="101"/>
-      <c r="O22" s="101"/>
-      <c r="P22" s="101"/>
-      <c r="Q22" s="101"/>
-      <c r="R22" s="101"/>
-      <c r="S22" s="101"/>
-      <c r="T22" s="101">
+      <c r="N22" s="100"/>
+      <c r="O22" s="100"/>
+      <c r="P22" s="100"/>
+      <c r="Q22" s="100"/>
+      <c r="R22" s="100"/>
+      <c r="S22" s="100"/>
+      <c r="T22" s="100">
         <v>3</v>
       </c>
     </row>
@@ -13897,28 +14184,28 @@
       <c r="B23" s="4">
         <v>43901.625</v>
       </c>
-      <c r="C23" s="105" t="s">
+      <c r="C23" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="105"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="105"/>
-      <c r="H23" s="105"/>
-      <c r="I23" s="105"/>
-      <c r="J23" s="105"/>
-      <c r="K23" s="105"/>
-      <c r="L23" s="105"/>
-      <c r="M23" s="105">
+      <c r="D23" s="104"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="104"/>
+      <c r="H23" s="104"/>
+      <c r="I23" s="104"/>
+      <c r="J23" s="104"/>
+      <c r="K23" s="104"/>
+      <c r="L23" s="104"/>
+      <c r="M23" s="104">
         <v>1</v>
       </c>
-      <c r="N23" s="105"/>
-      <c r="O23" s="105"/>
-      <c r="P23" s="105"/>
-      <c r="Q23" s="105"/>
-      <c r="R23" s="105"/>
-      <c r="S23" s="105"/>
-      <c r="T23" s="105"/>
+      <c r="N23" s="104"/>
+      <c r="O23" s="104"/>
+      <c r="P23" s="104"/>
+      <c r="Q23" s="104"/>
+      <c r="R23" s="104"/>
+      <c r="S23" s="104"/>
+      <c r="T23" s="104"/>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="64">
@@ -13927,58 +14214,58 @@
       <c r="B24" s="4">
         <v>43902.625</v>
       </c>
-      <c r="C24" s="102" t="s">
+      <c r="C24" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="102">
+      <c r="D24" s="101">
         <v>454</v>
       </c>
-      <c r="E24" s="102">
+      <c r="E24" s="101">
         <v>500</v>
       </c>
-      <c r="F24" s="102">
+      <c r="F24" s="101">
         <v>137</v>
       </c>
-      <c r="G24" s="102">
+      <c r="G24" s="101">
         <v>30</v>
       </c>
-      <c r="H24" s="102">
+      <c r="H24" s="101">
         <v>38</v>
       </c>
-      <c r="I24" s="102">
+      <c r="I24" s="101">
         <v>88</v>
       </c>
-      <c r="J24" s="102">
+      <c r="J24" s="101">
         <v>99</v>
       </c>
-      <c r="K24" s="102">
+      <c r="K24" s="101">
         <v>23</v>
       </c>
-      <c r="L24" s="102">
+      <c r="L24" s="101">
         <v>129</v>
       </c>
-      <c r="M24" s="102">
+      <c r="M24" s="101">
         <v>688</v>
       </c>
-      <c r="N24" s="102">
+      <c r="N24" s="101">
         <v>52</v>
       </c>
-      <c r="O24" s="102">
+      <c r="O24" s="101">
         <v>14</v>
       </c>
-      <c r="P24" s="102">
+      <c r="P24" s="101">
         <v>45</v>
       </c>
-      <c r="Q24" s="102">
+      <c r="Q24" s="101">
         <v>27</v>
       </c>
-      <c r="R24" s="102">
+      <c r="R24" s="101">
         <v>31</v>
       </c>
-      <c r="S24" s="102">
+      <c r="S24" s="101">
         <v>14</v>
       </c>
-      <c r="T24" s="102">
+      <c r="T24" s="101">
         <v>2369</v>
       </c>
     </row>
@@ -13989,32 +14276,32 @@
       <c r="B25" s="4">
         <v>43902.625</v>
       </c>
-      <c r="C25" s="106" t="s">
+      <c r="C25" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="106">
+      <c r="D25" s="105">
         <v>1</v>
       </c>
-      <c r="E25" s="106">
+      <c r="E25" s="105">
         <v>1</v>
       </c>
-      <c r="F25" s="106"/>
-      <c r="G25" s="106"/>
-      <c r="H25" s="106"/>
-      <c r="I25" s="106"/>
-      <c r="J25" s="106"/>
-      <c r="K25" s="106"/>
-      <c r="L25" s="106"/>
-      <c r="M25" s="106">
+      <c r="F25" s="105"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="105"/>
+      <c r="I25" s="105"/>
+      <c r="J25" s="105"/>
+      <c r="K25" s="105"/>
+      <c r="L25" s="105"/>
+      <c r="M25" s="105">
         <v>3</v>
       </c>
-      <c r="N25" s="106"/>
-      <c r="O25" s="106"/>
-      <c r="P25" s="106"/>
-      <c r="Q25" s="106"/>
-      <c r="R25" s="106"/>
-      <c r="S25" s="106"/>
-      <c r="T25" s="106">
+      <c r="N25" s="105"/>
+      <c r="O25" s="105"/>
+      <c r="P25" s="105"/>
+      <c r="Q25" s="105"/>
+      <c r="R25" s="105"/>
+      <c r="S25" s="105"/>
+      <c r="T25" s="105">
         <v>5</v>
       </c>
     </row>
@@ -14025,58 +14312,58 @@
       <c r="B26" s="4">
         <v>43902.625</v>
       </c>
-      <c r="C26" s="106" t="s">
+      <c r="C26" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="106">
+      <c r="D26" s="105">
         <v>331</v>
       </c>
-      <c r="E26" s="106">
+      <c r="E26" s="105">
         <v>317</v>
       </c>
-      <c r="F26" s="106">
+      <c r="F26" s="105">
         <v>137</v>
       </c>
-      <c r="G26" s="106">
+      <c r="G26" s="105">
         <v>23</v>
       </c>
-      <c r="H26" s="106">
+      <c r="H26" s="105">
         <v>35</v>
       </c>
-      <c r="I26" s="106">
+      <c r="I26" s="105">
         <v>60</v>
       </c>
-      <c r="J26" s="106">
+      <c r="J26" s="105">
         <v>59</v>
       </c>
-      <c r="K26" s="106">
+      <c r="K26" s="105">
         <v>16</v>
       </c>
-      <c r="L26" s="106">
+      <c r="L26" s="105">
         <v>81</v>
       </c>
-      <c r="M26" s="106">
+      <c r="M26" s="105">
         <v>688</v>
       </c>
-      <c r="N26" s="106">
+      <c r="N26" s="105">
         <v>52</v>
       </c>
-      <c r="O26" s="106">
+      <c r="O26" s="105">
         <v>8</v>
       </c>
-      <c r="P26" s="106">
+      <c r="P26" s="105">
         <v>30</v>
       </c>
-      <c r="Q26" s="106">
+      <c r="Q26" s="105">
         <v>14</v>
       </c>
-      <c r="R26" s="106">
+      <c r="R26" s="105">
         <v>29</v>
       </c>
-      <c r="S26" s="106">
+      <c r="S26" s="105">
         <v>12</v>
       </c>
-      <c r="T26" s="106">
+      <c r="T26" s="105">
         <v>1892</v>
       </c>
     </row>
@@ -14087,30 +14374,30 @@
       <c r="B27" s="4">
         <v>43902.625</v>
       </c>
-      <c r="C27" s="106" t="s">
+      <c r="C27" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="106">
+      <c r="D27" s="105">
         <v>1</v>
       </c>
-      <c r="E27" s="106"/>
-      <c r="F27" s="106"/>
-      <c r="G27" s="106"/>
-      <c r="H27" s="106"/>
-      <c r="I27" s="106"/>
-      <c r="J27" s="106"/>
-      <c r="K27" s="106"/>
-      <c r="L27" s="106"/>
-      <c r="M27" s="106">
+      <c r="E27" s="105"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="105"/>
+      <c r="I27" s="105"/>
+      <c r="J27" s="105"/>
+      <c r="K27" s="105"/>
+      <c r="L27" s="105"/>
+      <c r="M27" s="105">
         <v>2</v>
       </c>
-      <c r="N27" s="106"/>
-      <c r="O27" s="106"/>
-      <c r="P27" s="106"/>
-      <c r="Q27" s="106"/>
-      <c r="R27" s="106"/>
-      <c r="S27" s="106"/>
-      <c r="T27" s="106">
+      <c r="N27" s="105"/>
+      <c r="O27" s="105"/>
+      <c r="P27" s="105"/>
+      <c r="Q27" s="105"/>
+      <c r="R27" s="105"/>
+      <c r="S27" s="105"/>
+      <c r="T27" s="105">
         <v>3</v>
       </c>
     </row>
@@ -14121,7 +14408,7 @@
       <c r="B28" s="4">
         <v>43903.625</v>
       </c>
-      <c r="C28" s="102" t="s">
+      <c r="C28" s="101" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="81">
@@ -14183,7 +14470,7 @@
       <c r="B29" s="4">
         <v>43903.625</v>
       </c>
-      <c r="C29" s="106" t="s">
+      <c r="C29" s="105" t="s">
         <v>19</v>
       </c>
       <c r="D29" s="81">
@@ -14219,7 +14506,7 @@
       <c r="B30" s="4">
         <v>43903.625</v>
       </c>
-      <c r="C30" s="106" t="s">
+      <c r="C30" s="105" t="s">
         <v>44</v>
       </c>
       <c r="D30" s="81">
@@ -14281,7 +14568,7 @@
       <c r="B31" s="4">
         <v>43903.625</v>
       </c>
-      <c r="C31" s="106" t="s">
+      <c r="C31" s="105" t="s">
         <v>43</v>
       </c>
       <c r="D31" s="81">
@@ -14315,7 +14602,7 @@
       <c r="B32" s="4">
         <v>43904.625</v>
       </c>
-      <c r="C32" s="102" t="s">
+      <c r="C32" s="101" t="s">
         <v>18</v>
       </c>
       <c r="D32" s="81">
@@ -14377,7 +14664,7 @@
       <c r="B33" s="4">
         <v>43904.625</v>
       </c>
-      <c r="C33" s="106" t="s">
+      <c r="C33" s="105" t="s">
         <v>19</v>
       </c>
       <c r="D33" s="81">
@@ -14413,7 +14700,7 @@
       <c r="B34" s="4">
         <v>43904.625</v>
       </c>
-      <c r="C34" s="106" t="s">
+      <c r="C34" s="105" t="s">
         <v>44</v>
       </c>
       <c r="D34" s="81">
@@ -14475,7 +14762,7 @@
       <c r="B35" s="4">
         <v>43904.625</v>
       </c>
-      <c r="C35" s="106" t="s">
+      <c r="C35" s="105" t="s">
         <v>43</v>
       </c>
       <c r="D35" s="81">
@@ -14511,7 +14798,7 @@
       <c r="B36" s="4">
         <v>43905.625</v>
       </c>
-      <c r="C36" s="102" t="s">
+      <c r="C36" s="101" t="s">
         <v>18</v>
       </c>
       <c r="D36" s="64">
@@ -14573,7 +14860,7 @@
       <c r="B37" s="4">
         <v>43905.625</v>
       </c>
-      <c r="C37" s="106" t="s">
+      <c r="C37" s="105" t="s">
         <v>19</v>
       </c>
       <c r="D37" s="64">
@@ -14609,7 +14896,7 @@
       <c r="B38" s="4">
         <v>43905.625</v>
       </c>
-      <c r="C38" s="106" t="s">
+      <c r="C38" s="105" t="s">
         <v>44</v>
       </c>
       <c r="D38" s="64">
@@ -14671,7 +14958,7 @@
       <c r="B39" s="4">
         <v>43905.625</v>
       </c>
-      <c r="C39" s="106" t="s">
+      <c r="C39" s="105" t="s">
         <v>43</v>
       </c>
       <c r="D39" s="64">
@@ -14707,7 +14994,7 @@
       <c r="B40" s="4">
         <v>43906.625</v>
       </c>
-      <c r="C40" s="102" t="s">
+      <c r="C40" s="101" t="s">
         <v>18</v>
       </c>
       <c r="D40" s="64">
@@ -14769,7 +15056,7 @@
       <c r="B41" s="4">
         <v>43906.625</v>
       </c>
-      <c r="C41" s="106" t="s">
+      <c r="C41" s="105" t="s">
         <v>19</v>
       </c>
       <c r="D41" s="64">
@@ -14805,7 +15092,7 @@
       <c r="B42" s="4">
         <v>43906.625</v>
       </c>
-      <c r="C42" s="106" t="s">
+      <c r="C42" s="105" t="s">
         <v>44</v>
       </c>
       <c r="D42" s="64">
@@ -14867,7 +15154,7 @@
       <c r="B43" s="4">
         <v>43906.625</v>
       </c>
-      <c r="C43" s="106" t="s">
+      <c r="C43" s="105" t="s">
         <v>43</v>
       </c>
       <c r="D43" s="64">
@@ -14903,7 +15190,7 @@
       <c r="B44" s="4">
         <v>43907.625</v>
       </c>
-      <c r="C44" s="106" t="s">
+      <c r="C44" s="105" t="s">
         <v>44</v>
       </c>
       <c r="D44" s="81">
@@ -14965,7 +15252,7 @@
       <c r="B45" s="4">
         <v>43907.625</v>
       </c>
-      <c r="C45" s="106" t="s">
+      <c r="C45" s="105" t="s">
         <v>43</v>
       </c>
       <c r="D45" s="81">
@@ -15017,6 +15304,130 @@
         <v>0</v>
       </c>
       <c r="T45" s="81">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20">
+      <c r="A46" s="64">
+        <v>19</v>
+      </c>
+      <c r="B46" s="109">
+        <v>43908</v>
+      </c>
+      <c r="C46" s="105" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" s="81">
+        <v>1609</v>
+      </c>
+      <c r="E46" s="81">
+        <v>1243</v>
+      </c>
+      <c r="F46" s="81">
+        <v>391</v>
+      </c>
+      <c r="G46" s="81">
+        <v>92</v>
+      </c>
+      <c r="H46" s="81">
+        <v>69</v>
+      </c>
+      <c r="I46" s="81">
+        <v>358</v>
+      </c>
+      <c r="J46" s="81">
+        <v>432</v>
+      </c>
+      <c r="K46" s="81">
+        <v>56</v>
+      </c>
+      <c r="L46" s="81">
+        <v>478</v>
+      </c>
+      <c r="M46" s="81">
+        <v>2372</v>
+      </c>
+      <c r="N46" s="81">
+        <v>474</v>
+      </c>
+      <c r="O46" s="81">
+        <v>88</v>
+      </c>
+      <c r="P46" s="81">
+        <v>198</v>
+      </c>
+      <c r="Q46" s="81">
+        <v>105</v>
+      </c>
+      <c r="R46" s="81">
+        <v>159</v>
+      </c>
+      <c r="S46" s="81">
+        <v>74</v>
+      </c>
+      <c r="T46" s="81">
+        <v>8198</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20">
+      <c r="A47" s="64">
+        <v>19</v>
+      </c>
+      <c r="B47" s="109">
+        <v>43908</v>
+      </c>
+      <c r="C47" s="105" t="s">
+        <v>43</v>
+      </c>
+      <c r="D47" s="81">
+        <v>2</v>
+      </c>
+      <c r="E47" s="81">
+        <v>4</v>
+      </c>
+      <c r="F47" s="81">
+        <v>0</v>
+      </c>
+      <c r="G47" s="81">
+        <v>0</v>
+      </c>
+      <c r="H47" s="81">
+        <v>0</v>
+      </c>
+      <c r="I47" s="81">
+        <v>0</v>
+      </c>
+      <c r="J47" s="81">
+        <v>0</v>
+      </c>
+      <c r="K47" s="81">
+        <v>0</v>
+      </c>
+      <c r="L47" s="81">
+        <v>0</v>
+      </c>
+      <c r="M47" s="81">
+        <v>6</v>
+      </c>
+      <c r="N47" s="81">
+        <v>0</v>
+      </c>
+      <c r="O47" s="81">
+        <v>0</v>
+      </c>
+      <c r="P47" s="81">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="81">
+        <v>0</v>
+      </c>
+      <c r="R47" s="81">
+        <v>0</v>
+      </c>
+      <c r="S47" s="81">
+        <v>0</v>
+      </c>
+      <c r="T47" s="81">
         <v>12</v>
       </c>
     </row>
@@ -15030,11 +15441,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{233E67D7-4FF2-D745-A107-DDC4CB6E1273}">
-  <dimension ref="A1:Z20"/>
+  <dimension ref="A1:Z21"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z4" sqref="Z4"/>
+      <selection pane="bottomLeft" activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -15055,7 +15466,7 @@
     <col min="26" max="26" width="120.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="31" customFormat="1" ht="106">
+    <row r="1" spans="1:26" s="31" customFormat="1" ht="105">
       <c r="A1" s="88" t="s">
         <v>40</v>
       </c>
@@ -15113,7 +15524,7 @@
       <c r="S1" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="100" t="s">
+      <c r="T1" s="99" t="s">
         <v>48</v>
       </c>
       <c r="U1" s="42" t="s">
@@ -15122,15 +15533,18 @@
       <c r="V1" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="W1" s="92" t="s">
+      <c r="W1" s="91" t="s">
         <v>107</v>
       </c>
       <c r="X1" s="40"/>
+      <c r="Y1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="89">
         <f t="shared" ref="A2:A17" si="0">A3-1</f>
-        <v>-18</v>
+        <v>-19</v>
       </c>
       <c r="B2" s="17">
         <v>43889.416666666664</v>
@@ -15166,14 +15580,12 @@
 "")</f>
         <v/>
       </c>
-      <c r="Y2" t="s">
-        <v>104</v>
-      </c>
+      <c r="Z2" s="111"/>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="89">
         <f t="shared" si="0"/>
-        <v>-17</v>
+        <v>-18</v>
       </c>
       <c r="B3" s="17">
         <v>43890.416666666664</v>
@@ -15211,21 +15623,21 @@
         <v>0.24528301886792453</v>
       </c>
       <c r="W3" s="90">
-        <f>guide_start*EXP(Table5[[#This Row],['#]]*(LN(2)/guide_doubling))</f>
-        <v>70.437461195685259</v>
+        <f>guide_start*EXP((Table5[[#This Row],[Date]]-date_last_DE_Total)*(LN(2)/guide_doubling))</f>
+        <v>70.519246946248558</v>
       </c>
       <c r="Y3" t="s">
         <v>105</v>
       </c>
       <c r="Z3" s="65">
         <f>last_DE_Total*0.5</f>
-        <v>3578</v>
+        <v>4099</v>
       </c>
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="89">
         <f t="shared" si="0"/>
-        <v>-16</v>
+        <v>-17</v>
       </c>
       <c r="B4" s="17">
         <v>43891.625</v>
@@ -15272,8 +15684,8 @@
         <v>0.78996865203603195</v>
       </c>
       <c r="W4" s="90">
-        <f>guide_start*EXP(Table5[[#This Row],['#]]*(LN(2)/guide_doubling))</f>
-        <v>88.745640061597172</v>
+        <f>guide_start*EXP((Table5[[#This Row],[Date]]-date_last_DE_Total)*(LN(2)/guide_doubling))</f>
+        <v>93.230037444845763</v>
       </c>
       <c r="Y4" t="s">
         <v>106</v>
@@ -15285,7 +15697,7 @@
     <row r="5" spans="1:26">
       <c r="A5" s="89">
         <f t="shared" si="0"/>
-        <v>-15</v>
+        <v>-16</v>
       </c>
       <c r="B5" s="17">
         <v>43892.625</v>
@@ -15335,14 +15747,14 @@
         <v>0.21705426356589147</v>
       </c>
       <c r="W5" s="90">
-        <f>guide_start*EXP(Table5[[#This Row],['#]]*(LN(2)/guide_doubling))</f>
-        <v>111.81250000000004</v>
+        <f>guide_start*EXP((Table5[[#This Row],[Date]]-date_last_DE_Total)*(LN(2)/guide_doubling))</f>
+        <v>117.46248665924838</v>
       </c>
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="89">
         <f t="shared" si="0"/>
-        <v>-14</v>
+        <v>-15</v>
       </c>
       <c r="B6" s="17">
         <v>43893.625</v>
@@ -15401,8 +15813,8 @@
         <v>0.24840764331210191</v>
       </c>
       <c r="W6" s="90">
-        <f>guide_start*EXP(Table5[[#This Row],['#]]*(LN(2)/guide_doubling))</f>
-        <v>140.87492239137055</v>
+        <f>guide_start*EXP((Table5[[#This Row],[Date]]-date_last_DE_Total)*(LN(2)/guide_doubling))</f>
+        <v>147.99345951498276</v>
       </c>
       <c r="Y6" t="s">
         <v>88</v>
@@ -15414,7 +15826,7 @@
     <row r="7" spans="1:26">
       <c r="A7" s="89">
         <f t="shared" si="0"/>
-        <v>-13</v>
+        <v>-14</v>
       </c>
       <c r="B7" s="17">
         <v>43894.625</v>
@@ -15479,14 +15891,14 @@
         <v>0.33673469387755101</v>
       </c>
       <c r="W7" s="90">
-        <f>guide_start*EXP(Table5[[#This Row],['#]]*(LN(2)/guide_doubling))</f>
-        <v>177.49128012319437</v>
+        <f>guide_start*EXP((Table5[[#This Row],[Date]]-date_last_DE_Total)*(LN(2)/guide_doubling))</f>
+        <v>186.46007488969144</v>
       </c>
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="89">
         <f t="shared" si="0"/>
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="B8" s="17">
         <v>43895.625</v>
@@ -15551,14 +15963,14 @@
         <v>0.52671755725190839</v>
       </c>
       <c r="W8" s="90">
-        <f>guide_start*EXP(Table5[[#This Row],['#]]*(LN(2)/guide_doubling))</f>
-        <v>223.625</v>
+        <f>guide_start*EXP((Table5[[#This Row],[Date]]-date_last_DE_Total)*(LN(2)/guide_doubling))</f>
+        <v>234.9249733184968</v>
       </c>
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="89">
         <f t="shared" si="0"/>
-        <v>-11</v>
+        <v>-12</v>
       </c>
       <c r="B9" s="17">
         <v>43896.625</v>
@@ -15624,14 +16036,14 @@
         <v>0.59750000000000003</v>
       </c>
       <c r="W9" s="90">
-        <f>guide_start*EXP(Table5[[#This Row],['#]]*(LN(2)/guide_doubling))</f>
-        <v>281.74984478274109</v>
+        <f>guide_start*EXP((Table5[[#This Row],[Date]]-date_last_DE_Total)*(LN(2)/guide_doubling))</f>
+        <v>295.98691902996546</v>
       </c>
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="89">
         <f t="shared" si="0"/>
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="B10" s="17">
         <v>43897.625</v>
@@ -15696,14 +16108,14 @@
         <v>0.24413145539906103</v>
       </c>
       <c r="W10" s="90">
-        <f>guide_start*EXP(Table5[[#This Row],['#]]*(LN(2)/guide_doubling))</f>
-        <v>354.98256024638863</v>
+        <f>guide_start*EXP((Table5[[#This Row],[Date]]-date_last_DE_Total)*(LN(2)/guide_doubling))</f>
+        <v>372.92014977938294</v>
       </c>
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="89">
         <f t="shared" si="0"/>
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="B11" s="17">
         <v>43898.625</v>
@@ -15768,14 +16180,14 @@
         <v>0.13459119496855346</v>
       </c>
       <c r="W11" s="90">
-        <f>guide_start*EXP(Table5[[#This Row],['#]]*(LN(2)/guide_doubling))</f>
-        <v>447.25000000000011</v>
+        <f>guide_start*EXP((Table5[[#This Row],[Date]]-date_last_DE_Total)*(LN(2)/guide_doubling))</f>
+        <v>469.84994663699342</v>
       </c>
     </row>
     <row r="12" spans="1:26">
       <c r="A12" s="89">
         <f t="shared" si="0"/>
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="B12" s="17">
         <v>43899.625</v>
@@ -15840,14 +16252,14 @@
         <v>0.26274944567627495</v>
       </c>
       <c r="W12" s="90">
-        <f>guide_start*EXP(Table5[[#This Row],['#]]*(LN(2)/guide_doubling))</f>
-        <v>563.49968956548219</v>
+        <f>guide_start*EXP((Table5[[#This Row],[Date]]-date_last_DE_Total)*(LN(2)/guide_doubling))</f>
+        <v>591.97383805993093</v>
       </c>
     </row>
     <row r="13" spans="1:26">
       <c r="A13" s="89">
         <f t="shared" si="0"/>
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="B13" s="17">
         <v>43900.625</v>
@@ -15915,14 +16327,14 @@
         <v>0.13784021071115013</v>
       </c>
       <c r="W13" s="90">
-        <f>guide_start*EXP(Table5[[#This Row],['#]]*(LN(2)/guide_doubling))</f>
-        <v>709.96512049277726</v>
+        <f>guide_start*EXP((Table5[[#This Row],[Date]]-date_last_DE_Total)*(LN(2)/guide_doubling))</f>
+        <v>745.84029955876576</v>
       </c>
     </row>
     <row r="14" spans="1:26">
       <c r="A14" s="89">
         <f t="shared" si="0"/>
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="B14" s="17">
         <v>43901.625</v>
@@ -15990,14 +16402,14 @@
         <v>0.20910493827160495</v>
       </c>
       <c r="W14" s="90">
-        <f>guide_start*EXP(Table5[[#This Row],['#]]*(LN(2)/guide_doubling))</f>
-        <v>894.5</v>
+        <f>guide_start*EXP((Table5[[#This Row],[Date]]-date_last_DE_Total)*(LN(2)/guide_doubling))</f>
+        <v>939.69989327398685</v>
       </c>
     </row>
     <row r="15" spans="1:26">
       <c r="A15" s="89">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="B15" s="18">
         <v>43902.625</v>
@@ -16064,16 +16476,16 @@
         <f t="shared" si="2"/>
         <v>0.51180599872367583</v>
       </c>
-      <c r="W15" s="91">
-        <f>guide_start*EXP(Table5[[#This Row],['#]]*(LN(2)/guide_doubling))</f>
-        <v>1126.9993791309641</v>
+      <c r="W15" s="90">
+        <f>guide_start*EXP((Table5[[#This Row],[Date]]-date_last_DE_Total)*(LN(2)/guide_doubling))</f>
+        <v>1183.9476761198616</v>
       </c>
       <c r="X15" s="48"/>
     </row>
     <row r="16" spans="1:26">
       <c r="A16" s="89">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="B16" s="18">
         <v>43903.625</v>
@@ -16142,16 +16554,16 @@
 "")</f>
         <v>0.29252849303503586</v>
       </c>
-      <c r="W16" s="91">
-        <f>guide_start*EXP(Table5[[#This Row],['#]]*(LN(2)/guide_doubling))</f>
-        <v>1419.9302409855545</v>
+      <c r="W16" s="90">
+        <f>guide_start*EXP((Table5[[#This Row],[Date]]-date_last_DE_Total)*(LN(2)/guide_doubling))</f>
+        <v>1491.6805991175318</v>
       </c>
       <c r="X16" s="48"/>
     </row>
     <row r="17" spans="1:23">
       <c r="A17" s="89">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="B17" s="18">
         <v>43904.625</v>
@@ -16220,71 +16632,71 @@
 "")</f>
         <v>0.23938602220770738</v>
       </c>
-      <c r="W17" s="91">
-        <f>guide_start*EXP(Table5[[#This Row],['#]]*(LN(2)/guide_doubling))</f>
-        <v>1789</v>
+      <c r="W17" s="90">
+        <f>guide_start*EXP((Table5[[#This Row],[Date]]-date_last_DE_Total)*(LN(2)/guide_doubling))</f>
+        <v>1879.3997865479737</v>
       </c>
     </row>
     <row r="18" spans="1:23">
       <c r="A18" s="89">
         <f>A19-1</f>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="B18" s="45">
         <v>43905.625</v>
       </c>
-      <c r="C18" s="94" t="s">
+      <c r="C18" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="95">
+      <c r="D18" s="94">
         <v>827</v>
       </c>
-      <c r="E18" s="95">
+      <c r="E18" s="94">
         <v>886</v>
       </c>
-      <c r="F18" s="95">
+      <c r="F18" s="94">
         <v>265</v>
       </c>
-      <c r="G18" s="95">
+      <c r="G18" s="94">
         <v>84</v>
       </c>
-      <c r="H18" s="95">
+      <c r="H18" s="94">
         <v>53</v>
       </c>
-      <c r="I18" s="95">
+      <c r="I18" s="94">
         <v>162</v>
       </c>
-      <c r="J18" s="95">
+      <c r="J18" s="94">
         <v>286</v>
       </c>
-      <c r="K18" s="95">
+      <c r="K18" s="94">
         <v>50</v>
       </c>
-      <c r="L18" s="95">
+      <c r="L18" s="94">
         <v>287</v>
       </c>
-      <c r="M18" s="95">
+      <c r="M18" s="94">
         <v>1407</v>
       </c>
-      <c r="N18" s="95">
+      <c r="N18" s="94">
         <v>168</v>
       </c>
-      <c r="O18" s="95">
+      <c r="O18" s="94">
         <v>32</v>
       </c>
-      <c r="P18" s="95">
+      <c r="P18" s="94">
         <v>130</v>
       </c>
-      <c r="Q18" s="95">
+      <c r="Q18" s="94">
         <v>47</v>
       </c>
-      <c r="R18" s="95">
+      <c r="R18" s="94">
         <v>103</v>
       </c>
-      <c r="S18" s="95">
+      <c r="S18" s="94">
         <v>51</v>
       </c>
-      <c r="T18" s="96">
+      <c r="T18" s="95">
         <v>4838</v>
       </c>
       <c r="U18" s="46">
@@ -16297,20 +16709,20 @@
 "")</f>
         <v>0.2748353096179183</v>
       </c>
-      <c r="W18" s="91">
-        <f>guide_start*EXP(Table5[[#This Row],['#]]*(LN(2)/guide_doubling))</f>
-        <v>2253.9987582619283</v>
+      <c r="W18" s="90">
+        <f>guide_start*EXP((Table5[[#This Row],[Date]]-date_last_DE_Total)*(LN(2)/guide_doubling))</f>
+        <v>2367.8953522397237</v>
       </c>
     </row>
     <row r="19" spans="1:23">
       <c r="A19" s="89">
         <f>A20-1</f>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="B19" s="45">
         <v>43906.625</v>
       </c>
-      <c r="C19" s="102" t="s">
+      <c r="C19" s="101" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="64">
@@ -16374,19 +16786,20 @@
 "")</f>
         <v>0.24266225713104589</v>
       </c>
-      <c r="W19" s="91">
-        <f>guide_start*EXP(Table5[[#This Row],['#]]*(LN(2)/guide_doubling))</f>
-        <v>2839.860481971109</v>
+      <c r="W19" s="90">
+        <f>guide_start*EXP((Table5[[#This Row],[Date]]-date_last_DE_Total)*(LN(2)/guide_doubling))</f>
+        <v>2983.3611982350631</v>
       </c>
     </row>
     <row r="20" spans="1:23">
       <c r="A20" s="89">
-        <v>0</v>
+        <f>A21-1</f>
+        <v>-1</v>
       </c>
       <c r="B20" s="45">
         <v>43907.625</v>
       </c>
-      <c r="C20" s="94" t="s">
+      <c r="C20" s="93" t="s">
         <v>110</v>
       </c>
       <c r="D20" s="81">
@@ -16450,9 +16863,85 @@
 "")</f>
         <v>0.19028609447771125</v>
       </c>
-      <c r="W20" s="91">
-        <f>guide_start*EXP(Table5[[#This Row],['#]]*(LN(2)/guide_doubling))</f>
-        <v>3578</v>
+      <c r="W20" s="90">
+        <f>guide_start*EXP((Table5[[#This Row],[Date]]-date_last_DE_Total)*(LN(2)/guide_doubling))</f>
+        <v>3758.7995730959474</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="110">
+        <v>0</v>
+      </c>
+      <c r="B21" s="45">
+        <v>43908</v>
+      </c>
+      <c r="C21" s="93" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="63">
+        <v>1609</v>
+      </c>
+      <c r="E21" s="63">
+        <v>1243</v>
+      </c>
+      <c r="F21" s="63">
+        <v>391</v>
+      </c>
+      <c r="G21" s="63">
+        <v>92</v>
+      </c>
+      <c r="H21" s="63">
+        <v>69</v>
+      </c>
+      <c r="I21" s="63">
+        <v>358</v>
+      </c>
+      <c r="J21" s="63">
+        <v>432</v>
+      </c>
+      <c r="K21" s="63">
+        <v>56</v>
+      </c>
+      <c r="L21" s="63">
+        <v>478</v>
+      </c>
+      <c r="M21" s="63">
+        <v>2372</v>
+      </c>
+      <c r="N21" s="63">
+        <v>474</v>
+      </c>
+      <c r="O21" s="63">
+        <v>88</v>
+      </c>
+      <c r="P21" s="63">
+        <v>198</v>
+      </c>
+      <c r="Q21" s="63">
+        <v>105</v>
+      </c>
+      <c r="R21" s="63">
+        <v>159</v>
+      </c>
+      <c r="S21" s="63">
+        <v>74</v>
+      </c>
+      <c r="T21" s="63">
+        <v>8198</v>
+      </c>
+      <c r="U21" s="46">
+        <f>IF(ISNUMBER(T20),T21-T20,"")</f>
+        <v>1042</v>
+      </c>
+      <c r="V21" s="47">
+        <f>IF(ISNUMBER(T20),
+((T21-T20)/T20)/(B21-B20),
+"")</f>
+        <v>0.38829886342463205</v>
+      </c>
+      <c r="W21" s="90">
+        <f>guide_start*EXP((Table5[[#This Row],[Date]]-date_last_DE_Total)*(LN(2)/guide_doubling))</f>
+        <v>4099</v>
       </c>
     </row>
   </sheetData>
@@ -16467,11 +16956,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D35575D0-0A0E-6E43-9D76-74E38D2BC332}">
-  <dimension ref="A1:V20"/>
+  <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S2" sqref="S2"/>
+      <selection pane="bottomLeft" activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -16558,7 +17047,7 @@
     <row r="2" spans="1:22">
       <c r="A2" s="36">
         <f>Cases!A2</f>
-        <v>-18</v>
+        <v>-19</v>
       </c>
       <c r="B2" s="28">
         <f>Cases!B2</f>
@@ -16676,7 +17165,7 @@
     <row r="3" spans="1:22">
       <c r="A3" s="37">
         <f>Cases!A3</f>
-        <v>-17</v>
+        <v>-18</v>
       </c>
       <c r="B3" s="28">
         <f>Cases!B3</f>
@@ -16788,7 +17277,7 @@
     <row r="4" spans="1:22">
       <c r="A4" s="37">
         <f>Cases!A4</f>
-        <v>-16</v>
+        <v>-17</v>
       </c>
       <c r="B4" s="28">
         <f>Cases!B4</f>
@@ -16900,7 +17389,7 @@
     <row r="5" spans="1:22">
       <c r="A5" s="37">
         <f>Cases!A5</f>
-        <v>-15</v>
+        <v>-16</v>
       </c>
       <c r="B5" s="28">
         <f>Cases!B5</f>
@@ -17012,7 +17501,7 @@
     <row r="6" spans="1:22">
       <c r="A6" s="37">
         <f>Cases!A6</f>
-        <v>-14</v>
+        <v>-15</v>
       </c>
       <c r="B6" s="28">
         <f>Cases!B6</f>
@@ -17124,7 +17613,7 @@
     <row r="7" spans="1:22">
       <c r="A7" s="37">
         <f>Cases!A7</f>
-        <v>-13</v>
+        <v>-14</v>
       </c>
       <c r="B7" s="28">
         <f>Cases!B7</f>
@@ -17236,7 +17725,7 @@
     <row r="8" spans="1:22">
       <c r="A8" s="37">
         <f>Cases!A8</f>
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="B8" s="28">
         <f>Cases!B8</f>
@@ -17348,7 +17837,7 @@
     <row r="9" spans="1:22">
       <c r="A9" s="37">
         <f>Cases!A9</f>
-        <v>-11</v>
+        <v>-12</v>
       </c>
       <c r="B9" s="28">
         <f>Cases!B9</f>
@@ -17460,7 +17949,7 @@
     <row r="10" spans="1:22">
       <c r="A10" s="37">
         <f>Cases!A10</f>
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="B10" s="28">
         <f>Cases!B10</f>
@@ -17572,7 +18061,7 @@
     <row r="11" spans="1:22">
       <c r="A11" s="37">
         <f>Cases!A11</f>
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="B11" s="28">
         <f>Cases!B11</f>
@@ -17684,7 +18173,7 @@
     <row r="12" spans="1:22">
       <c r="A12" s="37">
         <f>Cases!A12</f>
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="B12" s="28">
         <f>Cases!B12</f>
@@ -17796,7 +18285,7 @@
     <row r="13" spans="1:22">
       <c r="A13" s="37">
         <f>Cases!A13</f>
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="B13" s="28">
         <f>Cases!B13</f>
@@ -17908,7 +18397,7 @@
     <row r="14" spans="1:22">
       <c r="A14" s="37">
         <f>Cases!A14</f>
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="B14" s="28">
         <f>Cases!B14</f>
@@ -18020,7 +18509,7 @@
     <row r="15" spans="1:22">
       <c r="A15" s="49">
         <f>Cases!A15</f>
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="B15" s="50">
         <f>Cases!B15</f>
@@ -18132,7 +18621,7 @@
     <row r="16" spans="1:22">
       <c r="A16" s="36">
         <f>Cases!A16</f>
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="B16" s="28">
         <f>Cases!B16</f>
@@ -18244,7 +18733,7 @@
     <row r="17" spans="1:19">
       <c r="A17" s="49">
         <f>Cases!A17</f>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="B17" s="50">
         <f>Cases!B17</f>
@@ -18356,7 +18845,7 @@
     <row r="18" spans="1:19">
       <c r="A18" s="49">
         <f>Cases!A18</f>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="B18" s="50">
         <f>Cases!B18</f>
@@ -18468,7 +18957,7 @@
     <row r="19" spans="1:19">
       <c r="A19" s="49">
         <f>Cases!A19</f>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="B19" s="50">
         <f>Cases!B19</f>
@@ -18580,7 +19069,7 @@
     <row r="20" spans="1:19">
       <c r="A20" s="49">
         <f>Cases!A20</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B20" s="50">
         <f>Cases!B20</f>
@@ -18689,8 +19178,120 @@
         <v>0.19028609447771125</v>
       </c>
     </row>
+    <row r="21" spans="1:19">
+      <c r="A21" s="49">
+        <f>Cases!A21</f>
+        <v>0</v>
+      </c>
+      <c r="B21" s="50">
+        <f>Cases!B21</f>
+        <v>43908</v>
+      </c>
+      <c r="C21" s="51">
+        <f>IF(AND(ISNUMBER(Cases!D20),Cases!D20&gt;min_number),
+((Cases!D21-Cases!D20)/Cases!D20)/(Cases!$B21-Cases!$B20),
+"")</f>
+        <v>0.23439260761775974</v>
+      </c>
+      <c r="D21" s="51">
+        <f>IF(AND(ISNUMBER(Cases!E20),Cases!E20&gt;min_number),
+((Cases!E21-Cases!E20)/Cases!E20)/(Cases!$B21-Cases!$B20),
+"")</f>
+        <v>0.32221220318605354</v>
+      </c>
+      <c r="E21" s="51">
+        <f>IF(AND(ISNUMBER(Cases!F20),Cases!F20&gt;min_number),
+((Cases!F21-Cases!F20)/Cases!F20)/(Cases!$B21-Cases!$B20),
+"")</f>
+        <v>0.35555555555555557</v>
+      </c>
+      <c r="F21" s="51">
+        <f>IF(AND(ISNUMBER(Cases!G20),Cases!G20&gt;min_number),
+((Cases!G21-Cases!G20)/Cases!G20)/(Cases!$B21-Cases!$B20),
+"")</f>
+        <v>0.69406392694063923</v>
+      </c>
+      <c r="G21" s="51">
+        <f>IF(AND(ISNUMBER(Cases!H20),Cases!H20&gt;min_number),
+((Cases!H21-Cases!H20)/Cases!H20)/(Cases!$B21-Cases!$B20),
+"")</f>
+        <v>0.56140350877192979</v>
+      </c>
+      <c r="H21" s="51">
+        <f>IF(AND(ISNUMBER(Cases!I20),Cases!I20&gt;min_number),
+((Cases!I21-Cases!I20)/Cases!I20)/(Cases!$B21-Cases!$B20),
+"")</f>
+        <v>0.41290322580645161</v>
+      </c>
+      <c r="I21" s="51">
+        <f>IF(AND(ISNUMBER(Cases!J20),Cases!J20&gt;min_number),
+((Cases!J21-Cases!J20)/Cases!J20)/(Cases!$B21-Cases!$B20),
+"")</f>
+        <v>0.42180518319928506</v>
+      </c>
+      <c r="J21" s="51">
+        <f>IF(AND(ISNUMBER(Cases!K20),Cases!K20&gt;min_number),
+((Cases!K21-Cases!K20)/Cases!K20)/(Cases!$B21-Cases!$B20),
+"")</f>
+        <v>0.65185185185185179</v>
+      </c>
+      <c r="K21" s="51">
+        <f>IF(AND(ISNUMBER(Cases!L20),Cases!L20&gt;min_number),
+((Cases!L21-Cases!L20)/Cases!L20)/(Cases!$B21-Cases!$B20),
+"")</f>
+        <v>1.2553846153846153</v>
+      </c>
+      <c r="L21" s="51">
+        <f>IF(AND(ISNUMBER(Cases!M20),Cases!M20&gt;min_number),
+((Cases!M21-Cases!M20)/Cases!M20)/(Cases!$B21-Cases!$B20),
+"")</f>
+        <v>0.33824228028503561</v>
+      </c>
+      <c r="M21" s="51">
+        <f>IF(AND(ISNUMBER(Cases!N20),Cases!N20&gt;min_number),
+((Cases!N21-Cases!N20)/Cases!N20)/(Cases!$B21-Cases!$B20),
+"")</f>
+        <v>0.19306184012066366</v>
+      </c>
+      <c r="N21" s="51">
+        <f>IF(AND(ISNUMBER(Cases!O20),Cases!O20&gt;min_number),
+((Cases!O21-Cases!O20)/Cases!O20)/(Cases!$B21-Cases!$B20),
+"")</f>
+        <v>0.46222222222222226</v>
+      </c>
+      <c r="O21" s="51">
+        <f>IF(AND(ISNUMBER(Cases!P20),Cases!P20&gt;min_number),
+((Cases!P21-Cases!P20)/Cases!P20)/(Cases!$B21-Cases!$B20),
+"")</f>
+        <v>0.23443223443223446</v>
+      </c>
+      <c r="P21" s="51">
+        <f>IF(AND(ISNUMBER(Cases!Q20),Cases!Q20&gt;min_number),
+((Cases!Q21-Cases!Q20)/Cases!Q20)/(Cases!$B21-Cases!$B20),
+"")</f>
+        <v>2.1609195402298851</v>
+      </c>
+      <c r="Q21" s="51">
+        <f>IF(AND(ISNUMBER(Cases!R20),Cases!R20&gt;min_number),
+((Cases!R21-Cases!R20)/Cases!R20)/(Cases!$B21-Cases!$B20),
+"")</f>
+        <v>0.67191601049868765</v>
+      </c>
+      <c r="R21" s="51">
+        <f>IF(AND(ISNUMBER(Cases!S20),Cases!S20&gt;min_number),
+((Cases!S21-Cases!S20)/Cases!S20)/(Cases!$B21-Cases!$B20),
+"")</f>
+        <v>1.2026143790849673</v>
+      </c>
+      <c r="S21" s="52">
+        <f>IF(AND(ISNUMBER(Cases!T20),Cases!T20&gt;min_number),
+((Cases!T21-Cases!T20)/Cases!T20)/(Cases!$B21-Cases!$B20),
+"")</f>
+        <v>0.38829886342463205</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:S20">
+  <conditionalFormatting sqref="C2:S21">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -18712,7 +19313,7 @@
   <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -18735,7 +19336,7 @@
       </c>
       <c r="B1" s="75"/>
       <c r="C1" s="16"/>
-      <c r="D1" s="97"/>
+      <c r="D1" s="96"/>
       <c r="E1" s="71"/>
       <c r="F1" s="71"/>
       <c r="G1" s="71"/>
@@ -18761,7 +19362,7 @@
       </c>
       <c r="I2" s="79" t="str">
         <f>"Infektionen gesamt und pro 1 Millionen Einwohner, "&amp;TEXT(C3,"TT.MM.JJJJ")</f>
-        <v>Infektionen gesamt und pro 1 Millionen Einwohner, 17.03.2020</v>
+        <v>Infektionen gesamt und pro 1 Millionen Einwohner, 18.03.2020</v>
       </c>
       <c r="U2" s="41"/>
       <c r="V2" s="14"/>
@@ -18770,7 +19371,7 @@
     <row r="3" spans="1:23">
       <c r="C3" s="78">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!B2:B9998)),Cases!B2:B9998)</f>
-        <v>43907.625</v>
+        <v>43908</v>
       </c>
       <c r="U3" s="41"/>
       <c r="V3" s="14"/>
@@ -18784,7 +19385,7 @@
       <c r="C4" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="98" t="s">
+      <c r="D4" s="97" t="s">
         <v>90</v>
       </c>
       <c r="E4" s="77" t="s">
@@ -18804,15 +19405,15 @@
       </c>
       <c r="C5" s="66">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!D2:D9998)),Cases!D2:D9998)</f>
-        <v>1479</v>
-      </c>
-      <c r="D5" s="99">
+        <v>1609</v>
+      </c>
+      <c r="D5" s="98">
         <f>last_BW/pop_BW*per_pop_scale</f>
-        <v>133.61037083879128</v>
+        <v>145.35435204842133</v>
       </c>
       <c r="E5" s="41">
         <f>$D$21</f>
-        <v>86.196927939560965</v>
+        <v>98.748241370670883</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -18824,15 +19425,15 @@
       </c>
       <c r="C6" s="66">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!E2:E9998)),Cases!E2:E9998)</f>
-        <v>1109</v>
-      </c>
-      <c r="D6" s="99">
+        <v>1243</v>
+      </c>
+      <c r="D6" s="98">
         <f>last_BY/pop_BY*per_pop_scale</f>
-        <v>84.807329066201717</v>
+        <v>95.05456269548128</v>
       </c>
       <c r="E6" s="41">
         <f t="shared" ref="E6:E20" si="0">$D$21</f>
-        <v>86.196927939560965</v>
+        <v>98.748241370670883</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -18844,15 +19445,15 @@
       </c>
       <c r="C7" s="66">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!F2:F9998)),Cases!F2:F9998)</f>
-        <v>345</v>
-      </c>
-      <c r="D7" s="99">
+        <v>391</v>
+      </c>
+      <c r="D7" s="98">
         <f>last_BE/pop_BE*per_pop_scale</f>
-        <v>94.655399473222133</v>
+        <v>107.27611940298507</v>
       </c>
       <c r="E7" s="41">
         <f t="shared" si="0"/>
-        <v>86.196927939560965</v>
+        <v>98.748241370670883</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -18864,15 +19465,15 @@
       </c>
       <c r="C8" s="66">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!G2:G9998)),Cases!G2:G9998)</f>
-        <v>73</v>
-      </c>
-      <c r="D8" s="99">
+        <v>92</v>
+      </c>
+      <c r="D8" s="98">
         <f>last_BB/pop_BB*per_pop_scale</f>
-        <v>29.061666467614156</v>
+        <v>36.625661849595922</v>
       </c>
       <c r="E8" s="41">
         <f t="shared" si="0"/>
-        <v>86.196927939560965</v>
+        <v>98.748241370670883</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -18884,15 +19485,15 @@
       </c>
       <c r="C9" s="66">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!H2:H9998)),Cases!H2:H9998)</f>
-        <v>57</v>
-      </c>
-      <c r="D9" s="99">
+        <v>69</v>
+      </c>
+      <c r="D9" s="98">
         <f>last_HB/pop_HB*per_pop_scale</f>
-        <v>83.455344070278187</v>
+        <v>101.02489019033675</v>
       </c>
       <c r="E9" s="41">
         <f t="shared" si="0"/>
-        <v>86.196927939560965</v>
+        <v>98.748241370670883</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -18904,15 +19505,15 @@
       </c>
       <c r="C10" s="66">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!I2:I9998)),Cases!I2:I9998)</f>
-        <v>310</v>
-      </c>
-      <c r="D10" s="99">
+        <v>358</v>
+      </c>
+      <c r="D10" s="98">
         <f>last_HH/pop_HH*per_pop_scale</f>
-        <v>168.36845535520314</v>
+        <v>194.43840973278299</v>
       </c>
       <c r="E10" s="41">
         <f t="shared" si="0"/>
-        <v>86.196927939560965</v>
+        <v>98.748241370670883</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -18924,15 +19525,15 @@
       </c>
       <c r="C11" s="66">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!J2:J9998)),Cases!J2:J9998)</f>
-        <v>373</v>
-      </c>
-      <c r="D11" s="99">
+        <v>432</v>
+      </c>
+      <c r="D11" s="98">
         <f>last_HE/pop_HE*per_pop_scale</f>
-        <v>59.529509400236208</v>
+        <v>68.945705257110021</v>
       </c>
       <c r="E11" s="41">
         <f t="shared" si="0"/>
-        <v>86.196927939560965</v>
+        <v>98.748241370670883</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="34">
@@ -18944,15 +19545,15 @@
       </c>
       <c r="C12" s="66">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!K2:K9998)),Cases!K2:K9998)</f>
-        <v>45</v>
-      </c>
-      <c r="D12" s="99">
+        <v>56</v>
+      </c>
+      <c r="D12" s="98">
         <f>last_MV/pop_MV*per_pop_scale</f>
-        <v>27.955519662048829</v>
+        <v>34.789091134994095</v>
       </c>
       <c r="E12" s="41">
         <f t="shared" si="0"/>
-        <v>86.196927939560965</v>
+        <v>98.748241370670883</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -18964,15 +19565,15 @@
       </c>
       <c r="C13" s="66">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!L2:L9998)),Cases!L2:L9998)</f>
-        <v>325</v>
-      </c>
-      <c r="D13" s="99">
+        <v>478</v>
+      </c>
+      <c r="D13" s="98">
         <f>last_NI/pop_NI*per_pop_scale</f>
-        <v>40.714572058528766</v>
+        <v>59.88173982762077</v>
       </c>
       <c r="E13" s="41">
         <f t="shared" si="0"/>
-        <v>86.196927939560965</v>
+        <v>98.748241370670883</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="34">
@@ -18984,15 +19585,15 @@
       </c>
       <c r="C14" s="66">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!M2:M9998)),Cases!M2:M9998)</f>
-        <v>2105</v>
-      </c>
-      <c r="D14" s="99">
+        <v>2372</v>
+      </c>
+      <c r="D14" s="98">
         <f>last_NW/pop_NW*per_pop_scale</f>
-        <v>117.38332766398813</v>
+        <v>132.27232932018046</v>
       </c>
       <c r="E14" s="41">
         <f t="shared" si="0"/>
-        <v>86.196927939560965</v>
+        <v>98.748241370670883</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="34">
@@ -19004,15 +19605,15 @@
       </c>
       <c r="C15" s="66">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!N2:N9998)),Cases!N2:N9998)</f>
-        <v>442</v>
-      </c>
-      <c r="D15" s="99">
+        <v>474</v>
+      </c>
+      <c r="D15" s="98">
         <f>last_RP/pop_RP*per_pop_scale</f>
-        <v>108.2060321190756</v>
+        <v>116.03995299647474</v>
       </c>
       <c r="E15" s="41">
         <f t="shared" si="0"/>
-        <v>86.196927939560965</v>
+        <v>98.748241370670883</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -19024,15 +19625,15 @@
       </c>
       <c r="C16" s="66">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!O2:O9998)),Cases!O2:O9998)</f>
-        <v>75</v>
-      </c>
-      <c r="D16" s="99">
+        <v>88</v>
+      </c>
+      <c r="D16" s="98">
         <f>last_SL/pop_SL*per_pop_scale</f>
-        <v>75.719333669863715</v>
+        <v>88.844018172640077</v>
       </c>
       <c r="E16" s="41">
         <f t="shared" si="0"/>
-        <v>86.196927939560965</v>
+        <v>98.748241370670883</v>
       </c>
       <c r="F16" s="71"/>
       <c r="G16" s="71"/>
@@ -19051,15 +19652,15 @@
       </c>
       <c r="C17" s="66">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!P2:P9998)),Cases!P2:P9998)</f>
-        <v>182</v>
-      </c>
-      <c r="D17" s="99">
+        <v>198</v>
+      </c>
+      <c r="D17" s="98">
         <f>last_SN/pop_SN*per_pop_scale</f>
-        <v>44.63081488020795</v>
+        <v>48.554403001544912</v>
       </c>
       <c r="E17" s="41">
         <f t="shared" si="0"/>
-        <v>86.196927939560965</v>
+        <v>98.748241370670883</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="34">
@@ -19071,15 +19672,15 @@
       </c>
       <c r="C18" s="66">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!Q2:Q9998)),Cases!Q2:Q9998)</f>
-        <v>58</v>
-      </c>
-      <c r="D18" s="99">
+        <v>105</v>
+      </c>
+      <c r="D18" s="98">
         <f>last_ST/pop_ST*per_pop_scale</f>
-        <v>26.264547389394554</v>
+        <v>47.54788751528325</v>
       </c>
       <c r="E18" s="41">
         <f t="shared" si="0"/>
-        <v>86.196927939560965</v>
+        <v>98.748241370670883</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="34">
@@ -19091,15 +19692,15 @@
       </c>
       <c r="C19" s="66">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!R2:R9998)),Cases!R2:R9998)</f>
-        <v>127</v>
-      </c>
-      <c r="D19" s="99">
+        <v>159</v>
+      </c>
+      <c r="D19" s="98">
         <f>last_SH/pop_SH*per_pop_scale</f>
-        <v>43.842993751510342</v>
+        <v>54.890047295197981</v>
       </c>
       <c r="E19" s="41">
         <f t="shared" si="0"/>
-        <v>86.196927939560965</v>
+        <v>98.748241370670883</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -19111,15 +19712,15 @@
       </c>
       <c r="C20" s="66">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!S2:S9998)),Cases!S2:S9998)</f>
-        <v>51</v>
-      </c>
-      <c r="D20" s="99">
+        <v>74</v>
+      </c>
+      <c r="D20" s="98">
         <f>last_TH/pop_TH*per_pop_scale</f>
-        <v>23.797302972329803</v>
+        <v>34.529419999066768</v>
       </c>
       <c r="E20" s="41">
         <f t="shared" si="0"/>
-        <v>86.196927939560965</v>
+        <v>98.748241370670883</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -19131,11 +19732,11 @@
       </c>
       <c r="C21" s="66">
         <f>LOOKUP(2,1/(ISNUMBER(Cases!T2:T9998)),Cases!T2:T9998)</f>
-        <v>7156</v>
-      </c>
-      <c r="D21" s="99">
+        <v>8198</v>
+      </c>
+      <c r="D21" s="98">
         <f>last_DE_Total/pop_DE_Total*per_pop_scale</f>
-        <v>86.196927939560965</v>
+        <v>98.748241370670883</v>
       </c>
     </row>
   </sheetData>
@@ -19449,7 +20050,7 @@
       </c>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="93">
+      <c r="A8" s="92">
         <v>16</v>
       </c>
       <c r="B8" s="60">
@@ -19485,13 +20086,13 @@
       </c>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="107">
+      <c r="A9" s="106">
         <v>17</v>
       </c>
       <c r="B9" s="60">
         <v>43906.625</v>
       </c>
-      <c r="C9" s="105" t="s">
+      <c r="C9" s="104" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="82">
